--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22005"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_95b\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{27AC732C-C2B2-4EF1-A074-FAFB9B28467D}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7EA37BF3-07CB-49B2-9B69-57340B82756B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="155">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -475,6 +475,24 @@
   </si>
   <si>
     <t>ASM Teen Lab project on coral stress boxes</t>
+  </si>
+  <si>
+    <t>https://www.nrcresearchpress.com/doi/full/10.1139/cjfas-2017-0530#.XUCc0-hKiUk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://link.springer.com/article/10.1007/s11160-019-09560-4 </t>
+  </si>
+  <si>
+    <t>Great Lakes Now filming of field work and Interview</t>
+  </si>
+  <si>
+    <t>5 field nights plus 1 day with Kentaro mussel sampling</t>
+  </si>
+  <si>
+    <t>https://wbbm780.radio.com/articles/dozens-fish-along-chicago-river-walk-third-annual-fishing-event</t>
+  </si>
+  <si>
+    <t>Chicago Fishes (Walked around and spoke to people about their catch or what is in the River and how the fish are doing)</t>
   </si>
 </sst>
 </file>
@@ -578,8 +596,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G134" totalsRowShown="0">
-  <autoFilter ref="A1:G134" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G140" totalsRowShown="0">
+  <autoFilter ref="A1:G140" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -893,9 +919,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -3473,6 +3499,117 @@
         <v>148</v>
       </c>
     </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1">
+        <v>43676.827951388892</v>
+      </c>
+      <c r="B135" t="s">
+        <v>111</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2">
+        <v>43647</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1">
+        <v>43676.874652777777</v>
+      </c>
+      <c r="B136" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="2">
+        <v>43617</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1">
+        <v>43679.866759259261</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" s="2">
+        <v>43655</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1">
+        <v>43679.868344907409</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="2">
+        <v>43677</v>
+      </c>
+      <c r="F138">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1">
+        <v>43689.569803240738</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="2">
+        <v>43686</v>
+      </c>
+      <c r="E139" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1">
+        <v>43689.570381944446</v>
+      </c>
+      <c r="B140" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="2">
+        <v>43686</v>
+      </c>
+      <c r="F140">
+        <v>200</v>
+      </c>
+      <c r="G140" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B25" r:id="rId1" xr:uid="{D0965E4A-512F-4566-BB87-AB64FE29E3FF}"/>
@@ -3482,10 +3619,12 @@
     <hyperlink ref="E73" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
     <hyperlink ref="E75" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
     <hyperlink ref="E74" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
+    <hyperlink ref="E135" r:id="rId8" location=".XUCc0-hKiUk" xr:uid="{D7DDA6FE-F45A-4868-A327-FCC83173B1B5}"/>
+    <hyperlink ref="E136" r:id="rId9" xr:uid="{1CCD8959-FDF6-4737-A90D-14BE445EE6C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7EA37BF3-07CB-49B2-9B69-57340B82756B}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F9AE7A8B-B779-4E26-A9E8-72684F44291E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="158">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -477,10 +477,11 @@
     <t>ASM Teen Lab project on coral stress boxes</t>
   </si>
   <si>
-    <t>https://www.nrcresearchpress.com/doi/full/10.1139/cjfas-2017-0530#.XUCc0-hKiUk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://link.springer.com/article/10.1007/s11160-019-09560-4 </t>
+    <t xml:space="preserve">J.L. Brooks, J.M. Chapman, A.N. Barkley, S.T. Kessel, N.E. Hussey, S.G. Hinch, D.A. Patterson, K.J. Hedges, S.J. Cooke, A.T. Fisk, S.H. Gruber, V.M. Nguyen (2019) Biotelemetry informing management: case studies exploring successful integration of biotelemetry data into fisheries and habitat management. Canadian Journal of Fisheries and Aquatic Sciences 76:1238-1252
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brownscombe, J.W., Lédée, E.J.I., Raby, G.D. et al. (2019) Conducting and interpreting fish telemetry studies: considerations for researchers and resource managers Rev Fish Biol Fisheries 29: 369. </t>
   </si>
   <si>
     <t>Great Lakes Now filming of field work and Interview</t>
@@ -493,6 +494,15 @@
   </si>
   <si>
     <t>Chicago Fishes (Walked around and spoke to people about their catch or what is in the River and how the fish are doing)</t>
+  </si>
+  <si>
+    <t>Mussel hunting with Ken</t>
+  </si>
+  <si>
+    <t>Leslie Herrera internship</t>
+  </si>
+  <si>
+    <t>Katie Parker internship</t>
   </si>
 </sst>
 </file>
@@ -567,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -577,6 +587,9 @@
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -596,8 +609,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G140" totalsRowShown="0">
-  <autoFilter ref="A1:G140" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G143" totalsRowShown="0">
+  <autoFilter ref="A1:G143" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -919,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3499,7 +3512,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" ht="14.25" customHeight="1">
       <c r="A135" s="1">
         <v>43676.827951388892</v>
       </c>
@@ -3512,7 +3525,7 @@
       <c r="D135" s="2">
         <v>43647</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="9" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3608,6 +3621,66 @@
       </c>
       <c r="G140" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1">
+        <v>43690.617384259262</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="2">
+        <v>43684</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1">
+        <v>43690.624560185184</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="2">
+        <v>43647</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1">
+        <v>43690.624791666669</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="2">
+        <v>43647</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3619,17 +3692,24 @@
     <hyperlink ref="E73" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
     <hyperlink ref="E75" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
     <hyperlink ref="E74" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
-    <hyperlink ref="E135" r:id="rId8" location=".XUCc0-hKiUk" xr:uid="{D7DDA6FE-F45A-4868-A327-FCC83173B1B5}"/>
-    <hyperlink ref="E136" r:id="rId9" xr:uid="{1CCD8959-FDF6-4737-A90D-14BE445EE6C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3863,15 +3943,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3882,11 +3953,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F9AE7A8B-B779-4E26-A9E8-72684F44291E}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8DC34E9-AED7-42FA-BECE-288D4804633C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="158">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -609,8 +609,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G143" totalsRowShown="0">
-  <autoFilter ref="A1:G143" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G145" totalsRowShown="0">
+  <autoFilter ref="A1:G145" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -932,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3681,6 +3681,46 @@
       </c>
       <c r="G143" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1">
+        <v>43634.724305555559</v>
+      </c>
+      <c r="B144" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="2">
+        <v>43564</v>
+      </c>
+      <c r="F144">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1">
+        <v>43634.724999999999</v>
+      </c>
+      <c r="B145" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="2">
+        <v>43565</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3701,15 +3741,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3943,6 +3974,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3953,11 +3993,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D8DC34E9-AED7-42FA-BECE-288D4804633C}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88475D2C-4EBB-4B70-B336-C57B217D639E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="160">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>Katie Parker internship</t>
+  </si>
+  <si>
+    <t>https://phys.org/news/2019-07-3m-collaborative-life.html</t>
+  </si>
+  <si>
+    <t>Press release on NSF Rules of Life grant to study coral epigenetics</t>
   </si>
 </sst>
 </file>
@@ -609,8 +615,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G145" totalsRowShown="0">
-  <autoFilter ref="A1:G145" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G146" totalsRowShown="0">
+  <autoFilter ref="A1:G146" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -932,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
       <selection activeCell="A146" sqref="A146:XFD146"/>
@@ -3721,6 +3727,26 @@
       </c>
       <c r="G145" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1">
+        <v>43698.886388888888</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" s="2">
+        <v>43670</v>
+      </c>
+      <c r="E146" t="s">
+        <v>158</v>
+      </c>
+      <c r="G146" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3975,6 +4001,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -3983,23 +4018,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22021"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88475D2C-4EBB-4B70-B336-C57B217D639E}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FCB86ADC-CBEE-4B58-A77C-101AFE68231F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,9 +481,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Brownscombe, J.W., Lédée, E.J.I., Raby, G.D. et al. (2019) Conducting and interpreting fish telemetry studies: considerations for researchers and resource managers Rev Fish Biol Fisheries 29: 369. </t>
-  </si>
-  <si>
     <t>Great Lakes Now filming of field work and Interview</t>
   </si>
   <si>
@@ -509,6 +506,9 @@
   </si>
   <si>
     <t>Press release on NSF Rules of Life grant to study coral epigenetics</t>
+  </si>
+  <si>
+    <t>UIUC invited seminar and meetings with faculty, grad students, and undergrads</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:XFD146"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3537,36 +3537,39 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>43676.874652777777</v>
+        <v>43679.866759259261</v>
       </c>
       <c r="B136" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
-        <v>43617</v>
-      </c>
-      <c r="E136" s="5" t="s">
+        <v>43655</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>43679.866759259261</v>
+        <v>43679.868344907409</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D137" s="2">
-        <v>43655</v>
+        <v>43677</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G137" t="s">
         <v>151</v>
@@ -3574,56 +3577,56 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>43679.868344907409</v>
+        <v>43689.569803240738</v>
       </c>
       <c r="B138" t="s">
         <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
-        <v>43677</v>
-      </c>
-      <c r="F138">
-        <v>6</v>
-      </c>
-      <c r="G138" t="s">
+        <v>43686</v>
+      </c>
+      <c r="E138" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>43689.569803240738</v>
+        <v>43689.570381944446</v>
       </c>
       <c r="B139" t="s">
         <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D139" s="2">
         <v>43686</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139">
+        <v>200</v>
+      </c>
+      <c r="G139" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>43689.570381944446</v>
+        <v>43690.617384259262</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D140" s="2">
-        <v>43686</v>
+        <v>43684</v>
       </c>
       <c r="F140">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G140" t="s">
         <v>154</v>
@@ -3631,16 +3634,16 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>43690.617384259262</v>
+        <v>43690.624560185184</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D141" s="2">
-        <v>43684</v>
+        <v>43647</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -3651,7 +3654,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
-        <v>43690.624560185184</v>
+        <v>43690.624791666669</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3671,27 +3674,27 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>43690.624791666669</v>
+        <v>43634.724305555559</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C143" t="s">
         <v>10</v>
       </c>
       <c r="D143" s="2">
-        <v>43647</v>
+        <v>43564</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G143" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>43634.724305555559</v>
+        <v>43634.724999999999</v>
       </c>
       <c r="B144" t="s">
         <v>77</v>
@@ -3700,50 +3703,50 @@
         <v>10</v>
       </c>
       <c r="D144" s="2">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="F144">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G144" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>43634.724999999999</v>
+        <v>43698.886388888888</v>
       </c>
       <c r="B145" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
-        <v>43565</v>
-      </c>
-      <c r="F145">
-        <v>19</v>
+        <v>43670</v>
+      </c>
+      <c r="E145" t="s">
+        <v>157</v>
       </c>
       <c r="G145" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>43698.886388888888</v>
+        <v>43706.023969907408</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D146" s="2">
-        <v>43670</v>
-      </c>
-      <c r="E146" t="s">
-        <v>158</v>
+        <v>43705</v>
+      </c>
+      <c r="F146">
+        <v>120</v>
       </c>
       <c r="G146" t="s">
         <v>159</v>
@@ -3767,6 +3770,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4000,7 +4012,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4009,23 +4021,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FCB86ADC-CBEE-4B58-A77C-101AFE68231F}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81353892-2C39-4298-8023-084A5A816787}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="164">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>UIUC invited seminar and meetings with faculty, grad students, and undergrads</t>
+  </si>
+  <si>
+    <t>Tap into Chicago River Guest Engagement event at Mousetrap Brewery. ~60 people registered for the event.</t>
+  </si>
+  <si>
+    <t>5 field nights sampling for larval fishes</t>
+  </si>
+  <si>
+    <t>http://greatlakesecho.org/2019/09/04/record-a-prized-catch-for-science-without-revealing-your-favorite-fishing-hole/</t>
+  </si>
+  <si>
+    <t>Interview led to an article being published</t>
   </si>
 </sst>
 </file>
@@ -615,8 +627,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G146" totalsRowShown="0">
-  <autoFilter ref="A1:G146" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G149" totalsRowShown="0">
+  <autoFilter ref="A1:G149" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -938,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
       <selection activeCell="A136" sqref="A136:XFD136"/>
@@ -3750,6 +3762,66 @@
       </c>
       <c r="G146" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1">
+        <v>43711.568495370368</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="2">
+        <v>43706</v>
+      </c>
+      <c r="F147">
+        <v>60</v>
+      </c>
+      <c r="G147" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1">
+        <v>43711.568831018521</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="2">
+        <v>43699</v>
+      </c>
+      <c r="F148">
+        <v>5</v>
+      </c>
+      <c r="G148" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="1">
+        <v>43712.710358796299</v>
+      </c>
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="2">
+        <v>43712</v>
+      </c>
+      <c r="E149" t="s">
+        <v>162</v>
+      </c>
+      <c r="G149" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81353892-2C39-4298-8023-084A5A816787}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63D31318-09E3-453D-B4B7-C79C653A642E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="168">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -521,6 +521,18 @@
   </si>
   <si>
     <t>Interview led to an article being published</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijppaw.2019.08.003</t>
+  </si>
+  <si>
+    <t>https://news.jrn.msu.edu/2019/09/record-a-prized-catch-for-science-without-revealing-your-favorite-fishing-hole/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t9bx1ZAR6Hg&amp;list=PL_P35GZcjx3Gg4Gdje1KI7RipZJBF5zU2&amp;index=3&amp;t=0s</t>
+  </si>
+  <si>
+    <t>video of my research and the kayak program https://www.youtube.com/watch?v=t9bx1ZAR6Hg&amp;list=PL_P35GZcjx3Gg4Gdje1KI7RipZJBF5zU2&amp;index=3&amp;t=0s</t>
   </si>
 </sst>
 </file>
@@ -627,15 +639,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G149" totalsRowShown="0">
-  <autoFilter ref="A1:G149" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G152" totalsRowShown="0">
+  <autoFilter ref="A1:G152" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ahappel@sheddaquarium.org"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
@@ -950,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:XFD136"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -990,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="1">
         <v>43537.01394675926</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="1">
         <v>43537.01525462963</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="1">
         <v>43537.015798611108</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="1">
         <v>43542.600381944445</v>
       </c>
@@ -1067,7 +1077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="1">
         <v>43542.600914351853</v>
       </c>
@@ -1187,7 +1197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="1">
         <v>43557.815960648149</v>
       </c>
@@ -1204,7 +1214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="1">
         <v>43557.818229166667</v>
       </c>
@@ -1221,7 +1231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="1">
         <v>43557.818668981483</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="1">
         <v>43557.83421296296</v>
       </c>
@@ -1255,7 +1265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="1">
         <v>43557.835231481484</v>
       </c>
@@ -1272,7 +1282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="1">
         <v>43557.835717592592</v>
       </c>
@@ -1289,7 +1299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="1">
         <v>43557.839965277781</v>
       </c>
@@ -1306,7 +1316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="1">
         <v>43557.84070601852</v>
       </c>
@@ -1323,7 +1333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="1">
         <v>43557.841168981482</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="1">
         <v>43557.841562499998</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="1">
         <v>43557.842476851853</v>
       </c>
@@ -1377,7 +1387,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="1">
         <v>43557.843009259261</v>
       </c>
@@ -1397,7 +1407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="1">
         <v>43557.857361111113</v>
       </c>
@@ -1417,7 +1427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="1">
         <v>43557.858043981483</v>
       </c>
@@ -1437,7 +1447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="1">
         <v>43557.858287037037</v>
       </c>
@@ -1457,7 +1467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="1">
         <v>43557.858773148146</v>
       </c>
@@ -1477,7 +1487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="1">
         <v>43558.596550925926</v>
       </c>
@@ -1497,7 +1507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="1">
         <v>43558.606712962966</v>
       </c>
@@ -1514,7 +1524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="1">
         <v>43558.608900462961</v>
       </c>
@@ -1534,7 +1544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="1">
         <v>43558.610011574077</v>
       </c>
@@ -1554,7 +1564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="1">
         <v>43558.610682870371</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="1">
         <v>43558.612858796296</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="1">
         <v>43558.61310185185</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="1">
         <v>43558.614201388889</v>
       </c>
@@ -1631,7 +1641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="1">
         <v>43558.61446759259</v>
       </c>
@@ -1651,7 +1661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="1">
         <v>43558.614675925928</v>
       </c>
@@ -1711,7 +1721,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="1">
         <v>43577.60497685185</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="1">
         <v>43577.605439814812</v>
       </c>
@@ -1751,7 +1761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="1">
         <v>43577.606180555558</v>
       </c>
@@ -1848,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="1">
         <v>43601.63795138889</v>
       </c>
@@ -1865,7 +1875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="1">
         <v>43601.640324074076</v>
       </c>
@@ -1965,7 +1975,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="1">
         <v>43615.901655092595</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="1">
         <v>43615.90315972222</v>
       </c>
@@ -1999,7 +2009,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="1">
         <v>43615.904120370367</v>
       </c>
@@ -2159,7 +2169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="1">
         <v>43634.718287037038</v>
       </c>
@@ -2176,7 +2186,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="1">
         <v>43634.720254629632</v>
       </c>
@@ -2196,7 +2206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="1">
         <v>43634.721018518518</v>
       </c>
@@ -2216,7 +2226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="1">
         <v>43634.721805555557</v>
       </c>
@@ -2236,7 +2246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="1">
         <v>43634.723275462966</v>
       </c>
@@ -2256,7 +2266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" s="1">
         <v>43634.723692129628</v>
       </c>
@@ -2273,7 +2283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="1">
         <v>43634.724907407406</v>
       </c>
@@ -2293,7 +2303,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="1">
         <v>43634.725289351853</v>
       </c>
@@ -2313,7 +2323,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="1">
         <v>43634.725937499999</v>
       </c>
@@ -2333,7 +2343,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="1">
         <v>43634.727546296293</v>
       </c>
@@ -2350,7 +2360,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="1">
         <v>43634.727939814817</v>
       </c>
@@ -2367,7 +2377,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="1">
         <v>43634.729467592595</v>
       </c>
@@ -2384,7 +2394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="1">
         <v>43634.730138888888</v>
       </c>
@@ -2401,7 +2411,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="1">
         <v>43634.730439814812</v>
       </c>
@@ -2418,7 +2428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="1">
         <v>43634.731608796297</v>
       </c>
@@ -2435,7 +2445,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="1">
         <v>43634.733263888891</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="1">
         <v>43634.733877314815</v>
       </c>
@@ -2475,7 +2485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="1">
         <v>43634.734479166669</v>
       </c>
@@ -2495,7 +2505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" s="1">
         <v>43634.735115740739</v>
       </c>
@@ -2535,7 +2545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="1">
         <v>43634.75577546296</v>
       </c>
@@ -2555,7 +2565,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" s="1">
         <v>43634.757048611114</v>
       </c>
@@ -2575,7 +2585,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="1">
         <v>43634.75818287037</v>
       </c>
@@ -2595,7 +2605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="1">
         <v>43634.764826388891</v>
       </c>
@@ -2612,7 +2622,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" s="1">
         <v>43634.769444444442</v>
       </c>
@@ -2635,7 +2645,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="1">
         <v>43634.771886574075</v>
       </c>
@@ -2655,7 +2665,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="1">
         <v>43634.77275462963</v>
       </c>
@@ -2675,7 +2685,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" s="1">
         <v>43634.775393518517</v>
       </c>
@@ -2695,7 +2705,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" s="1">
         <v>43634.775960648149</v>
       </c>
@@ -2715,7 +2725,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92" s="1">
         <v>43634.784085648149</v>
       </c>
@@ -2752,7 +2762,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" s="1">
         <v>43635.881273148145</v>
       </c>
@@ -2772,7 +2782,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" s="1">
         <v>43636.670393518521</v>
       </c>
@@ -2789,7 +2799,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96" s="1">
         <v>43636.671099537038</v>
       </c>
@@ -2806,7 +2816,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="1">
         <v>43636.6715625</v>
       </c>
@@ -2823,7 +2833,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" s="1">
         <v>43636.672824074078</v>
       </c>
@@ -2843,7 +2853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" s="1">
         <v>43636.673136574071</v>
       </c>
@@ -2863,7 +2873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" s="1">
         <v>43636.673981481479</v>
       </c>
@@ -2883,7 +2893,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" s="1">
         <v>43636.674953703703</v>
       </c>
@@ -2900,7 +2910,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" s="1">
         <v>43636.675393518519</v>
       </c>
@@ -2917,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -2957,7 +2967,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -2974,7 +2984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" s="1">
         <v>43637.12096064815</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="1">
         <v>43637.125092592592</v>
       </c>
@@ -3011,7 +3021,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" s="1">
         <v>43637.126643518517</v>
       </c>
@@ -3031,7 +3041,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" s="1">
         <v>43637.130104166667</v>
       </c>
@@ -3048,7 +3058,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" s="1">
         <v>43637.130798611113</v>
       </c>
@@ -3065,7 +3075,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" s="1">
         <v>43637.132118055553</v>
       </c>
@@ -3085,7 +3095,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" s="1">
         <v>43637.132731481484</v>
       </c>
@@ -3105,7 +3115,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" s="1">
         <v>43637.134652777779</v>
       </c>
@@ -3122,7 +3132,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" s="1">
         <v>43637.135844907411</v>
       </c>
@@ -3142,7 +3152,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" s="1">
         <v>43637.13658564815</v>
       </c>
@@ -3159,7 +3169,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116" s="1">
         <v>43637.138483796298</v>
       </c>
@@ -3179,7 +3189,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" s="1">
         <v>43637.140381944446</v>
       </c>
@@ -3199,7 +3209,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" s="1">
         <v>43637.14329861111</v>
       </c>
@@ -3239,7 +3249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120" s="6">
         <v>43637.14329861111</v>
       </c>
@@ -3259,7 +3269,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" s="6">
         <v>43643.14329861111</v>
       </c>
@@ -3299,7 +3309,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" s="1">
         <v>43648.765092592592</v>
       </c>
@@ -3316,7 +3326,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" s="1">
         <v>43648.768055555556</v>
       </c>
@@ -3336,7 +3346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" s="1">
         <v>43649.622928240744</v>
       </c>
@@ -3356,7 +3366,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" s="1">
         <v>43649.669988425929</v>
       </c>
@@ -3376,7 +3386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" s="1">
         <v>43649.675844907404</v>
       </c>
@@ -3393,7 +3403,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" s="1">
         <v>43649.67628472222</v>
       </c>
@@ -3413,7 +3423,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" s="1">
         <v>43651.648530092592</v>
       </c>
@@ -3433,7 +3443,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" s="1">
         <v>43654.638043981482</v>
       </c>
@@ -3450,7 +3460,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" s="1">
         <v>43654.639872685184</v>
       </c>
@@ -3510,7 +3520,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" s="1">
         <v>43671.60765046296</v>
       </c>
@@ -3530,7 +3540,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.25" customHeight="1">
+    <row r="135" spans="1:7" ht="14.25" hidden="1" customHeight="1">
       <c r="A135" s="1">
         <v>43676.827951388892</v>
       </c>
@@ -3624,7 +3634,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140" s="1">
         <v>43690.617384259262</v>
       </c>
@@ -3644,7 +3654,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" s="1">
         <v>43690.624560185184</v>
       </c>
@@ -3664,7 +3674,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" s="1">
         <v>43690.624791666669</v>
       </c>
@@ -3684,7 +3694,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" s="1">
         <v>43634.724305555559</v>
       </c>
@@ -3704,7 +3714,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" s="1">
         <v>43634.724999999999</v>
       </c>
@@ -3724,7 +3734,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" hidden="1">
       <c r="A145" s="1">
         <v>43698.886388888888</v>
       </c>
@@ -3744,7 +3754,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" hidden="1">
       <c r="A146" s="1">
         <v>43706.023969907408</v>
       </c>
@@ -3817,11 +3827,71 @@
       <c r="D149" s="2">
         <v>43712</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="5" t="s">
         <v>162</v>
       </c>
       <c r="G149" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1">
+        <v>43728.686550925922</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="2">
+        <v>43724</v>
+      </c>
+      <c r="E150" t="s">
+        <v>164</v>
+      </c>
+      <c r="G150" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1">
+        <v>43729.624016203707</v>
+      </c>
+      <c r="B151" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" s="2">
+        <v>43714</v>
+      </c>
+      <c r="E151" t="s">
+        <v>165</v>
+      </c>
+      <c r="G151" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1">
+        <v>43729.626122685186</v>
+      </c>
+      <c r="B152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" s="2">
+        <v>43726</v>
+      </c>
+      <c r="E152" t="s">
+        <v>166</v>
+      </c>
+      <c r="G152" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3833,10 +3903,11 @@
     <hyperlink ref="E73" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
     <hyperlink ref="E75" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
     <hyperlink ref="E74" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
+    <hyperlink ref="E149" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{63D31318-09E3-453D-B4B7-C79C653A642E}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16F06932-D7E5-445C-8933-4AB6E9353EDB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="170">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>video of my research and the kayak program https://www.youtube.com/watch?v=t9bx1ZAR6Hg&amp;list=PL_P35GZcjx3Gg4Gdje1KI7RipZJBF5zU2&amp;index=3&amp;t=0s</t>
+  </si>
+  <si>
+    <t>Coral spawning research at Cape Eleuthera Institute</t>
+  </si>
+  <si>
+    <t>SECORE workshop participants and CEI interns engaged in coral spawning research at CEI</t>
   </si>
 </sst>
 </file>
@@ -639,13 +645,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G152" totalsRowShown="0">
-  <autoFilter ref="A1:G152" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ahappel@sheddaquarium.org"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G154" totalsRowShown="0">
+  <autoFilter ref="A1:G154" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
@@ -960,9 +968,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
@@ -1000,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>43537.01394675926</v>
       </c>
@@ -1020,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>43537.01525462963</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>43537.015798611108</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>43542.600381944445</v>
       </c>
@@ -1077,7 +1085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>43542.600914351853</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>43557.815960648149</v>
       </c>
@@ -1214,7 +1222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>43557.818229166667</v>
       </c>
@@ -1231,7 +1239,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>43557.818668981483</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>43557.83421296296</v>
       </c>
@@ -1265,7 +1273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>43557.835231481484</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>43557.835717592592</v>
       </c>
@@ -1299,7 +1307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>43557.839965277781</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>43557.84070601852</v>
       </c>
@@ -1333,7 +1341,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>43557.841168981482</v>
       </c>
@@ -1350,7 +1358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>43557.841562499998</v>
       </c>
@@ -1367,7 +1375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>43557.842476851853</v>
       </c>
@@ -1387,7 +1395,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>43557.843009259261</v>
       </c>
@@ -1407,7 +1415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>43557.857361111113</v>
       </c>
@@ -1427,7 +1435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>43557.858043981483</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>43557.858287037037</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>43557.858773148146</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>43558.596550925926</v>
       </c>
@@ -1507,7 +1515,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>43558.606712962966</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>43558.608900462961</v>
       </c>
@@ -1544,7 +1552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>43558.610011574077</v>
       </c>
@@ -1564,7 +1572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>43558.610682870371</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>43558.612858796296</v>
       </c>
@@ -1601,7 +1609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>43558.61310185185</v>
       </c>
@@ -1621,7 +1629,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>43558.614201388889</v>
       </c>
@@ -1641,7 +1649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>43558.61446759259</v>
       </c>
@@ -1661,7 +1669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>43558.614675925928</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>43577.60497685185</v>
       </c>
@@ -1741,7 +1749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>43577.605439814812</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>43577.606180555558</v>
       </c>
@@ -1858,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>43601.63795138889</v>
       </c>
@@ -1875,7 +1883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>43601.640324074076</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>43615.901655092595</v>
       </c>
@@ -1992,7 +2000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>43615.90315972222</v>
       </c>
@@ -2009,7 +2017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>43615.904120370367</v>
       </c>
@@ -2169,7 +2177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>43634.718287037038</v>
       </c>
@@ -2186,7 +2194,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>43634.720254629632</v>
       </c>
@@ -2206,7 +2214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>43634.721018518518</v>
       </c>
@@ -2226,7 +2234,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>43634.721805555557</v>
       </c>
@@ -2246,7 +2254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>43634.723275462966</v>
       </c>
@@ -2266,7 +2274,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>43634.723692129628</v>
       </c>
@@ -2283,7 +2291,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>43634.724907407406</v>
       </c>
@@ -2303,7 +2311,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>43634.725289351853</v>
       </c>
@@ -2323,7 +2331,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>43634.725937499999</v>
       </c>
@@ -2343,7 +2351,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>43634.727546296293</v>
       </c>
@@ -2360,7 +2368,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>43634.727939814817</v>
       </c>
@@ -2377,7 +2385,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>43634.729467592595</v>
       </c>
@@ -2394,7 +2402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>43634.730138888888</v>
       </c>
@@ -2411,7 +2419,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>43634.730439814812</v>
       </c>
@@ -2428,7 +2436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>43634.731608796297</v>
       </c>
@@ -2445,7 +2453,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>43634.733263888891</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>43634.733877314815</v>
       </c>
@@ -2485,7 +2493,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>43634.734479166669</v>
       </c>
@@ -2505,7 +2513,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>43634.735115740739</v>
       </c>
@@ -2545,7 +2553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>43634.75577546296</v>
       </c>
@@ -2565,7 +2573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>43634.757048611114</v>
       </c>
@@ -2585,7 +2593,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>43634.75818287037</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>43634.764826388891</v>
       </c>
@@ -2622,7 +2630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>43634.769444444442</v>
       </c>
@@ -2645,7 +2653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>43634.771886574075</v>
       </c>
@@ -2665,7 +2673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>43634.77275462963</v>
       </c>
@@ -2685,7 +2693,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>43634.775393518517</v>
       </c>
@@ -2705,7 +2713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>43634.775960648149</v>
       </c>
@@ -2725,7 +2733,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>43634.784085648149</v>
       </c>
@@ -2762,7 +2770,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>43635.881273148145</v>
       </c>
@@ -2782,7 +2790,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>43636.670393518521</v>
       </c>
@@ -2799,7 +2807,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>43636.671099537038</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>43636.6715625</v>
       </c>
@@ -2833,7 +2841,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>43636.672824074078</v>
       </c>
@@ -2853,7 +2861,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>43636.673136574071</v>
       </c>
@@ -2873,7 +2881,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>43636.673981481479</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>43636.674953703703</v>
       </c>
@@ -2910,7 +2918,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>43636.675393518519</v>
       </c>
@@ -2927,7 +2935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -2947,7 +2955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -2967,7 +2975,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -2984,7 +2992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>43637.12096064815</v>
       </c>
@@ -3001,7 +3009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>43637.125092592592</v>
       </c>
@@ -3021,7 +3029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>43637.126643518517</v>
       </c>
@@ -3041,7 +3049,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>43637.130104166667</v>
       </c>
@@ -3058,7 +3066,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>43637.130798611113</v>
       </c>
@@ -3075,7 +3083,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>43637.132118055553</v>
       </c>
@@ -3095,7 +3103,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>43637.132731481484</v>
       </c>
@@ -3115,7 +3123,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>43637.134652777779</v>
       </c>
@@ -3132,7 +3140,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>43637.135844907411</v>
       </c>
@@ -3152,7 +3160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>43637.13658564815</v>
       </c>
@@ -3169,7 +3177,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>43637.138483796298</v>
       </c>
@@ -3189,7 +3197,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>43637.140381944446</v>
       </c>
@@ -3209,7 +3217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>43637.14329861111</v>
       </c>
@@ -3249,7 +3257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7">
       <c r="A120" s="6">
         <v>43637.14329861111</v>
       </c>
@@ -3269,7 +3277,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1">
+    <row r="121" spans="1:7">
       <c r="A121" s="6">
         <v>43643.14329861111</v>
       </c>
@@ -3309,7 +3317,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>43648.765092592592</v>
       </c>
@@ -3326,7 +3334,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>43648.768055555556</v>
       </c>
@@ -3346,7 +3354,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>43649.622928240744</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>43649.669988425929</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>43649.675844907404</v>
       </c>
@@ -3403,7 +3411,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>43649.67628472222</v>
       </c>
@@ -3423,7 +3431,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>43651.648530092592</v>
       </c>
@@ -3443,7 +3451,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>43654.638043981482</v>
       </c>
@@ -3460,7 +3468,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>43654.639872685184</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>43671.60765046296</v>
       </c>
@@ -3540,7 +3548,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.25" hidden="1" customHeight="1">
+    <row r="135" spans="1:7" ht="14.25" customHeight="1">
       <c r="A135" s="1">
         <v>43676.827951388892</v>
       </c>
@@ -3634,7 +3642,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>43690.617384259262</v>
       </c>
@@ -3654,7 +3662,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>43690.624560185184</v>
       </c>
@@ -3674,7 +3682,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>43690.624791666669</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>43634.724305555559</v>
       </c>
@@ -3714,7 +3722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>43634.724999999999</v>
       </c>
@@ -3734,7 +3742,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>43698.886388888888</v>
       </c>
@@ -3754,7 +3762,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>43706.023969907408</v>
       </c>
@@ -3892,6 +3900,46 @@
       </c>
       <c r="G152" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>43733.843854166669</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="2">
+        <v>43722</v>
+      </c>
+      <c r="F153">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>43733.844722222224</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="2">
+        <v>43726</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3913,12 +3961,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4156,16 +4204,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4173,5 +4221,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16F06932-D7E5-445C-8933-4AB6E9353EDB}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D298A6E8-1265-405F-A0D2-A535AD99EF96}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="188">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -539,6 +539,60 @@
   </si>
   <si>
     <t>SECORE workshop participants and CEI interns engaged in coral spawning research at CEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminar for seminar series at the University of Illinois </t>
+  </si>
+  <si>
+    <t>Grouper research trip to Berry Islands</t>
+  </si>
+  <si>
+    <t>Deep sea shark research trip</t>
+  </si>
+  <si>
+    <t>Participants on the deep sea shark research trip</t>
+  </si>
+  <si>
+    <t>Nippersink mussel sampling w Ken</t>
+  </si>
+  <si>
+    <t>Nippersink mussels with Ken</t>
+  </si>
+  <si>
+    <t>Larval Fish with Austin</t>
+  </si>
+  <si>
+    <t>Light trap with Austin</t>
+  </si>
+  <si>
+    <t>Trained volunteer Avery Wallace to analyze lobster video</t>
+  </si>
+  <si>
+    <t>Worked with intern Cam to analyze lobster video for 2 days</t>
+  </si>
+  <si>
+    <t>Lennox R.J., C. Paukert, K. Aarestrup, M. Auger-Methe, L. Baumgartner, K. Birnie-Gauvin, K. Bøe, K. Brink, J. Browncombe, Y Chen, J.G. Davidsen, E. Eliason, A. Filous, B. Gillanders, I. Helland, A. Horodysky, S.R. Januchowski-Hartley, S.K. Lowerre-Barbieri, M.C. Lucas, E. Martins, K.J. Murchie, P.S. Pompeu, M. Power, R. Raghavan, F.J. Rahel, D. Secor, J.D. Thiem, E.B. Thorstad, H. Ueda, F.G. Whoriskey, and S.J. Cooke. 2019.  One hundred pressing questions on the future of global fish migration science, conservation, and policy. Frontiers in Ecology and Evolution.  doi:10.3389/fevo.2019.00286</t>
+  </si>
+  <si>
+    <t>InFish 1 hr conference call</t>
+  </si>
+  <si>
+    <t>Lunchtime lecture series for Friends of the Chicago River's Bridgehouse Museum</t>
+  </si>
+  <si>
+    <t>IL-IN Sea Grant AIS workshop (7 hrs)</t>
+  </si>
+  <si>
+    <t>larval fish sampling with Austin (1 day) freshwater mussels field assistance (3 days)</t>
+  </si>
+  <si>
+    <t>Teen Science Communication Workshop for Wiley Publishing Grant</t>
+  </si>
+  <si>
+    <t>Guest speaker for 3 hr meeting of Trout Unlimited Elliott Donnelly Chapter in Chicago</t>
+  </si>
+  <si>
+    <t>3 classes of Freshwater Ecology ACCA for 20 students (Sept 14, 21, 28)</t>
   </si>
 </sst>
 </file>
@@ -645,8 +699,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G154" totalsRowShown="0">
-  <autoFilter ref="A1:G154" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G172" totalsRowShown="0">
+  <autoFilter ref="A1:G172" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -968,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3855,7 +3909,7 @@
       <c r="D150" s="2">
         <v>43724</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="5" t="s">
         <v>164</v>
       </c>
       <c r="G150" t="s">
@@ -3940,6 +3994,363 @@
       </c>
       <c r="G154" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>43738.667199074072</v>
+      </c>
+      <c r="B155" t="s">
+        <v>111</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2">
+        <v>43728</v>
+      </c>
+      <c r="F155">
+        <v>200</v>
+      </c>
+      <c r="G155" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>43738.667962962965</v>
+      </c>
+      <c r="B156" t="s">
+        <v>111</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2">
+        <v>43685</v>
+      </c>
+      <c r="F156">
+        <v>9</v>
+      </c>
+      <c r="G156" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>43738.668425925927</v>
+      </c>
+      <c r="B157" t="s">
+        <v>111</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="2">
+        <v>43715</v>
+      </c>
+      <c r="F157">
+        <v>8</v>
+      </c>
+      <c r="G157" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>43738.668877314813</v>
+      </c>
+      <c r="B158" t="s">
+        <v>111</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="2">
+        <v>43715</v>
+      </c>
+      <c r="F158">
+        <v>7</v>
+      </c>
+      <c r="G158" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>43738.798125000001</v>
+      </c>
+      <c r="B159" t="s">
+        <v>77</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="2">
+        <v>43668</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>43738.798402777778</v>
+      </c>
+      <c r="B160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="2">
+        <v>43670</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>43738.799513888887</v>
+      </c>
+      <c r="B161" t="s">
+        <v>77</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="2">
+        <v>43732</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>43738.800740740742</v>
+      </c>
+      <c r="B162" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="2">
+        <v>43726</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>43738.801921296297</v>
+      </c>
+      <c r="B163" t="s">
+        <v>77</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="2">
+        <v>43676</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>43738.802488425928</v>
+      </c>
+      <c r="B164" t="s">
+        <v>77</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="2">
+        <v>43728</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>43739.882615740738</v>
+      </c>
+      <c r="B165" t="s">
+        <v>26</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="2">
+        <v>43696</v>
+      </c>
+      <c r="E165" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>43739.88349537037</v>
+      </c>
+      <c r="B166" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2">
+        <v>43668</v>
+      </c>
+      <c r="F166">
+        <v>35</v>
+      </c>
+      <c r="G166" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>43739.884259259263</v>
+      </c>
+      <c r="B167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2">
+        <v>43689</v>
+      </c>
+      <c r="F167">
+        <v>20</v>
+      </c>
+      <c r="G167" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>43739.884745370371</v>
+      </c>
+      <c r="B168" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2">
+        <v>43721</v>
+      </c>
+      <c r="F168">
+        <v>40</v>
+      </c>
+      <c r="G168" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>43739.885752314818</v>
+      </c>
+      <c r="B169" t="s">
+        <v>26</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="2">
+        <v>43655</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>43739.886481481481</v>
+      </c>
+      <c r="B170" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="2">
+        <v>43662</v>
+      </c>
+      <c r="F170">
+        <v>11</v>
+      </c>
+      <c r="G170" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>43739.887245370373</v>
+      </c>
+      <c r="B171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="2">
+        <v>43718</v>
+      </c>
+      <c r="F171">
+        <v>45</v>
+      </c>
+      <c r="G171" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>43739.887835648151</v>
+      </c>
+      <c r="B172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="2">
+        <v>43722</v>
+      </c>
+      <c r="F172">
+        <v>20</v>
+      </c>
+      <c r="G172" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3952,15 +4363,25 @@
     <hyperlink ref="E75" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
     <hyperlink ref="E74" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
     <hyperlink ref="E149" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
+    <hyperlink ref="E150" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3969,7 +4390,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4203,23 +4624,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="344" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D298A6E8-1265-405F-A0D2-A535AD99EF96}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B72A067-9236-452B-8462-85D81A33203C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="202">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -593,6 +593,48 @@
   </si>
   <si>
     <t>3 classes of Freshwater Ecology ACCA for 20 students (Sept 14, 21, 28)</t>
+  </si>
+  <si>
+    <t>Grouper research trip. Acoustically tagged 5 grouper (2 nassau, 2 black, 1 yellowfin). Deployed 60 BRUVs - most of which were stereo-BRUVs. Deployed 4 acoustic receivers. Conducted REEF and AGRRA surveys.</t>
+  </si>
+  <si>
+    <t>Meeting with NMFS-SEFSC center to discussion caribbean species management and tuna in atlantic. Met with Shannon Cass-Calay and Skyler Sagarese.</t>
+  </si>
+  <si>
+    <t>Research trip aboard R/V Coral Reef II. Co-led with George Parsons. Trip had 9 paying participants. Conducted AGRRA fish surveys, AGRRA coral surveys, REEF fish surveys, and BRUVs at and near Bimini dive sites.</t>
+  </si>
+  <si>
+    <t>Met with Shedd Teen Lab to discuss use of ROV in my research and then the teens showed me how to use the ROV out in the lake.</t>
+  </si>
+  <si>
+    <t>ICCAT Species Working group meeting. Gave 2 talks - one on data overview for tuna growth project and the other on a Bayesian method for aging spines.</t>
+  </si>
+  <si>
+    <t>Blog posts on ROV and grouper project. At end of September Nat Geo announced they are closing the blog- so the link is currently defunct. I saved all my data and will be looking for an alternative tool to use with the Marine class.</t>
+  </si>
+  <si>
+    <t>American Fisheries Society Meeting in Reno, NV. Led Estuaries Section business meeting on Sunday (as president of chapter), attended governing board breakfast Monday, gave talk on Tuesday on PIT tag model for nested riverine systems, and attended conference talks. Posted to twitter account during the meeting.</t>
+  </si>
+  <si>
+    <t>Helped Austin with field work sampling larval fish.</t>
+  </si>
+  <si>
+    <t>9 students and 3 teachers engaged in high school research projects through the Mentor Matching Engine. This sets studnets doing research projects (think science fair) with professionals to get help on the projects and work through problems. Projects are on-going, usually through a whole semester.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skype a Scientist with 5th grade classroom in Columbus, OH - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist. </t>
+  </si>
+  <si>
+    <t>Met with Purdue Student-unit of the American Fisheries Society to discuss career path and options.</t>
+  </si>
+  <si>
+    <t>Seminar at Purdue University's Forestry and Natural Resources Department.</t>
+  </si>
+  <si>
+    <t>Coral research trip on R/V CRII</t>
+  </si>
+  <si>
+    <t>Number of participants in coral research trip on R/V CRII</t>
   </si>
 </sst>
 </file>
@@ -699,8 +741,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G172" totalsRowShown="0">
-  <autoFilter ref="A1:G172" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G186" totalsRowShown="0">
+  <autoFilter ref="A1:G186" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1022,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
       <selection activeCell="E150" sqref="E150"/>
@@ -4351,6 +4393,283 @@
       </c>
       <c r="G172" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>43741.760833333334</v>
+      </c>
+      <c r="B173" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2">
+        <v>43683</v>
+      </c>
+      <c r="F173">
+        <v>11</v>
+      </c>
+      <c r="G173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>43741.76190972222</v>
+      </c>
+      <c r="B174" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2">
+        <v>43672</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>43741.763113425928</v>
+      </c>
+      <c r="B175" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="2">
+        <v>43764</v>
+      </c>
+      <c r="F175">
+        <v>8</v>
+      </c>
+      <c r="G175" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>43741.764016203706</v>
+      </c>
+      <c r="B176" t="s">
+        <v>120</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="2">
+        <v>43664</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>43741.765625</v>
+      </c>
+      <c r="B177" t="s">
+        <v>120</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="2">
+        <v>43729</v>
+      </c>
+      <c r="F177">
+        <v>50</v>
+      </c>
+      <c r="G177" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>43741.767268518517</v>
+      </c>
+      <c r="B178" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" s="2">
+        <v>43647</v>
+      </c>
+      <c r="E178" t="s">
+        <v>122</v>
+      </c>
+      <c r="G178" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>43741.768148148149</v>
+      </c>
+      <c r="B179" t="s">
+        <v>120</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="2">
+        <v>43737</v>
+      </c>
+      <c r="G179" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>43741.770671296297</v>
+      </c>
+      <c r="B180" t="s">
+        <v>120</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="2">
+        <v>43710</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>43753.723715277774</v>
+      </c>
+      <c r="B181" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="2">
+        <v>43753</v>
+      </c>
+      <c r="F181">
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>43754.878865740742</v>
+      </c>
+      <c r="B182" t="s">
+        <v>120</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="2">
+        <v>43754</v>
+      </c>
+      <c r="F182">
+        <v>20</v>
+      </c>
+      <c r="G182" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>43757.676412037035</v>
+      </c>
+      <c r="B183" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="2">
+        <v>43755</v>
+      </c>
+      <c r="F183">
+        <v>20</v>
+      </c>
+      <c r="G183" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>43757.676874999997</v>
+      </c>
+      <c r="B184" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F184">
+        <v>40</v>
+      </c>
+      <c r="G184" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>43759.934363425928</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="2">
+        <v>43740</v>
+      </c>
+      <c r="F185">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>43759.934652777774</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="2">
+        <v>43743</v>
+      </c>
+      <c r="F186">
+        <v>28</v>
+      </c>
+      <c r="G186" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4373,24 +4692,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4624,8 +4925,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4633,5 +4952,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22222"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3e87\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B72A067-9236-452B-8462-85D81A33203C}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2995F076-F0A4-4A39-8F35-E2373465C652}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="208">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -635,6 +635,24 @@
   </si>
   <si>
     <t>Number of participants in coral research trip on R/V CRII</t>
+  </si>
+  <si>
+    <t>Teen Lab presentation and Chat</t>
+  </si>
+  <si>
+    <t>Science and Design committee of the River Ecology and Governance Task Force</t>
+  </si>
+  <si>
+    <t>Teen Lab engagement; introduction to freshwater mussels</t>
+  </si>
+  <si>
+    <t>Guest speaker for Biology departmental seminar at Loyola University</t>
+  </si>
+  <si>
+    <t>Meeting with collaborators to discuss NSF LTER Urban Centers proposal.</t>
+  </si>
+  <si>
+    <t>Discussion with a Sanibel Island Engagement Group for Development</t>
   </si>
 </sst>
 </file>
@@ -741,8 +759,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G186" totalsRowShown="0">
-  <autoFilter ref="A1:G186" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G192" totalsRowShown="0">
+  <autoFilter ref="A1:G192" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1064,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
       <selection activeCell="E150" sqref="E150"/>
@@ -1077,7 +1095,7 @@
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="55.28515625" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3851,7 +3869,7 @@
       <c r="D145" s="2">
         <v>43670</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="5" t="s">
         <v>157</v>
       </c>
       <c r="G145" t="s">
@@ -4446,7 +4464,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="2">
-        <v>43764</v>
+        <v>43703</v>
       </c>
       <c r="F175">
         <v>8</v>
@@ -4670,6 +4688,126 @@
       </c>
       <c r="G186" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>43762.58829861111</v>
+      </c>
+      <c r="B187" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="2">
+        <v>43757</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+      <c r="G187" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>43762.588761574072</v>
+      </c>
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2">
+        <v>43760</v>
+      </c>
+      <c r="F188">
+        <v>25</v>
+      </c>
+      <c r="G188" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>43762.828159722223</v>
+      </c>
+      <c r="B189" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="2">
+        <v>43755</v>
+      </c>
+      <c r="F189">
+        <v>4</v>
+      </c>
+      <c r="G189" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>43762.829421296294</v>
+      </c>
+      <c r="B190" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="2">
+        <v>43761</v>
+      </c>
+      <c r="F190">
+        <v>25</v>
+      </c>
+      <c r="G190" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>43763.671655092592</v>
+      </c>
+      <c r="B191" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2">
+        <v>43762</v>
+      </c>
+      <c r="F191">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>43763.750243055554</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="2">
+        <v>43714</v>
+      </c>
+      <c r="F192">
+        <v>25</v>
+      </c>
+      <c r="G192" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4683,15 +4821,25 @@
     <hyperlink ref="E74" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
     <hyperlink ref="E149" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
     <hyperlink ref="E150" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
+    <hyperlink ref="E145" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4925,15 +5073,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4944,11 +5083,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22223"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2995F076-F0A4-4A39-8F35-E2373465C652}"/>
+  <xr:revisionPtr revIDLastSave="393" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0996E355-9241-4C3A-8A74-B0BD89810A11}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="230">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -653,6 +653,72 @@
   </si>
   <si>
     <t>Discussion with a Sanibel Island Engagement Group for Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skype a Scientist with 5th grade classroom in Columbus, OH (different group of students) - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist. </t>
+  </si>
+  <si>
+    <t>Presentation of Port of Miami dredging impacts to US Army Corps scientists</t>
+  </si>
+  <si>
+    <t>Spoke with Tribune reporter Steve for 40 minutes!</t>
+  </si>
+  <si>
+    <t>http://www.ceibahamas.org/ceinews/2019/10/16/coral-breeding-amp-restoration-workshop</t>
+  </si>
+  <si>
+    <t>CEI news article about Shedd/UM coral research associated with SECORE/spawning trip</t>
+  </si>
+  <si>
+    <t>Meeting with Allison Sacerdote-Velat about amphibian research in Chicago area</t>
+  </si>
+  <si>
+    <t>Meeting with Becky Collings of FPDCC</t>
+  </si>
+  <si>
+    <t>Meet with Craig Billington of FPDCC.</t>
+  </si>
+  <si>
+    <t>Coral research brown bag - Katie/Leslie presented research results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross and Steve spoke at a President's Council Event at the Connell's </t>
+  </si>
+  <si>
+    <t>Mussel survey in Lawrence Creek and Nippersink Creek, McHenry Co., IL.</t>
+  </si>
+  <si>
+    <t>Mussel survey in the North Branch of Nippersink Creek near RIchmond, IL.</t>
+  </si>
+  <si>
+    <t>Mussel survey in the South Branch of the Kishwaukee River near Kingston, IL</t>
+  </si>
+  <si>
+    <t>Helped Austin for larval fish sampling</t>
+  </si>
+  <si>
+    <t>Mussel survey in Poplar Creek near Elgin, IL</t>
+  </si>
+  <si>
+    <t>Mussel monitoring in the North Branch of Nippersink Creek near Richmond, IL.</t>
+  </si>
+  <si>
+    <t>Mussel survey in Coffee Creek near Chesterton, IN, with INDNR and USGS.</t>
+  </si>
+  <si>
+    <t>Mussel Monitoring Team Leader Workshop at the DuPage Co Mussel facility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invited speaker at the Teen Conservation Leadership Conference in Dominican University. </t>
+  </si>
+  <si>
+    <t>https://today.agrilife.org/2019/08/14/newly-discovered-mussels-may-help-refocus-conservation-efforts-in-texas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story about a new mussel species described from Texas. </t>
+  </si>
+  <si>
+    <t>8 field volunteers in this summer (July to September).</t>
   </si>
 </sst>
 </file>
@@ -759,8 +825,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G192" totalsRowShown="0">
-  <autoFilter ref="A1:G192" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G212" totalsRowShown="0">
+  <autoFilter ref="A1:G212" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1082,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
       <selection activeCell="E150" sqref="E150"/>
@@ -4808,6 +4874,394 @@
       </c>
       <c r="G192" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>43766.800752314812</v>
+      </c>
+      <c r="B193" t="s">
+        <v>120</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="2">
+        <v>43763</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>43766.805034722223</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="2">
+        <v>43720</v>
+      </c>
+      <c r="G194" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>43766.808900462966</v>
+      </c>
+      <c r="B195" t="s">
+        <v>77</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" s="2">
+        <v>43763</v>
+      </c>
+      <c r="G195" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>43766.809178240743</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" s="2">
+        <v>43754</v>
+      </c>
+      <c r="E196" t="s">
+        <v>211</v>
+      </c>
+      <c r="G196" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>43766.819953703707</v>
+      </c>
+      <c r="B197" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="2">
+        <v>43657</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>43766.821412037039</v>
+      </c>
+      <c r="B198" t="s">
+        <v>134</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="2">
+        <v>43665</v>
+      </c>
+      <c r="G198" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>43766.822199074071</v>
+      </c>
+      <c r="B199" t="s">
+        <v>134</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="2">
+        <v>43683</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>43766.823958333334</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="2">
+        <v>43704</v>
+      </c>
+      <c r="F200">
+        <v>50</v>
+      </c>
+      <c r="G200" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>43766.876851851855</v>
+      </c>
+      <c r="B201" t="s">
+        <v>111</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" s="2">
+        <v>43764</v>
+      </c>
+      <c r="F201">
+        <v>30</v>
+      </c>
+      <c r="G201" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>43766.88721064815</v>
+      </c>
+      <c r="B202" t="s">
+        <v>40</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="2">
+        <v>43655</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>43766.887719907405</v>
+      </c>
+      <c r="B203" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2">
+        <v>43668</v>
+      </c>
+      <c r="F203">
+        <v>3</v>
+      </c>
+      <c r="G203" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>43766.888090277775</v>
+      </c>
+      <c r="B204" t="s">
+        <v>40</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="2">
+        <v>43682</v>
+      </c>
+      <c r="F204">
+        <v>4</v>
+      </c>
+      <c r="G204" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>43766.888425925928</v>
+      </c>
+      <c r="B205" t="s">
+        <v>40</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2">
+        <v>43696</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>43766.889166666668</v>
+      </c>
+      <c r="B206" t="s">
+        <v>40</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2">
+        <v>43699</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>43766.889652777776</v>
+      </c>
+      <c r="B207" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="2">
+        <v>43718</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>43766.890439814815</v>
+      </c>
+      <c r="B208" t="s">
+        <v>40</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2">
+        <v>43727</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>43766.891192129631</v>
+      </c>
+      <c r="B209" t="s">
+        <v>40</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="2">
+        <v>43672</v>
+      </c>
+      <c r="G209" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>43766.891805555555</v>
+      </c>
+      <c r="B210" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="2">
+        <v>43677</v>
+      </c>
+      <c r="F210">
+        <v>25</v>
+      </c>
+      <c r="G210" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>43766.893611111111</v>
+      </c>
+      <c r="B211" t="s">
+        <v>40</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" s="2">
+        <v>43691</v>
+      </c>
+      <c r="E211" t="s">
+        <v>227</v>
+      </c>
+      <c r="G211" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>43766.894907407404</v>
+      </c>
+      <c r="B212" t="s">
+        <v>40</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="2">
+        <v>43649</v>
+      </c>
+      <c r="F212">
+        <v>8</v>
+      </c>
+      <c r="G212" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4840,6 +5294,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5073,23 +5536,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0996E355-9241-4C3A-8A74-B0BD89810A11}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8A61F28-C3E1-423A-A1DB-E0E3B036078B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="231">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -719,6 +719,9 @@
   </si>
   <si>
     <t>8 field volunteers in this summer (July to September).</t>
+  </si>
+  <si>
+    <t>McIlroy, SE, Cunning, R, Baker, AC, Coffroth, MA. Competition and succession among coral endosymbionts. Ecol Evol. 2019; 00: 1– 12. https://doi.org/10.1002/ece3.5749</t>
   </si>
 </sst>
 </file>
@@ -825,16 +828,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G212" totalsRowShown="0">
-  <autoFilter ref="A1:G212" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G213" totalsRowShown="0">
+  <autoFilter ref="A1:G213" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1148,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2382,7 +2377,7 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D64" s="2">
         <v>43565</v>
@@ -2479,7 +2474,7 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2">
         <v>43564</v>
@@ -2499,7 +2494,7 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2">
         <v>43565</v>
@@ -2519,7 +2514,7 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2">
         <v>43568</v>
@@ -3365,7 +3360,7 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2">
         <v>43530</v>
@@ -3385,7 +3380,7 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2">
         <v>43529</v>
@@ -3619,7 +3614,7 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2">
         <v>43649</v>
@@ -3950,7 +3945,7 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2">
         <v>43705</v>
@@ -3970,7 +3965,7 @@
         <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2">
         <v>43706</v>
@@ -4447,7 +4442,7 @@
         <v>26</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2">
         <v>43718</v>
@@ -4664,7 +4659,7 @@
         <v>120</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2">
         <v>43754</v>
@@ -4704,7 +4699,7 @@
         <v>20</v>
       </c>
       <c r="C184" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2">
         <v>43756</v>
@@ -4824,7 +4819,7 @@
         <v>40</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2">
         <v>43761</v>
@@ -5015,7 +5010,7 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2">
         <v>43704</v>
@@ -5212,7 +5207,7 @@
         <v>40</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2">
         <v>43677</v>
@@ -5262,6 +5257,23 @@
       </c>
       <c r="G212" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>43768.587094907409</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="2">
+        <v>43767</v>
+      </c>
+      <c r="E213" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5285,24 +5297,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5536,14 +5530,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8A61F28-C3E1-423A-A1DB-E0E3B036078B}"/>
+  <xr:revisionPtr revIDLastSave="411" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FEC243E7-DEDA-4849-A74A-109AEEBA3DFA}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="232">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -722,6 +722,9 @@
   </si>
   <si>
     <t>McIlroy, SE, Cunning, R, Baker, AC, Coffroth, MA. Competition and succession among coral endosymbionts. Ecol Evol. 2019; 00: 1– 12. https://doi.org/10.1002/ece3.5749</t>
+  </si>
+  <si>
+    <t>Yoga/coral event with Learning</t>
   </si>
 </sst>
 </file>
@@ -828,8 +831,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G213" totalsRowShown="0">
-  <autoFilter ref="A1:G213" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G214" totalsRowShown="0">
+  <autoFilter ref="A1:G214" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1143,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
       <selection activeCell="D210" sqref="D210"/>
@@ -5274,6 +5277,26 @@
       </c>
       <c r="E213" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>43771.555405092593</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="2">
+        <v>43771</v>
+      </c>
+      <c r="F214">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5297,6 +5320,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5530,26 +5571,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5557,5 +5580,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="411" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FEC243E7-DEDA-4849-A74A-109AEEBA3DFA}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DAF19B58-70F2-4D7E-A432-626E8DA07BDA}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="234">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -725,6 +725,12 @@
   </si>
   <si>
     <t>Yoga/coral event with Learning</t>
+  </si>
+  <si>
+    <t>Skype a Scientist. Clasroom of STEAM from Resurrection HS in Chicago (all-girls school) with Megan Leider's class - talking about careers in marine science and educational background. 40minutes long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skype with Elizabeth Stamp's kindergarten class in Washington state for 40minutes. Discussed salmon and what I do as a scientist. </t>
   </si>
 </sst>
 </file>
@@ -831,8 +837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G214" totalsRowShown="0">
-  <autoFilter ref="A1:G214" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G216" totalsRowShown="0">
+  <autoFilter ref="A1:G216" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1146,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
       <selection activeCell="D210" sqref="D210"/>
@@ -5297,6 +5303,46 @@
       </c>
       <c r="G214" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>43773.818090277775</v>
+      </c>
+      <c r="B215" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="2">
+        <v>43773</v>
+      </c>
+      <c r="F215">
+        <v>20</v>
+      </c>
+      <c r="G215" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>43773.819062499999</v>
+      </c>
+      <c r="B216" t="s">
+        <v>120</v>
+      </c>
+      <c r="C216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="2">
+        <v>43768</v>
+      </c>
+      <c r="F216">
+        <v>20</v>
+      </c>
+      <c r="G216" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5320,24 +5366,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5571,8 +5599,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5580,5 +5626,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DAF19B58-70F2-4D7E-A432-626E8DA07BDA}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C87034E-96BF-4572-A261-E434B14DDF55}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5366,6 +5366,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5599,26 +5617,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5626,5 +5626,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C87034E-96BF-4572-A261-E434B14DDF55}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CB5AA9D-E2DB-4C9F-9DA5-E02E75C34B7F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="236">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -731,6 +733,12 @@
   </si>
   <si>
     <t xml:space="preserve">Skype with Elizabeth Stamp's kindergarten class in Washington state for 40minutes. Discussed salmon and what I do as a scientist. </t>
+  </si>
+  <si>
+    <t>Andy and Austin present to Northwestern Law Students.</t>
+  </si>
+  <si>
+    <t>Skype a Scientist into Underwood Elementary 6th grade class w Ms Nowlin</t>
   </si>
 </sst>
 </file>
@@ -837,8 +845,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G216" totalsRowShown="0">
-  <autoFilter ref="A1:G216" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G218" totalsRowShown="0">
+  <autoFilter ref="A1:G218" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1152,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
@@ -5343,6 +5351,46 @@
       </c>
       <c r="G216" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>43776.890972222223</v>
+      </c>
+      <c r="B217" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="2">
+        <v>43776</v>
+      </c>
+      <c r="F217">
+        <v>20</v>
+      </c>
+      <c r="G217" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>43777.880983796298</v>
+      </c>
+      <c r="B218" t="s">
+        <v>77</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="2">
+        <v>43777</v>
+      </c>
+      <c r="F218">
+        <v>23</v>
+      </c>
+      <c r="G218" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5366,24 +5414,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5617,14 +5647,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CB5AA9D-E2DB-4C9F-9DA5-E02E75C34B7F}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CF10EE4-D8EA-4221-9AF0-D1101DD01C6D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="238">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -739,6 +737,12 @@
   </si>
   <si>
     <t>Skype a Scientist into Underwood Elementary 6th grade class w Ms Nowlin</t>
+  </si>
+  <si>
+    <t>Shedd coral tour for International Coral Reef Society President Grottoli and daughter</t>
+  </si>
+  <si>
+    <t>Shedd coral tour for Hauswirth group with Development</t>
   </si>
 </sst>
 </file>
@@ -845,8 +849,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G218" totalsRowShown="0">
-  <autoFilter ref="A1:G218" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G220" totalsRowShown="0">
+  <autoFilter ref="A1:G220" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1160,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
@@ -5391,6 +5395,46 @@
       </c>
       <c r="G218" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>43780.614247685182</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="2">
+        <v>43778</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>43780.614837962959</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>10</v>
+      </c>
+      <c r="D220" s="2">
+        <v>43778</v>
+      </c>
+      <c r="F220">
+        <v>3</v>
+      </c>
+      <c r="G220" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5414,6 +5458,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5647,26 +5709,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5674,5 +5718,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9CF10EE4-D8EA-4221-9AF0-D1101DD01C6D}"/>
+  <xr:revisionPtr revIDLastSave="421" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FB96917-9B91-4703-AFCC-8A2B2AECFBA9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="240">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -743,6 +743,12 @@
   </si>
   <si>
     <t>Shedd coral tour for Hauswirth group with Development</t>
+  </si>
+  <si>
+    <t>Site prep with GLAD team</t>
+  </si>
+  <si>
+    <t>Austin and Ross (with Jaclyn) speak to Tim Hoellein's Global Change Biology class at Loyola</t>
   </si>
 </sst>
 </file>
@@ -849,8 +855,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G220" totalsRowShown="0">
-  <autoFilter ref="A1:G220" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G222" totalsRowShown="0">
+  <autoFilter ref="A1:G222" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1164,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
@@ -5435,6 +5441,46 @@
       </c>
       <c r="G220" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>43781.848541666666</v>
+      </c>
+      <c r="B221" t="s">
+        <v>134</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="2">
+        <v>43780</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>43782.972002314818</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2">
+        <v>43782</v>
+      </c>
+      <c r="F222">
+        <v>20</v>
+      </c>
+      <c r="G222" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="421" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FB96917-9B91-4703-AFCC-8A2B2AECFBA9}"/>
+  <xr:revisionPtr revIDLastSave="425" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A00E91F-5366-46EF-B47D-5C3903D3638C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="244">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -749,6 +749,18 @@
   </si>
   <si>
     <t>Austin and Ross (with Jaclyn) speak to Tim Hoellein's Global Change Biology class at Loyola</t>
+  </si>
+  <si>
+    <t>Review of a paper for Philosophical Transactions B  (Some work on modelling food webs with fatty acids)</t>
+  </si>
+  <si>
+    <t>Review of a paper for Canadian Journal of Fisheries and Aquatic Sciences (modelling salmon diets with stable isotopes in Lake Michigan)</t>
+  </si>
+  <si>
+    <t>Review of a paper on round goby diets in the Baltic for Journal of Great Lakes Research</t>
+  </si>
+  <si>
+    <t>Review of a paper on Lake Trout diets in several gacial lakes for Freshwater Biology</t>
   </si>
 </sst>
 </file>
@@ -855,8 +867,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G222" totalsRowShown="0">
-  <autoFilter ref="A1:G222" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G226" totalsRowShown="0">
+  <autoFilter ref="A1:G226" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1170,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
@@ -5481,6 +5493,74 @@
       </c>
       <c r="G222" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>43783.637719907405</v>
+      </c>
+      <c r="B223" t="s">
+        <v>20</v>
+      </c>
+      <c r="C223" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" s="2">
+        <v>43780</v>
+      </c>
+      <c r="G223" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="1">
+        <v>43783.63821759259</v>
+      </c>
+      <c r="B224" t="s">
+        <v>20</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="2">
+        <v>43745</v>
+      </c>
+      <c r="G224" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>43783.639374999999</v>
+      </c>
+      <c r="B225" t="s">
+        <v>20</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="2">
+        <v>43691</v>
+      </c>
+      <c r="G225" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>43783.641006944446</v>
+      </c>
+      <c r="B226" t="s">
+        <v>20</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" s="2">
+        <v>43686</v>
+      </c>
+      <c r="G226" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5504,21 +5584,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5756,11 +5836,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A00E91F-5366-46EF-B47D-5C3903D3638C}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CEC3C72-39FA-4160-B5CE-26431B673042}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="245">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>Review of a paper on Lake Trout diets in several gacial lakes for Freshwater Biology</t>
+  </si>
+  <si>
+    <t>Andrea Gomez 3-week research internship</t>
   </si>
 </sst>
 </file>
@@ -867,8 +870,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G226" totalsRowShown="0">
-  <autoFilter ref="A1:G226" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G227" totalsRowShown="0">
+  <autoFilter ref="A1:G227" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1182,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
@@ -5561,6 +5564,26 @@
       </c>
       <c r="G226" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>43789.580648148149</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>10</v>
+      </c>
+      <c r="D227" s="2">
+        <v>43770</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5584,21 +5607,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5836,11 +5859,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2CEC3C72-39FA-4160-B5CE-26431B673042}"/>
+  <xr:revisionPtr revIDLastSave="427" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E5D8937-309C-4A06-BEAB-B7678C357918}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="246">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>Andrea Gomez 3-week research internship</t>
+  </si>
+  <si>
+    <t>Dr. Sam Starko visiting researcher 1-week lab project</t>
   </si>
 </sst>
 </file>
@@ -870,8 +873,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G227" totalsRowShown="0">
-  <autoFilter ref="A1:G227" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G228" totalsRowShown="0">
+  <autoFilter ref="A1:G228" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1185,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
@@ -5584,6 +5587,26 @@
       </c>
       <c r="G227" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>43789.581087962964</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="2">
+        <v>43787</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E5D8937-309C-4A06-BEAB-B7678C357918}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F2EB0B3-50C1-4121-80C1-ABCA634475C9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="248">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -767,6 +769,12 @@
   </si>
   <si>
     <t>Dr. Sam Starko visiting researcher 1-week lab project</t>
+  </si>
+  <si>
+    <t>NSF Moorea Coral Reef LTER All Investigators Meeting, Santa Barbara</t>
+  </si>
+  <si>
+    <t>NSF URoL Epigenetics PI meeting in Santa Barbara</t>
   </si>
 </sst>
 </file>
@@ -873,8 +881,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G228" totalsRowShown="0">
-  <autoFilter ref="A1:G228" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G230" totalsRowShown="0">
+  <autoFilter ref="A1:G230" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1188,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
@@ -5607,6 +5615,40 @@
       </c>
       <c r="G228" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>43802.178773148145</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2">
+        <v>43804</v>
+      </c>
+      <c r="G229" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>43802.1721875</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2">
+        <v>43802</v>
+      </c>
+      <c r="G230" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5630,24 +5672,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5881,8 +5905,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5890,5 +5932,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F2EB0B3-50C1-4121-80C1-ABCA634475C9}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{555B508F-FBAD-4A30-8F7B-B2C96DD8DF04}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="255">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -775,6 +775,27 @@
   </si>
   <si>
     <t>NSF URoL Epigenetics PI meeting in Santa Barbara</t>
+  </si>
+  <si>
+    <t>Mentor Matching engine - mentoring Senior at Downers Grove North in west suburbs of Chicago - on project Marine Ecology Research Project</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/entertainment/museums/ct-ent-shedd-aquarium-coral-reef-research-climate-change-1215-20191211-lmp6g4sbqrcu7flckl7baaosrm-story.html</t>
+  </si>
+  <si>
+    <t>Chicago Tribune main story on coral research in the Bahamas</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/entertainment/museums/ct-ent-shedd-aquarium-research-vessel-coral-reef-climate-change-1216-20191211-nc2uwelrnbaelomptx23axpree-story.html</t>
+  </si>
+  <si>
+    <t>Chicago Tribune supporting story on life aboard the Coral Reef II</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/204d2637-5b2d-49ca-b33d-9fd55e4d71d0-132.html</t>
+  </si>
+  <si>
+    <t>Chicago Tribune video interview on coral reef research in the Bahamas</t>
   </si>
 </sst>
 </file>
@@ -881,8 +902,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G230" totalsRowShown="0">
-  <autoFilter ref="A1:G230" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G234" totalsRowShown="0">
+  <autoFilter ref="A1:G234" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1196,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
@@ -5649,6 +5670,86 @@
       </c>
       <c r="G230" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>43809.846851851849</v>
+      </c>
+      <c r="B231" t="s">
+        <v>120</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" s="2">
+        <v>43774</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>43810.74324074074</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" s="2">
+        <v>43810</v>
+      </c>
+      <c r="E232" t="s">
+        <v>249</v>
+      </c>
+      <c r="G232" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>43810.743668981479</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" s="2">
+        <v>43810</v>
+      </c>
+      <c r="E233" t="s">
+        <v>251</v>
+      </c>
+      <c r="G233" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>43810.744039351855</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" s="2">
+        <v>43809</v>
+      </c>
+      <c r="E234" t="s">
+        <v>253</v>
+      </c>
+      <c r="G234" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -5672,6 +5773,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5905,32 +6024,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{555B508F-FBAD-4A30-8F7B-B2C96DD8DF04}"/>
+  <xr:revisionPtr revIDLastSave="435" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D55F905-C59D-4098-92EB-7A4F929893F1}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="259">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -796,6 +796,18 @@
   </si>
   <si>
     <t>Chicago Tribune video interview on coral reef research in the Bahamas</t>
+  </si>
+  <si>
+    <t>scolborne@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>https://wbbm780.radio.com/articles/there-may-be-silver-lining-to-invasive-species-in-lake</t>
+  </si>
+  <si>
+    <t>Radio interview with WBBM</t>
+  </si>
+  <si>
+    <t>Colborne et al. 2019. Sequence analysis and acoustic tracking of individual lake sturgeon identify multiple patterns of river–lake habitat use. Ecosphere 10(12): e02983</t>
   </si>
 </sst>
 </file>
@@ -902,8 +914,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G234" totalsRowShown="0">
-  <autoFilter ref="A1:G234" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G236" totalsRowShown="0">
+  <autoFilter ref="A1:G236" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1217,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
@@ -5750,6 +5762,43 @@
       </c>
       <c r="G234" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>43812.711759259262</v>
+      </c>
+      <c r="B235" t="s">
+        <v>255</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" s="2">
+        <v>43811</v>
+      </c>
+      <c r="E235" t="s">
+        <v>256</v>
+      </c>
+      <c r="G235" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>43812.713796296295</v>
+      </c>
+      <c r="B236" t="s">
+        <v>255</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" s="2">
+        <v>43808</v>
+      </c>
+      <c r="E236" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5773,24 +5822,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6024,8 +6055,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6033,5 +6082,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/haerther_metrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D55F905-C59D-4098-92EB-7A4F929893F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D912BEA-3553-1A47-89A9-BE66FDDFF424}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -814,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,22 +1231,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="72.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="72.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43537.01394675926</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43537.01525462963</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43537.015798611108</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43542.600381944445</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43542.600914351853</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43542.641527777778</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43542.642442129632</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43542.643101851849</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43550.586238425924</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43550.58761574074</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43557.815960648149</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43557.818229166667</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43557.818668981483</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43557.83421296296</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43557.835231481484</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43557.835717592592</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43557.839965277781</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43557.84070601852</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43557.841168981482</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43557.841562499998</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43557.842476851853</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43557.843009259261</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43557.857361111113</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43557.858043981483</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43557.858287037037</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43557.858773148146</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43558.596550925926</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43558.606712962966</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43558.608900462961</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43558.610011574077</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43558.610682870371</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43558.612858796296</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43558.61310185185</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43558.614201388889</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43558.61446759259</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43558.614675925928</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43559.780844907407</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43563.665046296293</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43577.60497685185</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43577.605439814812</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43577.606180555558</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43580.639224537037</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43580.639768518522</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43584.792407407411</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43584.792615740742</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43601.63795138889</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43601.640324074076</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43602.594085648147</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43602.595289351855</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43602.595694444448</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43602.596446759257</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43615.901655092595</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43615.90315972222</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43615.904120370367</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43620.904340277775</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43620.904687499999</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43627.6565162037</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43627.656689814816</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43627.658136574071</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43633.90730324074</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43633.907500000001</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43634.718287037038</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43634.720254629632</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43634.721018518518</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43634.721805555557</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43634.723275462966</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43634.723692129628</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43634.724907407406</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43634.725289351853</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43634.725937499999</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43634.727546296293</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43634.727939814817</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43634.729467592595</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43634.730138888888</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43634.730439814812</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43634.731608796297</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43634.733263888891</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43634.733877314815</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43634.734479166669</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43634.735115740739</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43634.751307870371</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43634.75577546296</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43634.757048611114</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43634.75818287037</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43634.764826388891</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43634.769444444442</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43634.771886574075</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43634.77275462963</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43634.775393518517</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43634.775960648149</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43634.784085648149</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43635.859166666669</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43635.881273148145</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43636.670393518521</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43636.671099537038</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43636.6715625</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43636.672824074078</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43636.673136574071</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43636.673981481479</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43636.674953703703</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43636.675393518519</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43637.12096064815</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43637.125092592592</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43637.126643518517</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43637.130104166667</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43637.130798611113</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43637.132118055553</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43637.132731481484</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43637.134652777779</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43637.135844907411</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43637.13658564815</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43637.138483796298</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43637.140381944446</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43637.14329861111</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43637.600821759261</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
         <v>43637.14329861111</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>43643.14329861111</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43647.658634259256</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43648.765092592592</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43648.768055555556</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43649.622928240744</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43649.669988425929</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43649.675844907404</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43649.67628472222</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43651.648530092592</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43654.638043981482</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43654.639872685184</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43654.662361111114</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43654.662569444445</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43671.60765046296</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.25" customHeight="1">
+    <row r="135" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43676.827951388892</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43679.866759259261</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43679.868344907409</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43689.569803240738</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43689.570381944446</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43690.617384259262</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43690.624560185184</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43690.624791666669</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43634.724305555559</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43634.724999999999</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43698.886388888888</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43706.023969907408</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43711.568495370368</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43711.568831018521</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43712.710358796299</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43728.686550925922</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43729.624016203707</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43729.626122685186</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43733.843854166669</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43733.844722222224</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43738.667199074072</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43738.667962962965</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43738.668425925927</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43738.668877314813</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43738.798125000001</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43738.798402777778</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43738.799513888887</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43738.800740740742</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43738.801921296297</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43738.802488425928</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43739.882615740738</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43739.88349537037</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43739.884259259263</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43739.884745370371</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43739.885752314818</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43739.886481481481</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43739.887245370373</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43739.887835648151</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43741.760833333334</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43741.76190972222</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43741.763113425928</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43741.764016203706</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43741.765625</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43741.767268518517</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43741.768148148149</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43741.770671296297</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43753.723715277774</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43754.878865740742</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43757.676412037035</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43757.676874999997</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43759.934363425928</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43759.934652777774</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43762.58829861111</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43762.588761574072</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43762.828159722223</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43762.829421296294</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43763.671655092592</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43763.750243055554</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43766.800752314812</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43766.805034722223</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43766.808900462966</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43766.809178240743</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43766.819953703707</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43766.821412037039</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43766.822199074071</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43766.823958333334</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43766.876851851855</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>43766.88721064815</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>43766.887719907405</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>43766.888090277775</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>43766.888425925928</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>43766.889166666668</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>43766.889652777776</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>43766.890439814815</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>43766.891192129631</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>43766.891805555555</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>43766.893611111111</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>43766.894907407404</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>43768.587094907409</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>43771.555405092593</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>43773.818090277775</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>43773.819062499999</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>43776.890972222223</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>43777.880983796298</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>43780.614247685182</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>43780.614837962959</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>43781.848541666666</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>43782.972002314818</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>43783.637719907405</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>43783.63821759259</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>43783.639374999999</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>43783.641006944446</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>43789.580648148149</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>43789.581087962964</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>43802.178773148145</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>43802.1721875</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>43809.846851851849</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>43810.74324074074</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43810.743668981479</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43810.744039351855</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43812.711759259262</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43812.713796296295</v>
       </c>
@@ -5822,6 +5822,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6055,7 +6064,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6064,23 +6073,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="5518ca6b-e5cc-490e-b98e-d5e5b111277c"/>
+    <ds:schemaRef ds:uri="c1033f61-e676-4180-b03d-6fcaed56d122"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcunning/Projects/haerther_metrics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D912BEA-3553-1A47-89A9-BE66FDDFF424}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78A48684-3ECA-4425-8D5D-0821DFE955B1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="20840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -814,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,7 +915,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G236" totalsRowShown="0">
-  <autoFilter ref="A1:G236" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+  <autoFilter ref="A1:G236" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ahappel@sheddaquarium.org"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1231,22 +1237,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="72.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="72.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="1">
         <v>43537.01394675926</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="1">
         <v>43537.01525462963</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="1">
         <v>43537.015798611108</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="1">
         <v>43542.600381944445</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="1">
         <v>43542.600914351853</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>43542.641527777778</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>43542.642442129632</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>43542.643101851849</v>
       </c>
@@ -1426,7 +1432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>43550.586238425924</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>43550.58761574074</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="1">
         <v>43557.815960648149</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="1">
         <v>43557.818229166667</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="1">
         <v>43557.818668981483</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="1">
         <v>43557.83421296296</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="1">
         <v>43557.835231481484</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="1">
         <v>43557.835717592592</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="1">
         <v>43557.839965277781</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="1">
         <v>43557.84070601852</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="1">
         <v>43557.841168981482</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="1">
         <v>43557.841562499998</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="1">
         <v>43557.842476851853</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="1">
         <v>43557.843009259261</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="1">
         <v>43557.857361111113</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="1">
         <v>43557.858043981483</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="1">
         <v>43557.858287037037</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="1">
         <v>43557.858773148146</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="1">
         <v>43558.596550925926</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="1">
         <v>43558.606712962966</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="1">
         <v>43558.608900462961</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="1">
         <v>43558.610011574077</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="1">
         <v>43558.610682870371</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="1">
         <v>43558.612858796296</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="1">
         <v>43558.61310185185</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="1">
         <v>43558.614201388889</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="1">
         <v>43558.61446759259</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="1">
         <v>43558.614675925928</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>43559.780844907407</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>43563.665046296293</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="1">
         <v>43577.60497685185</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="1">
         <v>43577.605439814812</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="1">
         <v>43577.606180555558</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>43580.639224537037</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43580.639768518522</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43584.792407407411</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>43584.792615740742</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="1">
         <v>43601.63795138889</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="1">
         <v>43601.640324074076</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>43602.594085648147</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>43602.595289351855</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>43602.595694444448</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>43602.596446759257</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" s="1">
         <v>43615.901655092595</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" s="1">
         <v>43615.90315972222</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55" s="1">
         <v>43615.904120370367</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>43620.904340277775</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>43620.904687499999</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>43627.6565162037</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>43627.656689814816</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>43627.658136574071</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>43633.90730324074</v>
       </c>
@@ -2418,7 +2424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>43633.907500000001</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1">
       <c r="A63" s="1">
         <v>43634.718287037038</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="1">
         <v>43634.720254629632</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="1">
         <v>43634.721018518518</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="1">
         <v>43634.721805555557</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="1">
         <v>43634.723275462966</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" s="1">
         <v>43634.723692129628</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="1">
         <v>43634.724907407406</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" s="1">
         <v>43634.725289351853</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="1">
         <v>43634.725937499999</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="1">
         <v>43634.727546296293</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="1">
         <v>43634.727939814817</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="1">
         <v>43634.729467592595</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="1">
         <v>43634.730138888888</v>
       </c>
@@ -2680,7 +2686,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="1">
         <v>43634.730439814812</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="1">
         <v>43634.731608796297</v>
       </c>
@@ -2714,7 +2720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="1">
         <v>43634.733263888891</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="1">
         <v>43634.733877314815</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="1">
         <v>43634.734479166669</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" s="1">
         <v>43634.735115740739</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>43634.751307870371</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="1">
         <v>43634.75577546296</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" s="1">
         <v>43634.757048611114</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="1">
         <v>43634.75818287037</v>
       </c>
@@ -2874,7 +2880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="1">
         <v>43634.764826388891</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" s="1">
         <v>43634.769444444442</v>
       </c>
@@ -2914,7 +2920,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="1">
         <v>43634.771886574075</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="1">
         <v>43634.77275462963</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" s="1">
         <v>43634.775393518517</v>
       </c>
@@ -2974,7 +2980,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" s="1">
         <v>43634.775960648149</v>
       </c>
@@ -2994,7 +3000,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92" s="1">
         <v>43634.784085648149</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>43635.859166666669</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" s="1">
         <v>43635.881273148145</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" s="1">
         <v>43636.670393518521</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96" s="1">
         <v>43636.671099537038</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="1">
         <v>43636.6715625</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" s="1">
         <v>43636.672824074078</v>
       </c>
@@ -3122,7 +3128,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" s="1">
         <v>43636.673136574071</v>
       </c>
@@ -3142,7 +3148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" s="1">
         <v>43636.673981481479</v>
       </c>
@@ -3162,7 +3168,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" s="1">
         <v>43636.674953703703</v>
       </c>
@@ -3179,7 +3185,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" s="1">
         <v>43636.675393518519</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" s="1">
         <v>43637.12096064815</v>
       </c>
@@ -3270,7 +3276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="1">
         <v>43637.125092592592</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" s="1">
         <v>43637.126643518517</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" s="1">
         <v>43637.130104166667</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" s="1">
         <v>43637.130798611113</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" s="1">
         <v>43637.132118055553</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1">
       <c r="A112" s="1">
         <v>43637.132731481484</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" s="1">
         <v>43637.134652777779</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" s="1">
         <v>43637.135844907411</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" s="1">
         <v>43637.13658564815</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116" s="1">
         <v>43637.138483796298</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" s="1">
         <v>43637.140381944446</v>
       </c>
@@ -3478,7 +3484,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" s="1">
         <v>43637.14329861111</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>43637.600821759261</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1">
       <c r="A120" s="6">
         <v>43637.14329861111</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" s="6">
         <v>43643.14329861111</v>
       </c>
@@ -3558,7 +3564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>43647.658634259256</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" s="1">
         <v>43648.765092592592</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" s="1">
         <v>43648.768055555556</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" s="1">
         <v>43649.622928240744</v>
       </c>
@@ -3635,7 +3641,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" s="1">
         <v>43649.669988425929</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" s="1">
         <v>43649.675844907404</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" s="1">
         <v>43649.67628472222</v>
       </c>
@@ -3692,7 +3698,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1">
       <c r="A129" s="1">
         <v>43651.648530092592</v>
       </c>
@@ -3712,7 +3718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1">
       <c r="A130" s="1">
         <v>43654.638043981482</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1">
       <c r="A131" s="1">
         <v>43654.639872685184</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>43654.662361111114</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>43654.662569444445</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1">
       <c r="A134" s="1">
         <v>43671.60765046296</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="14.25" hidden="1" customHeight="1">
       <c r="A135" s="1">
         <v>43676.827951388892</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>43679.866759259261</v>
       </c>
@@ -3846,7 +3852,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>43679.868344907409</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>43689.569803240738</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>43689.570381944446</v>
       </c>
@@ -3903,7 +3909,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1">
       <c r="A140" s="1">
         <v>43690.617384259262</v>
       </c>
@@ -3923,7 +3929,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1">
       <c r="A141" s="1">
         <v>43690.624560185184</v>
       </c>
@@ -3943,7 +3949,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1">
       <c r="A142" s="1">
         <v>43690.624791666669</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" hidden="1">
       <c r="A143" s="1">
         <v>43634.724305555559</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1">
       <c r="A144" s="1">
         <v>43634.724999999999</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1">
       <c r="A145" s="1">
         <v>43698.886388888888</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1">
       <c r="A146" s="1">
         <v>43706.023969907408</v>
       </c>
@@ -4043,7 +4049,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>43711.568495370368</v>
       </c>
@@ -4063,7 +4069,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>43711.568831018521</v>
       </c>
@@ -4083,7 +4089,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>43712.710358796299</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>43728.686550925922</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>43729.624016203707</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>43729.626122685186</v>
       </c>
@@ -4163,7 +4169,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1">
       <c r="A153" s="1">
         <v>43733.843854166669</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1">
       <c r="A154" s="1">
         <v>43733.844722222224</v>
       </c>
@@ -4203,7 +4209,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1">
       <c r="A155" s="1">
         <v>43738.667199074072</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1">
       <c r="A156" s="1">
         <v>43738.667962962965</v>
       </c>
@@ -4243,7 +4249,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" hidden="1">
       <c r="A157" s="1">
         <v>43738.668425925927</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" hidden="1">
       <c r="A158" s="1">
         <v>43738.668877314813</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1">
       <c r="A159" s="1">
         <v>43738.798125000001</v>
       </c>
@@ -4303,7 +4309,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1">
       <c r="A160" s="1">
         <v>43738.798402777778</v>
       </c>
@@ -4323,7 +4329,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="1">
         <v>43738.799513888887</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" s="1">
         <v>43738.800740740742</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" s="1">
         <v>43738.801921296297</v>
       </c>
@@ -4383,7 +4389,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="1">
         <v>43738.802488425928</v>
       </c>
@@ -4403,7 +4409,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" s="1">
         <v>43739.882615740738</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" hidden="1">
       <c r="A166" s="1">
         <v>43739.88349537037</v>
       </c>
@@ -4440,7 +4446,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="1">
         <v>43739.884259259263</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" hidden="1">
       <c r="A168" s="1">
         <v>43739.884745370371</v>
       </c>
@@ -4480,7 +4486,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" s="1">
         <v>43739.885752314818</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" hidden="1">
       <c r="A170" s="1">
         <v>43739.886481481481</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" s="1">
         <v>43739.887245370373</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="1">
         <v>43739.887835648151</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" hidden="1">
       <c r="A173" s="1">
         <v>43741.760833333334</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="1">
         <v>43741.76190972222</v>
       </c>
@@ -4600,7 +4606,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" hidden="1">
       <c r="A175" s="1">
         <v>43741.763113425928</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" hidden="1">
       <c r="A176" s="1">
         <v>43741.764016203706</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" hidden="1">
       <c r="A177" s="1">
         <v>43741.765625</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="1">
         <v>43741.767268518517</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" s="1">
         <v>43741.768148148149</v>
       </c>
@@ -4697,7 +4703,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" hidden="1">
       <c r="A180" s="1">
         <v>43741.770671296297</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>43753.723715277774</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="1">
         <v>43754.878865740742</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>43757.676412037035</v>
       </c>
@@ -4777,7 +4783,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>43757.676874999997</v>
       </c>
@@ -4797,7 +4803,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" hidden="1">
       <c r="A185" s="1">
         <v>43759.934363425928</v>
       </c>
@@ -4817,7 +4823,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" hidden="1">
       <c r="A186" s="1">
         <v>43759.934652777774</v>
       </c>
@@ -4837,7 +4843,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>43762.58829861111</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>43762.588761574072</v>
       </c>
@@ -4877,7 +4883,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" hidden="1">
       <c r="A189" s="1">
         <v>43762.828159722223</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" hidden="1">
       <c r="A190" s="1">
         <v>43762.829421296294</v>
       </c>
@@ -4917,7 +4923,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>43763.671655092592</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" hidden="1">
       <c r="A192" s="1">
         <v>43763.750243055554</v>
       </c>
@@ -4957,7 +4963,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" hidden="1">
       <c r="A193" s="1">
         <v>43766.800752314812</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" hidden="1">
       <c r="A194" s="1">
         <v>43766.805034722223</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" hidden="1">
       <c r="A195" s="1">
         <v>43766.808900462966</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" hidden="1">
       <c r="A196" s="1">
         <v>43766.809178240743</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" hidden="1">
       <c r="A197" s="1">
         <v>43766.819953703707</v>
       </c>
@@ -5051,7 +5057,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" hidden="1">
       <c r="A198" s="1">
         <v>43766.821412037039</v>
       </c>
@@ -5068,7 +5074,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199" s="1">
         <v>43766.822199074071</v>
       </c>
@@ -5088,7 +5094,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" hidden="1">
       <c r="A200" s="1">
         <v>43766.823958333334</v>
       </c>
@@ -5108,7 +5114,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" hidden="1">
       <c r="A201" s="1">
         <v>43766.876851851855</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" hidden="1">
       <c r="A202" s="1">
         <v>43766.88721064815</v>
       </c>
@@ -5148,7 +5154,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203" s="1">
         <v>43766.887719907405</v>
       </c>
@@ -5168,7 +5174,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" hidden="1">
       <c r="A204" s="1">
         <v>43766.888090277775</v>
       </c>
@@ -5188,7 +5194,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" hidden="1">
       <c r="A205" s="1">
         <v>43766.888425925928</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" hidden="1">
       <c r="A206" s="1">
         <v>43766.889166666668</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207" s="1">
         <v>43766.889652777776</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" hidden="1">
       <c r="A208" s="1">
         <v>43766.890439814815</v>
       </c>
@@ -5268,7 +5274,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1">
       <c r="A209" s="1">
         <v>43766.891192129631</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" hidden="1">
       <c r="A210" s="1">
         <v>43766.891805555555</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211" s="1">
         <v>43766.893611111111</v>
       </c>
@@ -5325,7 +5331,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" hidden="1">
       <c r="A212" s="1">
         <v>43766.894907407404</v>
       </c>
@@ -5345,7 +5351,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" hidden="1">
       <c r="A213" s="1">
         <v>43768.587094907409</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" hidden="1">
       <c r="A214" s="1">
         <v>43771.555405092593</v>
       </c>
@@ -5382,7 +5388,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215" s="1">
         <v>43773.818090277775</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" hidden="1">
       <c r="A216" s="1">
         <v>43773.819062499999</v>
       </c>
@@ -5422,7 +5428,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>43776.890972222223</v>
       </c>
@@ -5442,7 +5448,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" hidden="1">
       <c r="A218" s="1">
         <v>43777.880983796298</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219" s="1">
         <v>43780.614247685182</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" hidden="1">
       <c r="A220" s="1">
         <v>43780.614837962959</v>
       </c>
@@ -5502,7 +5508,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" hidden="1">
       <c r="A221" s="1">
         <v>43781.848541666666</v>
       </c>
@@ -5522,7 +5528,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" hidden="1">
       <c r="A222" s="1">
         <v>43782.972002314818</v>
       </c>
@@ -5542,7 +5548,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>43783.637719907405</v>
       </c>
@@ -5559,7 +5565,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>43783.63821759259</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>43783.639374999999</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>43783.641006944446</v>
       </c>
@@ -5610,7 +5616,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227" s="1">
         <v>43789.580648148149</v>
       </c>
@@ -5630,7 +5636,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" hidden="1">
       <c r="A228" s="1">
         <v>43789.581087962964</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" hidden="1">
       <c r="A229" s="1">
         <v>43802.178773148145</v>
       </c>
@@ -5667,7 +5673,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" hidden="1">
       <c r="A230" s="1">
         <v>43802.1721875</v>
       </c>
@@ -5684,7 +5690,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231" s="1">
         <v>43809.846851851849</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" hidden="1">
       <c r="A232" s="1">
         <v>43810.74324074074</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" hidden="1">
       <c r="A233" s="1">
         <v>43810.743668981479</v>
       </c>
@@ -5744,7 +5750,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" hidden="1">
       <c r="A234" s="1">
         <v>43810.744039351855</v>
       </c>
@@ -5764,7 +5770,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235" s="1">
         <v>43812.711759259262</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" hidden="1">
       <c r="A236" s="1">
         <v>43812.713796296295</v>
       </c>
@@ -5822,12 +5828,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6065,48 +6071,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="5518ca6b-e5cc-490e-b98e-d5e5b111277c"/>
-    <ds:schemaRef ds:uri="c1033f61-e676-4180-b03d-6fcaed56d122"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78A48684-3ECA-4425-8D5D-0821DFE955B1}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3654D689-E397-4A9A-A0DE-BC1356D542E4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="262">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -808,6 +808,15 @@
   </si>
   <si>
     <t>Colborne et al. 2019. Sequence analysis and acoustic tracking of individual lake sturgeon identify multiple patterns of river–lake habitat use. Ecosphere 10(12): e02983</t>
+  </si>
+  <si>
+    <t>IUCN Leaders Meeting</t>
+  </si>
+  <si>
+    <t>IUCN Iguana Specialist Group meeting</t>
+  </si>
+  <si>
+    <t>van den Burg, M.P., Brisbane, J.L.K. &amp; Knapp, C.R. Biol Invasions (2019). https://doi.org/10.1007/s10530-019-02107-5</t>
   </si>
 </sst>
 </file>
@@ -914,17 +923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G236" totalsRowShown="0">
-  <autoFilter ref="A1:G236" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ahappel@sheddaquarium.org"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
-    <sortCondition ref="A1:A118"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G239" totalsRowShown="0">
+  <autoFilter ref="A1:G239" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
     <tableColumn id="2" xr3:uid="{37A5D46C-63FC-4A5A-BC50-C4BE807BE242}" name="ResponderEmail"/>
@@ -1235,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1275,7 +1275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>43537.01394675926</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>43537.01525462963</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>43537.015798611108</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>43542.600381944445</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>43542.600914351853</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>43557.815960648149</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>43557.818229166667</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>43557.818668981483</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>43557.83421296296</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>43557.835231481484</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>43557.835717592592</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>43557.839965277781</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>43557.84070601852</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>43557.841168981482</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>43557.841562499998</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>43557.842476851853</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>43557.843009259261</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>43557.857361111113</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>43557.858043981483</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>43557.858287037037</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>43557.858773148146</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>43558.596550925926</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>43558.606712962966</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>43558.608900462961</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>43558.610011574077</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>43558.610682870371</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>43558.612858796296</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>43558.61310185185</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>43558.614201388889</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>43558.61446759259</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>43558.614675925928</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>43577.60497685185</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>43577.605439814812</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>43577.606180555558</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>43601.63795138889</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>43601.640324074076</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>43615.901655092595</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>43615.90315972222</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>43615.904120370367</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>43634.718287037038</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>43634.720254629632</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>43634.721018518518</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>43634.721805555557</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>43634.723275462966</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>43634.723692129628</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>43634.724907407406</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>43634.725289351853</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>43634.725937499999</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>43634.727546296293</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>43634.727939814817</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>43634.729467592595</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>43634.730138888888</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>43634.730439814812</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>43634.731608796297</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>43634.733263888891</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>43634.733877314815</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>43634.734479166669</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>43634.735115740739</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>43634.75577546296</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>43634.757048611114</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>43634.75818287037</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>43634.764826388891</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>43634.769444444442</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>43634.771886574075</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>43634.77275462963</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>43634.775393518517</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>43634.775960648149</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>43634.784085648149</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>43635.881273148145</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>43636.670393518521</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>43636.671099537038</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>43636.6715625</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>43636.672824074078</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>43636.673136574071</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>43636.673981481479</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>43636.674953703703</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>43636.675393518519</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>43636.675891203704</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>43637.12096064815</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>43637.125092592592</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>43637.126643518517</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>43637.130104166667</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>43637.130798611113</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>43637.132118055553</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>43637.132731481484</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>43637.134652777779</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>43637.135844907411</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>43637.13658564815</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>43637.138483796298</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>43637.140381944446</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>43637.14329861111</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7">
       <c r="A120" s="6">
         <v>43637.14329861111</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1">
+    <row r="121" spans="1:7">
       <c r="A121" s="6">
         <v>43643.14329861111</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>43648.765092592592</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>43648.768055555556</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>43649.622928240744</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>43649.669988425929</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>43649.675844907404</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>43649.67628472222</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>43651.648530092592</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>43654.638043981482</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>43654.639872685184</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>43671.60765046296</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.25" hidden="1" customHeight="1">
+    <row r="135" spans="1:7" ht="14.25" customHeight="1">
       <c r="A135" s="1">
         <v>43676.827951388892</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>43690.617384259262</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>43690.624560185184</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>43690.624791666669</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>43634.724305555559</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>43634.724999999999</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>43698.886388888888</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>43706.023969907408</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>43733.843854166669</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>43733.844722222224</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>43738.667199074072</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>43738.667962962965</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>43738.668425925927</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>43738.668877314813</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>43738.798125000001</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>43738.798402777778</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>43738.799513888887</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>43738.800740740742</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>43738.801921296297</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>43738.802488425928</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>43739.882615740738</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>43739.88349537037</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>43739.884259259263</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>43739.884745370371</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>43739.885752314818</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>43739.886481481481</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>43739.887245370373</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>43739.887835648151</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>43741.760833333334</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>43741.76190972222</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>43741.763113425928</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>43741.764016203706</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>43741.765625</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>43741.767268518517</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>43741.768148148149</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>43741.770671296297</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>43754.878865740742</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>43759.934363425928</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>43759.934652777774</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>43762.828159722223</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>43762.829421296294</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>43763.750243055554</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>43766.800752314812</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>43766.805034722223</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>43766.808900462966</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>43766.809178240743</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>43766.819953703707</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>43766.821412037039</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>43766.822199074071</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>43766.823958333334</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>43766.876851851855</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>43766.88721064815</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>43766.887719907405</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>43766.888090277775</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>43766.888425925928</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>43766.889166666668</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>43766.889652777776</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>43766.890439814815</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>43766.891192129631</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>43766.891805555555</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>43766.893611111111</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>43766.894907407404</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>43768.587094907409</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>43771.555405092593</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>43773.818090277775</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>43773.819062499999</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>43777.880983796298</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>43780.614247685182</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>43780.614837962959</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>43781.848541666666</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>43782.972002314818</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>43789.580648148149</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>43789.581087962964</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>43802.178773148145</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>43802.1721875</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>43809.846851851849</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>43810.74324074074</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>43810.743668981479</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>43810.744039351855</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>43812.711759259262</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>43812.713796296295</v>
       </c>
@@ -5805,6 +5805,57 @@
       </c>
       <c r="E236" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>43817.907418981478</v>
+      </c>
+      <c r="B237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2">
+        <v>43744</v>
+      </c>
+      <c r="G237" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>43817.907754629632</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" s="2">
+        <v>43771</v>
+      </c>
+      <c r="G238" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>43817.92465277778</v>
+      </c>
+      <c r="B239" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" s="2">
+        <v>43748</v>
+      </c>
+      <c r="E239" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5828,6 +5879,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5836,7 +5896,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6070,23 +6130,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3654D689-E397-4A9A-A0DE-BC1356D542E4}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{135B755E-3983-4160-9F57-2D7EF3945C6D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="265">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -817,6 +817,15 @@
   </si>
   <si>
     <t>van den Burg, M.P., Brisbane, J.L.K. &amp; Knapp, C.R. Biol Invasions (2019). https://doi.org/10.1007/s10530-019-02107-5</t>
+  </si>
+  <si>
+    <t>http://iaglr.org/ll/2019-3-Fall_LL3.pdf</t>
+  </si>
+  <si>
+    <t>Non-peer reviewed publication I wrote about how the black spot disease paper came to be. Also speaks on Great Lakes Fish Finder and iNaturalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haerther Work Day - buckthorn removal </t>
   </si>
 </sst>
 </file>
@@ -923,8 +932,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G239" totalsRowShown="0">
-  <autoFilter ref="A1:G239" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G241" totalsRowShown="0">
+  <autoFilter ref="A1:G241" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
     <tableColumn id="2" xr3:uid="{37A5D46C-63FC-4A5A-BC50-C4BE807BE242}" name="ResponderEmail"/>
@@ -1235,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3977,7 +3986,7 @@
         <v>77</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2">
         <v>43564</v>
@@ -3997,7 +4006,7 @@
         <v>77</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2">
         <v>43565</v>
@@ -4971,7 +4980,7 @@
         <v>120</v>
       </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2">
         <v>43763</v>
@@ -5396,7 +5405,7 @@
         <v>120</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2">
         <v>43773</v>
@@ -5416,7 +5425,7 @@
         <v>120</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2">
         <v>43768</v>
@@ -5436,7 +5445,7 @@
         <v>20</v>
       </c>
       <c r="C217" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2">
         <v>43776</v>
@@ -5456,7 +5465,7 @@
         <v>77</v>
       </c>
       <c r="C218" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2">
         <v>43777</v>
@@ -5856,6 +5865,46 @@
       </c>
       <c r="E239" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>43818.635567129626</v>
+      </c>
+      <c r="B240" t="s">
+        <v>20</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" s="2">
+        <v>43790</v>
+      </c>
+      <c r="E240" t="s">
+        <v>262</v>
+      </c>
+      <c r="G240" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>43818.636030092595</v>
+      </c>
+      <c r="B241" t="s">
+        <v>20</v>
+      </c>
+      <c r="C241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="2">
+        <v>43817</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5888,15 +5937,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6130,14 +6170,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{135B755E-3983-4160-9F57-2D7EF3945C6D}"/>
+  <xr:revisionPtr revIDLastSave="458" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E21DE8C3-0318-4C4C-B24F-E94D42DAD548}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5880,7 +5880,7 @@
       <c r="D240" s="2">
         <v>43790</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="5" t="s">
         <v>262</v>
       </c>
       <c r="G240" t="s">
@@ -5919,21 +5919,22 @@
     <hyperlink ref="E149" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
     <hyperlink ref="E150" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
     <hyperlink ref="E145" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
+    <hyperlink ref="E240" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6171,16 +6172,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6188,5 +6189,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="458" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E21DE8C3-0318-4C4C-B24F-E94D42DAD548}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{444FBBC6-4DE2-49C9-9CF5-06B46C1AF8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="276">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -826,6 +826,39 @@
   </si>
   <si>
     <t xml:space="preserve">Haerther Work Day - buckthorn removal </t>
+  </si>
+  <si>
+    <t>https://news.wttw.com/2020/01/02/new-shedd-scientist-studies-impact-invasive-species-lake-michigan</t>
+  </si>
+  <si>
+    <t>Interview segment on WTTW Chicago Tonight about role at Shedd</t>
+  </si>
+  <si>
+    <t>https://urbanmilwaukee.com/pressrelease/business-leaders-meet-at-shedd-aquarium-to-discuss-protecting-restoring-vitality-of-great-lakes/</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Murchie gave graduate seminar at UW-Madison</t>
+  </si>
+  <si>
+    <t>Great Lakes Business Network Aquatic Invasive Species presentation representing Shedd</t>
+  </si>
+  <si>
+    <t>Environmental Chicago (EnvChi) talk on migratory fishes at Dovetail Brewery</t>
+  </si>
+  <si>
+    <t>Speaking on freshwater biodiversity conservation through public aquarium collab to UIC students</t>
+  </si>
+  <si>
+    <t>field research in Highland Park</t>
+  </si>
+  <si>
+    <t>20 FW ACCA students engaged in 3 days in October (Oct 5, 12, 19)</t>
+  </si>
+  <si>
+    <t>Coral Epigenetics field research in Moorea</t>
   </si>
 </sst>
 </file>
@@ -932,8 +965,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G241" totalsRowShown="0">
-  <autoFilter ref="A1:G241" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G250" totalsRowShown="0">
+  <autoFilter ref="A1:G250" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
     <tableColumn id="2" xr3:uid="{37A5D46C-63FC-4A5A-BC50-C4BE807BE242}" name="ResponderEmail"/>
@@ -1244,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="E240" sqref="E240"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="F245" sqref="F245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5905,6 +5938,186 @@
       </c>
       <c r="G241" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>43833.66547453704</v>
+      </c>
+      <c r="B242" t="s">
+        <v>255</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" s="2">
+        <v>43832</v>
+      </c>
+      <c r="E242" t="s">
+        <v>265</v>
+      </c>
+      <c r="G242" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>43833.917754629627</v>
+      </c>
+      <c r="B243" t="s">
+        <v>26</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" s="2">
+        <v>43767</v>
+      </c>
+      <c r="E243" t="s">
+        <v>267</v>
+      </c>
+      <c r="G243" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>43833.918425925927</v>
+      </c>
+      <c r="B244" t="s">
+        <v>26</v>
+      </c>
+      <c r="C244" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2">
+        <v>43761</v>
+      </c>
+      <c r="F244">
+        <v>60</v>
+      </c>
+      <c r="G244" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>43833.919108796297</v>
+      </c>
+      <c r="B245" t="s">
+        <v>26</v>
+      </c>
+      <c r="C245" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" s="2">
+        <v>43766</v>
+      </c>
+      <c r="F245">
+        <v>50</v>
+      </c>
+      <c r="G245" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>43833.919999999998</v>
+      </c>
+      <c r="B246" t="s">
+        <v>26</v>
+      </c>
+      <c r="C246" t="s">
+        <v>12</v>
+      </c>
+      <c r="D246" s="2">
+        <v>43766</v>
+      </c>
+      <c r="F246">
+        <v>40</v>
+      </c>
+      <c r="G246" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>43833.920474537037</v>
+      </c>
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247" t="s">
+        <v>12</v>
+      </c>
+      <c r="D247" s="2">
+        <v>43767</v>
+      </c>
+      <c r="F247">
+        <v>22</v>
+      </c>
+      <c r="G247" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>43833.922314814816</v>
+      </c>
+      <c r="B248" t="s">
+        <v>26</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>43833.922858796293</v>
+      </c>
+      <c r="B249" t="s">
+        <v>26</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="2">
+        <v>43743</v>
+      </c>
+      <c r="F249">
+        <v>20</v>
+      </c>
+      <c r="G249" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>43834.677800925929</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F250">
+        <v>13</v>
+      </c>
+      <c r="G250" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5929,6 +6142,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5937,7 +6159,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6171,23 +6393,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22505"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{444FBBC6-4DE2-49C9-9CF5-06B46C1AF8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C291A9A-0D2F-4AA2-AAF2-7A9762333CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="278">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -859,6 +859,12 @@
   </si>
   <si>
     <t>Coral Epigenetics field research in Moorea</t>
+  </si>
+  <si>
+    <t>Skype call with high school students participating in GLAD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buckthorn removal </t>
   </si>
 </sst>
 </file>
@@ -965,8 +971,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G250" totalsRowShown="0">
-  <autoFilter ref="A1:G250" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G252" totalsRowShown="0">
+  <autoFilter ref="A1:G252" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
     <tableColumn id="2" xr3:uid="{37A5D46C-63FC-4A5A-BC50-C4BE807BE242}" name="ResponderEmail"/>
@@ -1277,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
       <selection activeCell="F245" sqref="F245"/>
@@ -5554,8 +5560,8 @@
       <c r="A221" s="1">
         <v>43781.848541666666</v>
       </c>
-      <c r="B221" t="s">
-        <v>134</v>
+      <c r="B221" s="1">
+        <v>43781.848541666666</v>
       </c>
       <c r="C221" t="s">
         <v>8</v>
@@ -6118,6 +6124,46 @@
       </c>
       <c r="G250" t="s">
         <v>275</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>43836.690509259257</v>
+      </c>
+      <c r="B251" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="2">
+        <v>43788</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>43836.691168981481</v>
+      </c>
+      <c r="B252" t="s">
+        <v>134</v>
+      </c>
+      <c r="C252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="2">
+        <v>43791</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6142,24 +6188,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6393,8 +6421,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6402,5 +6448,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C291A9A-0D2F-4AA2-AAF2-7A9762333CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F2695F-3AE6-4DD4-9D82-5765F6E22671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="288">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -865,6 +865,36 @@
   </si>
   <si>
     <t xml:space="preserve">Buckthorn removal </t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/MicroFishing/comments/elty76/rmicrofishing_shout_out_in_research_paper/</t>
+  </si>
+  <si>
+    <t>Posted to the Reddit Microfishing page that we spoke about them in a research paper. It received 50 upvotes, which means ATLEAST 50 people read my post, but likely way more did as the community numbers &gt; 5,000</t>
+  </si>
+  <si>
+    <t>Lecture and Lab for vertebrate ecology course at Loyola.</t>
+  </si>
+  <si>
+    <t>Inoue K, Pohl AL, Makiri S, Lang BK, Berg DJ. (2020) Use of species delimitation approach to assess biodiversity in freshwater planarians (Platyhelminthes: Tricladida) from desert springs. Aquatic Conservation: Marine and Freshwater Ecosystems, DOI: 10.1002/aqc.3273</t>
+  </si>
+  <si>
+    <t>Presented at The Night of Ideas. &gt;5,000 attended event, and estimated 125 came to my talk.</t>
+  </si>
+  <si>
+    <t>Spoke about our research programs at the 'Waves of Gratitude' event for the auxiliary board</t>
+  </si>
+  <si>
+    <t>Coral research trip</t>
+  </si>
+  <si>
+    <t>Coral trip</t>
+  </si>
+  <si>
+    <t>Interview for ScienceWorld - a Scholastic magazine for highschoolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happel A., K.J. Murchie, P. W. Willink, and C.R. Knapp. In Press. Great Lakes Fish Finder App; a tool for biologists, managers and education practitioners. Journal of Great Lakes Research. XX:XX-XX. https://doi.org/10.1016/j.jglr.2019.12.002 </t>
   </si>
 </sst>
 </file>
@@ -971,8 +1001,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G252" totalsRowShown="0">
-  <autoFilter ref="A1:G252" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G261" totalsRowShown="0">
+  <autoFilter ref="A1:G261" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
     <tableColumn id="2" xr3:uid="{37A5D46C-63FC-4A5A-BC50-C4BE807BE242}" name="ResponderEmail"/>
@@ -1283,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="F245" sqref="F245"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6120,7 +6150,7 @@
         <v>43831</v>
       </c>
       <c r="F250">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G250" t="s">
         <v>275</v>
@@ -6164,6 +6194,180 @@
       </c>
       <c r="G252" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>43843.74900462963</v>
+      </c>
+      <c r="B253" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="2">
+        <v>43838</v>
+      </c>
+      <c r="E253" t="s">
+        <v>278</v>
+      </c>
+      <c r="F253">
+        <v>50</v>
+      </c>
+      <c r="G253" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>43858.879895833335</v>
+      </c>
+      <c r="B254" t="s">
+        <v>20</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="2">
+        <v>43852</v>
+      </c>
+      <c r="F254">
+        <v>15</v>
+      </c>
+      <c r="G254" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>43859.769270833334</v>
+      </c>
+      <c r="B255" t="s">
+        <v>40</v>
+      </c>
+      <c r="C255" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" s="2">
+        <v>43852</v>
+      </c>
+      <c r="E255" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>43861.711574074077</v>
+      </c>
+      <c r="B256" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="2">
+        <v>43860</v>
+      </c>
+      <c r="F256">
+        <v>125</v>
+      </c>
+      <c r="G256" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>43861.778101851851</v>
+      </c>
+      <c r="B257" t="s">
+        <v>111</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="2">
+        <v>43790</v>
+      </c>
+      <c r="F257">
+        <v>50</v>
+      </c>
+      <c r="G257" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>43861.778796296298</v>
+      </c>
+      <c r="B258" t="s">
+        <v>111</v>
+      </c>
+      <c r="C258" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="2">
+        <v>43743</v>
+      </c>
+      <c r="F258">
+        <v>7</v>
+      </c>
+      <c r="G258" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>43861.779282407406</v>
+      </c>
+      <c r="B259" t="s">
+        <v>77</v>
+      </c>
+      <c r="C259" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F259">
+        <v>7</v>
+      </c>
+      <c r="G259" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>43861.779849537037</v>
+      </c>
+      <c r="B260" t="s">
+        <v>77</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" s="2">
+        <v>43861</v>
+      </c>
+      <c r="G260" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>43861.918692129628</v>
+      </c>
+      <c r="B261" t="s">
+        <v>26</v>
+      </c>
+      <c r="C261" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" s="2">
+        <v>43826</v>
+      </c>
+      <c r="E261" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F2695F-3AE6-4DD4-9D82-5765F6E22671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6042ECD-EF81-44F5-AD61-D598F353D70E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="289">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -895,6 +895,9 @@
   </si>
   <si>
     <t xml:space="preserve">Happel A., K.J. Murchie, P. W. Willink, and C.R. Knapp. In Press. Great Lakes Fish Finder App; a tool for biologists, managers and education practitioners. Journal of Great Lakes Research. XX:XX-XX. https://doi.org/10.1016/j.jglr.2019.12.002 </t>
+  </si>
+  <si>
+    <t>Q&amp;A at 'Chasing Coral' screening at Downer's Grove public library</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1004,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G261" totalsRowShown="0">
-  <autoFilter ref="A1:G261" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G262" totalsRowShown="0">
+  <autoFilter ref="A1:G262" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
     <tableColumn id="2" xr3:uid="{37A5D46C-63FC-4A5A-BC50-C4BE807BE242}" name="ResponderEmail"/>
@@ -1313,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
       <selection activeCell="F251" sqref="F251"/>
@@ -6368,6 +6371,23 @@
       </c>
       <c r="E261" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>43863.019212962965</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>12</v>
+      </c>
+      <c r="D262" s="2">
+        <v>43862</v>
+      </c>
+      <c r="G262" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -6392,6 +6412,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6625,32 +6663,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22704"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6042ECD-EF81-44F5-AD61-D598F353D70E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE4F7B55-1B71-49EC-BE50-E873DBF805BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="321">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -53,198 +53,342 @@
     <t>Description</t>
   </si>
   <si>
+    <t>kmurchie@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Phang S.C., M. Cooperman, A.J. Lynch, E.A. Steel, V. Elliott, K.J. Murchie, S.J. Cooke, S. Dowd, I. Cowx. Fishing for conservation of freshwater tropical fishes in the Anthropocene.  2019.  Aquatic Conservation: Marine and Freshwater Ecosystems.  https://doi.org/10.1002/aqc.3080</t>
+  </si>
+  <si>
+    <t>KGLENNEMEIER@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Field research</t>
+  </si>
+  <si>
+    <t>Buckthorn removal</t>
+  </si>
+  <si>
+    <t>AKOUGH@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Media opportunity</t>
+  </si>
+  <si>
+    <t>https://www.miamiherald.com/news/local/environment/article224130335.html</t>
+  </si>
+  <si>
+    <t>http://www.tribune242.com/news/2019/jan/11/conch-may-be-wiped-out-10-15-years/</t>
+  </si>
+  <si>
+    <t>https://www.dailyherald.com/news/20190112/frogs-and-toads-fill-our-summers-with-sound-but-where-do-they-go-in-winter</t>
+  </si>
+  <si>
+    <t>Daily Herald story on frog biology and our research</t>
+  </si>
+  <si>
+    <t>Conference or active meeting</t>
+  </si>
+  <si>
+    <t>Talk to Wisconsin middle school and high school teachers about Shedd's freshwater conservation research and plugging into migratory fishes program (30 ppl attended)</t>
+  </si>
+  <si>
+    <t>http://www.tribune242.com/news/2019/jan/14/conch-crisis-needs-action/</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.com/animals/2019/01/conch-decline-overfishing-the-bahamas/</t>
+  </si>
+  <si>
+    <t>https://www.smithsonianmag.com/smart-news/bahamas-conchs-have-undergone-serial-depletion-180971287/</t>
+  </si>
+  <si>
+    <t>skessel@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Smukall, MJ, Kessel, ST, Franks, BR, Feldheim, KA, Guttridge, TL, Gruber, SH. No apparent negative tagging effects after 13 years at liberty for lemon shark, Negaprion brevirostris implanted with acoustic transmitter. J Fish Biol. 2019; 94: 173– 177. https://doi.org/10.1111/jfb.13856</t>
+  </si>
+  <si>
     <t>rcunning@sheddaquarium.org</t>
   </si>
   <si>
-    <t>Field research</t>
-  </si>
-  <si>
     <t>Coral research in Abaco with Middlebury College</t>
   </si>
   <si>
+    <t>WBBM radio interview</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>https://www.mccormick.northwestern.edu/magazine/spring-2019/deep-dive.html</t>
+  </si>
+  <si>
+    <t>http://www.hmwf.org/wp/wp-content/uploads/2019/02/NewsletterWinter2018.pdf</t>
+  </si>
+  <si>
+    <t>Pedro, S., Fisk, A. T., Ferguson, S. H., Hussey, N. E., Kessel, S. T., &amp; McKinney, M. A. (2019). Limited effects of changing prey fish communities on food quality for aquatic predators in the eastern Canadian Arctic in terms of essential fatty acids, methylmercury and selenium. Chemosphere, 214, 855-865.</t>
+  </si>
+  <si>
+    <t>lwaterhouse@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>American Fisheries Society governing board meeting (serve as President of Estuaries Section of American Fisheries Society).</t>
+  </si>
+  <si>
+    <t>Panelist for Congressman Quigley's Climate Resilience event</t>
+  </si>
+  <si>
+    <t>Yurkowski, D. J., Auger_Méthé, M., Mallory, M. L., Wong, S. N., Gilchrist, G., Derocher, A. E., ... &amp; Togunov, R. R. (2018). Abundance and species diversity hotspots of tracked marine predators across the North American Arctic. Diversity and Distributions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday 8th February - Talk to the Eco Educators society at the University of Illinios Chicago, School of Denistry.  </t>
+  </si>
+  <si>
+    <t>Protected Species Assessment Workshop (PSAW II) at Southwest Fisheries Science Center in La Jolla, CA. Presented work on Nassau grouper assessment for Cayman Islands.</t>
+  </si>
+  <si>
+    <t>cknapp@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Knapp, C. R., C. Perez-Heydrich, T. T. Zachariah, J. Jollay, A. Schnelle, S. D. Buckner, C. R. Lattin, and M. Romer. 2019. Host sex, size and hemoparasite infection influence the effects of ectoparasitic burdens on free-ranging iguanas. Ecology and Evolution 9:1946–1956. DOI: 10.1002/ece3.4887.</t>
+  </si>
+  <si>
+    <t>Published paper</t>
+  </si>
+  <si>
+    <t>ahappel@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Chicago Wilderness Wildlife Committee 2019</t>
+  </si>
+  <si>
+    <t>kinoue@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Nassau grouper research in Cayman Islands with REEF (Reef Environmental Education Foundation), Oregon State University, Scripps Institution of Oceanography, and the Cayman Island Department of the Environment</t>
+  </si>
+  <si>
+    <t>20 minute presentation to WDNR and UWisconsin profs and grad students on sucker monitoring program at WI-AFS chapter meeting in Green Bay (150 ppl)</t>
+  </si>
+  <si>
+    <t>https://www.fondriest.com/news/custom-student-designed-underwater-camera-mounts-help-capture-fish-behavior.htm</t>
+  </si>
+  <si>
+    <t>Round table on our career paths with Notre Dame students</t>
+  </si>
+  <si>
+    <t>Wild Things Conference - presented "Where do Salamanders Spend the Summer?"</t>
+  </si>
+  <si>
+    <t>Meeting at Illinois AFS -&gt; Direct connections with IL DNR, MWRD, UIUC, and INHS were made</t>
+  </si>
+  <si>
+    <t>Webb, A. C., J. B. Iverson, C. R. Knapp, D. F. DeNardo, and S. S. French. 2019. Energetic investment associated with vitellogenesis induces an oxidative cost of reproduction. Journal of Animal Ecology. 2019 :1–11. DOI: 10.1111/1365-2656.12936</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>Participated in the Shedd Aquarium Teen Work Study Group Career Pannel.</t>
+  </si>
+  <si>
     <t>Citizen/stakeholder engagement</t>
   </si>
   <si>
+    <t>Teen Lab engagement; identified mussels and created dichotomous keys.</t>
+  </si>
+  <si>
+    <t>https://www.portagelife.com/community/family/72446-shedd-expands-conservation-research-team-to-preserve-freshwater-marine-biodiversity</t>
+  </si>
+  <si>
+    <t>REEF Fishinar - on Nassau and Tiger Grouper spawning</t>
+  </si>
+  <si>
     <t>The Future of Coral' event with Shedd donors</t>
   </si>
   <si>
-    <t>Conference or active meeting</t>
-  </si>
-  <si>
-    <t>Panelist for Congressman Quigley's Climate Resilience event</t>
-  </si>
-  <si>
-    <t>cknapp@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Knapp, C. R., C. Perez-Heydrich, T. T. Zachariah, J. Jollay, A. Schnelle, S. D. Buckner, C. R. Lattin, and M. Romer. 2019. Host sex, size and hemoparasite infection influence the effects of ectoparasitic burdens on free-ranging iguanas. Ecology and Evolution 9:1946–1956. DOI: 10.1002/ece3.4887.</t>
-  </si>
-  <si>
-    <t>Published paper</t>
-  </si>
-  <si>
-    <t>Webb, A. C., J. B. Iverson, C. R. Knapp, D. F. DeNardo, and S. S. French. 2019. Energetic investment associated with vitellogenesis induces an oxidative cost of reproduction. Journal of Animal Ecology. 2019 :1–11. DOI: 10.1111/1365-2656.12936</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>ahappel@sheddaquarium.org</t>
+    <t>One Earth Film Festival. Sat on Panel with Dr. Andy Kough following screening of Sea of Hope.</t>
+  </si>
+  <si>
+    <t>MSI Science Cafe for elementrary school learners</t>
   </si>
   <si>
     <t>Teen Lab Fish Dissections</t>
   </si>
   <si>
-    <t>Meeting at Illinois AFS -&gt; Direct connections with IL DNR, MWRD, UIUC, and INHS were made</t>
+    <t>https://www.chicagoparent.com/learn/tips-for-getting-kids-interested-in-stem-fields/</t>
+  </si>
+  <si>
+    <t>PI meeting in Gainesville for NSF grant on Blue Crab Pathosystem</t>
+  </si>
+  <si>
+    <t>Chicago River Summit</t>
+  </si>
+  <si>
+    <t>Participated in the Friends of the Chicago River Summit in Chicago</t>
   </si>
   <si>
     <t xml:space="preserve">Organized and meet with MWRD to discuss future collaborations. </t>
   </si>
   <si>
-    <t>Chicago River Summit</t>
-  </si>
-  <si>
-    <t>Chicago Wilderness Wildlife Committee 2019</t>
-  </si>
-  <si>
-    <t>kmurchie@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Phang S.C., M. Cooperman, A.J. Lynch, E.A. Steel, V. Elliott, K.J. Murchie, S.J. Cooke, S. Dowd, I. Cowx. Fishing for conservation of freshwater tropical fishes in the Anthropocene.  2019.  Aquatic Conservation: Marine and Freshwater Ecosystems.  https://doi.org/10.1002/aqc.3080</t>
-  </si>
-  <si>
-    <t>Media opportunity</t>
-  </si>
-  <si>
-    <t>http://www.hmwf.org/wp/wp-content/uploads/2019/02/NewsletterWinter2018.pdf</t>
-  </si>
-  <si>
-    <t>https://www.fondriest.com/news/custom-student-designed-underwater-camera-mounts-help-capture-fish-behavior.htm</t>
-  </si>
-  <si>
-    <t>https://www.portagelife.com/community/family/72446-shedd-expands-conservation-research-team-to-preserve-freshwater-marine-biodiversity</t>
-  </si>
-  <si>
-    <t>https://www.chicagoparent.com/learn/tips-for-getting-kids-interested-in-stem-fields/</t>
+    <t>Meet with MWRD to discuss future collaborations.</t>
+  </si>
+  <si>
+    <t>Met with MWRD supervising and lead aquatic biologists to discuss data and collaborations - 5 guests + Austin &amp; Kentaro</t>
+  </si>
+  <si>
+    <t>http://tcweeklynews.com/conched-out-the-dire-state-of-the-tcis-most-iconic-product-p9504-127.htm</t>
+  </si>
+  <si>
+    <t>5 days of field research (March 18, 19, 26, 27, 28)</t>
+  </si>
+  <si>
+    <t>35 citizen scientists engaged in sucker monitoring (station set-up and active monitoring)</t>
+  </si>
+  <si>
+    <t>https://www.sheddaquarium.org/blog/2019/march/flowers-and-frogs-plants-and-animals-benefit-from-new-collaboration-with-the-chicago-botanic-garden/</t>
+  </si>
+  <si>
+    <t>Blog post about Shedd-Botanic Garden collaboration</t>
+  </si>
+  <si>
+    <t>Kough AS, Belak CA, Paris CB, Lundy A, Cronin H, Gnanalingam G, Hagedorn S, Skubel R, Weiler AC, Stoner AW (2019) Ecological spillover from a marine protected area replenishes an over-exploited population across an island chain. Conservation Science and Practice. doi:10.1002/csp2.17</t>
+  </si>
+  <si>
+    <t>Coral Reef II cruise to pilot the LobStarz</t>
+  </si>
+  <si>
+    <t>Coral work on marine research trip on CRII</t>
+  </si>
+  <si>
+    <t>participated in 2 day IL-AFS chapter meeting in Champaign IL (100 ppl)</t>
+  </si>
+  <si>
+    <t>Holmes, N. D., D. Spatz,.....C. R. Knapp, et al. 2019. Globally important islands where eradicating invasive mammals will benefit highly threatened vertebrates. PLoS ONE 14(3): e0212128. https://doi.org/10.1371/journal.pone.0212128.</t>
   </si>
   <si>
     <t>https://www.postcrescent.com/story/life/2019/03/30/shedd-aquarium-chicago-researcher-document-sucker-migration-lake-michigan-area-creeks-manitowoc/3303268002/</t>
   </si>
   <si>
-    <t>Talk to Wisconsin middle school and high school teachers about Shedd's freshwater conservation research and plugging into migratory fishes program (30 ppl attended)</t>
-  </si>
-  <si>
-    <t>20 minute presentation to WDNR and UWisconsin profs and grad students on sucker monitoring program at WI-AFS chapter meeting in Green Bay (150 ppl)</t>
-  </si>
-  <si>
-    <t>participated in 2 day IL-AFS chapter meeting in Champaign IL (100 ppl)</t>
-  </si>
-  <si>
-    <t>Participated in the Friends of the Chicago River Summit in Chicago</t>
-  </si>
-  <si>
-    <t>5 days of field research (March 18, 19, 26, 27, 28)</t>
-  </si>
-  <si>
-    <t>35 citizen scientists engaged in sucker monitoring (station set-up and active monitoring)</t>
-  </si>
-  <si>
-    <t>kinoue@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Meet with MWRD to discuss future collaborations.</t>
-  </si>
-  <si>
-    <t>Round table on our career paths with Notre Dame students</t>
-  </si>
-  <si>
-    <t>Met with MWRD supervising and lead aquatic biologists to discuss data and collaborations - 5 guests + Austin &amp; Kentaro</t>
-  </si>
-  <si>
-    <t>KGLENNEMEIER@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>WBBM radio interview</t>
-  </si>
-  <si>
-    <t>https://www.dailyherald.com/news/20190112/frogs-and-toads-fill-our-summers-with-sound-but-where-do-they-go-in-winter</t>
-  </si>
-  <si>
-    <t>Daily Herald story on frog biology and our research</t>
-  </si>
-  <si>
-    <t>https://www.sheddaquarium.org/blog/2019/march/flowers-and-frogs-plants-and-animals-benefit-from-new-collaboration-with-the-chicago-botanic-garden/</t>
-  </si>
-  <si>
-    <t>Blog post about Shedd-Botanic Garden collaboration</t>
-  </si>
-  <si>
-    <t>Wild Things Conference - presented "Where do Salamanders Spend the Summer?"</t>
-  </si>
-  <si>
-    <t>Buckthorn removal</t>
+    <t>37 citizen scientists conducting daily monitoring of sucker migrations at assigned tributaries for approximately 40 days</t>
   </si>
   <si>
     <t>10 Anglers engaged by Sea Grant to promote the use of Great Lakes FishFinder. + Engagement of 2 SeaGrant staff themselves.</t>
   </si>
   <si>
+    <t>Presentation at the Benthic Ecology Meeting</t>
+  </si>
+  <si>
     <t>River Ecology and Governance Task Force</t>
   </si>
   <si>
+    <t>Shark Shedd Adventure</t>
+  </si>
+  <si>
+    <t>Lecture for class visiting Shedd from ACCA school</t>
+  </si>
+  <si>
+    <t>Earth and Learn Symposim speaker at Whitney M. Young magnet school</t>
+  </si>
+  <si>
+    <t>Lecture for second lab section for ACCA school class</t>
+  </si>
+  <si>
+    <t>http://www.tribune242.com/news/2019/apr/11/protected-areas-can-aid-conch/?news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of meeting oversight committee for American Fisheries Society to give feedback on selection process for annual meetings. </t>
+  </si>
+  <si>
+    <t>Lecture for Lynns ACCA class</t>
+  </si>
+  <si>
+    <t>migratory fishes field work April 13-May 5 inclusive, June 5-8 inclusive; June 19 w Melissa - 28 days</t>
+  </si>
+  <si>
     <t>Taught at conservation genetic workshop in Freshwater Mollusk Conservation Society Symposium, San Antonio, TX.</t>
   </si>
   <si>
     <t>Presented 1 paper and 1 poster at Freshwater Mollusk Conservation Society Symposium, San Antonio, TX.</t>
   </si>
   <si>
-    <t>Teen Lab engagement; identified mussels and created dichotomous keys.</t>
+    <t>https://openexplorer.nationalgeographic.com/expedition/bahamasgrouper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Geographic open explorer blog for Nassau grouper research in The Bahamas. Blogs posted on 4/16, 4/18, 5/6. Working to post more blogs from ACCA. Will also be posted in June for Conch/Lobster trip (grouper observations). Obatined &gt;25 followes and successfully applied for and was chosen for a free TridentROV from S.E.E. Initiative. </t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/melissacristinamarquez/2019/04/29/tracking-down-sharks-in-the-bahamas/#56874a374470</t>
+  </si>
+  <si>
+    <t>Brownscombe J.W., E.J.I. Lédée, G.D. Raby, D.P. Struthers, L.F.G. Gutowsky, V.M. Nguyen, N. Young, M.J.W. Stokesbury, C.M. Holbrook, T.O. Brenden C.S. Vandergoot, K.J. Murchie, K. Whoriskey, J. Mills Flemming, S.T. Kessel, C.C. Krueger, S.J. Cooke.  2019.  Conducting and interpreting fish telemetry studies: considerations for researchers and resource managers.  Reviews in Fish Biology and Fisheries.  29:369-400.</t>
+  </si>
+  <si>
+    <t>Sub-commettee meeting of wildlife researchers from the River Ecology and Governance Group</t>
   </si>
   <si>
     <t xml:space="preserve">Round table with attendees of the New Horizons in Conservation Conference in Chicago </t>
   </si>
   <si>
-    <t>Sub-commettee meeting of wildlife researchers from the River Ecology and Governance Group</t>
+    <t>Shedd Facebook live April 26 (also instagram live in insta-story)</t>
+  </si>
+  <si>
+    <t>live interviews on facebook and instagram for Shedd social media</t>
   </si>
   <si>
     <t>River Ecology and Governance: Science and Design Meeting</t>
   </si>
   <si>
+    <t>Field work during the day and again at night</t>
+  </si>
+  <si>
+    <t>Field work night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCA Marine and Island Ecology of The Bahamas course. Had 18 enrolled students who participated in classes at Shedd and then participated in one of two 9 day trips aboard the R/V Coral Reef II. During the course we conducted research projects related to BRUVs (total 5 deployments), squid pops, 1 conch nursery survey, 5 coral samples collected, and numerous REEF surveys conducted. Some of the data will be used by other researchers at Shedd from the Marine Team. </t>
+  </si>
+  <si>
+    <t>Metting with MWRD and Urban Rivers to discuss potential Research</t>
+  </si>
+  <si>
+    <t>Field work nights</t>
+  </si>
+  <si>
     <t>NOAA grant review panel</t>
   </si>
   <si>
-    <t>Coral work on marine research trip on CRII</t>
-  </si>
-  <si>
-    <t>Field work nights</t>
-  </si>
-  <si>
-    <t>Metting with MWRD and Urban Rivers to discuss potential Research</t>
-  </si>
-  <si>
-    <t>Field work night</t>
-  </si>
-  <si>
     <t>Happel, A, Maier, C, Farese, N, Czesny, S, Rinchard, J. Fatty acids differentiate consumers despite variation within prey fatty acid profiles. Freshw Biol. 2019; 00: 1– 11. https://doi.org/10.1111/fwb.13315</t>
   </si>
   <si>
     <t>Publication came online</t>
   </si>
   <si>
+    <t>Lake Forest Country Day School - Scientist at residence. Gave two presentation to two age groups, and attended science classes. Around 200 kids total</t>
+  </si>
+  <si>
+    <t>Northwestern University Biological Student Association Career panel, 2 hrs, 20 undergraduates</t>
+  </si>
+  <si>
+    <t>Coral Bleaching Research Coordination Network workshop at Ohio State University</t>
+  </si>
+  <si>
     <t>Cunning R, Silverstein RN, Barnes BB, Baker AC (2019). Extensive coral mortality and critical habitat loss following dredging and their association with remotely-sensed sediment plumes. Mar Poll Bull 145:185-199. doi:10.1016/j.marpolbul.2019.05.027</t>
   </si>
   <si>
-    <t>Coral Bleaching Research Coordination Network workshop at Ohio State University</t>
-  </si>
-  <si>
     <t>https://www.miaminewtimes.com/news/portmiami-dredging-killed-a-half-million-corals-miami-waterkeeper-study-says-11184042</t>
   </si>
   <si>
     <t>Miami New Times story on Port of Miami dredging</t>
   </si>
   <si>
+    <t xml:space="preserve">Served on selection committe for best article for 2018 American Fisheries Society's North American Journal of Fisheries Management. </t>
+  </si>
+  <si>
+    <t>Served on selection committe for 2019 American Fisheries Society Emmeline Moore prize (for scientist who has showed exemplary record of dedication to issues of diversity, equity, and inclusion in the fisheries profession).</t>
+  </si>
+  <si>
     <t>3rd annual boathouse celebration at ParkNo 571 near the South Branch. Initiating community outreach to investigate outreach potential in the south parts of Chicago.</t>
   </si>
   <si>
@@ -254,7 +398,28 @@
     <t>Larval fish sampling night</t>
   </si>
   <si>
-    <t>Field work during the day and again at night</t>
+    <t>Shedd Iguana research trip</t>
+  </si>
+  <si>
+    <t>Iguana research trip interns and citizen scientists</t>
+  </si>
+  <si>
+    <t>Shedd Volunteer Learning Conference – Presentation on freshwater mussels followed by a field day at the River Islands</t>
+  </si>
+  <si>
+    <t>Volunteer Leadership Conference at Shedd - all freshwater team led talks/activities</t>
+  </si>
+  <si>
+    <t>Norris Aquatic Center engineering</t>
+  </si>
+  <si>
+    <t>myoungquist@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Tour of field sites at Bob Mann Woods and LaGrange Park Woods</t>
+  </si>
+  <si>
+    <t>Meeting with DuPage Co. Forest Preserve District and Urban Rivers to discuss potential Research</t>
   </si>
   <si>
     <t>Afternoon field day to deploy DO loggers</t>
@@ -263,217 +428,37 @@
     <t>Night of larval fish sampling</t>
   </si>
   <si>
-    <t>AKOUGH@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Kough AS, Belak CA, Paris CB, Lundy A, Cronin H, Gnanalingam G, Hagedorn S, Skubel R, Weiler AC, Stoner AW (2019) Ecological spillover from a marine protected area replenishes an over-exploited population across an island chain. Conservation Science and Practice. doi:10.1002/csp2.17</t>
-  </si>
-  <si>
-    <t>Earth and Learn Symposim speaker at Whitney M. Young magnet school</t>
-  </si>
-  <si>
-    <t>MSI Science Cafe for elementrary school learners</t>
-  </si>
-  <si>
-    <t>Norris Aquatic Center engineering</t>
-  </si>
-  <si>
-    <t>Northwestern University</t>
-  </si>
-  <si>
-    <t>https://www.mccormick.northwestern.edu/magazine/spring-2019/deep-dive.html</t>
+    <t>Summer Institutes on Scientific Teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kickoff meeting with ICCAT/AOTTP contract for age-growth work on Bigeye, Skipjack, and Yellowfin tunas. </t>
   </si>
   <si>
     <t>Interview with Science Magazine on Larval Fish Dispersal</t>
   </si>
   <si>
-    <t>Lecture for class visiting Shedd from ACCA school</t>
-  </si>
-  <si>
-    <t>Lecture for second lab section for ACCA school class</t>
-  </si>
-  <si>
-    <t>Lecture for Lynns ACCA class</t>
-  </si>
-  <si>
-    <t>https://www.nationalgeographic.com/animals/2019/01/conch-decline-overfishing-the-bahamas/</t>
-  </si>
-  <si>
-    <t>https://www.smithsonianmag.com/smart-news/bahamas-conchs-have-undergone-serial-depletion-180971287/</t>
-  </si>
-  <si>
-    <t>http://www.tribune242.com/news/2019/jan/14/conch-crisis-needs-action/</t>
-  </si>
-  <si>
-    <t>https://www.miamiherald.com/news/local/environment/article224130335.html</t>
-  </si>
-  <si>
-    <t>http://www.tribune242.com/news/2019/jan/11/conch-may-be-wiped-out-10-15-years/</t>
-  </si>
-  <si>
-    <t>http://tcweeklynews.com/conched-out-the-dire-state-of-the-tcis-most-iconic-product-p9504-127.htm</t>
-  </si>
-  <si>
-    <t>PI meeting in Gainesville for NSF grant on Blue Crab Pathosystem</t>
-  </si>
-  <si>
-    <t>Presentation at the Benthic Ecology Meeting</t>
-  </si>
-  <si>
-    <t>Coral Reef II cruise to pilot the LobStarz</t>
+    <t>River Ecology and Governence - Science and Design Committee meeting</t>
   </si>
   <si>
     <t>Coral Reef II, invertebrate fisheries research cruise</t>
   </si>
   <si>
-    <t>River Ecology and Governence - Science and Design Committee meeting</t>
-  </si>
-  <si>
-    <t>Shedd Volunteer Learning Conference – Presentation on freshwater mussels followed by a field day at the River Islands</t>
-  </si>
-  <si>
-    <t>Meeting with DuPage Co. Forest Preserve District and Urban Rivers to discuss potential Research</t>
-  </si>
-  <si>
-    <t>Brownscombe J.W., E.J.I. Lédée, G.D. Raby, D.P. Struthers, L.F.G. Gutowsky, V.M. Nguyen, N. Young, M.J.W. Stokesbury, C.M. Holbrook, T.O. Brenden C.S. Vandergoot, K.J. Murchie, K. Whoriskey, J. Mills Flemming, S.T. Kessel, C.C. Krueger, S.J. Cooke.  2019.  Conducting and interpreting fish telemetry studies: considerations for researchers and resource managers.  Reviews in Fish Biology and Fisheries.  29:369-400.</t>
-  </si>
-  <si>
-    <t>Shedd Facebook live April 26 (also instagram live in insta-story)</t>
-  </si>
-  <si>
-    <t>live interviews on facebook and instagram for Shedd social media</t>
-  </si>
-  <si>
-    <t>Northwestern University Biological Student Association Career panel, 2 hrs, 20 undergraduates</t>
-  </si>
-  <si>
-    <t>migratory fishes field work April 13-May 5 inclusive, June 5-8 inclusive; June 19 w Melissa - 28 days</t>
-  </si>
-  <si>
-    <t>37 citizen scientists conducting daily monitoring of sucker migrations at assigned tributaries for approximately 40 days</t>
-  </si>
-  <si>
-    <t>Volunteer Leadership Conference at Shedd - all freshwater team led talks/activities</t>
-  </si>
-  <si>
-    <t>http://www.tribune242.com/news/2019/apr/11/protected-areas-can-aid-conch/?news</t>
-  </si>
-  <si>
     <t>Meet at Dr. Keller's lab at Loyola to discuss his on going projects and future collaboration potentials some more.</t>
   </si>
   <si>
     <t>Mussel survey in the North Branch of Nippersink Creek near Richmond, IL. Three people from Openlands joined the survey.</t>
   </si>
   <si>
-    <t>skessel@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Smukall, MJ, Kessel, ST, Franks, BR, Feldheim, KA, Guttridge, TL, Gruber, SH. No apparent negative tagging effects after 13 years at liberty for lemon shark, Negaprion brevirostris implanted with acoustic transmitter. J Fish Biol. 2019; 94: 173– 177. https://doi.org/10.1111/jfb.13856</t>
-  </si>
-  <si>
-    <t>Pedro, S., Fisk, A. T., Ferguson, S. H., Hussey, N. E., Kessel, S. T., &amp; McKinney, M. A. (2019). Limited effects of changing prey fish communities on food quality for aquatic predators in the eastern Canadian Arctic in terms of essential fatty acids, methylmercury and selenium. Chemosphere, 214, 855-865.</t>
-  </si>
-  <si>
-    <t>Yurkowski, D. J., Auger_Méthé, M., Mallory, M. L., Wong, S. N., Gilchrist, G., Derocher, A. E., ... &amp; Togunov, R. R. (2018). Abundance and species diversity hotspots of tracked marine predators across the North American Arctic. Diversity and Distributions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 8th February - Talk to the Eco Educators society at the University of Illinios Chicago, School of Denistry.  </t>
-  </si>
-  <si>
-    <t>Participated in the Shedd Aquarium Teen Work Study Group Career Pannel.</t>
-  </si>
-  <si>
-    <t>Lake Forest Country Day School - Scientist at residence. Gave two presentation to two age groups, and attended science classes. Around 200 kids total</t>
-  </si>
-  <si>
-    <t>https://www.forbes.com/sites/melissacristinamarquez/2019/04/29/tracking-down-sharks-in-the-bahamas/#56874a374470</t>
-  </si>
-  <si>
-    <t>Shark Shedd Adventure</t>
-  </si>
-  <si>
-    <t>lwaterhouse@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Summer Institutes on Scientific Teaching</t>
-  </si>
-  <si>
-    <t>https://openexplorer.nationalgeographic.com/expedition/bahamasgrouper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Geographic open explorer blog for Nassau grouper research in The Bahamas. Blogs posted on 4/16, 4/18, 5/6. Working to post more blogs from ACCA. Will also be posted in June for Conch/Lobster trip (grouper observations). Obatined &gt;25 followes and successfully applied for and was chosen for a free TridentROV from S.E.E. Initiative. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCA Marine and Island Ecology of The Bahamas course. Had 18 enrolled students who participated in classes at Shedd and then participated in one of two 9 day trips aboard the R/V Coral Reef II. During the course we conducted research projects related to BRUVs (total 5 deployments), squid pops, 1 conch nursery survey, 5 coral samples collected, and numerous REEF surveys conducted. Some of the data will be used by other researchers at Shedd from the Marine Team. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Served on selection committe for best article for 2018 American Fisheries Society's North American Journal of Fisheries Management. </t>
-  </si>
-  <si>
-    <t>Served on selection committe for 2019 American Fisheries Society Emmeline Moore prize (for scientist who has showed exemplary record of dedication to issues of diversity, equity, and inclusion in the fisheries profession).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kickoff meeting with ICCAT/AOTTP contract for age-growth work on Bigeye, Skipjack, and Yellowfin tunas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member of meeting oversight committee for American Fisheries Society to give feedback on selection process for annual meetings. </t>
-  </si>
-  <si>
-    <t>Protected Species Assessment Workshop (PSAW II) at Southwest Fisheries Science Center in La Jolla, CA. Presented work on Nassau grouper assessment for Cayman Islands.</t>
-  </si>
-  <si>
-    <t>Nassau grouper research in Cayman Islands with REEF (Reef Environmental Education Foundation), Oregon State University, Scripps Institution of Oceanography, and the Cayman Island Department of the Environment</t>
-  </si>
-  <si>
-    <t>American Fisheries Society governing board meeting (serve as President of Estuaries Section of American Fisheries Society).</t>
-  </si>
-  <si>
-    <t>One Earth Film Festival. Sat on Panel with Dr. Andy Kough following screening of Sea of Hope.</t>
-  </si>
-  <si>
-    <t>REEF Fishinar - on Nassau and Tiger Grouper spawning</t>
-  </si>
-  <si>
-    <t>myoungquist@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Tour of field sites at Bob Mann Woods and LaGrange Park Woods</t>
+    <t>conch and lobster trip led by Dr. Kough. Also did Grouper counts and length estimation.</t>
+  </si>
+  <si>
+    <t>Submitted a review of a paper for Journal of Great Lakes Research</t>
   </si>
   <si>
     <t>River island building day</t>
   </si>
   <si>
-    <t>Inoue K, Harris JL, Robertson CR, Johnson NA, Randklev CR (2019) A comprehensive approach uncovers hidden diversity in freshwater mussels (Bivalvia: Unionidae) with the description of a novel species. Cladistics, DOI:10.1111/cla.12386.</t>
-  </si>
-  <si>
     <t>Joined Central Michigan University students on a mussel sampling trip in the Ozarks. Helped locating mussel habitats and identifying species.</t>
-  </si>
-  <si>
-    <t>conch and lobster trip led by Dr. Kough. Also did Grouper counts and length estimation.</t>
-  </si>
-  <si>
-    <t>Shedd Iguana research trip</t>
-  </si>
-  <si>
-    <t>Holmes, N. D., D. Spatz,.....C. R. Knapp, et al. 2019. Globally important islands where eradicating invasive mammals will benefit highly threatened vertebrates. PLoS ONE 14(3): e0212128. https://doi.org/10.1371/journal.pone.0212128.</t>
-  </si>
-  <si>
-    <t>Iguana research trip interns and citizen scientists</t>
-  </si>
-  <si>
-    <t>Science Pub at Jazzin'</t>
-  </si>
-  <si>
-    <t>Smith CH, Johnson NA, Inoue K, Doyle RD, Randklev CR (2019) Integrative taxonomy reveals a new species of freshwater mussel, Potamilus streckersoni sp. nov. (Bivalvia: Unionidae): implications for conservation and management. Systematics and Biodiversity, DOI:10.1080/14772000.14772019.11607615.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting with biologists in the DeKalb Co. Forest Preserve District; collected genetic samples of Venustaconcha ellipsiformis (Ellipse) from Big Rock Creek near Hinckley, IL. </t>
-  </si>
-  <si>
-    <t>Submitted a review of a paper for Journal of Great Lakes Research</t>
-  </si>
-  <si>
-    <t>Submitted a review of a paper for PlosOne</t>
   </si>
   <si>
     <t>ASM Teen Lab project on coral stress boxes</t>
@@ -483,31 +468,139 @@
 </t>
   </si>
   <si>
+    <t>Leslie Herrera internship</t>
+  </si>
+  <si>
+    <t>Katie Parker internship</t>
+  </si>
+  <si>
+    <t>Blog posts on ROV and grouper project. At end of September Nat Geo announced they are closing the blog- so the link is currently defunct. I saved all my data and will be looking for an alternative tool to use with the Marine class.</t>
+  </si>
+  <si>
+    <t>Inoue K, Harris JL, Robertson CR, Johnson NA, Randklev CR (2019) A comprehensive approach uncovers hidden diversity in freshwater mussels (Bivalvia: Unionidae) with the description of a novel species. Cladistics, DOI:10.1111/cla.12386.</t>
+  </si>
+  <si>
+    <t>Science Pub at Jazzin'</t>
+  </si>
+  <si>
+    <t>Smith CH, Johnson NA, Inoue K, Doyle RD, Randklev CR (2019) Integrative taxonomy reveals a new species of freshwater mussel, Potamilus streckersoni sp. nov. (Bivalvia: Unionidae): implications for conservation and management. Systematics and Biodiversity, DOI:10.1080/14772000.14772019.11607615.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with biologists in the DeKalb Co. Forest Preserve District; collected genetic samples of Venustaconcha ellipsiformis (Ellipse) from Big Rock Creek near Hinckley, IL. </t>
+  </si>
+  <si>
+    <t>8 field volunteers in this summer (July to September).</t>
+  </si>
+  <si>
+    <t>Submitted a review of a paper for PlosOne</t>
+  </si>
+  <si>
     <t>Great Lakes Now filming of field work and Interview</t>
   </si>
   <si>
+    <t>larval fish sampling with Austin (1 day) freshwater mussels field assistance (3 days)</t>
+  </si>
+  <si>
+    <t>Mussel survey in Lawrence Creek and Nippersink Creek, McHenry Co., IL.</t>
+  </si>
+  <si>
+    <t>Meeting with Allison Sacerdote-Velat about amphibian research in Chicago area</t>
+  </si>
+  <si>
+    <t>Teen Science Communication Workshop for Wiley Publishing Grant</t>
+  </si>
+  <si>
+    <t>Met with Shedd Teen Lab to discuss use of ROV in my research and then the teens showed me how to use the ROV out in the lake.</t>
+  </si>
+  <si>
+    <t>Meeting with Becky Collings of FPDCC</t>
+  </si>
+  <si>
+    <t>Nippersink mussel sampling w Ken</t>
+  </si>
+  <si>
+    <t>InFish 1 hr conference call</t>
+  </si>
+  <si>
+    <t>Mussel survey in the North Branch of Nippersink Creek near RIchmond, IL.</t>
+  </si>
+  <si>
+    <t>https://phys.org/news/2019-07-3m-collaborative-life.html</t>
+  </si>
+  <si>
+    <t>Press release on NSF Rules of Life grant to study coral epigenetics</t>
+  </si>
+  <si>
+    <t>Nippersink mussels with Ken</t>
+  </si>
+  <si>
+    <t>Meeting with NMFS-SEFSC center to discussion caribbean species management and tuna in atlantic. Met with Shannon Cass-Calay and Skyler Sagarese.</t>
+  </si>
+  <si>
+    <t>Mussel Monitoring Team Leader Workshop at the DuPage Co Mussel facility.</t>
+  </si>
+  <si>
+    <t>Trained volunteer Avery Wallace to analyze lobster video</t>
+  </si>
+  <si>
     <t>5 field nights plus 1 day with Kentaro mussel sampling</t>
   </si>
   <si>
+    <t xml:space="preserve">Invited speaker at the Teen Conservation Leadership Conference in Dominican University. </t>
+  </si>
+  <si>
+    <t>Mussel survey in the South Branch of the Kishwaukee River near Kingston, IL</t>
+  </si>
+  <si>
+    <t>Grouper research trip. Acoustically tagged 5 grouper (2 nassau, 2 black, 1 yellowfin). Deployed 60 BRUVs - most of which were stereo-BRUVs. Deployed 4 acoustic receivers. Conducted REEF and AGRRA surveys.</t>
+  </si>
+  <si>
+    <t>Meet with Craig Billington of FPDCC.</t>
+  </si>
+  <si>
+    <t>Mussel hunting with Ken</t>
+  </si>
+  <si>
+    <t>Grouper research trip to Berry Islands</t>
+  </si>
+  <si>
     <t>https://wbbm780.radio.com/articles/dozens-fish-along-chicago-river-walk-third-annual-fishing-event</t>
   </si>
   <si>
     <t>Chicago Fishes (Walked around and spoke to people about their catch or what is in the River and how the fish are doing)</t>
   </si>
   <si>
-    <t>Mussel hunting with Ken</t>
-  </si>
-  <si>
-    <t>Leslie Herrera internship</t>
-  </si>
-  <si>
-    <t>Katie Parker internship</t>
-  </si>
-  <si>
-    <t>https://phys.org/news/2019-07-3m-collaborative-life.html</t>
-  </si>
-  <si>
-    <t>Press release on NSF Rules of Life grant to study coral epigenetics</t>
+    <t>Review of a paper on Lake Trout diets in several gacial lakes for Freshwater Biology</t>
+  </si>
+  <si>
+    <t>Lunchtime lecture series for Friends of the Chicago River's Bridgehouse Museum</t>
+  </si>
+  <si>
+    <t>https://today.agrilife.org/2019/08/14/newly-discovered-mussels-may-help-refocus-conservation-efforts-in-texas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story about a new mussel species described from Texas. </t>
+  </si>
+  <si>
+    <t>Review of a paper on round goby diets in the Baltic for Journal of Great Lakes Research</t>
+  </si>
+  <si>
+    <t>Lennox R.J., C. Paukert, K. Aarestrup, M. Auger-Methe, L. Baumgartner, K. Birnie-Gauvin, K. Bøe, K. Brink, J. Browncombe, Y Chen, J.G. Davidsen, E. Eliason, A. Filous, B. Gillanders, I. Helland, A. Horodysky, S.R. Januchowski-Hartley, S.K. Lowerre-Barbieri, M.C. Lucas, E. Martins, K.J. Murchie, P.S. Pompeu, M. Power, R. Raghavan, F.J. Rahel, D. Secor, J.D. Thiem, E.B. Thorstad, H. Ueda, F.G. Whoriskey, and S.J. Cooke. 2019.  One hundred pressing questions on the future of global fish migration science, conservation, and policy. Frontiers in Ecology and Evolution.  doi:10.3389/fevo.2019.00286</t>
+  </si>
+  <si>
+    <t>Helped Austin for larval fish sampling</t>
+  </si>
+  <si>
+    <t>5 field nights sampling for larval fishes</t>
+  </si>
+  <si>
+    <t>Mussel survey in Poplar Creek near Elgin, IL</t>
+  </si>
+  <si>
+    <t>Research trip aboard R/V Coral Reef II. Co-led with George Parsons. Trip had 9 paying participants. Conducted AGRRA fish surveys, AGRRA coral surveys, REEF fish surveys, and BRUVs at and near Bimini dive sites.</t>
+  </si>
+  <si>
+    <t>Coral research brown bag - Katie/Leslie presented research results</t>
   </si>
   <si>
     <t>UIUC invited seminar and meetings with faculty, grad students, and undergrads</t>
@@ -516,7 +609,7 @@
     <t>Tap into Chicago River Guest Engagement event at Mousetrap Brewery. ~60 people registered for the event.</t>
   </si>
   <si>
-    <t>5 field nights sampling for larval fishes</t>
+    <t>Helped Austin with field work sampling larval fish.</t>
   </si>
   <si>
     <t>http://greatlakesecho.org/2019/09/04/record-a-prized-catch-for-science-without-revealing-your-favorite-fishing-hole/</t>
@@ -525,100 +618,91 @@
     <t>Interview led to an article being published</t>
   </si>
   <si>
+    <t>https://news.jrn.msu.edu/2019/09/record-a-prized-catch-for-science-without-revealing-your-favorite-fishing-hole/</t>
+  </si>
+  <si>
+    <t>Discussion with a Sanibel Island Engagement Group for Development</t>
+  </si>
+  <si>
+    <t>Deep sea shark research trip</t>
+  </si>
+  <si>
+    <t>Participants on the deep sea shark research trip</t>
+  </si>
+  <si>
+    <t>Guest speaker for 3 hr meeting of Trout Unlimited Elliott Donnelly Chapter in Chicago</t>
+  </si>
+  <si>
+    <t>Mussel monitoring in the North Branch of Nippersink Creek near Richmond, IL.</t>
+  </si>
+  <si>
+    <t>Presentation of Port of Miami dredging impacts to US Army Corps scientists</t>
+  </si>
+  <si>
+    <t>IL-IN Sea Grant AIS workshop (7 hrs)</t>
+  </si>
+  <si>
+    <t>Coral spawning research at Cape Eleuthera Institute</t>
+  </si>
+  <si>
+    <t>3 classes of Freshwater Ecology ACCA for 20 students (Sept 14, 21, 28)</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1016/j.ijppaw.2019.08.003</t>
   </si>
   <si>
-    <t>https://news.jrn.msu.edu/2019/09/record-a-prized-catch-for-science-without-revealing-your-favorite-fishing-hole/</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=t9bx1ZAR6Hg&amp;list=PL_P35GZcjx3Gg4Gdje1KI7RipZJBF5zU2&amp;index=3&amp;t=0s</t>
   </si>
   <si>
     <t>video of my research and the kayak program https://www.youtube.com/watch?v=t9bx1ZAR6Hg&amp;list=PL_P35GZcjx3Gg4Gdje1KI7RipZJBF5zU2&amp;index=3&amp;t=0s</t>
   </si>
   <si>
-    <t>Coral spawning research at Cape Eleuthera Institute</t>
-  </si>
-  <si>
     <t>SECORE workshop participants and CEI interns engaged in coral spawning research at CEI</t>
   </si>
   <si>
+    <t>Light trap with Austin</t>
+  </si>
+  <si>
+    <t>Mussel survey in Coffee Creek near Chesterton, IN, with INDNR and USGS.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seminar for seminar series at the University of Illinois </t>
   </si>
   <si>
-    <t>Grouper research trip to Berry Islands</t>
-  </si>
-  <si>
-    <t>Deep sea shark research trip</t>
-  </si>
-  <si>
-    <t>Participants on the deep sea shark research trip</t>
-  </si>
-  <si>
-    <t>Nippersink mussel sampling w Ken</t>
-  </si>
-  <si>
-    <t>Nippersink mussels with Ken</t>
+    <t>Worked with intern Cam to analyze lobster video for 2 days</t>
+  </si>
+  <si>
+    <t>ICCAT Species Working group meeting. Gave 2 talks - one on data overview for tuna growth project and the other on a Bayesian method for aging spines.</t>
   </si>
   <si>
     <t>Larval Fish with Austin</t>
   </si>
   <si>
-    <t>Light trap with Austin</t>
-  </si>
-  <si>
-    <t>Trained volunteer Avery Wallace to analyze lobster video</t>
-  </si>
-  <si>
-    <t>Worked with intern Cam to analyze lobster video for 2 days</t>
-  </si>
-  <si>
-    <t>Lennox R.J., C. Paukert, K. Aarestrup, M. Auger-Methe, L. Baumgartner, K. Birnie-Gauvin, K. Bøe, K. Brink, J. Browncombe, Y Chen, J.G. Davidsen, E. Eliason, A. Filous, B. Gillanders, I. Helland, A. Horodysky, S.R. Januchowski-Hartley, S.K. Lowerre-Barbieri, M.C. Lucas, E. Martins, K.J. Murchie, P.S. Pompeu, M. Power, R. Raghavan, F.J. Rahel, D. Secor, J.D. Thiem, E.B. Thorstad, H. Ueda, F.G. Whoriskey, and S.J. Cooke. 2019.  One hundred pressing questions on the future of global fish migration science, conservation, and policy. Frontiers in Ecology and Evolution.  doi:10.3389/fevo.2019.00286</t>
-  </si>
-  <si>
-    <t>InFish 1 hr conference call</t>
-  </si>
-  <si>
-    <t>Lunchtime lecture series for Friends of the Chicago River's Bridgehouse Museum</t>
-  </si>
-  <si>
-    <t>IL-IN Sea Grant AIS workshop (7 hrs)</t>
-  </si>
-  <si>
-    <t>larval fish sampling with Austin (1 day) freshwater mussels field assistance (3 days)</t>
-  </si>
-  <si>
-    <t>Teen Science Communication Workshop for Wiley Publishing Grant</t>
-  </si>
-  <si>
-    <t>Guest speaker for 3 hr meeting of Trout Unlimited Elliott Donnelly Chapter in Chicago</t>
-  </si>
-  <si>
-    <t>3 classes of Freshwater Ecology ACCA for 20 students (Sept 14, 21, 28)</t>
-  </si>
-  <si>
-    <t>Grouper research trip. Acoustically tagged 5 grouper (2 nassau, 2 black, 1 yellowfin). Deployed 60 BRUVs - most of which were stereo-BRUVs. Deployed 4 acoustic receivers. Conducted REEF and AGRRA surveys.</t>
-  </si>
-  <si>
-    <t>Meeting with NMFS-SEFSC center to discussion caribbean species management and tuna in atlantic. Met with Shannon Cass-Calay and Skyler Sagarese.</t>
-  </si>
-  <si>
-    <t>Research trip aboard R/V Coral Reef II. Co-led with George Parsons. Trip had 9 paying participants. Conducted AGRRA fish surveys, AGRRA coral surveys, REEF fish surveys, and BRUVs at and near Bimini dive sites.</t>
-  </si>
-  <si>
-    <t>Met with Shedd Teen Lab to discuss use of ROV in my research and then the teens showed me how to use the ROV out in the lake.</t>
-  </si>
-  <si>
-    <t>ICCAT Species Working group meeting. Gave 2 talks - one on data overview for tuna growth project and the other on a Bayesian method for aging spines.</t>
-  </si>
-  <si>
-    <t>Blog posts on ROV and grouper project. At end of September Nat Geo announced they are closing the blog- so the link is currently defunct. I saved all my data and will be looking for an alternative tool to use with the Marine class.</t>
-  </si>
-  <si>
     <t>American Fisheries Society Meeting in Reno, NV. Led Estuaries Section business meeting on Sunday (as president of chapter), attended governing board breakfast Monday, gave talk on Tuesday on PIT tag model for nested riverine systems, and attended conference talks. Posted to twitter account during the meeting.</t>
   </si>
   <si>
-    <t>Helped Austin with field work sampling larval fish.</t>
+    <t>Coral research trip on R/V CRII</t>
+  </si>
+  <si>
+    <t>Number of participants in coral research trip on R/V CRII</t>
+  </si>
+  <si>
+    <t>20 FW ACCA students engaged in 3 days in October (Oct 5, 12, 19)</t>
+  </si>
+  <si>
+    <t>Coral research trip</t>
+  </si>
+  <si>
+    <t>IUCN Leaders Meeting</t>
+  </si>
+  <si>
+    <t>Review of a paper for Canadian Journal of Fisheries and Aquatic Sciences (modelling salmon diets with stable isotopes in Lake Michigan)</t>
+  </si>
+  <si>
+    <t>van den Burg, M.P., Brisbane, J.L.K. &amp; Knapp, C.R. Biol Invasions (2019). https://doi.org/10.1007/s10530-019-02107-5</t>
+  </si>
+  <si>
+    <t>Coral trip</t>
   </si>
   <si>
     <t>9 students and 3 teachers engaged in high school research projects through the Mentor Matching Engine. This sets studnets doing research projects (think science fair) with professionals to get help on the projects and work through problems. Projects are on-going, usually through a whole semester.</t>
@@ -627,16 +711,22 @@
     <t xml:space="preserve">Skype a Scientist with 5th grade classroom in Columbus, OH - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist. </t>
   </si>
   <si>
+    <t>http://www.ceibahamas.org/ceinews/2019/10/16/coral-breeding-amp-restoration-workshop</t>
+  </si>
+  <si>
+    <t>CEI news article about Shedd/UM coral research associated with SECORE/spawning trip</t>
+  </si>
+  <si>
     <t>Met with Purdue Student-unit of the American Fisheries Society to discuss career path and options.</t>
   </si>
   <si>
+    <t>Teen Lab engagement; introduction to freshwater mussels</t>
+  </si>
+  <si>
     <t>Seminar at Purdue University's Forestry and Natural Resources Department.</t>
   </si>
   <si>
-    <t>Coral research trip on R/V CRII</t>
-  </si>
-  <si>
-    <t>Number of participants in coral research trip on R/V CRII</t>
+    <t>field research in Highland Park</t>
   </si>
   <si>
     <t>Teen Lab presentation and Chat</t>
@@ -645,94 +735,58 @@
     <t>Science and Design committee of the River Ecology and Governance Task Force</t>
   </si>
   <si>
-    <t>Teen Lab engagement; introduction to freshwater mussels</t>
-  </si>
-  <si>
     <t>Guest speaker for Biology departmental seminar at Loyola University</t>
   </si>
   <si>
+    <t>Murchie gave graduate seminar at UW-Madison</t>
+  </si>
+  <si>
     <t>Meeting with collaborators to discuss NSF LTER Urban Centers proposal.</t>
   </si>
   <si>
-    <t>Discussion with a Sanibel Island Engagement Group for Development</t>
-  </si>
-  <si>
     <t xml:space="preserve">Skype a Scientist with 5th grade classroom in Columbus, OH (different group of students) - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist. </t>
   </si>
   <si>
-    <t>Presentation of Port of Miami dredging impacts to US Army Corps scientists</t>
-  </si>
-  <si>
     <t>Spoke with Tribune reporter Steve for 40 minutes!</t>
   </si>
   <si>
-    <t>http://www.ceibahamas.org/ceinews/2019/10/16/coral-breeding-amp-restoration-workshop</t>
-  </si>
-  <si>
-    <t>CEI news article about Shedd/UM coral research associated with SECORE/spawning trip</t>
-  </si>
-  <si>
-    <t>Meeting with Allison Sacerdote-Velat about amphibian research in Chicago area</t>
-  </si>
-  <si>
-    <t>Meeting with Becky Collings of FPDCC</t>
-  </si>
-  <si>
-    <t>Meet with Craig Billington of FPDCC.</t>
-  </si>
-  <si>
-    <t>Coral research brown bag - Katie/Leslie presented research results</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ross and Steve spoke at a President's Council Event at the Connell's </t>
   </si>
   <si>
-    <t>Mussel survey in Lawrence Creek and Nippersink Creek, McHenry Co., IL.</t>
-  </si>
-  <si>
-    <t>Mussel survey in the North Branch of Nippersink Creek near RIchmond, IL.</t>
-  </si>
-  <si>
-    <t>Mussel survey in the South Branch of the Kishwaukee River near Kingston, IL</t>
-  </si>
-  <si>
-    <t>Helped Austin for larval fish sampling</t>
-  </si>
-  <si>
-    <t>Mussel survey in Poplar Creek near Elgin, IL</t>
-  </si>
-  <si>
-    <t>Mussel monitoring in the North Branch of Nippersink Creek near Richmond, IL.</t>
-  </si>
-  <si>
-    <t>Mussel survey in Coffee Creek near Chesterton, IN, with INDNR and USGS.</t>
-  </si>
-  <si>
-    <t>Mussel Monitoring Team Leader Workshop at the DuPage Co Mussel facility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invited speaker at the Teen Conservation Leadership Conference in Dominican University. </t>
-  </si>
-  <si>
-    <t>https://today.agrilife.org/2019/08/14/newly-discovered-mussels-may-help-refocus-conservation-efforts-in-texas/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story about a new mussel species described from Texas. </t>
-  </si>
-  <si>
-    <t>8 field volunteers in this summer (July to September).</t>
+    <t>Great Lakes Business Network Aquatic Invasive Species presentation representing Shedd</t>
+  </si>
+  <si>
+    <t>Environmental Chicago (EnvChi) talk on migratory fishes at Dovetail Brewery</t>
   </si>
   <si>
     <t>McIlroy, SE, Cunning, R, Baker, AC, Coffroth, MA. Competition and succession among coral endosymbionts. Ecol Evol. 2019; 00: 1– 12. https://doi.org/10.1002/ece3.5749</t>
   </si>
   <si>
+    <t>https://urbanmilwaukee.com/pressrelease/business-leaders-meet-at-shedd-aquarium-to-discuss-protecting-restoring-vitality-of-great-lakes/</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Speaking on freshwater biodiversity conservation through public aquarium collab to UIC students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skype with Elizabeth Stamp's kindergarten class in Washington state for 40minutes. Discussed salmon and what I do as a scientist. </t>
+  </si>
+  <si>
+    <t>Andrea Gomez 3-week research internship</t>
+  </si>
+  <si>
     <t>Yoga/coral event with Learning</t>
   </si>
   <si>
+    <t>IUCN Iguana Specialist Group meeting</t>
+  </si>
+  <si>
     <t>Skype a Scientist. Clasroom of STEAM from Resurrection HS in Chicago (all-girls school) with Megan Leider's class - talking about careers in marine science and educational background. 40minutes long.</t>
   </si>
   <si>
-    <t xml:space="preserve">Skype with Elizabeth Stamp's kindergarten class in Washington state for 40minutes. Discussed salmon and what I do as a scientist. </t>
+    <t>Mentor Matching engine - mentoring Senior at Downers Grove North in west suburbs of Chicago - on project Marine Ecology Research Project</t>
   </si>
   <si>
     <t>Andy and Austin present to Northwestern Law Students.</t>
@@ -750,34 +804,46 @@
     <t>Site prep with GLAD team</t>
   </si>
   <si>
+    <t>Review of a paper for Philosophical Transactions B  (Some work on modelling food webs with fatty acids)</t>
+  </si>
+  <si>
     <t>Austin and Ross (with Jaclyn) speak to Tim Hoellein's Global Change Biology class at Loyola</t>
   </si>
   <si>
-    <t>Review of a paper for Philosophical Transactions B  (Some work on modelling food webs with fatty acids)</t>
-  </si>
-  <si>
-    <t>Review of a paper for Canadian Journal of Fisheries and Aquatic Sciences (modelling salmon diets with stable isotopes in Lake Michigan)</t>
-  </si>
-  <si>
-    <t>Review of a paper on round goby diets in the Baltic for Journal of Great Lakes Research</t>
-  </si>
-  <si>
-    <t>Review of a paper on Lake Trout diets in several gacial lakes for Freshwater Biology</t>
-  </si>
-  <si>
-    <t>Andrea Gomez 3-week research internship</t>
-  </si>
-  <si>
     <t>Dr. Sam Starko visiting researcher 1-week lab project</t>
   </si>
   <si>
+    <t>Skype call with high school students participating in GLAD.</t>
+  </si>
+  <si>
+    <t>http://iaglr.org/ll/2019-3-Fall_LL3.pdf</t>
+  </si>
+  <si>
+    <t>Non-peer reviewed publication I wrote about how the black spot disease paper came to be. Also speaks on Great Lakes Fish Finder and iNaturalist</t>
+  </si>
+  <si>
+    <t>Spoke about our research programs at the 'Waves of Gratitude' event for the auxiliary board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buckthorn removal </t>
+  </si>
+  <si>
+    <t>NSF URoL Epigenetics PI meeting in Santa Barbara</t>
+  </si>
+  <si>
     <t>NSF Moorea Coral Reef LTER All Investigators Meeting, Santa Barbara</t>
   </si>
   <si>
-    <t>NSF URoL Epigenetics PI meeting in Santa Barbara</t>
-  </si>
-  <si>
-    <t>Mentor Matching engine - mentoring Senior at Downers Grove North in west suburbs of Chicago - on project Marine Ecology Research Project</t>
+    <t>scolborne@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Colborne et al. 2019. Sequence analysis and acoustic tracking of individual lake sturgeon identify multiple patterns of river–lake habitat use. Ecosphere 10(12): e02983</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/204d2637-5b2d-49ca-b33d-9fd55e4d71d0-132.html</t>
+  </si>
+  <si>
+    <t>Chicago Tribune video interview on coral reef research in the Bahamas</t>
   </si>
   <si>
     <t>https://www.chicagotribune.com/entertainment/museums/ct-ent-shedd-aquarium-coral-reef-research-climate-change-1215-20191211-lmp6g4sbqrcu7flckl7baaosrm-story.html</t>
@@ -792,81 +858,27 @@
     <t>Chicago Tribune supporting story on life aboard the Coral Reef II</t>
   </si>
   <si>
-    <t>https://www.chicagotribune.com/204d2637-5b2d-49ca-b33d-9fd55e4d71d0-132.html</t>
-  </si>
-  <si>
-    <t>Chicago Tribune video interview on coral reef research in the Bahamas</t>
-  </si>
-  <si>
-    <t>scolborne@sheddaquarium.org</t>
-  </si>
-  <si>
     <t>https://wbbm780.radio.com/articles/there-may-be-silver-lining-to-invasive-species-in-lake</t>
   </si>
   <si>
     <t>Radio interview with WBBM</t>
   </si>
   <si>
-    <t>Colborne et al. 2019. Sequence analysis and acoustic tracking of individual lake sturgeon identify multiple patterns of river–lake habitat use. Ecosphere 10(12): e02983</t>
-  </si>
-  <si>
-    <t>IUCN Leaders Meeting</t>
-  </si>
-  <si>
-    <t>IUCN Iguana Specialist Group meeting</t>
-  </si>
-  <si>
-    <t>van den Burg, M.P., Brisbane, J.L.K. &amp; Knapp, C.R. Biol Invasions (2019). https://doi.org/10.1007/s10530-019-02107-5</t>
-  </si>
-  <si>
-    <t>http://iaglr.org/ll/2019-3-Fall_LL3.pdf</t>
-  </si>
-  <si>
-    <t>Non-peer reviewed publication I wrote about how the black spot disease paper came to be. Also speaks on Great Lakes Fish Finder and iNaturalist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Haerther Work Day - buckthorn removal </t>
   </si>
   <si>
+    <t xml:space="preserve">Happel A., K.J. Murchie, P. W. Willink, and C.R. Knapp. In Press. Great Lakes Fish Finder App; a tool for biologists, managers and education practitioners. Journal of Great Lakes Research. XX:XX-XX. https://doi.org/10.1016/j.jglr.2019.12.002 </t>
+  </si>
+  <si>
+    <t>Coral Epigenetics field research in Moorea</t>
+  </si>
+  <si>
     <t>https://news.wttw.com/2020/01/02/new-shedd-scientist-studies-impact-invasive-species-lake-michigan</t>
   </si>
   <si>
     <t>Interview segment on WTTW Chicago Tonight about role at Shedd</t>
   </si>
   <si>
-    <t>https://urbanmilwaukee.com/pressrelease/business-leaders-meet-at-shedd-aquarium-to-discuss-protecting-restoring-vitality-of-great-lakes/</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Murchie gave graduate seminar at UW-Madison</t>
-  </si>
-  <si>
-    <t>Great Lakes Business Network Aquatic Invasive Species presentation representing Shedd</t>
-  </si>
-  <si>
-    <t>Environmental Chicago (EnvChi) talk on migratory fishes at Dovetail Brewery</t>
-  </si>
-  <si>
-    <t>Speaking on freshwater biodiversity conservation through public aquarium collab to UIC students</t>
-  </si>
-  <si>
-    <t>field research in Highland Park</t>
-  </si>
-  <si>
-    <t>20 FW ACCA students engaged in 3 days in October (Oct 5, 12, 19)</t>
-  </si>
-  <si>
-    <t>Coral Epigenetics field research in Moorea</t>
-  </si>
-  <si>
-    <t>Skype call with high school students participating in GLAD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckthorn removal </t>
-  </si>
-  <si>
     <t>https://www.reddit.com/r/MicroFishing/comments/elty76/rmicrofishing_shout_out_in_research_paper/</t>
   </si>
   <si>
@@ -882,22 +894,106 @@
     <t>Presented at The Night of Ideas. &gt;5,000 attended event, and estimated 125 came to my talk.</t>
   </si>
   <si>
-    <t>Spoke about our research programs at the 'Waves of Gratitude' event for the auxiliary board</t>
-  </si>
-  <si>
-    <t>Coral research trip</t>
-  </si>
-  <si>
-    <t>Coral trip</t>
-  </si>
-  <si>
     <t>Interview for ScienceWorld - a Scholastic magazine for highschoolers</t>
   </si>
   <si>
-    <t xml:space="preserve">Happel A., K.J. Murchie, P. W. Willink, and C.R. Knapp. In Press. Great Lakes Fish Finder App; a tool for biologists, managers and education practitioners. Journal of Great Lakes Research. XX:XX-XX. https://doi.org/10.1016/j.jglr.2019.12.002 </t>
-  </si>
-  <si>
     <t>Q&amp;A at 'Chasing Coral' screening at Downer's Grove public library</t>
+  </si>
+  <si>
+    <t>Meeting with Emily Marlas, organized through Development</t>
+  </si>
+  <si>
+    <t>Cocktails with a conservationist event in Wild Reef</t>
+  </si>
+  <si>
+    <t>Tour and chat with Jeremy Goodsnyder, prospective research volunteer</t>
+  </si>
+  <si>
+    <t>REview of a paper for Urban Ecosystems (changes in aquatic landscape and fauna in ChicagoLand)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Featured in AZA instagram story takeover discussing coral research</t>
+  </si>
+  <si>
+    <t>Presentation during dinner in Wild Reef hosted by Laura Anderson, with Development</t>
+  </si>
+  <si>
+    <t>Weeks, C, Meagher, S, Willink, P, McCravy, KW. Does seawater acidification affect zooxanthellae density and health in the invasive upside‐down jellyfish, Cassiopea spp.? Invertebr Biol. 2019; 138:e12255. https://doi.org/10.1111/ivb.12255</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117</t>
+  </si>
+  <si>
+    <t>PNAS paper - legacy project on Cayman grouper. Technically print date is 2020.</t>
+  </si>
+  <si>
+    <t>Talk at North Central College - biology seminar course (contact person is Joanna Weremijewicz &lt;jweremijewicz@noctrl.edu&gt;)</t>
+  </si>
+  <si>
+    <t>Field work for Nassau grouper, tiger grouper, and yellowfin grouper on Little Cayman (also worked on Cayman Brac). Project with REEF and Cayman Islands Department of Environment. Conducted pilot study for eDNA to detect FSAs with Dr. Scott Heppell (Oregon State University)</t>
+  </si>
+  <si>
+    <t>Field to Floor program from Cayman Islands (Joe Frumkin contact person from Shedd)</t>
+  </si>
+  <si>
+    <t>Skype with teen lab from Caymans (Chelse Pfiefer contact)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XGlqPoWRjac</t>
+  </si>
+  <si>
+    <t>guest speaker on grouper moon livestream with classrooms in Caymans and US led by REEF educator Todd Bohannon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7XS27kjZ_7s</t>
+  </si>
+  <si>
+    <t>Livestream from bloody bay wall, little cayman. Communication mask diver - Todd Bohannon REEF educator leading live stream.</t>
+  </si>
+  <si>
+    <t>Talk at IU Bloomington - Biology club.  Spoke about grouper conservation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFS governing board mid-year meeting. </t>
+  </si>
+  <si>
+    <t>AIFRB (American Institute of Fisheries Research Biologists) Q1 governing board meeting. I am the new great lakes district director.</t>
+  </si>
+  <si>
+    <t>https://science.sciencemag.org/content/367/6476/twil</t>
+  </si>
+  <si>
+    <t>PNAS paper picked as Editor's choice of Science for the week</t>
+  </si>
+  <si>
+    <t>https://www.lenfestocean.org/en/news-and-publications/published-paper/research-partnership-demonstrates-recovery-of-critically-endangered-grouper-species</t>
+  </si>
+  <si>
+    <t>coverage of PNAS paper by Lenfest (I ghostwrote the article for Lenfest)</t>
+  </si>
+  <si>
+    <t>https://www.atlasobscura.com/articles/nassau-grouper-fishing</t>
+  </si>
+  <si>
+    <t>Interviewed for piece by Atlas Obscura on nassau grouper paper</t>
+  </si>
+  <si>
+    <t>https://patch.com/california/san-diego/scripps-researchers-document-conservation-efforts-cayman-isles</t>
+  </si>
+  <si>
+    <t>California News Wire piece on PNAS paper</t>
+  </si>
+  <si>
+    <t>https://news.mongabay.com/2020/01/science-backed-policy-helps-critically-endangered-nassau-grouper/</t>
+  </si>
+  <si>
+    <t>mongabay coverage of nassau grouper PNAS paper</t>
+  </si>
+  <si>
+    <t>Gave a presentation at a SeaGrant Fisheries Workshop with 25 attendees</t>
   </si>
 </sst>
 </file>
@@ -972,19 +1068,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1004,8 +1102,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G262" totalsRowShown="0">
-  <autoFilter ref="A1:G262" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G285" totalsRowShown="0">
+  <autoFilter ref="A1:G285" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G268">
+    <sortCondition ref="D1:D268"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
     <tableColumn id="2" xr3:uid="{37A5D46C-63FC-4A5A-BC50-C4BE807BE242}" name="ResponderEmail"/>
@@ -1316,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="F275" sqref="F275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1358,7 +1459,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43537.01394675926</v>
+        <v>43557.815960648149</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1367,417 +1468,405 @@
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>43485</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+        <v>43466</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>43537.01525462963</v>
+        <v>43558.614201388889</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>43530</v>
+        <v>43469</v>
       </c>
       <c r="F3">
-        <v>75</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>43537.015798611108</v>
+        <v>43634.730138888888</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>43498</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+        <v>43475</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>43542.600381944445</v>
+        <v>43558.61446759259</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>43510</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
+        <v>43476</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>43542.600914351853</v>
+        <v>43634.730439814812</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="2">
-        <v>43525</v>
+        <v>43476</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>43542.641527777778</v>
+        <v>43558.608900462961</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
-        <v>43533</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
+        <v>43477</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>43542.642442129632</v>
+        <v>43557.839965277781</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43479</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43522</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>43542.643101851849</v>
+        <v>43634.729467592595</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>43539</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
+        <v>43479</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>43550.586238425924</v>
+        <v>43558.614675925928</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43481</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43538</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>43550.58761574074</v>
+        <v>43634.727546296293</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>43515</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
+        <v>43481</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>43557.815960648149</v>
+        <v>43634.727939814817</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
-        <v>43466</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
+        <v>43481</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>43557.818229166667</v>
+        <v>43636.670393518521</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>43491</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
+        <v>43481</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>43557.818668981483</v>
+        <v>43537.01394675926</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>43518</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
+        <v>43485</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>43557.83421296296</v>
+        <v>43558.606712962966</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43487</v>
+      </c>
+      <c r="G15" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="2">
-        <v>43529</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>43557.835231481484</v>
+        <v>43634.723275462966</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>43535</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
+        <v>43490</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>43557.835717592592</v>
+        <v>43557.818229166667</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
-        <v>43554</v>
+        <v>43491</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>43557.839965277781</v>
+        <v>43636.671099537038</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>43479</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
+        <v>43495</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>43557.84070601852</v>
+        <v>43637.13658564815</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
-        <v>43516</v>
+        <v>43495</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>43557.841168981482</v>
+        <v>43537.015798611108</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>43550</v>
+        <v>43498</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>43557.841562499998</v>
+        <v>43636.6715625</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2">
-        <v>43538</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
+        <v>43500</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>43557.842476851853</v>
+        <v>43636.672824074078</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2">
-        <v>43542</v>
+        <v>43504</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>43557.843009259261</v>
+        <v>43637.134652777779</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
-        <v>43542</v>
-      </c>
-      <c r="F23">
-        <v>35</v>
+        <v>43508</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>43557.857361111113</v>
+        <v>43542.600381944445</v>
       </c>
       <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43510</v>
+      </c>
+      <c r="E24" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43539</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
       </c>
       <c r="G24" t="s">
         <v>41</v>
@@ -1785,136 +1874,130 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>43557.858043981483</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>43550.58761574074</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2">
-        <v>43518</v>
+        <v>43515</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>43557.858287037037</v>
+        <v>43557.858773148146</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2">
-        <v>43538</v>
+        <v>43515</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>43557.858773148146</v>
+        <v>43637.135844907411</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2">
         <v>43515</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>43558.596550925926</v>
+        <v>43557.84070601852</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2">
-        <v>43539</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
+        <v>43516</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>43558.606712962966</v>
+        <v>43557.818668981483</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2">
-        <v>43487</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
+        <v>43518</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>43558.608900462961</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
+        <v>43557.858043981483</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2">
-        <v>43477</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
+        <v>43518</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>43558.610011574077</v>
+        <v>43558.610682870371</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2">
-        <v>43544</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
+        <v>43519</v>
       </c>
       <c r="G31" t="s">
         <v>49</v>
@@ -1922,16 +2005,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>43558.610682870371</v>
+        <v>43542.642442129632</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2">
-        <v>43519</v>
+        <v>43522</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
       </c>
       <c r="G32" t="s">
         <v>50</v>
@@ -1939,684 +2025,669 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>43558.612858796296</v>
+        <v>43542.600914351853</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2">
-        <v>43539</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
+        <v>43525</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>43558.61310185185</v>
+        <v>43636.673136574071</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2">
-        <v>43539</v>
+        <v>43527</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>43558.614201388889</v>
+        <v>43577.606180555558</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2">
-        <v>43469</v>
+        <v>43528</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>43558.61446759259</v>
+        <v>43557.83421296296</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
-        <v>43476</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>51</v>
+        <v>43529</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>43558.614675925928</v>
+        <v>43637.140381944446</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2">
-        <v>43481</v>
+        <v>43529</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>43559.780844907407</v>
+        <v>43537.01525462963</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2">
-        <v>43558</v>
+        <v>43530</v>
       </c>
       <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>43563.665046296293</v>
+        <v>43637.138483796298</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2">
-        <v>43560</v>
+        <v>43530</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>43577.60497685185</v>
+        <v>43634.721018518518</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2">
-        <v>43569</v>
+        <v>43531</v>
       </c>
       <c r="F40">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>43577.605439814812</v>
+        <v>43542.641527777778</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43533</v>
+      </c>
+      <c r="F41">
         <v>12</v>
       </c>
-      <c r="D41" s="2">
-        <v>43570</v>
-      </c>
-      <c r="F41">
-        <v>270</v>
-      </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>43577.606180555558</v>
+        <v>43557.835231481484</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2">
-        <v>43528</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="G42" t="s">
-        <v>56</v>
+        <v>43535</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>43580.639224537037</v>
+        <v>43634.733263888891</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2">
-        <v>43579</v>
+        <v>43535</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>43580.639768518522</v>
+        <v>43550.586238425924</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2">
-        <v>43578</v>
+        <v>43538</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>43584.792407407411</v>
+        <v>43557.841562499998</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2">
-        <v>43584</v>
-      </c>
-      <c r="F45">
-        <v>12</v>
+        <v>43538</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>43584.792615740742</v>
+        <v>43557.858287037037</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2">
-        <v>43579</v>
+        <v>43538</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>43601.63795138889</v>
+        <v>43542.643101851849</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2">
-        <v>43599</v>
+        <v>43539</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>43601.640324074076</v>
+        <v>43557.857361111113</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2">
-        <v>43546</v>
+        <v>43539</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>43602.594085648147</v>
+        <v>43558.596550925926</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2">
-        <v>43598</v>
+        <v>43539</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>43602.595289351855</v>
+        <v>43558.612858796296</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>12</v>
-      </c>
-      <c r="D50" s="2">
-        <v>43592</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>43602.595694444448</v>
+        <v>43558.61310185185</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43539</v>
+      </c>
+      <c r="F51">
         <v>8</v>
       </c>
-      <c r="D51" s="2">
-        <v>43590</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>43602.596446759257</v>
+        <v>43634.731608796297</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2">
-        <v>43600</v>
+        <v>43541</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>43615.901655092595</v>
+        <v>43557.842476851853</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>43612</v>
-      </c>
-      <c r="E53" t="s">
-        <v>67</v>
+        <v>43542</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>43615.90315972222</v>
+        <v>43557.843009259261</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D54" s="2">
-        <v>43607</v>
+        <v>43542</v>
+      </c>
+      <c r="F54">
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>43615.904120370367</v>
+        <v>43558.610011574077</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2">
-        <v>43614</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>69</v>
+        <v>43544</v>
+      </c>
+      <c r="E55" t="s">
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>43620.904340277775</v>
+        <v>43634.718287037038</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2">
-        <v>43617</v>
-      </c>
-      <c r="F56">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>71</v>
+        <v>43544</v>
+      </c>
+      <c r="E56" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>43620.904687499999</v>
+        <v>43634.734479166669</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>43618</v>
+        <v>43545</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>43627.6565162037</v>
+        <v>43636.675393518519</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>43618</v>
+        <v>43545</v>
       </c>
       <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>43627.656689814816</v>
+        <v>43636.675891203704</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2">
-        <v>43622</v>
+        <v>43545</v>
       </c>
       <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>43627.658136574071</v>
+        <v>43601.640324074076</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>43586</v>
+        <v>43546</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>43633.90730324074</v>
+        <v>43557.841168981482</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2">
-        <v>43630</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
+        <v>43550</v>
       </c>
       <c r="G61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>43633.907500000001</v>
+        <v>43649.675844907404</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2">
-        <v>43632</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>76</v>
+        <v>43551</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>43634.718287037038</v>
+        <v>43557.835717592592</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2">
-        <v>43544</v>
+        <v>43554</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>43634.720254629632</v>
+        <v>43634.775393518517</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D64" s="2">
-        <v>43565</v>
+        <v>43556</v>
       </c>
       <c r="F64">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>43634.721018518518</v>
+        <v>43559.780844907407</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43558</v>
+      </c>
+      <c r="F65">
         <v>10</v>
       </c>
-      <c r="D65" s="2">
-        <v>43531</v>
-      </c>
-      <c r="F65">
-        <v>60</v>
-      </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1">
-        <v>43634.721805555557</v>
+        <v>43634.733877314815</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2">
-        <v>43626</v>
+        <v>43558</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1">
-        <v>43634.723275462966</v>
+        <v>43563.665046296293</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2">
-        <v>43490</v>
-      </c>
-      <c r="E67" t="s">
-        <v>82</v>
+        <v>43560</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>83</v>
@@ -2624,16 +2695,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1">
-        <v>43634.723692129628</v>
+        <v>43636.675891203704</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>43634</v>
+        <v>43561</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
       </c>
       <c r="G68" t="s">
         <v>84</v>
@@ -2641,1005 +2715,1029 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>43634.724907407406</v>
+        <v>43636.675891203704</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43561</v>
+      </c>
+      <c r="F69">
         <v>12</v>
       </c>
-      <c r="D69" s="2">
-        <v>43564</v>
-      </c>
-      <c r="F69">
-        <v>20</v>
-      </c>
       <c r="G69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1">
-        <v>43634.725289351853</v>
+        <v>43634.724907407406</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2">
-        <v>43565</v>
+        <v>43564</v>
       </c>
       <c r="F70">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1">
-        <v>43634.725937499999</v>
+        <v>43634.724305555559</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2">
-        <v>43568</v>
+        <v>43564</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1">
-        <v>43634.727546296293</v>
+        <v>43634.720254629632</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2">
-        <v>43481</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>88</v>
+        <v>43565</v>
+      </c>
+      <c r="F72">
+        <v>60</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1">
-        <v>43634.727939814817</v>
+        <v>43634.725289351853</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2">
-        <v>43481</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>89</v>
+        <v>43565</v>
+      </c>
+      <c r="F73">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1">
-        <v>43634.729467592595</v>
+        <v>43634.724999999999</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2">
-        <v>43479</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>90</v>
+        <v>43565</v>
+      </c>
+      <c r="F74">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
-        <v>43634.730138888888</v>
+        <v>43634.784085648149</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2">
-        <v>43475</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>91</v>
+        <v>43566</v>
+      </c>
+      <c r="E75" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
-        <v>43634.730439814812</v>
+        <v>43637.132731481484</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2">
-        <v>43476</v>
-      </c>
-      <c r="E76" t="s">
-        <v>92</v>
+        <v>43567</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
-        <v>43634.731608796297</v>
+        <v>43634.725937499999</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2">
-        <v>43541</v>
-      </c>
-      <c r="E77" t="s">
-        <v>93</v>
+        <v>43568</v>
+      </c>
+      <c r="F77">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
-        <v>43634.733263888891</v>
+        <v>43634.77275462963</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78" s="2">
-        <v>43535</v>
+        <v>43568</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>43634.733877314815</v>
+        <v>43577.60497685185</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D79" s="2">
-        <v>43558</v>
+        <v>43569</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
-        <v>43634.734479166669</v>
+        <v>43577.605439814812</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2">
-        <v>43545</v>
+        <v>43570</v>
       </c>
       <c r="F80">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="G80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>43634.735115740739</v>
+        <v>43637.125092592592</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2">
-        <v>43635</v>
-      </c>
-      <c r="F81">
-        <v>14</v>
+        <v>43571</v>
+      </c>
+      <c r="E81" t="s">
+        <v>94</v>
       </c>
       <c r="G81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>43634.751307870371</v>
+        <v>43636.674953703703</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2">
-        <v>43634</v>
-      </c>
-      <c r="F82">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>98</v>
+        <v>43572</v>
+      </c>
+      <c r="E82" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>43634.75577546296</v>
+        <v>43634.764826388891</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2">
-        <v>43579</v>
-      </c>
-      <c r="F83">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>57</v>
+        <v>43577</v>
+      </c>
+      <c r="E83" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>43634.757048611114</v>
+        <v>43580.639768518522</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2">
-        <v>43625</v>
+        <v>43578</v>
       </c>
       <c r="F84">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>43634.75818287037</v>
+        <v>43580.639224537037</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="2">
+        <v>43579</v>
+      </c>
+      <c r="F85">
         <v>12</v>
       </c>
-      <c r="D85" s="2">
-        <v>43629</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
       <c r="G85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>43634.764826388891</v>
+        <v>43584.792615740742</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D86" s="2">
-        <v>43577</v>
-      </c>
-      <c r="E86" t="s">
-        <v>101</v>
+        <v>43579</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>43634.769444444442</v>
+        <v>43634.75577546296</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D87" s="2">
-        <v>43581</v>
-      </c>
-      <c r="E87" t="s">
-        <v>102</v>
-      </c>
-      <c r="F87" s="4">
-        <v>1</v>
+        <v>43579</v>
+      </c>
+      <c r="F87">
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>43634.771886574075</v>
+        <v>43637.14329861111</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="2">
+        <v>43579</v>
+      </c>
+      <c r="F88">
         <v>12</v>
       </c>
-      <c r="D88" s="2">
-        <v>43602</v>
-      </c>
-      <c r="F88">
-        <v>20</v>
-      </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>43634.77275462963</v>
+        <v>43634.769444444442</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2">
-        <v>43568</v>
-      </c>
-      <c r="F89">
-        <v>28</v>
+        <v>43581</v>
+      </c>
+      <c r="E89" t="s">
+        <v>100</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
       </c>
       <c r="G89" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>43634.775393518517</v>
+        <v>43584.792407407411</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2">
-        <v>43556</v>
+        <v>43584</v>
       </c>
       <c r="F90">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1">
-        <v>43634.775960648149</v>
+        <v>43627.658136574071</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D91" s="2">
-        <v>43625</v>
+        <v>43586</v>
       </c>
       <c r="F91">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1">
-        <v>43634.784085648149</v>
+        <v>43602.595694444448</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2">
-        <v>43566</v>
-      </c>
-      <c r="E92" t="s">
-        <v>108</v>
+        <v>43590</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1">
-        <v>43635.859166666669</v>
+        <v>43637.126643518517</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D93" s="2">
-        <v>43635</v>
+        <v>43591</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1">
-        <v>43635.881273148145</v>
+        <v>43602.595289351855</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2">
-        <v>43635</v>
+        <v>43592</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1">
-        <v>43636.670393518521</v>
+        <v>43602.594085648147</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>43481</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>112</v>
+        <v>43598</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1">
-        <v>43636.671099537038</v>
+        <v>43601.63795138889</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2">
-        <v>43495</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>113</v>
+        <v>43599</v>
+      </c>
+      <c r="G96" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1">
-        <v>43636.6715625</v>
+        <v>43602.596446759257</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2">
-        <v>43500</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>114</v>
+        <v>43600</v>
+      </c>
+      <c r="E97" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1">
-        <v>43636.672824074078</v>
+        <v>43636.673981481479</v>
       </c>
       <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="2">
+        <v>43600</v>
+      </c>
+      <c r="F98">
+        <v>200</v>
+      </c>
+      <c r="G98" t="s">
         <v>111</v>
-      </c>
-      <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="2">
-        <v>43504</v>
-      </c>
-      <c r="F98">
-        <v>100</v>
-      </c>
-      <c r="G98" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>43636.673136574071</v>
+        <v>43634.771886574075</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2">
-        <v>43527</v>
+        <v>43602</v>
       </c>
       <c r="F99">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G99" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1">
-        <v>43636.673981481479</v>
+        <v>43615.90315972222</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2">
-        <v>43600</v>
-      </c>
-      <c r="F100">
-        <v>200</v>
+        <v>43607</v>
       </c>
       <c r="G100" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1">
-        <v>43636.674953703703</v>
+        <v>43615.901655092595</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D101" s="2">
-        <v>43572</v>
+        <v>43612</v>
       </c>
       <c r="E101" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1">
-        <v>43636.675393518519</v>
+        <v>43615.904120370367</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2">
-        <v>43545</v>
-      </c>
-      <c r="F102">
-        <v>14</v>
+        <v>43614</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G102" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1">
-        <v>43636.675891203704</v>
+        <v>43637.130104166667</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2">
-        <v>43561</v>
-      </c>
-      <c r="F103">
-        <v>7</v>
+        <v>43616</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1">
-        <v>43636.675891203704</v>
+        <v>43637.130798611113</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2">
-        <v>43561</v>
-      </c>
-      <c r="F104">
-        <v>12</v>
+        <v>43616</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1">
-        <v>43636.675891203704</v>
+        <v>43620.904340277775</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D105" s="2">
-        <v>43545</v>
+        <v>43617</v>
       </c>
       <c r="F105">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1">
-        <v>43637.12096064815</v>
+        <v>43620.904687499999</v>
       </c>
       <c r="B106" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="2">
+        <v>43618</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
         <v>120</v>
-      </c>
-      <c r="C106" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2">
-        <v>43633</v>
-      </c>
-      <c r="G106" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1">
-        <v>43637.125092592592</v>
+        <v>43627.6565162037</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>43571</v>
-      </c>
-      <c r="E107" t="s">
-        <v>122</v>
+        <v>43618</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="1">
-        <v>43637.126643518517</v>
+        <v>43649.669988425929</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2">
-        <v>43591</v>
+        <v>43621</v>
       </c>
       <c r="F108">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>43637.130104166667</v>
+        <v>43649.67628472222</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D109" s="2">
-        <v>43616</v>
+        <v>43621</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
       </c>
       <c r="G109" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1">
-        <v>43637.130798611113</v>
+        <v>43627.656689814816</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2">
-        <v>43616</v>
+        <v>43622</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
       </c>
       <c r="G110" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1">
-        <v>43637.132118055553</v>
+        <v>43634.757048611114</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D111" s="2">
-        <v>43633</v>
+        <v>43625</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1">
-        <v>43637.132731481484</v>
+        <v>43634.775960648149</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D112" s="2">
-        <v>43567</v>
+        <v>43625</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1">
-        <v>43637.134652777779</v>
+        <v>43634.721805555557</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D113" s="2">
-        <v>43508</v>
+        <v>43626</v>
+      </c>
+      <c r="F113">
+        <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="1">
-        <v>43637.135844907411</v>
-      </c>
-      <c r="B114" t="s">
-        <v>120</v>
+      <c r="A114" s="8">
+        <v>43643.14329861111</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D114" s="2">
-        <v>43515</v>
+        <v>43627</v>
       </c>
       <c r="F114">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="1">
-        <v>43637.13658564815</v>
+        <v>43634.75818287037</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2">
-        <v>43495</v>
+        <v>43629</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
       </c>
       <c r="G115" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="1">
-        <v>43637.138483796298</v>
+        <v>43633.90730324074</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D116" s="2">
-        <v>43530</v>
+        <v>43630</v>
       </c>
       <c r="F116">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="1">
-        <v>43637.140381944446</v>
+        <v>43633.907500000001</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>43529</v>
+        <v>43632</v>
       </c>
       <c r="F117">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="1">
-        <v>43637.14329861111</v>
+        <v>43637.12096064815</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2">
-        <v>43579</v>
-      </c>
-      <c r="F118">
-        <v>12</v>
+        <v>43633</v>
       </c>
       <c r="G118" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>43637.600821759261</v>
+        <v>43637.132118055553</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2">
-        <v>43636</v>
+        <v>43633</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G119" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="6">
-        <v>43637.14329861111</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>120</v>
+      <c r="A120" s="9">
+        <v>43634.723692129628</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D120" s="2">
-        <v>43635</v>
-      </c>
-      <c r="F120">
-        <v>14</v>
+        <v>43634</v>
       </c>
       <c r="G120" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="6">
-        <v>43643.14329861111</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>134</v>
+      <c r="A121" s="9">
+        <v>43634.751307870371</v>
+      </c>
+      <c r="B121" t="s">
+        <v>42</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2">
-        <v>43627</v>
+        <v>43634</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G121" t="s">
         <v>135</v>
@@ -3647,19 +3745,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="1">
-        <v>43647.658634259256</v>
+        <v>43634.735115740739</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D122" s="2">
-        <v>43641</v>
+        <v>43635</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
         <v>136</v>
@@ -3667,864 +3765,861 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="1">
-        <v>43648.765092592592</v>
+        <v>43635.859166666669</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D123" s="2">
-        <v>43648</v>
-      </c>
-      <c r="E123" t="s">
+        <v>43635</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="1">
-        <v>43648.768055555556</v>
+        <v>43635.881273148145</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D124" s="2">
-        <v>43642</v>
+        <v>43635</v>
       </c>
       <c r="F124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G124" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="1">
-        <v>43649.622928240744</v>
-      </c>
-      <c r="B125" t="s">
-        <v>120</v>
+      <c r="A125" s="8">
+        <v>43637.14329861111</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D125" s="2">
-        <v>43638</v>
+        <v>43635</v>
       </c>
       <c r="F125">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="1">
-        <v>43649.669988425929</v>
+        <v>43637.600821759261</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D126" s="2">
-        <v>43621</v>
+        <v>43636</v>
       </c>
       <c r="F126">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="1">
-        <v>43649.675844907404</v>
+        <v>43649.622928240744</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D127" s="2">
-        <v>43551</v>
-      </c>
-      <c r="E127" t="s">
-        <v>141</v>
+        <v>43638</v>
+      </c>
+      <c r="F127">
+        <v>8.5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="1">
-        <v>43649.67628472222</v>
+        <v>43654.662361111114</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D128" s="2">
-        <v>43621</v>
+        <v>43640</v>
       </c>
       <c r="F128">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>43651.648530092592</v>
+        <v>43647.658634259256</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D129" s="2">
-        <v>43649</v>
+        <v>43641</v>
       </c>
       <c r="F129">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>43654.638043981482</v>
+        <v>43648.768055555556</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D130" s="2">
-        <v>43649</v>
-      </c>
-      <c r="E130" t="s">
-        <v>144</v>
+        <v>43642</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+      <c r="G130" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="1">
-        <v>43654.639872685184</v>
+        <v>43671.60765046296</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C131" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" s="2">
+        <v>43647</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="120">
+      <c r="A132" s="1">
+        <v>43676.827951388892</v>
+      </c>
+      <c r="B132" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="2">
-        <v>43649</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="1">
-        <v>43654.662361111114</v>
-      </c>
-      <c r="B132" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" t="s">
-        <v>10</v>
-      </c>
       <c r="D132" s="2">
-        <v>43640</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132" t="s">
-        <v>146</v>
+        <v>43647</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1">
-        <v>43654.662569444445</v>
+        <v>43690.624560185184</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D133" s="2">
-        <v>43654</v>
+        <v>43647</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1">
-        <v>43671.60765046296</v>
+        <v>43690.624791666669</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D134" s="2">
         <v>43647</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="14.25" customHeight="1">
       <c r="A135" s="1">
-        <v>43676.827951388892</v>
+        <v>43741.767268518517</v>
       </c>
       <c r="B135" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2">
         <v>43647</v>
       </c>
-      <c r="E135" s="9" t="s">
-        <v>149</v>
+      <c r="E135" t="s">
+        <v>94</v>
+      </c>
+      <c r="G135" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1">
-        <v>43679.866759259261</v>
+        <v>43648.765092592592</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D136" s="2">
-        <v>43655</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136" t="s">
-        <v>150</v>
+        <v>43648</v>
+      </c>
+      <c r="E136" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1">
-        <v>43679.868344907409</v>
+        <v>43651.648530092592</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D137" s="2">
-        <v>43677</v>
+        <v>43649</v>
       </c>
       <c r="F137">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="G137" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1">
-        <v>43689.569803240738</v>
+        <v>43654.638043981482</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D138" s="2">
-        <v>43686</v>
+        <v>43649</v>
       </c>
       <c r="E138" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>43689.570381944446</v>
+        <v>43654.639872685184</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>43686</v>
+        <v>43649</v>
       </c>
       <c r="F139">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1">
-        <v>43690.617384259262</v>
+        <v>43766.894907407404</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C140" t="s">
+        <v>54</v>
+      </c>
+      <c r="D140" s="2">
+        <v>43649</v>
+      </c>
+      <c r="F140">
         <v>8</v>
       </c>
-      <c r="D140" s="2">
-        <v>43684</v>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
       <c r="G140" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1">
-        <v>43690.624560185184</v>
+        <v>43654.662569444445</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D141" s="2">
-        <v>43647</v>
+        <v>43654</v>
       </c>
       <c r="F141">
         <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1">
-        <v>43690.624791666669</v>
+        <v>43679.866759259261</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2">
-        <v>43647</v>
+        <v>43655</v>
       </c>
       <c r="F142">
         <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1">
-        <v>43634.724305555559</v>
+        <v>43739.885752314818</v>
       </c>
       <c r="B143" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" s="2">
-        <v>43564</v>
+        <v>43655</v>
       </c>
       <c r="F143">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G143" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1">
-        <v>43634.724999999999</v>
+        <v>43766.88721064815</v>
       </c>
       <c r="B144" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D144" s="2">
-        <v>43565</v>
+        <v>43655</v>
       </c>
       <c r="F144">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="1">
-        <v>43698.886388888888</v>
+        <v>43766.819953703707</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D145" s="2">
-        <v>43670</v>
-      </c>
-      <c r="E145" s="5" t="s">
+        <v>43657</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
         <v>157</v>
-      </c>
-      <c r="G145" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="1">
-        <v>43706.023969907408</v>
+        <v>43739.886481481481</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D146" s="2">
-        <v>43705</v>
+        <v>43662</v>
       </c>
       <c r="F146">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="1">
-        <v>43711.568495370368</v>
+        <v>43741.764016203706</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D147" s="2">
-        <v>43706</v>
+        <v>43664</v>
       </c>
       <c r="F147">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="1">
-        <v>43711.568831018521</v>
+        <v>43766.821412037039</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D148" s="2">
-        <v>43699</v>
-      </c>
-      <c r="F148">
-        <v>5</v>
+        <v>43665</v>
       </c>
       <c r="G148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>43712.710358796299</v>
+        <v>43738.798125000001</v>
       </c>
       <c r="B149" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D149" s="2">
-        <v>43712</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>162</v>
+        <v>43668</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
       </c>
       <c r="G149" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="1">
-        <v>43728.686550925922</v>
+        <v>43739.88349537037</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D150" s="2">
-        <v>43724</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>164</v>
+        <v>43668</v>
+      </c>
+      <c r="F150">
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="1">
-        <v>43729.624016203707</v>
+        <v>43766.887719907405</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D151" s="2">
-        <v>43714</v>
-      </c>
-      <c r="E151" t="s">
-        <v>165</v>
+        <v>43668</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
       </c>
       <c r="G151" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="1">
-        <v>43729.626122685186</v>
+        <v>43698.886388888888</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2">
-        <v>43726</v>
-      </c>
-      <c r="E152" t="s">
-        <v>166</v>
+        <v>43670</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="G152" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="1">
-        <v>43733.843854166669</v>
+        <v>43738.798402777778</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D153" s="2">
-        <v>43722</v>
+        <v>43670</v>
       </c>
       <c r="F153">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="1">
-        <v>43733.844722222224</v>
+        <v>43741.76190972222</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D154" s="2">
-        <v>43726</v>
+        <v>43672</v>
       </c>
       <c r="F154">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G154" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="1">
-        <v>43738.667199074072</v>
+        <v>43766.891192129631</v>
       </c>
       <c r="B155" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C155" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D155" s="2">
-        <v>43728</v>
-      </c>
-      <c r="F155">
-        <v>200</v>
+        <v>43672</v>
       </c>
       <c r="G155" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="1">
-        <v>43738.667962962965</v>
+        <v>43738.801921296297</v>
       </c>
       <c r="B156" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D156" s="2">
-        <v>43685</v>
+        <v>43676</v>
       </c>
       <c r="F156">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G156" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="1">
-        <v>43738.668425925927</v>
+        <v>43679.868344907409</v>
       </c>
       <c r="B157" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D157" s="2">
-        <v>43715</v>
+        <v>43677</v>
       </c>
       <c r="F157">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G157" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="1">
-        <v>43738.668877314813</v>
+        <v>43766.891805555555</v>
       </c>
       <c r="B158" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D158" s="2">
-        <v>43715</v>
+        <v>43677</v>
       </c>
       <c r="F158">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G158" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
-        <v>43738.798125000001</v>
+        <v>43766.888090277775</v>
       </c>
       <c r="B159" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D159" s="2">
-        <v>43668</v>
+        <v>43682</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G159" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="1">
-        <v>43738.798402777778</v>
+        <v>43741.760833333334</v>
       </c>
       <c r="B160" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D160" s="2">
-        <v>43670</v>
+        <v>43683</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1">
-        <v>43738.799513888887</v>
+        <v>43766.822199074071</v>
       </c>
       <c r="B161" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D161" s="2">
-        <v>43732</v>
+        <v>43683</v>
       </c>
       <c r="F161">
         <v>1</v>
       </c>
       <c r="G161" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1">
-        <v>43738.800740740742</v>
+        <v>43690.617384259262</v>
       </c>
       <c r="B162" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D162" s="2">
-        <v>43726</v>
+        <v>43684</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1">
-        <v>43738.801921296297</v>
+        <v>43738.667962962965</v>
       </c>
       <c r="B163" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D163" s="2">
-        <v>43676</v>
+        <v>43685</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1">
-        <v>43738.802488425928</v>
+        <v>43689.569803240738</v>
       </c>
       <c r="B164" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D164" s="2">
-        <v>43728</v>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164" t="s">
-        <v>179</v>
+        <v>43686</v>
+      </c>
+      <c r="E164" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1">
-        <v>43739.882615740738</v>
+        <v>43689.570381944446</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D165" s="2">
-        <v>43696</v>
-      </c>
-      <c r="E165" t="s">
-        <v>180</v>
+        <v>43686</v>
+      </c>
+      <c r="F165">
+        <v>200</v>
+      </c>
+      <c r="G165" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1">
-        <v>43739.88349537037</v>
+        <v>43783.641006944446</v>
       </c>
       <c r="B166" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D166" s="2">
-        <v>43668</v>
-      </c>
-      <c r="F166">
-        <v>35</v>
+        <v>43686</v>
       </c>
       <c r="G166" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4532,10 +4627,10 @@
         <v>43739.884259259263</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D167" s="2">
         <v>43689</v>
@@ -4544,241 +4639,238 @@
         <v>20</v>
       </c>
       <c r="G167" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1">
-        <v>43739.884745370371</v>
+        <v>43766.893611111111</v>
       </c>
       <c r="B168" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D168" s="2">
-        <v>43721</v>
-      </c>
-      <c r="F168">
-        <v>40</v>
+        <v>43691</v>
+      </c>
+      <c r="E168" t="s">
+        <v>181</v>
       </c>
       <c r="G168" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>43739.885752314818</v>
+        <v>43783.639374999999</v>
       </c>
       <c r="B169" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D169" s="2">
-        <v>43655</v>
-      </c>
-      <c r="F169">
-        <v>4</v>
+        <v>43691</v>
       </c>
       <c r="G169" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1">
-        <v>43739.886481481481</v>
+        <v>43739.882615740738</v>
       </c>
       <c r="B170" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D170" s="2">
-        <v>43662</v>
-      </c>
-      <c r="F170">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s">
-        <v>185</v>
+        <v>43696</v>
+      </c>
+      <c r="E170" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1">
-        <v>43739.887245370373</v>
+        <v>43766.888425925928</v>
       </c>
       <c r="B171" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D171" s="2">
-        <v>43718</v>
+        <v>43696</v>
       </c>
       <c r="F171">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G171" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1">
-        <v>43739.887835648151</v>
+        <v>43711.568831018521</v>
       </c>
       <c r="B172" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D172" s="2">
-        <v>43722</v>
+        <v>43699</v>
       </c>
       <c r="F172">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G172" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1">
-        <v>43741.760833333334</v>
+        <v>43766.889166666668</v>
       </c>
       <c r="B173" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D173" s="2">
-        <v>43683</v>
+        <v>43699</v>
       </c>
       <c r="F173">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1">
-        <v>43741.76190972222</v>
+        <v>43741.763113425928</v>
       </c>
       <c r="B174" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="C174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D174" s="2">
-        <v>43672</v>
+        <v>43703</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G174" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1">
-        <v>43741.763113425928</v>
+        <v>43766.823958333334</v>
       </c>
       <c r="B175" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D175" s="2">
-        <v>43703</v>
+        <v>43704</v>
       </c>
       <c r="F175">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G175" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1">
-        <v>43741.764016203706</v>
+        <v>43706.023969907408</v>
       </c>
       <c r="B176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="2">
+        <v>43705</v>
+      </c>
+      <c r="F176">
         <v>120</v>
       </c>
-      <c r="C176" t="s">
-        <v>10</v>
-      </c>
-      <c r="D176" s="2">
-        <v>43664</v>
-      </c>
-      <c r="F176">
-        <v>8</v>
-      </c>
       <c r="G176" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1">
-        <v>43741.765625</v>
+        <v>43711.568495370368</v>
       </c>
       <c r="B177" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D177" s="2">
-        <v>43729</v>
+        <v>43706</v>
       </c>
       <c r="F177">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G177" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1">
-        <v>43741.767268518517</v>
+        <v>43741.770671296297</v>
       </c>
       <c r="B178" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D178" s="2">
-        <v>43647</v>
-      </c>
-      <c r="E178" t="s">
-        <v>122</v>
+        <v>43710</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
       </c>
       <c r="G178" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
-        <v>43741.768148148149</v>
+        <v>43712.710358796299</v>
       </c>
       <c r="B179" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D179" s="2">
-        <v>43737</v>
+        <v>43712</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="G179" t="s">
         <v>194</v>
@@ -4786,19 +4878,19 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1">
-        <v>43741.770671296297</v>
+        <v>43729.624016203707</v>
       </c>
       <c r="B180" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D180" s="2">
-        <v>43710</v>
-      </c>
-      <c r="F180">
-        <v>1</v>
+        <v>43714</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="G180" t="s">
         <v>195</v>
@@ -4806,19 +4898,19 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
-        <v>43753.723715277774</v>
+        <v>43763.750243055554</v>
       </c>
       <c r="B181" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D181" s="2">
-        <v>43753</v>
+        <v>43714</v>
       </c>
       <c r="F181">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G181" t="s">
         <v>196</v>
@@ -4826,19 +4918,19 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
-        <v>43754.878865740742</v>
+        <v>43738.668425925927</v>
       </c>
       <c r="B182" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D182" s="2">
-        <v>43754</v>
+        <v>43715</v>
       </c>
       <c r="F182">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G182" t="s">
         <v>197</v>
@@ -4846,19 +4938,19 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
-        <v>43757.676412037035</v>
+        <v>43738.668877314813</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D183" s="2">
-        <v>43755</v>
+        <v>43715</v>
       </c>
       <c r="F183">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G183" t="s">
         <v>198</v>
@@ -4866,19 +4958,19 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
-        <v>43757.676874999997</v>
+        <v>43739.887245370373</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D184" s="2">
-        <v>43756</v>
+        <v>43718</v>
       </c>
       <c r="F184">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
         <v>199</v>
@@ -4886,19 +4978,19 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
-        <v>43759.934363425928</v>
+        <v>43766.889652777776</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D185" s="2">
-        <v>43740</v>
+        <v>43718</v>
       </c>
       <c r="F185">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G185" t="s">
         <v>200</v>
@@ -4906,19 +4998,16 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
-        <v>43759.934652777774</v>
+        <v>43766.805034722223</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C186" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D186" s="2">
-        <v>43743</v>
-      </c>
-      <c r="F186">
-        <v>28</v>
+        <v>43720</v>
       </c>
       <c r="G186" t="s">
         <v>201</v>
@@ -4926,19 +5015,19 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1">
-        <v>43762.58829861111</v>
+        <v>43739.884745370371</v>
       </c>
       <c r="B187" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D187" s="2">
-        <v>43757</v>
+        <v>43721</v>
       </c>
       <c r="F187">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
         <v>202</v>
@@ -4946,19 +5035,19 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1">
-        <v>43762.588761574072</v>
+        <v>43733.843854166669</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D188" s="2">
-        <v>43760</v>
+        <v>43722</v>
       </c>
       <c r="F188">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G188" t="s">
         <v>203</v>
@@ -4966,19 +5055,19 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1">
-        <v>43762.828159722223</v>
+        <v>43739.887835648151</v>
       </c>
       <c r="B189" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D189" s="2">
-        <v>43755</v>
+        <v>43722</v>
       </c>
       <c r="F189">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G189" t="s">
         <v>204</v>
@@ -4986,19 +5075,19 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1">
-        <v>43762.829421296294</v>
+        <v>43728.686550925922</v>
       </c>
       <c r="B190" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C190" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D190" s="2">
-        <v>43761</v>
-      </c>
-      <c r="F190">
-        <v>25</v>
+        <v>43724</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="G190" t="s">
         <v>205</v>
@@ -5006,113 +5095,119 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1">
-        <v>43763.671655092592</v>
+        <v>43729.626122685186</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C191" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D191" s="2">
-        <v>43762</v>
-      </c>
-      <c r="F191">
-        <v>12</v>
+        <v>43726</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="G191" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1">
-        <v>43763.750243055554</v>
+        <v>43733.844722222224</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C192" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D192" s="2">
-        <v>43714</v>
+        <v>43726</v>
       </c>
       <c r="F192">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="1">
-        <v>43766.800752314812</v>
+        <v>43738.800740740742</v>
       </c>
       <c r="B193" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D193" s="2">
-        <v>43763</v>
+        <v>43726</v>
       </c>
       <c r="F193">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G193" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="1">
-        <v>43766.805034722223</v>
+        <v>43766.890439814815</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D194" s="2">
-        <v>43720</v>
+        <v>43727</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
       </c>
       <c r="G194" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="1">
-        <v>43766.808900462966</v>
+        <v>43738.667199074072</v>
       </c>
       <c r="B195" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D195" s="2">
-        <v>43763</v>
+        <v>43728</v>
+      </c>
+      <c r="F195">
+        <v>200</v>
       </c>
       <c r="G195" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="1">
-        <v>43766.809178240743</v>
+        <v>43738.802488425928</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D196" s="2">
-        <v>43754</v>
-      </c>
-      <c r="E196" t="s">
-        <v>211</v>
+        <v>43728</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
       </c>
       <c r="G196" t="s">
         <v>212</v>
@@ -5120,19 +5215,19 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="1">
-        <v>43766.819953703707</v>
+        <v>43741.765625</v>
       </c>
       <c r="B197" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="C197" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D197" s="2">
-        <v>43657</v>
+        <v>43729</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G197" t="s">
         <v>213</v>
@@ -5140,16 +5235,19 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="1">
-        <v>43766.821412037039</v>
+        <v>43738.799513888887</v>
       </c>
       <c r="B198" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D198" s="2">
-        <v>43665</v>
+        <v>43732</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
       </c>
       <c r="G198" t="s">
         <v>214</v>
@@ -5157,19 +5255,16 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1">
-        <v>43766.822199074071</v>
+        <v>43741.768148148149</v>
       </c>
       <c r="B199" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="C199" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D199" s="2">
-        <v>43683</v>
-      </c>
-      <c r="F199">
-        <v>1</v>
+        <v>43737</v>
       </c>
       <c r="G199" t="s">
         <v>215</v>
@@ -5177,19 +5272,19 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="1">
-        <v>43766.823958333334</v>
+        <v>43759.934363425928</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D200" s="2">
-        <v>43704</v>
+        <v>43740</v>
       </c>
       <c r="F200">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G200" t="s">
         <v>216</v>
@@ -5197,19 +5292,19 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="1">
-        <v>43766.876851851855</v>
+        <v>43759.934652777774</v>
       </c>
       <c r="B201" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D201" s="2">
-        <v>43764</v>
+        <v>43743</v>
       </c>
       <c r="F201">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G201" t="s">
         <v>217</v>
@@ -5217,19 +5312,19 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="1">
-        <v>43766.88721064815</v>
+        <v>43833.922858796293</v>
       </c>
       <c r="B202" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D202" s="2">
-        <v>43655</v>
+        <v>43743</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G202" t="s">
         <v>218</v>
@@ -5237,19 +5332,19 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="1">
-        <v>43766.887719907405</v>
+        <v>43861.778796296298</v>
       </c>
       <c r="B203" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D203" s="2">
-        <v>43668</v>
+        <v>43743</v>
       </c>
       <c r="F203">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G203" t="s">
         <v>219</v>
@@ -5257,19 +5352,16 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="1">
-        <v>43766.888090277775</v>
+        <v>43817.907418981478</v>
       </c>
       <c r="B204" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D204" s="2">
-        <v>43682</v>
-      </c>
-      <c r="F204">
-        <v>4</v>
+        <v>43744</v>
       </c>
       <c r="G204" t="s">
         <v>220</v>
@@ -5277,19 +5369,16 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="1">
-        <v>43766.888425925928</v>
+        <v>43783.63821759259</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D205" s="2">
-        <v>43696</v>
-      </c>
-      <c r="F205">
-        <v>1</v>
+        <v>43745</v>
       </c>
       <c r="G205" t="s">
         <v>221</v>
@@ -5297,39 +5386,36 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="1">
-        <v>43766.889166666668</v>
+        <v>43817.92465277778</v>
       </c>
       <c r="B206" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C206" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2">
-        <v>43699</v>
-      </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206" t="s">
+        <v>43748</v>
+      </c>
+      <c r="E206" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="1">
-        <v>43766.889652777776</v>
+        <v>43861.779282407406</v>
       </c>
       <c r="B207" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D207" s="2">
-        <v>43718</v>
+        <v>43749</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G207" t="s">
         <v>223</v>
@@ -5337,19 +5423,19 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="1">
-        <v>43766.890439814815</v>
+        <v>43753.723715277774</v>
       </c>
       <c r="B208" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D208" s="2">
-        <v>43727</v>
+        <v>43753</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G208" t="s">
         <v>224</v>
@@ -5357,16 +5443,19 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1">
-        <v>43766.891192129631</v>
+        <v>43754.878865740742</v>
       </c>
       <c r="B209" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C209" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D209" s="2">
-        <v>43672</v>
+        <v>43754</v>
+      </c>
+      <c r="F209">
+        <v>20</v>
       </c>
       <c r="G209" t="s">
         <v>225</v>
@@ -5374,39 +5463,39 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="1">
-        <v>43766.891805555555</v>
+        <v>43766.809178240743</v>
       </c>
       <c r="B210" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C210" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D210" s="2">
-        <v>43677</v>
-      </c>
-      <c r="F210">
-        <v>25</v>
+        <v>43754</v>
+      </c>
+      <c r="E210" t="s">
+        <v>226</v>
       </c>
       <c r="G210" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="1">
-        <v>43766.893611111111</v>
+        <v>43757.676412037035</v>
       </c>
       <c r="B211" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D211" s="2">
-        <v>43691</v>
-      </c>
-      <c r="E211" t="s">
-        <v>227</v>
+        <v>43755</v>
+      </c>
+      <c r="F211">
+        <v>20</v>
       </c>
       <c r="G211" t="s">
         <v>228</v>
@@ -5414,19 +5503,19 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="1">
-        <v>43766.894907407404</v>
+        <v>43762.828159722223</v>
       </c>
       <c r="B212" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C212" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D212" s="2">
-        <v>43649</v>
+        <v>43755</v>
       </c>
       <c r="F212">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G212" t="s">
         <v>229</v>
@@ -5434,36 +5523,39 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="1">
-        <v>43768.587094907409</v>
+        <v>43757.676874999997</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D213" s="2">
-        <v>43767</v>
-      </c>
-      <c r="E213" t="s">
+        <v>43756</v>
+      </c>
+      <c r="F213">
+        <v>40</v>
+      </c>
+      <c r="G213" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="1">
-        <v>43771.555405092593</v>
+        <v>43833.922314814816</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D214" s="2">
-        <v>43771</v>
+        <v>43756</v>
       </c>
       <c r="F214">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G214" t="s">
         <v>231</v>
@@ -5471,19 +5563,19 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="1">
-        <v>43773.818090277775</v>
+        <v>43762.58829861111</v>
       </c>
       <c r="B215" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C215" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D215" s="2">
-        <v>43773</v>
+        <v>43757</v>
       </c>
       <c r="F215">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G215" t="s">
         <v>232</v>
@@ -5491,19 +5583,19 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1">
-        <v>43773.819062499999</v>
+        <v>43762.588761574072</v>
       </c>
       <c r="B216" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="C216" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D216" s="2">
-        <v>43768</v>
+        <v>43760</v>
       </c>
       <c r="F216">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G216" t="s">
         <v>233</v>
@@ -5511,19 +5603,19 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="1">
-        <v>43776.890972222223</v>
+        <v>43762.829421296294</v>
       </c>
       <c r="B217" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C217" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D217" s="2">
-        <v>43776</v>
+        <v>43761</v>
       </c>
       <c r="F217">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G217" t="s">
         <v>234</v>
@@ -5531,19 +5623,19 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="1">
-        <v>43777.880983796298</v>
+        <v>43833.918425925927</v>
       </c>
       <c r="B218" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D218" s="2">
-        <v>43777</v>
+        <v>43761</v>
       </c>
       <c r="F218">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G218" t="s">
         <v>235</v>
@@ -5551,19 +5643,19 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1">
-        <v>43780.614247685182</v>
+        <v>43763.671655092592</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D219" s="2">
-        <v>43778</v>
+        <v>43762</v>
       </c>
       <c r="F219">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G219" t="s">
         <v>236</v>
@@ -5571,19 +5663,19 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="1">
-        <v>43780.614837962959</v>
+        <v>43766.800752314812</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D220" s="2">
-        <v>43778</v>
+        <v>43763</v>
       </c>
       <c r="F220">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G220" t="s">
         <v>237</v>
@@ -5591,19 +5683,16 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="1">
-        <v>43781.848541666666</v>
-      </c>
-      <c r="B221" s="1">
-        <v>43781.848541666666</v>
+        <v>43766.808900462966</v>
+      </c>
+      <c r="B221" t="s">
+        <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D221" s="2">
-        <v>43780</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
+        <v>43763</v>
       </c>
       <c r="G221" t="s">
         <v>238</v>
@@ -5611,19 +5700,19 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="1">
-        <v>43782.972002314818</v>
+        <v>43766.876851851855</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C222" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D222" s="2">
-        <v>43782</v>
+        <v>43764</v>
       </c>
       <c r="F222">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
         <v>239</v>
@@ -5631,16 +5720,19 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="1">
-        <v>43783.637719907405</v>
+        <v>43833.919108796297</v>
       </c>
       <c r="B223" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D223" s="2">
-        <v>43780</v>
+        <v>43766</v>
+      </c>
+      <c r="F223">
+        <v>50</v>
       </c>
       <c r="G223" t="s">
         <v>240</v>
@@ -5648,16 +5740,19 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1">
-        <v>43783.63821759259</v>
+        <v>43833.919999999998</v>
       </c>
       <c r="B224" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D224" s="2">
-        <v>43745</v>
+        <v>43766</v>
+      </c>
+      <c r="F224">
+        <v>40</v>
       </c>
       <c r="G224" t="s">
         <v>241</v>
@@ -5665,147 +5760,153 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="1">
-        <v>43783.639374999999</v>
+        <v>43768.587094907409</v>
       </c>
       <c r="B225" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C225" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D225" s="2">
-        <v>43691</v>
-      </c>
-      <c r="G225" t="s">
+        <v>43767</v>
+      </c>
+      <c r="E225" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="1">
-        <v>43783.641006944446</v>
+        <v>43833.917754629627</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D226" s="2">
-        <v>43686</v>
+        <v>43767</v>
+      </c>
+      <c r="E226" t="s">
+        <v>243</v>
       </c>
       <c r="G226" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="1">
-        <v>43789.580648148149</v>
+        <v>43833.920474537037</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D227" s="2">
-        <v>43770</v>
+        <v>43767</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G227" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="1">
-        <v>43789.581087962964</v>
+        <v>43773.819062499999</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D228" s="2">
-        <v>43787</v>
+        <v>43768</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G228" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1">
-        <v>43802.178773148145</v>
+        <v>43789.580648148149</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C229" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D229" s="2">
-        <v>43804</v>
+        <v>43770</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="1">
-        <v>43802.1721875</v>
+        <v>43771.555405092593</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D230" s="2">
-        <v>43802</v>
+        <v>43771</v>
+      </c>
+      <c r="F230">
+        <v>14</v>
       </c>
       <c r="G230" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="1">
-        <v>43809.846851851849</v>
+        <v>43817.907754629632</v>
       </c>
       <c r="B231" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="C231" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D231" s="2">
-        <v>43774</v>
-      </c>
-      <c r="F231">
-        <v>1</v>
+        <v>43771</v>
       </c>
       <c r="G231" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="1">
-        <v>43810.74324074074</v>
+        <v>43773.818090277775</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D232" s="2">
-        <v>43810</v>
-      </c>
-      <c r="E232" t="s">
-        <v>249</v>
+        <v>43773</v>
+      </c>
+      <c r="F232">
+        <v>20</v>
       </c>
       <c r="G232" t="s">
         <v>250</v>
@@ -5813,484 +5914,484 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="1">
-        <v>43810.743668981479</v>
+        <v>43809.846851851849</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D233" s="2">
-        <v>43810</v>
-      </c>
-      <c r="E233" t="s">
+        <v>43774</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233" t="s">
         <v>251</v>
-      </c>
-      <c r="G233" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="1">
-        <v>43810.744039351855</v>
+        <v>43776.890972222223</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D234" s="2">
-        <v>43809</v>
-      </c>
-      <c r="E234" t="s">
-        <v>253</v>
+        <v>43776</v>
+      </c>
+      <c r="F234">
+        <v>20</v>
       </c>
       <c r="G234" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="1">
-        <v>43812.711759259262</v>
+        <v>43777.880983796298</v>
       </c>
       <c r="B235" t="s">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D235" s="2">
-        <v>43811</v>
-      </c>
-      <c r="E235" t="s">
-        <v>256</v>
+        <v>43777</v>
+      </c>
+      <c r="F235">
+        <v>23</v>
       </c>
       <c r="G235" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="1">
-        <v>43812.713796296295</v>
+        <v>43780.614247685182</v>
       </c>
       <c r="B236" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D236" s="2">
-        <v>43808</v>
-      </c>
-      <c r="E236" t="s">
-        <v>258</v>
+        <v>43778</v>
+      </c>
+      <c r="F236">
+        <v>2</v>
+      </c>
+      <c r="G236" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="1">
-        <v>43817.907418981478</v>
+        <v>43780.614837962959</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C237" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D237" s="2">
-        <v>43744</v>
+        <v>43778</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
       </c>
       <c r="G237" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="1">
-        <v>43817.907754629632</v>
-      </c>
-      <c r="B238" t="s">
-        <v>14</v>
+        <v>43781.848541666666</v>
+      </c>
+      <c r="B238" s="1">
+        <v>43781.848541666666</v>
       </c>
       <c r="C238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D238" s="2">
-        <v>43771</v>
+        <v>43780</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
       </c>
       <c r="G238" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1">
-        <v>43817.92465277778</v>
+        <v>43783.637719907405</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D239" s="2">
-        <v>43748</v>
-      </c>
-      <c r="E239" t="s">
-        <v>261</v>
+        <v>43780</v>
+      </c>
+      <c r="G239" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="1">
-        <v>43818.635567129626</v>
+        <v>43782.972002314818</v>
       </c>
       <c r="B240" t="s">
+        <v>26</v>
+      </c>
+      <c r="C240" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="2">
+        <v>43782</v>
+      </c>
+      <c r="F240">
         <v>20</v>
       </c>
-      <c r="C240" t="s">
-        <v>28</v>
-      </c>
-      <c r="D240" s="2">
-        <v>43790</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="G240" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="1">
-        <v>43818.636030092595</v>
+        <v>43789.581087962964</v>
       </c>
       <c r="B241" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D241" s="2">
-        <v>43817</v>
+        <v>43787</v>
       </c>
       <c r="F241">
         <v>1</v>
       </c>
       <c r="G241" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="1">
-        <v>43833.66547453704</v>
+        <v>43836.690509259257</v>
       </c>
       <c r="B242" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D242" s="2">
-        <v>43832</v>
-      </c>
-      <c r="E242" t="s">
-        <v>265</v>
+        <v>43788</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="1">
-        <v>43833.917754629627</v>
+        <v>43818.635567129626</v>
       </c>
       <c r="B243" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D243" s="2">
-        <v>43767</v>
-      </c>
-      <c r="E243" t="s">
-        <v>267</v>
+        <v>43790</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="G243" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="1">
-        <v>43833.918425925927</v>
+        <v>43861.778101851851</v>
       </c>
       <c r="B244" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C244" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D244" s="2">
-        <v>43761</v>
+        <v>43790</v>
       </c>
       <c r="F244">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="1">
-        <v>43833.919108796297</v>
+        <v>43836.691168981481</v>
       </c>
       <c r="B245" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D245" s="2">
-        <v>43766</v>
+        <v>43791</v>
       </c>
       <c r="F245">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G245" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="1">
-        <v>43833.919999999998</v>
+        <v>43802.1721875</v>
       </c>
       <c r="B246" t="s">
         <v>26</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D246" s="2">
-        <v>43766</v>
-      </c>
-      <c r="F246">
-        <v>40</v>
+        <v>43802</v>
       </c>
       <c r="G246" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="1">
-        <v>43833.920474537037</v>
+        <v>43802.178773148145</v>
       </c>
       <c r="B247" t="s">
         <v>26</v>
       </c>
       <c r="C247" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D247" s="2">
-        <v>43767</v>
-      </c>
-      <c r="F247">
-        <v>22</v>
+        <v>43804</v>
       </c>
       <c r="G247" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="1">
-        <v>43833.922314814816</v>
+        <v>43812.713796296295</v>
       </c>
       <c r="B248" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="2">
-        <v>43756</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248" t="s">
-        <v>273</v>
+        <v>43808</v>
+      </c>
+      <c r="E248" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="1">
-        <v>43833.922858796293</v>
+        <v>43810.744039351855</v>
       </c>
       <c r="B249" t="s">
         <v>26</v>
       </c>
       <c r="C249" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D249" s="2">
-        <v>43743</v>
-      </c>
-      <c r="F249">
-        <v>20</v>
+        <v>43809</v>
+      </c>
+      <c r="E249" t="s">
+        <v>269</v>
       </c>
       <c r="G249" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="1">
-        <v>43834.677800925929</v>
+        <v>43810.74324074074</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C250" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D250" s="2">
-        <v>43831</v>
-      </c>
-      <c r="F250">
-        <v>16</v>
+        <v>43810</v>
+      </c>
+      <c r="E250" t="s">
+        <v>271</v>
       </c>
       <c r="G250" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="1">
-        <v>43836.690509259257</v>
+        <v>43810.743668981479</v>
       </c>
       <c r="B251" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D251" s="2">
-        <v>43788</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
+        <v>43810</v>
+      </c>
+      <c r="E251" t="s">
+        <v>273</v>
       </c>
       <c r="G251" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="1">
-        <v>43836.691168981481</v>
+        <v>43812.711759259262</v>
       </c>
       <c r="B252" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="C252" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D252" s="2">
-        <v>43791</v>
-      </c>
-      <c r="F252">
-        <v>2</v>
+        <v>43811</v>
+      </c>
+      <c r="E252" t="s">
+        <v>275</v>
       </c>
       <c r="G252" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="1">
-        <v>43843.74900462963</v>
+        <v>43818.636030092595</v>
       </c>
       <c r="B253" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D253" s="2">
-        <v>43838</v>
-      </c>
-      <c r="E253" t="s">
-        <v>278</v>
+        <v>43817</v>
       </c>
       <c r="F253">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="1">
-        <v>43858.879895833335</v>
+        <v>43861.918692129628</v>
       </c>
       <c r="B254" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D254" s="2">
-        <v>43852</v>
-      </c>
-      <c r="F254">
-        <v>15</v>
-      </c>
-      <c r="G254" t="s">
-        <v>280</v>
+        <v>43826</v>
+      </c>
+      <c r="E254" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="1">
-        <v>43859.769270833334</v>
+        <v>43834.677800925929</v>
       </c>
       <c r="B255" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C255" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D255" s="2">
-        <v>43852</v>
-      </c>
-      <c r="E255" t="s">
-        <v>281</v>
+        <v>43831</v>
+      </c>
+      <c r="F255">
+        <v>16</v>
+      </c>
+      <c r="G255" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="1">
-        <v>43861.711574074077</v>
+        <v>43833.66547453704</v>
       </c>
       <c r="B256" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="C256" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D256" s="2">
-        <v>43860</v>
-      </c>
-      <c r="F256">
-        <v>125</v>
+        <v>43832</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="G256" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1">
-        <v>43861.778101851851</v>
+        <v>43843.74900462963</v>
       </c>
       <c r="B257" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D257" s="2">
-        <v>43790</v>
+        <v>43838</v>
+      </c>
+      <c r="E257" t="s">
+        <v>282</v>
       </c>
       <c r="F257">
         <v>50</v>
@@ -6301,19 +6402,19 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1">
-        <v>43861.778796296298</v>
+        <v>43858.879895833335</v>
       </c>
       <c r="B258" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C258" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D258" s="2">
-        <v>43743</v>
+        <v>43852</v>
       </c>
       <c r="F258">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G258" t="s">
         <v>284</v>
@@ -6321,36 +6422,36 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1">
-        <v>43861.779282407406</v>
+        <v>43859.769270833334</v>
       </c>
       <c r="B259" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C259" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="2">
-        <v>43749</v>
-      </c>
-      <c r="F259">
-        <v>7</v>
-      </c>
-      <c r="G259" t="s">
+        <v>43852</v>
+      </c>
+      <c r="E259" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1">
-        <v>43861.779849537037</v>
+        <v>43861.711574074077</v>
       </c>
       <c r="B260" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D260" s="2">
-        <v>43861</v>
+        <v>43860</v>
+      </c>
+      <c r="F260">
+        <v>125</v>
       </c>
       <c r="G260" t="s">
         <v>286</v>
@@ -6358,18 +6459,18 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1">
-        <v>43861.918692129628</v>
+        <v>43861.779849537037</v>
       </c>
       <c r="B261" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C261" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D261" s="2">
-        <v>43826</v>
-      </c>
-      <c r="E261" t="s">
+        <v>43861</v>
+      </c>
+      <c r="G261" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6378,10 +6479,10 @@
         <v>43863.019212962965</v>
       </c>
       <c r="B262" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C262" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D262" s="2">
         <v>43862</v>
@@ -6390,37 +6491,473 @@
         <v>288</v>
       </c>
     </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>43875.938101851854</v>
+      </c>
+      <c r="B263" t="s">
+        <v>26</v>
+      </c>
+      <c r="C263" t="s">
+        <v>54</v>
+      </c>
+      <c r="D263" s="2">
+        <v>43867</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>43875.939270833333</v>
+      </c>
+      <c r="B264" t="s">
+        <v>26</v>
+      </c>
+      <c r="C264" t="s">
+        <v>19</v>
+      </c>
+      <c r="D264" s="2">
+        <v>43874</v>
+      </c>
+      <c r="G264" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>43875.938993055555</v>
+      </c>
+      <c r="B265" t="s">
+        <v>26</v>
+      </c>
+      <c r="C265" t="s">
+        <v>54</v>
+      </c>
+      <c r="D265" s="2">
+        <v>43875</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>43878.684398148151</v>
+      </c>
+      <c r="B266" t="s">
+        <v>42</v>
+      </c>
+      <c r="C266" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" s="2">
+        <v>43878</v>
+      </c>
+      <c r="G266" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>43886.958182870374</v>
+      </c>
+      <c r="B267" t="s">
+        <v>26</v>
+      </c>
+      <c r="C267" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267" s="2">
+        <v>43885</v>
+      </c>
+      <c r="E267" t="s">
+        <v>293</v>
+      </c>
+      <c r="G267" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>43892.691817129627</v>
+      </c>
+      <c r="B268" t="s">
+        <v>26</v>
+      </c>
+      <c r="C268" t="s">
+        <v>19</v>
+      </c>
+      <c r="D268" s="2">
+        <v>43888</v>
+      </c>
+      <c r="G268" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>43899.609166666669</v>
+      </c>
+      <c r="B269" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="2">
+        <v>43690</v>
+      </c>
+      <c r="E269" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>43899.822476851848</v>
+      </c>
+      <c r="B270" t="s">
+        <v>33</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E270" t="s">
+        <v>297</v>
+      </c>
+      <c r="G270" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>43899.823437500003</v>
+      </c>
+      <c r="B271" t="s">
+        <v>33</v>
+      </c>
+      <c r="C271" t="s">
+        <v>54</v>
+      </c>
+      <c r="D271" s="2">
+        <v>43843</v>
+      </c>
+      <c r="F271">
+        <v>25</v>
+      </c>
+      <c r="G271" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>43899.824756944443</v>
+      </c>
+      <c r="B272" t="s">
+        <v>33</v>
+      </c>
+      <c r="C272" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="2">
+        <v>43866</v>
+      </c>
+      <c r="F272">
+        <v>14</v>
+      </c>
+      <c r="G272" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>43899.825312499997</v>
+      </c>
+      <c r="B273" t="s">
+        <v>33</v>
+      </c>
+      <c r="C273" t="s">
+        <v>54</v>
+      </c>
+      <c r="D273" s="2">
+        <v>43876</v>
+      </c>
+      <c r="F273">
+        <v>45</v>
+      </c>
+      <c r="G273" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>43899.825694444444</v>
+      </c>
+      <c r="B274" t="s">
+        <v>33</v>
+      </c>
+      <c r="C274" t="s">
+        <v>54</v>
+      </c>
+      <c r="D274" s="2">
+        <v>43876</v>
+      </c>
+      <c r="F274">
+        <v>8</v>
+      </c>
+      <c r="G274" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1">
+        <v>43899.826585648145</v>
+      </c>
+      <c r="B275" t="s">
+        <v>33</v>
+      </c>
+      <c r="C275" t="s">
+        <v>54</v>
+      </c>
+      <c r="D275" s="2">
+        <v>43872</v>
+      </c>
+      <c r="E275" t="s">
+        <v>303</v>
+      </c>
+      <c r="G275" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1">
+        <v>43899.827326388891</v>
+      </c>
+      <c r="B276" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276" t="s">
+        <v>54</v>
+      </c>
+      <c r="D276" s="2">
+        <v>43873</v>
+      </c>
+      <c r="E276" t="s">
+        <v>305</v>
+      </c>
+      <c r="G276" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1">
+        <v>43899.827893518515</v>
+      </c>
+      <c r="B277" t="s">
+        <v>33</v>
+      </c>
+      <c r="C277" t="s">
+        <v>54</v>
+      </c>
+      <c r="D277" s="2">
+        <v>43882</v>
+      </c>
+      <c r="F277">
+        <v>10</v>
+      </c>
+      <c r="G277" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1">
+        <v>43899.828194444446</v>
+      </c>
+      <c r="B278" t="s">
+        <v>33</v>
+      </c>
+      <c r="C278" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="2">
+        <v>43885</v>
+      </c>
+      <c r="G278" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>43899.828761574077</v>
+      </c>
+      <c r="B279" t="s">
+        <v>33</v>
+      </c>
+      <c r="C279" t="s">
+        <v>19</v>
+      </c>
+      <c r="D279" s="2">
+        <v>43867</v>
+      </c>
+      <c r="G279" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1">
+        <v>43899.831238425926</v>
+      </c>
+      <c r="B280" t="s">
+        <v>33</v>
+      </c>
+      <c r="C280" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" s="2">
+        <v>43854</v>
+      </c>
+      <c r="E280" t="s">
+        <v>310</v>
+      </c>
+      <c r="G280" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1">
+        <v>43899.832048611112</v>
+      </c>
+      <c r="B281" t="s">
+        <v>33</v>
+      </c>
+      <c r="C281" t="s">
+        <v>14</v>
+      </c>
+      <c r="D281" s="2">
+        <v>43867</v>
+      </c>
+      <c r="E281" t="s">
+        <v>312</v>
+      </c>
+      <c r="G281" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1">
+        <v>43899.832395833335</v>
+      </c>
+      <c r="B282" t="s">
+        <v>33</v>
+      </c>
+      <c r="C282" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282" s="2">
+        <v>43840</v>
+      </c>
+      <c r="E282" t="s">
+        <v>314</v>
+      </c>
+      <c r="G282" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1">
+        <v>43899.833009259259</v>
+      </c>
+      <c r="B283" t="s">
+        <v>33</v>
+      </c>
+      <c r="C283" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" s="2">
+        <v>43837</v>
+      </c>
+      <c r="E283" t="s">
+        <v>316</v>
+      </c>
+      <c r="G283" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1">
+        <v>43899.83353009259</v>
+      </c>
+      <c r="B284" t="s">
+        <v>33</v>
+      </c>
+      <c r="C284" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="2">
+        <v>43836</v>
+      </c>
+      <c r="E284" t="s">
+        <v>318</v>
+      </c>
+      <c r="G284" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>43902.615520833337</v>
+      </c>
+      <c r="B285" t="s">
+        <v>42</v>
+      </c>
+      <c r="C285" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" s="2">
+        <v>43901</v>
+      </c>
+      <c r="F285">
+        <v>25</v>
+      </c>
+      <c r="G285" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{D0965E4A-512F-4566-BB87-AB64FE29E3FF}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{2A7D5C1C-65C2-4C2E-8134-395C3BD1D95B}"/>
-    <hyperlink ref="E55" r:id="rId3" xr:uid="{F16CC454-DE65-45CD-B53B-5325B2AD3019}"/>
-    <hyperlink ref="E72" r:id="rId4" xr:uid="{488BC301-26ED-41CA-B7DA-6EA225763905}"/>
-    <hyperlink ref="E73" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
-    <hyperlink ref="E75" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
-    <hyperlink ref="E74" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
-    <hyperlink ref="E149" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
-    <hyperlink ref="E150" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
-    <hyperlink ref="E145" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
-    <hyperlink ref="E240" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{D0965E4A-512F-4566-BB87-AB64FE29E3FF}"/>
+    <hyperlink ref="E42" r:id="rId2" xr:uid="{2A7D5C1C-65C2-4C2E-8134-395C3BD1D95B}"/>
+    <hyperlink ref="E102" r:id="rId3" xr:uid="{F16CC454-DE65-45CD-B53B-5325B2AD3019}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{488BC301-26ED-41CA-B7DA-6EA225763905}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
+    <hyperlink ref="E179" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
+    <hyperlink ref="E190" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
+    <hyperlink ref="E152" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
+    <hyperlink ref="E243" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
+    <hyperlink ref="E256" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
+    <hyperlink ref="E180" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
+    <hyperlink ref="E191" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -6429,7 +6966,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6663,14 +7200,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE4F7B55-1B71-49EC-BE50-E873DBF805BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{204B38E4-325E-43C2-95D8-4C2DB620B69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="334">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -903,9 +903,6 @@
     <t>Meeting with Emily Marlas, organized through Development</t>
   </si>
   <si>
-    <t>Cocktails with a conservationist event in Wild Reef</t>
-  </si>
-  <si>
     <t>Tour and chat with Jeremy Goodsnyder, prospective research volunteer</t>
   </si>
   <si>
@@ -994,6 +991,48 @@
   </si>
   <si>
     <t>Gave a presentation at a SeaGrant Fisheries Workshop with 25 attendees</t>
+  </si>
+  <si>
+    <t>Lecture for ACCA class</t>
+  </si>
+  <si>
+    <t>Lecture to UIUC course of Master's Students:  Managing natural resources in the Anthropocene.</t>
+  </si>
+  <si>
+    <t>Interview with Patty Welti from WTTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met with Girl Scouts to talk about women in STEM. </t>
+  </si>
+  <si>
+    <t>Leap Day event for members</t>
+  </si>
+  <si>
+    <t>Seminar for biology series at Loyola University; hosted by Joe Milanovich</t>
+  </si>
+  <si>
+    <t>9 field days this quarter, 2/3 - 3/30.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xG67YyyjxDY&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>Youtube video by Murchie as WFMD ambassador, posted by WFMD</t>
+  </si>
+  <si>
+    <t>InFish meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Mann workday </t>
+  </si>
+  <si>
+    <t>5 field days in March 2020 deploying cit sci gear for sucker phenology</t>
+  </si>
+  <si>
+    <t>Murchie public presentation at Chicago Maritime Museum for IL-IN SeaGrant/Purdue on suckers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34 citizen scientists began observations for sucker phenology project </t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G285" totalsRowShown="0">
-  <autoFilter ref="A1:G285" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G300" totalsRowShown="0">
+  <autoFilter ref="A1:G300" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G268">
     <sortCondition ref="D1:D268"/>
   </sortState>
@@ -1417,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="F275" sqref="F275"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="G264" sqref="G264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6524,9 +6563,6 @@
       <c r="D264" s="2">
         <v>43874</v>
       </c>
-      <c r="G264" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="1">
@@ -6545,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6562,7 +6598,7 @@
         <v>43878</v>
       </c>
       <c r="G266" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6579,10 +6615,10 @@
         <v>43885</v>
       </c>
       <c r="E267" t="s">
+        <v>292</v>
+      </c>
+      <c r="G267" t="s">
         <v>293</v>
-      </c>
-      <c r="G267" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6599,7 +6635,7 @@
         <v>43888</v>
       </c>
       <c r="G268" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6616,7 +6652,7 @@
         <v>43690</v>
       </c>
       <c r="E269" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6633,10 +6669,10 @@
         <v>43830</v>
       </c>
       <c r="E270" t="s">
+        <v>296</v>
+      </c>
+      <c r="G270" t="s">
         <v>297</v>
-      </c>
-      <c r="G270" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6656,7 +6692,7 @@
         <v>25</v>
       </c>
       <c r="G271" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6676,7 +6712,7 @@
         <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6696,7 +6732,7 @@
         <v>45</v>
       </c>
       <c r="G273" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6716,7 +6752,7 @@
         <v>8</v>
       </c>
       <c r="G274" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6733,10 +6769,10 @@
         <v>43872</v>
       </c>
       <c r="E275" t="s">
+        <v>302</v>
+      </c>
+      <c r="G275" t="s">
         <v>303</v>
-      </c>
-      <c r="G275" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6753,10 +6789,10 @@
         <v>43873</v>
       </c>
       <c r="E276" t="s">
+        <v>304</v>
+      </c>
+      <c r="G276" t="s">
         <v>305</v>
-      </c>
-      <c r="G276" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6776,7 +6812,7 @@
         <v>10</v>
       </c>
       <c r="G277" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6793,7 +6829,7 @@
         <v>43885</v>
       </c>
       <c r="G278" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6810,7 +6846,7 @@
         <v>43867</v>
       </c>
       <c r="G279" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6827,10 +6863,10 @@
         <v>43854</v>
       </c>
       <c r="E280" t="s">
+        <v>309</v>
+      </c>
+      <c r="G280" t="s">
         <v>310</v>
-      </c>
-      <c r="G280" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6847,10 +6883,10 @@
         <v>43867</v>
       </c>
       <c r="E281" t="s">
+        <v>311</v>
+      </c>
+      <c r="G281" t="s">
         <v>312</v>
-      </c>
-      <c r="G281" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6867,10 +6903,10 @@
         <v>43840</v>
       </c>
       <c r="E282" t="s">
+        <v>313</v>
+      </c>
+      <c r="G282" t="s">
         <v>314</v>
-      </c>
-      <c r="G282" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6887,10 +6923,10 @@
         <v>43837</v>
       </c>
       <c r="E283" t="s">
+        <v>315</v>
+      </c>
+      <c r="G283" t="s">
         <v>316</v>
-      </c>
-      <c r="G283" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6907,10 +6943,10 @@
         <v>43836</v>
       </c>
       <c r="E284" t="s">
+        <v>317</v>
+      </c>
+      <c r="G284" t="s">
         <v>318</v>
-      </c>
-      <c r="G284" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6930,7 +6966,289 @@
         <v>25</v>
       </c>
       <c r="G285" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1">
+        <v>43914.617013888892</v>
+      </c>
+      <c r="B286" t="s">
+        <v>26</v>
+      </c>
+      <c r="C286" t="s">
+        <v>19</v>
+      </c>
+      <c r="D286" s="2">
+        <v>43911</v>
+      </c>
+      <c r="G286" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1">
+        <v>43921.605405092596</v>
+      </c>
+      <c r="B287" t="s">
+        <v>42</v>
+      </c>
+      <c r="C287" t="s">
+        <v>54</v>
+      </c>
+      <c r="D287" s="2">
+        <v>43920</v>
+      </c>
+      <c r="F287">
+        <v>12</v>
+      </c>
+      <c r="G287" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1">
+        <v>43921.71671296296</v>
+      </c>
+      <c r="B288" t="s">
+        <v>127</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="2">
+        <v>43916</v>
+      </c>
+      <c r="G288" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>43921.718981481485</v>
+      </c>
+      <c r="B289" t="s">
+        <v>127</v>
+      </c>
+      <c r="C289" t="s">
+        <v>54</v>
+      </c>
+      <c r="D289" s="2">
+        <v>43847</v>
+      </c>
+      <c r="F289">
+        <v>11</v>
+      </c>
+      <c r="G289" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1">
+        <v>43921.719467592593</v>
+      </c>
+      <c r="B290" t="s">
+        <v>127</v>
+      </c>
+      <c r="C290" t="s">
+        <v>54</v>
+      </c>
+      <c r="D290" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F290">
+        <v>16</v>
+      </c>
+      <c r="G290" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>43921.720173611109</v>
+      </c>
+      <c r="B291" t="s">
+        <v>127</v>
+      </c>
+      <c r="C291" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="2">
+        <v>43874</v>
+      </c>
+      <c r="G291" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>43921.721006944441</v>
+      </c>
+      <c r="B292" t="s">
+        <v>127</v>
+      </c>
+      <c r="C292" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292" s="2">
+        <v>43864</v>
+      </c>
+      <c r="F292">
+        <v>9</v>
+      </c>
+      <c r="G292" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>43922.926342592589</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="2">
+        <v>43852</v>
+      </c>
+      <c r="E293" t="s">
+        <v>327</v>
+      </c>
+      <c r="G293" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>43922.926736111112</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>19</v>
+      </c>
+      <c r="D294" s="2">
+        <v>43857</v>
+      </c>
+      <c r="G294" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>43922.926979166667</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" t="s">
+        <v>19</v>
+      </c>
+      <c r="D295" s="2">
+        <v>43885</v>
+      </c>
+      <c r="G295" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>43922.927164351851</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" t="s">
+        <v>19</v>
+      </c>
+      <c r="D296" s="2">
+        <v>43913</v>
+      </c>
+      <c r="G296" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>43922.927974537037</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297" s="2">
+        <v>43847</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>43922.928414351853</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" t="s">
+        <v>11</v>
+      </c>
+      <c r="D298" s="2">
+        <v>43902</v>
+      </c>
+      <c r="F298">
+        <v>5</v>
+      </c>
+      <c r="G298" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>43922.929108796299</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>54</v>
+      </c>
+      <c r="D299" s="2">
+        <v>43900</v>
+      </c>
+      <c r="F299">
+        <v>25</v>
+      </c>
+      <c r="G299" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>43922.930011574077</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>54</v>
+      </c>
+      <c r="D300" s="2">
+        <v>43902</v>
+      </c>
+      <c r="F300">
+        <v>34</v>
+      </c>
+      <c r="G300" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6958,6 +7276,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -6966,7 +7293,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7200,23 +7527,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_a74\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{204B38E4-325E-43C2-95D8-4C2DB620B69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18934E86-CAED-4B12-B1F4-5081B931BA44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="351">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -921,7 +921,7 @@
     <t>Weeks, C, Meagher, S, Willink, P, McCravy, KW. Does seawater acidification affect zooxanthellae density and health in the invasive upside‐down jellyfish, Cassiopea spp.? Invertebr Biol. 2019; 138:e12255. https://doi.org/10.1111/ivb.12255</t>
   </si>
   <si>
-    <t>https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117</t>
+    <t>Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117</t>
   </si>
   <si>
     <t>PNAS paper - legacy project on Cayman grouper. Technically print date is 2020.</t>
@@ -1033,6 +1033,57 @@
   </si>
   <si>
     <t xml:space="preserve">34 citizen scientists began observations for sucker phenology project </t>
+  </si>
+  <si>
+    <t>Shedd After Hours Event - Cocktails with Conservationists</t>
+  </si>
+  <si>
+    <t>https://www.sheddaquarium.org/stories/great-lakes-invasive-species-180-and-counting</t>
+  </si>
+  <si>
+    <t>Shedd blog post - Invasive species overview</t>
+  </si>
+  <si>
+    <t>https://www.sheddaquarium.org/stories/great-lakes-invasives-sea-lampreys</t>
+  </si>
+  <si>
+    <t>Shedd blog - Sea Lamprey</t>
+  </si>
+  <si>
+    <t>Great Lakes Acoustic Telemetry Observation System Annual Coordination Meeting</t>
+  </si>
+  <si>
+    <t>Bob Mann workday</t>
+  </si>
+  <si>
+    <t>Field day w/ K. Murchie setting up equipment for citizen scientists</t>
+  </si>
+  <si>
+    <t>Teacher Council presentation on conch research</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>One Earth film panel</t>
+  </si>
+  <si>
+    <t>NWU Engineering group presentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sherman, K.D., J.R. Paris, R.A. King, K.A. Moore, C.P. Dahlgren, L.C. Knowles, K. Stump, C.R. Tyler, and R. Stevens. 2020. RAD-Seq Analysis and in situ Monitoring of Nassau Grouper Reveal Fine-Scale Population Structure and Origins of Aggregating Fish. Frontiers in Marine Science https://doi.org/10.3389/fmars.2020.00157 </t>
+  </si>
+  <si>
+    <t>Presentation at trustee event in Jupiter, FL</t>
+  </si>
+  <si>
+    <t>Online Lunch and Learn through Zoom on shark research</t>
+  </si>
+  <si>
+    <t>Presentation to boat full boat participants on SheddAdventure trip to Costa Rica and Panama</t>
+  </si>
+  <si>
+    <t>Happel, A., Stafford, C. P., Rinchard, J., &amp; Czesny, S. (2020). Fatty acid profiles of lake trout reveal the importance of lipid content for interpreting trophic relationships within and across lakes. Journal of Great Lakes Research, 46(1), 188-197.</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1192,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G300" totalsRowShown="0">
-  <autoFilter ref="A1:G300" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:G314" totalsRowShown="0">
+  <autoFilter ref="A1:G314" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G268">
     <sortCondition ref="D1:D268"/>
   </sortState>
@@ -1456,13 +1507,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G300"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="G264" sqref="G264"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
@@ -3982,7 +4033,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="120">
+    <row r="132" spans="1:7" ht="111.95">
       <c r="A132" s="1">
         <v>43676.827951388892</v>
       </c>
@@ -6666,9 +6717,9 @@
         <v>8</v>
       </c>
       <c r="D270" s="2">
-        <v>43830</v>
-      </c>
-      <c r="E270" t="s">
+        <v>43836</v>
+      </c>
+      <c r="E270" s="5" t="s">
         <v>296</v>
       </c>
       <c r="G270" t="s">
@@ -7249,6 +7300,274 @@
       </c>
       <c r="G300" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>43923.79215277778</v>
+      </c>
+      <c r="B301" t="s">
+        <v>267</v>
+      </c>
+      <c r="C301" t="s">
+        <v>54</v>
+      </c>
+      <c r="D301" s="2">
+        <v>43874</v>
+      </c>
+      <c r="F301">
+        <v>20</v>
+      </c>
+      <c r="G301" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>43923.79310185185</v>
+      </c>
+      <c r="B302" t="s">
+        <v>267</v>
+      </c>
+      <c r="C302" t="s">
+        <v>54</v>
+      </c>
+      <c r="D302" s="2">
+        <v>43881</v>
+      </c>
+      <c r="E302" t="s">
+        <v>335</v>
+      </c>
+      <c r="G302" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>43923.79383101852</v>
+      </c>
+      <c r="B303" t="s">
+        <v>267</v>
+      </c>
+      <c r="C303" t="s">
+        <v>54</v>
+      </c>
+      <c r="D303" s="2">
+        <v>43893</v>
+      </c>
+      <c r="E303" t="s">
+        <v>337</v>
+      </c>
+      <c r="G303" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>43923.794479166667</v>
+      </c>
+      <c r="B304" t="s">
+        <v>267</v>
+      </c>
+      <c r="C304" t="s">
+        <v>19</v>
+      </c>
+      <c r="D304" s="2">
+        <v>43885</v>
+      </c>
+      <c r="F304">
+        <v>4</v>
+      </c>
+      <c r="G304" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>43923.795162037037</v>
+      </c>
+      <c r="B305" t="s">
+        <v>267</v>
+      </c>
+      <c r="C305" t="s">
+        <v>11</v>
+      </c>
+      <c r="D305" s="2">
+        <v>43847</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>43923.795844907407</v>
+      </c>
+      <c r="B306" t="s">
+        <v>267</v>
+      </c>
+      <c r="C306" t="s">
+        <v>11</v>
+      </c>
+      <c r="D306" s="2">
+        <v>43907</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1">
+        <v>43923.814375000002</v>
+      </c>
+      <c r="B307" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307" t="s">
+        <v>54</v>
+      </c>
+      <c r="D307" s="2">
+        <v>43915</v>
+      </c>
+      <c r="F307">
+        <v>15</v>
+      </c>
+      <c r="G307" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1">
+        <v>43923.816157407404</v>
+      </c>
+      <c r="B308" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" t="s">
+        <v>54</v>
+      </c>
+      <c r="D308" s="2">
+        <v>43901</v>
+      </c>
+      <c r="F308" t="s">
+        <v>343</v>
+      </c>
+      <c r="G308" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1">
+        <v>43923.817025462966</v>
+      </c>
+      <c r="B309" t="s">
+        <v>13</v>
+      </c>
+      <c r="C309" t="s">
+        <v>54</v>
+      </c>
+      <c r="D309" s="2">
+        <v>43906</v>
+      </c>
+      <c r="G309" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1">
+        <v>43924.789768518516</v>
+      </c>
+      <c r="B310" t="s">
+        <v>24</v>
+      </c>
+      <c r="C310" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2">
+        <v>43893</v>
+      </c>
+      <c r="E310" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1">
+        <v>43924.790266203701</v>
+      </c>
+      <c r="B311" t="s">
+        <v>24</v>
+      </c>
+      <c r="C311" t="s">
+        <v>54</v>
+      </c>
+      <c r="D311" s="2">
+        <v>43901</v>
+      </c>
+      <c r="F311">
+        <v>12</v>
+      </c>
+      <c r="G311" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1">
+        <v>43924.790879629632</v>
+      </c>
+      <c r="B312" t="s">
+        <v>24</v>
+      </c>
+      <c r="C312" t="s">
+        <v>54</v>
+      </c>
+      <c r="D312" s="2">
+        <v>43922</v>
+      </c>
+      <c r="F312">
+        <v>100</v>
+      </c>
+      <c r="G312" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1">
+        <v>43924.805868055555</v>
+      </c>
+      <c r="B313" t="s">
+        <v>39</v>
+      </c>
+      <c r="C313" t="s">
+        <v>19</v>
+      </c>
+      <c r="D313" s="2">
+        <v>43841</v>
+      </c>
+      <c r="G313" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1">
+        <v>43926.646006944444</v>
+      </c>
+      <c r="B314" t="s">
+        <v>42</v>
+      </c>
+      <c r="C314" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="2">
+        <v>43815</v>
+      </c>
+      <c r="E314" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -7267,10 +7586,11 @@
     <hyperlink ref="E256" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
     <hyperlink ref="E180" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
     <hyperlink ref="E191" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
+    <hyperlink ref="E270" r:id="rId15" display="https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117" xr:uid="{99A0F466-A75A-4E4E-A6F4-620C55E4BC39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7285,15 +7605,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7527,14 +7838,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C546B7EE-D029-4076-B773-74F57E7BB9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D06E33-42AF-4E37-B2B2-60FA2D6FD514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,8 +34,6 @@
   <authors>
     <author>tc={3F82C016-BF87-43C7-AF30-685D699C00F1}</author>
     <author>tc={0D943B3F-A01E-467C-AE66-820721F4FC5E}</author>
-    <author>tc={4C32B00D-9DCB-402F-869B-FC2E3C6CA94E}</author>
-    <author>tc={A97A94B4-98A5-46DA-9FAE-465C066AA502}</author>
     <author>tc={B50C9C38-935F-4B25-8180-404F4A863DB0}</author>
     <author>tc={00165D7D-7883-4BBB-ABDD-C725A1D6BA64}</author>
   </authors>
@@ -64,27 +62,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C209" authorId="2" shapeId="0" xr:uid="{4C32B00D-9DCB-402F-869B-FC2E3C6CA94E}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Happel, Austin 
-</t>
-      </text>
-    </comment>
-    <comment ref="C269" authorId="3" shapeId="0" xr:uid="{A97A94B4-98A5-46DA-9FAE-465C066AA502}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Happel, Austin not sure if / how we should track paper reviews in these metrics... @Knapp, Chuck thoughts?
-Reply:
-    We haven't tracked peer review in the past. Not sure if we want to start including that metric. It is something of value no question, but we don't have goals of how much of that we should do/yr
-</t>
-      </text>
-    </comment>
-    <comment ref="C292" authorId="4" shapeId="0" xr:uid="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
+    <comment ref="C285" authorId="2" shapeId="0" xr:uid="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -95,7 +73,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C305" authorId="5" shapeId="0" xr:uid="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
+    <comment ref="C298" authorId="3" shapeId="0" xr:uid="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="355">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -243,12 +221,15 @@
     <t>ahappel@sheddaquarium.org</t>
   </si>
   <si>
+    <t>Chicago Wilderness Wildlife Committee 2019 (50 people)</t>
+  </si>
+  <si>
+    <t>kinoue@sheddaquarium.org</t>
+  </si>
+  <si>
     <t>Chicago Wilderness Wildlife Committee 2019</t>
   </si>
   <si>
-    <t>kinoue@sheddaquarium.org</t>
-  </si>
-  <si>
     <t>Nassau grouper research in Cayman Islands with REEF (Reef Environmental Education Foundation), Oregon State University, Scripps Institution of Oceanography, and the Cayman Island Department of the Environment</t>
   </si>
   <si>
@@ -532,9 +513,6 @@
   </si>
   <si>
     <t>conch and lobster trip led by Dr. Kough. Also did Grouper counts and length estimation.</t>
-  </si>
-  <si>
-    <t>Submitted a review of a paper for Journal of Great Lakes Research</t>
   </si>
   <si>
     <t>River island building day</t>
@@ -574,9 +552,6 @@
     <t>8 field volunteers in this summer (July to September).</t>
   </si>
   <si>
-    <t>Submitted a review of a paper for PlosOne</t>
-  </si>
-  <si>
     <t>Great Lakes Now filming of field work and Interview</t>
   </si>
   <si>
@@ -652,9 +627,6 @@
     <t>Chicago Fishes (Walked around and spoke to people about their catch or what is in the River and how the fish are doing)</t>
   </si>
   <si>
-    <t>Review of a paper on Lake Trout diets in several gacial lakes for Freshwater Biology</t>
-  </si>
-  <si>
     <t>Lunchtime lecture series for Friends of the Chicago River's Bridgehouse Museum</t>
   </si>
   <si>
@@ -664,9 +636,6 @@
     <t xml:space="preserve">Story about a new mussel species described from Texas. </t>
   </si>
   <si>
-    <t>Review of a paper on round goby diets in the Baltic for Journal of Great Lakes Research</t>
-  </si>
-  <si>
     <t>Lennox R.J., C. Paukert, K. Aarestrup, M. Auger-Methe, L. Baumgartner, K. Birnie-Gauvin, K. Bøe, K. Brink, J. Browncombe, Y Chen, J.G. Davidsen, E. Eliason, A. Filous, B. Gillanders, I. Helland, A. Horodysky, S.R. Januchowski-Hartley, S.K. Lowerre-Barbieri, M.C. Lucas, E. Martins, K.J. Murchie, P.S. Pompeu, M. Power, R. Raghavan, F.J. Rahel, D. Secor, J.D. Thiem, E.B. Thorstad, H. Ueda, F.G. Whoriskey, and S.J. Cooke. 2019.  One hundred pressing questions on the future of global fish migration science, conservation, and policy. Frontiers in Ecology and Evolution.  doi:10.3389/fevo.2019.00286</t>
   </si>
   <si>
@@ -766,7 +735,7 @@
     <t>Coral research trip on R/V CRII</t>
   </si>
   <si>
-    <t>28 participants in coral research trip on R/V CRII. 11 at a time on the boat working 8 hours per day for 14 days = 1848 person-hours.</t>
+    <t>28 participants in coral research trip on R/V CRII. 11 at a time on the boat working 8 hours per day for 14 days = 1232 person-hours.</t>
   </si>
   <si>
     <t>20 FW ACCA students engaged in 3 days in October (Oct 5, 12, 19)</t>
@@ -778,9 +747,6 @@
     <t>IUCN Leaders Meeting</t>
   </si>
   <si>
-    <t>Review of a paper for Canadian Journal of Fisheries and Aquatic Sciences (modelling salmon diets with stable isotopes in Lake Michigan)</t>
-  </si>
-  <si>
     <t>van den Burg, M.P., Brisbane, J.L.K. &amp; Knapp, C.R. Biol Invasions (2019). https://doi.org/10.1007/s10530-019-02107-5</t>
   </si>
   <si>
@@ -886,9 +852,6 @@
     <t>Site prep with GLAD team</t>
   </si>
   <si>
-    <t>Review of a paper for Philosophical Transactions B  (Some work on modelling food webs with fatty acids)</t>
-  </si>
-  <si>
     <t>Austin and Ross (with Jaclyn) speak to Tim Hoellein's Global Change Biology class at Loyola</t>
   </si>
   <si>
@@ -985,9 +948,6 @@
     <t>Meeting with Emily Marlas, organized through Development</t>
   </si>
   <si>
-    <t>REview of a paper for Urban Ecosystems (changes in aquatic landscape and fauna in ChicagoLand)</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -1172,6 +1132,27 @@
   </si>
   <si>
     <t>Hosted two interns (Jillian Snow and John Galason) for spring.</t>
+  </si>
+  <si>
+    <t>Teen Earth Day zoom presentation on coral research</t>
+  </si>
+  <si>
+    <t>Shedd Academy St. Lawrence High School lecture</t>
+  </si>
+  <si>
+    <t>ACCA Marine and Island Ecology lecture</t>
+  </si>
+  <si>
+    <t>hwind@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Presented to 2 Lake Forest College Biology classes about the Marine ACCA Class, and I met with Bio, Chem, and Environmental Science professors.</t>
+  </si>
+  <si>
+    <t>Skype a Scientist with ~20 5th graders in Florida</t>
+  </si>
+  <si>
+    <t>Shedd Lunch and Learn presentation on Chicago's River's and Fish!</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1266,6 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Knapp, Chuck" id="{CE41439A-C0FB-4FCC-8D46-08413F3A37F8}" userId="cknapp@sheddaquarium.org" providerId="PeoplePicker"/>
   <person displayName="Inoue, Kentaro" id="{2EDBF690-2989-4482-9352-1F2ED3F2C3FE}" userId="kinoue@sheddaquarium.org" providerId="PeoplePicker"/>
-  <person displayName="Happel, Austin" id="{D01805F9-D975-4E41-8E01-8FE899B0FE44}" userId="ahappel@sheddaquarium.org" providerId="PeoplePicker"/>
   <person displayName="Kessel, Steve" id="{9E2245FB-B1CE-4AE1-8D04-16BB360F4C0D}" userId="skessel@sheddaquarium.org" providerId="PeoplePicker"/>
   <person displayName="Murchie, Karen" id="{C4FA59E1-A768-46E5-88EE-C47BEFA394E1}" userId="kmurchie@sheddaquarium.org" providerId="PeoplePicker"/>
   <person displayName="Youngquist, Melissa" id="{166D1563-D471-4BD3-B892-C635EA0EC490}" userId="myoungquist@sheddaquarium.org" providerId="PeoplePicker"/>
@@ -1295,10 +1275,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I320" totalsRowShown="0">
-  <autoFilter ref="A1:I320" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I271">
-    <sortCondition ref="D1:D271"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I319" totalsRowShown="0">
+  <autoFilter ref="A1:I319" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I264">
+    <sortCondition ref="D1:D264"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
@@ -1640,26 +1620,7 @@
     <text xml:space="preserve">If Chuck agrees that this works better as a deeper engagement (I see it like one full ACCA class of a day of learning), then ya, I would delete one entry and count the 40 people once. Thank you Ross!
 </text>
   </threadedComment>
-  <threadedComment ref="C209" dT="2020-04-07T22:55:18.41" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{4C32B00D-9DCB-402F-869B-FC2E3C6CA94E}">
-    <text xml:space="preserve">@Happel, Austin 
-</text>
-    <mentions>
-      <mention mentionpersonId="{D01805F9-D975-4E41-8E01-8FE899B0FE44}" mentionId="{2FD787F5-4880-458E-AC12-CB3E87E5C79F}" startIndex="0" length="15"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="C269" dT="2020-04-07T22:52:57.91" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{A97A94B4-98A5-46DA-9FAE-465C066AA502}">
-    <text xml:space="preserve">@Happel, Austin not sure if / how we should track paper reviews in these metrics... @Knapp, Chuck thoughts?
-</text>
-    <mentions>
-      <mention mentionpersonId="{D01805F9-D975-4E41-8E01-8FE899B0FE44}" mentionId="{4B65E729-C454-449C-8C36-036A7D04F124}" startIndex="0" length="15"/>
-      <mention mentionpersonId="{CE41439A-C0FB-4FCC-8D46-08413F3A37F8}" mentionId="{966B62B0-0C54-4532-9C37-81BD881562B1}" startIndex="84" length="13"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="C269" dT="2020-04-07T23:04:05.98" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{57B783C7-49D6-46E2-91CE-D09F0C9C1C28}" parentId="{A97A94B4-98A5-46DA-9FAE-465C066AA502}">
-    <text xml:space="preserve">We haven't tracked peer review in the past. Not sure if we want to start including that metric. It is something of value no question, but we don't have goals of how much of that we should do/yr
-</text>
-  </threadedComment>
-  <threadedComment ref="C292" dT="2020-04-07T22:50:21.72" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{B50C9C38-935F-4B25-8180-404F4A863DB0}" done="1">
+  <threadedComment ref="C285" dT="2020-04-07T22:50:21.72" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{B50C9C38-935F-4B25-8180-404F4A863DB0}" done="1">
     <text xml:space="preserve">@Youngquist, Melissa can you confirm if this should be stakeholder engagement or change to presentation - @Inoue, Kentaro pls fill in from our convo from today!
 </text>
     <mentions>
@@ -1667,11 +1628,11 @@
       <mention mentionpersonId="{2EDBF690-2989-4482-9352-1F2ED3F2C3FE}" mentionId="{6372E852-7829-4F7A-B5F6-D10DCC2E1ADE}" startIndex="106" length="15"/>
     </mentions>
   </threadedComment>
-  <threadedComment ref="C292" dT="2020-04-07T23:06:11.47" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{2D889BA0-56BE-42B0-9277-17517B5C4FFE}" parentId="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
+  <threadedComment ref="C285" dT="2020-04-07T23:06:11.47" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{2D889BA0-56BE-42B0-9277-17517B5C4FFE}" parentId="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
     <text xml:space="preserve">Since Melissa was in the field today, we will have to fill her in that we are broadly changing in person meetings/conference presentations to presentations. She will still have to discern if this was more specialized of an engagement than that
 </text>
   </threadedComment>
-  <threadedComment ref="C305" dT="2020-04-07T22:48:19.22" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
+  <threadedComment ref="C298" dT="2020-04-07T22:48:19.22" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
     <text xml:space="preserve">@Knapp, Chuck should this be Media opportunity instead?
 </text>
     <mentions>
@@ -1683,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I320"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:XFD291"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:XFD129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2194,7 +2155,7 @@
         <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2215,7 +2176,7 @@
         <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2233,7 +2194,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2250,7 +2211,7 @@
         <v>43518</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2271,7 +2232,7 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2289,7 +2250,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2310,7 +2271,7 @@
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2328,7 +2289,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2349,7 +2310,7 @@
         <v>30</v>
       </c>
       <c r="I34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2370,7 +2331,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2387,7 +2348,7 @@
         <v>43529</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2408,7 +2369,7 @@
         <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2429,7 +2390,7 @@
         <v>75</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2450,7 +2411,7 @@
         <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2471,7 +2432,7 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2482,7 +2443,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" s="2">
         <v>43533</v>
@@ -2491,8 +2452,12 @@
       <c r="G41">
         <v>12</v>
       </c>
+      <c r="H41">
+        <f>G41*1</f>
+        <v>12</v>
+      </c>
       <c r="I41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2509,7 +2474,7 @@
         <v>43535</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2530,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2551,7 +2516,7 @@
         <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2569,7 +2534,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="I45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2590,7 +2555,7 @@
         <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2611,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2632,7 +2597,7 @@
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2653,7 +2618,7 @@
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2685,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51" s="2">
         <v>43539</v>
@@ -2712,7 +2677,7 @@
         <v>43541</v>
       </c>
       <c r="E52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2733,7 +2698,7 @@
         <v>5</v>
       </c>
       <c r="I53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2744,7 +2709,7 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54" s="2">
         <v>43542</v>
@@ -2754,7 +2719,7 @@
         <v>35</v>
       </c>
       <c r="I54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2771,10 +2736,10 @@
         <v>43544</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2792,7 +2757,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2813,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="I57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2842,7 +2807,7 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" s="2">
         <v>43545</v>
@@ -2870,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="I60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2881,7 +2846,7 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61" s="2">
         <v>43546</v>
@@ -2894,7 +2859,7 @@
         <v>160</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2912,7 +2877,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="I62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2930,7 +2895,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2947,7 +2912,7 @@
         <v>43554</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2958,7 +2923,7 @@
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D65" s="2">
         <v>43556</v>
@@ -2968,7 +2933,7 @@
         <v>37</v>
       </c>
       <c r="I65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2979,7 +2944,7 @@
         <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66" s="2">
         <v>43558</v>
@@ -2988,8 +2953,12 @@
       <c r="G66">
         <v>10</v>
       </c>
+      <c r="H66">
+        <f>G66*1</f>
+        <v>10</v>
+      </c>
       <c r="I66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3010,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3031,7 +3000,7 @@
         <v>30</v>
       </c>
       <c r="I68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3052,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3063,7 +3032,7 @@
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70" s="2">
         <v>43561</v>
@@ -3073,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3094,7 +3063,7 @@
         <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3115,7 +3084,7 @@
         <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3136,7 +3105,7 @@
         <v>60</v>
       </c>
       <c r="I73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3157,7 +3126,7 @@
         <v>19</v>
       </c>
       <c r="I74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3178,7 +3147,7 @@
         <v>19</v>
       </c>
       <c r="I75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3195,7 +3164,7 @@
         <v>43566</v>
       </c>
       <c r="E76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3216,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3237,7 +3206,7 @@
         <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3258,7 +3227,7 @@
         <v>28</v>
       </c>
       <c r="I79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3279,7 +3248,7 @@
         <v>40</v>
       </c>
       <c r="I80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3300,7 +3269,7 @@
         <v>270</v>
       </c>
       <c r="I81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3317,10 +3286,10 @@
         <v>43571</v>
       </c>
       <c r="E82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3337,7 +3306,7 @@
         <v>43572</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3355,7 +3324,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3376,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3397,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3436,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3457,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3475,14 +3444,14 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G90" s="4">
         <v>1</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3503,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3524,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3545,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3566,7 +3535,7 @@
         <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3587,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3608,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3626,7 +3595,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="I97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3644,10 +3613,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3668,7 +3637,7 @@
         <v>200</v>
       </c>
       <c r="I99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3689,7 +3658,7 @@
         <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3707,7 +3676,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="I101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3725,7 +3694,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3742,10 +3711,10 @@
         <v>43614</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I103" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3763,7 +3732,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="I104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3781,7 +3750,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="I105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3802,7 +3771,7 @@
         <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3823,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3844,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3865,7 +3834,7 @@
         <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3876,7 +3845,7 @@
         <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D110" s="2">
         <v>43621</v>
@@ -3886,7 +3855,7 @@
         <v>5</v>
       </c>
       <c r="I110" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3907,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3918,7 +3887,7 @@
         <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D112" s="2">
         <v>43625</v>
@@ -3928,7 +3897,7 @@
         <v>40</v>
       </c>
       <c r="I112" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3939,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D113" s="2">
         <v>43625</v>
@@ -3949,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="I113" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3960,7 +3929,7 @@
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D114" s="2">
         <v>43626</v>
@@ -3970,7 +3939,7 @@
         <v>9</v>
       </c>
       <c r="I114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3978,7 +3947,7 @@
         <v>43643.14329861111</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -3991,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4012,7 +3981,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4033,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4054,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4072,7 +4041,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="I119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4093,7 +4062,7 @@
         <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4111,7 +4080,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="I121" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4132,7 +4101,7 @@
         <v>25</v>
       </c>
       <c r="I122" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4153,7 +4122,7 @@
         <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4164,7 +4133,7 @@
         <v>43</v>
       </c>
       <c r="C124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D124" s="2">
         <v>43635</v>
@@ -4173,8 +4142,12 @@
       <c r="G124">
         <v>2</v>
       </c>
+      <c r="H124">
+        <f>G124*1</f>
+        <v>2</v>
+      </c>
       <c r="I124" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4195,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4216,7 +4189,7 @@
         <v>14</v>
       </c>
       <c r="I126" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4237,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4258,136 +4231,139 @@
         <v>8.5</v>
       </c>
       <c r="I128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>43654.662361111114</v>
+        <v>43647.658634259256</v>
       </c>
       <c r="B129" t="s">
         <v>43</v>
       </c>
       <c r="C129" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="E129" s="2"/>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>43647.658634259256</v>
+        <v>43648.768055555556</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2">
-        <v>43641</v>
+        <v>43642</v>
       </c>
       <c r="E130" s="2"/>
       <c r="G130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I130" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>43648.768055555556</v>
+        <v>43671.60765046296</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D131" s="2">
-        <v>43642</v>
+        <v>43647</v>
       </c>
       <c r="E131" s="2"/>
       <c r="G131">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="H131">
+        <v>50</v>
       </c>
       <c r="I131" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>43671.60765046296</v>
+        <v>43676.827951388892</v>
       </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C132" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D132" s="2">
         <v>43647</v>
       </c>
       <c r="E132" s="2"/>
-      <c r="G132">
-        <v>10</v>
-      </c>
-      <c r="H132">
-        <v>50</v>
-      </c>
-      <c r="I132" t="s">
-        <v>144</v>
+      <c r="F132" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>43676.827951388892</v>
+        <v>43690.624560185184</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D133" s="2">
         <v>43647</v>
       </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="11" t="s">
-        <v>145</v>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>160</v>
+      </c>
+      <c r="I133" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>43690.624560185184</v>
+        <v>43690.624791666669</v>
       </c>
       <c r="B134" t="s">
         <v>28</v>
       </c>
       <c r="C134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D134" s="2">
-        <v>43647</v>
+        <v>43591</v>
       </c>
       <c r="E134" s="2"/>
       <c r="G134">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="I134" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4398,17 +4374,17 @@
         <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D135" s="2">
-        <v>43591</v>
+        <v>43647</v>
       </c>
       <c r="E135" s="2"/>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="I135" t="s">
         <v>147</v>
@@ -4422,17 +4398,17 @@
         <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D136" s="2">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="E136" s="2"/>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="I136" t="s">
         <v>147</v>
@@ -4446,195 +4422,192 @@
         <v>28</v>
       </c>
       <c r="C137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D137" s="2">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="E137" s="2"/>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="I137" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" ht="14.25" customHeight="1">
       <c r="A138" s="1">
-        <v>43690.624791666669</v>
+        <v>43741.767268518517</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C138" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D138" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>480</v>
+        <v>43647</v>
+      </c>
+      <c r="E138" t="s">
+        <v>96</v>
       </c>
       <c r="I138" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="14.25" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>43741.767268518517</v>
+        <v>43648.765092592592</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D139" s="2">
-        <v>43647</v>
-      </c>
-      <c r="E139" t="s">
-        <v>95</v>
-      </c>
-      <c r="I139" t="s">
-        <v>148</v>
+        <v>43648</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>43648.765092592592</v>
+        <v>43651.648530092592</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D140" s="2">
-        <v>43648</v>
+        <v>43649</v>
       </c>
       <c r="E140" s="2"/>
-      <c r="F140" t="s">
-        <v>149</v>
+      <c r="G140">
+        <v>86</v>
+      </c>
+      <c r="I140" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>43651.648530092592</v>
+        <v>43654.638043981482</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C141" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D141" s="2">
         <v>43649</v>
       </c>
       <c r="E141" s="2"/>
-      <c r="G141">
-        <v>86</v>
-      </c>
-      <c r="I141" t="s">
-        <v>150</v>
+      <c r="F141" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>43654.638043981482</v>
+        <v>43654.639872685184</v>
       </c>
       <c r="B142" t="s">
         <v>45</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2">
         <v>43649</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142" t="s">
-        <v>151</v>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="I142" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>43654.639872685184</v>
+        <v>43766.894907407404</v>
       </c>
       <c r="B143" t="s">
         <v>45</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D143" s="2">
         <v>43649</v>
       </c>
       <c r="E143" s="2"/>
       <c r="G143">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I143" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>43766.894907407404</v>
+        <v>43679.866759259261</v>
       </c>
       <c r="B144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D144" s="2">
-        <v>43649</v>
+        <v>43655</v>
       </c>
       <c r="E144" s="2"/>
       <c r="G144">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>43654.662569444445</v>
+        <v>43739.885752314818</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2">
-        <v>43654</v>
+        <v>43655</v>
       </c>
       <c r="E145" s="2"/>
       <c r="G145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>43679.866759259261</v>
+        <v>43766.88721064815</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2">
         <v>43655</v>
@@ -4644,138 +4617,138 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>43739.885752314818</v>
+        <v>43766.819953703707</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D147" s="2">
-        <v>43655</v>
+        <v>43657</v>
       </c>
       <c r="E147" s="2"/>
       <c r="G147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>43766.88721064815</v>
+        <v>43739.886481481481</v>
       </c>
       <c r="B148" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D148" s="2">
-        <v>43655</v>
+        <v>43662</v>
       </c>
       <c r="E148" s="2"/>
       <c r="G148">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I148" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>43766.819953703707</v>
+        <v>43741.764016203706</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D149" s="2">
-        <v>43657</v>
+        <v>43664</v>
       </c>
       <c r="E149" s="2"/>
       <c r="G149">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I149" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>43739.886481481481</v>
+        <v>43766.821412037039</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C150" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D150" s="2">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="E150" s="2"/>
-      <c r="G150">
-        <v>11</v>
-      </c>
       <c r="I150" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>43741.764016203706</v>
+        <v>43738.798125000001</v>
       </c>
       <c r="B151" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2">
-        <v>43664</v>
+        <v>43668</v>
       </c>
       <c r="E151" s="2"/>
       <c r="G151">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>43766.821412037039</v>
+        <v>43739.88349537037</v>
       </c>
       <c r="B152" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
         <v>21</v>
       </c>
       <c r="D152" s="2">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="E152" s="2"/>
+      <c r="G152">
+        <v>35</v>
+      </c>
       <c r="I152" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>43738.798125000001</v>
+        <v>43766.887719907405</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -4785,501 +4758,507 @@
       </c>
       <c r="E153" s="2"/>
       <c r="G153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>43739.88349537037</v>
+        <v>43698.886388888888</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D154" s="2">
-        <v>43668</v>
-      </c>
-      <c r="E154" s="2"/>
-      <c r="G154">
-        <v>35</v>
+        <v>43670</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="I154" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>43766.887719907405</v>
+        <v>43738.798402777778</v>
       </c>
       <c r="B155" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="2">
-        <v>43668</v>
+        <v>43670</v>
       </c>
       <c r="E155" s="2"/>
       <c r="G155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>43698.886388888888</v>
+        <v>43741.76190972222</v>
       </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D156" s="2">
-        <v>43670</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>165</v>
+        <v>43672</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="G156">
+        <v>3</v>
       </c>
       <c r="I156" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>43738.798402777778</v>
+        <v>43766.891192129631</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D157" s="2">
-        <v>43670</v>
+        <v>43672</v>
       </c>
       <c r="E157" s="2"/>
-      <c r="G157">
-        <v>1</v>
-      </c>
       <c r="I157" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>43741.76190972222</v>
+        <v>43738.801921296297</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D158" s="2">
-        <v>43672</v>
+        <v>43676</v>
       </c>
       <c r="E158" s="2"/>
       <c r="G158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>43766.891192129631</v>
+        <v>43679.868344907409</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2">
-        <v>43672</v>
+        <v>43677</v>
       </c>
       <c r="E159" s="2"/>
+      <c r="G159">
+        <v>6</v>
+      </c>
       <c r="I159" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>43738.801921296297</v>
+        <v>43766.891805555555</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C160" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D160" s="2">
-        <v>43676</v>
+        <v>43677</v>
       </c>
       <c r="E160" s="2"/>
       <c r="G160">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I160" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1">
-        <v>43679.868344907409</v>
+        <v>43766.888090277775</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="2">
-        <v>43677</v>
+        <v>43682</v>
       </c>
       <c r="E161" s="2"/>
       <c r="G161">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I161" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>43766.891805555555</v>
+        <v>43741.760833333334</v>
       </c>
       <c r="B162" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2">
-        <v>43677</v>
+        <v>43683</v>
       </c>
       <c r="E162" s="2"/>
       <c r="G162">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I162" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1">
-        <v>43766.888090277775</v>
+        <v>43766.822199074071</v>
       </c>
       <c r="B163" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D163" s="2">
-        <v>43682</v>
+        <v>43683</v>
       </c>
       <c r="E163" s="2"/>
       <c r="G163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>43741.760833333334</v>
+        <v>43690.617384259262</v>
       </c>
       <c r="B164" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2">
-        <v>43683</v>
+        <v>43684</v>
       </c>
       <c r="E164" s="2"/>
       <c r="G164">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1">
-        <v>43766.822199074071</v>
+        <v>43738.667962962965</v>
       </c>
       <c r="B165" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2">
-        <v>43683</v>
+        <v>43685</v>
       </c>
       <c r="E165" s="2"/>
       <c r="G165">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I165" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1">
-        <v>43690.617384259262</v>
+        <v>43689.569803240738</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C166" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D166" s="2">
-        <v>43684</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="I166" t="s">
-        <v>176</v>
+        <v>43686</v>
+      </c>
+      <c r="E166" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1">
-        <v>43738.667962962965</v>
+        <v>43689.570381944446</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D167" s="2">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="E167" s="2"/>
       <c r="G167">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="I167" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="1">
-        <v>43689.569803240738</v>
+        <v>43739.884259259263</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D168" s="2">
-        <v>43686</v>
-      </c>
-      <c r="E168" t="s">
-        <v>178</v>
+        <v>43689</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="G168">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1">
-        <v>43689.570381944446</v>
+        <v>43766.893611111111</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D169" s="2">
-        <v>43686</v>
-      </c>
-      <c r="E169" s="2"/>
-      <c r="G169">
-        <v>200</v>
+        <v>43691</v>
+      </c>
+      <c r="E169" t="s">
+        <v>180</v>
       </c>
       <c r="I169" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="1">
-        <v>43783.641006944446</v>
+        <v>43739.882615740738</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D170" s="2">
-        <v>43686</v>
+        <v>43696</v>
       </c>
       <c r="E170" s="2"/>
-      <c r="I170" t="s">
-        <v>180</v>
+      <c r="F170" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1">
-        <v>43739.884259259263</v>
+        <v>43766.888425925928</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2">
-        <v>43689</v>
+        <v>43696</v>
       </c>
       <c r="E171" s="2"/>
       <c r="G171">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="1">
-        <v>43766.893611111111</v>
+        <v>43711.568831018521</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D172" s="2">
-        <v>43691</v>
-      </c>
-      <c r="E172" t="s">
-        <v>182</v>
+        <v>43699</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="G172">
+        <v>5</v>
       </c>
       <c r="I172" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1">
-        <v>43783.639374999999</v>
+        <v>43766.889166666668</v>
       </c>
       <c r="B173" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C173" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D173" s="2">
-        <v>43691</v>
+        <v>43699</v>
       </c>
       <c r="E173" s="2"/>
+      <c r="G173">
+        <v>1</v>
+      </c>
       <c r="I173" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="1">
-        <v>43739.882615740738</v>
+        <v>43741.763113425928</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2">
-        <v>43696</v>
+        <v>43703</v>
       </c>
       <c r="E174" s="2"/>
-      <c r="F174" t="s">
-        <v>185</v>
+      <c r="G174">
+        <v>8</v>
+      </c>
+      <c r="I174" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1">
-        <v>43766.888425925928</v>
+        <v>43766.823958333334</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D175" s="2">
-        <v>43696</v>
+        <v>43704</v>
       </c>
       <c r="E175" s="2"/>
       <c r="G175">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I175" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="1">
-        <v>43711.568831018521</v>
+        <v>43706.023969907408</v>
       </c>
       <c r="B176" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D176" s="2">
-        <v>43699</v>
+        <v>43705</v>
       </c>
       <c r="E176" s="2"/>
       <c r="G176">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="I176" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1">
-        <v>43766.889166666668</v>
+        <v>43711.568495370368</v>
       </c>
       <c r="B177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D177" s="2">
-        <v>43699</v>
+        <v>43706</v>
       </c>
       <c r="E177" s="2"/>
       <c r="G177">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I177" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1">
-        <v>43741.763113425928</v>
+        <v>43741.770671296297</v>
       </c>
       <c r="B178" t="s">
         <v>35</v>
@@ -5288,761 +5267,768 @@
         <v>13</v>
       </c>
       <c r="D178" s="2">
-        <v>43703</v>
+        <v>43710</v>
       </c>
       <c r="E178" s="2"/>
       <c r="G178">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1">
-        <v>43766.823958333334</v>
+        <v>43712.710358796299</v>
       </c>
       <c r="B179" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D179" s="2">
-        <v>43704</v>
-      </c>
-      <c r="E179" s="2"/>
-      <c r="G179">
-        <v>50</v>
+        <v>43712</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="I179" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="1">
-        <v>43706.023969907408</v>
+        <v>43729.624016203707</v>
       </c>
       <c r="B180" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D180" s="2">
-        <v>43705</v>
-      </c>
-      <c r="E180" s="2"/>
-      <c r="G180">
-        <v>120</v>
+        <v>43714</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="I180" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1">
-        <v>43711.568495370368</v>
+        <v>43763.750243055554</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C181" t="s">
         <v>21</v>
       </c>
       <c r="D181" s="2">
-        <v>43706</v>
+        <v>43714</v>
       </c>
       <c r="E181" s="2"/>
       <c r="G181">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="I181" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="1">
-        <v>43741.770671296297</v>
+        <v>43738.668425925927</v>
       </c>
       <c r="B182" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C182" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="2">
-        <v>43710</v>
+        <v>43715</v>
       </c>
       <c r="E182" s="2"/>
       <c r="G182">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I182" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1">
-        <v>43712.710358796299</v>
+        <v>43738.668877314813</v>
       </c>
       <c r="B183" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D183" s="2">
-        <v>43712</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>194</v>
+        <v>43715</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="G183">
+        <v>7</v>
       </c>
       <c r="I183" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1">
-        <v>43729.624016203707</v>
+        <v>43739.887245370373</v>
       </c>
       <c r="B184" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D184" s="2">
-        <v>43714</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>196</v>
+        <v>43718</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="G184">
+        <v>45</v>
       </c>
       <c r="I184" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1">
-        <v>43763.750243055554</v>
+        <v>43766.889652777776</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D185" s="2">
-        <v>43714</v>
+        <v>43718</v>
       </c>
       <c r="E185" s="2"/>
       <c r="G185">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1">
-        <v>43738.668425925927</v>
+        <v>43766.805034722223</v>
       </c>
       <c r="B186" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D186" s="2">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E186" s="2"/>
-      <c r="G186">
-        <v>8</v>
-      </c>
       <c r="I186" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1">
-        <v>43738.668877314813</v>
+        <v>43739.884745370371</v>
       </c>
       <c r="B187" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D187" s="2">
-        <v>43715</v>
+        <v>43721</v>
       </c>
       <c r="E187" s="2"/>
       <c r="G187">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="I187" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1">
-        <v>43739.887245370373</v>
+        <v>43733.843854166669</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D188" s="2">
-        <v>43718</v>
+        <v>43722</v>
       </c>
       <c r="E188" s="2"/>
       <c r="G188">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="I188" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="1">
-        <v>43766.889652777776</v>
+        <v>43739.887835648151</v>
       </c>
       <c r="B189" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D189" s="2">
-        <v>43718</v>
+        <v>43722</v>
       </c>
       <c r="E189" s="2"/>
       <c r="G189">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="1">
-        <v>43766.805034722223</v>
+        <v>43728.686550925922</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D190" s="2">
-        <v>43720</v>
-      </c>
-      <c r="E190" s="2"/>
+        <v>43724</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="I190" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1">
-        <v>43739.884745370371</v>
+        <v>43729.626122685186</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D191" s="2">
-        <v>43721</v>
-      </c>
-      <c r="E191" s="2"/>
-      <c r="G191">
-        <v>40</v>
+        <v>43726</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="I191" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="1">
-        <v>43733.843854166669</v>
+        <v>43733.844722222224</v>
       </c>
       <c r="B192" t="s">
         <v>28</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D192" s="2">
-        <v>43722</v>
+        <v>43726</v>
       </c>
       <c r="E192" s="2"/>
       <c r="G192">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="H192">
+        <v>50</v>
       </c>
       <c r="I192" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1">
-        <v>43739.887835648151</v>
+        <v>43738.800740740742</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D193" s="2">
-        <v>43722</v>
+        <v>43726</v>
       </c>
       <c r="E193" s="2"/>
       <c r="G193">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="1">
-        <v>43728.686550925922</v>
+        <v>43766.890439814815</v>
       </c>
       <c r="B194" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D194" s="2">
-        <v>43724</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>206</v>
+        <v>43727</v>
+      </c>
+      <c r="E194" s="2"/>
+      <c r="G194">
+        <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1">
-        <v>43729.626122685186</v>
+        <v>43738.667199074072</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D195" s="2">
-        <v>43726</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>207</v>
+        <v>43728</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="G195">
+        <v>200</v>
       </c>
       <c r="I195" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="1">
-        <v>43733.844722222224</v>
+        <v>43738.802488425928</v>
       </c>
       <c r="B196" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D196" s="2">
-        <v>43726</v>
+        <v>43728</v>
       </c>
       <c r="E196" s="2"/>
       <c r="G196">
-        <v>20</v>
-      </c>
-      <c r="H196">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1">
-        <v>43738.800740740742</v>
+        <v>43741.765625</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D197" s="2">
-        <v>43726</v>
+        <v>43729</v>
       </c>
       <c r="E197" s="2"/>
       <c r="G197">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I197" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1">
-        <v>43766.890439814815</v>
+        <v>43738.799513888887</v>
       </c>
       <c r="B198" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C198" t="s">
         <v>13</v>
       </c>
       <c r="D198" s="2">
-        <v>43727</v>
+        <v>43732</v>
       </c>
       <c r="E198" s="2"/>
       <c r="G198">
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="1">
-        <v>43738.667199074072</v>
+        <v>43741.768148148149</v>
       </c>
       <c r="B199" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C199" t="s">
         <v>21</v>
       </c>
       <c r="D199" s="2">
-        <v>43728</v>
+        <v>43737</v>
       </c>
       <c r="E199" s="2"/>
-      <c r="G199">
-        <v>200</v>
-      </c>
       <c r="I199" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="1">
-        <v>43738.802488425928</v>
+        <v>43759.934363425928</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D200" s="2">
-        <v>43728</v>
+        <v>43740</v>
       </c>
       <c r="E200" s="2"/>
       <c r="G200">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I200" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="1">
-        <v>43741.765625</v>
+        <v>43759.934652777774</v>
       </c>
       <c r="B201" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D201" s="2">
-        <v>43729</v>
+        <v>43743</v>
       </c>
       <c r="E201" s="2"/>
       <c r="G201">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="H201">
+        <v>1232</v>
       </c>
       <c r="I201" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="1">
-        <v>43738.799513888887</v>
+        <v>43833.922858796293</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D202" s="2">
-        <v>43732</v>
+        <v>43743</v>
       </c>
       <c r="E202" s="2"/>
       <c r="G202">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I202" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1">
-        <v>43741.768148148149</v>
+        <v>43861.778796296298</v>
       </c>
       <c r="B203" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D203" s="2">
-        <v>43737</v>
+        <v>43743</v>
       </c>
       <c r="E203" s="2"/>
+      <c r="G203">
+        <v>7</v>
+      </c>
       <c r="I203" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1">
-        <v>43759.934363425928</v>
+        <v>43817.907418981478</v>
       </c>
       <c r="B204" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D204" s="2">
-        <v>43740</v>
+        <v>43744</v>
       </c>
       <c r="E204" s="2"/>
-      <c r="G204">
-        <v>17</v>
-      </c>
       <c r="I204" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="1">
-        <v>43759.934652777774</v>
+        <v>43817.92465277778</v>
       </c>
       <c r="B205" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C205" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D205" s="2">
-        <v>43743</v>
+        <v>43748</v>
       </c>
       <c r="E205" s="2"/>
-      <c r="G205">
-        <v>28</v>
-      </c>
-      <c r="H205">
-        <v>1232</v>
-      </c>
-      <c r="I205" t="s">
-        <v>218</v>
+      <c r="F205" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="1">
-        <v>43833.922858796293</v>
+        <v>43861.779282407406</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C206" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D206" s="2">
-        <v>43743</v>
+        <v>43749</v>
       </c>
       <c r="E206" s="2"/>
       <c r="G206">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I206" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="1">
-        <v>43861.778796296298</v>
+        <v>43753.723715277774</v>
       </c>
       <c r="B207" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C207" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D207" s="2">
-        <v>43743</v>
+        <v>43753</v>
       </c>
       <c r="E207" s="2"/>
       <c r="G207">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="H207">
+        <f>G207*6</f>
+        <v>72</v>
       </c>
       <c r="I207" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="1">
-        <v>43817.907418981478</v>
+        <v>43754.878865740742</v>
       </c>
       <c r="B208" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C208" t="s">
         <v>21</v>
       </c>
       <c r="D208" s="2">
-        <v>43744</v>
+        <v>43754</v>
       </c>
       <c r="E208" s="2"/>
+      <c r="G208">
+        <v>20</v>
+      </c>
       <c r="I208" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="1">
-        <v>43783.63821759259</v>
+        <v>43766.809178240743</v>
       </c>
       <c r="B209" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D209" s="2">
-        <v>43745</v>
-      </c>
-      <c r="E209" s="2"/>
+        <v>43754</v>
+      </c>
+      <c r="E209" t="s">
+        <v>223</v>
+      </c>
       <c r="I209" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1">
-        <v>43817.92465277778</v>
+        <v>43757.676412037035</v>
       </c>
       <c r="B210" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D210" s="2">
-        <v>43748</v>
+        <v>43755</v>
       </c>
       <c r="E210" s="2"/>
-      <c r="F210" t="s">
-        <v>223</v>
+      <c r="G210">
+        <v>20</v>
+      </c>
+      <c r="I210" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="1">
-        <v>43861.779282407406</v>
+        <v>43762.828159722223</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C211" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D211" s="2">
-        <v>43749</v>
+        <v>43755</v>
       </c>
       <c r="E211" s="2"/>
       <c r="G211">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I211" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="1">
-        <v>43753.723715277774</v>
+        <v>43757.676874999997</v>
       </c>
       <c r="B212" t="s">
         <v>43</v>
       </c>
       <c r="C212" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D212" s="2">
-        <v>43753</v>
+        <v>43756</v>
       </c>
       <c r="E212" s="2"/>
       <c r="G212">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I212" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1">
-        <v>43754.878865740742</v>
+        <v>43833.922314814816</v>
       </c>
       <c r="B213" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D213" s="2">
-        <v>43754</v>
+        <v>43756</v>
       </c>
       <c r="E213" s="2"/>
       <c r="G213">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="1">
-        <v>43766.809178240743</v>
+        <v>43762.58829861111</v>
       </c>
       <c r="B214" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C214" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D214" s="2">
-        <v>43754</v>
-      </c>
-      <c r="E214" t="s">
-        <v>227</v>
+        <v>43757</v>
+      </c>
+      <c r="E214" s="2"/>
+      <c r="G214">
+        <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="1">
-        <v>43757.676412037035</v>
+        <v>43762.588761574072</v>
       </c>
       <c r="B215" t="s">
         <v>43</v>
@@ -6051,19 +6037,19 @@
         <v>21</v>
       </c>
       <c r="D215" s="2">
-        <v>43755</v>
+        <v>43760</v>
       </c>
       <c r="E215" s="2"/>
       <c r="G215">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I215" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1">
-        <v>43762.828159722223</v>
+        <v>43762.829421296294</v>
       </c>
       <c r="B216" t="s">
         <v>45</v>
@@ -6072,124 +6058,121 @@
         <v>21</v>
       </c>
       <c r="D216" s="2">
-        <v>43755</v>
+        <v>43761</v>
       </c>
       <c r="E216" s="2"/>
       <c r="G216">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I216" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="1">
-        <v>43757.676874999997</v>
+        <v>43833.918425925927</v>
       </c>
       <c r="B217" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
         <v>21</v>
       </c>
       <c r="D217" s="2">
-        <v>43756</v>
+        <v>43761</v>
       </c>
       <c r="E217" s="2"/>
       <c r="G217">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I217" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="1">
-        <v>43833.922314814816</v>
+        <v>43763.671655092592</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C218" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D218" s="2">
-        <v>43756</v>
+        <v>43762</v>
       </c>
       <c r="E218" s="2"/>
       <c r="G218">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I218" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1">
-        <v>43762.58829861111</v>
+        <v>43766.800752314812</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C219" t="s">
         <v>21</v>
       </c>
       <c r="D219" s="2">
-        <v>43757</v>
+        <v>43763</v>
       </c>
       <c r="E219" s="2"/>
       <c r="G219">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="1">
-        <v>43762.588761574072</v>
+        <v>43766.808900462966</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D220" s="2">
-        <v>43760</v>
+        <v>43763</v>
       </c>
       <c r="E220" s="2"/>
-      <c r="G220">
-        <v>25</v>
-      </c>
       <c r="I220" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="1">
-        <v>43762.829421296294</v>
+        <v>43766.876851851855</v>
       </c>
       <c r="B221" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C221" t="s">
         <v>21</v>
       </c>
       <c r="D221" s="2">
-        <v>43761</v>
+        <v>43764</v>
       </c>
       <c r="E221" s="2"/>
       <c r="G221">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I221" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="1">
-        <v>43833.918425925927</v>
+        <v>43833.919108796297</v>
       </c>
       <c r="B222" t="s">
         <v>9</v>
@@ -6198,456 +6181,458 @@
         <v>21</v>
       </c>
       <c r="D222" s="2">
-        <v>43761</v>
+        <v>43766</v>
       </c>
       <c r="E222" s="2"/>
       <c r="G222">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I222" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="1">
-        <v>43763.671655092592</v>
+        <v>43833.919999999998</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
         <v>21</v>
       </c>
       <c r="D223" s="2">
-        <v>43762</v>
+        <v>43766</v>
       </c>
       <c r="E223" s="2"/>
       <c r="G223">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I223" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="1">
-        <v>43766.800752314812</v>
+        <v>43768.587094907409</v>
       </c>
       <c r="B224" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D224" s="2">
-        <v>43763</v>
+        <v>43767</v>
       </c>
       <c r="E224" s="2"/>
-      <c r="G224">
-        <v>20</v>
-      </c>
-      <c r="I224" t="s">
-        <v>238</v>
+      <c r="F224" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="1">
-        <v>43766.808900462966</v>
+        <v>43833.917754629627</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
         <v>16</v>
       </c>
       <c r="D225" s="2">
-        <v>43763</v>
-      </c>
-      <c r="E225" s="2"/>
+        <v>43767</v>
+      </c>
+      <c r="E225" t="s">
+        <v>240</v>
+      </c>
       <c r="I225" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="1">
-        <v>43766.876851851855</v>
+        <v>43833.920474537037</v>
       </c>
       <c r="B226" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
         <v>21</v>
       </c>
       <c r="D226" s="2">
-        <v>43764</v>
+        <v>43767</v>
       </c>
       <c r="E226" s="2"/>
       <c r="G226">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I226" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="1">
-        <v>43833.919108796297</v>
+        <v>43773.819062499999</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C227" t="s">
         <v>21</v>
       </c>
       <c r="D227" s="2">
-        <v>43766</v>
+        <v>43768</v>
       </c>
       <c r="E227" s="2"/>
       <c r="G227">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I227" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1">
-        <v>43833.919999999998</v>
+        <v>43789.580648148149</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D228" s="2">
-        <v>43766</v>
+        <v>43770</v>
       </c>
       <c r="E228" s="2"/>
       <c r="G228">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>120</v>
       </c>
       <c r="I228" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="1">
-        <v>43768.587094907409</v>
+        <v>43771.555405092593</v>
       </c>
       <c r="B229" t="s">
         <v>28</v>
       </c>
       <c r="C229" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D229" s="2">
-        <v>43767</v>
+        <v>43771</v>
       </c>
       <c r="E229" s="2"/>
-      <c r="F229" t="s">
-        <v>243</v>
+      <c r="G229">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="1">
-        <v>43833.917754629627</v>
+        <v>43817.907754629632</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D230" s="2">
-        <v>43767</v>
-      </c>
-      <c r="E230" t="s">
-        <v>244</v>
-      </c>
+        <v>43771</v>
+      </c>
+      <c r="E230" s="2"/>
       <c r="I230" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="1">
-        <v>43833.920474537037</v>
+        <v>43773.818090277775</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C231" t="s">
         <v>21</v>
       </c>
       <c r="D231" s="2">
-        <v>43767</v>
+        <v>43773</v>
       </c>
       <c r="E231" s="2"/>
       <c r="G231">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I231" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1">
-        <v>43773.819062499999</v>
+        <v>43809.846851851849</v>
       </c>
       <c r="B232" t="s">
         <v>35</v>
       </c>
       <c r="C232" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D232" s="2">
-        <v>43768</v>
+        <v>43774</v>
       </c>
       <c r="E232" s="2"/>
       <c r="G232">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="1">
-        <v>43789.580648148149</v>
+        <v>43776.890972222223</v>
       </c>
       <c r="B233" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C233" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D233" s="2">
-        <v>43770</v>
+        <v>43776</v>
       </c>
       <c r="E233" s="2"/>
       <c r="G233">
-        <v>1</v>
-      </c>
-      <c r="H233">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="I233" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="1">
-        <v>43771.555405092593</v>
+        <v>43777.880983796298</v>
       </c>
       <c r="B234" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C234" t="s">
         <v>21</v>
       </c>
       <c r="D234" s="2">
-        <v>43771</v>
+        <v>43777</v>
       </c>
       <c r="E234" s="2"/>
       <c r="G234">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I234" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1">
-        <v>43817.907754629632</v>
+        <v>43780.614247685182</v>
       </c>
       <c r="B235" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C235" t="s">
         <v>21</v>
       </c>
       <c r="D235" s="2">
-        <v>43771</v>
+        <v>43778</v>
       </c>
       <c r="E235" s="2"/>
+      <c r="G235">
+        <v>2</v>
+      </c>
       <c r="I235" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="1">
-        <v>43773.818090277775</v>
+        <v>43780.614837962959</v>
       </c>
       <c r="B236" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C236" t="s">
         <v>21</v>
       </c>
       <c r="D236" s="2">
-        <v>43773</v>
+        <v>43778</v>
       </c>
       <c r="E236" s="2"/>
       <c r="G236">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I236" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="1">
-        <v>43809.846851851849</v>
+        <v>43781.848541666666</v>
       </c>
       <c r="B237" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C237" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D237" s="2">
-        <v>43774</v>
+        <v>43780</v>
       </c>
       <c r="E237" s="2"/>
       <c r="G237">
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="1">
-        <v>43776.890972222223</v>
+        <v>43782.972002314818</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C238" t="s">
         <v>21</v>
       </c>
       <c r="D238" s="2">
-        <v>43776</v>
+        <v>43782</v>
       </c>
       <c r="E238" s="2"/>
       <c r="G238">
         <v>20</v>
       </c>
       <c r="I238" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="1">
-        <v>43777.880983796298</v>
+        <v>43789.581087962964</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C239" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D239" s="2">
-        <v>43777</v>
+        <v>43787</v>
       </c>
       <c r="E239" s="2"/>
       <c r="G239">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>50</v>
       </c>
       <c r="I239" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="1">
-        <v>43780.614247685182</v>
+        <v>43836.690509259257</v>
       </c>
       <c r="B240" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="C240" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D240" s="2">
-        <v>43778</v>
+        <v>43788</v>
       </c>
       <c r="E240" s="2"/>
       <c r="G240">
-        <v>2</v>
-      </c>
-      <c r="H240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="1">
-        <v>43780.614837962959</v>
+        <v>43818.635567129626</v>
       </c>
       <c r="B241" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C241" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D241" s="2">
-        <v>43778</v>
-      </c>
-      <c r="E241" s="2"/>
-      <c r="G241">
-        <v>3</v>
-      </c>
-      <c r="H241">
-        <v>3</v>
+        <v>43790</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="I241" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="1">
-        <v>43781.848541666666</v>
+        <v>43861.778101851851</v>
       </c>
       <c r="B242" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="C242" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D242" s="2">
-        <v>43780</v>
+        <v>43790</v>
       </c>
       <c r="E242" s="2"/>
       <c r="G242">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I242" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="1">
-        <v>43783.637719907405</v>
+        <v>43836.691168981481</v>
       </c>
       <c r="B243" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C243" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D243" s="2">
-        <v>43780</v>
+        <v>43791</v>
       </c>
       <c r="E243" s="2"/>
+      <c r="G243">
+        <v>2</v>
+      </c>
       <c r="I243" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="1">
-        <v>43782.972002314818</v>
+        <v>43802.1721875</v>
       </c>
       <c r="B244" t="s">
         <v>28</v>
@@ -6656,594 +6641,593 @@
         <v>21</v>
       </c>
       <c r="D244" s="2">
-        <v>43782</v>
+        <v>43802</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="G244">
-        <v>20</v>
-      </c>
       <c r="I244" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="1">
-        <v>43789.581087962964</v>
+        <v>43802.178773148145</v>
       </c>
       <c r="B245" t="s">
         <v>28</v>
       </c>
       <c r="C245" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D245" s="2">
-        <v>43787</v>
+        <v>43804</v>
       </c>
       <c r="E245" s="2"/>
-      <c r="G245">
-        <v>1</v>
-      </c>
-      <c r="H245">
-        <v>50</v>
-      </c>
       <c r="I245" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="1">
-        <v>43836.690509259257</v>
+        <v>43812.713796296295</v>
       </c>
       <c r="B246" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D246" s="2">
-        <v>43788</v>
+        <v>43808</v>
       </c>
       <c r="E246" s="2"/>
-      <c r="G246">
-        <v>1</v>
-      </c>
-      <c r="I246" t="s">
-        <v>261</v>
+      <c r="F246" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1">
-        <v>43818.635567129626</v>
+        <v>43810.744039351855</v>
       </c>
       <c r="B247" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C247" t="s">
         <v>16</v>
       </c>
       <c r="D247" s="2">
-        <v>43790</v>
-      </c>
-      <c r="E247" s="5" t="s">
-        <v>262</v>
+        <v>43809</v>
+      </c>
+      <c r="E247" t="s">
+        <v>265</v>
       </c>
       <c r="I247" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="1">
-        <v>43861.778101851851</v>
+        <v>43810.74324074074</v>
       </c>
       <c r="B248" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D248" s="2">
-        <v>43790</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="G248">
-        <v>50</v>
+        <v>43810</v>
+      </c>
+      <c r="E248" t="s">
+        <v>267</v>
       </c>
       <c r="I248" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="1">
-        <v>43836.691168981481</v>
+        <v>43810.743668981479</v>
       </c>
       <c r="B249" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D249" s="2">
-        <v>43791</v>
-      </c>
-      <c r="E249" s="2"/>
-      <c r="G249">
-        <v>2</v>
+        <v>43810</v>
+      </c>
+      <c r="E249" t="s">
+        <v>269</v>
       </c>
       <c r="I249" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="1">
-        <v>43802.1721875</v>
+        <v>43812.711759259262</v>
       </c>
       <c r="B250" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="C250" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D250" s="2">
-        <v>43802</v>
-      </c>
-      <c r="E250" s="2"/>
+        <v>43811</v>
+      </c>
+      <c r="E250" t="s">
+        <v>271</v>
+      </c>
       <c r="I250" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="1">
-        <v>43802.178773148145</v>
+        <v>43818.636030092595</v>
       </c>
       <c r="B251" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C251" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D251" s="2">
-        <v>43804</v>
+        <v>43817</v>
       </c>
       <c r="E251" s="2"/>
+      <c r="G251">
+        <v>1</v>
+      </c>
       <c r="I251" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="1">
-        <v>43812.713796296295</v>
+        <v>43861.918692129628</v>
       </c>
       <c r="B252" t="s">
-        <v>268</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
         <v>10</v>
       </c>
       <c r="D252" s="2">
-        <v>43808</v>
+        <v>43826</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="1">
-        <v>43810.744039351855</v>
+        <v>43834.677800925929</v>
       </c>
       <c r="B253" t="s">
         <v>28</v>
       </c>
       <c r="C253" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" s="2">
+        <v>43831</v>
+      </c>
+      <c r="E253" s="2"/>
+      <c r="G253">
         <v>16</v>
       </c>
-      <c r="D253" s="2">
-        <v>43809</v>
-      </c>
-      <c r="E253" t="s">
-        <v>270</v>
-      </c>
       <c r="I253" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="1">
-        <v>43810.74324074074</v>
+        <v>43833.66547453704</v>
       </c>
       <c r="B254" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="C254" t="s">
         <v>16</v>
       </c>
       <c r="D254" s="2">
-        <v>43810</v>
-      </c>
-      <c r="E254" t="s">
-        <v>272</v>
+        <v>43832</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="I254" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="1">
-        <v>43810.743668981479</v>
+        <v>43843.74900462963</v>
       </c>
       <c r="B255" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D255" s="2">
-        <v>43810</v>
+        <v>43838</v>
       </c>
       <c r="E255" t="s">
-        <v>274</v>
+        <v>278</v>
+      </c>
+      <c r="G255">
+        <v>50</v>
       </c>
       <c r="I255" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="1">
-        <v>43812.711759259262</v>
+        <v>43858.879895833335</v>
       </c>
       <c r="B256" t="s">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="C256" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D256" s="2">
-        <v>43811</v>
-      </c>
-      <c r="E256" t="s">
-        <v>276</v>
+        <v>43852</v>
+      </c>
+      <c r="E256" s="2"/>
+      <c r="G256">
+        <v>15</v>
       </c>
       <c r="I256" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="1">
-        <v>43818.636030092595</v>
+        <v>43859.769270833334</v>
       </c>
       <c r="B257" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C257" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D257" s="2">
-        <v>43817</v>
+        <v>43852</v>
       </c>
       <c r="E257" s="2"/>
-      <c r="G257">
-        <v>1</v>
-      </c>
-      <c r="I257" t="s">
-        <v>278</v>
+      <c r="F257" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="1">
-        <v>43861.918692129628</v>
+        <v>43861.711574074077</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C258" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D258" s="2">
-        <v>43826</v>
+        <v>43860</v>
       </c>
       <c r="E258" s="2"/>
-      <c r="F258" t="s">
-        <v>279</v>
+      <c r="G258">
+        <v>125</v>
+      </c>
+      <c r="I258" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="1">
-        <v>43834.677800925929</v>
+        <v>43861.779849537037</v>
       </c>
       <c r="B259" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D259" s="2">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="E259" s="2"/>
-      <c r="G259">
-        <v>16</v>
-      </c>
       <c r="I259" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="1">
-        <v>43833.66547453704</v>
+        <v>43863.019212962965</v>
       </c>
       <c r="B260" t="s">
-        <v>268</v>
+        <v>28</v>
       </c>
       <c r="C260" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D260" s="2">
-        <v>43832</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>281</v>
-      </c>
+        <v>43862</v>
+      </c>
+      <c r="E260" s="2"/>
       <c r="I260" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="1">
-        <v>43843.74900462963</v>
+        <v>43875.938101851854</v>
       </c>
       <c r="B261" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C261" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D261" s="2">
-        <v>43838</v>
-      </c>
-      <c r="E261" t="s">
-        <v>283</v>
-      </c>
+        <v>43867</v>
+      </c>
+      <c r="E261" s="2"/>
       <c r="G261">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
       </c>
       <c r="I261" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="1">
-        <v>43858.879895833335</v>
+        <v>43875.939270833333</v>
       </c>
       <c r="B262" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C262" t="s">
         <v>21</v>
       </c>
       <c r="D262" s="2">
-        <v>43852</v>
+        <v>43874</v>
       </c>
       <c r="E262" s="2"/>
-      <c r="G262">
-        <v>15</v>
-      </c>
-      <c r="I262" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="1">
-        <v>43859.769270833334</v>
+        <v>43886.958182870374</v>
       </c>
       <c r="B263" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C263" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D263" s="2">
-        <v>43852</v>
+        <v>43885</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s">
         <v>286</v>
       </c>
+      <c r="I263" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="1">
-        <v>43861.711574074077</v>
+        <v>43892.691817129627</v>
       </c>
       <c r="B264" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C264" t="s">
         <v>21</v>
       </c>
       <c r="D264" s="2">
-        <v>43860</v>
+        <v>43888</v>
       </c>
       <c r="E264" s="2"/>
-      <c r="G264">
-        <v>125</v>
-      </c>
       <c r="I264" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="1">
-        <v>43861.779849537037</v>
+        <v>43899.609166666669</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C265" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D265" s="2">
-        <v>43861</v>
+        <v>43690</v>
       </c>
       <c r="E265" s="2"/>
-      <c r="I265" t="s">
-        <v>288</v>
+      <c r="F265" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="1">
-        <v>43863.019212962965</v>
+        <v>43899.822476851848</v>
       </c>
       <c r="B266" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C266" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D266" s="2">
-        <v>43862</v>
+        <v>43836</v>
       </c>
       <c r="E266" s="2"/>
+      <c r="F266" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="I266" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="1">
-        <v>43875.938101851854</v>
+        <v>43899.823437500003</v>
       </c>
       <c r="B267" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C267" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D267" s="2">
-        <v>43867</v>
+        <v>43843</v>
       </c>
       <c r="E267" s="2"/>
       <c r="G267">
-        <v>1</v>
-      </c>
-      <c r="H267">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I267" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="1">
-        <v>43875.939270833333</v>
+        <v>43899.824756944443</v>
       </c>
       <c r="B268" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D268" s="2">
-        <v>43874</v>
+        <v>43866</v>
       </c>
       <c r="E268" s="2"/>
+      <c r="G268">
+        <v>14</v>
+      </c>
+      <c r="I268" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="1">
-        <v>43878.684398148151</v>
+        <v>43899.825312499997</v>
       </c>
       <c r="B269" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C269" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D269" s="2">
-        <v>43878</v>
+        <v>43876</v>
       </c>
       <c r="E269" s="2"/>
+      <c r="G269">
+        <v>45</v>
+      </c>
       <c r="I269" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1">
-        <v>43886.958182870374</v>
+        <v>43899.825694444444</v>
       </c>
       <c r="B270" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C270" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D270" s="2">
-        <v>43885</v>
+        <v>43876</v>
       </c>
       <c r="E270" s="2"/>
-      <c r="F270" t="s">
-        <v>292</v>
+      <c r="G270">
+        <v>8</v>
       </c>
       <c r="I270" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="1">
-        <v>43892.691817129627</v>
+        <v>43899.826585648145</v>
       </c>
       <c r="B271" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C271" t="s">
         <v>21</v>
       </c>
       <c r="D271" s="2">
-        <v>43888</v>
-      </c>
-      <c r="E271" s="2"/>
+        <v>43872</v>
+      </c>
+      <c r="E271" t="s">
+        <v>296</v>
+      </c>
       <c r="I271" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="1">
-        <v>43899.609166666669</v>
+        <v>43899.827326388891</v>
       </c>
       <c r="B272" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C272" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D272" s="2">
-        <v>43690</v>
-      </c>
-      <c r="E272" s="2"/>
-      <c r="F272" t="s">
-        <v>295</v>
+        <v>43873</v>
+      </c>
+      <c r="E272" t="s">
+        <v>298</v>
+      </c>
+      <c r="I272" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="1">
-        <v>43899.822476851848</v>
+        <v>43899.827893518515</v>
       </c>
       <c r="B273" t="s">
         <v>35</v>
       </c>
       <c r="C273" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" s="2">
+        <v>43882</v>
+      </c>
+      <c r="E273" s="2"/>
+      <c r="G273">
         <v>10</v>
       </c>
-      <c r="D273" s="2">
-        <v>43836</v>
-      </c>
-      <c r="E273" s="2"/>
-      <c r="F273" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="I273" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="1">
-        <v>43899.823437500003</v>
+        <v>43899.828194444446</v>
       </c>
       <c r="B274" t="s">
         <v>35</v>
@@ -7252,348 +7236,334 @@
         <v>21</v>
       </c>
       <c r="D274" s="2">
-        <v>43843</v>
+        <v>43885</v>
       </c>
       <c r="E274" s="2"/>
-      <c r="G274">
-        <v>25</v>
-      </c>
       <c r="I274" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" s="1">
-        <v>43899.824756944443</v>
+        <v>43899.828761574077</v>
       </c>
       <c r="B275" t="s">
         <v>35</v>
       </c>
       <c r="C275" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D275" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="E275" s="2"/>
-      <c r="G275">
-        <v>14</v>
-      </c>
       <c r="I275" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="1">
-        <v>43899.825312499997</v>
+        <v>43899.831238425926</v>
       </c>
       <c r="B276" t="s">
         <v>35</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D276" s="2">
-        <v>43876</v>
-      </c>
-      <c r="E276" s="2"/>
-      <c r="G276">
-        <v>45</v>
+        <v>43854</v>
+      </c>
+      <c r="E276" t="s">
+        <v>303</v>
       </c>
       <c r="I276" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="1">
-        <v>43899.825694444444</v>
+        <v>43899.832048611112</v>
       </c>
       <c r="B277" t="s">
         <v>35</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D277" s="2">
-        <v>43876</v>
-      </c>
-      <c r="E277" s="2"/>
-      <c r="G277">
-        <v>8</v>
+        <v>43867</v>
+      </c>
+      <c r="E277" t="s">
+        <v>305</v>
       </c>
       <c r="I277" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="1">
-        <v>43899.826585648145</v>
+        <v>43899.832395833335</v>
       </c>
       <c r="B278" t="s">
         <v>35</v>
       </c>
       <c r="C278" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D278" s="2">
-        <v>43872</v>
+        <v>43840</v>
       </c>
       <c r="E278" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I278" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="1">
-        <v>43899.827326388891</v>
+        <v>43899.833009259259</v>
       </c>
       <c r="B279" t="s">
         <v>35</v>
       </c>
       <c r="C279" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D279" s="2">
-        <v>43873</v>
+        <v>43837</v>
       </c>
       <c r="E279" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I279" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="1">
-        <v>43899.827893518515</v>
+        <v>43899.83353009259</v>
       </c>
       <c r="B280" t="s">
         <v>35</v>
       </c>
       <c r="C280" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D280" s="2">
-        <v>43882</v>
-      </c>
-      <c r="E280" s="2"/>
-      <c r="G280">
-        <v>10</v>
+        <v>43836</v>
+      </c>
+      <c r="E280" t="s">
+        <v>311</v>
       </c>
       <c r="I280" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="1">
-        <v>43899.828194444446</v>
+        <v>43902.615520833337</v>
       </c>
       <c r="B281" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C281" t="s">
         <v>21</v>
       </c>
       <c r="D281" s="2">
-        <v>43885</v>
+        <v>43901</v>
       </c>
       <c r="E281" s="2"/>
+      <c r="G281">
+        <v>25</v>
+      </c>
       <c r="I281" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="1">
-        <v>43899.828761574077</v>
+        <v>43914.617013888892</v>
       </c>
       <c r="B282" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C282" t="s">
         <v>21</v>
       </c>
       <c r="D282" s="2">
-        <v>43867</v>
+        <v>43911</v>
       </c>
       <c r="E282" s="2"/>
       <c r="I282" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="1">
-        <v>43899.831238425926</v>
+        <v>43921.605405092596</v>
       </c>
       <c r="B283" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C283" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D283" s="2">
-        <v>43854</v>
-      </c>
-      <c r="E283" t="s">
-        <v>309</v>
+        <v>43920</v>
+      </c>
+      <c r="E283" s="2"/>
+      <c r="G283">
+        <v>12</v>
       </c>
       <c r="I283" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="1">
-        <v>43899.832048611112</v>
+        <v>43921.718981481485</v>
       </c>
       <c r="B284" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C284" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D284" s="2">
-        <v>43867</v>
-      </c>
-      <c r="E284" t="s">
-        <v>311</v>
-      </c>
+        <v>43847</v>
+      </c>
+      <c r="E284" s="2"/>
       <c r="I284" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="1">
-        <v>43899.832395833335</v>
+        <v>43921.719467592593</v>
       </c>
       <c r="B285" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C285" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D285" s="2">
-        <v>43840</v>
-      </c>
-      <c r="E285" t="s">
-        <v>313</v>
-      </c>
+        <v>43890</v>
+      </c>
+      <c r="E285" s="2"/>
       <c r="I285" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="1">
-        <v>43899.833009259259</v>
+        <v>43921.720173611109</v>
       </c>
       <c r="B286" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C286" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D286" s="2">
-        <v>43837</v>
-      </c>
-      <c r="E286" t="s">
-        <v>315</v>
-      </c>
+        <v>43874</v>
+      </c>
+      <c r="E286" s="2"/>
       <c r="I286" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="1">
-        <v>43899.83353009259</v>
+        <v>43921.721006944441</v>
       </c>
       <c r="B287" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C287" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D287" s="2">
-        <v>43836</v>
-      </c>
-      <c r="E287" t="s">
-        <v>317</v>
+        <v>43864</v>
+      </c>
+      <c r="E287" s="2"/>
+      <c r="G287">
+        <v>9</v>
       </c>
       <c r="I287" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="1">
-        <v>43902.615520833337</v>
+        <v>43922.926342592589</v>
       </c>
       <c r="B288" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D288" s="2">
-        <v>43901</v>
-      </c>
-      <c r="E288" s="2"/>
-      <c r="G288">
-        <v>25</v>
+        <v>43852</v>
+      </c>
+      <c r="E288" t="s">
+        <v>320</v>
       </c>
       <c r="I288" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="1">
-        <v>43914.617013888892</v>
+        <v>43922.926736111112</v>
       </c>
       <c r="B289" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C289" t="s">
         <v>21</v>
       </c>
       <c r="D289" s="2">
-        <v>43911</v>
+        <v>43857</v>
       </c>
       <c r="E289" s="2"/>
       <c r="I289" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="1">
-        <v>43921.605405092596</v>
+        <v>43922.926979166667</v>
       </c>
       <c r="B290" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C290" t="s">
         <v>21</v>
       </c>
       <c r="D290" s="2">
-        <v>43920</v>
+        <v>43885</v>
       </c>
       <c r="E290" s="2"/>
-      <c r="G290">
-        <v>12</v>
-      </c>
       <c r="I290" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="1">
-        <v>43921.718981481485</v>
+        <v>43922.927164351851</v>
       </c>
       <c r="B291" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C291" t="s">
         <v>21</v>
       </c>
       <c r="D291" s="2">
-        <v>43847</v>
+        <v>43913</v>
       </c>
       <c r="E291" s="2"/>
       <c r="I291" t="s">
@@ -7602,56 +7572,62 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="1">
-        <v>43921.719467592593</v>
+        <v>43922.927974537037</v>
       </c>
       <c r="B292" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D292" s="2">
-        <v>43890</v>
+        <v>43847</v>
       </c>
       <c r="E292" s="2"/>
+      <c r="G292">
+        <v>1</v>
+      </c>
       <c r="I292" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" s="1">
-        <v>43921.720173611109</v>
+        <v>43922.928414351853</v>
       </c>
       <c r="B293" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D293" s="2">
-        <v>43874</v>
+        <v>43902</v>
       </c>
       <c r="E293" s="2"/>
+      <c r="G293">
+        <v>5</v>
+      </c>
       <c r="I293" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="1">
-        <v>43921.721006944441</v>
+        <v>43922.929108796299</v>
       </c>
       <c r="B294" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D294" s="2">
-        <v>43864</v>
+        <v>43900</v>
       </c>
       <c r="E294" s="2"/>
       <c r="G294">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I294" t="s">
         <v>325</v>
@@ -7659,412 +7635,413 @@
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="1">
-        <v>43922.926342592589</v>
+        <v>43922.930011574077</v>
       </c>
       <c r="B295" t="s">
         <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D295" s="2">
-        <v>43852</v>
-      </c>
-      <c r="E295" t="s">
+        <v>43902</v>
+      </c>
+      <c r="E295" s="2"/>
+      <c r="G295">
+        <v>34</v>
+      </c>
+      <c r="I295" t="s">
         <v>326</v>
-      </c>
-      <c r="I295" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="1">
-        <v>43922.926736111112</v>
+        <v>43923.79215277778</v>
       </c>
       <c r="B296" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="C296" t="s">
         <v>21</v>
       </c>
       <c r="D296" s="2">
-        <v>43857</v>
+        <v>43874</v>
       </c>
       <c r="E296" s="2"/>
+      <c r="G296">
+        <v>20</v>
+      </c>
       <c r="I296" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="1">
-        <v>43922.926979166667</v>
+        <v>43923.79310185185</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="C297" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D297" s="2">
-        <v>43885</v>
-      </c>
-      <c r="E297" s="2"/>
+        <v>43881</v>
+      </c>
+      <c r="E297" t="s">
+        <v>328</v>
+      </c>
       <c r="I297" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="1">
-        <v>43922.927164351851</v>
+        <v>43923.79383101852</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="C298" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D298" s="2">
-        <v>43913</v>
-      </c>
-      <c r="E298" s="2"/>
+        <v>43893</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="I298" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" s="1">
-        <v>43922.927974537037</v>
+        <v>43923.794479166667</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="C299" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D299" s="2">
-        <v>43847</v>
+        <v>43885</v>
       </c>
       <c r="E299" s="2"/>
       <c r="G299">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I299" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="A300" s="1">
-        <v>43922.928414351853</v>
+        <v>43923.795162037037</v>
       </c>
       <c r="B300" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="C300" t="s">
         <v>13</v>
       </c>
       <c r="D300" s="2">
-        <v>43902</v>
+        <v>43847</v>
       </c>
       <c r="E300" s="2"/>
       <c r="G300">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I300" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="1">
-        <v>43922.929108796299</v>
+        <v>43923.795844907407</v>
       </c>
       <c r="B301" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="C301" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D301" s="2">
-        <v>43900</v>
+        <v>43907</v>
       </c>
       <c r="E301" s="2"/>
       <c r="G301">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I301" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="1">
-        <v>43922.930011574077</v>
+        <v>43923.814375000002</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D302" s="2">
-        <v>43902</v>
+        <v>43915</v>
       </c>
       <c r="E302" s="2"/>
       <c r="G302">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I302" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="A303" s="1">
-        <v>43923.79215277778</v>
+        <v>43923.816157407404</v>
       </c>
       <c r="B303" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="C303" t="s">
         <v>21</v>
       </c>
       <c r="D303" s="2">
-        <v>43874</v>
+        <v>43901</v>
       </c>
       <c r="E303" s="2"/>
-      <c r="G303">
-        <v>20</v>
+      <c r="G303" t="s">
+        <v>336</v>
       </c>
       <c r="I303" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="A304" s="1">
-        <v>43923.79310185185</v>
+        <v>43923.817025462966</v>
       </c>
       <c r="B304" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="C304" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D304" s="2">
-        <v>43881</v>
-      </c>
-      <c r="E304" t="s">
-        <v>334</v>
+        <v>43906</v>
+      </c>
+      <c r="E304" s="2"/>
+      <c r="G304">
+        <v>8</v>
       </c>
       <c r="I304" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" s="1">
-        <v>43923.79383101852</v>
+        <v>43924.789768518516</v>
       </c>
       <c r="B305" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="C305" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D305" s="2">
         <v>43893</v>
       </c>
-      <c r="E305" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="I305" t="s">
-        <v>337</v>
+      <c r="E305" s="2"/>
+      <c r="F305" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="1">
-        <v>43923.794479166667</v>
+        <v>43924.790266203701</v>
       </c>
       <c r="B306" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="C306" t="s">
         <v>21</v>
       </c>
       <c r="D306" s="2">
-        <v>43885</v>
+        <v>43901</v>
       </c>
       <c r="E306" s="2"/>
       <c r="G306">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I306" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="307" spans="1:9">
       <c r="A307" s="1">
-        <v>43923.795162037037</v>
+        <v>43924.790879629632</v>
       </c>
       <c r="B307" t="s">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="C307" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D307" s="2">
-        <v>43847</v>
+        <v>43922</v>
       </c>
       <c r="E307" s="2"/>
       <c r="G307">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I307" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="1">
-        <v>43923.795844907407</v>
+        <v>43924.805868055555</v>
       </c>
       <c r="B308" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="C308" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D308" s="2">
-        <v>43907</v>
+        <v>43841</v>
       </c>
       <c r="E308" s="2"/>
-      <c r="G308">
-        <v>1</v>
-      </c>
       <c r="I308" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="1">
-        <v>43923.814375000002</v>
+        <v>43926.646006944444</v>
       </c>
       <c r="B309" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C309" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D309" s="2">
-        <v>43915</v>
+        <v>43815</v>
       </c>
       <c r="E309" s="2"/>
-      <c r="G309">
-        <v>15</v>
-      </c>
-      <c r="I309" t="s">
-        <v>341</v>
+      <c r="F309" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="1">
-        <v>43923.816157407404</v>
+        <v>43928.74554398148</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C310" t="s">
         <v>21</v>
       </c>
       <c r="D310" s="2">
-        <v>43901</v>
+        <v>43897</v>
       </c>
       <c r="E310" s="2"/>
-      <c r="G310" t="s">
-        <v>342</v>
+      <c r="G310">
+        <v>18</v>
       </c>
       <c r="I310" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="1">
-        <v>43923.817025462966</v>
+        <v>43928.746782407405</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C311" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D311" s="2">
-        <v>43906</v>
+        <v>43897</v>
       </c>
       <c r="E311" s="2"/>
       <c r="G311">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I311" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="1">
-        <v>43924.789768518516</v>
+        <v>43928.752442129633</v>
       </c>
       <c r="B312" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C312" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D312" s="2">
-        <v>43893</v>
+        <v>43904</v>
       </c>
       <c r="E312" s="2"/>
-      <c r="F312" t="s">
-        <v>345</v>
+      <c r="G312">
+        <v>1</v>
+      </c>
+      <c r="I312" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="1">
-        <v>43924.790266203701</v>
+        <v>43928.990844907406</v>
       </c>
       <c r="B313" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D313" s="2">
-        <v>43901</v>
+        <v>43873</v>
       </c>
       <c r="E313" s="2"/>
       <c r="G313">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I313" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1">
-        <v>43924.790879629632</v>
+        <v>43943.660127314812</v>
       </c>
       <c r="B314" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C314" t="s">
         <v>21</v>
       </c>
       <c r="D314" s="2">
-        <v>43922</v>
+        <v>43939</v>
       </c>
       <c r="E314" s="2"/>
-      <c r="G314">
-        <v>100</v>
-      </c>
       <c r="I314" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="1">
-        <v>43924.805868055555</v>
+        <v>43952.622152777774</v>
       </c>
       <c r="B315" t="s">
         <v>41</v>
@@ -8073,113 +8050,83 @@
         <v>21</v>
       </c>
       <c r="D315" s="2">
-        <v>43841</v>
+        <v>43936</v>
       </c>
       <c r="E315" s="2"/>
       <c r="I315" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="1">
-        <v>43926.646006944444</v>
+        <v>43952.622488425928</v>
       </c>
       <c r="B316" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C316" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D316" s="2">
-        <v>43815</v>
+        <v>43939</v>
       </c>
       <c r="E316" s="2"/>
-      <c r="F316" t="s">
-        <v>349</v>
+      <c r="I316" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="1">
-        <v>43928.74554398148</v>
+        <v>43956.726342592592</v>
       </c>
       <c r="B317" t="s">
-        <v>26</v>
+        <v>351</v>
       </c>
       <c r="C317" t="s">
         <v>21</v>
       </c>
       <c r="D317" s="2">
-        <v>43897</v>
+        <v>43847</v>
       </c>
       <c r="E317" s="2"/>
-      <c r="G317">
-        <v>18</v>
-      </c>
       <c r="I317" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="1">
-        <v>43928.746782407405</v>
+        <v>43959.748703703706</v>
       </c>
       <c r="B318" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C318" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D318" s="2">
-        <v>43897</v>
+        <v>43959</v>
       </c>
       <c r="E318" s="2"/>
-      <c r="G318">
-        <v>16</v>
-      </c>
       <c r="I318" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="1">
-        <v>43928.752442129633</v>
+        <v>43959.758564814816</v>
       </c>
       <c r="B319" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C319" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D319" s="2">
-        <v>43904</v>
+        <v>43936</v>
       </c>
       <c r="E319" s="2"/>
-      <c r="G319">
-        <v>1</v>
-      </c>
       <c r="I319" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" s="1">
-        <v>43928.990844907406</v>
-      </c>
-      <c r="B320" t="s">
-        <v>45</v>
-      </c>
-      <c r="C320" t="s">
-        <v>60</v>
-      </c>
-      <c r="D320" s="2">
-        <v>43873</v>
-      </c>
-      <c r="E320" s="2"/>
-      <c r="G320">
-        <v>2</v>
-      </c>
-      <c r="I320" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -8191,15 +8138,15 @@
     <hyperlink ref="E12" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
     <hyperlink ref="E4" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
-    <hyperlink ref="E183" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
-    <hyperlink ref="E194" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
-    <hyperlink ref="E156" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
-    <hyperlink ref="E247" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
-    <hyperlink ref="E260" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
-    <hyperlink ref="E184" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
-    <hyperlink ref="E195" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
-    <hyperlink ref="F273" r:id="rId15" display="https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117" xr:uid="{99A0F466-A75A-4E4E-A6F4-620C55E4BC39}"/>
-    <hyperlink ref="E305" r:id="rId16" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
+    <hyperlink ref="E179" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
+    <hyperlink ref="E190" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
+    <hyperlink ref="E154" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
+    <hyperlink ref="E241" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
+    <hyperlink ref="E254" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
+    <hyperlink ref="E180" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
+    <hyperlink ref="E191" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
+    <hyperlink ref="F266" r:id="rId15" display="https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117" xr:uid="{99A0F466-A75A-4E4E-A6F4-620C55E4BC39}"/>
+    <hyperlink ref="E298" r:id="rId16" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId17"/>
@@ -8210,15 +8157,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8452,6 +8390,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8462,11 +8409,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22823"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D06E33-42AF-4E37-B2B2-60FA2D6FD514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB75C5A9-0691-4309-9131-2BAE56853E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C285" authorId="2" shapeId="0" xr:uid="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
+    <comment ref="C283" authorId="2" shapeId="0" xr:uid="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +73,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C298" authorId="3" shapeId="0" xr:uid="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
+    <comment ref="C296" authorId="3" shapeId="0" xr:uid="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="358">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -260,13 +260,13 @@
     <t>https://www.portagelife.com/community/family/72446-shedd-expands-conservation-research-team-to-preserve-freshwater-marine-biodiversity</t>
   </si>
   <si>
-    <t>REEF Fishinar - on Nassau and Tiger Grouper spawning</t>
+    <t>REEF Fishinar - on Nassau and Tiger Grouper spawning (24 attendees, digitally available into future)</t>
   </si>
   <si>
     <t>The Future of Coral' event with Shedd donors</t>
   </si>
   <si>
-    <t>One Earth Film Festival. Sat on Panel with Dr. Andy Kough following screening of Sea of Hope.</t>
+    <t>One Earth Film Festival. Sat on Panel with Dr. Andy Kough following screening of Sea of Hope. (75 audience members)</t>
   </si>
   <si>
     <t>MSI Science Cafe for elementrary school learners</t>
@@ -362,7 +362,7 @@
     <t>http://www.tribune242.com/news/2019/apr/11/protected-areas-can-aid-conch/?news</t>
   </si>
   <si>
-    <t xml:space="preserve">Member of meeting oversight committee for American Fisheries Society to give feedback on selection process for annual meetings. </t>
+    <t>Member of meeting oversight committee for American Fisheries Society to give feedback on selection process for annual meetings. (group of ten, ongoing meetings(</t>
   </si>
   <si>
     <t>Lecture for Lynns ACCA class</t>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t xml:space="preserve">Round table with attendees of the New Horizons in Conservation Conference in Chicago </t>
+  </si>
+  <si>
+    <t>Round table with attendees of the New Horizons in Conservation Conference in Chicago (12 students)</t>
   </si>
   <si>
     <t>Shedd Facebook live April 26 (also instagram live in insta-story)</t>
@@ -543,9 +546,6 @@
     <t>Science Pub at Jazzin'</t>
   </si>
   <si>
-    <t>Smith CH, Johnson NA, Inoue K, Doyle RD, Randklev CR (2019) Integrative taxonomy reveals a new species of freshwater mussel, Potamilus streckersoni sp. nov. (Bivalvia: Unionidae): implications for conservation and management. Systematics and Biodiversity, DOI:10.1080/14772000.14772019.11607615.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meeting with biologists in the DeKalb Co. Forest Preserve District; collected genetic samples of Venustaconcha ellipsiformis (Ellipse) from Big Rock Creek near Hinckley, IL. </t>
   </si>
   <si>
@@ -567,7 +567,7 @@
     <t>Teen Science Communication Workshop for Wiley Publishing Grant</t>
   </si>
   <si>
-    <t>Met with Shedd Teen Lab to discuss use of ROV in my research and then the teens showed me how to use the ROV out in the lake.</t>
+    <t>Met with Shedd Teen Lab to discuss use of ROV in my research and then the teens showed me how to use the ROV out in the lake. (8 students)</t>
   </si>
   <si>
     <t>Meeting with Becky Collings of FPDCC</t>
@@ -591,7 +591,7 @@
     <t>Nippersink mussels with Ken</t>
   </si>
   <si>
-    <t>Meeting with NMFS-SEFSC center to discussion caribbean species management and tuna in atlantic. Met with Shannon Cass-Calay and Skyler Sagarese.</t>
+    <t>Meeting with NMFS-SEFSC center to discussion caribbean species management and tuna in atlantic. Met with Shannon Cass-Calay and Skyler Sagarese. (3 people)</t>
   </si>
   <si>
     <t>Mussel Monitoring Team Leader Workshop at the DuPage Co Mussel facility.</t>
@@ -723,7 +723,7 @@
     <t>Worked with intern Cam to analyze lobster video for 2 days</t>
   </si>
   <si>
-    <t>ICCAT Species Working group meeting. Gave 2 talks - one on data overview for tuna growth project and the other on a Bayesian method for aging spines.</t>
+    <t>ICCAT Species Working group meeting. Gave 2 talks - one on data overview for tuna growth project and the other on a Bayesian method for aging spines. (50 attendees)</t>
   </si>
   <si>
     <t>Larval Fish with Austin</t>
@@ -756,7 +756,7 @@
     <t>9 students and 3 teachers engaged in high school research projects through the Mentor Matching Engine. This sets studnets doing research projects (think science fair) with professionals to get help on the projects and work through problems. Projects are on-going, usually through a whole semester.</t>
   </si>
   <si>
-    <t xml:space="preserve">Skype a Scientist with 5th grade classroom in Columbus, OH - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist. </t>
+    <t>Skype a Scientist with 5th grade classroom in Columbus, OH - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist.  (20 attendees)</t>
   </si>
   <si>
     <t>http://www.ceibahamas.org/ceinews/2019/10/16/coral-breeding-amp-restoration-workshop</t>
@@ -792,7 +792,7 @@
     <t>Meeting with collaborators to discuss NSF LTER Urban Centers proposal.</t>
   </si>
   <si>
-    <t xml:space="preserve">Skype a Scientist with 5th grade classroom in Columbus, OH (different group of students) - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist. </t>
+    <t>Skype a Scientist with 5th grade classroom in Columbus, OH (different group of students) - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist. (20 attendees)</t>
   </si>
   <si>
     <t>Spoke with Tribune reporter Steve for 40 minutes!</t>
@@ -807,9 +807,6 @@
     <t>Environmental Chicago (EnvChi) talk on migratory fishes at Dovetail Brewery</t>
   </si>
   <si>
-    <t>McIlroy, SE, Cunning, R, Baker, AC, Coffroth, MA. Competition and succession among coral endosymbionts. Ecol Evol. 2019; 00: 1– 12. https://doi.org/10.1002/ece3.5749</t>
-  </si>
-  <si>
     <t>https://urbanmilwaukee.com/pressrelease/business-leaders-meet-at-shedd-aquarium-to-discuss-protecting-restoring-vitality-of-great-lakes/</t>
   </si>
   <si>
@@ -831,7 +828,7 @@
     <t>IUCN Iguana Specialist Group meeting</t>
   </si>
   <si>
-    <t>Skype a Scientist. Clasroom of STEAM from Resurrection HS in Chicago (all-girls school) with Megan Leider's class - talking about careers in marine science and educational background. 40minutes long.</t>
+    <t>Skype a Scientist. Clasroom of STEAM from Resurrection HS in Chicago (all-girls school) with Megan Leider's class - talking about careers in marine science and educational background. 40minutes long. (20 attendees)</t>
   </si>
   <si>
     <t>Mentor Matching engine - mentoring Senior at Downers Grove North in west suburbs of Chicago - on project Marine Ecology Research Project</t>
@@ -966,16 +963,16 @@
     <t>PNAS paper - legacy project on Cayman grouper. Technically print date is 2020.</t>
   </si>
   <si>
-    <t>Talk at North Central College - biology seminar course (contact person is Joanna Weremijewicz &lt;jweremijewicz@noctrl.edu&gt;)</t>
+    <t>Talk at North Central College - biology seminar course (contact person is Joanna Weremijewicz &lt;jweremijewicz@noctrl.edu&gt;) (25 attendees)</t>
   </si>
   <si>
     <t>Field work for Nassau grouper, tiger grouper, and yellowfin grouper on Little Cayman (also worked on Cayman Brac). Project with REEF and Cayman Islands Department of Environment. Conducted pilot study for eDNA to detect FSAs with Dr. Scott Heppell (Oregon State University)</t>
   </si>
   <si>
-    <t>Field to Floor program from Cayman Islands (Joe Frumkin contact person from Shedd)</t>
-  </si>
-  <si>
-    <t>Skype with teen lab from Caymans (Chelse Pfiefer contact)</t>
+    <t>Field to Floor program from Cayman Islands (Joe Frumkin contact person from Shedd) (45 participants)</t>
+  </si>
+  <si>
+    <t>Skype with teen lab from Caymans (Chelse Pfiefer contact) ( 8 teens)</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=XGlqPoWRjac</t>
@@ -990,7 +987,7 @@
     <t>Livestream from bloody bay wall, little cayman. Communication mask diver - Todd Bohannon REEF educator leading live stream.</t>
   </si>
   <si>
-    <t>Talk at IU Bloomington - Biology club.  Spoke about grouper conservation.</t>
+    <t>Talk at IU Bloomington - Biology club.  Spoke about grouper conservation. (10 attendees)</t>
   </si>
   <si>
     <t xml:space="preserve">AFS governing board mid-year meeting. </t>
@@ -1128,7 +1125,7 @@
     <t>ACCA Marine and Island Ecology of The Bahamas. Taught on March 7, 14, 21, 28 (and through April/May). Co-taught by Hilary Wind. Class started with 15 students and 1 volunteer. On 3/22 we had 2 students drop (bringing total down to 14 students). March 7th was taught at Shedd Aquarium and included behind the scenes tours. All other classes will be taught via zoom.</t>
   </si>
   <si>
-    <t>Conservation Research Intern - Ned. Working on new program for analyzing/annotating BRUVS footage. Also counting NG from Caymans.</t>
+    <t>Conservation Research Intern - Ned. Working on new program for analyzing/annotating BRUVS footage. Also counting NG from Caymans. Meet 1 hour per week every week. Internship will go through end of shutdown</t>
   </si>
   <si>
     <t>Hosted two interns (Jillian Snow and John Galason) for spring.</t>
@@ -1153,6 +1150,18 @@
   </si>
   <si>
     <t>Shedd Lunch and Learn presentation on Chicago's River's and Fish!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecture to high tech high (in San Diego, CA) on grouper conservation and fisheries via Zoom. Dr. Johnnie Lyman was teacher at high tech high. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCA instruction. Taught class on April 4, 18, 25 and May 2. Each class 7.5 hours (9am to 4:30pm). 14 students. </t>
+  </si>
+  <si>
+    <t>Auxiliary board zoom happy hour (10 min pres &amp; question period)</t>
+  </si>
+  <si>
+    <t>Guest speaker for Claremont Alumni lecture series</t>
   </si>
 </sst>
 </file>
@@ -1275,10 +1284,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I319" totalsRowShown="0">
-  <autoFilter ref="A1:I319" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I264">
-    <sortCondition ref="D1:D264"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I321" totalsRowShown="0">
+  <autoFilter ref="A1:I321" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I262">
+    <sortCondition ref="D1:D262"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
@@ -1620,7 +1629,7 @@
     <text xml:space="preserve">If Chuck agrees that this works better as a deeper engagement (I see it like one full ACCA class of a day of learning), then ya, I would delete one entry and count the 40 people once. Thank you Ross!
 </text>
   </threadedComment>
-  <threadedComment ref="C285" dT="2020-04-07T22:50:21.72" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{B50C9C38-935F-4B25-8180-404F4A863DB0}" done="1">
+  <threadedComment ref="C283" dT="2020-04-07T22:50:21.72" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{B50C9C38-935F-4B25-8180-404F4A863DB0}" done="1">
     <text xml:space="preserve">@Youngquist, Melissa can you confirm if this should be stakeholder engagement or change to presentation - @Inoue, Kentaro pls fill in from our convo from today!
 </text>
     <mentions>
@@ -1628,11 +1637,11 @@
       <mention mentionpersonId="{2EDBF690-2989-4482-9352-1F2ED3F2C3FE}" mentionId="{6372E852-7829-4F7A-B5F6-D10DCC2E1ADE}" startIndex="106" length="15"/>
     </mentions>
   </threadedComment>
-  <threadedComment ref="C285" dT="2020-04-07T23:06:11.47" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{2D889BA0-56BE-42B0-9277-17517B5C4FFE}" parentId="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
+  <threadedComment ref="C283" dT="2020-04-07T23:06:11.47" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{2D889BA0-56BE-42B0-9277-17517B5C4FFE}" parentId="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
     <text xml:space="preserve">Since Melissa was in the field today, we will have to fill her in that we are broadly changing in person meetings/conference presentations to presentations. She will still have to discern if this was more specialized of an engagement than that
 </text>
   </threadedComment>
-  <threadedComment ref="C298" dT="2020-04-07T22:48:19.22" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
+  <threadedComment ref="C296" dT="2020-04-07T22:48:19.22" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
     <text xml:space="preserve">@Knapp, Chuck should this be Media opportunity instead?
 </text>
     <mentions>
@@ -1644,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:XFD129"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2365,9 +2374,6 @@
         <v>43529</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="G37">
-        <v>24</v>
-      </c>
       <c r="I37" t="s">
         <v>57</v>
       </c>
@@ -2407,9 +2413,6 @@
         <v>43530</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="G39">
-        <v>75</v>
-      </c>
       <c r="I39" t="s">
         <v>59</v>
       </c>
@@ -3181,9 +3184,6 @@
         <v>43567</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="G77">
-        <v>4</v>
-      </c>
       <c r="I77" t="s">
         <v>91</v>
       </c>
@@ -3422,11 +3422,8 @@
         <v>43579</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="G89">
-        <v>12</v>
-      </c>
       <c r="I89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3444,14 +3441,14 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G90" s="4">
         <v>1</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3472,7 +3469,7 @@
         <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3493,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3514,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3535,7 +3532,7 @@
         <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3556,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3577,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="I96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3595,7 +3592,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="I97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3613,10 +3610,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3637,7 +3634,7 @@
         <v>200</v>
       </c>
       <c r="I99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3658,7 +3655,7 @@
         <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3676,7 +3673,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="I101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3694,7 +3691,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3711,10 +3708,10 @@
         <v>43614</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3732,7 +3729,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="I104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3750,7 +3747,7 @@
       </c>
       <c r="E105" s="2"/>
       <c r="I105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3771,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3792,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3813,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3834,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="I109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3855,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="I110" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3876,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3897,7 +3894,7 @@
         <v>40</v>
       </c>
       <c r="I112" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3918,7 +3915,7 @@
         <v>40</v>
       </c>
       <c r="I113" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3939,7 +3936,7 @@
         <v>9</v>
       </c>
       <c r="I114" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3947,7 +3944,7 @@
         <v>43643.14329861111</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -3960,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3981,7 +3978,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4002,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4023,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4041,7 +4038,7 @@
       </c>
       <c r="E119" s="2"/>
       <c r="I119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4062,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="I120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4080,7 +4077,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="I121" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4101,7 +4098,7 @@
         <v>25</v>
       </c>
       <c r="I122" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4122,7 +4119,7 @@
         <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4147,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4168,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4189,7 +4186,7 @@
         <v>14</v>
       </c>
       <c r="I126" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4210,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4231,7 +4228,7 @@
         <v>8.5</v>
       </c>
       <c r="I128" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4252,7 +4249,7 @@
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4273,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="I130" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4297,7 +4294,7 @@
         <v>50</v>
       </c>
       <c r="I131" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4315,7 +4312,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4339,7 +4336,7 @@
         <v>160</v>
       </c>
       <c r="I133" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4363,7 +4360,7 @@
         <v>320</v>
       </c>
       <c r="I134" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4387,7 +4384,7 @@
         <v>520</v>
       </c>
       <c r="I135" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4411,7 +4408,7 @@
         <v>400</v>
       </c>
       <c r="I136" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4435,7 +4432,7 @@
         <v>480</v>
       </c>
       <c r="I137" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1">
@@ -4455,7 +4452,7 @@
         <v>96</v>
       </c>
       <c r="I138" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4473,7 +4470,7 @@
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4494,96 +4491,99 @@
         <v>86</v>
       </c>
       <c r="I140" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>43654.638043981482</v>
+        <v>43654.639872685184</v>
       </c>
       <c r="B141" t="s">
         <v>45</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2">
         <v>43649</v>
       </c>
       <c r="E141" s="2"/>
-      <c r="F141" t="s">
-        <v>151</v>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="I141" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>43654.639872685184</v>
+        <v>43766.894907407404</v>
       </c>
       <c r="B142" t="s">
         <v>45</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D142" s="2">
         <v>43649</v>
       </c>
       <c r="E142" s="2"/>
       <c r="G142">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I142" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>43766.894907407404</v>
+        <v>43679.866759259261</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C143" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D143" s="2">
-        <v>43649</v>
+        <v>43655</v>
       </c>
       <c r="E143" s="2"/>
       <c r="G143">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>43679.866759259261</v>
+        <v>43739.885752314818</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2">
         <v>43655</v>
       </c>
       <c r="E144" s="2"/>
       <c r="G144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>43739.885752314818</v>
+        <v>43766.88721064815</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -4593,224 +4593,218 @@
       </c>
       <c r="E145" s="2"/>
       <c r="G145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>43766.88721064815</v>
+        <v>43766.819953703707</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C146" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D146" s="2">
-        <v>43655</v>
+        <v>43657</v>
       </c>
       <c r="E146" s="2"/>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>43766.819953703707</v>
+        <v>43739.886481481481</v>
       </c>
       <c r="B147" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D147" s="2">
-        <v>43657</v>
+        <v>43662</v>
       </c>
       <c r="E147" s="2"/>
       <c r="G147">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I147" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>43739.886481481481</v>
+        <v>43741.764016203706</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
         <v>61</v>
       </c>
       <c r="D148" s="2">
-        <v>43662</v>
+        <v>43664</v>
       </c>
       <c r="E148" s="2"/>
-      <c r="G148">
-        <v>11</v>
-      </c>
       <c r="I148" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>43741.764016203706</v>
+        <v>43766.821412037039</v>
       </c>
       <c r="B149" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="C149" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D149" s="2">
-        <v>43664</v>
+        <v>43665</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="G149">
-        <v>8</v>
-      </c>
       <c r="I149" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>43766.821412037039</v>
+        <v>43738.798125000001</v>
       </c>
       <c r="B150" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="E150" s="2"/>
+      <c r="G150">
+        <v>1</v>
+      </c>
       <c r="I150" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>43738.798125000001</v>
+        <v>43739.88349537037</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D151" s="2">
         <v>43668</v>
       </c>
       <c r="E151" s="2"/>
       <c r="G151">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I151" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>43739.88349537037</v>
+        <v>43766.887719907405</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C152" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2">
         <v>43668</v>
       </c>
       <c r="E152" s="2"/>
       <c r="G152">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="I152" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>43766.887719907405</v>
+        <v>43698.886388888888</v>
       </c>
       <c r="B153" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2">
-        <v>43668</v>
-      </c>
-      <c r="E153" s="2"/>
-      <c r="G153">
-        <v>3</v>
+        <v>43670</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="I153" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>43698.886388888888</v>
+        <v>43738.798402777778</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2">
         <v>43670</v>
       </c>
-      <c r="E154" s="5" t="s">
-        <v>164</v>
+      <c r="E154" s="2"/>
+      <c r="G154">
+        <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>43738.798402777778</v>
+        <v>43741.76190972222</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D155" s="2">
-        <v>43670</v>
+        <v>43672</v>
       </c>
       <c r="E155" s="2"/>
-      <c r="G155">
-        <v>1</v>
-      </c>
       <c r="I155" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>43741.76190972222</v>
+        <v>43766.891192129631</v>
       </c>
       <c r="B156" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C156" t="s">
         <v>21</v>
@@ -4819,323 +4813,323 @@
         <v>43672</v>
       </c>
       <c r="E156" s="2"/>
-      <c r="G156">
-        <v>3</v>
-      </c>
       <c r="I156" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>43766.891192129631</v>
+        <v>43738.801921296297</v>
       </c>
       <c r="B157" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D157" s="2">
-        <v>43672</v>
+        <v>43676</v>
       </c>
       <c r="E157" s="2"/>
+      <c r="G157">
+        <v>1</v>
+      </c>
       <c r="I157" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>43738.801921296297</v>
+        <v>43679.868344907409</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C158" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D158" s="2">
-        <v>43676</v>
+        <v>43677</v>
       </c>
       <c r="E158" s="2"/>
       <c r="G158">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I158" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>43679.868344907409</v>
+        <v>43766.891805555555</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D159" s="2">
         <v>43677</v>
       </c>
       <c r="E159" s="2"/>
       <c r="G159">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I159" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>43766.891805555555</v>
+        <v>43766.888090277775</v>
       </c>
       <c r="B160" t="s">
         <v>45</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D160" s="2">
-        <v>43677</v>
+        <v>43682</v>
       </c>
       <c r="E160" s="2"/>
       <c r="G160">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I160" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1">
-        <v>43766.888090277775</v>
+        <v>43741.760833333334</v>
       </c>
       <c r="B161" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="2">
-        <v>43682</v>
+        <v>43683</v>
       </c>
       <c r="E161" s="2"/>
       <c r="G161">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I161" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>43741.760833333334</v>
+        <v>43766.822199074071</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D162" s="2">
         <v>43683</v>
       </c>
       <c r="E162" s="2"/>
       <c r="G162">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1">
-        <v>43766.822199074071</v>
+        <v>43690.617384259262</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2">
-        <v>43683</v>
+        <v>43684</v>
       </c>
       <c r="E163" s="2"/>
       <c r="G163">
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>43690.617384259262</v>
+        <v>43738.667962962965</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="E164" s="2"/>
       <c r="G164">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1">
-        <v>43738.667962962965</v>
+        <v>43689.569803240738</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C165" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D165" s="2">
-        <v>43685</v>
-      </c>
-      <c r="E165" s="2"/>
-      <c r="G165">
-        <v>9</v>
-      </c>
-      <c r="I165" t="s">
-        <v>176</v>
+        <v>43686</v>
+      </c>
+      <c r="E165" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1">
-        <v>43689.569803240738</v>
+        <v>43689.570381944446</v>
       </c>
       <c r="B166" t="s">
         <v>43</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D166" s="2">
         <v>43686</v>
       </c>
-      <c r="E166" t="s">
-        <v>177</v>
+      <c r="E166" s="2"/>
+      <c r="G166">
+        <v>200</v>
+      </c>
+      <c r="I166" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1">
-        <v>43689.570381944446</v>
+        <v>43739.884259259263</v>
       </c>
       <c r="B167" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D167" s="2">
-        <v>43686</v>
+        <v>43689</v>
       </c>
       <c r="E167" s="2"/>
       <c r="G167">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I167" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="1">
-        <v>43739.884259259263</v>
+        <v>43766.893611111111</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D168" s="2">
-        <v>43689</v>
-      </c>
-      <c r="E168" s="2"/>
-      <c r="G168">
-        <v>20</v>
+        <v>43691</v>
+      </c>
+      <c r="E168" t="s">
+        <v>180</v>
       </c>
       <c r="I168" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1">
-        <v>43766.893611111111</v>
+        <v>43739.882615740738</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D169" s="2">
-        <v>43691</v>
-      </c>
-      <c r="E169" t="s">
-        <v>180</v>
-      </c>
-      <c r="I169" t="s">
-        <v>181</v>
+        <v>43696</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="1">
-        <v>43739.882615740738</v>
+        <v>43766.888425925928</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2">
         <v>43696</v>
       </c>
       <c r="E170" s="2"/>
-      <c r="F170" t="s">
-        <v>182</v>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="I170" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1">
-        <v>43766.888425925928</v>
+        <v>43711.568831018521</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2">
-        <v>43696</v>
+        <v>43699</v>
       </c>
       <c r="E171" s="2"/>
       <c r="G171">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I171" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="1">
-        <v>43711.568831018521</v>
+        <v>43766.889166666668</v>
       </c>
       <c r="B172" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -5145,57 +5139,57 @@
       </c>
       <c r="E172" s="2"/>
       <c r="G172">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1">
-        <v>43766.889166666668</v>
+        <v>43741.763113425928</v>
       </c>
       <c r="B173" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2">
-        <v>43699</v>
+        <v>43703</v>
       </c>
       <c r="E173" s="2"/>
       <c r="G173">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I173" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="1">
-        <v>43741.763113425928</v>
+        <v>43766.823958333334</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D174" s="2">
-        <v>43703</v>
+        <v>43704</v>
       </c>
       <c r="E174" s="2"/>
       <c r="G174">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I174" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1">
-        <v>43766.823958333334</v>
+        <v>43706.023969907408</v>
       </c>
       <c r="B175" t="s">
         <v>28</v>
@@ -5204,82 +5198,81 @@
         <v>21</v>
       </c>
       <c r="D175" s="2">
-        <v>43704</v>
+        <v>43705</v>
       </c>
       <c r="E175" s="2"/>
       <c r="G175">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I175" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="1">
-        <v>43706.023969907408</v>
+        <v>43711.568495370368</v>
       </c>
       <c r="B176" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C176" t="s">
         <v>21</v>
       </c>
       <c r="D176" s="2">
-        <v>43705</v>
+        <v>43706</v>
       </c>
       <c r="E176" s="2"/>
       <c r="G176">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I176" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1">
-        <v>43711.568495370368</v>
+        <v>43741.770671296297</v>
       </c>
       <c r="B177" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C177" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D177" s="2">
-        <v>43706</v>
+        <v>43710</v>
       </c>
       <c r="E177" s="2"/>
       <c r="G177">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1">
-        <v>43741.770671296297</v>
+        <v>43712.710358796299</v>
       </c>
       <c r="B178" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D178" s="2">
-        <v>43710</v>
-      </c>
-      <c r="E178" s="2"/>
-      <c r="G178">
-        <v>1</v>
+        <v>43712</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="I178" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1">
-        <v>43712.710358796299</v>
+        <v>43729.624016203707</v>
       </c>
       <c r="B179" t="s">
         <v>43</v>
@@ -5288,456 +5281,457 @@
         <v>16</v>
       </c>
       <c r="D179" s="2">
-        <v>43712</v>
+        <v>43714</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I179" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="1">
-        <v>43729.624016203707</v>
+        <v>43763.750243055554</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C180" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D180" s="2">
         <v>43714</v>
       </c>
-      <c r="E180" s="5" t="s">
-        <v>193</v>
+      <c r="E180" s="2"/>
+      <c r="G180">
+        <v>25</v>
       </c>
       <c r="I180" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1">
-        <v>43763.750243055554</v>
+        <v>43738.668425925927</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2">
-        <v>43714</v>
+        <v>43715</v>
       </c>
       <c r="E181" s="2"/>
       <c r="G181">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="I181" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="1">
-        <v>43738.668425925927</v>
+        <v>43738.668877314813</v>
       </c>
       <c r="B182" t="s">
         <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D182" s="2">
         <v>43715</v>
       </c>
       <c r="E182" s="2"/>
       <c r="G182">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I182" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1">
-        <v>43738.668877314813</v>
+        <v>43739.887245370373</v>
       </c>
       <c r="B183" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D183" s="2">
-        <v>43715</v>
+        <v>43718</v>
       </c>
       <c r="E183" s="2"/>
       <c r="G183">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="I183" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1">
-        <v>43739.887245370373</v>
+        <v>43766.889652777776</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D184" s="2">
         <v>43718</v>
       </c>
       <c r="E184" s="2"/>
       <c r="G184">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I184" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1">
-        <v>43766.889652777776</v>
+        <v>43766.805034722223</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D185" s="2">
-        <v>43718</v>
+        <v>43720</v>
       </c>
       <c r="E185" s="2"/>
-      <c r="G185">
-        <v>1</v>
-      </c>
       <c r="I185" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1">
-        <v>43766.805034722223</v>
+        <v>43739.884745370371</v>
       </c>
       <c r="B186" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
         <v>21</v>
       </c>
       <c r="D186" s="2">
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="E186" s="2"/>
+      <c r="G186">
+        <v>40</v>
+      </c>
       <c r="I186" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1">
-        <v>43739.884745370371</v>
+        <v>43733.843854166669</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D187" s="2">
-        <v>43721</v>
+        <v>43722</v>
       </c>
       <c r="E187" s="2"/>
       <c r="G187">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I187" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1">
-        <v>43733.843854166669</v>
+        <v>43739.887835648151</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D188" s="2">
         <v>43722</v>
       </c>
       <c r="E188" s="2"/>
       <c r="G188">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I188" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="1">
-        <v>43739.887835648151</v>
+        <v>43728.686550925922</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C189" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D189" s="2">
-        <v>43722</v>
-      </c>
-      <c r="E189" s="2"/>
-      <c r="G189">
-        <v>20</v>
+        <v>43724</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="I189" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="1">
-        <v>43728.686550925922</v>
+        <v>43729.626122685186</v>
       </c>
       <c r="B190" t="s">
         <v>43</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D190" s="2">
-        <v>43724</v>
+        <v>43726</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I190" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1">
-        <v>43729.626122685186</v>
+        <v>43733.844722222224</v>
       </c>
       <c r="B191" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D191" s="2">
         <v>43726</v>
       </c>
-      <c r="E191" s="5" t="s">
-        <v>204</v>
+      <c r="E191" s="2"/>
+      <c r="G191">
+        <v>20</v>
+      </c>
+      <c r="H191">
+        <v>50</v>
       </c>
       <c r="I191" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="1">
-        <v>43733.844722222224</v>
+        <v>43738.800740740742</v>
       </c>
       <c r="B192" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D192" s="2">
         <v>43726</v>
       </c>
       <c r="E192" s="2"/>
       <c r="G192">
-        <v>20</v>
-      </c>
-      <c r="H192">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I192" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1">
-        <v>43738.800740740742</v>
+        <v>43766.890439814815</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
       </c>
       <c r="D193" s="2">
-        <v>43726</v>
+        <v>43727</v>
       </c>
       <c r="E193" s="2"/>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="1">
-        <v>43766.890439814815</v>
+        <v>43738.667199074072</v>
       </c>
       <c r="B194" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C194" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D194" s="2">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E194" s="2"/>
       <c r="G194">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I194" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1">
-        <v>43738.667199074072</v>
+        <v>43738.802488425928</v>
       </c>
       <c r="B195" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D195" s="2">
         <v>43728</v>
       </c>
       <c r="E195" s="2"/>
       <c r="G195">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="1">
-        <v>43738.802488425928</v>
+        <v>43741.765625</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C196" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D196" s="2">
-        <v>43728</v>
+        <v>43729</v>
       </c>
       <c r="E196" s="2"/>
-      <c r="G196">
-        <v>1</v>
-      </c>
       <c r="I196" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1">
-        <v>43741.765625</v>
+        <v>43738.799513888887</v>
       </c>
       <c r="B197" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D197" s="2">
-        <v>43729</v>
+        <v>43732</v>
       </c>
       <c r="E197" s="2"/>
       <c r="G197">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1">
-        <v>43738.799513888887</v>
+        <v>43741.768148148149</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C198" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D198" s="2">
-        <v>43732</v>
+        <v>43737</v>
       </c>
       <c r="E198" s="2"/>
-      <c r="G198">
-        <v>1</v>
-      </c>
       <c r="I198" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="1">
-        <v>43741.768148148149</v>
+        <v>43759.934363425928</v>
       </c>
       <c r="B199" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D199" s="2">
-        <v>43737</v>
+        <v>43740</v>
       </c>
       <c r="E199" s="2"/>
+      <c r="G199">
+        <v>17</v>
+      </c>
       <c r="I199" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="1">
-        <v>43759.934363425928</v>
+        <v>43759.934652777774</v>
       </c>
       <c r="B200" t="s">
         <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D200" s="2">
-        <v>43740</v>
+        <v>43743</v>
       </c>
       <c r="E200" s="2"/>
       <c r="G200">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="H200">
+        <v>1232</v>
       </c>
       <c r="I200" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="1">
-        <v>43759.934652777774</v>
+        <v>43833.922858796293</v>
       </c>
       <c r="B201" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
         <v>61</v>
@@ -5747,186 +5741,180 @@
       </c>
       <c r="E201" s="2"/>
       <c r="G201">
-        <v>28</v>
-      </c>
-      <c r="H201">
-        <v>1232</v>
+        <v>20</v>
       </c>
       <c r="I201" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="1">
-        <v>43833.922858796293</v>
+        <v>43861.778796296298</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C202" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D202" s="2">
         <v>43743</v>
       </c>
       <c r="E202" s="2"/>
       <c r="G202">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I202" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1">
-        <v>43861.778796296298</v>
+        <v>43817.907418981478</v>
       </c>
       <c r="B203" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D203" s="2">
-        <v>43743</v>
+        <v>43744</v>
       </c>
       <c r="E203" s="2"/>
-      <c r="G203">
-        <v>7</v>
-      </c>
       <c r="I203" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1">
-        <v>43817.907418981478</v>
+        <v>43817.92465277778</v>
       </c>
       <c r="B204" t="s">
         <v>41</v>
       </c>
       <c r="C204" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D204" s="2">
-        <v>43744</v>
+        <v>43748</v>
       </c>
       <c r="E204" s="2"/>
-      <c r="I204" t="s">
-        <v>218</v>
+      <c r="F204" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="1">
-        <v>43817.92465277778</v>
+        <v>43861.779282407406</v>
       </c>
       <c r="B205" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D205" s="2">
-        <v>43748</v>
+        <v>43749</v>
       </c>
       <c r="E205" s="2"/>
-      <c r="F205" t="s">
-        <v>219</v>
+      <c r="G205">
+        <v>7</v>
+      </c>
+      <c r="I205" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="1">
-        <v>43861.779282407406</v>
+        <v>43753.723715277774</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D206" s="2">
-        <v>43749</v>
+        <v>43753</v>
       </c>
       <c r="E206" s="2"/>
       <c r="G206">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="H206">
+        <f>G206*6</f>
+        <v>72</v>
       </c>
       <c r="I206" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="1">
-        <v>43753.723715277774</v>
+        <v>43754.878865740742</v>
       </c>
       <c r="B207" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C207" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D207" s="2">
-        <v>43753</v>
+        <v>43754</v>
       </c>
       <c r="E207" s="2"/>
-      <c r="G207">
-        <v>12</v>
-      </c>
-      <c r="H207">
-        <f>G207*6</f>
-        <v>72</v>
-      </c>
       <c r="I207" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="1">
-        <v>43754.878865740742</v>
+        <v>43766.809178240743</v>
       </c>
       <c r="B208" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D208" s="2">
         <v>43754</v>
       </c>
-      <c r="E208" s="2"/>
-      <c r="G208">
-        <v>20</v>
+      <c r="E208" t="s">
+        <v>223</v>
       </c>
       <c r="I208" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="1">
-        <v>43766.809178240743</v>
+        <v>43757.676412037035</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D209" s="2">
-        <v>43754</v>
-      </c>
-      <c r="E209" t="s">
-        <v>223</v>
+        <v>43755</v>
+      </c>
+      <c r="E209" s="2"/>
+      <c r="G209">
+        <v>20</v>
       </c>
       <c r="I209" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1">
-        <v>43757.676412037035</v>
+        <v>43762.828159722223</v>
       </c>
       <c r="B210" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C210" t="s">
         <v>21</v>
@@ -5936,78 +5924,78 @@
       </c>
       <c r="E210" s="2"/>
       <c r="G210">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I210" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="1">
-        <v>43762.828159722223</v>
+        <v>43757.676874999997</v>
       </c>
       <c r="B211" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C211" t="s">
         <v>21</v>
       </c>
       <c r="D211" s="2">
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="E211" s="2"/>
       <c r="G211">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="I211" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="1">
-        <v>43757.676874999997</v>
+        <v>43833.922314814816</v>
       </c>
       <c r="B212" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D212" s="2">
         <v>43756</v>
       </c>
       <c r="E212" s="2"/>
       <c r="G212">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1">
-        <v>43833.922314814816</v>
+        <v>43762.58829861111</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D213" s="2">
-        <v>43756</v>
+        <v>43757</v>
       </c>
       <c r="E213" s="2"/>
       <c r="G213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="1">
-        <v>43762.58829861111</v>
+        <v>43762.588761574072</v>
       </c>
       <c r="B214" t="s">
         <v>43</v>
@@ -6016,43 +6004,43 @@
         <v>21</v>
       </c>
       <c r="D214" s="2">
-        <v>43757</v>
+        <v>43760</v>
       </c>
       <c r="E214" s="2"/>
       <c r="G214">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I214" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="1">
-        <v>43762.588761574072</v>
+        <v>43762.829421296294</v>
       </c>
       <c r="B215" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C215" t="s">
         <v>21</v>
       </c>
       <c r="D215" s="2">
-        <v>43760</v>
+        <v>43761</v>
       </c>
       <c r="E215" s="2"/>
       <c r="G215">
         <v>25</v>
       </c>
       <c r="I215" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1">
-        <v>43762.829421296294</v>
+        <v>43833.918425925927</v>
       </c>
       <c r="B216" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
         <v>21</v>
@@ -6062,117 +6050,114 @@
       </c>
       <c r="E216" s="2"/>
       <c r="G216">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I216" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="1">
-        <v>43833.918425925927</v>
+        <v>43763.671655092592</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C217" t="s">
         <v>21</v>
       </c>
       <c r="D217" s="2">
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="E217" s="2"/>
       <c r="G217">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I217" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="1">
-        <v>43763.671655092592</v>
+        <v>43766.800752314812</v>
       </c>
       <c r="B218" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C218" t="s">
         <v>21</v>
       </c>
       <c r="D218" s="2">
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="E218" s="2"/>
-      <c r="G218">
-        <v>12</v>
-      </c>
       <c r="I218" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1">
-        <v>43766.800752314812</v>
+        <v>43766.808900462966</v>
       </c>
       <c r="B219" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D219" s="2">
         <v>43763</v>
       </c>
       <c r="E219" s="2"/>
-      <c r="G219">
-        <v>20</v>
-      </c>
       <c r="I219" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="1">
-        <v>43766.808900462966</v>
+        <v>43766.876851851855</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C220" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D220" s="2">
-        <v>43763</v>
+        <v>43764</v>
       </c>
       <c r="E220" s="2"/>
+      <c r="G220">
+        <v>30</v>
+      </c>
       <c r="I220" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="1">
-        <v>43766.876851851855</v>
+        <v>43833.919108796297</v>
       </c>
       <c r="B221" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
         <v>21</v>
       </c>
       <c r="D221" s="2">
-        <v>43764</v>
+        <v>43766</v>
       </c>
       <c r="E221" s="2"/>
       <c r="G221">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I221" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="1">
-        <v>43833.919108796297</v>
+        <v>43833.919999999998</v>
       </c>
       <c r="B222" t="s">
         <v>9</v>
@@ -6185,284 +6170,281 @@
       </c>
       <c r="E222" s="2"/>
       <c r="G222">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I222" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="1">
-        <v>43833.919999999998</v>
+        <v>43833.917754629627</v>
       </c>
       <c r="B223" t="s">
         <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D223" s="2">
-        <v>43766</v>
-      </c>
-      <c r="E223" s="2"/>
-      <c r="G223">
-        <v>40</v>
+        <v>43767</v>
+      </c>
+      <c r="E223" t="s">
+        <v>239</v>
       </c>
       <c r="I223" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="1">
-        <v>43768.587094907409</v>
+        <v>43833.920474537037</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D224" s="2">
         <v>43767</v>
       </c>
       <c r="E224" s="2"/>
-      <c r="F224" t="s">
-        <v>239</v>
+      <c r="G224">
+        <v>22</v>
+      </c>
+      <c r="I224" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="1">
-        <v>43833.917754629627</v>
+        <v>43773.819062499999</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C225" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D225" s="2">
-        <v>43767</v>
-      </c>
-      <c r="E225" t="s">
-        <v>240</v>
-      </c>
+        <v>43768</v>
+      </c>
+      <c r="E225" s="2"/>
       <c r="I225" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="1">
-        <v>43833.920474537037</v>
+        <v>43789.580648148149</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C226" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D226" s="2">
-        <v>43767</v>
+        <v>43770</v>
       </c>
       <c r="E226" s="2"/>
       <c r="G226">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>120</v>
       </c>
       <c r="I226" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="1">
-        <v>43773.819062499999</v>
+        <v>43771.555405092593</v>
       </c>
       <c r="B227" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C227" t="s">
         <v>21</v>
       </c>
       <c r="D227" s="2">
-        <v>43768</v>
+        <v>43771</v>
       </c>
       <c r="E227" s="2"/>
       <c r="G227">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I227" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1">
-        <v>43789.580648148149</v>
+        <v>43817.907754629632</v>
       </c>
       <c r="B228" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C228" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D228" s="2">
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="E228" s="2"/>
-      <c r="G228">
-        <v>1</v>
-      </c>
-      <c r="H228">
-        <v>120</v>
-      </c>
       <c r="I228" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="1">
-        <v>43771.555405092593</v>
+        <v>43773.818090277775</v>
       </c>
       <c r="B229" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C229" t="s">
         <v>21</v>
       </c>
       <c r="D229" s="2">
-        <v>43771</v>
+        <v>43773</v>
       </c>
       <c r="E229" s="2"/>
-      <c r="G229">
-        <v>14</v>
-      </c>
       <c r="I229" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="1">
-        <v>43817.907754629632</v>
+        <v>43809.846851851849</v>
       </c>
       <c r="B230" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D230" s="2">
-        <v>43771</v>
+        <v>43774</v>
       </c>
       <c r="E230" s="2"/>
+      <c r="G230">
+        <v>1</v>
+      </c>
       <c r="I230" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="1">
-        <v>43773.818090277775</v>
+        <v>43776.890972222223</v>
       </c>
       <c r="B231" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C231" t="s">
         <v>21</v>
       </c>
       <c r="D231" s="2">
-        <v>43773</v>
+        <v>43776</v>
       </c>
       <c r="E231" s="2"/>
       <c r="G231">
         <v>20</v>
       </c>
       <c r="I231" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1">
-        <v>43809.846851851849</v>
+        <v>43777.880983796298</v>
       </c>
       <c r="B232" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D232" s="2">
-        <v>43774</v>
+        <v>43777</v>
       </c>
       <c r="E232" s="2"/>
       <c r="G232">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I232" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="1">
-        <v>43776.890972222223</v>
+        <v>43780.614247685182</v>
       </c>
       <c r="B233" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C233" t="s">
         <v>21</v>
       </c>
       <c r="D233" s="2">
-        <v>43776</v>
+        <v>43778</v>
       </c>
       <c r="E233" s="2"/>
       <c r="G233">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I233" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="1">
-        <v>43777.880983796298</v>
+        <v>43780.614837962959</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C234" t="s">
         <v>21</v>
       </c>
       <c r="D234" s="2">
-        <v>43777</v>
+        <v>43778</v>
       </c>
       <c r="E234" s="2"/>
       <c r="G234">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I234" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1">
-        <v>43780.614247685182</v>
+        <v>43781.848541666666</v>
       </c>
       <c r="B235" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D235" s="2">
-        <v>43778</v>
+        <v>43780</v>
       </c>
       <c r="E235" s="2"/>
       <c r="G235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="1">
-        <v>43780.614837962959</v>
+        <v>43782.972002314818</v>
       </c>
       <c r="B236" t="s">
         <v>28</v>
@@ -6471,222 +6453,220 @@
         <v>21</v>
       </c>
       <c r="D236" s="2">
-        <v>43778</v>
+        <v>43782</v>
       </c>
       <c r="E236" s="2"/>
       <c r="G236">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I236" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="1">
-        <v>43781.848541666666</v>
+        <v>43789.581087962964</v>
       </c>
       <c r="B237" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="C237" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D237" s="2">
-        <v>43780</v>
+        <v>43787</v>
       </c>
       <c r="E237" s="2"/>
       <c r="G237">
         <v>1</v>
       </c>
+      <c r="H237">
+        <v>50</v>
+      </c>
       <c r="I237" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="1">
-        <v>43782.972002314818</v>
+        <v>43836.690509259257</v>
       </c>
       <c r="B238" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C238" t="s">
         <v>21</v>
       </c>
       <c r="D238" s="2">
-        <v>43782</v>
+        <v>43788</v>
       </c>
       <c r="E238" s="2"/>
       <c r="G238">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="1">
-        <v>43789.581087962964</v>
+        <v>43818.635567129626</v>
       </c>
       <c r="B239" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C239" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D239" s="2">
-        <v>43787</v>
-      </c>
-      <c r="E239" s="2"/>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="H239">
-        <v>50</v>
+        <v>43790</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="I239" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="1">
-        <v>43836.690509259257</v>
+        <v>43861.778101851851</v>
       </c>
       <c r="B240" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="C240" t="s">
         <v>21</v>
       </c>
       <c r="D240" s="2">
-        <v>43788</v>
+        <v>43790</v>
       </c>
       <c r="E240" s="2"/>
       <c r="G240">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I240" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="1">
-        <v>43818.635567129626</v>
+        <v>43836.691168981481</v>
       </c>
       <c r="B241" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C241" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D241" s="2">
-        <v>43790</v>
-      </c>
-      <c r="E241" s="5" t="s">
-        <v>257</v>
+        <v>43791</v>
+      </c>
+      <c r="E241" s="2"/>
+      <c r="G241">
+        <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="1">
-        <v>43861.778101851851</v>
+        <v>43802.1721875</v>
       </c>
       <c r="B242" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C242" t="s">
         <v>21</v>
       </c>
       <c r="D242" s="2">
-        <v>43790</v>
+        <v>43802</v>
       </c>
       <c r="E242" s="2"/>
-      <c r="G242">
-        <v>50</v>
-      </c>
       <c r="I242" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="1">
-        <v>43836.691168981481</v>
+        <v>43802.178773148145</v>
       </c>
       <c r="B243" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D243" s="2">
-        <v>43791</v>
+        <v>43804</v>
       </c>
       <c r="E243" s="2"/>
-      <c r="G243">
-        <v>2</v>
-      </c>
       <c r="I243" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="1">
-        <v>43802.1721875</v>
+        <v>43812.713796296295</v>
       </c>
       <c r="B244" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D244" s="2">
-        <v>43802</v>
+        <v>43808</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="I244" t="s">
-        <v>261</v>
+      <c r="F244" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="1">
-        <v>43802.178773148145</v>
+        <v>43810.744039351855</v>
       </c>
       <c r="B245" t="s">
         <v>28</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D245" s="2">
-        <v>43804</v>
-      </c>
-      <c r="E245" s="2"/>
+        <v>43809</v>
+      </c>
+      <c r="E245" t="s">
+        <v>264</v>
+      </c>
       <c r="I245" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="1">
-        <v>43812.713796296295</v>
+        <v>43810.74324074074</v>
       </c>
       <c r="B246" t="s">
-        <v>263</v>
+        <v>28</v>
       </c>
       <c r="C246" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D246" s="2">
-        <v>43808</v>
-      </c>
-      <c r="E246" s="2"/>
-      <c r="F246" t="s">
-        <v>264</v>
+        <v>43810</v>
+      </c>
+      <c r="E246" t="s">
+        <v>266</v>
+      </c>
+      <c r="I246" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1">
-        <v>43810.744039351855</v>
+        <v>43810.743668981479</v>
       </c>
       <c r="B247" t="s">
         <v>28</v>
@@ -6695,181 +6675,180 @@
         <v>16</v>
       </c>
       <c r="D247" s="2">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="E247" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I247" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="1">
-        <v>43810.74324074074</v>
+        <v>43812.711759259262</v>
       </c>
       <c r="B248" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="C248" t="s">
         <v>16</v>
       </c>
       <c r="D248" s="2">
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="E248" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I248" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="1">
-        <v>43810.743668981479</v>
+        <v>43818.636030092595</v>
       </c>
       <c r="B249" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D249" s="2">
-        <v>43810</v>
-      </c>
-      <c r="E249" t="s">
-        <v>269</v>
+        <v>43817</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="G249">
+        <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="1">
-        <v>43812.711759259262</v>
+        <v>43861.918692129628</v>
       </c>
       <c r="B250" t="s">
-        <v>263</v>
+        <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D250" s="2">
-        <v>43811</v>
-      </c>
-      <c r="E250" t="s">
-        <v>271</v>
-      </c>
-      <c r="I250" t="s">
-        <v>272</v>
+        <v>43826</v>
+      </c>
+      <c r="E250" s="2"/>
+      <c r="F250" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="1">
-        <v>43818.636030092595</v>
+        <v>43834.677800925929</v>
       </c>
       <c r="B251" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C251" t="s">
         <v>13</v>
       </c>
       <c r="D251" s="2">
-        <v>43817</v>
+        <v>43831</v>
       </c>
       <c r="E251" s="2"/>
       <c r="G251">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I251" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="1">
-        <v>43861.918692129628</v>
+        <v>43833.66547453704</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="C252" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D252" s="2">
-        <v>43826</v>
-      </c>
-      <c r="E252" s="2"/>
-      <c r="F252" t="s">
-        <v>274</v>
+        <v>43832</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I252" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="1">
-        <v>43834.677800925929</v>
+        <v>43843.74900462963</v>
       </c>
       <c r="B253" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D253" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E253" s="2"/>
+        <v>43838</v>
+      </c>
+      <c r="E253" t="s">
+        <v>277</v>
+      </c>
       <c r="G253">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I253" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="1">
-        <v>43833.66547453704</v>
+        <v>43858.879895833335</v>
       </c>
       <c r="B254" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="C254" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D254" s="2">
-        <v>43832</v>
-      </c>
-      <c r="E254" s="5" t="s">
-        <v>276</v>
+        <v>43852</v>
+      </c>
+      <c r="E254" s="2"/>
+      <c r="G254">
+        <v>15</v>
       </c>
       <c r="I254" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="1">
-        <v>43843.74900462963</v>
+        <v>43859.769270833334</v>
       </c>
       <c r="B255" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C255" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D255" s="2">
-        <v>43838</v>
-      </c>
-      <c r="E255" t="s">
-        <v>278</v>
-      </c>
-      <c r="G255">
-        <v>50</v>
-      </c>
-      <c r="I255" t="s">
-        <v>279</v>
+        <v>43852</v>
+      </c>
+      <c r="E255" s="2"/>
+      <c r="F255" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="1">
-        <v>43858.879895833335</v>
+        <v>43861.711574074077</v>
       </c>
       <c r="B256" t="s">
         <v>43</v>
@@ -6878,76 +6857,79 @@
         <v>21</v>
       </c>
       <c r="D256" s="2">
-        <v>43852</v>
+        <v>43860</v>
       </c>
       <c r="E256" s="2"/>
       <c r="G256">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="I256" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="1">
-        <v>43859.769270833334</v>
+        <v>43861.779849537037</v>
       </c>
       <c r="B257" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D257" s="2">
-        <v>43852</v>
+        <v>43861</v>
       </c>
       <c r="E257" s="2"/>
-      <c r="F257" t="s">
-        <v>281</v>
+      <c r="I257" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="1">
-        <v>43861.711574074077</v>
+        <v>43863.019212962965</v>
       </c>
       <c r="B258" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
         <v>21</v>
       </c>
       <c r="D258" s="2">
-        <v>43860</v>
+        <v>43862</v>
       </c>
       <c r="E258" s="2"/>
-      <c r="G258">
-        <v>125</v>
-      </c>
       <c r="I258" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="1">
-        <v>43861.779849537037</v>
+        <v>43875.938101851854</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C259" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D259" s="2">
-        <v>43861</v>
+        <v>43867</v>
       </c>
       <c r="E259" s="2"/>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
       <c r="I259" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="1">
-        <v>43863.019212962965</v>
+        <v>43875.939270833333</v>
       </c>
       <c r="B260" t="s">
         <v>28</v>
@@ -6956,40 +6938,34 @@
         <v>21</v>
       </c>
       <c r="D260" s="2">
-        <v>43862</v>
+        <v>43874</v>
       </c>
       <c r="E260" s="2"/>
-      <c r="I260" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="1">
-        <v>43875.938101851854</v>
+        <v>43886.958182870374</v>
       </c>
       <c r="B261" t="s">
         <v>28</v>
       </c>
       <c r="C261" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D261" s="2">
-        <v>43867</v>
+        <v>43885</v>
       </c>
       <c r="E261" s="2"/>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>1</v>
+      <c r="F261" t="s">
+        <v>285</v>
       </c>
       <c r="I261" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="1">
-        <v>43875.939270833333</v>
+        <v>43892.691817129627</v>
       </c>
       <c r="B262" t="s">
         <v>28</v>
@@ -6998,91 +6974,94 @@
         <v>21</v>
       </c>
       <c r="D262" s="2">
-        <v>43874</v>
+        <v>43888</v>
       </c>
       <c r="E262" s="2"/>
+      <c r="I262" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="1">
-        <v>43886.958182870374</v>
+        <v>43899.609166666669</v>
       </c>
       <c r="B263" t="s">
         <v>28</v>
       </c>
       <c r="C263" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D263" s="2">
-        <v>43885</v>
+        <v>43690</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s">
-        <v>286</v>
-      </c>
-      <c r="I263" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="1">
-        <v>43892.691817129627</v>
+        <v>43899.822476851848</v>
       </c>
       <c r="B264" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C264" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D264" s="2">
-        <v>43888</v>
+        <v>43836</v>
       </c>
       <c r="E264" s="2"/>
+      <c r="F264" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="I264" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="1">
-        <v>43899.609166666669</v>
+        <v>43899.823437500003</v>
       </c>
       <c r="B265" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C265" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D265" s="2">
-        <v>43690</v>
+        <v>43843</v>
       </c>
       <c r="E265" s="2"/>
-      <c r="F265" t="s">
-        <v>289</v>
+      <c r="I265" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="1">
-        <v>43899.822476851848</v>
+        <v>43899.824756944443</v>
       </c>
       <c r="B266" t="s">
         <v>35</v>
       </c>
       <c r="C266" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D266" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="E266" s="2"/>
-      <c r="F266" s="5" t="s">
-        <v>290</v>
+      <c r="G266">
+        <v>14</v>
       </c>
       <c r="I266" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="1">
-        <v>43899.823437500003</v>
+        <v>43899.825312499997</v>
       </c>
       <c r="B267" t="s">
         <v>35</v>
@@ -7091,40 +7070,34 @@
         <v>21</v>
       </c>
       <c r="D267" s="2">
-        <v>43843</v>
+        <v>43876</v>
       </c>
       <c r="E267" s="2"/>
-      <c r="G267">
-        <v>25</v>
-      </c>
       <c r="I267" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="1">
-        <v>43899.824756944443</v>
+        <v>43899.825694444444</v>
       </c>
       <c r="B268" t="s">
         <v>35</v>
       </c>
       <c r="C268" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D268" s="2">
-        <v>43866</v>
+        <v>43876</v>
       </c>
       <c r="E268" s="2"/>
-      <c r="G268">
-        <v>14</v>
-      </c>
       <c r="I268" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="1">
-        <v>43899.825312499997</v>
+        <v>43899.826585648145</v>
       </c>
       <c r="B269" t="s">
         <v>35</v>
@@ -7133,19 +7106,18 @@
         <v>21</v>
       </c>
       <c r="D269" s="2">
-        <v>43876</v>
-      </c>
-      <c r="E269" s="2"/>
-      <c r="G269">
-        <v>45</v>
+        <v>43872</v>
+      </c>
+      <c r="E269" t="s">
+        <v>295</v>
       </c>
       <c r="I269" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1">
-        <v>43899.825694444444</v>
+        <v>43899.827326388891</v>
       </c>
       <c r="B270" t="s">
         <v>35</v>
@@ -7154,19 +7126,18 @@
         <v>21</v>
       </c>
       <c r="D270" s="2">
-        <v>43876</v>
-      </c>
-      <c r="E270" s="2"/>
-      <c r="G270">
-        <v>8</v>
+        <v>43873</v>
+      </c>
+      <c r="E270" t="s">
+        <v>297</v>
       </c>
       <c r="I270" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="1">
-        <v>43899.826585648145</v>
+        <v>43899.827893518515</v>
       </c>
       <c r="B271" t="s">
         <v>35</v>
@@ -7175,18 +7146,16 @@
         <v>21</v>
       </c>
       <c r="D271" s="2">
-        <v>43872</v>
-      </c>
-      <c r="E271" t="s">
-        <v>296</v>
-      </c>
+        <v>43882</v>
+      </c>
+      <c r="E271" s="2"/>
       <c r="I271" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="1">
-        <v>43899.827326388891</v>
+        <v>43899.828194444446</v>
       </c>
       <c r="B272" t="s">
         <v>35</v>
@@ -7195,18 +7164,16 @@
         <v>21</v>
       </c>
       <c r="D272" s="2">
-        <v>43873</v>
-      </c>
-      <c r="E272" t="s">
-        <v>298</v>
-      </c>
+        <v>43885</v>
+      </c>
+      <c r="E272" s="2"/>
       <c r="I272" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="1">
-        <v>43899.827893518515</v>
+        <v>43899.828761574077</v>
       </c>
       <c r="B273" t="s">
         <v>35</v>
@@ -7215,55 +7182,56 @@
         <v>21</v>
       </c>
       <c r="D273" s="2">
-        <v>43882</v>
+        <v>43867</v>
       </c>
       <c r="E273" s="2"/>
-      <c r="G273">
-        <v>10</v>
-      </c>
       <c r="I273" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="1">
-        <v>43899.828194444446</v>
+        <v>43899.831238425926</v>
       </c>
       <c r="B274" t="s">
         <v>35</v>
       </c>
       <c r="C274" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D274" s="2">
-        <v>43885</v>
-      </c>
-      <c r="E274" s="2"/>
+        <v>43854</v>
+      </c>
+      <c r="E274" t="s">
+        <v>302</v>
+      </c>
       <c r="I274" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" s="1">
-        <v>43899.828761574077</v>
+        <v>43899.832048611112</v>
       </c>
       <c r="B275" t="s">
         <v>35</v>
       </c>
       <c r="C275" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D275" s="2">
         <v>43867</v>
       </c>
-      <c r="E275" s="2"/>
+      <c r="E275" t="s">
+        <v>304</v>
+      </c>
       <c r="I275" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="1">
-        <v>43899.831238425926</v>
+        <v>43899.832395833335</v>
       </c>
       <c r="B276" t="s">
         <v>35</v>
@@ -7272,18 +7240,18 @@
         <v>16</v>
       </c>
       <c r="D276" s="2">
-        <v>43854</v>
+        <v>43840</v>
       </c>
       <c r="E276" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I276" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="1">
-        <v>43899.832048611112</v>
+        <v>43899.833009259259</v>
       </c>
       <c r="B277" t="s">
         <v>35</v>
@@ -7292,18 +7260,18 @@
         <v>16</v>
       </c>
       <c r="D277" s="2">
-        <v>43867</v>
+        <v>43837</v>
       </c>
       <c r="E277" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I277" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="1">
-        <v>43899.832395833335</v>
+        <v>43899.83353009259</v>
       </c>
       <c r="B278" t="s">
         <v>35</v>
@@ -7312,58 +7280,57 @@
         <v>16</v>
       </c>
       <c r="D278" s="2">
-        <v>43840</v>
+        <v>43836</v>
       </c>
       <c r="E278" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I278" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="1">
-        <v>43899.833009259259</v>
+        <v>43902.615520833337</v>
       </c>
       <c r="B279" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D279" s="2">
-        <v>43837</v>
-      </c>
-      <c r="E279" t="s">
-        <v>309</v>
+        <v>43901</v>
+      </c>
+      <c r="E279" s="2"/>
+      <c r="G279">
+        <v>25</v>
       </c>
       <c r="I279" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="1">
-        <v>43899.83353009259</v>
+        <v>43914.617013888892</v>
       </c>
       <c r="B280" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C280" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D280" s="2">
-        <v>43836</v>
-      </c>
-      <c r="E280" t="s">
-        <v>311</v>
-      </c>
+        <v>43911</v>
+      </c>
+      <c r="E280" s="2"/>
       <c r="I280" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="1">
-        <v>43902.615520833337</v>
+        <v>43921.605405092596</v>
       </c>
       <c r="B281" t="s">
         <v>43</v>
@@ -7372,153 +7339,150 @@
         <v>21</v>
       </c>
       <c r="D281" s="2">
-        <v>43901</v>
+        <v>43920</v>
       </c>
       <c r="E281" s="2"/>
       <c r="G281">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I281" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="1">
-        <v>43914.617013888892</v>
+        <v>43921.718981481485</v>
       </c>
       <c r="B282" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C282" t="s">
         <v>21</v>
       </c>
       <c r="D282" s="2">
-        <v>43911</v>
+        <v>43847</v>
       </c>
       <c r="E282" s="2"/>
       <c r="I282" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="1">
-        <v>43921.605405092596</v>
+        <v>43921.719467592593</v>
       </c>
       <c r="B283" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C283" t="s">
         <v>21</v>
       </c>
       <c r="D283" s="2">
-        <v>43920</v>
+        <v>43890</v>
       </c>
       <c r="E283" s="2"/>
-      <c r="G283">
-        <v>12</v>
-      </c>
       <c r="I283" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="1">
-        <v>43921.718981481485</v>
+        <v>43921.720173611109</v>
       </c>
       <c r="B284" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C284" t="s">
         <v>21</v>
       </c>
       <c r="D284" s="2">
-        <v>43847</v>
+        <v>43874</v>
       </c>
       <c r="E284" s="2"/>
       <c r="I284" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="1">
-        <v>43921.719467592593</v>
+        <v>43921.721006944441</v>
       </c>
       <c r="B285" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C285" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D285" s="2">
-        <v>43890</v>
+        <v>43864</v>
       </c>
       <c r="E285" s="2"/>
+      <c r="G285">
+        <v>9</v>
+      </c>
       <c r="I285" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="1">
-        <v>43921.720173611109</v>
+        <v>43922.926342592589</v>
       </c>
       <c r="B286" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D286" s="2">
-        <v>43874</v>
-      </c>
-      <c r="E286" s="2"/>
+        <v>43852</v>
+      </c>
+      <c r="E286" t="s">
+        <v>319</v>
+      </c>
       <c r="I286" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="1">
-        <v>43921.721006944441</v>
+        <v>43922.926736111112</v>
       </c>
       <c r="B287" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D287" s="2">
-        <v>43864</v>
+        <v>43857</v>
       </c>
       <c r="E287" s="2"/>
-      <c r="G287">
-        <v>9</v>
-      </c>
       <c r="I287" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="1">
-        <v>43922.926342592589</v>
+        <v>43922.926979166667</v>
       </c>
       <c r="B288" t="s">
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D288" s="2">
-        <v>43852</v>
-      </c>
-      <c r="E288" t="s">
-        <v>320</v>
-      </c>
+        <v>43885</v>
+      </c>
+      <c r="E288" s="2"/>
       <c r="I288" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="1">
-        <v>43922.926736111112</v>
+        <v>43922.927164351851</v>
       </c>
       <c r="B289" t="s">
         <v>9</v>
@@ -7527,506 +7491,509 @@
         <v>21</v>
       </c>
       <c r="D289" s="2">
-        <v>43857</v>
+        <v>43913</v>
       </c>
       <c r="E289" s="2"/>
       <c r="I289" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="1">
-        <v>43922.926979166667</v>
+        <v>43922.927974537037</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D290" s="2">
-        <v>43885</v>
+        <v>43847</v>
       </c>
       <c r="E290" s="2"/>
+      <c r="G290">
+        <v>1</v>
+      </c>
       <c r="I290" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="1">
-        <v>43922.927164351851</v>
+        <v>43922.928414351853</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D291" s="2">
-        <v>43913</v>
+        <v>43902</v>
       </c>
       <c r="E291" s="2"/>
+      <c r="G291">
+        <v>5</v>
+      </c>
       <c r="I291" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="1">
-        <v>43922.927974537037</v>
+        <v>43922.929108796299</v>
       </c>
       <c r="B292" t="s">
         <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D292" s="2">
-        <v>43847</v>
+        <v>43900</v>
       </c>
       <c r="E292" s="2"/>
       <c r="G292">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I292" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" s="1">
-        <v>43922.928414351853</v>
+        <v>43922.930011574077</v>
       </c>
       <c r="B293" t="s">
         <v>9</v>
       </c>
       <c r="C293" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D293" s="2">
         <v>43902</v>
       </c>
       <c r="E293" s="2"/>
       <c r="G293">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I293" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="1">
-        <v>43922.929108796299</v>
+        <v>43923.79215277778</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="C294" t="s">
         <v>21</v>
       </c>
       <c r="D294" s="2">
-        <v>43900</v>
+        <v>43874</v>
       </c>
       <c r="E294" s="2"/>
       <c r="G294">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I294" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="1">
-        <v>43922.930011574077</v>
+        <v>43923.79310185185</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="C295" t="s">
         <v>61</v>
       </c>
       <c r="D295" s="2">
-        <v>43902</v>
-      </c>
-      <c r="E295" s="2"/>
-      <c r="G295">
-        <v>34</v>
+        <v>43881</v>
+      </c>
+      <c r="E295" t="s">
+        <v>327</v>
       </c>
       <c r="I295" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="1">
-        <v>43923.79215277778</v>
+        <v>43923.79383101852</v>
       </c>
       <c r="B296" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C296" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D296" s="2">
-        <v>43874</v>
-      </c>
-      <c r="E296" s="2"/>
-      <c r="G296">
-        <v>20</v>
+        <v>43893</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="I296" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="1">
-        <v>43923.79310185185</v>
+        <v>43923.794479166667</v>
       </c>
       <c r="B297" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C297" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D297" s="2">
-        <v>43881</v>
-      </c>
-      <c r="E297" t="s">
-        <v>328</v>
+        <v>43885</v>
+      </c>
+      <c r="E297" s="2"/>
+      <c r="G297">
+        <v>4</v>
       </c>
       <c r="I297" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="1">
-        <v>43923.79383101852</v>
+        <v>43923.795162037037</v>
       </c>
       <c r="B298" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C298" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D298" s="2">
-        <v>43893</v>
-      </c>
-      <c r="E298" s="5" t="s">
-        <v>330</v>
+        <v>43847</v>
+      </c>
+      <c r="E298" s="2"/>
+      <c r="G298">
+        <v>1</v>
       </c>
       <c r="I298" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" s="1">
-        <v>43923.794479166667</v>
+        <v>43923.795844907407</v>
       </c>
       <c r="B299" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C299" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D299" s="2">
-        <v>43885</v>
+        <v>43907</v>
       </c>
       <c r="E299" s="2"/>
       <c r="G299">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I299" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="A300" s="1">
-        <v>43923.795162037037</v>
+        <v>43923.814375000002</v>
       </c>
       <c r="B300" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="C300" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D300" s="2">
-        <v>43847</v>
+        <v>43915</v>
       </c>
       <c r="E300" s="2"/>
       <c r="G300">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I300" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="1">
-        <v>43923.795844907407</v>
+        <v>43923.816157407404</v>
       </c>
       <c r="B301" t="s">
-        <v>263</v>
+        <v>15</v>
       </c>
       <c r="C301" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D301" s="2">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="E301" s="2"/>
-      <c r="G301">
-        <v>1</v>
+      <c r="G301" t="s">
+        <v>335</v>
       </c>
       <c r="I301" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="1">
-        <v>43923.814375000002</v>
+        <v>43923.817025462966</v>
       </c>
       <c r="B302" t="s">
         <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D302" s="2">
-        <v>43915</v>
+        <v>43906</v>
       </c>
       <c r="E302" s="2"/>
       <c r="G302">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I302" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="A303" s="1">
-        <v>43923.816157407404</v>
+        <v>43924.789768518516</v>
       </c>
       <c r="B303" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C303" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D303" s="2">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="E303" s="2"/>
-      <c r="G303" t="s">
-        <v>336</v>
-      </c>
-      <c r="I303" t="s">
-        <v>337</v>
+      <c r="F303" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="A304" s="1">
-        <v>43923.817025462966</v>
+        <v>43924.790266203701</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C304" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D304" s="2">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="E304" s="2"/>
       <c r="G304">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I304" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" s="1">
-        <v>43924.789768518516</v>
+        <v>43924.790879629632</v>
       </c>
       <c r="B305" t="s">
         <v>26</v>
       </c>
       <c r="C305" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D305" s="2">
-        <v>43893</v>
+        <v>43922</v>
       </c>
       <c r="E305" s="2"/>
-      <c r="F305" t="s">
-        <v>339</v>
+      <c r="G305">
+        <v>100</v>
+      </c>
+      <c r="I305" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="1">
-        <v>43924.790266203701</v>
+        <v>43924.805868055555</v>
       </c>
       <c r="B306" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C306" t="s">
         <v>21</v>
       </c>
       <c r="D306" s="2">
-        <v>43901</v>
+        <v>43841</v>
       </c>
       <c r="E306" s="2"/>
-      <c r="G306">
-        <v>12</v>
-      </c>
       <c r="I306" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="307" spans="1:9">
       <c r="A307" s="1">
-        <v>43924.790879629632</v>
+        <v>43926.646006944444</v>
       </c>
       <c r="B307" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C307" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D307" s="2">
-        <v>43922</v>
+        <v>43815</v>
       </c>
       <c r="E307" s="2"/>
-      <c r="G307">
-        <v>100</v>
-      </c>
-      <c r="I307" t="s">
-        <v>341</v>
+      <c r="F307" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="1">
-        <v>43924.805868055555</v>
+        <v>43928.74554398148</v>
       </c>
       <c r="B308" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C308" t="s">
         <v>21</v>
       </c>
       <c r="D308" s="2">
-        <v>43841</v>
+        <v>43897</v>
       </c>
       <c r="E308" s="2"/>
+      <c r="G308">
+        <v>18</v>
+      </c>
       <c r="I308" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="1">
-        <v>43926.646006944444</v>
+        <v>43928.746782407405</v>
       </c>
       <c r="B309" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C309" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D309" s="2">
-        <v>43815</v>
+        <v>43897</v>
       </c>
       <c r="E309" s="2"/>
-      <c r="F309" t="s">
-        <v>343</v>
+      <c r="G309">
+        <v>16</v>
+      </c>
+      <c r="H309">
+        <v>484</v>
+      </c>
+      <c r="I309" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="1">
-        <v>43928.74554398148</v>
+        <v>43928.752442129633</v>
       </c>
       <c r="B310" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C310" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D310" s="2">
-        <v>43897</v>
+        <v>43904</v>
       </c>
       <c r="E310" s="2"/>
       <c r="G310">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I310" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="1">
-        <v>43928.746782407405</v>
+        <v>43928.990844907406</v>
       </c>
       <c r="B311" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C311" t="s">
         <v>61</v>
       </c>
       <c r="D311" s="2">
-        <v>43897</v>
+        <v>43873</v>
       </c>
       <c r="E311" s="2"/>
       <c r="G311">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I311" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="1">
-        <v>43928.752442129633</v>
+        <v>43943.660127314812</v>
       </c>
       <c r="B312" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C312" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D312" s="2">
-        <v>43904</v>
+        <v>43939</v>
       </c>
       <c r="E312" s="2"/>
-      <c r="G312">
-        <v>1</v>
-      </c>
       <c r="I312" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="1">
-        <v>43928.990844907406</v>
+        <v>43952.622152777774</v>
       </c>
       <c r="B313" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C313" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D313" s="2">
-        <v>43873</v>
+        <v>43936</v>
       </c>
       <c r="E313" s="2"/>
-      <c r="G313">
-        <v>2</v>
-      </c>
       <c r="I313" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1">
-        <v>43943.660127314812</v>
+        <v>43952.622488425928</v>
       </c>
       <c r="B314" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C314" t="s">
         <v>21</v>
@@ -8036,97 +8003,142 @@
       </c>
       <c r="E314" s="2"/>
       <c r="I314" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="1">
-        <v>43952.622152777774</v>
+        <v>43956.726342592592</v>
       </c>
       <c r="B315" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="C315" t="s">
         <v>21</v>
       </c>
       <c r="D315" s="2">
-        <v>43936</v>
+        <v>43847</v>
       </c>
       <c r="E315" s="2"/>
       <c r="I315" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="1">
-        <v>43952.622488425928</v>
+        <v>43959.748703703706</v>
       </c>
       <c r="B316" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C316" t="s">
         <v>21</v>
       </c>
       <c r="D316" s="2">
-        <v>43939</v>
+        <v>43959</v>
       </c>
       <c r="E316" s="2"/>
       <c r="I316" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="1">
-        <v>43956.726342592592</v>
+        <v>43959.758564814816</v>
       </c>
       <c r="B317" t="s">
-        <v>351</v>
+        <v>43</v>
       </c>
       <c r="C317" t="s">
         <v>21</v>
       </c>
       <c r="D317" s="2">
-        <v>43847</v>
+        <v>43936</v>
       </c>
       <c r="E317" s="2"/>
       <c r="I317" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="1">
-        <v>43959.748703703706</v>
+        <v>43963.709398148145</v>
       </c>
       <c r="B318" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C318" t="s">
         <v>21</v>
       </c>
       <c r="D318" s="2">
-        <v>43959</v>
+        <v>43950</v>
       </c>
       <c r="E318" s="2"/>
       <c r="I318" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="1">
-        <v>43959.758564814816</v>
+        <v>43963.712002314816</v>
       </c>
       <c r="B319" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C319" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D319" s="2">
-        <v>43936</v>
+        <v>43925</v>
       </c>
       <c r="E319" s="2"/>
+      <c r="H319">
+        <v>420</v>
+      </c>
       <c r="I319" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" s="1">
+        <v>43963.759155092594</v>
+      </c>
+      <c r="B320" t="s">
+        <v>262</v>
+      </c>
+      <c r="C320" t="s">
+        <v>61</v>
+      </c>
+      <c r="D320" s="2">
+        <v>43959</v>
+      </c>
+      <c r="E320" s="2"/>
+      <c r="G320">
+        <v>21</v>
+      </c>
+      <c r="H320">
+        <v>21</v>
+      </c>
+      <c r="I320" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" s="1">
+        <v>43964.751782407409</v>
+      </c>
+      <c r="B321" t="s">
+        <v>26</v>
+      </c>
+      <c r="C321" t="s">
+        <v>21</v>
+      </c>
+      <c r="D321" s="2">
+        <v>43963</v>
+      </c>
+      <c r="E321" s="2"/>
+      <c r="I321" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -8138,25 +8150,35 @@
     <hyperlink ref="E12" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
     <hyperlink ref="E4" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
-    <hyperlink ref="E179" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
-    <hyperlink ref="E190" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
-    <hyperlink ref="E154" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
-    <hyperlink ref="E241" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
-    <hyperlink ref="E254" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
-    <hyperlink ref="E180" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
-    <hyperlink ref="E191" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
-    <hyperlink ref="F266" r:id="rId15" display="https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117" xr:uid="{99A0F466-A75A-4E4E-A6F4-620C55E4BC39}"/>
-    <hyperlink ref="E298" r:id="rId16" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
+    <hyperlink ref="E178" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
+    <hyperlink ref="E189" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
+    <hyperlink ref="E153" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
+    <hyperlink ref="E239" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
+    <hyperlink ref="E252" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
+    <hyperlink ref="E179" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
+    <hyperlink ref="E190" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
+    <hyperlink ref="F264" r:id="rId15" display="https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117" xr:uid="{99A0F466-A75A-4E4E-A6F4-620C55E4BC39}"/>
+    <hyperlink ref="E296" r:id="rId16" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
+    <hyperlink ref="I265" r:id="rId17" xr:uid="{B2F6CA54-1A89-4AF4-81AE-0F5BB3E65DE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8390,15 +8412,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8409,11 +8422,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB75C5A9-0691-4309-9131-2BAE56853E26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22D977F1-1980-4545-BD1C-FAEC45E008C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C112" authorId="1" shapeId="0" xr:uid="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+    <comment ref="C110" authorId="1" shapeId="0" xr:uid="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -62,7 +62,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C283" authorId="2" shapeId="0" xr:uid="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
+    <comment ref="C281" authorId="2" shapeId="0" xr:uid="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +73,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C296" authorId="3" shapeId="0" xr:uid="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
+    <comment ref="C294" authorId="3" shapeId="0" xr:uid="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="358">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1284,10 +1284,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I321" totalsRowShown="0">
-  <autoFilter ref="A1:I321" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I262">
-    <sortCondition ref="D1:D262"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I319" totalsRowShown="0">
+  <autoFilter ref="A1:I319" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I260">
+    <sortCondition ref="D1:D260"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
@@ -1608,7 +1608,7 @@
       <mention mentionpersonId="{9E2245FB-B1CE-4AE1-8D04-16BB360F4C0D}" mentionId="{DEFD0F88-539B-40EF-84AD-8781F4B56A50}" startIndex="0" length="14"/>
     </mentions>
   </threadedComment>
-  <threadedComment ref="C112" dT="2020-04-07T22:58:40.39" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+  <threadedComment ref="C110" dT="2020-04-07T22:58:40.39" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
     <text xml:space="preserve">@Murchie, Karen @Inoue, Kentaro @Knapp, Chuck how should these be counted following our discussion today? Stakeholder engagement, or presentation? If the former, should only count the 40 once I think...
 </text>
     <mentions>
@@ -1617,19 +1617,19 @@
       <mention mentionpersonId="{CE41439A-C0FB-4FCC-8D46-08413F3A37F8}" mentionId="{53A8910A-DB30-4973-9152-BDB47DA0913A}" startIndex="32" length="13"/>
     </mentions>
   </threadedComment>
-  <threadedComment ref="C112" dT="2020-04-07T23:02:28.92" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{91EC6D4A-781D-44CC-93E3-7573CDA7DFCB}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+  <threadedComment ref="C110" dT="2020-04-07T23:02:28.92" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{91EC6D4A-781D-44CC-93E3-7573CDA7DFCB}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
     <text xml:space="preserve">This was a full 8hr day with 40 volunteers engaging them in a variety of activities rather than a 1 hr presentation. I would still leave it here
 </text>
   </threadedComment>
-  <threadedComment ref="C112" dT="2020-04-07T23:11:04.17" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{503F9CDB-A2EE-4E02-882A-437526016399}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+  <threadedComment ref="C110" dT="2020-04-07T23:11:04.17" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{503F9CDB-A2EE-4E02-882A-437526016399}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
     <text xml:space="preserve">OK, then should we delete one of the two rows so the 40 people aren't being counted twice?
 </text>
   </threadedComment>
-  <threadedComment ref="C112" dT="2020-04-08T00:08:26.25" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{70179C9C-AD9E-4321-9E21-5787C8049A4A}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+  <threadedComment ref="C110" dT="2020-04-08T00:08:26.25" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{70179C9C-AD9E-4321-9E21-5787C8049A4A}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
     <text xml:space="preserve">If Chuck agrees that this works better as a deeper engagement (I see it like one full ACCA class of a day of learning), then ya, I would delete one entry and count the 40 people once. Thank you Ross!
 </text>
   </threadedComment>
-  <threadedComment ref="C283" dT="2020-04-07T22:50:21.72" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{B50C9C38-935F-4B25-8180-404F4A863DB0}" done="1">
+  <threadedComment ref="C281" dT="2020-04-07T22:50:21.72" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{B50C9C38-935F-4B25-8180-404F4A863DB0}" done="1">
     <text xml:space="preserve">@Youngquist, Melissa can you confirm if this should be stakeholder engagement or change to presentation - @Inoue, Kentaro pls fill in from our convo from today!
 </text>
     <mentions>
@@ -1637,11 +1637,11 @@
       <mention mentionpersonId="{2EDBF690-2989-4482-9352-1F2ED3F2C3FE}" mentionId="{6372E852-7829-4F7A-B5F6-D10DCC2E1ADE}" startIndex="106" length="15"/>
     </mentions>
   </threadedComment>
-  <threadedComment ref="C283" dT="2020-04-07T23:06:11.47" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{2D889BA0-56BE-42B0-9277-17517B5C4FFE}" parentId="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
+  <threadedComment ref="C281" dT="2020-04-07T23:06:11.47" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{2D889BA0-56BE-42B0-9277-17517B5C4FFE}" parentId="{B50C9C38-935F-4B25-8180-404F4A863DB0}">
     <text xml:space="preserve">Since Melissa was in the field today, we will have to fill her in that we are broadly changing in person meetings/conference presentations to presentations. She will still have to discern if this was more specialized of an engagement than that
 </text>
   </threadedComment>
-  <threadedComment ref="C296" dT="2020-04-07T22:48:19.22" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
+  <threadedComment ref="C294" dT="2020-04-07T22:48:19.22" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{00165D7D-7883-4BBB-ABDD-C725A1D6BA64}">
     <text xml:space="preserve">@Knapp, Chuck should this be Media opportunity instead?
 </text>
     <mentions>
@@ -1653,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I321"/>
+  <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="G178" sqref="G178"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>43634.724907407406</v>
+        <v>43634.724305555559</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>43634.724305555559</v>
+        <v>43634.720254629632</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -3080,19 +3080,19 @@
         <v>21</v>
       </c>
       <c r="D72" s="2">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="E72" s="2"/>
       <c r="G72">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>43634.720254629632</v>
+        <v>43634.724999999999</v>
       </c>
       <c r="B73" t="s">
         <v>15</v>
@@ -3105,255 +3105,252 @@
       </c>
       <c r="E73" s="2"/>
       <c r="G73">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>43634.725289351853</v>
+        <v>43634.784085648149</v>
       </c>
       <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2">
-        <v>43565</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="G74">
-        <v>19</v>
-      </c>
-      <c r="I74" t="s">
-        <v>89</v>
+        <v>43566</v>
+      </c>
+      <c r="E74" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>43634.724999999999</v>
+        <v>43637.132731481484</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="2">
-        <v>43565</v>
+        <v>43567</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="G75">
-        <v>19</v>
-      </c>
       <c r="I75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>43634.784085648149</v>
+        <v>43634.725937499999</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2">
-        <v>43566</v>
-      </c>
-      <c r="E76" t="s">
-        <v>90</v>
+        <v>43568</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="G76">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>43637.132731481484</v>
+        <v>43634.77275462963</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2">
-        <v>43567</v>
+        <v>43568</v>
       </c>
       <c r="E77" s="2"/>
+      <c r="G77">
+        <v>28</v>
+      </c>
       <c r="I77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>43634.725937499999</v>
+        <v>43577.60497685185</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="2">
-        <v>43568</v>
+        <v>43569</v>
       </c>
       <c r="E78" s="2"/>
       <c r="G78">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>43634.77275462963</v>
+        <v>43577.605439814812</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2">
-        <v>43568</v>
+        <v>43570</v>
       </c>
       <c r="E79" s="2"/>
       <c r="G79">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="I79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>43577.60497685185</v>
+        <v>43637.125092592592</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2">
-        <v>43569</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="G80">
-        <v>40</v>
+        <v>43571</v>
+      </c>
+      <c r="E80" t="s">
+        <v>96</v>
       </c>
       <c r="I80" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>43577.605439814812</v>
+        <v>43636.674953703703</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2">
-        <v>43570</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="G81">
-        <v>270</v>
-      </c>
-      <c r="I81" t="s">
-        <v>95</v>
+        <v>43572</v>
+      </c>
+      <c r="E81" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>43637.125092592592</v>
+        <v>43634.764826388891</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D82" s="2">
-        <v>43571</v>
-      </c>
-      <c r="E82" t="s">
-        <v>96</v>
-      </c>
-      <c r="I82" t="s">
-        <v>97</v>
+        <v>43577</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>43636.674953703703</v>
+        <v>43580.639768518522</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2">
-        <v>43572</v>
-      </c>
-      <c r="E83" t="s">
-        <v>98</v>
+        <v>43578</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>43634.764826388891</v>
+        <v>43580.639224537037</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2">
-        <v>43577</v>
+        <v>43579</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" t="s">
-        <v>99</v>
+      <c r="G84">
+        <v>12</v>
+      </c>
+      <c r="I84" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>43580.639768518522</v>
+        <v>43584.792615740742</v>
       </c>
       <c r="B85" t="s">
         <v>43</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2">
-        <v>43578</v>
+        <v>43579</v>
       </c>
       <c r="E85" s="2"/>
       <c r="G85">
-        <v>4</v>
-      </c>
-      <c r="I85" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>43580.639224537037</v>
+        <v>43634.75577546296</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
         <v>21</v>
@@ -3371,742 +3368,749 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>43584.792615740742</v>
+        <v>43637.14329861111</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2">
         <v>43579</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="G87">
-        <v>1</v>
+      <c r="I87" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>43634.75577546296</v>
+        <v>43634.769444444442</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D88" s="2">
-        <v>43579</v>
+        <v>43581</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="G88">
-        <v>12</v>
-      </c>
+      <c r="F88" t="s">
+        <v>103</v>
+      </c>
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4"/>
       <c r="I88" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>43637.14329861111</v>
+        <v>43584.792407407411</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="2">
-        <v>43579</v>
+        <v>43584</v>
       </c>
       <c r="E89" s="2"/>
+      <c r="G89">
+        <v>12</v>
+      </c>
       <c r="I89" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>43634.769444444442</v>
+        <v>43627.658136574071</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2">
-        <v>43581</v>
+        <v>43586</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" s="4">
+      <c r="G90">
         <v>1</v>
       </c>
-      <c r="H90" s="4"/>
       <c r="I90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>43584.792407407411</v>
+        <v>43602.595694444448</v>
       </c>
       <c r="B91" t="s">
         <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2">
-        <v>43584</v>
+        <v>43590</v>
       </c>
       <c r="E91" s="2"/>
       <c r="G91">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>43627.658136574071</v>
+        <v>43637.126643518517</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2">
-        <v>43586</v>
+        <v>43591</v>
       </c>
       <c r="E92" s="2"/>
       <c r="G92">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>43602.595694444448</v>
+        <v>43602.595289351855</v>
       </c>
       <c r="B93" t="s">
         <v>43</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2">
-        <v>43590</v>
+        <v>43592</v>
       </c>
       <c r="E93" s="2"/>
       <c r="G93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>43637.126643518517</v>
+        <v>43602.594085648147</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2">
-        <v>43591</v>
+        <v>43598</v>
       </c>
       <c r="E94" s="2"/>
       <c r="G94">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>43602.595289351855</v>
+        <v>43601.63795138889</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
         <v>21</v>
       </c>
       <c r="D95" s="2">
-        <v>43592</v>
+        <v>43599</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="G95">
-        <v>2</v>
-      </c>
       <c r="I95" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>43602.594085648147</v>
+        <v>43602.596446759257</v>
       </c>
       <c r="B96" t="s">
         <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2">
-        <v>43598</v>
+        <v>43600</v>
       </c>
       <c r="E96" s="2"/>
-      <c r="G96">
-        <v>2</v>
+      <c r="F96" t="s">
+        <v>112</v>
       </c>
       <c r="I96" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>43601.63795138889</v>
+        <v>43636.673981481479</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="2">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="E97" s="2"/>
+      <c r="G97">
+        <v>200</v>
+      </c>
       <c r="I97" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>43602.596446759257</v>
+        <v>43634.771886574075</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2">
-        <v>43600</v>
+        <v>43602</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98" t="s">
-        <v>112</v>
+      <c r="G98">
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>43636.673981481479</v>
+        <v>43615.90315972222</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="2">
-        <v>43600</v>
+        <v>43607</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="G99">
-        <v>200</v>
-      </c>
       <c r="I99" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>43634.771886574075</v>
+        <v>43615.901655092595</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2">
-        <v>43602</v>
+        <v>43612</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="G100">
-        <v>20</v>
-      </c>
-      <c r="I100" t="s">
-        <v>115</v>
+      <c r="F100" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>43615.90315972222</v>
+        <v>43615.904120370367</v>
       </c>
       <c r="B101" t="s">
         <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2">
-        <v>43607</v>
-      </c>
-      <c r="E101" s="2"/>
+        <v>43614</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="I101" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>43615.901655092595</v>
+        <v>43637.130104166667</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D102" s="2">
-        <v>43612</v>
+        <v>43616</v>
       </c>
       <c r="E102" s="2"/>
-      <c r="F102" t="s">
-        <v>117</v>
+      <c r="I102" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>43615.904120370367</v>
+        <v>43637.130798611113</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D103" s="2">
-        <v>43614</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>118</v>
-      </c>
+        <v>43616</v>
+      </c>
+      <c r="E103" s="2"/>
       <c r="I103" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>43637.130104166667</v>
+        <v>43620.904340277775</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="2">
-        <v>43616</v>
+        <v>43617</v>
       </c>
       <c r="E104" s="2"/>
+      <c r="G104">
+        <v>20</v>
+      </c>
       <c r="I104" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>43637.130798611113</v>
+        <v>43620.904687499999</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2">
-        <v>43616</v>
+        <v>43618</v>
       </c>
       <c r="E105" s="2"/>
+      <c r="G105">
+        <v>1</v>
+      </c>
       <c r="I105" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>43620.904340277775</v>
+        <v>43627.6565162037</v>
       </c>
       <c r="B106" t="s">
         <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2">
-        <v>43617</v>
+        <v>43618</v>
       </c>
       <c r="E106" s="2"/>
       <c r="G106">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>43620.904687499999</v>
+        <v>43649.669988425929</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2">
-        <v>43618</v>
+        <v>43621</v>
       </c>
       <c r="E107" s="2"/>
       <c r="G107">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>43627.6565162037</v>
+        <v>43649.67628472222</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D108" s="2">
-        <v>43618</v>
+        <v>43621</v>
       </c>
       <c r="E108" s="2"/>
       <c r="G108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I108" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>43649.669988425929</v>
+        <v>43627.656689814816</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2">
-        <v>43621</v>
+        <v>43622</v>
       </c>
       <c r="E109" s="2"/>
       <c r="G109">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>43649.67628472222</v>
+        <v>43634.757048611114</v>
       </c>
       <c r="B110" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C110" t="s">
         <v>61</v>
       </c>
       <c r="D110" s="2">
-        <v>43621</v>
+        <v>43625</v>
       </c>
       <c r="E110" s="2"/>
       <c r="G110">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>43627.656689814816</v>
+        <v>43634.775960648149</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D111" s="2">
-        <v>43622</v>
+        <v>43625</v>
       </c>
       <c r="E111" s="2"/>
       <c r="G111">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I111" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>43634.757048611114</v>
+        <v>43634.721805555557</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
         <v>61</v>
       </c>
       <c r="D112" s="2">
-        <v>43625</v>
+        <v>43626</v>
       </c>
       <c r="E112" s="2"/>
       <c r="G112">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I112" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="1">
-        <v>43634.775960648149</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
+      <c r="A113" s="7">
+        <v>43643.14329861111</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2">
-        <v>43625</v>
+        <v>43627</v>
       </c>
       <c r="E113" s="2"/>
       <c r="G113">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>43634.721805555557</v>
+        <v>43634.75818287037</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D114" s="2">
-        <v>43626</v>
+        <v>43629</v>
       </c>
       <c r="E114" s="2"/>
       <c r="G114">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="7">
-        <v>43643.14329861111</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>130</v>
+      <c r="A115" s="1">
+        <v>43633.90730324074</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2">
-        <v>43627</v>
+        <v>43630</v>
       </c>
       <c r="E115" s="2"/>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>43634.75818287037</v>
+        <v>43633.907500000001</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2">
-        <v>43629</v>
+        <v>43632</v>
       </c>
       <c r="E116" s="2"/>
       <c r="G116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>43633.90730324074</v>
+        <v>43637.12096064815</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D117" s="2">
-        <v>43630</v>
+        <v>43633</v>
       </c>
       <c r="E117" s="2"/>
-      <c r="G117">
-        <v>1</v>
-      </c>
       <c r="I117" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>43633.907500000001</v>
+        <v>43637.132118055553</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D118" s="2">
-        <v>43632</v>
+        <v>43633</v>
       </c>
       <c r="E118" s="2"/>
       <c r="G118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I118" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="1">
-        <v>43637.12096064815</v>
-      </c>
-      <c r="B119" t="s">
-        <v>35</v>
+      <c r="A119" s="8">
+        <v>43634.723692129628</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2">
-        <v>43633</v>
+        <v>43634</v>
       </c>
       <c r="E119" s="2"/>
       <c r="I119" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="1">
-        <v>43637.132118055553</v>
+      <c r="A120" s="8">
+        <v>43634.751307870371</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C120" t="s">
         <v>21</v>
       </c>
       <c r="D120" s="2">
-        <v>43633</v>
+        <v>43634</v>
       </c>
       <c r="E120" s="2"/>
       <c r="G120">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I120" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="8">
-        <v>43634.723692129628</v>
-      </c>
-      <c r="B121" s="10" t="s">
+      <c r="A121" s="1">
+        <v>43634.735115740739</v>
+      </c>
+      <c r="B121" t="s">
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2">
-        <v>43634</v>
+        <v>43635</v>
       </c>
       <c r="E121" s="2"/>
+      <c r="G121">
+        <v>14</v>
+      </c>
       <c r="I121" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="8">
-        <v>43634.751307870371</v>
+      <c r="A122" s="1">
+        <v>43635.859166666669</v>
       </c>
       <c r="B122" t="s">
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D122" s="2">
-        <v>43634</v>
+        <v>43635</v>
       </c>
       <c r="E122" s="2"/>
       <c r="G122">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="H122">
+        <f>G122*1</f>
+        <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>43634.735115740739</v>
+        <v>43635.881273148145</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -4116,82 +4120,78 @@
       </c>
       <c r="E123" s="2"/>
       <c r="G123">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="1">
-        <v>43635.859166666669</v>
-      </c>
-      <c r="B124" t="s">
-        <v>43</v>
+      <c r="A124" s="7">
+        <v>43637.14329861111</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C124" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2">
         <v>43635</v>
       </c>
       <c r="E124" s="2"/>
       <c r="G124">
-        <v>2</v>
-      </c>
-      <c r="H124">
-        <f>G124*1</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>43635.881273148145</v>
+        <v>43637.600821759261</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2">
-        <v>43635</v>
+        <v>43636</v>
       </c>
       <c r="E125" s="2"/>
       <c r="G125">
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="7">
-        <v>43637.14329861111</v>
-      </c>
-      <c r="B126" s="9" t="s">
+      <c r="A126" s="1">
+        <v>43649.622928240744</v>
+      </c>
+      <c r="B126" t="s">
         <v>35</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2">
-        <v>43635</v>
+        <v>43638</v>
       </c>
       <c r="E126" s="2"/>
       <c r="G126">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="I126" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>43637.600821759261</v>
+        <v>43647.658634259256</v>
       </c>
       <c r="B127" t="s">
         <v>43</v>
@@ -4200,82 +4200,82 @@
         <v>13</v>
       </c>
       <c r="D127" s="2">
-        <v>43636</v>
+        <v>43641</v>
       </c>
       <c r="E127" s="2"/>
       <c r="G127">
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>43649.622928240744</v>
+        <v>43648.768055555556</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2">
-        <v>43638</v>
+        <v>43642</v>
       </c>
       <c r="E128" s="2"/>
       <c r="G128">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="I128" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>43647.658634259256</v>
+        <v>43671.60765046296</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D129" s="2">
-        <v>43641</v>
+        <v>43647</v>
       </c>
       <c r="E129" s="2"/>
       <c r="G129">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="H129">
+        <v>50</v>
       </c>
       <c r="I129" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>43648.768055555556</v>
+        <v>43676.827951388892</v>
       </c>
       <c r="B130" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D130" s="2">
-        <v>43642</v>
+        <v>43647</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="G130">
-        <v>6</v>
-      </c>
-      <c r="I130" t="s">
-        <v>144</v>
+      <c r="F130" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>43671.60765046296</v>
+        <v>43690.624560185184</v>
       </c>
       <c r="B131" t="s">
         <v>28</v>
@@ -4288,36 +4288,42 @@
       </c>
       <c r="E131" s="2"/>
       <c r="G131">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="I131" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>43676.827951388892</v>
+        <v>43690.624791666669</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D132" s="2">
-        <v>43647</v>
+        <v>43591</v>
       </c>
       <c r="E132" s="2"/>
-      <c r="F132" s="11" t="s">
-        <v>146</v>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>320</v>
+      </c>
+      <c r="I132" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>43690.624560185184</v>
+        <v>43690.624791666669</v>
       </c>
       <c r="B133" t="s">
         <v>28</v>
@@ -4330,13 +4336,13 @@
       </c>
       <c r="E133" s="2"/>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="I133" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4350,14 +4356,14 @@
         <v>61</v>
       </c>
       <c r="D134" s="2">
-        <v>43591</v>
+        <v>43739</v>
       </c>
       <c r="E134" s="2"/>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="I134" t="s">
         <v>148</v>
@@ -4374,177 +4380,171 @@
         <v>61</v>
       </c>
       <c r="D135" s="2">
-        <v>43647</v>
+        <v>43831</v>
       </c>
       <c r="E135" s="2"/>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="I135" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" ht="14.25" customHeight="1">
       <c r="A136" s="1">
-        <v>43690.624791666669</v>
+        <v>43741.767268518517</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D136" s="2">
-        <v>43739</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>400</v>
+        <v>43647</v>
+      </c>
+      <c r="E136" t="s">
+        <v>96</v>
       </c>
       <c r="I136" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>43690.624791666669</v>
+        <v>43648.765092592592</v>
       </c>
       <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2">
+        <v>43648</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="1">
+        <v>43651.648530092592</v>
+      </c>
+      <c r="B138" t="s">
         <v>28</v>
       </c>
-      <c r="C137" t="s">
-        <v>61</v>
-      </c>
-      <c r="D137" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>480</v>
-      </c>
-      <c r="I137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A138" s="1">
-        <v>43741.767268518517</v>
-      </c>
-      <c r="B138" t="s">
-        <v>35</v>
-      </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D138" s="2">
-        <v>43647</v>
-      </c>
-      <c r="E138" t="s">
-        <v>96</v>
+        <v>43649</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="G138">
+        <v>86</v>
       </c>
       <c r="I138" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>43648.765092592592</v>
+        <v>43654.639872685184</v>
       </c>
       <c r="B139" t="s">
         <v>45</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2">
-        <v>43648</v>
+        <v>43649</v>
       </c>
       <c r="E139" s="2"/>
-      <c r="F139" t="s">
-        <v>150</v>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>43651.648530092592</v>
+        <v>43766.894907407404</v>
       </c>
       <c r="B140" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D140" s="2">
         <v>43649</v>
       </c>
       <c r="E140" s="2"/>
       <c r="G140">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I140" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>43654.639872685184</v>
+        <v>43679.866759259261</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D141" s="2">
-        <v>43649</v>
+        <v>43655</v>
       </c>
       <c r="E141" s="2"/>
       <c r="G141">
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>43766.894907407404</v>
+        <v>43739.885752314818</v>
       </c>
       <c r="B142" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2">
-        <v>43649</v>
+        <v>43655</v>
       </c>
       <c r="E142" s="2"/>
       <c r="G142">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I142" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>43679.866759259261</v>
+        <v>43766.88721064815</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2">
         <v>43655</v>
@@ -4554,135 +4554,135 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>43739.885752314818</v>
+        <v>43766.819953703707</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D144" s="2">
-        <v>43655</v>
+        <v>43657</v>
       </c>
       <c r="E144" s="2"/>
       <c r="G144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>43766.88721064815</v>
+        <v>43739.886481481481</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D145" s="2">
-        <v>43655</v>
+        <v>43662</v>
       </c>
       <c r="E145" s="2"/>
       <c r="G145">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I145" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>43766.819953703707</v>
+        <v>43741.764016203706</v>
       </c>
       <c r="B146" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D146" s="2">
-        <v>43657</v>
+        <v>43664</v>
       </c>
       <c r="E146" s="2"/>
-      <c r="G146">
-        <v>1</v>
-      </c>
       <c r="I146" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>43739.886481481481</v>
+        <v>43766.821412037039</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C147" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D147" s="2">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="E147" s="2"/>
-      <c r="G147">
-        <v>11</v>
-      </c>
       <c r="I147" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>43741.764016203706</v>
+        <v>43738.798125000001</v>
       </c>
       <c r="B148" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D148" s="2">
-        <v>43664</v>
+        <v>43668</v>
       </c>
       <c r="E148" s="2"/>
+      <c r="G148">
+        <v>1</v>
+      </c>
       <c r="I148" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>43766.821412037039</v>
+        <v>43739.88349537037</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
       </c>
       <c r="D149" s="2">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="E149" s="2"/>
+      <c r="G149">
+        <v>35</v>
+      </c>
       <c r="I149" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>43738.798125000001</v>
+        <v>43766.887719907405</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -4692,399 +4692,399 @@
       </c>
       <c r="E150" s="2"/>
       <c r="G150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>43739.88349537037</v>
+        <v>43698.886388888888</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D151" s="2">
-        <v>43668</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="G151">
-        <v>35</v>
+        <v>43670</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="I151" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>43766.887719907405</v>
+        <v>43738.798402777778</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2">
-        <v>43668</v>
+        <v>43670</v>
       </c>
       <c r="E152" s="2"/>
       <c r="G152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>43698.886388888888</v>
+        <v>43741.76190972222</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D153" s="2">
-        <v>43670</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>43672</v>
+      </c>
+      <c r="E153" s="2"/>
       <c r="I153" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>43738.798402777778</v>
+        <v>43766.891192129631</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D154" s="2">
-        <v>43670</v>
+        <v>43672</v>
       </c>
       <c r="E154" s="2"/>
-      <c r="G154">
-        <v>1</v>
-      </c>
       <c r="I154" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>43741.76190972222</v>
+        <v>43738.801921296297</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D155" s="2">
-        <v>43672</v>
+        <v>43676</v>
       </c>
       <c r="E155" s="2"/>
+      <c r="G155">
+        <v>1</v>
+      </c>
       <c r="I155" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>43766.891192129631</v>
+        <v>43679.868344907409</v>
       </c>
       <c r="B156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2">
-        <v>43672</v>
+        <v>43677</v>
       </c>
       <c r="E156" s="2"/>
+      <c r="G156">
+        <v>6</v>
+      </c>
       <c r="I156" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>43738.801921296297</v>
+        <v>43766.891805555555</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C157" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D157" s="2">
-        <v>43676</v>
+        <v>43677</v>
       </c>
       <c r="E157" s="2"/>
       <c r="G157">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I157" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>43679.868344907409</v>
+        <v>43766.888090277775</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2">
-        <v>43677</v>
+        <v>43682</v>
       </c>
       <c r="E158" s="2"/>
       <c r="G158">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I158" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>43766.891805555555</v>
+        <v>43741.760833333334</v>
       </c>
       <c r="B159" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2">
-        <v>43677</v>
+        <v>43683</v>
       </c>
       <c r="E159" s="2"/>
       <c r="G159">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I159" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>43766.888090277775</v>
+        <v>43766.822199074071</v>
       </c>
       <c r="B160" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D160" s="2">
-        <v>43682</v>
+        <v>43683</v>
       </c>
       <c r="E160" s="2"/>
       <c r="G160">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1">
-        <v>43741.760833333334</v>
+        <v>43690.617384259262</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="2">
-        <v>43683</v>
+        <v>43684</v>
       </c>
       <c r="E161" s="2"/>
       <c r="G161">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>43766.822199074071</v>
+        <v>43738.667962962965</v>
       </c>
       <c r="B162" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2">
-        <v>43683</v>
+        <v>43685</v>
       </c>
       <c r="E162" s="2"/>
       <c r="G162">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I162" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1">
-        <v>43690.617384259262</v>
+        <v>43689.569803240738</v>
       </c>
       <c r="B163" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D163" s="2">
-        <v>43684</v>
-      </c>
-      <c r="E163" s="2"/>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="I163" t="s">
-        <v>175</v>
+        <v>43686</v>
+      </c>
+      <c r="E163" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>43738.667962962965</v>
+        <v>43689.570381944446</v>
       </c>
       <c r="B164" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D164" s="2">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="E164" s="2"/>
       <c r="G164">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="I164" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1">
-        <v>43689.569803240738</v>
+        <v>43739.884259259263</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D165" s="2">
-        <v>43686</v>
-      </c>
-      <c r="E165" t="s">
-        <v>177</v>
+        <v>43689</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="G165">
+        <v>20</v>
+      </c>
+      <c r="I165" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1">
-        <v>43689.570381944446</v>
+        <v>43766.893611111111</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C166" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D166" s="2">
-        <v>43686</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="G166">
-        <v>200</v>
+        <v>43691</v>
+      </c>
+      <c r="E166" t="s">
+        <v>180</v>
       </c>
       <c r="I166" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1">
-        <v>43739.884259259263</v>
+        <v>43739.882615740738</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D167" s="2">
-        <v>43689</v>
+        <v>43696</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="G167">
-        <v>20</v>
-      </c>
-      <c r="I167" t="s">
-        <v>179</v>
+      <c r="F167" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="1">
-        <v>43766.893611111111</v>
+        <v>43766.888425925928</v>
       </c>
       <c r="B168" t="s">
         <v>45</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D168" s="2">
-        <v>43691</v>
-      </c>
-      <c r="E168" t="s">
-        <v>180</v>
+        <v>43696</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="G168">
+        <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1">
-        <v>43739.882615740738</v>
+        <v>43711.568831018521</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2">
-        <v>43696</v>
+        <v>43699</v>
       </c>
       <c r="E169" s="2"/>
-      <c r="F169" t="s">
-        <v>182</v>
+      <c r="G169">
+        <v>5</v>
+      </c>
+      <c r="I169" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="1">
-        <v>43766.888425925928</v>
+        <v>43766.889166666668</v>
       </c>
       <c r="B170" t="s">
         <v>45</v>
@@ -5093,540 +5093,537 @@
         <v>13</v>
       </c>
       <c r="D170" s="2">
-        <v>43696</v>
+        <v>43699</v>
       </c>
       <c r="E170" s="2"/>
       <c r="G170">
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1">
-        <v>43711.568831018521</v>
+        <v>43741.763113425928</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2">
-        <v>43699</v>
+        <v>43703</v>
       </c>
       <c r="E171" s="2"/>
       <c r="G171">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I171" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="1">
-        <v>43766.889166666668</v>
+        <v>43766.823958333334</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C172" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D172" s="2">
-        <v>43699</v>
+        <v>43704</v>
       </c>
       <c r="E172" s="2"/>
       <c r="G172">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I172" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1">
-        <v>43741.763113425928</v>
+        <v>43706.023969907408</v>
       </c>
       <c r="B173" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D173" s="2">
-        <v>43703</v>
+        <v>43705</v>
       </c>
       <c r="E173" s="2"/>
       <c r="G173">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="I173" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="1">
-        <v>43766.823958333334</v>
+        <v>43711.568495370368</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C174" t="s">
         <v>21</v>
       </c>
       <c r="D174" s="2">
-        <v>43704</v>
+        <v>43706</v>
       </c>
       <c r="E174" s="2"/>
       <c r="G174">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I174" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1">
-        <v>43706.023969907408</v>
+        <v>43741.770671296297</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C175" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2">
-        <v>43705</v>
+        <v>43710</v>
       </c>
       <c r="E175" s="2"/>
       <c r="G175">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="1">
-        <v>43711.568495370368</v>
+        <v>43712.710358796299</v>
       </c>
       <c r="B176" t="s">
         <v>43</v>
       </c>
       <c r="C176" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D176" s="2">
-        <v>43706</v>
-      </c>
-      <c r="E176" s="2"/>
-      <c r="G176">
-        <v>60</v>
+        <v>43712</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="I176" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1">
-        <v>43741.770671296297</v>
+        <v>43729.624016203707</v>
       </c>
       <c r="B177" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D177" s="2">
-        <v>43710</v>
-      </c>
-      <c r="E177" s="2"/>
-      <c r="G177">
-        <v>1</v>
+        <v>43714</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="I177" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1">
-        <v>43712.710358796299</v>
+        <v>43763.750243055554</v>
       </c>
       <c r="B178" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D178" s="2">
-        <v>43712</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>191</v>
+        <v>43714</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="G178">
+        <v>25</v>
       </c>
       <c r="I178" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1">
-        <v>43729.624016203707</v>
+        <v>43738.668425925927</v>
       </c>
       <c r="B179" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C179" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D179" s="2">
-        <v>43714</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>193</v>
+        <v>43715</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="G179">
+        <v>8</v>
       </c>
       <c r="I179" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="1">
-        <v>43763.750243055554</v>
+        <v>43738.668877314813</v>
       </c>
       <c r="B180" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D180" s="2">
-        <v>43714</v>
+        <v>43715</v>
       </c>
       <c r="E180" s="2"/>
       <c r="G180">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I180" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1">
-        <v>43738.668425925927</v>
+        <v>43739.887245370373</v>
       </c>
       <c r="B181" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D181" s="2">
-        <v>43715</v>
+        <v>43718</v>
       </c>
       <c r="E181" s="2"/>
       <c r="G181">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I181" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="1">
-        <v>43738.668877314813</v>
+        <v>43766.889652777776</v>
       </c>
       <c r="B182" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C182" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D182" s="2">
-        <v>43715</v>
+        <v>43718</v>
       </c>
       <c r="E182" s="2"/>
       <c r="G182">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1">
-        <v>43739.887245370373</v>
+        <v>43766.805034722223</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C183" t="s">
         <v>21</v>
       </c>
       <c r="D183" s="2">
-        <v>43718</v>
+        <v>43720</v>
       </c>
       <c r="E183" s="2"/>
-      <c r="G183">
-        <v>45</v>
-      </c>
       <c r="I183" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1">
-        <v>43766.889652777776</v>
+        <v>43739.884745370371</v>
       </c>
       <c r="B184" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D184" s="2">
-        <v>43718</v>
+        <v>43721</v>
       </c>
       <c r="E184" s="2"/>
       <c r="G184">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I184" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1">
-        <v>43766.805034722223</v>
+        <v>43733.843854166669</v>
       </c>
       <c r="B185" t="s">
         <v>28</v>
       </c>
       <c r="C185" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D185" s="2">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E185" s="2"/>
+      <c r="G185">
+        <v>11</v>
+      </c>
       <c r="I185" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1">
-        <v>43739.884745370371</v>
+        <v>43739.887835648151</v>
       </c>
       <c r="B186" t="s">
         <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D186" s="2">
-        <v>43721</v>
+        <v>43722</v>
       </c>
       <c r="E186" s="2"/>
       <c r="G186">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I186" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1">
-        <v>43733.843854166669</v>
+        <v>43728.686550925922</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D187" s="2">
-        <v>43722</v>
-      </c>
-      <c r="E187" s="2"/>
-      <c r="G187">
-        <v>11</v>
+        <v>43724</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="I187" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1">
-        <v>43739.887835648151</v>
+        <v>43729.626122685186</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C188" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D188" s="2">
-        <v>43722</v>
-      </c>
-      <c r="E188" s="2"/>
-      <c r="G188">
-        <v>20</v>
+        <v>43726</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="I188" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="1">
-        <v>43728.686550925922</v>
+        <v>43733.844722222224</v>
       </c>
       <c r="B189" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D189" s="2">
-        <v>43724</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>203</v>
+        <v>43726</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="G189">
+        <v>20</v>
+      </c>
+      <c r="H189">
+        <v>50</v>
       </c>
       <c r="I189" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="1">
-        <v>43729.626122685186</v>
+        <v>43738.800740740742</v>
       </c>
       <c r="B190" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D190" s="2">
         <v>43726</v>
       </c>
-      <c r="E190" s="5" t="s">
-        <v>204</v>
+      <c r="E190" s="2"/>
+      <c r="G190">
+        <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1">
-        <v>43733.844722222224</v>
+        <v>43766.890439814815</v>
       </c>
       <c r="B191" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C191" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D191" s="2">
-        <v>43726</v>
+        <v>43727</v>
       </c>
       <c r="E191" s="2"/>
       <c r="G191">
-        <v>20</v>
-      </c>
-      <c r="H191">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="1">
-        <v>43738.800740740742</v>
+        <v>43738.667199074072</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D192" s="2">
-        <v>43726</v>
+        <v>43728</v>
       </c>
       <c r="E192" s="2"/>
       <c r="G192">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I192" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1">
-        <v>43766.890439814815</v>
+        <v>43738.802488425928</v>
       </c>
       <c r="B193" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D193" s="2">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="E193" s="2"/>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="1">
-        <v>43738.667199074072</v>
+        <v>43741.765625</v>
       </c>
       <c r="B194" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C194" t="s">
         <v>21</v>
       </c>
       <c r="D194" s="2">
-        <v>43728</v>
+        <v>43729</v>
       </c>
       <c r="E194" s="2"/>
-      <c r="G194">
-        <v>200</v>
-      </c>
       <c r="I194" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1">
-        <v>43738.802488425928</v>
+        <v>43738.799513888887</v>
       </c>
       <c r="B195" t="s">
         <v>15</v>
       </c>
       <c r="C195" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2">
-        <v>43728</v>
+        <v>43732</v>
       </c>
       <c r="E195" s="2"/>
       <c r="G195">
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="1">
-        <v>43741.765625</v>
+        <v>43741.768148148149</v>
       </c>
       <c r="B196" t="s">
         <v>35</v>
@@ -5635,262 +5632,265 @@
         <v>21</v>
       </c>
       <c r="D196" s="2">
-        <v>43729</v>
+        <v>43737</v>
       </c>
       <c r="E196" s="2"/>
       <c r="I196" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1">
-        <v>43738.799513888887</v>
+        <v>43759.934363425928</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
       </c>
       <c r="D197" s="2">
-        <v>43732</v>
+        <v>43740</v>
       </c>
       <c r="E197" s="2"/>
       <c r="G197">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I197" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1">
-        <v>43741.768148148149</v>
+        <v>43759.934652777774</v>
       </c>
       <c r="B198" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D198" s="2">
-        <v>43737</v>
+        <v>43743</v>
       </c>
       <c r="E198" s="2"/>
+      <c r="G198">
+        <v>28</v>
+      </c>
+      <c r="H198">
+        <v>1232</v>
+      </c>
       <c r="I198" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="1">
-        <v>43759.934363425928</v>
+        <v>43833.922858796293</v>
       </c>
       <c r="B199" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D199" s="2">
-        <v>43740</v>
+        <v>43743</v>
       </c>
       <c r="E199" s="2"/>
       <c r="G199">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I199" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="1">
-        <v>43759.934652777774</v>
+        <v>43861.778796296298</v>
       </c>
       <c r="B200" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C200" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D200" s="2">
         <v>43743</v>
       </c>
       <c r="E200" s="2"/>
       <c r="G200">
-        <v>28</v>
-      </c>
-      <c r="H200">
-        <v>1232</v>
+        <v>7</v>
       </c>
       <c r="I200" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="1">
-        <v>43833.922858796293</v>
+        <v>43817.907418981478</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C201" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D201" s="2">
-        <v>43743</v>
+        <v>43744</v>
       </c>
       <c r="E201" s="2"/>
-      <c r="G201">
-        <v>20</v>
-      </c>
       <c r="I201" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="1">
-        <v>43861.778796296298</v>
+        <v>43817.92465277778</v>
       </c>
       <c r="B202" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C202" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D202" s="2">
-        <v>43743</v>
+        <v>43748</v>
       </c>
       <c r="E202" s="2"/>
-      <c r="G202">
-        <v>7</v>
-      </c>
-      <c r="I202" t="s">
-        <v>217</v>
+      <c r="F202" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1">
-        <v>43817.907418981478</v>
+        <v>43861.779282407406</v>
       </c>
       <c r="B203" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D203" s="2">
-        <v>43744</v>
+        <v>43749</v>
       </c>
       <c r="E203" s="2"/>
+      <c r="G203">
+        <v>7</v>
+      </c>
       <c r="I203" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1">
-        <v>43817.92465277778</v>
+        <v>43753.723715277774</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C204" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D204" s="2">
-        <v>43748</v>
+        <v>43753</v>
       </c>
       <c r="E204" s="2"/>
-      <c r="F204" t="s">
-        <v>219</v>
+      <c r="G204">
+        <v>12</v>
+      </c>
+      <c r="H204">
+        <f>G204*6</f>
+        <v>72</v>
+      </c>
+      <c r="I204" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="1">
-        <v>43861.779282407406</v>
+        <v>43754.878865740742</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D205" s="2">
-        <v>43749</v>
+        <v>43754</v>
       </c>
       <c r="E205" s="2"/>
-      <c r="G205">
-        <v>7</v>
-      </c>
       <c r="I205" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="1">
-        <v>43753.723715277774</v>
+        <v>43766.809178240743</v>
       </c>
       <c r="B206" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C206" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D206" s="2">
-        <v>43753</v>
-      </c>
-      <c r="E206" s="2"/>
-      <c r="G206">
-        <v>12</v>
-      </c>
-      <c r="H206">
-        <f>G206*6</f>
-        <v>72</v>
+        <v>43754</v>
+      </c>
+      <c r="E206" t="s">
+        <v>223</v>
       </c>
       <c r="I206" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="1">
-        <v>43754.878865740742</v>
+        <v>43757.676412037035</v>
       </c>
       <c r="B207" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C207" t="s">
         <v>21</v>
       </c>
       <c r="D207" s="2">
-        <v>43754</v>
+        <v>43755</v>
       </c>
       <c r="E207" s="2"/>
+      <c r="G207">
+        <v>20</v>
+      </c>
       <c r="I207" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="1">
-        <v>43766.809178240743</v>
+        <v>43762.828159722223</v>
       </c>
       <c r="B208" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C208" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D208" s="2">
-        <v>43754</v>
-      </c>
-      <c r="E208" t="s">
-        <v>223</v>
+        <v>43755</v>
+      </c>
+      <c r="E208" s="2"/>
+      <c r="G208">
+        <v>4</v>
       </c>
       <c r="I208" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="1">
-        <v>43757.676412037035</v>
+        <v>43757.676874999997</v>
       </c>
       <c r="B209" t="s">
         <v>43</v>
@@ -5899,40 +5899,40 @@
         <v>21</v>
       </c>
       <c r="D209" s="2">
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="E209" s="2"/>
       <c r="G209">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I209" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1">
-        <v>43762.828159722223</v>
+        <v>43833.922314814816</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D210" s="2">
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="E210" s="2"/>
       <c r="G210">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="1">
-        <v>43757.676874999997</v>
+        <v>43762.58829861111</v>
       </c>
       <c r="B211" t="s">
         <v>43</v>
@@ -5941,223 +5941,222 @@
         <v>21</v>
       </c>
       <c r="D211" s="2">
-        <v>43756</v>
+        <v>43757</v>
       </c>
       <c r="E211" s="2"/>
       <c r="G211">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I211" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="1">
-        <v>43833.922314814816</v>
+        <v>43762.588761574072</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D212" s="2">
-        <v>43756</v>
+        <v>43760</v>
       </c>
       <c r="E212" s="2"/>
       <c r="G212">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I212" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1">
-        <v>43762.58829861111</v>
+        <v>43762.829421296294</v>
       </c>
       <c r="B213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C213" t="s">
         <v>21</v>
       </c>
       <c r="D213" s="2">
-        <v>43757</v>
+        <v>43761</v>
       </c>
       <c r="E213" s="2"/>
       <c r="G213">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I213" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="1">
-        <v>43762.588761574072</v>
+        <v>43833.918425925927</v>
       </c>
       <c r="B214" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
         <v>21</v>
       </c>
       <c r="D214" s="2">
-        <v>43760</v>
+        <v>43761</v>
       </c>
       <c r="E214" s="2"/>
       <c r="G214">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I214" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="1">
-        <v>43762.829421296294</v>
+        <v>43763.671655092592</v>
       </c>
       <c r="B215" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C215" t="s">
         <v>21</v>
       </c>
       <c r="D215" s="2">
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="E215" s="2"/>
       <c r="G215">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I215" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1">
-        <v>43833.918425925927</v>
+        <v>43766.800752314812</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C216" t="s">
         <v>21</v>
       </c>
       <c r="D216" s="2">
-        <v>43761</v>
+        <v>43763</v>
       </c>
       <c r="E216" s="2"/>
-      <c r="G216">
-        <v>60</v>
-      </c>
       <c r="I216" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="1">
-        <v>43763.671655092592</v>
+        <v>43766.808900462966</v>
       </c>
       <c r="B217" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D217" s="2">
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="G217">
-        <v>12</v>
-      </c>
       <c r="I217" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="1">
-        <v>43766.800752314812</v>
+        <v>43766.876851851855</v>
       </c>
       <c r="B218" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C218" t="s">
         <v>21</v>
       </c>
       <c r="D218" s="2">
-        <v>43763</v>
+        <v>43764</v>
       </c>
       <c r="E218" s="2"/>
+      <c r="G218">
+        <v>30</v>
+      </c>
       <c r="I218" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1">
-        <v>43766.808900462966</v>
+        <v>43833.919108796297</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D219" s="2">
-        <v>43763</v>
+        <v>43766</v>
       </c>
       <c r="E219" s="2"/>
+      <c r="G219">
+        <v>50</v>
+      </c>
       <c r="I219" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="1">
-        <v>43766.876851851855</v>
+        <v>43833.919999999998</v>
       </c>
       <c r="B220" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
         <v>21</v>
       </c>
       <c r="D220" s="2">
-        <v>43764</v>
+        <v>43766</v>
       </c>
       <c r="E220" s="2"/>
       <c r="G220">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I220" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="1">
-        <v>43833.919108796297</v>
+        <v>43833.917754629627</v>
       </c>
       <c r="B221" t="s">
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D221" s="2">
-        <v>43766</v>
-      </c>
-      <c r="E221" s="2"/>
-      <c r="G221">
-        <v>50</v>
+        <v>43767</v>
+      </c>
+      <c r="E221" t="s">
+        <v>239</v>
       </c>
       <c r="I221" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="1">
-        <v>43833.919999999998</v>
+        <v>43833.920474537037</v>
       </c>
       <c r="B222" t="s">
         <v>9</v>
@@ -6166,243 +6165,244 @@
         <v>21</v>
       </c>
       <c r="D222" s="2">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="E222" s="2"/>
       <c r="G222">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I222" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="1">
-        <v>43833.917754629627</v>
+        <v>43773.819062499999</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C223" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D223" s="2">
-        <v>43767</v>
-      </c>
-      <c r="E223" t="s">
-        <v>239</v>
-      </c>
+        <v>43768</v>
+      </c>
+      <c r="E223" s="2"/>
       <c r="I223" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="1">
-        <v>43833.920474537037</v>
+        <v>43789.580648148149</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D224" s="2">
-        <v>43767</v>
+        <v>43770</v>
       </c>
       <c r="E224" s="2"/>
       <c r="G224">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>120</v>
       </c>
       <c r="I224" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="1">
-        <v>43773.819062499999</v>
+        <v>43771.555405092593</v>
       </c>
       <c r="B225" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C225" t="s">
         <v>21</v>
       </c>
       <c r="D225" s="2">
-        <v>43768</v>
+        <v>43771</v>
       </c>
       <c r="E225" s="2"/>
+      <c r="G225">
+        <v>14</v>
+      </c>
       <c r="I225" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="1">
-        <v>43789.580648148149</v>
+        <v>43817.907754629632</v>
       </c>
       <c r="B226" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C226" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D226" s="2">
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="E226" s="2"/>
-      <c r="G226">
-        <v>1</v>
-      </c>
-      <c r="H226">
-        <v>120</v>
-      </c>
       <c r="I226" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="1">
-        <v>43771.555405092593</v>
+        <v>43773.818090277775</v>
       </c>
       <c r="B227" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C227" t="s">
         <v>21</v>
       </c>
       <c r="D227" s="2">
-        <v>43771</v>
+        <v>43773</v>
       </c>
       <c r="E227" s="2"/>
-      <c r="G227">
-        <v>14</v>
-      </c>
       <c r="I227" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1">
-        <v>43817.907754629632</v>
+        <v>43809.846851851849</v>
       </c>
       <c r="B228" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D228" s="2">
-        <v>43771</v>
+        <v>43774</v>
       </c>
       <c r="E228" s="2"/>
+      <c r="G228">
+        <v>1</v>
+      </c>
       <c r="I228" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="1">
-        <v>43773.818090277775</v>
+        <v>43776.890972222223</v>
       </c>
       <c r="B229" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C229" t="s">
         <v>21</v>
       </c>
       <c r="D229" s="2">
-        <v>43773</v>
+        <v>43776</v>
       </c>
       <c r="E229" s="2"/>
+      <c r="G229">
+        <v>20</v>
+      </c>
       <c r="I229" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="1">
-        <v>43809.846851851849</v>
+        <v>43777.880983796298</v>
       </c>
       <c r="B230" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D230" s="2">
-        <v>43774</v>
+        <v>43777</v>
       </c>
       <c r="E230" s="2"/>
       <c r="G230">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I230" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="1">
-        <v>43776.890972222223</v>
+        <v>43780.614247685182</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C231" t="s">
         <v>21</v>
       </c>
       <c r="D231" s="2">
-        <v>43776</v>
+        <v>43778</v>
       </c>
       <c r="E231" s="2"/>
       <c r="G231">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I231" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1">
-        <v>43777.880983796298</v>
+        <v>43780.614837962959</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C232" t="s">
         <v>21</v>
       </c>
       <c r="D232" s="2">
-        <v>43777</v>
+        <v>43778</v>
       </c>
       <c r="E232" s="2"/>
       <c r="G232">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I232" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="1">
-        <v>43780.614247685182</v>
+        <v>43781.848541666666</v>
       </c>
       <c r="B233" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C233" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D233" s="2">
-        <v>43778</v>
+        <v>43780</v>
       </c>
       <c r="E233" s="2"/>
       <c r="G233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="1">
-        <v>43780.614837962959</v>
+        <v>43782.972002314818</v>
       </c>
       <c r="B234" t="s">
         <v>28</v>
@@ -6411,222 +6411,220 @@
         <v>21</v>
       </c>
       <c r="D234" s="2">
-        <v>43778</v>
+        <v>43782</v>
       </c>
       <c r="E234" s="2"/>
       <c r="G234">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I234" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1">
-        <v>43781.848541666666</v>
+        <v>43789.581087962964</v>
       </c>
       <c r="B235" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="C235" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D235" s="2">
-        <v>43780</v>
+        <v>43787</v>
       </c>
       <c r="E235" s="2"/>
       <c r="G235">
         <v>1</v>
       </c>
+      <c r="H235">
+        <v>50</v>
+      </c>
       <c r="I235" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="1">
-        <v>43782.972002314818</v>
+        <v>43836.690509259257</v>
       </c>
       <c r="B236" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C236" t="s">
         <v>21</v>
       </c>
       <c r="D236" s="2">
-        <v>43782</v>
+        <v>43788</v>
       </c>
       <c r="E236" s="2"/>
       <c r="G236">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="1">
-        <v>43789.581087962964</v>
+        <v>43818.635567129626</v>
       </c>
       <c r="B237" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C237" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D237" s="2">
-        <v>43787</v>
-      </c>
-      <c r="E237" s="2"/>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="H237">
-        <v>50</v>
+        <v>43790</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="I237" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="1">
-        <v>43836.690509259257</v>
+        <v>43861.778101851851</v>
       </c>
       <c r="B238" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C238" t="s">
         <v>21</v>
       </c>
       <c r="D238" s="2">
-        <v>43788</v>
+        <v>43790</v>
       </c>
       <c r="E238" s="2"/>
       <c r="G238">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I238" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="1">
-        <v>43818.635567129626</v>
+        <v>43836.691168981481</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D239" s="2">
-        <v>43790</v>
-      </c>
-      <c r="E239" s="5" t="s">
-        <v>256</v>
+        <v>43791</v>
+      </c>
+      <c r="E239" s="2"/>
+      <c r="G239">
+        <v>2</v>
       </c>
       <c r="I239" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="1">
-        <v>43861.778101851851</v>
+        <v>43802.1721875</v>
       </c>
       <c r="B240" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C240" t="s">
         <v>21</v>
       </c>
       <c r="D240" s="2">
-        <v>43790</v>
+        <v>43802</v>
       </c>
       <c r="E240" s="2"/>
-      <c r="G240">
-        <v>50</v>
-      </c>
       <c r="I240" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="1">
-        <v>43836.691168981481</v>
+        <v>43802.178773148145</v>
       </c>
       <c r="B241" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D241" s="2">
-        <v>43791</v>
+        <v>43804</v>
       </c>
       <c r="E241" s="2"/>
-      <c r="G241">
-        <v>2</v>
-      </c>
       <c r="I241" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="1">
-        <v>43802.1721875</v>
+        <v>43812.713796296295</v>
       </c>
       <c r="B242" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D242" s="2">
-        <v>43802</v>
+        <v>43808</v>
       </c>
       <c r="E242" s="2"/>
-      <c r="I242" t="s">
-        <v>260</v>
+      <c r="F242" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="1">
-        <v>43802.178773148145</v>
+        <v>43810.744039351855</v>
       </c>
       <c r="B243" t="s">
         <v>28</v>
       </c>
       <c r="C243" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D243" s="2">
-        <v>43804</v>
-      </c>
-      <c r="E243" s="2"/>
+        <v>43809</v>
+      </c>
+      <c r="E243" t="s">
+        <v>264</v>
+      </c>
       <c r="I243" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="1">
-        <v>43812.713796296295</v>
+        <v>43810.74324074074</v>
       </c>
       <c r="B244" t="s">
-        <v>262</v>
+        <v>28</v>
       </c>
       <c r="C244" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D244" s="2">
-        <v>43808</v>
-      </c>
-      <c r="E244" s="2"/>
-      <c r="F244" t="s">
-        <v>263</v>
+        <v>43810</v>
+      </c>
+      <c r="E244" t="s">
+        <v>266</v>
+      </c>
+      <c r="I244" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="1">
-        <v>43810.744039351855</v>
+        <v>43810.743668981479</v>
       </c>
       <c r="B245" t="s">
         <v>28</v>
@@ -6635,181 +6633,180 @@
         <v>16</v>
       </c>
       <c r="D245" s="2">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="E245" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I245" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="1">
-        <v>43810.74324074074</v>
+        <v>43812.711759259262</v>
       </c>
       <c r="B246" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="C246" t="s">
         <v>16</v>
       </c>
       <c r="D246" s="2">
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="E246" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I246" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1">
-        <v>43810.743668981479</v>
+        <v>43818.636030092595</v>
       </c>
       <c r="B247" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C247" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D247" s="2">
-        <v>43810</v>
-      </c>
-      <c r="E247" t="s">
-        <v>268</v>
+        <v>43817</v>
+      </c>
+      <c r="E247" s="2"/>
+      <c r="G247">
+        <v>1</v>
       </c>
       <c r="I247" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="1">
-        <v>43812.711759259262</v>
+        <v>43861.918692129628</v>
       </c>
       <c r="B248" t="s">
-        <v>262</v>
+        <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D248" s="2">
-        <v>43811</v>
-      </c>
-      <c r="E248" t="s">
-        <v>270</v>
-      </c>
-      <c r="I248" t="s">
-        <v>271</v>
+        <v>43826</v>
+      </c>
+      <c r="E248" s="2"/>
+      <c r="F248" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="1">
-        <v>43818.636030092595</v>
+        <v>43834.677800925929</v>
       </c>
       <c r="B249" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
       </c>
       <c r="D249" s="2">
-        <v>43817</v>
+        <v>43831</v>
       </c>
       <c r="E249" s="2"/>
       <c r="G249">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I249" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="1">
-        <v>43861.918692129628</v>
+        <v>43833.66547453704</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="C250" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D250" s="2">
-        <v>43826</v>
-      </c>
-      <c r="E250" s="2"/>
-      <c r="F250" t="s">
-        <v>273</v>
+        <v>43832</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I250" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="1">
-        <v>43834.677800925929</v>
+        <v>43843.74900462963</v>
       </c>
       <c r="B251" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D251" s="2">
-        <v>43831</v>
-      </c>
-      <c r="E251" s="2"/>
+        <v>43838</v>
+      </c>
+      <c r="E251" t="s">
+        <v>277</v>
+      </c>
       <c r="G251">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I251" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="1">
-        <v>43833.66547453704</v>
+        <v>43858.879895833335</v>
       </c>
       <c r="B252" t="s">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="C252" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D252" s="2">
-        <v>43832</v>
-      </c>
-      <c r="E252" s="5" t="s">
-        <v>275</v>
+        <v>43852</v>
+      </c>
+      <c r="E252" s="2"/>
+      <c r="G252">
+        <v>15</v>
       </c>
       <c r="I252" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="1">
-        <v>43843.74900462963</v>
+        <v>43859.769270833334</v>
       </c>
       <c r="B253" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C253" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D253" s="2">
-        <v>43838</v>
-      </c>
-      <c r="E253" t="s">
-        <v>277</v>
-      </c>
-      <c r="G253">
-        <v>50</v>
-      </c>
-      <c r="I253" t="s">
-        <v>278</v>
+        <v>43852</v>
+      </c>
+      <c r="E253" s="2"/>
+      <c r="F253" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="1">
-        <v>43858.879895833335</v>
+        <v>43861.711574074077</v>
       </c>
       <c r="B254" t="s">
         <v>43</v>
@@ -6818,76 +6815,79 @@
         <v>21</v>
       </c>
       <c r="D254" s="2">
-        <v>43852</v>
+        <v>43860</v>
       </c>
       <c r="E254" s="2"/>
       <c r="G254">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="I254" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="1">
-        <v>43859.769270833334</v>
+        <v>43861.779849537037</v>
       </c>
       <c r="B255" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D255" s="2">
-        <v>43852</v>
+        <v>43861</v>
       </c>
       <c r="E255" s="2"/>
-      <c r="F255" t="s">
-        <v>280</v>
+      <c r="I255" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="1">
-        <v>43861.711574074077</v>
+        <v>43863.019212962965</v>
       </c>
       <c r="B256" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C256" t="s">
         <v>21</v>
       </c>
       <c r="D256" s="2">
-        <v>43860</v>
+        <v>43862</v>
       </c>
       <c r="E256" s="2"/>
-      <c r="G256">
-        <v>125</v>
-      </c>
       <c r="I256" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="1">
-        <v>43861.779849537037</v>
+        <v>43875.938101851854</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C257" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D257" s="2">
-        <v>43861</v>
+        <v>43867</v>
       </c>
       <c r="E257" s="2"/>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
       <c r="I257" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="1">
-        <v>43863.019212962965</v>
+        <v>43875.939270833333</v>
       </c>
       <c r="B258" t="s">
         <v>28</v>
@@ -6896,40 +6896,34 @@
         <v>21</v>
       </c>
       <c r="D258" s="2">
-        <v>43862</v>
+        <v>43874</v>
       </c>
       <c r="E258" s="2"/>
-      <c r="I258" t="s">
-        <v>283</v>
-      </c>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="1">
-        <v>43875.938101851854</v>
+        <v>43886.958182870374</v>
       </c>
       <c r="B259" t="s">
         <v>28</v>
       </c>
       <c r="C259" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D259" s="2">
-        <v>43867</v>
+        <v>43885</v>
       </c>
       <c r="E259" s="2"/>
-      <c r="G259">
-        <v>1</v>
-      </c>
-      <c r="H259">
-        <v>1</v>
+      <c r="F259" t="s">
+        <v>285</v>
       </c>
       <c r="I259" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="1">
-        <v>43875.939270833333</v>
+        <v>43892.691817129627</v>
       </c>
       <c r="B260" t="s">
         <v>28</v>
@@ -6938,91 +6932,94 @@
         <v>21</v>
       </c>
       <c r="D260" s="2">
-        <v>43874</v>
+        <v>43888</v>
       </c>
       <c r="E260" s="2"/>
+      <c r="I260" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="1">
-        <v>43886.958182870374</v>
+        <v>43899.609166666669</v>
       </c>
       <c r="B261" t="s">
         <v>28</v>
       </c>
       <c r="C261" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D261" s="2">
-        <v>43885</v>
+        <v>43690</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" t="s">
-        <v>285</v>
-      </c>
-      <c r="I261" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="1">
-        <v>43892.691817129627</v>
+        <v>43899.822476851848</v>
       </c>
       <c r="B262" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C262" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D262" s="2">
-        <v>43888</v>
+        <v>43836</v>
       </c>
       <c r="E262" s="2"/>
+      <c r="F262" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="I262" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="1">
-        <v>43899.609166666669</v>
+        <v>43899.823437500003</v>
       </c>
       <c r="B263" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C263" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D263" s="2">
-        <v>43690</v>
+        <v>43843</v>
       </c>
       <c r="E263" s="2"/>
-      <c r="F263" t="s">
-        <v>288</v>
+      <c r="I263" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="1">
-        <v>43899.822476851848</v>
+        <v>43899.824756944443</v>
       </c>
       <c r="B264" t="s">
         <v>35</v>
       </c>
       <c r="C264" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D264" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="E264" s="2"/>
-      <c r="F264" s="5" t="s">
-        <v>289</v>
+      <c r="G264">
+        <v>14</v>
       </c>
       <c r="I264" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="1">
-        <v>43899.823437500003</v>
+        <v>43899.825312499997</v>
       </c>
       <c r="B265" t="s">
         <v>35</v>
@@ -7031,37 +7028,34 @@
         <v>21</v>
       </c>
       <c r="D265" s="2">
-        <v>43843</v>
+        <v>43876</v>
       </c>
       <c r="E265" s="2"/>
-      <c r="I265" s="5" t="s">
-        <v>291</v>
+      <c r="I265" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="1">
-        <v>43899.824756944443</v>
+        <v>43899.825694444444</v>
       </c>
       <c r="B266" t="s">
         <v>35</v>
       </c>
       <c r="C266" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D266" s="2">
-        <v>43866</v>
+        <v>43876</v>
       </c>
       <c r="E266" s="2"/>
-      <c r="G266">
-        <v>14</v>
-      </c>
       <c r="I266" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="1">
-        <v>43899.825312499997</v>
+        <v>43899.826585648145</v>
       </c>
       <c r="B267" t="s">
         <v>35</v>
@@ -7070,16 +7064,18 @@
         <v>21</v>
       </c>
       <c r="D267" s="2">
-        <v>43876</v>
-      </c>
-      <c r="E267" s="2"/>
+        <v>43872</v>
+      </c>
+      <c r="E267" t="s">
+        <v>295</v>
+      </c>
       <c r="I267" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="1">
-        <v>43899.825694444444</v>
+        <v>43899.827326388891</v>
       </c>
       <c r="B268" t="s">
         <v>35</v>
@@ -7088,16 +7084,18 @@
         <v>21</v>
       </c>
       <c r="D268" s="2">
-        <v>43876</v>
-      </c>
-      <c r="E268" s="2"/>
+        <v>43873</v>
+      </c>
+      <c r="E268" t="s">
+        <v>297</v>
+      </c>
       <c r="I268" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="1">
-        <v>43899.826585648145</v>
+        <v>43899.827893518515</v>
       </c>
       <c r="B269" t="s">
         <v>35</v>
@@ -7106,18 +7104,16 @@
         <v>21</v>
       </c>
       <c r="D269" s="2">
-        <v>43872</v>
-      </c>
-      <c r="E269" t="s">
-        <v>295</v>
-      </c>
+        <v>43882</v>
+      </c>
+      <c r="E269" s="2"/>
       <c r="I269" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1">
-        <v>43899.827326388891</v>
+        <v>43899.828194444446</v>
       </c>
       <c r="B270" t="s">
         <v>35</v>
@@ -7126,18 +7122,16 @@
         <v>21</v>
       </c>
       <c r="D270" s="2">
-        <v>43873</v>
-      </c>
-      <c r="E270" t="s">
-        <v>297</v>
-      </c>
+        <v>43885</v>
+      </c>
+      <c r="E270" s="2"/>
       <c r="I270" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="1">
-        <v>43899.827893518515</v>
+        <v>43899.828761574077</v>
       </c>
       <c r="B271" t="s">
         <v>35</v>
@@ -7146,52 +7140,56 @@
         <v>21</v>
       </c>
       <c r="D271" s="2">
-        <v>43882</v>
+        <v>43867</v>
       </c>
       <c r="E271" s="2"/>
       <c r="I271" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="1">
-        <v>43899.828194444446</v>
+        <v>43899.831238425926</v>
       </c>
       <c r="B272" t="s">
         <v>35</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D272" s="2">
-        <v>43885</v>
-      </c>
-      <c r="E272" s="2"/>
+        <v>43854</v>
+      </c>
+      <c r="E272" t="s">
+        <v>302</v>
+      </c>
       <c r="I272" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="1">
-        <v>43899.828761574077</v>
+        <v>43899.832048611112</v>
       </c>
       <c r="B273" t="s">
         <v>35</v>
       </c>
       <c r="C273" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D273" s="2">
         <v>43867</v>
       </c>
-      <c r="E273" s="2"/>
+      <c r="E273" t="s">
+        <v>304</v>
+      </c>
       <c r="I273" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="1">
-        <v>43899.831238425926</v>
+        <v>43899.832395833335</v>
       </c>
       <c r="B274" t="s">
         <v>35</v>
@@ -7200,18 +7198,18 @@
         <v>16</v>
       </c>
       <c r="D274" s="2">
-        <v>43854</v>
+        <v>43840</v>
       </c>
       <c r="E274" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I274" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" s="1">
-        <v>43899.832048611112</v>
+        <v>43899.833009259259</v>
       </c>
       <c r="B275" t="s">
         <v>35</v>
@@ -7220,18 +7218,18 @@
         <v>16</v>
       </c>
       <c r="D275" s="2">
-        <v>43867</v>
+        <v>43837</v>
       </c>
       <c r="E275" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I275" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="1">
-        <v>43899.832395833335</v>
+        <v>43899.83353009259</v>
       </c>
       <c r="B276" t="s">
         <v>35</v>
@@ -7240,58 +7238,57 @@
         <v>16</v>
       </c>
       <c r="D276" s="2">
-        <v>43840</v>
+        <v>43836</v>
       </c>
       <c r="E276" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I276" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="1">
-        <v>43899.833009259259</v>
+        <v>43902.615520833337</v>
       </c>
       <c r="B277" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C277" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D277" s="2">
-        <v>43837</v>
-      </c>
-      <c r="E277" t="s">
-        <v>308</v>
+        <v>43901</v>
+      </c>
+      <c r="E277" s="2"/>
+      <c r="G277">
+        <v>25</v>
       </c>
       <c r="I277" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="1">
-        <v>43899.83353009259</v>
+        <v>43914.617013888892</v>
       </c>
       <c r="B278" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C278" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D278" s="2">
-        <v>43836</v>
-      </c>
-      <c r="E278" t="s">
-        <v>310</v>
-      </c>
+        <v>43911</v>
+      </c>
+      <c r="E278" s="2"/>
       <c r="I278" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="1">
-        <v>43902.615520833337</v>
+        <v>43921.605405092596</v>
       </c>
       <c r="B279" t="s">
         <v>43</v>
@@ -7300,58 +7297,55 @@
         <v>21</v>
       </c>
       <c r="D279" s="2">
-        <v>43901</v>
+        <v>43920</v>
       </c>
       <c r="E279" s="2"/>
       <c r="G279">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I279" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="1">
-        <v>43914.617013888892</v>
+        <v>43921.718981481485</v>
       </c>
       <c r="B280" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C280" t="s">
         <v>21</v>
       </c>
       <c r="D280" s="2">
-        <v>43911</v>
+        <v>43847</v>
       </c>
       <c r="E280" s="2"/>
       <c r="I280" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="1">
-        <v>43921.605405092596</v>
+        <v>43921.719467592593</v>
       </c>
       <c r="B281" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C281" t="s">
         <v>21</v>
       </c>
       <c r="D281" s="2">
-        <v>43920</v>
+        <v>43890</v>
       </c>
       <c r="E281" s="2"/>
-      <c r="G281">
-        <v>12</v>
-      </c>
       <c r="I281" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="1">
-        <v>43921.718981481485</v>
+        <v>43921.720173611109</v>
       </c>
       <c r="B282" t="s">
         <v>130</v>
@@ -7360,93 +7354,93 @@
         <v>21</v>
       </c>
       <c r="D282" s="2">
-        <v>43847</v>
+        <v>43874</v>
       </c>
       <c r="E282" s="2"/>
       <c r="I282" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="1">
-        <v>43921.719467592593</v>
+        <v>43921.721006944441</v>
       </c>
       <c r="B283" t="s">
         <v>130</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D283" s="2">
-        <v>43890</v>
+        <v>43864</v>
       </c>
       <c r="E283" s="2"/>
+      <c r="G283">
+        <v>9</v>
+      </c>
       <c r="I283" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="1">
-        <v>43921.720173611109</v>
+        <v>43922.926342592589</v>
       </c>
       <c r="B284" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D284" s="2">
-        <v>43874</v>
-      </c>
-      <c r="E284" s="2"/>
+        <v>43852</v>
+      </c>
+      <c r="E284" t="s">
+        <v>319</v>
+      </c>
       <c r="I284" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="1">
-        <v>43921.721006944441</v>
+        <v>43922.926736111112</v>
       </c>
       <c r="B285" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D285" s="2">
-        <v>43864</v>
+        <v>43857</v>
       </c>
       <c r="E285" s="2"/>
-      <c r="G285">
-        <v>9</v>
-      </c>
       <c r="I285" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="1">
-        <v>43922.926342592589</v>
+        <v>43922.926979166667</v>
       </c>
       <c r="B286" t="s">
         <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D286" s="2">
-        <v>43852</v>
-      </c>
-      <c r="E286" t="s">
-        <v>319</v>
-      </c>
+        <v>43885</v>
+      </c>
+      <c r="E286" s="2"/>
       <c r="I286" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="1">
-        <v>43922.926736111112</v>
+        <v>43922.927164351851</v>
       </c>
       <c r="B287" t="s">
         <v>9</v>
@@ -7455,7 +7449,7 @@
         <v>21</v>
       </c>
       <c r="D287" s="2">
-        <v>43857</v>
+        <v>43913</v>
       </c>
       <c r="E287" s="2"/>
       <c r="I287" t="s">
@@ -7464,500 +7458,500 @@
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="1">
-        <v>43922.926979166667</v>
+        <v>43922.927974537037</v>
       </c>
       <c r="B288" t="s">
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D288" s="2">
-        <v>43885</v>
+        <v>43847</v>
       </c>
       <c r="E288" s="2"/>
+      <c r="G288">
+        <v>1</v>
+      </c>
       <c r="I288" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="1">
-        <v>43922.927164351851</v>
+        <v>43922.928414351853</v>
       </c>
       <c r="B289" t="s">
         <v>9</v>
       </c>
       <c r="C289" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D289" s="2">
-        <v>43913</v>
+        <v>43902</v>
       </c>
       <c r="E289" s="2"/>
+      <c r="G289">
+        <v>5</v>
+      </c>
       <c r="I289" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="1">
-        <v>43922.927974537037</v>
+        <v>43922.929108796299</v>
       </c>
       <c r="B290" t="s">
         <v>9</v>
       </c>
       <c r="C290" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D290" s="2">
-        <v>43847</v>
+        <v>43900</v>
       </c>
       <c r="E290" s="2"/>
       <c r="G290">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I290" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="1">
-        <v>43922.928414351853</v>
+        <v>43922.930011574077</v>
       </c>
       <c r="B291" t="s">
         <v>9</v>
       </c>
       <c r="C291" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D291" s="2">
         <v>43902</v>
       </c>
       <c r="E291" s="2"/>
       <c r="G291">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I291" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="1">
-        <v>43922.929108796299</v>
+        <v>43923.79215277778</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="C292" t="s">
         <v>21</v>
       </c>
       <c r="D292" s="2">
-        <v>43900</v>
+        <v>43874</v>
       </c>
       <c r="E292" s="2"/>
       <c r="G292">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I292" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="293" spans="1:9">
       <c r="A293" s="1">
-        <v>43922.930011574077</v>
+        <v>43923.79310185185</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="C293" t="s">
         <v>61</v>
       </c>
       <c r="D293" s="2">
-        <v>43902</v>
-      </c>
-      <c r="E293" s="2"/>
-      <c r="G293">
-        <v>34</v>
+        <v>43881</v>
+      </c>
+      <c r="E293" t="s">
+        <v>327</v>
       </c>
       <c r="I293" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="1">
-        <v>43923.79215277778</v>
+        <v>43923.79383101852</v>
       </c>
       <c r="B294" t="s">
         <v>262</v>
       </c>
       <c r="C294" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D294" s="2">
-        <v>43874</v>
-      </c>
-      <c r="E294" s="2"/>
-      <c r="G294">
-        <v>20</v>
+        <v>43893</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="I294" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="295" spans="1:9">
       <c r="A295" s="1">
-        <v>43923.79310185185</v>
+        <v>43923.794479166667</v>
       </c>
       <c r="B295" t="s">
         <v>262</v>
       </c>
       <c r="C295" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D295" s="2">
-        <v>43881</v>
-      </c>
-      <c r="E295" t="s">
-        <v>327</v>
+        <v>43885</v>
+      </c>
+      <c r="E295" s="2"/>
+      <c r="G295">
+        <v>4</v>
       </c>
       <c r="I295" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="296" spans="1:9">
       <c r="A296" s="1">
-        <v>43923.79383101852</v>
+        <v>43923.795162037037</v>
       </c>
       <c r="B296" t="s">
         <v>262</v>
       </c>
       <c r="C296" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D296" s="2">
-        <v>43893</v>
-      </c>
-      <c r="E296" s="5" t="s">
-        <v>329</v>
+        <v>43847</v>
+      </c>
+      <c r="E296" s="2"/>
+      <c r="G296">
+        <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="1">
-        <v>43923.794479166667</v>
+        <v>43923.795844907407</v>
       </c>
       <c r="B297" t="s">
         <v>262</v>
       </c>
       <c r="C297" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D297" s="2">
-        <v>43885</v>
+        <v>43907</v>
       </c>
       <c r="E297" s="2"/>
       <c r="G297">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I297" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="1">
-        <v>43923.795162037037</v>
+        <v>43923.814375000002</v>
       </c>
       <c r="B298" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="C298" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D298" s="2">
-        <v>43847</v>
+        <v>43915</v>
       </c>
       <c r="E298" s="2"/>
       <c r="G298">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I298" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" s="1">
-        <v>43923.795844907407</v>
+        <v>43923.816157407404</v>
       </c>
       <c r="B299" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="C299" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D299" s="2">
-        <v>43907</v>
+        <v>43901</v>
       </c>
       <c r="E299" s="2"/>
-      <c r="G299">
-        <v>1</v>
+      <c r="G299" t="s">
+        <v>335</v>
       </c>
       <c r="I299" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="A300" s="1">
-        <v>43923.814375000002</v>
+        <v>43923.817025462966</v>
       </c>
       <c r="B300" t="s">
         <v>15</v>
       </c>
       <c r="C300" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D300" s="2">
-        <v>43915</v>
+        <v>43906</v>
       </c>
       <c r="E300" s="2"/>
       <c r="G300">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I300" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="1">
-        <v>43923.816157407404</v>
+        <v>43924.789768518516</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C301" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D301" s="2">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="E301" s="2"/>
-      <c r="G301" t="s">
-        <v>335</v>
-      </c>
-      <c r="I301" t="s">
-        <v>336</v>
+      <c r="F301" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="1">
-        <v>43923.817025462966</v>
+        <v>43924.790266203701</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C302" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D302" s="2">
-        <v>43906</v>
+        <v>43901</v>
       </c>
       <c r="E302" s="2"/>
       <c r="G302">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I302" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="A303" s="1">
-        <v>43924.789768518516</v>
+        <v>43924.790879629632</v>
       </c>
       <c r="B303" t="s">
         <v>26</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D303" s="2">
-        <v>43893</v>
+        <v>43922</v>
       </c>
       <c r="E303" s="2"/>
-      <c r="F303" t="s">
-        <v>338</v>
+      <c r="G303">
+        <v>100</v>
+      </c>
+      <c r="I303" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="304" spans="1:9">
       <c r="A304" s="1">
-        <v>43924.790266203701</v>
+        <v>43924.805868055555</v>
       </c>
       <c r="B304" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C304" t="s">
         <v>21</v>
       </c>
       <c r="D304" s="2">
-        <v>43901</v>
+        <v>43841</v>
       </c>
       <c r="E304" s="2"/>
-      <c r="G304">
-        <v>12</v>
-      </c>
       <c r="I304" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" s="1">
-        <v>43924.790879629632</v>
+        <v>43926.646006944444</v>
       </c>
       <c r="B305" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C305" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D305" s="2">
-        <v>43922</v>
+        <v>43815</v>
       </c>
       <c r="E305" s="2"/>
-      <c r="G305">
-        <v>100</v>
-      </c>
-      <c r="I305" t="s">
-        <v>340</v>
+      <c r="F305" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="306" spans="1:9">
       <c r="A306" s="1">
-        <v>43924.805868055555</v>
+        <v>43928.74554398148</v>
       </c>
       <c r="B306" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C306" t="s">
         <v>21</v>
       </c>
       <c r="D306" s="2">
-        <v>43841</v>
+        <v>43897</v>
       </c>
       <c r="E306" s="2"/>
+      <c r="G306">
+        <v>18</v>
+      </c>
       <c r="I306" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="307" spans="1:9">
       <c r="A307" s="1">
-        <v>43926.646006944444</v>
+        <v>43928.746782407405</v>
       </c>
       <c r="B307" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C307" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D307" s="2">
-        <v>43815</v>
+        <v>43897</v>
       </c>
       <c r="E307" s="2"/>
-      <c r="F307" t="s">
-        <v>342</v>
+      <c r="G307">
+        <v>16</v>
+      </c>
+      <c r="H307">
+        <v>484</v>
+      </c>
+      <c r="I307" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="1">
-        <v>43928.74554398148</v>
+        <v>43928.752442129633</v>
       </c>
       <c r="B308" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D308" s="2">
-        <v>43897</v>
+        <v>43904</v>
       </c>
       <c r="E308" s="2"/>
       <c r="G308">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I308" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="309" spans="1:9">
       <c r="A309" s="1">
-        <v>43928.746782407405</v>
+        <v>43928.990844907406</v>
       </c>
       <c r="B309" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C309" t="s">
         <v>61</v>
       </c>
       <c r="D309" s="2">
-        <v>43897</v>
+        <v>43873</v>
       </c>
       <c r="E309" s="2"/>
       <c r="G309">
-        <v>16</v>
-      </c>
-      <c r="H309">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="I309" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="1">
-        <v>43928.752442129633</v>
+        <v>43943.660127314812</v>
       </c>
       <c r="B310" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C310" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D310" s="2">
-        <v>43904</v>
+        <v>43939</v>
       </c>
       <c r="E310" s="2"/>
-      <c r="G310">
-        <v>1</v>
-      </c>
       <c r="I310" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="311" spans="1:9">
       <c r="A311" s="1">
-        <v>43928.990844907406</v>
+        <v>43952.622152777774</v>
       </c>
       <c r="B311" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C311" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D311" s="2">
-        <v>43873</v>
+        <v>43936</v>
       </c>
       <c r="E311" s="2"/>
-      <c r="G311">
-        <v>2</v>
-      </c>
       <c r="I311" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="312" spans="1:9">
       <c r="A312" s="1">
-        <v>43943.660127314812</v>
+        <v>43952.622488425928</v>
       </c>
       <c r="B312" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C312" t="s">
         <v>21</v>
@@ -7967,177 +7961,141 @@
       </c>
       <c r="E312" s="2"/>
       <c r="I312" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="313" spans="1:9">
       <c r="A313" s="1">
-        <v>43952.622152777774</v>
+        <v>43956.726342592592</v>
       </c>
       <c r="B313" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="C313" t="s">
         <v>21</v>
       </c>
       <c r="D313" s="2">
-        <v>43936</v>
+        <v>43847</v>
       </c>
       <c r="E313" s="2"/>
       <c r="I313" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1">
-        <v>43952.622488425928</v>
+        <v>43959.748703703706</v>
       </c>
       <c r="B314" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C314" t="s">
         <v>21</v>
       </c>
       <c r="D314" s="2">
-        <v>43939</v>
+        <v>43959</v>
       </c>
       <c r="E314" s="2"/>
       <c r="I314" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="315" spans="1:9">
       <c r="A315" s="1">
-        <v>43956.726342592592</v>
+        <v>43959.758564814816</v>
       </c>
       <c r="B315" t="s">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="C315" t="s">
         <v>21</v>
       </c>
       <c r="D315" s="2">
-        <v>43847</v>
+        <v>43936</v>
       </c>
       <c r="E315" s="2"/>
       <c r="I315" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="316" spans="1:9">
       <c r="A316" s="1">
-        <v>43959.748703703706</v>
+        <v>43963.709398148145</v>
       </c>
       <c r="B316" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C316" t="s">
         <v>21</v>
       </c>
       <c r="D316" s="2">
-        <v>43959</v>
+        <v>43950</v>
       </c>
       <c r="E316" s="2"/>
       <c r="I316" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="317" spans="1:9">
       <c r="A317" s="1">
-        <v>43959.758564814816</v>
+        <v>43963.712002314816</v>
       </c>
       <c r="B317" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C317" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D317" s="2">
-        <v>43936</v>
+        <v>43925</v>
       </c>
       <c r="E317" s="2"/>
+      <c r="H317">
+        <v>420</v>
+      </c>
       <c r="I317" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="1">
-        <v>43963.709398148145</v>
+        <v>43963.759155092594</v>
       </c>
       <c r="B318" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D318" s="2">
-        <v>43950</v>
+        <v>43959</v>
       </c>
       <c r="E318" s="2"/>
+      <c r="G318">
+        <v>21</v>
+      </c>
+      <c r="H318">
+        <v>21</v>
+      </c>
       <c r="I318" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="1">
-        <v>43963.712002314816</v>
+        <v>43964.751782407409</v>
       </c>
       <c r="B319" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C319" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D319" s="2">
-        <v>43925</v>
+        <v>43963</v>
       </c>
       <c r="E319" s="2"/>
-      <c r="H319">
-        <v>420</v>
-      </c>
       <c r="I319" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" s="1">
-        <v>43963.759155092594</v>
-      </c>
-      <c r="B320" t="s">
-        <v>262</v>
-      </c>
-      <c r="C320" t="s">
-        <v>61</v>
-      </c>
-      <c r="D320" s="2">
-        <v>43959</v>
-      </c>
-      <c r="E320" s="2"/>
-      <c r="G320">
-        <v>21</v>
-      </c>
-      <c r="H320">
-        <v>21</v>
-      </c>
-      <c r="I320" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9">
-      <c r="A321" s="1">
-        <v>43964.751782407409</v>
-      </c>
-      <c r="B321" t="s">
-        <v>26</v>
-      </c>
-      <c r="C321" t="s">
-        <v>21</v>
-      </c>
-      <c r="D321" s="2">
-        <v>43963</v>
-      </c>
-      <c r="E321" s="2"/>
-      <c r="I321" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8145,21 +8103,21 @@
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{D0965E4A-512F-4566-BB87-AB64FE29E3FF}"/>
     <hyperlink ref="E42" r:id="rId2" xr:uid="{2A7D5C1C-65C2-4C2E-8134-395C3BD1D95B}"/>
-    <hyperlink ref="E103" r:id="rId3" xr:uid="{F16CC454-DE65-45CD-B53B-5325B2AD3019}"/>
+    <hyperlink ref="E101" r:id="rId3" xr:uid="{F16CC454-DE65-45CD-B53B-5325B2AD3019}"/>
     <hyperlink ref="E11" r:id="rId4" xr:uid="{488BC301-26ED-41CA-B7DA-6EA225763905}"/>
     <hyperlink ref="E12" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
     <hyperlink ref="E4" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
-    <hyperlink ref="E178" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
-    <hyperlink ref="E189" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
-    <hyperlink ref="E153" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
-    <hyperlink ref="E239" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
-    <hyperlink ref="E252" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
-    <hyperlink ref="E179" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
-    <hyperlink ref="E190" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
-    <hyperlink ref="F264" r:id="rId15" display="https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117" xr:uid="{99A0F466-A75A-4E4E-A6F4-620C55E4BC39}"/>
-    <hyperlink ref="E296" r:id="rId16" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
-    <hyperlink ref="I265" r:id="rId17" xr:uid="{B2F6CA54-1A89-4AF4-81AE-0F5BB3E65DE4}"/>
+    <hyperlink ref="E176" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
+    <hyperlink ref="E187" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
+    <hyperlink ref="E151" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
+    <hyperlink ref="E237" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
+    <hyperlink ref="E250" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
+    <hyperlink ref="E177" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
+    <hyperlink ref="E188" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
+    <hyperlink ref="F262" r:id="rId15" display="https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117" xr:uid="{99A0F466-A75A-4E4E-A6F4-620C55E4BC39}"/>
+    <hyperlink ref="E294" r:id="rId16" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
+    <hyperlink ref="I263" r:id="rId17" xr:uid="{B2F6CA54-1A89-4AF4-81AE-0F5BB3E65DE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId18"/>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22920"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22D977F1-1980-4545-BD1C-FAEC45E008C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C4EE17-AB2B-47A6-BAFA-E8442D7A824E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="361">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1162,6 +1162,15 @@
   </si>
   <si>
     <t>Guest speaker for Claremont Alumni lecture series</t>
+  </si>
+  <si>
+    <t>Presentation about conservation at Shedd to the Womens Athletic Club of Chicago (for Bridget Coughlin)</t>
+  </si>
+  <si>
+    <t>https://www.wlrn.org/post/scientists-find-hope-reefs-battered-climate-change-bahamas-coral-survive-hot-seas</t>
+  </si>
+  <si>
+    <t>Interview with WLRN about Mermaid reef study</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I319" totalsRowShown="0">
-  <autoFilter ref="A1:I319" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I322" totalsRowShown="0">
+  <autoFilter ref="A1:I322" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I260">
     <sortCondition ref="D1:D260"/>
   </sortState>
@@ -1653,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
       <selection activeCell="A73" sqref="A73:XFD73"/>
@@ -8097,6 +8106,68 @@
       <c r="E319" s="2"/>
       <c r="I319" t="s">
         <v>357</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" s="1">
+        <v>43972.759675925925</v>
+      </c>
+      <c r="B320" t="s">
+        <v>41</v>
+      </c>
+      <c r="C320" t="s">
+        <v>21</v>
+      </c>
+      <c r="D320" s="2">
+        <v>43972</v>
+      </c>
+      <c r="E320" s="2"/>
+      <c r="I320" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" s="1">
+        <v>43976.523263888892</v>
+      </c>
+      <c r="B321" t="s">
+        <v>28</v>
+      </c>
+      <c r="C321" t="s">
+        <v>16</v>
+      </c>
+      <c r="D321" s="2">
+        <v>43976</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I321" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" s="1">
+        <v>43976.524756944447</v>
+      </c>
+      <c r="B322" t="s">
+        <v>28</v>
+      </c>
+      <c r="C322" t="s">
+        <v>61</v>
+      </c>
+      <c r="D322" s="2">
+        <v>43922</v>
+      </c>
+      <c r="E322" s="2"/>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>480</v>
+      </c>
+      <c r="I322" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C4EE17-AB2B-47A6-BAFA-E8442D7A824E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A6152EA-D118-4ED6-983D-9467D6DB7EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="362">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1171,6 +1171,9 @@
   </si>
   <si>
     <t>Interview with WLRN about Mermaid reef study</t>
+  </si>
+  <si>
+    <t>Zoom lecture to undergraduate coral reef ecology class at Univ. South Carolina</t>
   </si>
 </sst>
 </file>
@@ -1293,8 +1296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I322" totalsRowShown="0">
-  <autoFilter ref="A1:I322" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I323" totalsRowShown="0">
+  <autoFilter ref="A1:I323" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I260">
     <sortCondition ref="D1:D260"/>
   </sortState>
@@ -1662,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="G318" sqref="G318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8059,6 +8062,9 @@
         <v>43925</v>
       </c>
       <c r="E317" s="2"/>
+      <c r="G317">
+        <v>0</v>
+      </c>
       <c r="H317">
         <v>420</v>
       </c>
@@ -8168,6 +8174,24 @@
       </c>
       <c r="I322" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" s="1">
+        <v>43979.713599537034</v>
+      </c>
+      <c r="B323" t="s">
+        <v>28</v>
+      </c>
+      <c r="C323" t="s">
+        <v>21</v>
+      </c>
+      <c r="D323" s="2">
+        <v>43979</v>
+      </c>
+      <c r="E323" s="2"/>
+      <c r="I323" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -8199,12 +8223,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8442,16 +8466,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8459,5 +8483,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A6152EA-D118-4ED6-983D-9467D6DB7EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEB9FEA-40B1-421F-8CA1-06A6F08FDDDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,22 +32,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={0D943B3F-A01E-467C-AE66-820721F4FC5E}</author>
     <author>tc={3F82C016-BF87-43C7-AF30-685D699C00F1}</author>
-    <author>tc={0D943B3F-A01E-467C-AE66-820721F4FC5E}</author>
     <author>tc={B50C9C38-935F-4B25-8180-404F4A863DB0}</author>
     <author>tc={00165D7D-7883-4BBB-ABDD-C725A1D6BA64}</author>
   </authors>
   <commentList>
-    <comment ref="B59" authorId="0" shapeId="0" xr:uid="{3F82C016-BF87-43C7-AF30-685D699C00F1}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Kessel, Steve this entry blank?
-</t>
-      </text>
-    </comment>
-    <comment ref="C110" authorId="1" shapeId="0" xr:uid="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+    <comment ref="C85" authorId="0" shapeId="0" xr:uid="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,6 +50,15 @@
     OK, then should we delete one of the two rows so the 40 people aren't being counted twice?
 Reply:
     If Chuck agrees that this works better as a deeper engagement (I see it like one full ACCA class of a day of learning), then ya, I would delete one entry and count the 40 people once. Thank you Ross!
+</t>
+      </text>
+    </comment>
+    <comment ref="B104" authorId="1" shapeId="0" xr:uid="{3F82C016-BF87-43C7-AF30-685D699C00F1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Kessel, Steve this entry blank?
 </t>
       </text>
     </comment>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="367">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -116,28 +116,256 @@
     <t>Description</t>
   </si>
   <si>
+    <t>rcunning@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Field research</t>
+  </si>
+  <si>
+    <t>Coral research in Abaco with Middlebury College</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>The Future of Coral' event with Shedd donors</t>
+  </si>
+  <si>
+    <t>Panelist for Congressman Quigley's Climate Resilience event</t>
+  </si>
+  <si>
+    <t>cknapp@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Knapp, C. R., C. Perez-Heydrich, T. T. Zachariah, J. Jollay, A. Schnelle, S. D. Buckner, C. R. Lattin, and M. Romer. 2019. Host sex, size and hemoparasite infection influence the effects of ectoparasitic burdens on free-ranging iguanas. Ecology and Evolution 9:1946–1956. DOI: 10.1002/ece3.4887.</t>
+  </si>
+  <si>
+    <t>Webb, A. C., J. B. Iverson, C. R. Knapp, D. F. DeNardo, and S. S. French. 2019. Energetic investment associated with vitellogenesis induces an oxidative cost of reproduction. Journal of Animal Ecology. 2019 :1–11. DOI: 10.1111/1365-2656.12936</t>
+  </si>
+  <si>
+    <t>ahappel@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Citizen/stakeholder engagement</t>
+  </si>
+  <si>
+    <t>Teen Lab Fish Dissections</t>
+  </si>
+  <si>
+    <t>Meeting at Illinois AFS -&gt; Direct connections with IL DNR, MWRD, UIUC, and INHS were made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organized and meet with MWRD to discuss future collaborations. </t>
+  </si>
+  <si>
+    <t>Chicago River Summit</t>
+  </si>
+  <si>
+    <t>Chicago Wilderness Wildlife Committee 2019 (50 people)</t>
+  </si>
+  <si>
     <t>kmurchie@sheddaquarium.org</t>
   </si>
   <si>
-    <t>Publication</t>
-  </si>
-  <si>
     <t>Phang S.C., M. Cooperman, A.J. Lynch, E.A. Steel, V. Elliott, K.J. Murchie, S.J. Cooke, S. Dowd, I. Cowx. Fishing for conservation of freshwater tropical fishes in the Anthropocene.  2019.  Aquatic Conservation: Marine and Freshwater Ecosystems.  https://doi.org/10.1002/aqc.3080</t>
   </si>
   <si>
+    <t>Media opportunity</t>
+  </si>
+  <si>
+    <t>http://www.hmwf.org/wp/wp-content/uploads/2019/02/NewsletterWinter2018.pdf</t>
+  </si>
+  <si>
+    <t>https://www.fondriest.com/news/custom-student-designed-underwater-camera-mounts-help-capture-fish-behavior.htm</t>
+  </si>
+  <si>
+    <t>https://www.portagelife.com/community/family/72446-shedd-expands-conservation-research-team-to-preserve-freshwater-marine-biodiversity</t>
+  </si>
+  <si>
+    <t>https://www.chicagoparent.com/learn/tips-for-getting-kids-interested-in-stem-fields/</t>
+  </si>
+  <si>
+    <t>https://www.postcrescent.com/story/life/2019/03/30/shedd-aquarium-chicago-researcher-document-sucker-migration-lake-michigan-area-creeks-manitowoc/3303268002/</t>
+  </si>
+  <si>
+    <t>Talk to Wisconsin middle school and high school teachers about Shedd's freshwater conservation research and plugging into migratory fishes program (30 ppl attended)</t>
+  </si>
+  <si>
+    <t>20 minute presentation to WDNR and UWisconsin profs and grad students on sucker monitoring program at WI-AFS chapter meeting in Green Bay (150 ppl)</t>
+  </si>
+  <si>
+    <t>participated in 2 day IL-AFS chapter meeting in Champaign IL (100 ppl)</t>
+  </si>
+  <si>
+    <t>Participated in the Friends of the Chicago River Summit in Chicago</t>
+  </si>
+  <si>
+    <t>5 days of field research (March 18, 19, 26, 27, 28)</t>
+  </si>
+  <si>
+    <t>35 citizen scientists engaged in sucker monitoring (station set-up and active monitoring)</t>
+  </si>
+  <si>
+    <t>kinoue@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Meet with MWRD to discuss future collaborations.</t>
+  </si>
+  <si>
+    <t>Round table on our career paths with Notre Dame students</t>
+  </si>
+  <si>
+    <t>Chicago Wilderness Wildlife Committee 2019</t>
+  </si>
+  <si>
+    <t>Met with MWRD supervising and lead aquatic biologists to discuss data and collaborations - 5 guests + Austin &amp; Kentaro</t>
+  </si>
+  <si>
     <t>KGLENNEMEIER@sheddaquarium.org</t>
   </si>
   <si>
-    <t>Field research</t>
+    <t>WBBM radio interview</t>
+  </si>
+  <si>
+    <t>https://www.dailyherald.com/news/20190112/frogs-and-toads-fill-our-summers-with-sound-but-where-do-they-go-in-winter</t>
+  </si>
+  <si>
+    <t>Daily Herald story on frog biology and our research</t>
+  </si>
+  <si>
+    <t>https://www.sheddaquarium.org/blog/2019/march/flowers-and-frogs-plants-and-animals-benefit-from-new-collaboration-with-the-chicago-botanic-garden/</t>
+  </si>
+  <si>
+    <t>Blog post about Shedd-Botanic Garden collaboration</t>
+  </si>
+  <si>
+    <t>Wild Things Conference - presented "Where do Salamanders Spend the Summer?"</t>
   </si>
   <si>
     <t>Buckthorn removal</t>
   </si>
   <si>
+    <t>10 Anglers engaged by Sea Grant to promote the use of Great Lakes FishFinder. + Engagement of 2 SeaGrant staff themselves.</t>
+  </si>
+  <si>
+    <t>River Ecology and Governance Task Force</t>
+  </si>
+  <si>
+    <t>Taught at conservation genetic workshop in Freshwater Mollusk Conservation Society Symposium, San Antonio, TX.</t>
+  </si>
+  <si>
+    <t>Presented 1 paper and 1 poster at Freshwater Mollusk Conservation Society Symposium, San Antonio, TX.</t>
+  </si>
+  <si>
+    <t>Teen Lab engagement; identified mussels and created dichotomous keys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round table with attendees of the New Horizons in Conservation Conference in Chicago </t>
+  </si>
+  <si>
+    <t>Sub-commettee meeting of wildlife researchers from the River Ecology and Governance Group</t>
+  </si>
+  <si>
+    <t>River Ecology and Governance: Science and Design Meeting</t>
+  </si>
+  <si>
+    <t>NOAA grant review panel</t>
+  </si>
+  <si>
+    <t>Coral work on marine research trip on CRII</t>
+  </si>
+  <si>
+    <t>Rich and Lily - coral participants on marine research trip. 2 ppl * 8-hour days * 10 days = 160 hours</t>
+  </si>
+  <si>
+    <t>Field work nights</t>
+  </si>
+  <si>
+    <t>Metting with MWRD and Urban Rivers to discuss potential Research</t>
+  </si>
+  <si>
+    <t>Field work night</t>
+  </si>
+  <si>
+    <t>Happel, A, Maier, C, Farese, N, Czesny, S, Rinchard, J. Fatty acids differentiate consumers despite variation within prey fatty acid profiles. Freshw Biol. 2019; 00: 1– 11. https://doi.org/10.1111/fwb.13315</t>
+  </si>
+  <si>
+    <t>Publication came online</t>
+  </si>
+  <si>
+    <t>Cunning R, Silverstein RN, Barnes BB, Baker AC (2019). Extensive coral mortality and critical habitat loss following dredging and their association with remotely-sensed sediment plumes. Mar Poll Bull 145:185-199. doi:10.1016/j.marpolbul.2019.05.027</t>
+  </si>
+  <si>
+    <t>Coral Bleaching Research Coordination Network workshop at Ohio State University</t>
+  </si>
+  <si>
+    <t>https://www.miaminewtimes.com/news/portmiami-dredging-killed-a-half-million-corals-miami-waterkeeper-study-says-11184042</t>
+  </si>
+  <si>
+    <t>Miami New Times story on Port of Miami dredging</t>
+  </si>
+  <si>
+    <t>3rd annual boathouse celebration at ParkNo 571 near the South Branch. Initiating community outreach to investigate outreach potential in the south parts of Chicago.</t>
+  </si>
+  <si>
+    <t>Field work June 2nd</t>
+  </si>
+  <si>
+    <t>Larval fish sampling night</t>
+  </si>
+  <si>
+    <t>Field work during the day and again at night</t>
+  </si>
+  <si>
+    <t>Afternoon field day to deploy DO loggers</t>
+  </si>
+  <si>
+    <t>Night of larval fish sampling</t>
+  </si>
+  <si>
     <t>AKOUGH@sheddaquarium.org</t>
   </si>
   <si>
-    <t>Media opportunity</t>
+    <t>Kough AS, Belak CA, Paris CB, Lundy A, Cronin H, Gnanalingam G, Hagedorn S, Skubel R, Weiler AC, Stoner AW (2019) Ecological spillover from a marine protected area replenishes an over-exploited population across an island chain. Conservation Science and Practice. doi:10.1002/csp2.17</t>
+  </si>
+  <si>
+    <t>Earth and Learn Symposim speaker at Whitney M. Young magnet school</t>
+  </si>
+  <si>
+    <t>MSI Science Cafe for elementrary school learners</t>
+  </si>
+  <si>
+    <t>Norris Aquatic Center engineering</t>
+  </si>
+  <si>
+    <t>https://www.mccormick.northwestern.edu/magazine/spring-2019/deep-dive.html</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>Interview with Science Magazine on Larval Fish Dispersal</t>
+  </si>
+  <si>
+    <t>Lecture for class visiting Shedd from ACCA school</t>
+  </si>
+  <si>
+    <t>Lecture for second lab section for ACCA school class</t>
+  </si>
+  <si>
+    <t>Lecture for Lynns ACCA class</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.com/animals/2019/01/conch-decline-overfishing-the-bahamas/</t>
+  </si>
+  <si>
+    <t>https://www.smithsonianmag.com/smart-news/bahamas-conchs-have-undergone-serial-depletion-180971287/</t>
+  </si>
+  <si>
+    <t>http://www.tribune242.com/news/2019/jan/14/conch-crisis-needs-action/</t>
   </si>
   <si>
     <t>https://www.miamiherald.com/news/local/environment/article224130335.html</t>
@@ -146,25 +374,58 @@
     <t>http://www.tribune242.com/news/2019/jan/11/conch-may-be-wiped-out-10-15-years/</t>
   </si>
   <si>
-    <t>https://www.dailyherald.com/news/20190112/frogs-and-toads-fill-our-summers-with-sound-but-where-do-they-go-in-winter</t>
-  </si>
-  <si>
-    <t>Daily Herald story on frog biology and our research</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Talk to Wisconsin middle school and high school teachers about Shedd's freshwater conservation research and plugging into migratory fishes program (30 ppl attended)</t>
-  </si>
-  <si>
-    <t>http://www.tribune242.com/news/2019/jan/14/conch-crisis-needs-action/</t>
-  </si>
-  <si>
-    <t>https://www.nationalgeographic.com/animals/2019/01/conch-decline-overfishing-the-bahamas/</t>
-  </si>
-  <si>
-    <t>https://www.smithsonianmag.com/smart-news/bahamas-conchs-have-undergone-serial-depletion-180971287/</t>
+    <t>http://tcweeklynews.com/conched-out-the-dire-state-of-the-tcis-most-iconic-product-p9504-127.htm</t>
+  </si>
+  <si>
+    <t>PI meeting in Gainesville for NSF grant on Blue Crab Pathosystem</t>
+  </si>
+  <si>
+    <t>Presentation at the Benthic Ecology Meeting</t>
+  </si>
+  <si>
+    <t>Coral Reef II cruise to pilot the LobStarz</t>
+  </si>
+  <si>
+    <t>Coral Reef II, invertebrate fisheries research cruise</t>
+  </si>
+  <si>
+    <t>River Ecology and Governence - Science and Design Committee meeting</t>
+  </si>
+  <si>
+    <t>Shedd Volunteer Learning Conference – Presentation on freshwater mussels followed by a field day at the River Islands</t>
+  </si>
+  <si>
+    <t>Meeting with DuPage Co. Forest Preserve District and Urban Rivers to discuss potential Research</t>
+  </si>
+  <si>
+    <t>Brownscombe J.W., E.J.I. Lédée, G.D. Raby, D.P. Struthers, L.F.G. Gutowsky, V.M. Nguyen, N. Young, M.J.W. Stokesbury, C.M. Holbrook, T.O. Brenden C.S. Vandergoot, K.J. Murchie, K. Whoriskey, J. Mills Flemming, S.T. Kessel, C.C. Krueger, S.J. Cooke.  2019.  Conducting and interpreting fish telemetry studies: considerations for researchers and resource managers.  Reviews in Fish Biology and Fisheries.  29:369-400.</t>
+  </si>
+  <si>
+    <t>Shedd Facebook live April 26 (also instagram live in insta-story)</t>
+  </si>
+  <si>
+    <t>live interviews on facebook and instagram for Shedd social media</t>
+  </si>
+  <si>
+    <t>Northwestern University Biological Student Association Career panel, 2 hrs, 20 undergraduates</t>
+  </si>
+  <si>
+    <t>migratory fishes field work April 13-May 5 inclusive, June 5-8 inclusive; June 19 w Melissa - 28 days</t>
+  </si>
+  <si>
+    <t>37 citizen scientists conducting daily monitoring of sucker migrations at assigned tributaries for approximately 40 days</t>
+  </si>
+  <si>
+    <t>Volunteer Leadership Conference at Shedd - all freshwater team led talks/activities</t>
+  </si>
+  <si>
+    <t>http://www.tribune242.com/news/2019/apr/11/protected-areas-can-aid-conch/?news</t>
+  </si>
+  <si>
+    <t>Meet at Dr. Keller's lab at Loyola to discuss his on going projects and future collaboration potentials some more.</t>
+  </si>
+  <si>
+    <t>Mussel survey in the North Branch of Nippersink Creek near Richmond, IL. Three people from Openlands joined the survey.</t>
   </si>
   <si>
     <t>skessel@sheddaquarium.org</t>
@@ -173,355 +434,103 @@
     <t>Smukall, MJ, Kessel, ST, Franks, BR, Feldheim, KA, Guttridge, TL, Gruber, SH. No apparent negative tagging effects after 13 years at liberty for lemon shark, Negaprion brevirostris implanted with acoustic transmitter. J Fish Biol. 2019; 94: 173– 177. https://doi.org/10.1111/jfb.13856</t>
   </si>
   <si>
-    <t>rcunning@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Coral research in Abaco with Middlebury College</t>
-  </si>
-  <si>
-    <t>WBBM radio interview</t>
-  </si>
-  <si>
-    <t>https://www.mccormick.northwestern.edu/magazine/spring-2019/deep-dive.html</t>
-  </si>
-  <si>
-    <t>Northwestern University</t>
-  </si>
-  <si>
-    <t>http://www.hmwf.org/wp/wp-content/uploads/2019/02/NewsletterWinter2018.pdf</t>
-  </si>
-  <si>
     <t>Pedro, S., Fisk, A. T., Ferguson, S. H., Hussey, N. E., Kessel, S. T., &amp; McKinney, M. A. (2019). Limited effects of changing prey fish communities on food quality for aquatic predators in the eastern Canadian Arctic in terms of essential fatty acids, methylmercury and selenium. Chemosphere, 214, 855-865.</t>
   </si>
   <si>
+    <t>Yurkowski, D. J., Auger_Méthé, M., Mallory, M. L., Wong, S. N., Gilchrist, G., Derocher, A. E., ... &amp; Togunov, R. R. (2018). Abundance and species diversity hotspots of tracked marine predators across the North American Arctic. Diversity and Distributions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday 8th February - Talk to the Eco Educators society at the University of Illinios Chicago, School of Denistry.  </t>
+  </si>
+  <si>
+    <t>Participated in the Shedd Aquarium Teen Work Study Group Career Pannel.</t>
+  </si>
+  <si>
+    <t>Lake Forest Country Day School - Scientist at residence. Gave two presentation to two age groups, and attended science classes. Around 200 kids total</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/melissacristinamarquez/2019/04/29/tracking-down-sharks-in-the-bahamas/#56874a374470</t>
+  </si>
+  <si>
+    <t>Shark Shedd Adventure</t>
+  </si>
+  <si>
     <t>lwaterhouse@sheddaquarium.org</t>
   </si>
   <si>
+    <t>Summer Institutes on Scientific Teaching</t>
+  </si>
+  <si>
+    <t>https://openexplorer.nationalgeographic.com/expedition/bahamasgrouper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Geographic open explorer blog for Nassau grouper research in The Bahamas. Blogs posted on 4/16, 4/18, 5/6. Working to post more blogs from ACCA. Will also be posted in June for Conch/Lobster trip (grouper observations). Obatined &gt;25 followes and successfully applied for and was chosen for a free TridentROV from S.E.E. Initiative. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCA Marine and Island Ecology of The Bahamas course. Had 18 enrolled students who participated in classes at Shedd and then participated in one of two 9 day trips aboard the R/V Coral Reef II. During the course we conducted research projects related to BRUVs (total 5 deployments), squid pops, 1 conch nursery survey, 5 coral samples collected, and numerous REEF surveys conducted. Some of the data will be used by other researchers at Shedd from the Marine Team. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Served on selection committe for best article for 2018 American Fisheries Society's North American Journal of Fisheries Management. </t>
+  </si>
+  <si>
+    <t>Served on selection committe for 2019 American Fisheries Society Emmeline Moore prize (for scientist who has showed exemplary record of dedication to issues of diversity, equity, and inclusion in the fisheries profession).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kickoff meeting with ICCAT/AOTTP contract for age-growth work on Bigeye, Skipjack, and Yellowfin tunas. </t>
+  </si>
+  <si>
+    <t>Member of meeting oversight committee for American Fisheries Society to give feedback on selection process for annual meetings. (group of ten, ongoing meetings(</t>
+  </si>
+  <si>
+    <t>Protected Species Assessment Workshop (PSAW II) at Southwest Fisheries Science Center in La Jolla, CA. Presented work on Nassau grouper assessment for Cayman Islands.</t>
+  </si>
+  <si>
+    <t>Nassau grouper research in Cayman Islands with REEF (Reef Environmental Education Foundation), Oregon State University, Scripps Institution of Oceanography, and the Cayman Island Department of the Environment</t>
+  </si>
+  <si>
     <t>American Fisheries Society governing board meeting (serve as President of Estuaries Section of American Fisheries Society).</t>
   </si>
   <si>
-    <t>Panelist for Congressman Quigley's Climate Resilience event</t>
-  </si>
-  <si>
-    <t>Yurkowski, D. J., Auger_Méthé, M., Mallory, M. L., Wong, S. N., Gilchrist, G., Derocher, A. E., ... &amp; Togunov, R. R. (2018). Abundance and species diversity hotspots of tracked marine predators across the North American Arctic. Diversity and Distributions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday 8th February - Talk to the Eco Educators society at the University of Illinios Chicago, School of Denistry.  </t>
-  </si>
-  <si>
-    <t>Protected Species Assessment Workshop (PSAW II) at Southwest Fisheries Science Center in La Jolla, CA. Presented work on Nassau grouper assessment for Cayman Islands.</t>
-  </si>
-  <si>
-    <t>cknapp@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Knapp, C. R., C. Perez-Heydrich, T. T. Zachariah, J. Jollay, A. Schnelle, S. D. Buckner, C. R. Lattin, and M. Romer. 2019. Host sex, size and hemoparasite infection influence the effects of ectoparasitic burdens on free-ranging iguanas. Ecology and Evolution 9:1946–1956. DOI: 10.1002/ece3.4887.</t>
-  </si>
-  <si>
-    <t>ahappel@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Chicago Wilderness Wildlife Committee 2019 (50 people)</t>
-  </si>
-  <si>
-    <t>kinoue@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Chicago Wilderness Wildlife Committee 2019</t>
-  </si>
-  <si>
-    <t>Nassau grouper research in Cayman Islands with REEF (Reef Environmental Education Foundation), Oregon State University, Scripps Institution of Oceanography, and the Cayman Island Department of the Environment</t>
-  </si>
-  <si>
-    <t>20 minute presentation to WDNR and UWisconsin profs and grad students on sucker monitoring program at WI-AFS chapter meeting in Green Bay (150 ppl)</t>
-  </si>
-  <si>
-    <t>https://www.fondriest.com/news/custom-student-designed-underwater-camera-mounts-help-capture-fish-behavior.htm</t>
-  </si>
-  <si>
-    <t>Round table on our career paths with Notre Dame students</t>
-  </si>
-  <si>
-    <t>Wild Things Conference - presented "Where do Salamanders Spend the Summer?"</t>
-  </si>
-  <si>
-    <t>Meeting at Illinois AFS -&gt; Direct connections with IL DNR, MWRD, UIUC, and INHS were made</t>
-  </si>
-  <si>
-    <t>Webb, A. C., J. B. Iverson, C. R. Knapp, D. F. DeNardo, and S. S. French. 2019. Energetic investment associated with vitellogenesis induces an oxidative cost of reproduction. Journal of Animal Ecology. 2019 :1–11. DOI: 10.1111/1365-2656.12936</t>
-  </si>
-  <si>
-    <t>Participated in the Shedd Aquarium Teen Work Study Group Career Pannel.</t>
-  </si>
-  <si>
-    <t>Teen Lab engagement; identified mussels and created dichotomous keys.</t>
-  </si>
-  <si>
-    <t>https://www.portagelife.com/community/family/72446-shedd-expands-conservation-research-team-to-preserve-freshwater-marine-biodiversity</t>
+    <t>One Earth Film Festival. Sat on Panel with Dr. Andy Kough following screening of Sea of Hope. (75 audience members)</t>
   </si>
   <si>
     <t>REEF Fishinar - on Nassau and Tiger Grouper spawning (24 attendees, digitally available into future)</t>
   </si>
   <si>
-    <t>The Future of Coral' event with Shedd donors</t>
-  </si>
-  <si>
-    <t>One Earth Film Festival. Sat on Panel with Dr. Andy Kough following screening of Sea of Hope. (75 audience members)</t>
-  </si>
-  <si>
-    <t>MSI Science Cafe for elementrary school learners</t>
-  </si>
-  <si>
-    <t>Citizen/stakeholder engagement</t>
-  </si>
-  <si>
-    <t>Teen Lab Fish Dissections</t>
-  </si>
-  <si>
-    <t>https://www.chicagoparent.com/learn/tips-for-getting-kids-interested-in-stem-fields/</t>
-  </si>
-  <si>
-    <t>PI meeting in Gainesville for NSF grant on Blue Crab Pathosystem</t>
-  </si>
-  <si>
-    <t>Chicago River Summit</t>
-  </si>
-  <si>
-    <t>Participated in the Friends of the Chicago River Summit in Chicago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organized and meet with MWRD to discuss future collaborations. </t>
-  </si>
-  <si>
-    <t>Meet with MWRD to discuss future collaborations.</t>
-  </si>
-  <si>
-    <t>Met with MWRD supervising and lead aquatic biologists to discuss data and collaborations - 5 guests + Austin &amp; Kentaro</t>
-  </si>
-  <si>
-    <t>http://tcweeklynews.com/conched-out-the-dire-state-of-the-tcis-most-iconic-product-p9504-127.htm</t>
-  </si>
-  <si>
-    <t>5 days of field research (March 18, 19, 26, 27, 28)</t>
-  </si>
-  <si>
-    <t>35 citizen scientists engaged in sucker monitoring (station set-up and active monitoring)</t>
-  </si>
-  <si>
-    <t>https://www.sheddaquarium.org/blog/2019/march/flowers-and-frogs-plants-and-animals-benefit-from-new-collaboration-with-the-chicago-botanic-garden/</t>
-  </si>
-  <si>
-    <t>Blog post about Shedd-Botanic Garden collaboration</t>
-  </si>
-  <si>
-    <t>Kough AS, Belak CA, Paris CB, Lundy A, Cronin H, Gnanalingam G, Hagedorn S, Skubel R, Weiler AC, Stoner AW (2019) Ecological spillover from a marine protected area replenishes an over-exploited population across an island chain. Conservation Science and Practice. doi:10.1002/csp2.17</t>
-  </si>
-  <si>
-    <t>Coral Reef II cruise to pilot the LobStarz</t>
-  </si>
-  <si>
-    <t>Coral work on marine research trip on CRII</t>
-  </si>
-  <si>
-    <t>Rich and Lily - coral participants on marine research trip. 2 ppl * 8-hour days * 10 days = 160 hours</t>
-  </si>
-  <si>
-    <t>participated in 2 day IL-AFS chapter meeting in Champaign IL (100 ppl)</t>
+    <t>Round table with attendees of the New Horizons in Conservation Conference in Chicago (12 students)</t>
+  </si>
+  <si>
+    <t>myoungquist@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Tour of field sites at Bob Mann Woods and LaGrange Park Woods</t>
+  </si>
+  <si>
+    <t>River island building day</t>
+  </si>
+  <si>
+    <t>Inoue K, Harris JL, Robertson CR, Johnson NA, Randklev CR (2019) A comprehensive approach uncovers hidden diversity in freshwater mussels (Bivalvia: Unionidae) with the description of a novel species. Cladistics, DOI:10.1111/cla.12386.</t>
+  </si>
+  <si>
+    <t>Joined Central Michigan University students on a mussel sampling trip in the Ozarks. Helped locating mussel habitats and identifying species.</t>
+  </si>
+  <si>
+    <t>conch and lobster trip led by Dr. Kough. Also did Grouper counts and length estimation.</t>
+  </si>
+  <si>
+    <t>Shedd Iguana research trip</t>
   </si>
   <si>
     <t>Holmes, N. D., D. Spatz,.....C. R. Knapp, et al. 2019. Globally important islands where eradicating invasive mammals will benefit highly threatened vertebrates. PLoS ONE 14(3): e0212128. https://doi.org/10.1371/journal.pone.0212128.</t>
   </si>
   <si>
-    <t>https://www.postcrescent.com/story/life/2019/03/30/shedd-aquarium-chicago-researcher-document-sucker-migration-lake-michigan-area-creeks-manitowoc/3303268002/</t>
-  </si>
-  <si>
-    <t>37 citizen scientists conducting daily monitoring of sucker migrations at assigned tributaries for approximately 40 days</t>
-  </si>
-  <si>
-    <t>10 Anglers engaged by Sea Grant to promote the use of Great Lakes FishFinder. + Engagement of 2 SeaGrant staff themselves.</t>
-  </si>
-  <si>
-    <t>Presentation at the Benthic Ecology Meeting</t>
-  </si>
-  <si>
-    <t>River Ecology and Governance Task Force</t>
-  </si>
-  <si>
-    <t>Shark Shedd Adventure</t>
-  </si>
-  <si>
-    <t>Lecture for class visiting Shedd from ACCA school</t>
-  </si>
-  <si>
-    <t>Earth and Learn Symposim speaker at Whitney M. Young magnet school</t>
-  </si>
-  <si>
-    <t>Lecture for second lab section for ACCA school class</t>
-  </si>
-  <si>
-    <t>http://www.tribune242.com/news/2019/apr/11/protected-areas-can-aid-conch/?news</t>
-  </si>
-  <si>
-    <t>Member of meeting oversight committee for American Fisheries Society to give feedback on selection process for annual meetings. (group of ten, ongoing meetings(</t>
-  </si>
-  <si>
-    <t>Lecture for Lynns ACCA class</t>
-  </si>
-  <si>
-    <t>migratory fishes field work April 13-May 5 inclusive, June 5-8 inclusive; June 19 w Melissa - 28 days</t>
-  </si>
-  <si>
-    <t>Taught at conservation genetic workshop in Freshwater Mollusk Conservation Society Symposium, San Antonio, TX.</t>
-  </si>
-  <si>
-    <t>Presented 1 paper and 1 poster at Freshwater Mollusk Conservation Society Symposium, San Antonio, TX.</t>
-  </si>
-  <si>
-    <t>https://openexplorer.nationalgeographic.com/expedition/bahamasgrouper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Geographic open explorer blog for Nassau grouper research in The Bahamas. Blogs posted on 4/16, 4/18, 5/6. Working to post more blogs from ACCA. Will also be posted in June for Conch/Lobster trip (grouper observations). Obatined &gt;25 followes and successfully applied for and was chosen for a free TridentROV from S.E.E. Initiative. </t>
-  </si>
-  <si>
-    <t>https://www.forbes.com/sites/melissacristinamarquez/2019/04/29/tracking-down-sharks-in-the-bahamas/#56874a374470</t>
-  </si>
-  <si>
-    <t>Brownscombe J.W., E.J.I. Lédée, G.D. Raby, D.P. Struthers, L.F.G. Gutowsky, V.M. Nguyen, N. Young, M.J.W. Stokesbury, C.M. Holbrook, T.O. Brenden C.S. Vandergoot, K.J. Murchie, K. Whoriskey, J. Mills Flemming, S.T. Kessel, C.C. Krueger, S.J. Cooke.  2019.  Conducting and interpreting fish telemetry studies: considerations for researchers and resource managers.  Reviews in Fish Biology and Fisheries.  29:369-400.</t>
-  </si>
-  <si>
-    <t>Sub-commettee meeting of wildlife researchers from the River Ecology and Governance Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round table with attendees of the New Horizons in Conservation Conference in Chicago </t>
-  </si>
-  <si>
-    <t>Round table with attendees of the New Horizons in Conservation Conference in Chicago (12 students)</t>
-  </si>
-  <si>
-    <t>Shedd Facebook live April 26 (also instagram live in insta-story)</t>
-  </si>
-  <si>
-    <t>live interviews on facebook and instagram for Shedd social media</t>
-  </si>
-  <si>
-    <t>River Ecology and Governance: Science and Design Meeting</t>
-  </si>
-  <si>
-    <t>Field work during the day and again at night</t>
-  </si>
-  <si>
-    <t>Field work night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCA Marine and Island Ecology of The Bahamas course. Had 18 enrolled students who participated in classes at Shedd and then participated in one of two 9 day trips aboard the R/V Coral Reef II. During the course we conducted research projects related to BRUVs (total 5 deployments), squid pops, 1 conch nursery survey, 5 coral samples collected, and numerous REEF surveys conducted. Some of the data will be used by other researchers at Shedd from the Marine Team. </t>
-  </si>
-  <si>
-    <t>Metting with MWRD and Urban Rivers to discuss potential Research</t>
-  </si>
-  <si>
-    <t>Field work nights</t>
-  </si>
-  <si>
-    <t>NOAA grant review panel</t>
-  </si>
-  <si>
-    <t>Happel, A, Maier, C, Farese, N, Czesny, S, Rinchard, J. Fatty acids differentiate consumers despite variation within prey fatty acid profiles. Freshw Biol. 2019; 00: 1– 11. https://doi.org/10.1111/fwb.13315</t>
-  </si>
-  <si>
-    <t>Publication came online</t>
-  </si>
-  <si>
-    <t>Lake Forest Country Day School - Scientist at residence. Gave two presentation to two age groups, and attended science classes. Around 200 kids total</t>
-  </si>
-  <si>
-    <t>Northwestern University Biological Student Association Career panel, 2 hrs, 20 undergraduates</t>
-  </si>
-  <si>
-    <t>Coral Bleaching Research Coordination Network workshop at Ohio State University</t>
-  </si>
-  <si>
-    <t>Cunning R, Silverstein RN, Barnes BB, Baker AC (2019). Extensive coral mortality and critical habitat loss following dredging and their association with remotely-sensed sediment plumes. Mar Poll Bull 145:185-199. doi:10.1016/j.marpolbul.2019.05.027</t>
-  </si>
-  <si>
-    <t>https://www.miaminewtimes.com/news/portmiami-dredging-killed-a-half-million-corals-miami-waterkeeper-study-says-11184042</t>
-  </si>
-  <si>
-    <t>Miami New Times story on Port of Miami dredging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Served on selection committe for best article for 2018 American Fisheries Society's North American Journal of Fisheries Management. </t>
-  </si>
-  <si>
-    <t>Served on selection committe for 2019 American Fisheries Society Emmeline Moore prize (for scientist who has showed exemplary record of dedication to issues of diversity, equity, and inclusion in the fisheries profession).</t>
-  </si>
-  <si>
-    <t>3rd annual boathouse celebration at ParkNo 571 near the South Branch. Initiating community outreach to investigate outreach potential in the south parts of Chicago.</t>
-  </si>
-  <si>
-    <t>Field work June 2nd</t>
-  </si>
-  <si>
-    <t>Larval fish sampling night</t>
-  </si>
-  <si>
-    <t>Shedd Iguana research trip</t>
-  </si>
-  <si>
     <t>Iguana research trip interns and citizen scientists</t>
   </si>
   <si>
-    <t>Shedd Volunteer Learning Conference – Presentation on freshwater mussels followed by a field day at the River Islands</t>
-  </si>
-  <si>
-    <t>Volunteer Leadership Conference at Shedd - all freshwater team led talks/activities</t>
-  </si>
-  <si>
-    <t>Norris Aquatic Center engineering</t>
-  </si>
-  <si>
-    <t>myoungquist@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Tour of field sites at Bob Mann Woods and LaGrange Park Woods</t>
-  </si>
-  <si>
-    <t>Meeting with DuPage Co. Forest Preserve District and Urban Rivers to discuss potential Research</t>
-  </si>
-  <si>
-    <t>Afternoon field day to deploy DO loggers</t>
-  </si>
-  <si>
-    <t>Night of larval fish sampling</t>
-  </si>
-  <si>
-    <t>Summer Institutes on Scientific Teaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kickoff meeting with ICCAT/AOTTP contract for age-growth work on Bigeye, Skipjack, and Yellowfin tunas. </t>
-  </si>
-  <si>
-    <t>Interview with Science Magazine on Larval Fish Dispersal</t>
-  </si>
-  <si>
-    <t>River Ecology and Governence - Science and Design Committee meeting</t>
-  </si>
-  <si>
-    <t>Coral Reef II, invertebrate fisheries research cruise</t>
-  </si>
-  <si>
-    <t>Meet at Dr. Keller's lab at Loyola to discuss his on going projects and future collaboration potentials some more.</t>
-  </si>
-  <si>
-    <t>Mussel survey in the North Branch of Nippersink Creek near Richmond, IL. Three people from Openlands joined the survey.</t>
-  </si>
-  <si>
-    <t>conch and lobster trip led by Dr. Kough. Also did Grouper counts and length estimation.</t>
-  </si>
-  <si>
-    <t>River island building day</t>
-  </si>
-  <si>
-    <t>Joined Central Michigan University students on a mussel sampling trip in the Ozarks. Helped locating mussel habitats and identifying species.</t>
+    <t>Science Pub at Jazzin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with biologists in the DeKalb Co. Forest Preserve District; collected genetic samples of Venustaconcha ellipsiformis (Ellipse) from Big Rock Creek near Hinckley, IL. </t>
   </si>
   <si>
     <t>ASM Teen Lab project on coral stress boxes</t>
@@ -531,414 +540,405 @@
 </t>
   </si>
   <si>
+    <t>Great Lakes Now filming of field work and Interview</t>
+  </si>
+  <si>
+    <t>5 field nights plus 1 day with Kentaro mussel sampling</t>
+  </si>
+  <si>
+    <t>https://wbbm780.radio.com/articles/dozens-fish-along-chicago-river-walk-third-annual-fishing-event</t>
+  </si>
+  <si>
+    <t>Chicago Fishes (Walked around and spoke to people about their catch or what is in the River and how the fish are doing)</t>
+  </si>
+  <si>
+    <t>Mussel hunting with Ken</t>
+  </si>
+  <si>
     <t>Leslie Herrera internship</t>
   </si>
   <si>
     <t>Katie Parker internship</t>
   </si>
   <si>
+    <t>https://phys.org/news/2019-07-3m-collaborative-life.html</t>
+  </si>
+  <si>
+    <t>Press release on NSF Rules of Life grant to study coral epigenetics</t>
+  </si>
+  <si>
+    <t>UIUC invited seminar and meetings with faculty, grad students, and undergrads</t>
+  </si>
+  <si>
+    <t>Tap into Chicago River Guest Engagement event at Mousetrap Brewery. ~60 people registered for the event.</t>
+  </si>
+  <si>
+    <t>5 field nights sampling for larval fishes</t>
+  </si>
+  <si>
+    <t>http://greatlakesecho.org/2019/09/04/record-a-prized-catch-for-science-without-revealing-your-favorite-fishing-hole/</t>
+  </si>
+  <si>
+    <t>Interview led to an article being published</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijppaw.2019.08.003</t>
+  </si>
+  <si>
+    <t>https://news.jrn.msu.edu/2019/09/record-a-prized-catch-for-science-without-revealing-your-favorite-fishing-hole/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t9bx1ZAR6Hg&amp;list=PL_P35GZcjx3Gg4Gdje1KI7RipZJBF5zU2&amp;index=3&amp;t=0s</t>
+  </si>
+  <si>
+    <t>video of my research and the kayak program https://www.youtube.com/watch?v=t9bx1ZAR6Hg&amp;list=PL_P35GZcjx3Gg4Gdje1KI7RipZJBF5zU2&amp;index=3&amp;t=0s</t>
+  </si>
+  <si>
+    <t>Coral spawning research at Cape Eleuthera Institute</t>
+  </si>
+  <si>
+    <t>SECORE workshop participants and CEI interns engaged in coral spawning research at CEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminar for seminar series at the University of Illinois </t>
+  </si>
+  <si>
+    <t>Grouper research trip to Berry Islands</t>
+  </si>
+  <si>
+    <t>Deep sea shark research trip</t>
+  </si>
+  <si>
+    <t>Participants on the deep sea shark research trip</t>
+  </si>
+  <si>
+    <t>Nippersink mussel sampling w Ken</t>
+  </si>
+  <si>
+    <t>Nippersink mussels with Ken</t>
+  </si>
+  <si>
+    <t>Larval Fish with Austin</t>
+  </si>
+  <si>
+    <t>Light trap with Austin</t>
+  </si>
+  <si>
+    <t>Trained volunteer Avery Wallace to analyze lobster video</t>
+  </si>
+  <si>
+    <t>Worked with intern Cam to analyze lobster video for 2 days</t>
+  </si>
+  <si>
+    <t>Lennox R.J., C. Paukert, K. Aarestrup, M. Auger-Methe, L. Baumgartner, K. Birnie-Gauvin, K. Bøe, K. Brink, J. Browncombe, Y Chen, J.G. Davidsen, E. Eliason, A. Filous, B. Gillanders, I. Helland, A. Horodysky, S.R. Januchowski-Hartley, S.K. Lowerre-Barbieri, M.C. Lucas, E. Martins, K.J. Murchie, P.S. Pompeu, M. Power, R. Raghavan, F.J. Rahel, D. Secor, J.D. Thiem, E.B. Thorstad, H. Ueda, F.G. Whoriskey, and S.J. Cooke. 2019.  One hundred pressing questions on the future of global fish migration science, conservation, and policy. Frontiers in Ecology and Evolution.  doi:10.3389/fevo.2019.00286</t>
+  </si>
+  <si>
+    <t>InFish 1 hr conference call</t>
+  </si>
+  <si>
+    <t>Lunchtime lecture series for Friends of the Chicago River's Bridgehouse Museum</t>
+  </si>
+  <si>
+    <t>IL-IN Sea Grant AIS workshop (7 hrs)</t>
+  </si>
+  <si>
+    <t>larval fish sampling with Austin (1 day) freshwater mussels field assistance (3 days)</t>
+  </si>
+  <si>
+    <t>Teen Science Communication Workshop for Wiley Publishing Grant</t>
+  </si>
+  <si>
+    <t>Guest speaker for 3 hr meeting of Trout Unlimited Elliott Donnelly Chapter in Chicago</t>
+  </si>
+  <si>
+    <t>3 classes of Freshwater Ecology ACCA for 20 students (Sept 14, 21, 28)</t>
+  </si>
+  <si>
+    <t>Grouper research trip. Acoustically tagged 5 grouper (2 nassau, 2 black, 1 yellowfin). Deployed 60 BRUVs - most of which were stereo-BRUVs. Deployed 4 acoustic receivers. Conducted REEF and AGRRA surveys.</t>
+  </si>
+  <si>
+    <t>Meeting with NMFS-SEFSC center to discussion caribbean species management and tuna in atlantic. Met with Shannon Cass-Calay and Skyler Sagarese. (3 people)</t>
+  </si>
+  <si>
+    <t>Research trip aboard R/V Coral Reef II. Co-led with George Parsons. Trip had 9 paying participants. Conducted AGRRA fish surveys, AGRRA coral surveys, REEF fish surveys, and BRUVs at and near Bimini dive sites.</t>
+  </si>
+  <si>
+    <t>Met with Shedd Teen Lab to discuss use of ROV in my research and then the teens showed me how to use the ROV out in the lake. (8 students)</t>
+  </si>
+  <si>
+    <t>ICCAT Species Working group meeting. Gave 2 talks - one on data overview for tuna growth project and the other on a Bayesian method for aging spines. (50 attendees)</t>
+  </si>
+  <si>
     <t>Blog posts on ROV and grouper project. At end of September Nat Geo announced they are closing the blog- so the link is currently defunct. I saved all my data and will be looking for an alternative tool to use with the Marine class.</t>
   </si>
   <si>
-    <t>Inoue K, Harris JL, Robertson CR, Johnson NA, Randklev CR (2019) A comprehensive approach uncovers hidden diversity in freshwater mussels (Bivalvia: Unionidae) with the description of a novel species. Cladistics, DOI:10.1111/cla.12386.</t>
-  </si>
-  <si>
-    <t>Science Pub at Jazzin'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting with biologists in the DeKalb Co. Forest Preserve District; collected genetic samples of Venustaconcha ellipsiformis (Ellipse) from Big Rock Creek near Hinckley, IL. </t>
+    <t>American Fisheries Society Meeting in Reno, NV. Led Estuaries Section business meeting on Sunday (as president of chapter), attended governing board breakfast Monday, gave talk on Tuesday on PIT tag model for nested riverine systems, and attended conference talks. Posted to twitter account during the meeting.</t>
+  </si>
+  <si>
+    <t>Helped Austin with field work sampling larval fish.</t>
+  </si>
+  <si>
+    <t>9 students and 3 teachers engaged in high school research projects through the Mentor Matching Engine. This sets studnets doing research projects (think science fair) with professionals to get help on the projects and work through problems. Projects are on-going, usually through a whole semester.</t>
+  </si>
+  <si>
+    <t>Skype a Scientist with 5th grade classroom in Columbus, OH - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist.  (20 attendees)</t>
+  </si>
+  <si>
+    <t>Met with Purdue Student-unit of the American Fisheries Society to discuss career path and options.</t>
+  </si>
+  <si>
+    <t>Seminar at Purdue University's Forestry and Natural Resources Department.</t>
+  </si>
+  <si>
+    <t>Coral research trip on R/V CRII</t>
+  </si>
+  <si>
+    <t>28 participants in coral research trip on R/V CRII. 11 at a time on the boat working 8 hours per day for 14 days = 1232 person-hours.</t>
+  </si>
+  <si>
+    <t>Teen Lab presentation and Chat</t>
+  </si>
+  <si>
+    <t>Science and Design committee of the River Ecology and Governance Task Force</t>
+  </si>
+  <si>
+    <t>Teen Lab engagement; introduction to freshwater mussels</t>
+  </si>
+  <si>
+    <t>Guest speaker for Biology departmental seminar at Loyola University</t>
+  </si>
+  <si>
+    <t>Meeting with collaborators to discuss NSF LTER Urban Centers proposal.</t>
+  </si>
+  <si>
+    <t>Discussion with a Sanibel Island Engagement Group for Development</t>
+  </si>
+  <si>
+    <t>Skype a Scientist with 5th grade classroom in Columbus, OH (different group of students) - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist. (20 attendees)</t>
+  </si>
+  <si>
+    <t>Presentation of Port of Miami dredging impacts to US Army Corps scientists</t>
+  </si>
+  <si>
+    <t>Spoke with Tribune reporter Steve for 40 minutes!</t>
+  </si>
+  <si>
+    <t>http://www.ceibahamas.org/ceinews/2019/10/16/coral-breeding-amp-restoration-workshop</t>
+  </si>
+  <si>
+    <t>CEI news article about Shedd/UM coral research associated with SECORE/spawning trip</t>
+  </si>
+  <si>
+    <t>Meeting with Allison Sacerdote-Velat about amphibian research in Chicago area</t>
+  </si>
+  <si>
+    <t>Meeting with Becky Collings of FPDCC</t>
+  </si>
+  <si>
+    <t>Meet with Craig Billington of FPDCC.</t>
+  </si>
+  <si>
+    <t>Coral research brown bag - Katie/Leslie presented research results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross and Steve spoke at a President's Council Event at the Connell's </t>
+  </si>
+  <si>
+    <t>Mussel survey in Lawrence Creek and Nippersink Creek, McHenry Co., IL.</t>
+  </si>
+  <si>
+    <t>Mussel survey in the North Branch of Nippersink Creek near RIchmond, IL.</t>
+  </si>
+  <si>
+    <t>Mussel survey in the South Branch of the Kishwaukee River near Kingston, IL</t>
+  </si>
+  <si>
+    <t>Helped Austin for larval fish sampling</t>
+  </si>
+  <si>
+    <t>Mussel survey in Poplar Creek near Elgin, IL</t>
+  </si>
+  <si>
+    <t>Mussel monitoring in the North Branch of Nippersink Creek near Richmond, IL.</t>
+  </si>
+  <si>
+    <t>Mussel survey in Coffee Creek near Chesterton, IN, with INDNR and USGS.</t>
+  </si>
+  <si>
+    <t>Mussel Monitoring Team Leader Workshop at the DuPage Co Mussel facility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invited speaker at the Teen Conservation Leadership Conference in Dominican University. </t>
+  </si>
+  <si>
+    <t>https://today.agrilife.org/2019/08/14/newly-discovered-mussels-may-help-refocus-conservation-efforts-in-texas/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story about a new mussel species described from Texas. </t>
   </si>
   <si>
     <t>8 field volunteers in this summer (July to September).</t>
   </si>
   <si>
-    <t>Great Lakes Now filming of field work and Interview</t>
-  </si>
-  <si>
-    <t>larval fish sampling with Austin (1 day) freshwater mussels field assistance (3 days)</t>
-  </si>
-  <si>
-    <t>Mussel survey in Lawrence Creek and Nippersink Creek, McHenry Co., IL.</t>
-  </si>
-  <si>
-    <t>Meeting with Allison Sacerdote-Velat about amphibian research in Chicago area</t>
-  </si>
-  <si>
-    <t>Teen Science Communication Workshop for Wiley Publishing Grant</t>
-  </si>
-  <si>
-    <t>Met with Shedd Teen Lab to discuss use of ROV in my research and then the teens showed me how to use the ROV out in the lake. (8 students)</t>
-  </si>
-  <si>
-    <t>Meeting with Becky Collings of FPDCC</t>
-  </si>
-  <si>
-    <t>Nippersink mussel sampling w Ken</t>
-  </si>
-  <si>
-    <t>InFish 1 hr conference call</t>
-  </si>
-  <si>
-    <t>Mussel survey in the North Branch of Nippersink Creek near RIchmond, IL.</t>
-  </si>
-  <si>
-    <t>https://phys.org/news/2019-07-3m-collaborative-life.html</t>
-  </si>
-  <si>
-    <t>Press release on NSF Rules of Life grant to study coral epigenetics</t>
-  </si>
-  <si>
-    <t>Nippersink mussels with Ken</t>
-  </si>
-  <si>
-    <t>Meeting with NMFS-SEFSC center to discussion caribbean species management and tuna in atlantic. Met with Shannon Cass-Calay and Skyler Sagarese. (3 people)</t>
-  </si>
-  <si>
-    <t>Mussel Monitoring Team Leader Workshop at the DuPage Co Mussel facility.</t>
-  </si>
-  <si>
-    <t>Trained volunteer Avery Wallace to analyze lobster video</t>
-  </si>
-  <si>
-    <t>5 field nights plus 1 day with Kentaro mussel sampling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invited speaker at the Teen Conservation Leadership Conference in Dominican University. </t>
-  </si>
-  <si>
-    <t>Mussel survey in the South Branch of the Kishwaukee River near Kingston, IL</t>
-  </si>
-  <si>
-    <t>Grouper research trip. Acoustically tagged 5 grouper (2 nassau, 2 black, 1 yellowfin). Deployed 60 BRUVs - most of which were stereo-BRUVs. Deployed 4 acoustic receivers. Conducted REEF and AGRRA surveys.</t>
-  </si>
-  <si>
-    <t>Meet with Craig Billington of FPDCC.</t>
-  </si>
-  <si>
-    <t>Mussel hunting with Ken</t>
-  </si>
-  <si>
-    <t>Grouper research trip to Berry Islands</t>
-  </si>
-  <si>
-    <t>https://wbbm780.radio.com/articles/dozens-fish-along-chicago-river-walk-third-annual-fishing-event</t>
-  </si>
-  <si>
-    <t>Chicago Fishes (Walked around and spoke to people about their catch or what is in the River and how the fish are doing)</t>
-  </si>
-  <si>
-    <t>Lunchtime lecture series for Friends of the Chicago River's Bridgehouse Museum</t>
-  </si>
-  <si>
-    <t>https://today.agrilife.org/2019/08/14/newly-discovered-mussels-may-help-refocus-conservation-efforts-in-texas/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story about a new mussel species described from Texas. </t>
-  </si>
-  <si>
-    <t>Lennox R.J., C. Paukert, K. Aarestrup, M. Auger-Methe, L. Baumgartner, K. Birnie-Gauvin, K. Bøe, K. Brink, J. Browncombe, Y Chen, J.G. Davidsen, E. Eliason, A. Filous, B. Gillanders, I. Helland, A. Horodysky, S.R. Januchowski-Hartley, S.K. Lowerre-Barbieri, M.C. Lucas, E. Martins, K.J. Murchie, P.S. Pompeu, M. Power, R. Raghavan, F.J. Rahel, D. Secor, J.D. Thiem, E.B. Thorstad, H. Ueda, F.G. Whoriskey, and S.J. Cooke. 2019.  One hundred pressing questions on the future of global fish migration science, conservation, and policy. Frontiers in Ecology and Evolution.  doi:10.3389/fevo.2019.00286</t>
-  </si>
-  <si>
-    <t>Helped Austin for larval fish sampling</t>
-  </si>
-  <si>
-    <t>5 field nights sampling for larval fishes</t>
-  </si>
-  <si>
-    <t>Mussel survey in Poplar Creek near Elgin, IL</t>
-  </si>
-  <si>
-    <t>Research trip aboard R/V Coral Reef II. Co-led with George Parsons. Trip had 9 paying participants. Conducted AGRRA fish surveys, AGRRA coral surveys, REEF fish surveys, and BRUVs at and near Bimini dive sites.</t>
-  </si>
-  <si>
-    <t>Coral research brown bag - Katie/Leslie presented research results</t>
-  </si>
-  <si>
-    <t>UIUC invited seminar and meetings with faculty, grad students, and undergrads</t>
-  </si>
-  <si>
-    <t>Tap into Chicago River Guest Engagement event at Mousetrap Brewery. ~60 people registered for the event.</t>
-  </si>
-  <si>
-    <t>Helped Austin with field work sampling larval fish.</t>
-  </si>
-  <si>
-    <t>http://greatlakesecho.org/2019/09/04/record-a-prized-catch-for-science-without-revealing-your-favorite-fishing-hole/</t>
-  </si>
-  <si>
-    <t>Interview led to an article being published</t>
-  </si>
-  <si>
-    <t>https://news.jrn.msu.edu/2019/09/record-a-prized-catch-for-science-without-revealing-your-favorite-fishing-hole/</t>
-  </si>
-  <si>
-    <t>Discussion with a Sanibel Island Engagement Group for Development</t>
-  </si>
-  <si>
-    <t>Deep sea shark research trip</t>
-  </si>
-  <si>
-    <t>Participants on the deep sea shark research trip</t>
-  </si>
-  <si>
-    <t>Guest speaker for 3 hr meeting of Trout Unlimited Elliott Donnelly Chapter in Chicago</t>
-  </si>
-  <si>
-    <t>Mussel monitoring in the North Branch of Nippersink Creek near Richmond, IL.</t>
-  </si>
-  <si>
-    <t>Presentation of Port of Miami dredging impacts to US Army Corps scientists</t>
-  </si>
-  <si>
-    <t>IL-IN Sea Grant AIS workshop (7 hrs)</t>
-  </si>
-  <si>
-    <t>Coral spawning research at Cape Eleuthera Institute</t>
-  </si>
-  <si>
-    <t>3 classes of Freshwater Ecology ACCA for 20 students (Sept 14, 21, 28)</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.ijppaw.2019.08.003</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t9bx1ZAR6Hg&amp;list=PL_P35GZcjx3Gg4Gdje1KI7RipZJBF5zU2&amp;index=3&amp;t=0s</t>
-  </si>
-  <si>
-    <t>video of my research and the kayak program https://www.youtube.com/watch?v=t9bx1ZAR6Hg&amp;list=PL_P35GZcjx3Gg4Gdje1KI7RipZJBF5zU2&amp;index=3&amp;t=0s</t>
-  </si>
-  <si>
-    <t>SECORE workshop participants and CEI interns engaged in coral spawning research at CEI</t>
-  </si>
-  <si>
-    <t>Light trap with Austin</t>
-  </si>
-  <si>
-    <t>Mussel survey in Coffee Creek near Chesterton, IN, with INDNR and USGS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seminar for seminar series at the University of Illinois </t>
-  </si>
-  <si>
-    <t>Worked with intern Cam to analyze lobster video for 2 days</t>
-  </si>
-  <si>
-    <t>ICCAT Species Working group meeting. Gave 2 talks - one on data overview for tuna growth project and the other on a Bayesian method for aging spines. (50 attendees)</t>
-  </si>
-  <si>
-    <t>Larval Fish with Austin</t>
-  </si>
-  <si>
-    <t>American Fisheries Society Meeting in Reno, NV. Led Estuaries Section business meeting on Sunday (as president of chapter), attended governing board breakfast Monday, gave talk on Tuesday on PIT tag model for nested riverine systems, and attended conference talks. Posted to twitter account during the meeting.</t>
-  </si>
-  <si>
-    <t>Coral research trip on R/V CRII</t>
-  </si>
-  <si>
-    <t>28 participants in coral research trip on R/V CRII. 11 at a time on the boat working 8 hours per day for 14 days = 1232 person-hours.</t>
+    <t>Yoga/coral event with Learning</t>
+  </si>
+  <si>
+    <t>Skype a Scientist. Clasroom of STEAM from Resurrection HS in Chicago (all-girls school) with Megan Leider's class - talking about careers in marine science and educational background. 40minutes long. (20 attendees)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skype with Elizabeth Stamp's kindergarten class in Washington state for 40minutes. Discussed salmon and what I do as a scientist. </t>
+  </si>
+  <si>
+    <t>Andy and Austin present to Northwestern Law Students.</t>
+  </si>
+  <si>
+    <t>Skype a Scientist into Underwood Elementary 6th grade class w Ms Nowlin</t>
+  </si>
+  <si>
+    <t>Shedd coral tour for International Coral Reef Society President Grottoli and daughter</t>
+  </si>
+  <si>
+    <t>Shedd coral tour for Hauswirth group with Development</t>
+  </si>
+  <si>
+    <t>Site prep with GLAD team</t>
+  </si>
+  <si>
+    <t>Austin and Ross (with Jaclyn) speak to Tim Hoellein's Global Change Biology class at Loyola</t>
+  </si>
+  <si>
+    <t>Andrea Gomez 3-week research internship</t>
+  </si>
+  <si>
+    <t>Dr. Sam Starko visiting researcher 1-week lab project</t>
+  </si>
+  <si>
+    <t>NSF URoL Epigenetics PI meeting in Santa Barbara</t>
+  </si>
+  <si>
+    <t>NSF Moorea Coral Reef LTER All Investigators Meeting, Santa Barbara</t>
+  </si>
+  <si>
+    <t>Mentor Matching engine - mentoring Senior at Downers Grove North in west suburbs of Chicago - on project Marine Ecology Research Project</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/entertainment/museums/ct-ent-shedd-aquarium-coral-reef-research-climate-change-1215-20191211-lmp6g4sbqrcu7flckl7baaosrm-story.html</t>
+  </si>
+  <si>
+    <t>Chicago Tribune main story on coral research in the Bahamas</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/entertainment/museums/ct-ent-shedd-aquarium-research-vessel-coral-reef-climate-change-1216-20191211-nc2uwelrnbaelomptx23axpree-story.html</t>
+  </si>
+  <si>
+    <t>Chicago Tribune supporting story on life aboard the Coral Reef II</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/204d2637-5b2d-49ca-b33d-9fd55e4d71d0-132.html</t>
+  </si>
+  <si>
+    <t>Chicago Tribune video interview on coral reef research in the Bahamas</t>
+  </si>
+  <si>
+    <t>scolborne@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>https://wbbm780.radio.com/articles/there-may-be-silver-lining-to-invasive-species-in-lake</t>
+  </si>
+  <si>
+    <t>Radio interview with WBBM</t>
+  </si>
+  <si>
+    <t>Colborne et al. 2019. Sequence analysis and acoustic tracking of individual lake sturgeon identify multiple patterns of river–lake habitat use. Ecosphere 10(12): e02983</t>
+  </si>
+  <si>
+    <t>IUCN Leaders Meeting</t>
+  </si>
+  <si>
+    <t>IUCN Iguana Specialist Group meeting</t>
+  </si>
+  <si>
+    <t>van den Burg, M.P., Brisbane, J.L.K. &amp; Knapp, C.R. Biol Invasions (2019). https://doi.org/10.1007/s10530-019-02107-5</t>
+  </si>
+  <si>
+    <t>http://iaglr.org/ll/2019-3-Fall_LL3.pdf</t>
+  </si>
+  <si>
+    <t>Non-peer reviewed publication I wrote about how the black spot disease paper came to be. Also speaks on Great Lakes Fish Finder and iNaturalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haerther Work Day - buckthorn removal </t>
+  </si>
+  <si>
+    <t>https://news.wttw.com/2020/01/02/new-shedd-scientist-studies-impact-invasive-species-lake-michigan</t>
+  </si>
+  <si>
+    <t>Interview segment on WTTW Chicago Tonight about role at Shedd</t>
+  </si>
+  <si>
+    <t>https://urbanmilwaukee.com/pressrelease/business-leaders-meet-at-shedd-aquarium-to-discuss-protecting-restoring-vitality-of-great-lakes/</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Murchie gave graduate seminar at UW-Madison</t>
+  </si>
+  <si>
+    <t>Great Lakes Business Network Aquatic Invasive Species presentation representing Shedd</t>
+  </si>
+  <si>
+    <t>Environmental Chicago (EnvChi) talk on migratory fishes at Dovetail Brewery</t>
+  </si>
+  <si>
+    <t>Speaking on freshwater biodiversity conservation through public aquarium collab to UIC students</t>
+  </si>
+  <si>
+    <t>field research in Highland Park</t>
   </si>
   <si>
     <t>20 FW ACCA students engaged in 3 days in October (Oct 5, 12, 19)</t>
   </si>
   <si>
+    <t>Coral Epigenetics field research in Moorea</t>
+  </si>
+  <si>
+    <t>Skype call with high school students participating in GLAD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buckthorn removal </t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/MicroFishing/comments/elty76/rmicrofishing_shout_out_in_research_paper/</t>
+  </si>
+  <si>
+    <t>Posted to the Reddit Microfishing page that we spoke about them in a research paper. It received 50 upvotes, which means ATLEAST 50 people read my post, but likely way more did as the community numbers &gt; 5,000</t>
+  </si>
+  <si>
+    <t>Lecture and Lab for vertebrate ecology course at Loyola.</t>
+  </si>
+  <si>
+    <t>Inoue K, Pohl AL, Makiri S, Lang BK, Berg DJ. (2020) Use of species delimitation approach to assess biodiversity in freshwater planarians (Platyhelminthes: Tricladida) from desert springs. Aquatic Conservation: Marine and Freshwater Ecosystems, DOI: 10.1002/aqc.3273</t>
+  </si>
+  <si>
+    <t>Presented at The Night of Ideas. &gt;5,000 attended event, and estimated 125 came to my talk.</t>
+  </si>
+  <si>
+    <t>Spoke about our research programs at the 'Waves of Gratitude' event for the auxiliary board</t>
+  </si>
+  <si>
     <t>Coral research trip</t>
   </si>
   <si>
-    <t>IUCN Leaders Meeting</t>
-  </si>
-  <si>
-    <t>van den Burg, M.P., Brisbane, J.L.K. &amp; Knapp, C.R. Biol Invasions (2019). https://doi.org/10.1007/s10530-019-02107-5</t>
-  </si>
-  <si>
     <t>Coral trip</t>
   </si>
   <si>
-    <t>9 students and 3 teachers engaged in high school research projects through the Mentor Matching Engine. This sets studnets doing research projects (think science fair) with professionals to get help on the projects and work through problems. Projects are on-going, usually through a whole semester.</t>
-  </si>
-  <si>
-    <t>Skype a Scientist with 5th grade classroom in Columbus, OH - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist.  (20 attendees)</t>
-  </si>
-  <si>
-    <t>http://www.ceibahamas.org/ceinews/2019/10/16/coral-breeding-amp-restoration-workshop</t>
-  </si>
-  <si>
-    <t>CEI news article about Shedd/UM coral research associated with SECORE/spawning trip</t>
-  </si>
-  <si>
-    <t>Met with Purdue Student-unit of the American Fisheries Society to discuss career path and options.</t>
-  </si>
-  <si>
-    <t>Teen Lab engagement; introduction to freshwater mussels</t>
-  </si>
-  <si>
-    <t>Seminar at Purdue University's Forestry and Natural Resources Department.</t>
-  </si>
-  <si>
-    <t>field research in Highland Park</t>
-  </si>
-  <si>
-    <t>Teen Lab presentation and Chat</t>
-  </si>
-  <si>
-    <t>Science and Design committee of the River Ecology and Governance Task Force</t>
-  </si>
-  <si>
-    <t>Guest speaker for Biology departmental seminar at Loyola University</t>
-  </si>
-  <si>
-    <t>Murchie gave graduate seminar at UW-Madison</t>
-  </si>
-  <si>
-    <t>Meeting with collaborators to discuss NSF LTER Urban Centers proposal.</t>
-  </si>
-  <si>
-    <t>Skype a Scientist with 5th grade classroom in Columbus, OH (different group of students) - discussed climate change and impacts on fisheries, and what it is like to be a marine scientist. (20 attendees)</t>
-  </si>
-  <si>
-    <t>Spoke with Tribune reporter Steve for 40 minutes!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross and Steve spoke at a President's Council Event at the Connell's </t>
-  </si>
-  <si>
-    <t>Great Lakes Business Network Aquatic Invasive Species presentation representing Shedd</t>
-  </si>
-  <si>
-    <t>Environmental Chicago (EnvChi) talk on migratory fishes at Dovetail Brewery</t>
-  </si>
-  <si>
-    <t>https://urbanmilwaukee.com/pressrelease/business-leaders-meet-at-shedd-aquarium-to-discuss-protecting-restoring-vitality-of-great-lakes/</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Speaking on freshwater biodiversity conservation through public aquarium collab to UIC students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skype with Elizabeth Stamp's kindergarten class in Washington state for 40minutes. Discussed salmon and what I do as a scientist. </t>
-  </si>
-  <si>
-    <t>Andrea Gomez 3-week research internship</t>
-  </si>
-  <si>
-    <t>Yoga/coral event with Learning</t>
-  </si>
-  <si>
-    <t>IUCN Iguana Specialist Group meeting</t>
-  </si>
-  <si>
-    <t>Skype a Scientist. Clasroom of STEAM from Resurrection HS in Chicago (all-girls school) with Megan Leider's class - talking about careers in marine science and educational background. 40minutes long. (20 attendees)</t>
-  </si>
-  <si>
-    <t>Mentor Matching engine - mentoring Senior at Downers Grove North in west suburbs of Chicago - on project Marine Ecology Research Project</t>
-  </si>
-  <si>
-    <t>Andy and Austin present to Northwestern Law Students.</t>
-  </si>
-  <si>
-    <t>Skype a Scientist into Underwood Elementary 6th grade class w Ms Nowlin</t>
-  </si>
-  <si>
-    <t>Shedd coral tour for International Coral Reef Society President Grottoli and daughter</t>
-  </si>
-  <si>
-    <t>Shedd coral tour for Hauswirth group with Development</t>
-  </si>
-  <si>
-    <t>Site prep with GLAD team</t>
-  </si>
-  <si>
-    <t>Austin and Ross (with Jaclyn) speak to Tim Hoellein's Global Change Biology class at Loyola</t>
-  </si>
-  <si>
-    <t>Dr. Sam Starko visiting researcher 1-week lab project</t>
-  </si>
-  <si>
-    <t>Skype call with high school students participating in GLAD.</t>
-  </si>
-  <si>
-    <t>http://iaglr.org/ll/2019-3-Fall_LL3.pdf</t>
-  </si>
-  <si>
-    <t>Non-peer reviewed publication I wrote about how the black spot disease paper came to be. Also speaks on Great Lakes Fish Finder and iNaturalist</t>
-  </si>
-  <si>
-    <t>Spoke about our research programs at the 'Waves of Gratitude' event for the auxiliary board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckthorn removal </t>
-  </si>
-  <si>
-    <t>NSF URoL Epigenetics PI meeting in Santa Barbara</t>
-  </si>
-  <si>
-    <t>NSF Moorea Coral Reef LTER All Investigators Meeting, Santa Barbara</t>
-  </si>
-  <si>
-    <t>scolborne@sheddaquarium.org</t>
-  </si>
-  <si>
-    <t>Colborne et al. 2019. Sequence analysis and acoustic tracking of individual lake sturgeon identify multiple patterns of river–lake habitat use. Ecosphere 10(12): e02983</t>
-  </si>
-  <si>
-    <t>https://www.chicagotribune.com/204d2637-5b2d-49ca-b33d-9fd55e4d71d0-132.html</t>
-  </si>
-  <si>
-    <t>Chicago Tribune video interview on coral reef research in the Bahamas</t>
-  </si>
-  <si>
-    <t>https://www.chicagotribune.com/entertainment/museums/ct-ent-shedd-aquarium-coral-reef-research-climate-change-1215-20191211-lmp6g4sbqrcu7flckl7baaosrm-story.html</t>
-  </si>
-  <si>
-    <t>Chicago Tribune main story on coral research in the Bahamas</t>
-  </si>
-  <si>
-    <t>https://www.chicagotribune.com/entertainment/museums/ct-ent-shedd-aquarium-research-vessel-coral-reef-climate-change-1216-20191211-nc2uwelrnbaelomptx23axpree-story.html</t>
-  </si>
-  <si>
-    <t>Chicago Tribune supporting story on life aboard the Coral Reef II</t>
-  </si>
-  <si>
-    <t>https://wbbm780.radio.com/articles/there-may-be-silver-lining-to-invasive-species-in-lake</t>
-  </si>
-  <si>
-    <t>Radio interview with WBBM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haerther Work Day - buckthorn removal </t>
+    <t>Interview for ScienceWorld - a Scholastic magazine for highschoolers</t>
   </si>
   <si>
     <t xml:space="preserve">Happel A., K.J. Murchie, P. W. Willink, and C.R. Knapp. In Press. Great Lakes Fish Finder App; a tool for biologists, managers and education practitioners. Journal of Great Lakes Research. XX:XX-XX. https://doi.org/10.1016/j.jglr.2019.12.002 </t>
   </si>
   <si>
-    <t>Coral Epigenetics field research in Moorea</t>
-  </si>
-  <si>
-    <t>https://news.wttw.com/2020/01/02/new-shedd-scientist-studies-impact-invasive-species-lake-michigan</t>
-  </si>
-  <si>
-    <t>Interview segment on WTTW Chicago Tonight about role at Shedd</t>
-  </si>
-  <si>
-    <t>https://www.reddit.com/r/MicroFishing/comments/elty76/rmicrofishing_shout_out_in_research_paper/</t>
-  </si>
-  <si>
-    <t>Posted to the Reddit Microfishing page that we spoke about them in a research paper. It received 50 upvotes, which means ATLEAST 50 people read my post, but likely way more did as the community numbers &gt; 5,000</t>
-  </si>
-  <si>
-    <t>Lecture and Lab for vertebrate ecology course at Loyola.</t>
-  </si>
-  <si>
-    <t>Inoue K, Pohl AL, Makiri S, Lang BK, Berg DJ. (2020) Use of species delimitation approach to assess biodiversity in freshwater planarians (Platyhelminthes: Tricladida) from desert springs. Aquatic Conservation: Marine and Freshwater Ecosystems, DOI: 10.1002/aqc.3273</t>
-  </si>
-  <si>
-    <t>Presented at The Night of Ideas. &gt;5,000 attended event, and estimated 125 came to my talk.</t>
-  </si>
-  <si>
-    <t>Interview for ScienceWorld - a Scholastic magazine for highschoolers</t>
-  </si>
-  <si>
     <t>Q&amp;A at 'Chasing Coral' screening at Downer's Grove public library</t>
   </si>
   <si>
@@ -1174,6 +1174,21 @@
   </si>
   <si>
     <t>Zoom lecture to undergraduate coral reef ecology class at Univ. South Carolina</t>
+  </si>
+  <si>
+    <t>Interview with SeaGrant to help inform press release for paper on salmon ecology in lake michigan</t>
+  </si>
+  <si>
+    <t>https://www.nationalgeographic.com/science/2020/06/scientists-work-to-save-coral-reefs-climate-change-marine-parks/</t>
+  </si>
+  <si>
+    <t>Interviewed for Nat Geo story on coral reef conservation / recent publication</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0380133020300769</t>
+  </si>
+  <si>
+    <t>Nawrocki, B., McLeod, A. M., Hussey, N. E., Colborne, S. F., Del Papa, J., &amp; Fisk, A. T. (2020). Assessing trophic position quantification methods for three piscivorous freshwater fish using stable isotopes and stomach contents. Journal of Great Lakes Research.</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1261,6 +1276,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1296,10 +1314,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I323" totalsRowShown="0">
-  <autoFilter ref="A1:I323" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I260">
-    <sortCondition ref="D1:D260"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I326" totalsRowShown="0">
+  <autoFilter ref="A1:I326" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I325">
+    <sortCondition ref="A1:A325"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
@@ -1613,14 +1631,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B59" dT="2020-04-07T23:00:03.31" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{3F82C016-BF87-43C7-AF30-685D699C00F1}">
-    <text xml:space="preserve">@Kessel, Steve this entry blank?
-</text>
-    <mentions>
-      <mention mentionpersonId="{9E2245FB-B1CE-4AE1-8D04-16BB360F4C0D}" mentionId="{DEFD0F88-539B-40EF-84AD-8781F4B56A50}" startIndex="0" length="14"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="C110" dT="2020-04-07T22:58:40.39" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+  <threadedComment ref="C85" dT="2020-04-07T22:58:40.39" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
     <text xml:space="preserve">@Murchie, Karen @Inoue, Kentaro @Knapp, Chuck how should these be counted following our discussion today? Stakeholder engagement, or presentation? If the former, should only count the 40 once I think...
 </text>
     <mentions>
@@ -1629,17 +1640,24 @@
       <mention mentionpersonId="{CE41439A-C0FB-4FCC-8D46-08413F3A37F8}" mentionId="{53A8910A-DB30-4973-9152-BDB47DA0913A}" startIndex="32" length="13"/>
     </mentions>
   </threadedComment>
-  <threadedComment ref="C110" dT="2020-04-07T23:02:28.92" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{91EC6D4A-781D-44CC-93E3-7573CDA7DFCB}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+  <threadedComment ref="C85" dT="2020-04-07T23:02:28.92" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{91EC6D4A-781D-44CC-93E3-7573CDA7DFCB}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
     <text xml:space="preserve">This was a full 8hr day with 40 volunteers engaging them in a variety of activities rather than a 1 hr presentation. I would still leave it here
 </text>
   </threadedComment>
-  <threadedComment ref="C110" dT="2020-04-07T23:11:04.17" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{503F9CDB-A2EE-4E02-882A-437526016399}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+  <threadedComment ref="C85" dT="2020-04-07T23:11:04.17" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{503F9CDB-A2EE-4E02-882A-437526016399}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
     <text xml:space="preserve">OK, then should we delete one of the two rows so the 40 people aren't being counted twice?
 </text>
   </threadedComment>
-  <threadedComment ref="C110" dT="2020-04-08T00:08:26.25" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{70179C9C-AD9E-4321-9E21-5787C8049A4A}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
+  <threadedComment ref="C85" dT="2020-04-08T00:08:26.25" personId="{9C6C9EF3-4F75-493D-98A9-1FD967EF76CC}" id="{70179C9C-AD9E-4321-9E21-5787C8049A4A}" parentId="{0D943B3F-A01E-467C-AE66-820721F4FC5E}">
     <text xml:space="preserve">If Chuck agrees that this works better as a deeper engagement (I see it like one full ACCA class of a day of learning), then ya, I would delete one entry and count the 40 people once. Thank you Ross!
 </text>
+  </threadedComment>
+  <threadedComment ref="B104" dT="2020-04-07T23:00:03.31" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{3F82C016-BF87-43C7-AF30-685D699C00F1}">
+    <text xml:space="preserve">@Kessel, Steve this entry blank?
+</text>
+    <mentions>
+      <mention mentionpersonId="{9E2245FB-B1CE-4AE1-8D04-16BB360F4C0D}" mentionId="{DEFD0F88-539B-40EF-84AD-8781F4B56A50}" startIndex="0" length="14"/>
+    </mentions>
   </threadedComment>
   <threadedComment ref="C281" dT="2020-04-07T22:50:21.72" personId="{D6EA436D-BF25-46F5-B97C-57CB202798B3}" id="{B50C9C38-935F-4B25-8180-404F4A863DB0}" done="1">
     <text xml:space="preserve">@Youngquist, Melissa can you confirm if this should be stakeholder engagement or change to presentation - @Inoue, Kentaro pls fill in from our convo from today!
@@ -1665,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:I326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="G318" sqref="G318"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1712,7 +1730,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>43557.815960648149</v>
+        <v>43537.01394675926</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1721,75 +1739,76 @@
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>43466</v>
+        <v>43485</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>43558.614201388889</v>
+        <v>43537.01525462963</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>43469</v>
+        <v>43530</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+        <v>75</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>43634.730138888888</v>
+        <v>43537.015798611108</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>43475</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>43498</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>43558.61446759259</v>
+        <v>43542.600381944445</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>43476</v>
+        <v>43510</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>43634.730439814812</v>
+        <v>43542.600914351853</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1798,211 +1817,220 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>43476</v>
-      </c>
-      <c r="E6" t="s">
+        <v>43525</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>43558.608900462961</v>
+        <v>43542.641527777778</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
-        <v>43477</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
+        <v>43533</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <f>G7*1</f>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>43557.839965277781</v>
+        <v>43542.642442129632</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>43479</v>
+        <v>43522</v>
       </c>
       <c r="E8" s="2"/>
+      <c r="G8">
+        <v>100</v>
+      </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>43634.729467592595</v>
+        <v>43542.643101851849</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
-        <v>43479</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>43539</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>43558.614675925928</v>
+        <v>43550.586238425924</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
-        <v>43481</v>
+        <v>43538</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>43634.727546296293</v>
+        <v>43550.58761574074</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>43481</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
+        <v>43515</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>43634.727939814817</v>
+        <v>43557.815960648149</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2">
-        <v>43481</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>43466</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>43636.670393518521</v>
+        <v>43557.818229166667</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>43481</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>43491</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>43537.01394675926</v>
+        <v>43557.818668981483</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
       <c r="D14" s="2">
-        <v>43485</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
+        <v>43518</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>43558.606712962966</v>
+        <v>43557.83421296296</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>43487</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="I15" t="s">
-        <v>30</v>
+        <v>43529</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>43634.723275462966</v>
+        <v>43557.835231481484</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
-        <v>43490</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" t="s">
+        <v>43535</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>43557.818229166667</v>
+        <v>43557.835717592592</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
-        <v>43491</v>
+        <v>43554</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -2010,1253 +2038,1265 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>43636.671099537038</v>
+        <v>43557.839965277781</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
-        <v>43495</v>
+        <v>43479</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="5" t="s">
+      <c r="I18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>43637.13658564815</v>
+        <v>43557.84070601852</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2">
-        <v>43495</v>
+        <v>43516</v>
       </c>
       <c r="E19" s="2"/>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>43537.015798611108</v>
+        <v>43557.841168981482</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2">
-        <v>43498</v>
+        <v>43550</v>
       </c>
       <c r="E20" s="2"/>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>43636.6715625</v>
+        <v>43557.841562499998</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2">
-        <v>43500</v>
+        <v>43538</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="5" t="s">
-        <v>38</v>
+      <c r="I21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>43636.672824074078</v>
+        <v>43557.842476851853</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>43504</v>
+        <v>43542</v>
       </c>
       <c r="E22" s="2"/>
       <c r="G22">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>43637.134652777779</v>
+        <v>43557.843009259261</v>
       </c>
       <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43542</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="2">
-        <v>43508</v>
-      </c>
-      <c r="E23" s="2"/>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>43542.600381944445</v>
+        <v>43557.857361111113</v>
       </c>
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43539</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2">
-        <v>43510</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>43550.58761574074</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
+        <v>43557.858043981483</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>43515</v>
+        <v>43518</v>
       </c>
       <c r="E25" s="2"/>
       <c r="G25">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>43557.858773148146</v>
+        <v>43557.858287037037</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
-        <v>43515</v>
+        <v>43538</v>
       </c>
       <c r="E26" s="2"/>
       <c r="G26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>43637.135844907411</v>
+        <v>43557.858773148146</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2">
         <v>43515</v>
       </c>
       <c r="E27" s="2"/>
       <c r="G27">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>43557.84070601852</v>
+        <v>43558.596550925926</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2">
-        <v>43516</v>
+        <v>43539</v>
       </c>
       <c r="E28" s="2"/>
+      <c r="G28">
+        <v>5</v>
+      </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>43557.818668981483</v>
+        <v>43558.606712962966</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>43518</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
+        <v>43487</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="I29" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>43557.858043981483</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>43558.608900462961</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
-        <v>43518</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="G30">
-        <v>16</v>
+        <v>43477</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>43558.610682870371</v>
+        <v>43558.610011574077</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
-        <v>43519</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>43544</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>43542.642442129632</v>
+        <v>43558.610682870371</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
-        <v>43522</v>
+        <v>43519</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="G32">
-        <v>100</v>
-      </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>43542.600914351853</v>
+        <v>43558.612858796296</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="2">
-        <v>43525</v>
+        <v>43539</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" t="s">
-        <v>53</v>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>43636.673136574071</v>
+        <v>43558.61310185185</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2">
-        <v>43527</v>
+        <v>43539</v>
       </c>
       <c r="E34" s="2"/>
       <c r="G34">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>43577.606180555558</v>
+        <v>43558.614201388889</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2">
-        <v>43528</v>
+        <v>43469</v>
       </c>
       <c r="E35" s="2"/>
       <c r="G35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>43557.83421296296</v>
+        <v>43558.61446759259</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>43529</v>
-      </c>
-      <c r="E36" t="s">
-        <v>56</v>
+        <v>43476</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>43637.140381944446</v>
+        <v>43558.614675925928</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
-        <v>43529</v>
+        <v>43481</v>
       </c>
       <c r="E37" s="2"/>
+      <c r="G37">
+        <v>1</v>
+      </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>43537.01525462963</v>
+        <v>43559.780844907407</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="2">
-        <v>43530</v>
+        <v>43558</v>
       </c>
       <c r="E38" s="2"/>
       <c r="G38">
-        <v>75</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <f>G38*1</f>
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>43637.138483796298</v>
+        <v>43563.665046296293</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2">
-        <v>43530</v>
+        <v>43560</v>
       </c>
       <c r="E39" s="2"/>
+      <c r="G39">
+        <v>30</v>
+      </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>43634.721018518518</v>
+        <v>43577.60497685185</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2">
-        <v>43531</v>
+        <v>43569</v>
       </c>
       <c r="E40" s="2"/>
       <c r="G40">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>43542.641527777778</v>
+        <v>43577.605439814812</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2">
-        <v>43533</v>
+        <v>43570</v>
       </c>
       <c r="E41" s="2"/>
       <c r="G41">
-        <v>12</v>
-      </c>
-      <c r="H41">
-        <f>G41*1</f>
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>43557.835231481484</v>
+        <v>43577.606180555558</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2">
-        <v>43535</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>63</v>
+        <v>43528</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>43634.733263888891</v>
+        <v>43580.639224537037</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2">
-        <v>43535</v>
+        <v>43579</v>
       </c>
       <c r="E43" s="2"/>
       <c r="G43">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>43550.586238425924</v>
+        <v>43580.639768518522</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>43538</v>
+        <v>43578</v>
       </c>
       <c r="E44" s="2"/>
       <c r="G44">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>43557.841562499998</v>
+        <v>43584.792407407411</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2">
-        <v>43538</v>
+        <v>43584</v>
       </c>
       <c r="E45" s="2"/>
+      <c r="G45">
+        <v>12</v>
+      </c>
       <c r="I45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>43557.858287037037</v>
+        <v>43584.792615740742</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2">
-        <v>43538</v>
+        <v>43579</v>
       </c>
       <c r="E46" s="2"/>
       <c r="G46">
-        <v>100</v>
-      </c>
-      <c r="I46" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>43542.643101851849</v>
+        <v>43601.63795138889</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2">
-        <v>43539</v>
+        <v>43599</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="G47">
-        <v>5</v>
-      </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>43557.857361111113</v>
+        <v>43601.640324074076</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
-        <v>43539</v>
+        <v>43546</v>
       </c>
       <c r="E48" s="2"/>
       <c r="G48">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>43558.596550925926</v>
+        <v>43601.640324074076</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="2">
-        <v>43539</v>
+        <v>43546</v>
       </c>
       <c r="E49" s="2"/>
       <c r="G49">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>160</v>
       </c>
       <c r="I49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>43558.612858796296</v>
+        <v>43602.594085648147</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2">
-        <v>43539</v>
+        <v>43598</v>
       </c>
       <c r="E50" s="2"/>
       <c r="G50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>43558.61310185185</v>
+        <v>43602.595289351855</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2">
-        <v>43539</v>
+        <v>43592</v>
       </c>
       <c r="E51" s="2"/>
       <c r="G51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>43634.731608796297</v>
+        <v>43602.595694444448</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2">
-        <v>43541</v>
-      </c>
-      <c r="E52" t="s">
-        <v>70</v>
+        <v>43590</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>43557.842476851853</v>
+        <v>43602.596446759257</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2">
-        <v>43542</v>
+        <v>43600</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="G53">
-        <v>5</v>
+      <c r="F53" t="s">
+        <v>67</v>
       </c>
       <c r="I53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>43557.843009259261</v>
+        <v>43615.901655092595</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D54" s="2">
-        <v>43542</v>
+        <v>43612</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="G54">
-        <v>35</v>
-      </c>
-      <c r="I54" t="s">
-        <v>72</v>
+      <c r="F54" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>43558.610011574077</v>
+        <v>43615.90315972222</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2">
-        <v>43544</v>
-      </c>
-      <c r="E55" t="s">
-        <v>73</v>
-      </c>
+        <v>43607</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="I55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>43634.718287037038</v>
+        <v>43615.904120370367</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
-        <v>43544</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s">
-        <v>75</v>
+        <v>43614</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>43634.734479166669</v>
+        <v>43620.904340277775</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2">
-        <v>43545</v>
+        <v>43617</v>
       </c>
       <c r="E57" s="2"/>
       <c r="G57">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>43636.675393518519</v>
+        <v>43620.904687499999</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
-        <v>43545</v>
+        <v>43618</v>
       </c>
       <c r="E58" s="2"/>
       <c r="G58">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>43636.675891203704</v>
+        <v>43627.6565162037</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2">
-        <v>43545</v>
+        <v>43618</v>
       </c>
       <c r="E59" s="2"/>
       <c r="G59">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>43601.640324074076</v>
+        <v>43627.656689814816</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2">
-        <v>43546</v>
+        <v>43622</v>
       </c>
       <c r="E60" s="2"/>
       <c r="G60">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>43601.640324074076</v>
+        <v>43627.658136574071</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2">
-        <v>43546</v>
+        <v>43586</v>
       </c>
       <c r="E61" s="2"/>
       <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>43557.841168981482</v>
+        <v>43633.90730324074</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2">
-        <v>43550</v>
+        <v>43630</v>
       </c>
       <c r="E62" s="2"/>
+      <c r="G62">
+        <v>1</v>
+      </c>
       <c r="I62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>43649.675844907404</v>
+        <v>43633.907500000001</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="2">
-        <v>43551</v>
+        <v>43632</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" t="s">
-        <v>80</v>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>43557.835717592592</v>
+        <v>43634.718287037038</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2">
-        <v>43554</v>
-      </c>
-      <c r="E64" t="s">
-        <v>81</v>
+        <v>43544</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>43634.775393518517</v>
+        <v>43634.720254629632</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2">
-        <v>43556</v>
+        <v>43565</v>
       </c>
       <c r="E65" s="2"/>
       <c r="G65">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>43559.780844907407</v>
+        <v>43634.721018518518</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D66" s="2">
-        <v>43558</v>
+        <v>43531</v>
       </c>
       <c r="E66" s="2"/>
       <c r="G66">
-        <v>10</v>
-      </c>
-      <c r="H66">
-        <f>G66*1</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>43634.733877314815</v>
+        <v>43634.721805555557</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" s="2">
-        <v>43558</v>
+        <v>43626</v>
       </c>
       <c r="E67" s="2"/>
       <c r="G67">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>43563.665046296293</v>
+        <v>43634.723275462966</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
-        <v>43560</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="G68">
-        <v>30</v>
+        <v>43490</v>
+      </c>
+      <c r="E68" t="s">
+        <v>84</v>
       </c>
       <c r="I68" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="1">
-        <v>43636.675891203704</v>
-      </c>
-      <c r="B69" t="s">
-        <v>26</v>
+      <c r="A69" s="12">
+        <v>43634.723692129628</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
-        <v>43561</v>
+        <v>43634</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="G69">
-        <v>7</v>
-      </c>
       <c r="I69" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>43636.675891203704</v>
+        <v>43634.724305555559</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D70" s="2">
-        <v>43561</v>
+        <v>43564</v>
       </c>
       <c r="E70" s="2"/>
       <c r="G70">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>43634.724305555559</v>
+        <v>43634.724999999999</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="E71" s="2"/>
       <c r="G71">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>43634.720254629632</v>
+        <v>43634.725937499999</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>43565</v>
+        <v>43568</v>
       </c>
       <c r="E72" s="2"/>
       <c r="G72">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>43634.724999999999</v>
+        <v>43634.727546296293</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
-        <v>43565</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="G73">
-        <v>19</v>
-      </c>
-      <c r="I73" t="s">
-        <v>89</v>
+        <v>43481</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>43634.784085648149</v>
+        <v>43634.727939814817</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
-        <v>43566</v>
-      </c>
-      <c r="E74" t="s">
-        <v>90</v>
+        <v>43481</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>43637.132731481484</v>
+        <v>43634.729467592595</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
-        <v>43567</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="I75" t="s">
-        <v>91</v>
+        <v>43479</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>43634.725937499999</v>
+        <v>43634.730138888888</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
-        <v>43568</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="G76">
-        <v>18</v>
-      </c>
-      <c r="I76" t="s">
-        <v>92</v>
+        <v>43475</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>43634.77275462963</v>
+        <v>43634.730439814812</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
-        <v>43568</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="G77">
-        <v>28</v>
-      </c>
-      <c r="I77" t="s">
-        <v>93</v>
+        <v>43476</v>
+      </c>
+      <c r="E77" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>43577.60497685185</v>
+        <v>43634.731608796297</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
-        <v>43569</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="G78">
-        <v>40</v>
-      </c>
-      <c r="I78" t="s">
-        <v>94</v>
+        <v>43541</v>
+      </c>
+      <c r="E78" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>43577.605439814812</v>
+        <v>43634.733263888891</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2">
-        <v>43570</v>
+        <v>43535</v>
       </c>
       <c r="E79" s="2"/>
       <c r="G79">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>43637.125092592592</v>
+        <v>43634.733877314815</v>
       </c>
       <c r="B80" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2">
-        <v>43571</v>
-      </c>
-      <c r="E80" t="s">
-        <v>96</v>
+        <v>43558</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="G80">
+        <v>4</v>
       </c>
       <c r="I80" t="s">
         <v>97</v>
@@ -3264,69 +3304,76 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>43636.674953703703</v>
+        <v>43634.734479166669</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2">
-        <v>43572</v>
-      </c>
-      <c r="E81" t="s">
+        <v>43545</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="G81">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>43634.764826388891</v>
+        <v>43634.735115740739</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="2">
-        <v>43577</v>
+        <v>43635</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" t="s">
+      <c r="G82">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1">
-        <v>43580.639768518522</v>
+      <c r="A83" s="12">
+        <v>43634.751307870371</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2">
-        <v>43578</v>
+        <v>43634</v>
       </c>
       <c r="E83" s="2"/>
       <c r="G83">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I83" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1">
-        <v>43580.639224537037</v>
-      </c>
-      <c r="B84" t="s">
-        <v>43</v>
+      <c r="A84" s="12">
+        <v>43634.75577546296</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2">
         <v>43579</v>
@@ -3336,64 +3383,67 @@
         <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="1">
-        <v>43584.792615740742</v>
+      <c r="A85" s="12">
+        <v>43634.757048611114</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2">
-        <v>43579</v>
+        <v>43625</v>
       </c>
       <c r="E85" s="2"/>
       <c r="G85">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="I85" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>43634.75577546296</v>
+        <v>43634.75818287037</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D86" s="2">
-        <v>43579</v>
+        <v>43629</v>
       </c>
       <c r="E86" s="2"/>
       <c r="G86">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>43637.14329861111</v>
+        <v>43634.764826388891</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D87" s="2">
-        <v>43579</v>
+        <v>43577</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="I87" t="s">
-        <v>102</v>
+      <c r="F87" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3401,284 +3451,285 @@
         <v>43634.769444444442</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>43581</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G88" s="4">
         <v>1</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>43584.792407407411</v>
+        <v>43634.771886574075</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2">
-        <v>43584</v>
+        <v>43602</v>
       </c>
       <c r="E89" s="2"/>
       <c r="G89">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>43627.658136574071</v>
+        <v>43634.77275462963</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2">
-        <v>43586</v>
+        <v>43568</v>
       </c>
       <c r="E90" s="2"/>
       <c r="G90">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>43602.595694444448</v>
+        <v>43634.775393518517</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2">
-        <v>43590</v>
+        <v>43556</v>
       </c>
       <c r="E91" s="2"/>
       <c r="G91">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>43637.126643518517</v>
+        <v>43634.775960648149</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2">
-        <v>43591</v>
+        <v>43625</v>
       </c>
       <c r="E92" s="2"/>
       <c r="G92">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>43602.595289351855</v>
+        <v>43634.784085648149</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
-        <v>43592</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="G93">
-        <v>2</v>
-      </c>
-      <c r="I93" t="s">
-        <v>109</v>
+        <v>43566</v>
+      </c>
+      <c r="E93" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>43602.594085648147</v>
+        <v>43635.859166666669</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2">
-        <v>43598</v>
+        <v>43635</v>
       </c>
       <c r="E94" s="2"/>
       <c r="G94">
         <v>2</v>
       </c>
+      <c r="H94">
+        <f>G94*1</f>
+        <v>2</v>
+      </c>
       <c r="I94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>43601.63795138889</v>
+        <v>43635.881273148145</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D95" s="2">
-        <v>43599</v>
+        <v>43635</v>
       </c>
       <c r="E95" s="2"/>
+      <c r="G95">
+        <v>1</v>
+      </c>
       <c r="I95" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>43602.596446759257</v>
+        <v>43636.670393518521</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D96" s="2">
-        <v>43600</v>
+        <v>43481</v>
       </c>
       <c r="E96" s="2"/>
-      <c r="F96" t="s">
-        <v>112</v>
-      </c>
-      <c r="I96" t="s">
-        <v>113</v>
+      <c r="F96" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>43636.673981481479</v>
+        <v>43636.671099537038</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D97" s="2">
-        <v>43600</v>
+        <v>43495</v>
       </c>
       <c r="E97" s="2"/>
-      <c r="G97">
-        <v>200</v>
-      </c>
-      <c r="I97" t="s">
-        <v>114</v>
+      <c r="F97" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>43634.771886574075</v>
+        <v>43636.6715625</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D98" s="2">
-        <v>43602</v>
+        <v>43500</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="G98">
-        <v>20</v>
-      </c>
-      <c r="I98" t="s">
-        <v>115</v>
+      <c r="F98" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>43615.90315972222</v>
+        <v>43636.672824074078</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2">
-        <v>43607</v>
+        <v>43504</v>
       </c>
       <c r="E99" s="2"/>
+      <c r="G99">
+        <v>100</v>
+      </c>
       <c r="I99" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>43615.901655092595</v>
+        <v>43636.673136574071</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2">
-        <v>43612</v>
+        <v>43527</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="F100" t="s">
-        <v>117</v>
+      <c r="G100">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>43615.904120370367</v>
+        <v>43636.673981481479</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2">
-        <v>43614</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>118</v>
+        <v>43600</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="G101">
+        <v>200</v>
       </c>
       <c r="I101" t="s">
         <v>119</v>
@@ -3686,498 +3737,465 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>43637.130104166667</v>
+        <v>43636.674953703703</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
-        <v>43616</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="I102" t="s">
+        <v>43572</v>
+      </c>
+      <c r="E102" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>43637.130798611113</v>
+        <v>43636.675393518519</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D103" s="2">
-        <v>43616</v>
+        <v>43545</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="I103" t="s">
-        <v>121</v>
+      <c r="G103">
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>43620.904340277775</v>
+        <v>43636.675891203704</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2">
-        <v>43617</v>
+        <v>43545</v>
       </c>
       <c r="E104" s="2"/>
       <c r="G104">
-        <v>20</v>
-      </c>
-      <c r="I104" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>43620.904687499999</v>
+        <v>43636.675891203704</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2">
-        <v>43618</v>
+        <v>43561</v>
       </c>
       <c r="E105" s="2"/>
       <c r="G105">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I105" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>43627.6565162037</v>
+        <v>43636.675891203704</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2">
-        <v>43618</v>
+        <v>43561</v>
       </c>
       <c r="E106" s="2"/>
       <c r="G106">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I106" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>43649.669988425929</v>
+        <v>43637.12096064815</v>
       </c>
       <c r="B107" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2">
-        <v>43621</v>
+        <v>43633</v>
       </c>
       <c r="E107" s="2"/>
-      <c r="G107">
-        <v>9</v>
-      </c>
       <c r="I107" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>43649.67628472222</v>
+        <v>43637.125092592592</v>
       </c>
       <c r="B108" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C108" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
-        <v>43621</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="G108">
-        <v>5</v>
+        <v>43571</v>
+      </c>
+      <c r="E108" t="s">
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>43627.656689814816</v>
+        <v>43637.126643518517</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D109" s="2">
-        <v>43622</v>
+        <v>43591</v>
       </c>
       <c r="E109" s="2"/>
       <c r="G109">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I109" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>43634.757048611114</v>
+        <v>43637.130104166667</v>
       </c>
       <c r="B110" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2">
-        <v>43625</v>
+        <v>43616</v>
       </c>
       <c r="E110" s="2"/>
-      <c r="G110">
-        <v>40</v>
-      </c>
       <c r="I110" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>43634.775960648149</v>
+        <v>43637.130798611113</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2">
-        <v>43625</v>
+        <v>43616</v>
       </c>
       <c r="E111" s="2"/>
-      <c r="G111">
-        <v>40</v>
-      </c>
       <c r="I111" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>43634.721805555557</v>
+        <v>43637.132118055553</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D112" s="2">
-        <v>43626</v>
+        <v>43633</v>
       </c>
       <c r="E112" s="2"/>
       <c r="G112">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I112" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="7">
-        <v>43643.14329861111</v>
-      </c>
-      <c r="B113" s="6" t="s">
+      <c r="A113" s="1">
+        <v>43637.132731481484</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2">
+        <v>43567</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="I113" t="s">
         <v>130</v>
-      </c>
-      <c r="C113" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="2">
-        <v>43627</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="I113" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>43634.75818287037</v>
+        <v>43637.134652777779</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D114" s="2">
-        <v>43629</v>
+        <v>43508</v>
       </c>
       <c r="E114" s="2"/>
-      <c r="G114">
-        <v>2</v>
-      </c>
       <c r="I114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>43633.90730324074</v>
+        <v>43637.135844907411</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D115" s="2">
-        <v>43630</v>
+        <v>43515</v>
       </c>
       <c r="E115" s="2"/>
       <c r="G115">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>43633.907500000001</v>
+        <v>43637.13658564815</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2">
-        <v>43632</v>
+        <v>43495</v>
       </c>
       <c r="E116" s="2"/>
-      <c r="G116">
-        <v>1</v>
-      </c>
       <c r="I116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>43637.12096064815</v>
+        <v>43637.138483796298</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2">
-        <v>43633</v>
+        <v>43530</v>
       </c>
       <c r="E117" s="2"/>
       <c r="I117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>43637.132118055553</v>
+        <v>43637.140381944446</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2">
-        <v>43633</v>
+        <v>43529</v>
       </c>
       <c r="E118" s="2"/>
-      <c r="G118">
-        <v>5</v>
-      </c>
       <c r="I118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="8">
-        <v>43634.723692129628</v>
+        <v>43637.14329861111</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D119" s="2">
-        <v>43634</v>
+        <v>43579</v>
       </c>
       <c r="E119" s="2"/>
       <c r="I119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="8">
-        <v>43634.751307870371</v>
-      </c>
-      <c r="B120" t="s">
-        <v>43</v>
+      <c r="A120" s="14">
+        <v>43637.14329861111</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D120" s="2">
-        <v>43634</v>
+        <v>43635</v>
       </c>
       <c r="E120" s="2"/>
       <c r="G120">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>43634.735115740739</v>
+        <v>43637.600821759261</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D121" s="2">
-        <v>43635</v>
+        <v>43636</v>
       </c>
       <c r="E121" s="2"/>
       <c r="G121">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="1">
-        <v>43635.859166666669</v>
-      </c>
-      <c r="B122" t="s">
-        <v>43</v>
+      <c r="A122" s="7">
+        <v>43643.14329861111</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C122" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D122" s="2">
-        <v>43635</v>
+        <v>43627</v>
       </c>
       <c r="E122" s="2"/>
       <c r="G122">
-        <v>2</v>
-      </c>
-      <c r="H122">
-        <f>G122*1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>43635.881273148145</v>
+        <v>43647.658634259256</v>
       </c>
       <c r="B123" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D123" s="2">
-        <v>43635</v>
+        <v>43641</v>
       </c>
       <c r="E123" s="2"/>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="7">
-        <v>43637.14329861111</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>35</v>
+      <c r="A124" s="1">
+        <v>43648.765092592592</v>
+      </c>
+      <c r="B124" t="s">
+        <v>40</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D124" s="2">
-        <v>43635</v>
+        <v>43648</v>
       </c>
       <c r="E124" s="2"/>
-      <c r="G124">
-        <v>14</v>
-      </c>
-      <c r="I124" t="s">
-        <v>139</v>
+      <c r="F124" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>43637.600821759261</v>
+        <v>43648.768055555556</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D125" s="2">
-        <v>43636</v>
+        <v>43642</v>
       </c>
       <c r="E125" s="2"/>
       <c r="G125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I125" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4185,10 +4203,10 @@
         <v>43649.622928240744</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D126" s="2">
         <v>43638</v>
@@ -4203,20 +4221,20 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>43647.658634259256</v>
+        <v>43649.669988425929</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D127" s="2">
-        <v>43641</v>
+        <v>43621</v>
       </c>
       <c r="E127" s="2"/>
       <c r="G127">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I127" t="s">
         <v>143</v>
@@ -4224,44 +4242,38 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>43648.768055555556</v>
+        <v>43649.675844907404</v>
       </c>
       <c r="B128" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D128" s="2">
-        <v>43642</v>
+        <v>43551</v>
       </c>
       <c r="E128" s="2"/>
-      <c r="G128">
-        <v>6</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="F128" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>43671.60765046296</v>
+        <v>43649.67628472222</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D129" s="2">
-        <v>43647</v>
+        <v>43621</v>
       </c>
       <c r="E129" s="2"/>
       <c r="G129">
-        <v>10</v>
-      </c>
-      <c r="H129">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I129" t="s">
         <v>145</v>
@@ -4269,65 +4281,65 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>43676.827951388892</v>
+        <v>43651.648530092592</v>
       </c>
       <c r="B130" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D130" s="2">
-        <v>43647</v>
+        <v>43649</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="F130" s="11" t="s">
+      <c r="G130">
+        <v>86</v>
+      </c>
+      <c r="I130" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>43690.624560185184</v>
+        <v>43654.639872685184</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C131" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D131" s="2">
-        <v>43647</v>
+        <v>43649</v>
       </c>
       <c r="E131" s="2"/>
       <c r="G131">
         <v>1</v>
       </c>
-      <c r="H131">
-        <v>160</v>
-      </c>
       <c r="I131" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>43690.624791666669</v>
+        <v>43671.60765046296</v>
       </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2">
-        <v>43591</v>
+        <v>43647</v>
       </c>
       <c r="E132" s="2"/>
       <c r="G132">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H132">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="I132" t="s">
         <v>148</v>
@@ -4335,235 +4347,238 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>43690.624791666669</v>
+        <v>43676.827951388892</v>
       </c>
       <c r="B133" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="C133" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D133" s="2">
         <v>43647</v>
       </c>
       <c r="E133" s="2"/>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>520</v>
-      </c>
-      <c r="I133" t="s">
-        <v>148</v>
+      <c r="F133" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>43690.624791666669</v>
+        <v>43679.866759259261</v>
       </c>
       <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
         <v>28</v>
       </c>
-      <c r="C134" t="s">
-        <v>61</v>
-      </c>
       <c r="D134" s="2">
-        <v>43739</v>
+        <v>43655</v>
       </c>
       <c r="E134" s="2"/>
       <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>43690.624791666669</v>
+        <v>43679.868344907409</v>
       </c>
       <c r="B135" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D135" s="2">
-        <v>43831</v>
+        <v>43677</v>
       </c>
       <c r="E135" s="2"/>
       <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="I135" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1">
       <c r="A136" s="1">
-        <v>43741.767268518517</v>
+        <v>43689.569803240738</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
-        <v>43647</v>
+        <v>43686</v>
       </c>
       <c r="E136" t="s">
-        <v>96</v>
-      </c>
-      <c r="I136" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>43648.765092592592</v>
+        <v>43689.570381944446</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D137" s="2">
-        <v>43648</v>
+        <v>43686</v>
       </c>
       <c r="E137" s="2"/>
-      <c r="F137" t="s">
-        <v>150</v>
+      <c r="G137">
+        <v>200</v>
+      </c>
+      <c r="I137" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>43651.648530092592</v>
+        <v>43690.617384259262</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D138" s="2">
-        <v>43649</v>
+        <v>43684</v>
       </c>
       <c r="E138" s="2"/>
       <c r="G138">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>43654.639872685184</v>
+        <v>43690.624560185184</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D139" s="2">
-        <v>43649</v>
+        <v>43647</v>
       </c>
       <c r="E139" s="2"/>
       <c r="G139">
         <v>1</v>
       </c>
+      <c r="H139">
+        <v>160</v>
+      </c>
       <c r="I139" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>43766.894907407404</v>
+        <v>43690.624791666669</v>
       </c>
       <c r="B140" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D140" s="2">
-        <v>43649</v>
+        <v>43591</v>
       </c>
       <c r="E140" s="2"/>
       <c r="G140">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>320</v>
       </c>
       <c r="I140" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>43679.866759259261</v>
+        <v>43690.624791666669</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D141" s="2">
-        <v>43655</v>
+        <v>43647</v>
       </c>
       <c r="E141" s="2"/>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>520</v>
       </c>
       <c r="I141" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>43739.885752314818</v>
+        <v>43690.624791666669</v>
       </c>
       <c r="B142" t="s">
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D142" s="2">
-        <v>43655</v>
+        <v>43739</v>
       </c>
       <c r="E142" s="2"/>
       <c r="G142">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>400</v>
       </c>
       <c r="I142" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>43766.88721064815</v>
+        <v>43690.624791666669</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D143" s="2">
-        <v>43655</v>
+        <v>43831</v>
       </c>
       <c r="E143" s="2"/>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>480</v>
       </c>
       <c r="I143" t="s">
         <v>156</v>
@@ -4571,690 +4586,698 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>43766.819953703707</v>
+        <v>43698.886388888888</v>
       </c>
       <c r="B144" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
-        <v>43657</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="G144">
-        <v>1</v>
+        <v>43670</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="I144" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>43739.886481481481</v>
+        <v>43706.023969907408</v>
       </c>
       <c r="B145" t="s">
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2">
-        <v>43662</v>
+        <v>43705</v>
       </c>
       <c r="E145" s="2"/>
       <c r="G145">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="I145" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>43741.764016203706</v>
+        <v>43711.568495370368</v>
       </c>
       <c r="B146" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2">
-        <v>43664</v>
+        <v>43706</v>
       </c>
       <c r="E146" s="2"/>
+      <c r="G146">
+        <v>60</v>
+      </c>
       <c r="I146" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>43766.821412037039</v>
+        <v>43711.568831018521</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D147" s="2">
-        <v>43665</v>
+        <v>43699</v>
       </c>
       <c r="E147" s="2"/>
+      <c r="G147">
+        <v>5</v>
+      </c>
       <c r="I147" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>43738.798125000001</v>
+        <v>43712.710358796299</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
-        <v>43668</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="G148">
-        <v>1</v>
+        <v>43712</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="I148" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>43739.88349537037</v>
+        <v>43728.686550925922</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2">
-        <v>43668</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="G149">
-        <v>35</v>
+        <v>43724</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="I149" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>43766.887719907405</v>
+        <v>43729.624016203707</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
-        <v>43668</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="G150">
-        <v>3</v>
+        <v>43714</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="I150" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>43698.886388888888</v>
+        <v>43729.626122685186</v>
       </c>
       <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" t="s">
         <v>28</v>
       </c>
-      <c r="C151" t="s">
-        <v>16</v>
-      </c>
       <c r="D151" s="2">
-        <v>43670</v>
+        <v>43726</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I151" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>43738.798402777778</v>
+        <v>43733.843854166669</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D152" s="2">
-        <v>43670</v>
+        <v>43722</v>
       </c>
       <c r="E152" s="2"/>
       <c r="G152">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I152" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>43741.76190972222</v>
+        <v>43733.844722222224</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153" s="2">
-        <v>43672</v>
+        <v>43726</v>
       </c>
       <c r="E153" s="2"/>
+      <c r="G153">
+        <v>20</v>
+      </c>
+      <c r="H153">
+        <v>50</v>
+      </c>
       <c r="I153" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>43766.891192129631</v>
+        <v>43738.667199074072</v>
       </c>
       <c r="B154" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D154" s="2">
-        <v>43672</v>
+        <v>43728</v>
       </c>
       <c r="E154" s="2"/>
+      <c r="G154">
+        <v>200</v>
+      </c>
       <c r="I154" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>43738.801921296297</v>
+        <v>43738.667962962965</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C155" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D155" s="2">
-        <v>43676</v>
+        <v>43685</v>
       </c>
       <c r="E155" s="2"/>
       <c r="G155">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I155" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>43679.868344907409</v>
+        <v>43738.668425925927</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D156" s="2">
-        <v>43677</v>
+        <v>43715</v>
       </c>
       <c r="E156" s="2"/>
       <c r="G156">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I156" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>43766.891805555555</v>
+        <v>43738.668877314813</v>
       </c>
       <c r="B157" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D157" s="2">
-        <v>43677</v>
+        <v>43715</v>
       </c>
       <c r="E157" s="2"/>
       <c r="G157">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>43766.888090277775</v>
+        <v>43738.798125000001</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D158" s="2">
-        <v>43682</v>
+        <v>43668</v>
       </c>
       <c r="E158" s="2"/>
       <c r="G158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>43741.760833333334</v>
+        <v>43738.798402777778</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D159" s="2">
-        <v>43683</v>
+        <v>43670</v>
       </c>
       <c r="E159" s="2"/>
       <c r="G159">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>43766.822199074071</v>
+        <v>43738.799513888887</v>
       </c>
       <c r="B160" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D160" s="2">
-        <v>43683</v>
+        <v>43732</v>
       </c>
       <c r="E160" s="2"/>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1">
-        <v>43690.617384259262</v>
+        <v>43738.800740740742</v>
       </c>
       <c r="B161" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D161" s="2">
-        <v>43684</v>
+        <v>43726</v>
       </c>
       <c r="E161" s="2"/>
       <c r="G161">
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>43738.667962962965</v>
+        <v>43738.801921296297</v>
       </c>
       <c r="B162" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D162" s="2">
-        <v>43685</v>
+        <v>43676</v>
       </c>
       <c r="E162" s="2"/>
       <c r="G162">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1">
-        <v>43689.569803240738</v>
+        <v>43738.802488425928</v>
       </c>
       <c r="B163" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D163" s="2">
-        <v>43686</v>
-      </c>
-      <c r="E163" t="s">
-        <v>177</v>
+        <v>43728</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="I163" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>43689.570381944446</v>
+        <v>43739.882615740738</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C164" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D164" s="2">
-        <v>43686</v>
+        <v>43696</v>
       </c>
       <c r="E164" s="2"/>
-      <c r="G164">
-        <v>200</v>
-      </c>
-      <c r="I164" t="s">
-        <v>178</v>
+      <c r="F164" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1">
-        <v>43739.884259259263</v>
+        <v>43739.88349537037</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2">
-        <v>43689</v>
+        <v>43668</v>
       </c>
       <c r="E165" s="2"/>
       <c r="G165">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I165" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1">
-        <v>43766.893611111111</v>
+        <v>43739.884259259263</v>
       </c>
       <c r="B166" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D166" s="2">
-        <v>43691</v>
-      </c>
-      <c r="E166" t="s">
-        <v>180</v>
+        <v>43689</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="G166">
+        <v>20</v>
       </c>
       <c r="I166" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1">
-        <v>43739.882615740738</v>
+        <v>43739.884745370371</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D167" s="2">
-        <v>43696</v>
+        <v>43721</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="F167" t="s">
-        <v>182</v>
+      <c r="G167">
+        <v>40</v>
+      </c>
+      <c r="I167" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="1">
-        <v>43766.888425925928</v>
+        <v>43739.885752314818</v>
       </c>
       <c r="B168" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D168" s="2">
-        <v>43696</v>
+        <v>43655</v>
       </c>
       <c r="E168" s="2"/>
       <c r="G168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I168" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1">
-        <v>43711.568831018521</v>
+        <v>43739.886481481481</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D169" s="2">
-        <v>43699</v>
+        <v>43662</v>
       </c>
       <c r="E169" s="2"/>
       <c r="G169">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I169" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="1">
-        <v>43766.889166666668</v>
+        <v>43739.887245370373</v>
       </c>
       <c r="B170" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D170" s="2">
-        <v>43699</v>
+        <v>43718</v>
       </c>
       <c r="E170" s="2"/>
       <c r="G170">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I170" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1">
-        <v>43741.763113425928</v>
+        <v>43739.887835648151</v>
       </c>
       <c r="B171" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C171" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D171" s="2">
-        <v>43703</v>
+        <v>43722</v>
       </c>
       <c r="E171" s="2"/>
       <c r="G171">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I171" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="1">
-        <v>43766.823958333334</v>
+        <v>43741.760833333334</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D172" s="2">
-        <v>43704</v>
+        <v>43683</v>
       </c>
       <c r="E172" s="2"/>
       <c r="G172">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="I172" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1">
-        <v>43706.023969907408</v>
+        <v>43741.76190972222</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D173" s="2">
-        <v>43705</v>
+        <v>43672</v>
       </c>
       <c r="E173" s="2"/>
-      <c r="G173">
-        <v>120</v>
-      </c>
       <c r="I173" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="1">
-        <v>43711.568495370368</v>
+        <v>43741.763113425928</v>
       </c>
       <c r="B174" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D174" s="2">
-        <v>43706</v>
+        <v>43703</v>
       </c>
       <c r="E174" s="2"/>
       <c r="G174">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="I174" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1">
-        <v>43741.770671296297</v>
+        <v>43741.764016203706</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D175" s="2">
-        <v>43710</v>
+        <v>43664</v>
       </c>
       <c r="E175" s="2"/>
-      <c r="G175">
-        <v>1</v>
-      </c>
       <c r="I175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="1">
-        <v>43712.710358796299</v>
+        <v>43741.765625</v>
       </c>
       <c r="B176" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D176" s="2">
-        <v>43712</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>191</v>
-      </c>
+        <v>43729</v>
+      </c>
+      <c r="E176" s="2"/>
       <c r="I176" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1">
-        <v>43729.624016203707</v>
+        <v>43741.767268518517</v>
       </c>
       <c r="B177" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
-        <v>43714</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>193</v>
+        <v>43647</v>
+      </c>
+      <c r="E177" t="s">
+        <v>124</v>
       </c>
       <c r="I177" t="s">
         <v>193</v>
@@ -5262,41 +5285,38 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1">
-        <v>43763.750243055554</v>
+        <v>43741.768148148149</v>
       </c>
       <c r="B178" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D178" s="2">
-        <v>43714</v>
+        <v>43737</v>
       </c>
       <c r="E178" s="2"/>
-      <c r="G178">
-        <v>25</v>
-      </c>
       <c r="I178" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1">
-        <v>43738.668425925927</v>
+        <v>43741.770671296297</v>
       </c>
       <c r="B179" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D179" s="2">
-        <v>43715</v>
+        <v>43710</v>
       </c>
       <c r="E179" s="2"/>
       <c r="G179">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I179" t="s">
         <v>195</v>
@@ -5304,20 +5324,24 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="1">
-        <v>43738.668877314813</v>
+        <v>43753.723715277774</v>
       </c>
       <c r="B180" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C180" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D180" s="2">
-        <v>43715</v>
+        <v>43753</v>
       </c>
       <c r="E180" s="2"/>
       <c r="G180">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="H180">
+        <f>G180*6</f>
+        <v>72</v>
       </c>
       <c r="I180" t="s">
         <v>196</v>
@@ -5325,41 +5349,38 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1">
-        <v>43739.887245370373</v>
+        <v>43754.878865740742</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2">
-        <v>43718</v>
+        <v>43754</v>
       </c>
       <c r="E181" s="2"/>
-      <c r="G181">
-        <v>45</v>
-      </c>
       <c r="I181" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="1">
-        <v>43766.889652777776</v>
+        <v>43757.676412037035</v>
       </c>
       <c r="B182" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2">
-        <v>43718</v>
+        <v>43755</v>
       </c>
       <c r="E182" s="2"/>
       <c r="G182">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I182" t="s">
         <v>198</v>
@@ -5367,38 +5388,41 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1">
-        <v>43766.805034722223</v>
+        <v>43757.676874999997</v>
       </c>
       <c r="B183" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D183" s="2">
-        <v>43720</v>
+        <v>43756</v>
       </c>
       <c r="E183" s="2"/>
+      <c r="G183">
+        <v>40</v>
+      </c>
       <c r="I183" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1">
-        <v>43739.884745370371</v>
+        <v>43759.934363425928</v>
       </c>
       <c r="B184" t="s">
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D184" s="2">
-        <v>43721</v>
+        <v>43740</v>
       </c>
       <c r="E184" s="2"/>
       <c r="G184">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I184" t="s">
         <v>200</v>
@@ -5406,20 +5430,23 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1">
-        <v>43733.843854166669</v>
+        <v>43759.934652777774</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D185" s="2">
-        <v>43722</v>
+        <v>43743</v>
       </c>
       <c r="E185" s="2"/>
       <c r="G185">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="H185">
+        <v>1232</v>
       </c>
       <c r="I185" t="s">
         <v>201</v>
@@ -5427,20 +5454,20 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1">
-        <v>43739.887835648151</v>
+        <v>43762.58829861111</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C186" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2">
-        <v>43722</v>
+        <v>43757</v>
       </c>
       <c r="E186" s="2"/>
       <c r="G186">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I186" t="s">
         <v>202</v>
@@ -5448,19 +5475,20 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1">
-        <v>43728.686550925922</v>
+        <v>43762.588761574072</v>
       </c>
       <c r="B187" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D187" s="2">
-        <v>43724</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>203</v>
+        <v>43760</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="G187">
+        <v>25</v>
       </c>
       <c r="I187" t="s">
         <v>203</v>
@@ -5468,166 +5496,157 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1">
-        <v>43729.626122685186</v>
+        <v>43762.828159722223</v>
       </c>
       <c r="B188" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2">
-        <v>43726</v>
-      </c>
-      <c r="E188" s="5" t="s">
+        <v>43755</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="G188">
+        <v>4</v>
+      </c>
+      <c r="I188" t="s">
         <v>204</v>
-      </c>
-      <c r="I188" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="1">
-        <v>43733.844722222224</v>
+        <v>43762.829421296294</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C189" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2">
-        <v>43726</v>
+        <v>43761</v>
       </c>
       <c r="E189" s="2"/>
       <c r="G189">
-        <v>20</v>
-      </c>
-      <c r="H189">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I189" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="1">
-        <v>43738.800740740742</v>
+        <v>43763.671655092592</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D190" s="2">
-        <v>43726</v>
+        <v>43762</v>
       </c>
       <c r="E190" s="2"/>
       <c r="G190">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1">
-        <v>43766.890439814815</v>
+        <v>43763.750243055554</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D191" s="2">
-        <v>43727</v>
+        <v>43714</v>
       </c>
       <c r="E191" s="2"/>
       <c r="G191">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I191" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="1">
-        <v>43738.667199074072</v>
+        <v>43766.800752314812</v>
       </c>
       <c r="B192" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2">
-        <v>43728</v>
+        <v>43763</v>
       </c>
       <c r="E192" s="2"/>
-      <c r="G192">
-        <v>200</v>
-      </c>
       <c r="I192" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1">
-        <v>43738.802488425928</v>
+        <v>43766.805034722223</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D193" s="2">
-        <v>43728</v>
+        <v>43720</v>
       </c>
       <c r="E193" s="2"/>
-      <c r="G193">
-        <v>1</v>
-      </c>
       <c r="I193" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="1">
-        <v>43741.765625</v>
+        <v>43766.808900462966</v>
       </c>
       <c r="B194" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
-        <v>43729</v>
+        <v>43763</v>
       </c>
       <c r="E194" s="2"/>
       <c r="I194" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1">
-        <v>43738.799513888887</v>
+        <v>43766.809178240743</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
-        <v>43732</v>
-      </c>
-      <c r="E195" s="2"/>
-      <c r="G195">
-        <v>1</v>
+        <v>43754</v>
+      </c>
+      <c r="E195" t="s">
+        <v>211</v>
       </c>
       <c r="I195" t="s">
         <v>212</v>
@@ -5635,62 +5654,59 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="1">
-        <v>43741.768148148149</v>
+        <v>43766.819953703707</v>
       </c>
       <c r="B196" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D196" s="2">
-        <v>43737</v>
+        <v>43657</v>
       </c>
       <c r="E196" s="2"/>
+      <c r="G196">
+        <v>1</v>
+      </c>
       <c r="I196" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1">
-        <v>43759.934363425928</v>
+        <v>43766.821412037039</v>
       </c>
       <c r="B197" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D197" s="2">
-        <v>43740</v>
+        <v>43665</v>
       </c>
       <c r="E197" s="2"/>
-      <c r="G197">
-        <v>17</v>
-      </c>
       <c r="I197" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1">
-        <v>43759.934652777774</v>
+        <v>43766.822199074071</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C198" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D198" s="2">
-        <v>43743</v>
+        <v>43683</v>
       </c>
       <c r="E198" s="2"/>
       <c r="G198">
-        <v>28</v>
-      </c>
-      <c r="H198">
-        <v>1232</v>
+        <v>1</v>
       </c>
       <c r="I198" t="s">
         <v>215</v>
@@ -5698,20 +5714,20 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="1">
-        <v>43833.922858796293</v>
+        <v>43766.823958333334</v>
       </c>
       <c r="B199" t="s">
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D199" s="2">
-        <v>43743</v>
+        <v>43704</v>
       </c>
       <c r="E199" s="2"/>
       <c r="G199">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I199" t="s">
         <v>216</v>
@@ -5719,20 +5735,20 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="1">
-        <v>43861.778796296298</v>
+        <v>43766.876851851855</v>
       </c>
       <c r="B200" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D200" s="2">
-        <v>43743</v>
+        <v>43764</v>
       </c>
       <c r="E200" s="2"/>
       <c r="G200">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I200" t="s">
         <v>217</v>
@@ -5740,56 +5756,62 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="1">
-        <v>43817.907418981478</v>
+        <v>43766.88721064815</v>
       </c>
       <c r="B201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C201" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D201" s="2">
-        <v>43744</v>
+        <v>43655</v>
       </c>
       <c r="E201" s="2"/>
+      <c r="G201">
+        <v>1</v>
+      </c>
       <c r="I201" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="1">
-        <v>43817.92465277778</v>
+        <v>43766.887719907405</v>
       </c>
       <c r="B202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C202" t="s">
         <v>10</v>
       </c>
       <c r="D202" s="2">
-        <v>43748</v>
+        <v>43668</v>
       </c>
       <c r="E202" s="2"/>
-      <c r="F202" t="s">
+      <c r="G202">
+        <v>3</v>
+      </c>
+      <c r="I202" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1">
-        <v>43861.779282407406</v>
+        <v>43766.888090277775</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D203" s="2">
-        <v>43749</v>
+        <v>43682</v>
       </c>
       <c r="E203" s="2"/>
       <c r="G203">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I203" t="s">
         <v>220</v>
@@ -5797,24 +5819,20 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1">
-        <v>43753.723715277774</v>
+        <v>43766.888425925928</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C204" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D204" s="2">
-        <v>43753</v>
+        <v>43696</v>
       </c>
       <c r="E204" s="2"/>
       <c r="G204">
-        <v>12</v>
-      </c>
-      <c r="H204">
-        <f>G204*6</f>
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="I204" t="s">
         <v>221</v>
@@ -5822,121 +5840,121 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="1">
-        <v>43754.878865740742</v>
+        <v>43766.889166666668</v>
       </c>
       <c r="B205" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D205" s="2">
-        <v>43754</v>
+        <v>43699</v>
       </c>
       <c r="E205" s="2"/>
+      <c r="G205">
+        <v>1</v>
+      </c>
       <c r="I205" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="1">
-        <v>43766.809178240743</v>
+        <v>43766.889652777776</v>
       </c>
       <c r="B206" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D206" s="2">
-        <v>43754</v>
-      </c>
-      <c r="E206" t="s">
+        <v>43718</v>
+      </c>
+      <c r="E206" s="2"/>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="I206" t="s">
         <v>223</v>
-      </c>
-      <c r="I206" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="1">
-        <v>43757.676412037035</v>
+        <v>43766.890439814815</v>
       </c>
       <c r="B207" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C207" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D207" s="2">
-        <v>43755</v>
+        <v>43727</v>
       </c>
       <c r="E207" s="2"/>
       <c r="G207">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="1">
-        <v>43762.828159722223</v>
+        <v>43766.891192129631</v>
       </c>
       <c r="B208" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2">
-        <v>43755</v>
+        <v>43672</v>
       </c>
       <c r="E208" s="2"/>
-      <c r="G208">
-        <v>4</v>
-      </c>
       <c r="I208" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="1">
-        <v>43757.676874999997</v>
+        <v>43766.891805555555</v>
       </c>
       <c r="B209" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C209" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2">
-        <v>43756</v>
+        <v>43677</v>
       </c>
       <c r="E209" s="2"/>
       <c r="G209">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I209" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1">
-        <v>43833.922314814816</v>
+        <v>43766.893611111111</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C210" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
-        <v>43756</v>
-      </c>
-      <c r="E210" s="2"/>
-      <c r="G210">
-        <v>1</v>
+        <v>43691</v>
+      </c>
+      <c r="E210" t="s">
+        <v>227</v>
       </c>
       <c r="I210" t="s">
         <v>228</v>
@@ -5944,20 +5962,20 @@
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="1">
-        <v>43762.58829861111</v>
+        <v>43766.894907407404</v>
       </c>
       <c r="B211" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C211" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D211" s="2">
-        <v>43757</v>
+        <v>43649</v>
       </c>
       <c r="E211" s="2"/>
       <c r="G211">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I211" t="s">
         <v>229</v>
@@ -5965,20 +5983,20 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="1">
-        <v>43762.588761574072</v>
+        <v>43771.555405092593</v>
       </c>
       <c r="B212" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D212" s="2">
-        <v>43760</v>
+        <v>43771</v>
       </c>
       <c r="E212" s="2"/>
       <c r="G212">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I212" t="s">
         <v>230</v>
@@ -5986,62 +6004,56 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1">
-        <v>43762.829421296294</v>
+        <v>43773.818090277775</v>
       </c>
       <c r="B213" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C213" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D213" s="2">
-        <v>43761</v>
+        <v>43773</v>
       </c>
       <c r="E213" s="2"/>
-      <c r="G213">
-        <v>25</v>
-      </c>
       <c r="I213" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="1">
-        <v>43833.918425925927</v>
+        <v>43773.819062499999</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2">
-        <v>43761</v>
+        <v>43768</v>
       </c>
       <c r="E214" s="2"/>
-      <c r="G214">
-        <v>60</v>
-      </c>
       <c r="I214" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="1">
-        <v>43763.671655092592</v>
+        <v>43776.890972222223</v>
       </c>
       <c r="B215" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C215" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2">
-        <v>43762</v>
+        <v>43776</v>
       </c>
       <c r="E215" s="2"/>
       <c r="G215">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I215" t="s">
         <v>233</v>
@@ -6049,56 +6061,62 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="1">
-        <v>43766.800752314812</v>
+        <v>43777.880983796298</v>
       </c>
       <c r="B216" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D216" s="2">
-        <v>43763</v>
+        <v>43777</v>
       </c>
       <c r="E216" s="2"/>
+      <c r="G216">
+        <v>23</v>
+      </c>
       <c r="I216" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="1">
-        <v>43766.808900462966</v>
+        <v>43780.614247685182</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2">
-        <v>43763</v>
+        <v>43778</v>
       </c>
       <c r="E217" s="2"/>
+      <c r="G217">
+        <v>2</v>
+      </c>
       <c r="I217" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="1">
-        <v>43766.876851851855</v>
+        <v>43780.614837962959</v>
       </c>
       <c r="B218" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2">
-        <v>43764</v>
+        <v>43778</v>
       </c>
       <c r="E218" s="2"/>
       <c r="G218">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I218" t="s">
         <v>236</v>
@@ -6106,20 +6124,20 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1">
-        <v>43833.919108796297</v>
+        <v>43781.848541666666</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D219" s="2">
-        <v>43766</v>
+        <v>43780</v>
       </c>
       <c r="E219" s="2"/>
       <c r="G219">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I219" t="s">
         <v>237</v>
@@ -6127,20 +6145,20 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="1">
-        <v>43833.919999999998</v>
+        <v>43782.972002314818</v>
       </c>
       <c r="B220" t="s">
         <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D220" s="2">
-        <v>43766</v>
+        <v>43782</v>
       </c>
       <c r="E220" s="2"/>
       <c r="G220">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I220" t="s">
         <v>238</v>
@@ -6148,628 +6166,628 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="1">
-        <v>43833.917754629627</v>
+        <v>43789.580648148149</v>
       </c>
       <c r="B221" t="s">
         <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D221" s="2">
-        <v>43767</v>
-      </c>
-      <c r="E221" t="s">
+        <v>43770</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>120</v>
+      </c>
+      <c r="I221" t="s">
         <v>239</v>
-      </c>
-      <c r="I221" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="1">
-        <v>43833.920474537037</v>
+        <v>43789.581087962964</v>
       </c>
       <c r="B222" t="s">
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D222" s="2">
-        <v>43767</v>
+        <v>43787</v>
       </c>
       <c r="E222" s="2"/>
       <c r="G222">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>50</v>
       </c>
       <c r="I222" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="1">
-        <v>43773.819062499999</v>
+        <v>43802.1721875</v>
       </c>
       <c r="B223" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2">
-        <v>43768</v>
+        <v>43802</v>
       </c>
       <c r="E223" s="2"/>
       <c r="I223" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="1">
-        <v>43789.580648148149</v>
+        <v>43802.178773148145</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2">
-        <v>43770</v>
+        <v>43804</v>
       </c>
       <c r="E224" s="2"/>
-      <c r="G224">
-        <v>1</v>
-      </c>
-      <c r="H224">
-        <v>120</v>
-      </c>
       <c r="I224" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="1">
-        <v>43771.555405092593</v>
+        <v>43809.846851851849</v>
       </c>
       <c r="B225" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C225" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D225" s="2">
-        <v>43771</v>
+        <v>43774</v>
       </c>
       <c r="E225" s="2"/>
       <c r="G225">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="1">
-        <v>43817.907754629632</v>
+        <v>43810.74324074074</v>
       </c>
       <c r="B226" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
-        <v>43771</v>
-      </c>
-      <c r="E226" s="2"/>
+        <v>43810</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="I226" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="1">
-        <v>43773.818090277775</v>
+        <v>43810.743668981479</v>
       </c>
       <c r="B227" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D227" s="2">
-        <v>43773</v>
-      </c>
-      <c r="E227" s="2"/>
+        <v>43810</v>
+      </c>
+      <c r="E227" t="s">
+        <v>246</v>
+      </c>
       <c r="I227" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1">
-        <v>43809.846851851849</v>
+        <v>43810.744039351855</v>
       </c>
       <c r="B228" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D228" s="2">
-        <v>43774</v>
-      </c>
-      <c r="E228" s="2"/>
-      <c r="G228">
-        <v>1</v>
+        <v>43809</v>
+      </c>
+      <c r="E228" t="s">
+        <v>248</v>
       </c>
       <c r="I228" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="1">
-        <v>43776.890972222223</v>
+        <v>43812.711759259262</v>
       </c>
       <c r="B229" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2">
-        <v>43776</v>
-      </c>
-      <c r="E229" s="2"/>
-      <c r="G229">
-        <v>20</v>
+        <v>43811</v>
+      </c>
+      <c r="E229" t="s">
+        <v>251</v>
       </c>
       <c r="I229" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="1">
-        <v>43777.880983796298</v>
+        <v>43812.713796296295</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="C230" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D230" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="E230" s="2"/>
-      <c r="G230">
-        <v>23</v>
-      </c>
-      <c r="I230" t="s">
-        <v>249</v>
+      <c r="F230" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="1">
-        <v>43780.614247685182</v>
+        <v>43817.907418981478</v>
       </c>
       <c r="B231" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D231" s="2">
-        <v>43778</v>
+        <v>43744</v>
       </c>
       <c r="E231" s="2"/>
-      <c r="G231">
-        <v>2</v>
-      </c>
       <c r="I231" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1">
-        <v>43780.614837962959</v>
+        <v>43817.907754629632</v>
       </c>
       <c r="B232" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2">
-        <v>43778</v>
+        <v>43771</v>
       </c>
       <c r="E232" s="2"/>
-      <c r="G232">
-        <v>3</v>
-      </c>
       <c r="I232" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="1">
-        <v>43781.848541666666</v>
+        <v>43817.92465277778</v>
       </c>
       <c r="B233" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="C233" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D233" s="2">
-        <v>43780</v>
+        <v>43748</v>
       </c>
       <c r="E233" s="2"/>
-      <c r="G233">
-        <v>1</v>
-      </c>
-      <c r="I233" t="s">
-        <v>252</v>
+      <c r="F233" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="1">
-        <v>43782.972002314818</v>
+        <v>43818.635567129626</v>
       </c>
       <c r="B234" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" t="s">
         <v>28</v>
       </c>
-      <c r="C234" t="s">
-        <v>21</v>
-      </c>
       <c r="D234" s="2">
-        <v>43782</v>
-      </c>
-      <c r="E234" s="2"/>
-      <c r="G234">
-        <v>20</v>
+        <v>43790</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="I234" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1">
-        <v>43789.581087962964</v>
+        <v>43818.636030092595</v>
       </c>
       <c r="B235" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C235" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D235" s="2">
-        <v>43787</v>
+        <v>43817</v>
       </c>
       <c r="E235" s="2"/>
       <c r="G235">
         <v>1</v>
       </c>
-      <c r="H235">
-        <v>50</v>
-      </c>
       <c r="I235" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="1">
-        <v>43836.690509259257</v>
+        <v>43833.66547453704</v>
       </c>
       <c r="B236" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="C236" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D236" s="2">
-        <v>43788</v>
-      </c>
-      <c r="E236" s="2"/>
-      <c r="G236">
-        <v>1</v>
+        <v>43832</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="I236" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="1">
-        <v>43818.635567129626</v>
+        <v>43833.917754629627</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C237" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D237" s="2">
-        <v>43790</v>
-      </c>
-      <c r="E237" s="5" t="s">
-        <v>256</v>
+        <v>43767</v>
+      </c>
+      <c r="E237" t="s">
+        <v>262</v>
       </c>
       <c r="I237" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="1">
-        <v>43861.778101851851</v>
+        <v>43833.918425925927</v>
       </c>
       <c r="B238" t="s">
         <v>26</v>
       </c>
       <c r="C238" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D238" s="2">
-        <v>43790</v>
+        <v>43761</v>
       </c>
       <c r="E238" s="2"/>
       <c r="G238">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I238" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="1">
-        <v>43836.691168981481</v>
+        <v>43833.919108796297</v>
       </c>
       <c r="B239" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D239" s="2">
-        <v>43791</v>
+        <v>43766</v>
       </c>
       <c r="E239" s="2"/>
       <c r="G239">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I239" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="1">
-        <v>43802.1721875</v>
+        <v>43833.919999999998</v>
       </c>
       <c r="B240" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C240" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D240" s="2">
-        <v>43802</v>
+        <v>43766</v>
       </c>
       <c r="E240" s="2"/>
+      <c r="G240">
+        <v>40</v>
+      </c>
       <c r="I240" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="1">
-        <v>43802.178773148145</v>
+        <v>43833.920474537037</v>
       </c>
       <c r="B241" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D241" s="2">
-        <v>43804</v>
+        <v>43767</v>
       </c>
       <c r="E241" s="2"/>
+      <c r="G241">
+        <v>22</v>
+      </c>
       <c r="I241" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="1">
-        <v>43812.713796296295</v>
+        <v>43833.922314814816</v>
       </c>
       <c r="B242" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="C242" t="s">
         <v>10</v>
       </c>
       <c r="D242" s="2">
-        <v>43808</v>
+        <v>43756</v>
       </c>
       <c r="E242" s="2"/>
-      <c r="F242" t="s">
-        <v>263</v>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="1">
-        <v>43810.744039351855</v>
+        <v>43833.922858796293</v>
       </c>
       <c r="B243" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D243" s="2">
-        <v>43809</v>
-      </c>
-      <c r="E243" t="s">
-        <v>264</v>
+        <v>43743</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="G243">
+        <v>20</v>
       </c>
       <c r="I243" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="1">
-        <v>43810.74324074074</v>
+        <v>43834.677800925929</v>
       </c>
       <c r="B244" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="2">
+        <v>43831</v>
+      </c>
+      <c r="E244" s="2"/>
+      <c r="G244">
         <v>16</v>
       </c>
-      <c r="D244" s="2">
-        <v>43810</v>
-      </c>
-      <c r="E244" t="s">
-        <v>266</v>
-      </c>
       <c r="I244" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="1">
-        <v>43810.743668981479</v>
+        <v>43836.690509259257</v>
       </c>
       <c r="B245" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C245" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D245" s="2">
-        <v>43810</v>
-      </c>
-      <c r="E245" t="s">
-        <v>268</v>
+        <v>43788</v>
+      </c>
+      <c r="E245" s="2"/>
+      <c r="G245">
+        <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="1">
-        <v>43812.711759259262</v>
+        <v>43836.691168981481</v>
       </c>
       <c r="B246" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="C246" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D246" s="2">
-        <v>43811</v>
-      </c>
-      <c r="E246" t="s">
-        <v>270</v>
+        <v>43791</v>
+      </c>
+      <c r="E246" s="2"/>
+      <c r="G246">
+        <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1">
-        <v>43818.636030092595</v>
+        <v>43843.74900462963</v>
       </c>
       <c r="B247" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D247" s="2">
-        <v>43817</v>
-      </c>
-      <c r="E247" s="2"/>
+        <v>43838</v>
+      </c>
+      <c r="E247" t="s">
+        <v>273</v>
+      </c>
       <c r="G247">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I247" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="1">
-        <v>43861.918692129628</v>
+        <v>43858.879895833335</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D248" s="2">
-        <v>43826</v>
+        <v>43852</v>
       </c>
       <c r="E248" s="2"/>
-      <c r="F248" t="s">
-        <v>273</v>
+      <c r="G248">
+        <v>15</v>
+      </c>
+      <c r="I248" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="1">
-        <v>43834.677800925929</v>
+        <v>43859.769270833334</v>
       </c>
       <c r="B249" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D249" s="2">
-        <v>43831</v>
+        <v>43852</v>
       </c>
       <c r="E249" s="2"/>
-      <c r="G249">
-        <v>16</v>
-      </c>
-      <c r="I249" t="s">
-        <v>274</v>
+      <c r="F249" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="1">
-        <v>43833.66547453704</v>
+        <v>43861.711574074077</v>
       </c>
       <c r="B250" t="s">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="C250" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D250" s="2">
-        <v>43832</v>
-      </c>
-      <c r="E250" s="5" t="s">
-        <v>275</v>
+        <v>43860</v>
+      </c>
+      <c r="E250" s="2"/>
+      <c r="G250">
+        <v>125</v>
       </c>
       <c r="I250" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="1">
-        <v>43843.74900462963</v>
+        <v>43861.778101851851</v>
       </c>
       <c r="B251" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C251" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D251" s="2">
-        <v>43838</v>
-      </c>
-      <c r="E251" t="s">
-        <v>277</v>
-      </c>
+        <v>43790</v>
+      </c>
+      <c r="E251" s="2"/>
       <c r="G251">
         <v>50</v>
       </c>
@@ -6779,20 +6797,20 @@
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="1">
-        <v>43858.879895833335</v>
+        <v>43861.778796296298</v>
       </c>
       <c r="B252" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C252" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D252" s="2">
-        <v>43852</v>
+        <v>43743</v>
       </c>
       <c r="E252" s="2"/>
       <c r="G252">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I252" t="s">
         <v>279</v>
@@ -6800,58 +6818,58 @@
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="1">
-        <v>43859.769270833334</v>
+        <v>43861.779282407406</v>
       </c>
       <c r="B253" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C253" t="s">
         <v>10</v>
       </c>
       <c r="D253" s="2">
-        <v>43852</v>
+        <v>43749</v>
       </c>
       <c r="E253" s="2"/>
-      <c r="F253" t="s">
+      <c r="G253">
+        <v>7</v>
+      </c>
+      <c r="I253" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="1">
-        <v>43861.711574074077</v>
+        <v>43861.779849537037</v>
       </c>
       <c r="B254" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D254" s="2">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="E254" s="2"/>
-      <c r="G254">
-        <v>125</v>
-      </c>
       <c r="I254" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="1">
-        <v>43861.779849537037</v>
+        <v>43861.918692129628</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C255" t="s">
         <v>16</v>
       </c>
       <c r="D255" s="2">
-        <v>43861</v>
+        <v>43826</v>
       </c>
       <c r="E255" s="2"/>
-      <c r="I255" t="s">
+      <c r="F255" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6860,10 +6878,10 @@
         <v>43863.019212962965</v>
       </c>
       <c r="B256" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D256" s="2">
         <v>43862</v>
@@ -6878,10 +6896,10 @@
         <v>43875.938101851854</v>
       </c>
       <c r="B257" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D257" s="2">
         <v>43867</v>
@@ -6902,10 +6920,10 @@
         <v>43875.939270833333</v>
       </c>
       <c r="B258" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D258" s="2">
         <v>43874</v>
@@ -6917,10 +6935,10 @@
         <v>43886.958182870374</v>
       </c>
       <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" t="s">
         <v>28</v>
-      </c>
-      <c r="C259" t="s">
-        <v>16</v>
       </c>
       <c r="D259" s="2">
         <v>43885</v>
@@ -6938,10 +6956,10 @@
         <v>43892.691817129627</v>
       </c>
       <c r="B260" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D260" s="2">
         <v>43888</v>
@@ -6956,10 +6974,10 @@
         <v>43899.609166666669</v>
       </c>
       <c r="B261" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D261" s="2">
         <v>43690</v>
@@ -6974,10 +6992,10 @@
         <v>43899.822476851848</v>
       </c>
       <c r="B262" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C262" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D262" s="2">
         <v>43836</v>
@@ -6995,10 +7013,10 @@
         <v>43899.823437500003</v>
       </c>
       <c r="B263" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C263" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D263" s="2">
         <v>43843</v>
@@ -7013,10 +7031,10 @@
         <v>43899.824756944443</v>
       </c>
       <c r="B264" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C264" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D264" s="2">
         <v>43866</v>
@@ -7034,10 +7052,10 @@
         <v>43899.825312499997</v>
       </c>
       <c r="B265" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C265" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D265" s="2">
         <v>43876</v>
@@ -7052,10 +7070,10 @@
         <v>43899.825694444444</v>
       </c>
       <c r="B266" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C266" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D266" s="2">
         <v>43876</v>
@@ -7070,10 +7088,10 @@
         <v>43899.826585648145</v>
       </c>
       <c r="B267" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C267" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D267" s="2">
         <v>43872</v>
@@ -7090,10 +7108,10 @@
         <v>43899.827326388891</v>
       </c>
       <c r="B268" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D268" s="2">
         <v>43873</v>
@@ -7110,10 +7128,10 @@
         <v>43899.827893518515</v>
       </c>
       <c r="B269" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C269" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D269" s="2">
         <v>43882</v>
@@ -7128,10 +7146,10 @@
         <v>43899.828194444446</v>
       </c>
       <c r="B270" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C270" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D270" s="2">
         <v>43885</v>
@@ -7146,10 +7164,10 @@
         <v>43899.828761574077</v>
       </c>
       <c r="B271" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D271" s="2">
         <v>43867</v>
@@ -7164,10 +7182,10 @@
         <v>43899.831238425926</v>
       </c>
       <c r="B272" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C272" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D272" s="2">
         <v>43854</v>
@@ -7184,10 +7202,10 @@
         <v>43899.832048611112</v>
       </c>
       <c r="B273" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C273" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D273" s="2">
         <v>43867</v>
@@ -7204,10 +7222,10 @@
         <v>43899.832395833335</v>
       </c>
       <c r="B274" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C274" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D274" s="2">
         <v>43840</v>
@@ -7224,10 +7242,10 @@
         <v>43899.833009259259</v>
       </c>
       <c r="B275" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C275" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D275" s="2">
         <v>43837</v>
@@ -7244,10 +7262,10 @@
         <v>43899.83353009259</v>
       </c>
       <c r="B276" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C276" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D276" s="2">
         <v>43836</v>
@@ -7264,10 +7282,10 @@
         <v>43902.615520833337</v>
       </c>
       <c r="B277" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D277" s="2">
         <v>43901</v>
@@ -7285,10 +7303,10 @@
         <v>43914.617013888892</v>
       </c>
       <c r="B278" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D278" s="2">
         <v>43911</v>
@@ -7303,10 +7321,10 @@
         <v>43921.605405092596</v>
       </c>
       <c r="B279" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C279" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D279" s="2">
         <v>43920</v>
@@ -7324,10 +7342,10 @@
         <v>43921.718981481485</v>
       </c>
       <c r="B280" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C280" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D280" s="2">
         <v>43847</v>
@@ -7342,10 +7360,10 @@
         <v>43921.719467592593</v>
       </c>
       <c r="B281" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C281" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D281" s="2">
         <v>43890</v>
@@ -7360,10 +7378,10 @@
         <v>43921.720173611109</v>
       </c>
       <c r="B282" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C282" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D282" s="2">
         <v>43874</v>
@@ -7378,10 +7396,10 @@
         <v>43921.721006944441</v>
       </c>
       <c r="B283" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C283" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D283" s="2">
         <v>43864</v>
@@ -7399,10 +7417,10 @@
         <v>43922.926342592589</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C284" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D284" s="2">
         <v>43852</v>
@@ -7419,10 +7437,10 @@
         <v>43922.926736111112</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C285" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D285" s="2">
         <v>43857</v>
@@ -7437,10 +7455,10 @@
         <v>43922.926979166667</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C286" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D286" s="2">
         <v>43885</v>
@@ -7455,10 +7473,10 @@
         <v>43922.927164351851</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C287" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D287" s="2">
         <v>43913</v>
@@ -7473,10 +7491,10 @@
         <v>43922.927974537037</v>
       </c>
       <c r="B288" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C288" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D288" s="2">
         <v>43847</v>
@@ -7494,10 +7512,10 @@
         <v>43922.928414351853</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C289" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D289" s="2">
         <v>43902</v>
@@ -7515,10 +7533,10 @@
         <v>43922.929108796299</v>
       </c>
       <c r="B290" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D290" s="2">
         <v>43900</v>
@@ -7536,10 +7554,10 @@
         <v>43922.930011574077</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C291" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D291" s="2">
         <v>43902</v>
@@ -7557,10 +7575,10 @@
         <v>43923.79215277778</v>
       </c>
       <c r="B292" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C292" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D292" s="2">
         <v>43874</v>
@@ -7578,10 +7596,10 @@
         <v>43923.79310185185</v>
       </c>
       <c r="B293" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C293" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D293" s="2">
         <v>43881</v>
@@ -7598,10 +7616,10 @@
         <v>43923.79383101852</v>
       </c>
       <c r="B294" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C294" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D294" s="2">
         <v>43893</v>
@@ -7618,10 +7636,10 @@
         <v>43923.794479166667</v>
       </c>
       <c r="B295" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C295" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D295" s="2">
         <v>43885</v>
@@ -7639,10 +7657,10 @@
         <v>43923.795162037037</v>
       </c>
       <c r="B296" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C296" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D296" s="2">
         <v>43847</v>
@@ -7660,10 +7678,10 @@
         <v>43923.795844907407</v>
       </c>
       <c r="B297" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C297" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D297" s="2">
         <v>43907</v>
@@ -7681,10 +7699,10 @@
         <v>43923.814375000002</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C298" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D298" s="2">
         <v>43915</v>
@@ -7702,10 +7720,10 @@
         <v>43923.816157407404</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C299" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D299" s="2">
         <v>43901</v>
@@ -7723,10 +7741,10 @@
         <v>43923.817025462966</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C300" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D300" s="2">
         <v>43906</v>
@@ -7744,10 +7762,10 @@
         <v>43924.789768518516</v>
       </c>
       <c r="B301" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C301" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D301" s="2">
         <v>43893</v>
@@ -7762,10 +7780,10 @@
         <v>43924.790266203701</v>
       </c>
       <c r="B302" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C302" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D302" s="2">
         <v>43901</v>
@@ -7783,10 +7801,10 @@
         <v>43924.790879629632</v>
       </c>
       <c r="B303" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C303" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D303" s="2">
         <v>43922</v>
@@ -7804,10 +7822,10 @@
         <v>43924.805868055555</v>
       </c>
       <c r="B304" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C304" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D304" s="2">
         <v>43841</v>
@@ -7822,10 +7840,10 @@
         <v>43926.646006944444</v>
       </c>
       <c r="B305" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C305" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D305" s="2">
         <v>43815</v>
@@ -7840,10 +7858,10 @@
         <v>43928.74554398148</v>
       </c>
       <c r="B306" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C306" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D306" s="2">
         <v>43897</v>
@@ -7861,10 +7879,10 @@
         <v>43928.746782407405</v>
       </c>
       <c r="B307" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C307" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D307" s="2">
         <v>43897</v>
@@ -7885,10 +7903,10 @@
         <v>43928.752442129633</v>
       </c>
       <c r="B308" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C308" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D308" s="2">
         <v>43904</v>
@@ -7906,10 +7924,10 @@
         <v>43928.990844907406</v>
       </c>
       <c r="B309" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C309" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D309" s="2">
         <v>43873</v>
@@ -7927,10 +7945,10 @@
         <v>43943.660127314812</v>
       </c>
       <c r="B310" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C310" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D310" s="2">
         <v>43939</v>
@@ -7945,10 +7963,10 @@
         <v>43952.622152777774</v>
       </c>
       <c r="B311" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C311" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D311" s="2">
         <v>43936</v>
@@ -7963,10 +7981,10 @@
         <v>43952.622488425928</v>
       </c>
       <c r="B312" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C312" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D312" s="2">
         <v>43939</v>
@@ -7984,7 +8002,7 @@
         <v>350</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D313" s="2">
         <v>43847</v>
@@ -7999,10 +8017,10 @@
         <v>43959.748703703706</v>
       </c>
       <c r="B314" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C314" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D314" s="2">
         <v>43959</v>
@@ -8017,10 +8035,10 @@
         <v>43959.758564814816</v>
       </c>
       <c r="B315" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C315" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D315" s="2">
         <v>43936</v>
@@ -8035,10 +8053,10 @@
         <v>43963.709398148145</v>
       </c>
       <c r="B316" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C316" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D316" s="2">
         <v>43950</v>
@@ -8053,10 +8071,10 @@
         <v>43963.712002314816</v>
       </c>
       <c r="B317" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="C317" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D317" s="2">
         <v>43925</v>
@@ -8077,10 +8095,10 @@
         <v>43963.759155092594</v>
       </c>
       <c r="B318" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C318" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D318" s="2">
         <v>43959</v>
@@ -8101,10 +8119,10 @@
         <v>43964.751782407409</v>
       </c>
       <c r="B319" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C319" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D319" s="2">
         <v>43963</v>
@@ -8119,10 +8137,10 @@
         <v>43972.759675925925</v>
       </c>
       <c r="B320" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D320" s="2">
         <v>43972</v>
@@ -8137,10 +8155,10 @@
         <v>43976.523263888892</v>
       </c>
       <c r="B321" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321" t="s">
         <v>28</v>
-      </c>
-      <c r="C321" t="s">
-        <v>16</v>
       </c>
       <c r="D321" s="2">
         <v>43976</v>
@@ -8157,10 +8175,10 @@
         <v>43976.524756944447</v>
       </c>
       <c r="B322" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D322" s="2">
         <v>43922</v>
@@ -8173,7 +8191,7 @@
         <v>480</v>
       </c>
       <c r="I322" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -8181,10 +8199,10 @@
         <v>43979.713599537034</v>
       </c>
       <c r="B323" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D323" s="2">
         <v>43979</v>
@@ -8194,30 +8212,89 @@
         <v>361</v>
       </c>
     </row>
+    <row r="324" spans="1:9">
+      <c r="A324" s="1">
+        <v>43985.597581018519</v>
+      </c>
+      <c r="B324" t="s">
+        <v>19</v>
+      </c>
+      <c r="C324" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" s="2">
+        <v>43983</v>
+      </c>
+      <c r="E324" s="2"/>
+      <c r="I324" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" s="1">
+        <v>43988.63422453704</v>
+      </c>
+      <c r="B325" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325" s="2">
+        <v>43986</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I325" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" s="1">
+        <v>43993.69699074074</v>
+      </c>
+      <c r="B326" t="s">
+        <v>250</v>
+      </c>
+      <c r="C326" t="s">
+        <v>16</v>
+      </c>
+      <c r="D326" s="2">
+        <v>43923</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F326" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{D0965E4A-512F-4566-BB87-AB64FE29E3FF}"/>
-    <hyperlink ref="E42" r:id="rId2" xr:uid="{2A7D5C1C-65C2-4C2E-8134-395C3BD1D95B}"/>
-    <hyperlink ref="E101" r:id="rId3" xr:uid="{F16CC454-DE65-45CD-B53B-5325B2AD3019}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{488BC301-26ED-41CA-B7DA-6EA225763905}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
-    <hyperlink ref="E176" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
-    <hyperlink ref="E187" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
-    <hyperlink ref="E151" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
-    <hyperlink ref="E237" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
-    <hyperlink ref="E250" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
-    <hyperlink ref="E177" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
-    <hyperlink ref="E188" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{D0965E4A-512F-4566-BB87-AB64FE29E3FF}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{2A7D5C1C-65C2-4C2E-8134-395C3BD1D95B}"/>
+    <hyperlink ref="E56" r:id="rId3" xr:uid="{F16CC454-DE65-45CD-B53B-5325B2AD3019}"/>
+    <hyperlink ref="E73" r:id="rId4" xr:uid="{488BC301-26ED-41CA-B7DA-6EA225763905}"/>
+    <hyperlink ref="E74" r:id="rId5" xr:uid="{8F0483EA-76F7-44DB-9A8F-346F2B5DD404}"/>
+    <hyperlink ref="E76" r:id="rId6" xr:uid="{D5318A9A-778F-468C-99C6-134DB50380C9}"/>
+    <hyperlink ref="E75" r:id="rId7" xr:uid="{DEB5407F-1CEE-405A-B4E8-9508FC73366B}"/>
+    <hyperlink ref="E148" r:id="rId8" xr:uid="{925F1402-8FF8-435D-AB0E-1293550F26B2}"/>
+    <hyperlink ref="E149" r:id="rId9" xr:uid="{5FFC5D7C-2955-43AF-9AC2-D9D93038982A}"/>
+    <hyperlink ref="E144" r:id="rId10" xr:uid="{1A40938C-69F9-4C77-8FC5-FCB23D16906B}"/>
+    <hyperlink ref="E234" r:id="rId11" xr:uid="{C5D92875-DAA3-45D2-820C-253C4FFFDE71}"/>
+    <hyperlink ref="E236" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
+    <hyperlink ref="E150" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
+    <hyperlink ref="E151" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
     <hyperlink ref="F262" r:id="rId15" display="https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117" xr:uid="{99A0F466-A75A-4E4E-A6F4-620C55E4BC39}"/>
     <hyperlink ref="E294" r:id="rId16" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
     <hyperlink ref="I263" r:id="rId17" xr:uid="{B2F6CA54-1A89-4AF4-81AE-0F5BB3E65DE4}"/>
+    <hyperlink ref="E226" r:id="rId18" xr:uid="{3137DA4B-211F-4BEA-9B82-14FC40BD36B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8232,6 +8309,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8465,23 +8551,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEB9FEA-40B1-421F-8CA1-06A6F08FDDDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D9FE06-7A86-472C-8F8A-024F616492F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="372">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1189,6 +1189,21 @@
   </si>
   <si>
     <t>Nawrocki, B., McLeod, A. M., Hussey, N. E., Colborne, S. F., Del Papa, J., &amp; Fisk, A. T. (2020). Assessing trophic position quantification methods for three piscivorous freshwater fish using stable isotopes and stomach contents. Journal of Great Lakes Research.</t>
+  </si>
+  <si>
+    <t>Recorded for The Urban Rivers podcast, unsure when the podcast will be published.</t>
+  </si>
+  <si>
+    <t>https://iiseagrant.org/lake-michigan-chinook-salmon-stick-with-declining-alewife-as-their-main-meal/</t>
+  </si>
+  <si>
+    <t>Illinois Indiana SeaGrant newsletter article on my work with salmon in the Great Lakes</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00338-020-01948-0</t>
+  </si>
+  <si>
+    <t>Parker K, Ward J, Eggleston E, Fedorov E, Parkinson JE, Dahlgren CP, Cunning R (2020) Characterization of a thermally tolerant Orbicella faveolata reef in Abaco, The Bahamas. Coral Reefs 39:675-685</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I326" totalsRowShown="0">
-  <autoFilter ref="A1:I326" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I329" totalsRowShown="0">
+  <autoFilter ref="A1:I329" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I325">
     <sortCondition ref="A1:A325"/>
   </sortState>
@@ -1683,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I326"/>
+  <dimension ref="A1:I329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
       <selection activeCell="B306" sqref="B306"/>
@@ -8268,6 +8283,64 @@
       </c>
       <c r="F326" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" s="1">
+        <v>44011.633171296293</v>
+      </c>
+      <c r="B327" t="s">
+        <v>19</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" s="2">
+        <v>44004</v>
+      </c>
+      <c r="E327" s="2"/>
+      <c r="I327" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" s="1">
+        <v>44011.63385416667</v>
+      </c>
+      <c r="B328" t="s">
+        <v>19</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" s="2">
+        <v>44004</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I328" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" s="1">
+        <v>44012.834965277776</v>
+      </c>
+      <c r="B329" t="s">
+        <v>9</v>
+      </c>
+      <c r="C329" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" s="2">
+        <v>43972</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F329" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23101"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D9FE06-7A86-472C-8F8A-024F616492F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5BBF04-F140-4A91-819A-9B4A3C79D192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="373">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1204,6 +1204,9 @@
   </si>
   <si>
     <t>Parker K, Ward J, Eggleston E, Fedorov E, Parkinson JE, Dahlgren CP, Cunning R (2020) Characterization of a thermally tolerant Orbicella faveolata reef in Abaco, The Bahamas. Coral Reefs 39:675-685</t>
+  </si>
+  <si>
+    <t>Tap into Chicago event - presented research on the wild mile to ~27 people</t>
   </si>
 </sst>
 </file>
@@ -1329,8 +1332,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I329" totalsRowShown="0">
-  <autoFilter ref="A1:I329" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I330" totalsRowShown="0">
+  <autoFilter ref="A1:I330" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I325">
     <sortCondition ref="A1:A325"/>
   </sortState>
@@ -1698,9 +1701,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I329"/>
+  <dimension ref="A1:I330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
@@ -8341,6 +8344,24 @@
       </c>
       <c r="F329" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" s="1">
+        <v>44019.59138888889</v>
+      </c>
+      <c r="B330" t="s">
+        <v>19</v>
+      </c>
+      <c r="C330" t="s">
+        <v>12</v>
+      </c>
+      <c r="D330" s="2">
+        <v>44007</v>
+      </c>
+      <c r="E330" s="2"/>
+      <c r="I330" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -8373,24 +8394,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8624,14 +8627,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5BBF04-F140-4A91-819A-9B4A3C79D192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF4EDCD6-E07D-46AD-8FD0-BD37206D6AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="400">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1207,6 +1207,87 @@
   </si>
   <si>
     <t>Tap into Chicago event - presented research on the wild mile to ~27 people</t>
+  </si>
+  <si>
+    <t>Presentation on conservation research in Chicago to Coorporate partners  (25 in attendance)</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41893-020-0517-6?utm_campaign=MultipleJournals_USG_SUSTAIN&amp;utm_source=Nature_community&amp;utm_medium=Community_sites&amp;utm_content=BenJoh-Nature-MultipleJournals-Human_Ecology-Global</t>
+  </si>
+  <si>
+    <t>Lynch A.J., V. Elliott, S.C. Phang, J E. Claussen, I. Harrison, K.J. Murchie, E.A. Steel, G.L. Stokes. 2020. Inland fish and fisheries integral to achieving the Sustainable Development Goals. Nature Sustainability. /doi.org/10.1038/s41893-020-0517-6</t>
+  </si>
+  <si>
+    <t>https://www.facetsjournal.com/doi/pdf/10.1139/facets-2018-0049</t>
+  </si>
+  <si>
+    <t>Murchie, K.J. and D. Diomede. 2020. Fundamentals of graphic design – essential tools for effective visual science communication. FACETS. 5:409-422.</t>
+  </si>
+  <si>
+    <t>https://sustainabilitycommunity.springernature.com/posts/65725-inland-fisheries-are-a-key-ingredient-to-reaching-sustainable-development-goals?channel_id=1385-behind-the-paper</t>
+  </si>
+  <si>
+    <t>Behind the paper blog for Nature Sustainability Community - all paper authors co-wrote</t>
+  </si>
+  <si>
+    <t>April 2; May 13; June 24, 25, 26 (migratory fishes); June 4 (amphibians); June 8, 9, 15, 22 (larval fishes)</t>
+  </si>
+  <si>
+    <t>34 citizen scientists * 1/2hr * 30 days (even though some went into May)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?time_continue=1&amp;v=eT9VChI4XwY&amp;feature=emb_logo</t>
+  </si>
+  <si>
+    <t>I worked on the script, and provided all digital content for the sucker portion starting at 7:35</t>
+  </si>
+  <si>
+    <t>6 days of larval fish sampling in May</t>
+  </si>
+  <si>
+    <t>10 days of larval fish sampling in June</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0380133020301179</t>
+  </si>
+  <si>
+    <t>Leonhardt, B., Happel, A., Bootsma, H., Bronte, C., Czesny, S., Feiner, Z., Kornis, M., Rinchard, J., Turschak, B., Hook, T., n.d. Diet Complexity of Lake Michigan Salmonines: 2015-2016. J. Great Lakes Res. https://doi.org/GLR-D-20-00013</t>
+  </si>
+  <si>
+    <t>Bahamas Natural History Conference</t>
+  </si>
+  <si>
+    <t>Auxiliary Board Virtual Tour of the Coral Reef II (with Steve Kessel and Zoltan Bobick)- 100 people</t>
+  </si>
+  <si>
+    <t>https://news.wttw.com/2020/04/06/singing-frogs-are-music-our-ears-and-positive-sign-habitat-restoration</t>
+  </si>
+  <si>
+    <t>Field days for amphibian research April-June</t>
+  </si>
+  <si>
+    <t>Logan Marion began Shedd internship</t>
+  </si>
+  <si>
+    <t>Kirsten Livingston coral research experiment</t>
+  </si>
+  <si>
+    <t>Katie Parker Q3 work. July 1 - Aug. 21 = 38 work days * 8 hrs/day = 304 hrs</t>
+  </si>
+  <si>
+    <t>Hosted Shedd Aquatic Themed Trivia Night for Donors (50 people)</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bioscience/article-abstract/70/6/468/5822090</t>
+  </si>
+  <si>
+    <t>Lennox R. J., Harcourt R., Bennett J. R., Davies A., Ford A. T., Frey R. M., Hayward M. W., Hussey N. E., Iverson S. J., Kays R., Kessel S. T., McMahon C., Muelbert M., Murray T. S., Nguyen V. M., Pye J. D., Roche D. G., Whoriskey F. G., Young N., &amp; Cooke S. J. (2020)  A novel framework to protect animal data in a world of ecosurveillance. BioScience. 70: 468–476 https://doi.org/10.1093/biosci/biaa035</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1002/ece3.6199</t>
+  </si>
+  <si>
+    <t>DiBattista J. D., Saenz‐Agudelo P., Piatek M. J., Cagua E. F., Bowen B. W., Choat J. H., Rocha L. A., Gaither M. R., Hobbs J. P. A., Sinclair-Taylor T. H., McIlwain J. H., Priest M. A., Braun C. D., Hussey N. E., Kessel S. T., &amp; Berumen M. L. (2020). Population genomic response to geographic gradients by widespread and endemic fishes of the Arabian Peninsula.  Ecology and Evolution.  10: 4314-4330  https://doi.org/10.1002/ece3.6199</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1297,6 +1378,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1332,10 +1414,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I330" totalsRowShown="0">
-  <autoFilter ref="A1:I330" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I325">
-    <sortCondition ref="A1:A325"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I350" totalsRowShown="0">
+  <autoFilter ref="A1:I350" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I347">
+    <sortCondition ref="B1:B347"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
@@ -1701,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I330"/>
+  <dimension ref="A1:I350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="E349" sqref="E349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8362,6 +8444,412 @@
       <c r="E330" s="2"/>
       <c r="I330" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" s="1">
+        <v>44026.697824074072</v>
+      </c>
+      <c r="B331" t="s">
+        <v>19</v>
+      </c>
+      <c r="C331" t="s">
+        <v>12</v>
+      </c>
+      <c r="D331" s="2">
+        <v>44026</v>
+      </c>
+      <c r="E331" s="2"/>
+      <c r="I331" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" s="1">
+        <v>44028.729953703703</v>
+      </c>
+      <c r="B332" t="s">
+        <v>26</v>
+      </c>
+      <c r="C332" t="s">
+        <v>16</v>
+      </c>
+      <c r="D332" s="2">
+        <v>43955</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F332" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="1">
+        <v>44028.73101851852</v>
+      </c>
+      <c r="B333" t="s">
+        <v>26</v>
+      </c>
+      <c r="C333" t="s">
+        <v>16</v>
+      </c>
+      <c r="D333" s="2">
+        <v>43993</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F333" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="1">
+        <v>44028.732314814813</v>
+      </c>
+      <c r="B334" t="s">
+        <v>26</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" s="2">
+        <v>43955</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I334" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="1">
+        <v>44028.745532407411</v>
+      </c>
+      <c r="B335" t="s">
+        <v>26</v>
+      </c>
+      <c r="C335" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335" s="2">
+        <v>43923</v>
+      </c>
+      <c r="E335" s="2"/>
+      <c r="G335">
+        <v>10</v>
+      </c>
+      <c r="I335" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="1">
+        <v>44028.74763888889</v>
+      </c>
+      <c r="B336" t="s">
+        <v>26</v>
+      </c>
+      <c r="C336" t="s">
+        <v>20</v>
+      </c>
+      <c r="D336" s="2">
+        <v>43922</v>
+      </c>
+      <c r="E336" s="2"/>
+      <c r="H336">
+        <v>510</v>
+      </c>
+      <c r="I336" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="1">
+        <v>44029.774965277778</v>
+      </c>
+      <c r="B337" t="s">
+        <v>26</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" s="2">
+        <v>44000</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I337" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="12">
+        <v>44032.673750000002</v>
+      </c>
+      <c r="B338" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C338" t="s">
+        <v>10</v>
+      </c>
+      <c r="D338" s="2">
+        <v>43977</v>
+      </c>
+      <c r="E338" s="2"/>
+      <c r="G338">
+        <v>6</v>
+      </c>
+      <c r="I338" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" s="12">
+        <v>44032.674305555556</v>
+      </c>
+      <c r="B339" t="s">
+        <v>19</v>
+      </c>
+      <c r="C339" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E339" s="2"/>
+      <c r="G339">
+        <v>10</v>
+      </c>
+      <c r="I339" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" s="1">
+        <v>44033.760439814818</v>
+      </c>
+      <c r="B340" t="s">
+        <v>19</v>
+      </c>
+      <c r="C340" t="s">
+        <v>16</v>
+      </c>
+      <c r="D340" s="2">
+        <v>43986</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F340" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" s="1">
+        <v>44039.643680555557</v>
+      </c>
+      <c r="B341" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" t="s">
+        <v>12</v>
+      </c>
+      <c r="D341" s="2">
+        <v>44034</v>
+      </c>
+      <c r="E341" s="2"/>
+      <c r="I341" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="1">
+        <v>44039.644583333335</v>
+      </c>
+      <c r="B342" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" t="s">
+        <v>12</v>
+      </c>
+      <c r="D342" s="2">
+        <v>44028</v>
+      </c>
+      <c r="E342" s="2"/>
+      <c r="I342" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" s="1">
+        <v>44034.844490740739</v>
+      </c>
+      <c r="B343" t="s">
+        <v>137</v>
+      </c>
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" s="2">
+        <v>43927</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="1">
+        <v>44034.845335648148</v>
+      </c>
+      <c r="B344" t="s">
+        <v>137</v>
+      </c>
+      <c r="C344" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344" s="2">
+        <v>43928</v>
+      </c>
+      <c r="E344" s="2"/>
+      <c r="G344">
+        <v>13</v>
+      </c>
+      <c r="I344" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" s="1">
+        <v>44034.853518518517</v>
+      </c>
+      <c r="B345" t="s">
+        <v>137</v>
+      </c>
+      <c r="C345" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345" s="2">
+        <v>44011</v>
+      </c>
+      <c r="E345" s="2"/>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>2</v>
+      </c>
+      <c r="I345" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" s="1">
+        <v>44034.587916666664</v>
+      </c>
+      <c r="B346" t="s">
+        <v>9</v>
+      </c>
+      <c r="C346" t="s">
+        <v>20</v>
+      </c>
+      <c r="D346" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E346" s="2"/>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>50</v>
+      </c>
+      <c r="I346" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" s="1">
+        <v>44034.58971064815</v>
+      </c>
+      <c r="B347" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347" t="s">
+        <v>20</v>
+      </c>
+      <c r="D347" s="2">
+        <v>44013</v>
+      </c>
+      <c r="E347" s="2"/>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>304</v>
+      </c>
+      <c r="I347" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" s="1">
+        <v>44039.677418981482</v>
+      </c>
+      <c r="B348" t="s">
+        <v>113</v>
+      </c>
+      <c r="C348" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E348" s="2"/>
+      <c r="I348" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" s="1">
+        <v>44039.857025462959</v>
+      </c>
+      <c r="B349" t="s">
+        <v>113</v>
+      </c>
+      <c r="C349" t="s">
+        <v>16</v>
+      </c>
+      <c r="D349" s="2">
+        <v>43983</v>
+      </c>
+      <c r="E349" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="F349" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" s="1">
+        <v>44039.857523148145</v>
+      </c>
+      <c r="B350" t="s">
+        <v>113</v>
+      </c>
+      <c r="C350" t="s">
+        <v>16</v>
+      </c>
+      <c r="D350" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E350" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="F350" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -8384,16 +8872,27 @@
     <hyperlink ref="E294" r:id="rId16" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
     <hyperlink ref="I263" r:id="rId17" xr:uid="{B2F6CA54-1A89-4AF4-81AE-0F5BB3E65DE4}"/>
     <hyperlink ref="E226" r:id="rId18" xr:uid="{3137DA4B-211F-4BEA-9B82-14FC40BD36B0}"/>
+    <hyperlink ref="E350" r:id="rId19" xr:uid="{27099907-A031-4B65-A453-522A3713C9C5}"/>
+    <hyperlink ref="E349" r:id="rId20" xr:uid="{05BDD9DB-8015-4AB0-A9C6-AB83241EE286}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId19"/>
+  <legacyDrawing r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8627,7 +9126,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8636,23 +9135,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF4EDCD6-E07D-46AD-8FD0-BD37206D6AC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88C7E8C9-25FE-40F1-BF6A-828975108C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="413">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1288,6 +1288,45 @@
   </si>
   <si>
     <t>DiBattista J. D., Saenz‐Agudelo P., Piatek M. J., Cagua E. F., Bowen B. W., Choat J. H., Rocha L. A., Gaither M. R., Hobbs J. P. A., Sinclair-Taylor T. H., McIlwain J. H., Priest M. A., Braun C. D., Hussey N. E., Kessel S. T., &amp; Berumen M. L. (2020). Population genomic response to geographic gradients by widespread and endemic fishes of the Arabian Peninsula.  Ecology and Evolution.  10: 4314-4330  https://doi.org/10.1002/ece3.6199</t>
+  </si>
+  <si>
+    <t>https://www.biotaxa.org/Zootaxa/article/view/zootaxa.4816.4.3</t>
+  </si>
+  <si>
+    <t>Inoue, K., Cummings, K. S., Tiemann, J. S., Miller, T. D., Johnson, N. A., Smith, C. H., &amp; Randklev, C. R. (2020). A new species of freshwater mussel in the genus Popenaias Frierson, 1927, from the Gulf coastal rivers of central Mexico (Bivalvia: Unionida: Unionidae) with comments on the genus. Zootaxa, 4816(4), 457-490. https://doi.org/10.11646/zootaxa.4816.4.3</t>
+  </si>
+  <si>
+    <t>Jillian Snow Q2 volunteering (4 hrs per week)</t>
+  </si>
+  <si>
+    <t>Mussel sampling in Little Rock Creek near Hinckley, IL with the DeKalb County Forest Preserve District</t>
+  </si>
+  <si>
+    <t>Mussel sampling in the West Branch DuPage River, Naperville, IL with the DuPage County Forest Preserve District.</t>
+  </si>
+  <si>
+    <t>https://podcast-stream.wbez.org/recast/wbez-spots/20200728171812-200728_170400_SheddWaterStudy_JM.mp3?listeningSessionID=0CD_382_212__54fd0a0300168ec316252e6ca2419d7b930b7fa0</t>
+  </si>
+  <si>
+    <t>WBEZ short clip about Urban Ecosystems paper</t>
+  </si>
+  <si>
+    <t>https://news.wttw.com/2020/07/30/forget-catch-day-bass-catch-year-and-here-s-why</t>
+  </si>
+  <si>
+    <t>Article covering various topics including the Urban Ecosystems paper</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11252-020-01020-3</t>
+  </si>
+  <si>
+    <t>Happel, A., Gallagher, D. Chicago’s fish assemblage over ~30 years – more fish and more native species. Urban Ecosystems (2020). https://doi.org/10.1007/s11252-020-01020-3</t>
+  </si>
+  <si>
+    <t>https://chicago.suntimes.com/2020/7/31/21349271/lake-michigan-salmon-trout-lakewide-study-reveals-changes-diet-more-come</t>
+  </si>
+  <si>
+    <t>Chicago SunTimes article on salmon diets referencing my recent publication</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1453,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I350" totalsRowShown="0">
-  <autoFilter ref="A1:I350" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I358" totalsRowShown="0">
+  <autoFilter ref="A1:I358" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I347">
     <sortCondition ref="B1:B347"/>
   </sortState>
@@ -1783,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I350"/>
+  <dimension ref="A1:I358"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
       <selection activeCell="E349" sqref="E349"/>
@@ -8850,6 +8889,172 @@
       </c>
       <c r="F350" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" s="1">
+        <v>44042.717442129629</v>
+      </c>
+      <c r="B351" t="s">
+        <v>40</v>
+      </c>
+      <c r="C351" t="s">
+        <v>16</v>
+      </c>
+      <c r="D351" s="2">
+        <v>44031</v>
+      </c>
+      <c r="E351" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="F351" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" s="1">
+        <v>44042.724652777775</v>
+      </c>
+      <c r="B352" t="s">
+        <v>40</v>
+      </c>
+      <c r="C352" t="s">
+        <v>20</v>
+      </c>
+      <c r="D352" s="2">
+        <v>43922</v>
+      </c>
+      <c r="E352" s="15"/>
+      <c r="G352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>56</v>
+      </c>
+      <c r="I352" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" s="1">
+        <v>44042.783483796295</v>
+      </c>
+      <c r="B353" t="s">
+        <v>40</v>
+      </c>
+      <c r="C353" t="s">
+        <v>10</v>
+      </c>
+      <c r="D353" s="2">
+        <v>44000</v>
+      </c>
+      <c r="E353" s="15"/>
+      <c r="G353">
+        <v>1</v>
+      </c>
+      <c r="I353" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" s="1">
+        <v>44042.784004629626</v>
+      </c>
+      <c r="B354" t="s">
+        <v>40</v>
+      </c>
+      <c r="C354" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" s="2">
+        <v>44019</v>
+      </c>
+      <c r="E354" s="15"/>
+      <c r="G354">
+        <v>1</v>
+      </c>
+      <c r="I354" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" s="1">
+        <v>44043.618877314817</v>
+      </c>
+      <c r="B355" t="s">
+        <v>19</v>
+      </c>
+      <c r="C355" t="s">
+        <v>28</v>
+      </c>
+      <c r="D355" s="2">
+        <v>44040</v>
+      </c>
+      <c r="E355" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="I355" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" s="1">
+        <v>44043.619270833333</v>
+      </c>
+      <c r="B356" t="s">
+        <v>19</v>
+      </c>
+      <c r="C356" t="s">
+        <v>28</v>
+      </c>
+      <c r="D356" s="2">
+        <v>44042</v>
+      </c>
+      <c r="E356" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="I356" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" s="1">
+        <v>44043.621423611112</v>
+      </c>
+      <c r="B357" t="s">
+        <v>19</v>
+      </c>
+      <c r="C357" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="2">
+        <v>44040</v>
+      </c>
+      <c r="E357" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F357" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" s="1">
+        <v>44043.64</v>
+      </c>
+      <c r="B358" t="s">
+        <v>19</v>
+      </c>
+      <c r="C358" t="s">
+        <v>28</v>
+      </c>
+      <c r="D358" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E358" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="I358" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8884,15 +9089,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9126,7 +9322,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9135,14 +9331,23 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88C7E8C9-25FE-40F1-BF6A-828975108C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A0C1C1-3928-48A3-8C97-96831ED51EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="431">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1327,6 +1327,60 @@
   </si>
   <si>
     <t>Chicago SunTimes article on salmon diets referencing my recent publication</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/news/environment/ct-chicago-river-more-fish-20200803-eexmbqrqkvcmfhjklqypqyp23e-story.html#rt=floating-rail</t>
+  </si>
+  <si>
+    <t>Chicago Tribune Article about Chicago River Fish Assemblage paper</t>
+  </si>
+  <si>
+    <t>https://blockclubchicago.org/2020/07/28/fish-are-returning-to-chicago-river-waterways-new-study-says/</t>
+  </si>
+  <si>
+    <t>block club chicago article on chicago river fish assemblage paper</t>
+  </si>
+  <si>
+    <t>https://wbbm780.radio.com/articles/fish-flock-to-cleaner-chicago-river</t>
+  </si>
+  <si>
+    <t>WBBM article about the Chicago Fish Assemblage paper</t>
+  </si>
+  <si>
+    <t>https://wgntv.com/news/chicago-news/nearly-60-fish-types-in-chicago-waters-up-from-about-10/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGN write up of the Chicago Fish Assemblage </t>
+  </si>
+  <si>
+    <t>https://animalbiotelemetry.biomedcentral.com/articles/10.1186/s40317-020-00215-x#citeas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weinz, A., Klinard, N.V., Matley, J., Fisk, A.T., &amp; Colborne, S.F. (2020) Identification of predation events in wild fish using novel acoustic transmitters. Animal Biotelemetry. 8(28) DOI: 10.1186/s40317-020-00215-x </t>
+  </si>
+  <si>
+    <t>Tadpole sampling with Melissa Youngquist</t>
+  </si>
+  <si>
+    <t>Invertebrate sampling with Melissa Youngquist</t>
+  </si>
+  <si>
+    <t>Larval fish sampling with Austin Happel</t>
+  </si>
+  <si>
+    <t>Freshwater mussel sampling and tagging with Kentaro Inoue</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1111/mec.15526</t>
+  </si>
+  <si>
+    <t>Cunning R, Baker AC (2020) Thermotolerant coral symbionts modulate heat stress-responsive genes in their hosts. Mol Ecol 29:2940-2950. doi:10.1111/mec.15526</t>
+  </si>
+  <si>
+    <t>Research trip on CRII</t>
+  </si>
+  <si>
+    <t>Four volunteers working 10-hour days for 20 days = 800 person*hours</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1507,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I358" totalsRowShown="0">
-  <autoFilter ref="A1:I358" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I370" totalsRowShown="0">
+  <autoFilter ref="A1:I370" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I347">
     <sortCondition ref="B1:B347"/>
   </sortState>
@@ -1822,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I358"/>
+  <dimension ref="A1:I370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="E349" sqref="E349"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="F368" sqref="F368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4179,10 +4233,10 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="1">
+      <c r="A118" s="12">
         <v>43637.140381944446</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="13" t="s">
         <v>122</v>
       </c>
       <c r="C118" t="s">
@@ -9055,6 +9109,255 @@
       </c>
       <c r="I358" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" s="1">
+        <v>44046.611006944448</v>
+      </c>
+      <c r="B359" t="s">
+        <v>19</v>
+      </c>
+      <c r="C359" t="s">
+        <v>28</v>
+      </c>
+      <c r="D359" s="2">
+        <v>44046</v>
+      </c>
+      <c r="E359" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="I359" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" s="1">
+        <v>44046.620648148149</v>
+      </c>
+      <c r="B360" t="s">
+        <v>19</v>
+      </c>
+      <c r="C360" t="s">
+        <v>28</v>
+      </c>
+      <c r="D360" s="2">
+        <v>44040</v>
+      </c>
+      <c r="E360" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I360" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" s="1">
+        <v>44047.586909722224</v>
+      </c>
+      <c r="B361" t="s">
+        <v>19</v>
+      </c>
+      <c r="C361" t="s">
+        <v>28</v>
+      </c>
+      <c r="D361" s="2">
+        <v>44046</v>
+      </c>
+      <c r="E361" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I361" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" s="1">
+        <v>44047.620162037034</v>
+      </c>
+      <c r="B362" t="s">
+        <v>19</v>
+      </c>
+      <c r="C362" t="s">
+        <v>28</v>
+      </c>
+      <c r="D362" s="2">
+        <v>44047</v>
+      </c>
+      <c r="E362" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="I362" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" s="1">
+        <v>44053.67465277778</v>
+      </c>
+      <c r="B363" t="s">
+        <v>250</v>
+      </c>
+      <c r="C363" t="s">
+        <v>16</v>
+      </c>
+      <c r="D363" s="2">
+        <v>44052</v>
+      </c>
+      <c r="E363" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="F363" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" s="1">
+        <v>44053.679502314815</v>
+      </c>
+      <c r="B364" t="s">
+        <v>250</v>
+      </c>
+      <c r="C364" t="s">
+        <v>10</v>
+      </c>
+      <c r="D364" s="2">
+        <v>43987</v>
+      </c>
+      <c r="E364" s="15"/>
+      <c r="G364">
+        <v>1</v>
+      </c>
+      <c r="I364" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" s="1">
+        <v>44053.6797337963</v>
+      </c>
+      <c r="B365" t="s">
+        <v>250</v>
+      </c>
+      <c r="C365" t="s">
+        <v>10</v>
+      </c>
+      <c r="D365" s="2">
+        <v>43990</v>
+      </c>
+      <c r="E365" s="15"/>
+      <c r="G365">
+        <v>1</v>
+      </c>
+      <c r="I365" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" s="1">
+        <v>44053.679930555554</v>
+      </c>
+      <c r="B366" t="s">
+        <v>250</v>
+      </c>
+      <c r="C366" t="s">
+        <v>10</v>
+      </c>
+      <c r="D366" s="2">
+        <v>44046</v>
+      </c>
+      <c r="E366" s="15"/>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="I366" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" s="1">
+        <v>44053.680312500001</v>
+      </c>
+      <c r="B367" t="s">
+        <v>250</v>
+      </c>
+      <c r="C367" t="s">
+        <v>10</v>
+      </c>
+      <c r="D367" s="2">
+        <v>44054</v>
+      </c>
+      <c r="E367" s="15"/>
+      <c r="G367">
+        <v>3</v>
+      </c>
+      <c r="I367" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" s="1">
+        <v>44060.768425925926</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368" t="s">
+        <v>16</v>
+      </c>
+      <c r="D368" s="2">
+        <v>44002</v>
+      </c>
+      <c r="E368" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="F368" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" s="1">
+        <v>44060.769768518519</v>
+      </c>
+      <c r="B369" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369" t="s">
+        <v>10</v>
+      </c>
+      <c r="D369" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E369" s="15"/>
+      <c r="G369">
+        <v>21</v>
+      </c>
+      <c r="I369" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" s="1">
+        <v>44060.770648148151</v>
+      </c>
+      <c r="B370" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370" t="s">
+        <v>20</v>
+      </c>
+      <c r="D370" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E370" s="15"/>
+      <c r="G370">
+        <v>4</v>
+      </c>
+      <c r="H370">
+        <v>800</v>
+      </c>
+      <c r="I370" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9079,16 +9382,36 @@
     <hyperlink ref="E226" r:id="rId18" xr:uid="{3137DA4B-211F-4BEA-9B82-14FC40BD36B0}"/>
     <hyperlink ref="E350" r:id="rId19" xr:uid="{27099907-A031-4B65-A453-522A3713C9C5}"/>
     <hyperlink ref="E349" r:id="rId20" xr:uid="{05BDD9DB-8015-4AB0-A9C6-AB83241EE286}"/>
+    <hyperlink ref="E357" r:id="rId21" xr:uid="{4B576F19-3DA3-4771-B241-816AB98BEFCA}"/>
+    <hyperlink ref="E363" r:id="rId22" location="citeas" xr:uid="{B046AA8A-1960-4984-86A2-4DBE219428F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId21"/>
+  <legacyDrawing r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9322,32 +9645,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23219"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A0C1C1-3928-48A3-8C97-96831ED51EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB95D97-894C-4C99-942C-BBA671C919BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="438">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1381,6 +1381,27 @@
   </si>
   <si>
     <t>Four volunteers working 10-hour days for 20 days = 800 person*hours</t>
+  </si>
+  <si>
+    <t>https://www.flipsnack.com/beneaththeblue/an-hour-in-the-deep.html</t>
+  </si>
+  <si>
+    <t>Interview for United Nations Association of Chicago e-magazine</t>
+  </si>
+  <si>
+    <t>https://podcasts.apple.com/us/podcast/8-15-chaunceys-great-outdoors/id377670644?i=1000488219446</t>
+  </si>
+  <si>
+    <t>Podcast Interview about the Chicago River fish paper</t>
+  </si>
+  <si>
+    <t>8 days of larval fish sampling in July</t>
+  </si>
+  <si>
+    <t>https://www.fox32chicago.com/video/840108?taid=5f354f94d7d51b00016363b9&amp;utm_campaign=trueanthem&amp;utm_medium=trueanthem&amp;utm_source=twitter</t>
+  </si>
+  <si>
+    <t>live interview on Fox 32 about Shedd's research and work in the Chicago River</t>
   </si>
 </sst>
 </file>
@@ -1507,8 +1528,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I370" totalsRowShown="0">
-  <autoFilter ref="A1:I370" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I374" totalsRowShown="0">
+  <autoFilter ref="A1:I374" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I347">
     <sortCondition ref="B1:B347"/>
   </sortState>
@@ -1876,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I370"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="F368" sqref="F368"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="E371" sqref="E371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9358,6 +9379,87 @@
       </c>
       <c r="I370" t="s">
         <v>430</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" s="1">
+        <v>44060.782013888886</v>
+      </c>
+      <c r="B371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s">
+        <v>28</v>
+      </c>
+      <c r="D371" s="2">
+        <v>44053</v>
+      </c>
+      <c r="E371" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="I371" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" s="1">
+        <v>44062.756053240744</v>
+      </c>
+      <c r="B372" t="s">
+        <v>19</v>
+      </c>
+      <c r="C372" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372" s="2">
+        <v>44058</v>
+      </c>
+      <c r="E372" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I372" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" s="1">
+        <v>44062.7575</v>
+      </c>
+      <c r="B373" t="s">
+        <v>19</v>
+      </c>
+      <c r="C373" t="s">
+        <v>10</v>
+      </c>
+      <c r="D373" s="2">
+        <v>44040</v>
+      </c>
+      <c r="E373" s="15"/>
+      <c r="G373">
+        <v>8</v>
+      </c>
+      <c r="I373" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" s="1">
+        <v>44062.762569444443</v>
+      </c>
+      <c r="B374" t="s">
+        <v>19</v>
+      </c>
+      <c r="C374" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" s="2">
+        <v>44056</v>
+      </c>
+      <c r="E374" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="I374" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -9384,11 +9486,12 @@
     <hyperlink ref="E349" r:id="rId20" xr:uid="{05BDD9DB-8015-4AB0-A9C6-AB83241EE286}"/>
     <hyperlink ref="E357" r:id="rId21" xr:uid="{4B576F19-3DA3-4771-B241-816AB98BEFCA}"/>
     <hyperlink ref="E363" r:id="rId22" location="citeas" xr:uid="{B046AA8A-1960-4984-86A2-4DBE219428F2}"/>
+    <hyperlink ref="E371" r:id="rId23" xr:uid="{C085667D-D3C4-410D-8CD0-8C9B000220F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9403,15 +9506,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9645,14 +9739,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB95D97-894C-4C99-942C-BBA671C919BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66E3ADD-0DAC-4814-A4D3-AD2D0831892C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,10 +275,10 @@
     <t>NOAA grant review panel</t>
   </si>
   <si>
+    <t>Rich and Lily - coral participants on marine research trip. 2 ppl * 8-hour days * 10 days = 160 hours</t>
+  </si>
+  <si>
     <t>Coral work on marine research trip on CRII</t>
-  </si>
-  <si>
-    <t>Rich and Lily - coral participants on marine research trip. 2 ppl * 8-hour days * 10 days = 160 hours</t>
   </si>
   <si>
     <t>Field work nights</t>
@@ -1254,25 +1254,25 @@
     <t>Leonhardt, B., Happel, A., Bootsma, H., Bronte, C., Czesny, S., Feiner, Z., Kornis, M., Rinchard, J., Turschak, B., Hook, T., n.d. Diet Complexity of Lake Michigan Salmonines: 2015-2016. J. Great Lakes Res. https://doi.org/GLR-D-20-00013</t>
   </si>
   <si>
+    <t>Kirsten Livingston coral research experiment</t>
+  </si>
+  <si>
+    <t>Katie Parker Q3 work. July 1 - Aug. 21 = 38 work days * 8 hrs/day = 304 hrs</t>
+  </si>
+  <si>
+    <t>https://news.wttw.com/2020/04/06/singing-frogs-are-music-our-ears-and-positive-sign-habitat-restoration</t>
+  </si>
+  <si>
+    <t>Field days for amphibian research April-June</t>
+  </si>
+  <si>
+    <t>Logan Marion began Shedd internship</t>
+  </si>
+  <si>
     <t>Bahamas Natural History Conference</t>
   </si>
   <si>
     <t>Auxiliary Board Virtual Tour of the Coral Reef II (with Steve Kessel and Zoltan Bobick)- 100 people</t>
-  </si>
-  <si>
-    <t>https://news.wttw.com/2020/04/06/singing-frogs-are-music-our-ears-and-positive-sign-habitat-restoration</t>
-  </si>
-  <si>
-    <t>Field days for amphibian research April-June</t>
-  </si>
-  <si>
-    <t>Logan Marion began Shedd internship</t>
-  </si>
-  <si>
-    <t>Kirsten Livingston coral research experiment</t>
-  </si>
-  <si>
-    <t>Katie Parker Q3 work. July 1 - Aug. 21 = 38 work days * 8 hrs/day = 304 hrs</t>
   </si>
   <si>
     <t>Hosted Shedd Aquatic Themed Trivia Night for Donors (50 people)</t>
@@ -1476,7 +1476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1486,13 +1486,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1530,8 +1529,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I374" totalsRowShown="0">
   <autoFilter ref="A1:I374" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I347">
-    <sortCondition ref="B1:B347"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
+    <sortCondition ref="A2:A374"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{257521A4-A155-4B02-A306-C59860E67EED}" name="SubmissionTime"/>
@@ -1899,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="E371" sqref="E371"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C306" sqref="A2:I374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2866,14 +2865,17 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2">
         <v>43546</v>
       </c>
       <c r="E48" s="2"/>
       <c r="G48">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>160</v>
       </c>
       <c r="I48" t="s">
         <v>62</v>
@@ -2887,17 +2889,14 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2">
         <v>43546</v>
       </c>
       <c r="E49" s="2"/>
       <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="I49" t="s">
         <v>63</v>
@@ -3292,10 +3291,10 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="12">
+      <c r="A69" s="10">
         <v>43634.723692129628</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C69" t="s">
@@ -3559,7 +3558,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="12">
+      <c r="A83" s="10">
         <v>43634.751307870371</v>
       </c>
       <c r="B83" t="s">
@@ -3580,10 +3579,10 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="12">
+      <c r="A84" s="10">
         <v>43634.75577546296</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C84" t="s">
@@ -3601,7 +3600,7 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="12">
+      <c r="A85" s="10">
         <v>43634.757048611114</v>
       </c>
       <c r="B85" t="s">
@@ -4010,14 +4009,14 @@
         <v>113</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2">
         <v>43561</v>
       </c>
       <c r="E105" s="2"/>
       <c r="G105">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I105" t="s">
         <v>121</v>
@@ -4031,14 +4030,14 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D106" s="2">
         <v>43561</v>
       </c>
       <c r="E106" s="2"/>
       <c r="G106">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I106" t="s">
         <v>121</v>
@@ -4254,10 +4253,10 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="12">
+      <c r="A118" s="10">
         <v>43637.140381944446</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C118" t="s">
@@ -4272,42 +4271,42 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="8">
+      <c r="A119" s="12">
         <v>43637.14329861111</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D119" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="G119">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="8">
+        <v>43637.14329861111</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2">
         <v>43579</v>
       </c>
-      <c r="E119" s="2"/>
-      <c r="I119" t="s">
+      <c r="E120" s="2"/>
+      <c r="I120" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="14">
-        <v>43637.14329861111</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C120" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="2">
-        <v>43635</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="G120">
-        <v>14</v>
-      </c>
-      <c r="I120" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4573,7 +4572,7 @@
         <v>43647</v>
       </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="11" t="s">
+      <c r="F133" s="9" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4644,7 +4643,7 @@
         <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D137" s="2">
         <v>43686</v>
@@ -7867,7 +7866,7 @@
       </c>
     </row>
     <row r="296" spans="1:9">
-      <c r="A296" s="1">
+      <c r="A296" s="10">
         <v>43923.795162037037</v>
       </c>
       <c r="B296" t="s">
@@ -8515,7 +8514,7 @@
       <c r="D328" s="2">
         <v>44004</v>
       </c>
-      <c r="E328" s="2" t="s">
+      <c r="E328" s="13" t="s">
         <v>368</v>
       </c>
       <c r="I328" t="s">
@@ -8639,10 +8638,10 @@
       </c>
     </row>
     <row r="335" spans="1:9">
-      <c r="A335" s="1">
+      <c r="A335" s="10">
         <v>44028.745532407411</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C335" t="s">
@@ -8701,10 +8700,10 @@
       </c>
     </row>
     <row r="338" spans="1:9">
-      <c r="A338" s="12">
+      <c r="A338" s="10">
         <v>44032.673750000002</v>
       </c>
-      <c r="B338" s="13" t="s">
+      <c r="B338" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C338" t="s">
@@ -8722,7 +8721,7 @@
       </c>
     </row>
     <row r="339" spans="1:9">
-      <c r="A339" s="12">
+      <c r="A339" s="10">
         <v>44032.674305555556</v>
       </c>
       <c r="B339" t="s">
@@ -8764,36 +8763,48 @@
     </row>
     <row r="341" spans="1:9">
       <c r="A341" s="1">
-        <v>44039.643680555557</v>
+        <v>44034.587916666664</v>
       </c>
       <c r="B341" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C341" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D341" s="2">
-        <v>44034</v>
+        <v>44019</v>
       </c>
       <c r="E341" s="2"/>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>50</v>
+      </c>
       <c r="I341" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="342" spans="1:9">
       <c r="A342" s="1">
-        <v>44039.644583333335</v>
+        <v>44034.58971064815</v>
       </c>
       <c r="B342" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C342" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D342" s="2">
-        <v>44028</v>
+        <v>44013</v>
       </c>
       <c r="E342" s="2"/>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>304</v>
+      </c>
       <c r="I342" t="s">
         <v>389</v>
       </c>
@@ -8862,48 +8873,36 @@
     </row>
     <row r="346" spans="1:9">
       <c r="A346" s="1">
-        <v>44034.587916666664</v>
+        <v>44039.643680555557</v>
       </c>
       <c r="B346" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D346" s="2">
-        <v>44019</v>
+        <v>44034</v>
       </c>
       <c r="E346" s="2"/>
-      <c r="G346">
-        <v>1</v>
-      </c>
-      <c r="H346">
-        <v>50</v>
-      </c>
       <c r="I346" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="347" spans="1:9">
       <c r="A347" s="1">
-        <v>44034.58971064815</v>
+        <v>44039.644583333335</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D347" s="2">
-        <v>44013</v>
+        <v>44028</v>
       </c>
       <c r="E347" s="2"/>
-      <c r="G347">
-        <v>0</v>
-      </c>
-      <c r="H347">
-        <v>304</v>
-      </c>
       <c r="I347" t="s">
         <v>394</v>
       </c>
@@ -8939,7 +8938,7 @@
       <c r="D349" s="2">
         <v>43983</v>
       </c>
-      <c r="E349" s="15" t="s">
+      <c r="E349" s="13" t="s">
         <v>396</v>
       </c>
       <c r="F349" t="s">
@@ -8959,7 +8958,7 @@
       <c r="D350" s="2">
         <v>43952</v>
       </c>
-      <c r="E350" s="15" t="s">
+      <c r="E350" s="13" t="s">
         <v>398</v>
       </c>
       <c r="F350" t="s">
@@ -8979,7 +8978,7 @@
       <c r="D351" s="2">
         <v>44031</v>
       </c>
-      <c r="E351" s="15" t="s">
+      <c r="E351" s="13" t="s">
         <v>400</v>
       </c>
       <c r="F351" t="s">
@@ -8999,7 +8998,7 @@
       <c r="D352" s="2">
         <v>43922</v>
       </c>
-      <c r="E352" s="15"/>
+      <c r="E352" s="13"/>
       <c r="G352">
         <v>1</v>
       </c>
@@ -9023,7 +9022,7 @@
       <c r="D353" s="2">
         <v>44000</v>
       </c>
-      <c r="E353" s="15"/>
+      <c r="E353" s="13"/>
       <c r="G353">
         <v>1</v>
       </c>
@@ -9044,7 +9043,7 @@
       <c r="D354" s="2">
         <v>44019</v>
       </c>
-      <c r="E354" s="15"/>
+      <c r="E354" s="13"/>
       <c r="G354">
         <v>1</v>
       </c>
@@ -9065,7 +9064,7 @@
       <c r="D355" s="2">
         <v>44040</v>
       </c>
-      <c r="E355" s="15" t="s">
+      <c r="E355" s="13" t="s">
         <v>405</v>
       </c>
       <c r="I355" t="s">
@@ -9085,7 +9084,7 @@
       <c r="D356" s="2">
         <v>44042</v>
       </c>
-      <c r="E356" s="15" t="s">
+      <c r="E356" s="13" t="s">
         <v>407</v>
       </c>
       <c r="I356" t="s">
@@ -9105,7 +9104,7 @@
       <c r="D357" s="2">
         <v>44040</v>
       </c>
-      <c r="E357" s="15" t="s">
+      <c r="E357" s="13" t="s">
         <v>409</v>
       </c>
       <c r="F357" t="s">
@@ -9125,7 +9124,7 @@
       <c r="D358" s="2">
         <v>44043</v>
       </c>
-      <c r="E358" s="15" t="s">
+      <c r="E358" s="13" t="s">
         <v>411</v>
       </c>
       <c r="I358" t="s">
@@ -9145,7 +9144,7 @@
       <c r="D359" s="2">
         <v>44046</v>
       </c>
-      <c r="E359" s="15" t="s">
+      <c r="E359" s="13" t="s">
         <v>413</v>
       </c>
       <c r="I359" t="s">
@@ -9165,7 +9164,7 @@
       <c r="D360" s="2">
         <v>44040</v>
       </c>
-      <c r="E360" s="15" t="s">
+      <c r="E360" s="13" t="s">
         <v>415</v>
       </c>
       <c r="I360" t="s">
@@ -9185,7 +9184,7 @@
       <c r="D361" s="2">
         <v>44046</v>
       </c>
-      <c r="E361" s="15" t="s">
+      <c r="E361" s="13" t="s">
         <v>417</v>
       </c>
       <c r="I361" t="s">
@@ -9205,7 +9204,7 @@
       <c r="D362" s="2">
         <v>44047</v>
       </c>
-      <c r="E362" s="15" t="s">
+      <c r="E362" s="13" t="s">
         <v>419</v>
       </c>
       <c r="I362" t="s">
@@ -9225,7 +9224,7 @@
       <c r="D363" s="2">
         <v>44052</v>
       </c>
-      <c r="E363" s="15" t="s">
+      <c r="E363" s="13" t="s">
         <v>421</v>
       </c>
       <c r="F363" t="s">
@@ -9245,7 +9244,7 @@
       <c r="D364" s="2">
         <v>43987</v>
       </c>
-      <c r="E364" s="15"/>
+      <c r="E364" s="13"/>
       <c r="G364">
         <v>1</v>
       </c>
@@ -9266,7 +9265,7 @@
       <c r="D365" s="2">
         <v>43990</v>
       </c>
-      <c r="E365" s="15"/>
+      <c r="E365" s="13"/>
       <c r="G365">
         <v>1</v>
       </c>
@@ -9287,7 +9286,7 @@
       <c r="D366" s="2">
         <v>44046</v>
       </c>
-      <c r="E366" s="15"/>
+      <c r="E366" s="13"/>
       <c r="G366">
         <v>1</v>
       </c>
@@ -9308,7 +9307,7 @@
       <c r="D367" s="2">
         <v>44054</v>
       </c>
-      <c r="E367" s="15"/>
+      <c r="E367" s="13"/>
       <c r="G367">
         <v>3</v>
       </c>
@@ -9329,7 +9328,7 @@
       <c r="D368" s="2">
         <v>44002</v>
       </c>
-      <c r="E368" s="15" t="s">
+      <c r="E368" s="13" t="s">
         <v>427</v>
       </c>
       <c r="F368" t="s">
@@ -9337,10 +9336,10 @@
       </c>
     </row>
     <row r="369" spans="1:9">
-      <c r="A369" s="1">
+      <c r="A369" s="10">
         <v>44060.769768518519</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C369" t="s">
@@ -9349,7 +9348,7 @@
       <c r="D369" s="2">
         <v>44045</v>
       </c>
-      <c r="E369" s="15"/>
+      <c r="E369" s="13"/>
       <c r="G369">
         <v>21</v>
       </c>
@@ -9370,7 +9369,7 @@
       <c r="D370" s="2">
         <v>44045</v>
       </c>
-      <c r="E370" s="15"/>
+      <c r="E370" s="13"/>
       <c r="G370">
         <v>4</v>
       </c>
@@ -9394,7 +9393,7 @@
       <c r="D371" s="2">
         <v>44053</v>
       </c>
-      <c r="E371" s="15" t="s">
+      <c r="E371" s="13" t="s">
         <v>431</v>
       </c>
       <c r="I371" t="s">
@@ -9414,7 +9413,7 @@
       <c r="D372" s="2">
         <v>44058</v>
       </c>
-      <c r="E372" s="15" t="s">
+      <c r="E372" s="13" t="s">
         <v>433</v>
       </c>
       <c r="I372" t="s">
@@ -9434,7 +9433,7 @@
       <c r="D373" s="2">
         <v>44040</v>
       </c>
-      <c r="E373" s="15"/>
+      <c r="E373" s="13"/>
       <c r="G373">
         <v>8</v>
       </c>
@@ -9455,7 +9454,7 @@
       <c r="D374" s="2">
         <v>44056</v>
       </c>
-      <c r="E374" s="15" t="s">
+      <c r="E374" s="13" t="s">
         <v>436</v>
       </c>
       <c r="I374" t="s">
@@ -9487,11 +9486,12 @@
     <hyperlink ref="E357" r:id="rId21" xr:uid="{4B576F19-3DA3-4771-B241-816AB98BEFCA}"/>
     <hyperlink ref="E363" r:id="rId22" location="citeas" xr:uid="{B046AA8A-1960-4984-86A2-4DBE219428F2}"/>
     <hyperlink ref="E371" r:id="rId23" xr:uid="{C085667D-D3C4-410D-8CD0-8C9B000220F7}"/>
+    <hyperlink ref="E328" r:id="rId24" xr:uid="{5E022E0D-F407-4392-8F4A-7810D15676C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23219"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23223"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66E3ADD-0DAC-4814-A4D3-AD2D0831892C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E358EE-EBA5-448B-A29B-62613235EE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="442">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1402,6 +1402,18 @@
   </si>
   <si>
     <t>live interview on Fox 32 about Shedd's research and work in the Chicago River</t>
+  </si>
+  <si>
+    <t>Presented a poster at the Society for Freshwater Science Summer of Science virtual poster session</t>
+  </si>
+  <si>
+    <t>Annual mussel monitoring in North Branch Nippersink Creek.</t>
+  </si>
+  <si>
+    <t>Annual mussel monitoring in the South Branch Kishwaukee River.</t>
+  </si>
+  <si>
+    <t>Lucas Chamberlain participated in annual mussel monitoring on Aug 4th and 11th.</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1539,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I374" totalsRowShown="0">
-  <autoFilter ref="A1:I374" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I378" totalsRowShown="0">
+  <autoFilter ref="A1:I378" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -1896,9 +1908,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I374"/>
+  <dimension ref="A1:I378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
       <selection activeCell="C306" sqref="A2:I374"/>
     </sheetView>
   </sheetViews>
@@ -9459,6 +9471,90 @@
       </c>
       <c r="I374" t="s">
         <v>437</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" s="1">
+        <v>44068.83871527778</v>
+      </c>
+      <c r="B375" t="s">
+        <v>40</v>
+      </c>
+      <c r="C375" t="s">
+        <v>12</v>
+      </c>
+      <c r="D375" s="2">
+        <v>43992</v>
+      </c>
+      <c r="E375" s="13"/>
+      <c r="I375" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" s="1">
+        <v>44068.88480324074</v>
+      </c>
+      <c r="B376" t="s">
+        <v>40</v>
+      </c>
+      <c r="C376" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376" s="2">
+        <v>44047</v>
+      </c>
+      <c r="E376" s="13"/>
+      <c r="G376">
+        <v>3</v>
+      </c>
+      <c r="I376" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" s="1">
+        <v>44068.885740740741</v>
+      </c>
+      <c r="B377" t="s">
+        <v>40</v>
+      </c>
+      <c r="C377" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377" s="2">
+        <v>44054</v>
+      </c>
+      <c r="E377" s="13"/>
+      <c r="G377">
+        <v>3</v>
+      </c>
+      <c r="I377" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" s="1">
+        <v>44068.888842592591</v>
+      </c>
+      <c r="B378" t="s">
+        <v>40</v>
+      </c>
+      <c r="C378" t="s">
+        <v>20</v>
+      </c>
+      <c r="D378" s="2">
+        <v>44047</v>
+      </c>
+      <c r="E378" s="13"/>
+      <c r="G378">
+        <v>1</v>
+      </c>
+      <c r="H378">
+        <v>14</v>
+      </c>
+      <c r="I378" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -9497,15 +9593,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9739,7 +9826,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -9748,14 +9835,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E358EE-EBA5-448B-A29B-62613235EE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14861805-1095-4379-B365-CB54576F7BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="444">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1414,6 +1414,12 @@
   </si>
   <si>
     <t>Lucas Chamberlain participated in annual mussel monitoring on Aug 4th and 11th.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.freep.com/story/news/local/michigan/2020/08/24/great-lakes-fish-tracking-innovasea-systems/3410545001/ </t>
+  </si>
+  <si>
+    <t>Interview about collaborative research with University of Windsor tagging yellow perch with transmitters that change signal following a predation event</t>
   </si>
 </sst>
 </file>
@@ -1539,8 +1545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I378" totalsRowShown="0">
-  <autoFilter ref="A1:I378" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I379" totalsRowShown="0">
+  <autoFilter ref="A1:I379" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -1908,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="C306" sqref="A2:I374"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="A379" sqref="A379:XFD379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1921,7 +1927,8 @@
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="8" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -9555,6 +9562,26 @@
       </c>
       <c r="I378" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" s="1">
+        <v>44071.626631944448</v>
+      </c>
+      <c r="B379" t="s">
+        <v>250</v>
+      </c>
+      <c r="C379" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" s="2">
+        <v>44067</v>
+      </c>
+      <c r="E379" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="I379" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -9593,6 +9620,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9826,32 +9871,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14861805-1095-4379-B365-CB54576F7BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A3962A-AE00-41F8-8424-297717E20809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="448">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Pedro, S., Fisk, A. T., Ferguson, S. H., Hussey, N. E., Kessel, S. T., &amp; McKinney, M. A. (2019). Limited effects of changing prey fish communities on food quality for aquatic predators in the eastern Canadian Arctic in terms of essential fatty acids, methylmercury and selenium. Chemosphere, 214, 855-865.</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/ddi.12860</t>
   </si>
   <si>
     <t>Yurkowski, D. J., Auger_Méthé, M., Mallory, M. L., Wong, S. N., Gilchrist, G., Derocher, A. E., ... &amp; Togunov, R. R. (2018). Abundance and species diversity hotspots of tracked marine predators across the North American Arctic. Diversity and Distributions.</t>
@@ -858,7 +861,8 @@
     <t>IUCN Iguana Specialist Group meeting</t>
   </si>
   <si>
-    <t>van den Burg, M.P., Brisbane, J.L.K. &amp; Knapp, C.R. Biol Invasions (2019). https://doi.org/10.1007/s10530-019-02107-5</t>
+    <t xml:space="preserve">Van den Burg, M. P., Brisbane, J. L., &amp; Knapp, C. R. (2020). Post-hurricane relief facilitates invasion and establishment of two invasive alien vertebrate species in the Commonwealth of Dominica, West Indies. Biological Invasions, 22(2), 195–203. https://doi.org/10.1007/s10530-019-02107-5
+</t>
   </si>
   <si>
     <t>http://iaglr.org/ll/2019-3-Fall_LL3.pdf</t>
@@ -936,7 +940,7 @@
     <t>Interview for ScienceWorld - a Scholastic magazine for highschoolers</t>
   </si>
   <si>
-    <t xml:space="preserve">Happel A., K.J. Murchie, P. W. Willink, and C.R. Knapp. In Press. Great Lakes Fish Finder App; a tool for biologists, managers and education practitioners. Journal of Great Lakes Research. XX:XX-XX. https://doi.org/10.1016/j.jglr.2019.12.002 </t>
+    <t>Happel A., Murchie, K. J., Willink, P. W., &amp; Knapp, C. R. (2020). Great Lakes Fish Finder App; a tool for biologists, managers and education practitioners. Journal of Great Lakes Research, 46(1), 230-236. https://doi.org/10.1016/j.jglr.2019.12.002</t>
   </si>
   <si>
     <t>Q&amp;A at 'Chasing Coral' screening at Downer's Grove public library</t>
@@ -957,7 +961,10 @@
     <t>Weeks, C, Meagher, S, Willink, P, McCravy, KW. Does seawater acidification affect zooxanthellae density and health in the invasive upside‐down jellyfish, Cassiopea spp.? Invertebr Biol. 2019; 138:e12255. https://doi.org/10.1111/ivb.12255</t>
   </si>
   <si>
-    <t>Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117</t>
+    <t>https://www.pnas.org/content/117/3/1587/tab-article-info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waterhouse, L., Heppell, S. A., Pattengill-Semmens, C. V., McCoy, C., Bush, P., Johnson, B. C., and Semmens, B. X. (2020). Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions. Proceedings of the National Academy of Sciences, 117(3), 1587-1595. https://doi.org/10.1073/pnas.1917132117 </t>
   </si>
   <si>
     <t>PNAS paper - legacy project on Cayman grouper. Technically print date is 2020.</t>
@@ -1420,6 +1427,12 @@
   </si>
   <si>
     <t>Interview about collaborative research with University of Windsor tagging yellow perch with transmitters that change signal following a predation event</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2213224419300999</t>
+  </si>
+  <si>
+    <t>Happel, A. (2019). A volunteer-populated online database provides evidence for a geographic pattern in symptoms of black spot infections. International Journal for Parasitology: Parasites and Wildlife, 10, 156-163. https://doi.org/10.1016/j.ijppaw.2019.08.003</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1510,6 +1523,7 @@
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1545,8 +1559,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I379" totalsRowShown="0">
-  <autoFilter ref="A1:I379" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I380" totalsRowShown="0">
+  <autoFilter ref="A1:I380" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -1914,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="A379" sqref="A379:XFD379"/>
+    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3899,9 +3913,11 @@
       <c r="D98" s="2">
         <v>43500</v>
       </c>
-      <c r="E98" s="2"/>
+      <c r="E98" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="F98" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3922,7 +3938,7 @@
         <v>100</v>
       </c>
       <c r="I99" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3943,7 +3959,7 @@
         <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3964,7 +3980,7 @@
         <v>200</v>
       </c>
       <c r="I101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3981,7 +3997,7 @@
         <v>43572</v>
       </c>
       <c r="E102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4038,7 +4054,7 @@
         <v>12</v>
       </c>
       <c r="I105" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4059,7 +4075,7 @@
         <v>7</v>
       </c>
       <c r="I106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4067,7 +4083,7 @@
         <v>43637.12096064815</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
@@ -4077,7 +4093,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="I107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4085,7 +4101,7 @@
         <v>43637.125092592592</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -4094,10 +4110,10 @@
         <v>43571</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4105,7 +4121,7 @@
         <v>43637.126643518517</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -4118,7 +4134,7 @@
         <v>18</v>
       </c>
       <c r="I109" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4126,7 +4142,7 @@
         <v>43637.130104166667</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
@@ -4136,7 +4152,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="I110" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4144,7 +4160,7 @@
         <v>43637.130798611113</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -4154,7 +4170,7 @@
       </c>
       <c r="E111" s="2"/>
       <c r="I111" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4162,7 +4178,7 @@
         <v>43637.132118055553</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
@@ -4175,7 +4191,7 @@
         <v>5</v>
       </c>
       <c r="I112" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4183,7 +4199,7 @@
         <v>43637.132731481484</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
@@ -4193,7 +4209,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="I113" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4201,7 +4217,7 @@
         <v>43637.134652777779</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -4211,7 +4227,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="I114" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4219,7 +4235,7 @@
         <v>43637.135844907411</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
@@ -4232,7 +4248,7 @@
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4240,7 +4256,7 @@
         <v>43637.13658564815</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
@@ -4250,7 +4266,7 @@
       </c>
       <c r="E116" s="2"/>
       <c r="I116" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4258,7 +4274,7 @@
         <v>43637.138483796298</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -4268,7 +4284,7 @@
       </c>
       <c r="E117" s="2"/>
       <c r="I117" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4276,7 +4292,7 @@
         <v>43637.140381944446</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
@@ -4286,7 +4302,7 @@
       </c>
       <c r="E118" s="2"/>
       <c r="I118" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4294,7 +4310,7 @@
         <v>43637.14329861111</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
@@ -4315,7 +4331,7 @@
         <v>43637.14329861111</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -4325,7 +4341,7 @@
       </c>
       <c r="E120" s="2"/>
       <c r="I120" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4354,7 +4370,7 @@
         <v>43643.14329861111</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
@@ -4367,7 +4383,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4388,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4406,7 +4422,7 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4427,7 +4443,7 @@
         <v>6</v>
       </c>
       <c r="I125" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4435,7 +4451,7 @@
         <v>43649.622928240744</v>
       </c>
       <c r="B126" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
@@ -4448,7 +4464,7 @@
         <v>8.5</v>
       </c>
       <c r="I126" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4469,7 +4485,7 @@
         <v>9</v>
       </c>
       <c r="I127" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4487,7 +4503,7 @@
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4508,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="I129" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4529,7 +4545,7 @@
         <v>86</v>
       </c>
       <c r="I130" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4550,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4574,7 +4590,7 @@
         <v>50</v>
       </c>
       <c r="I132" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4592,7 +4608,7 @@
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4613,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4634,7 +4650,7 @@
         <v>6</v>
       </c>
       <c r="I135" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1">
@@ -4651,7 +4667,7 @@
         <v>43686</v>
       </c>
       <c r="E136" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4672,7 +4688,7 @@
         <v>200</v>
       </c>
       <c r="I137" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4693,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4717,7 +4733,7 @@
         <v>160</v>
       </c>
       <c r="I139" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4741,7 +4757,7 @@
         <v>320</v>
       </c>
       <c r="I140" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4765,7 +4781,7 @@
         <v>520</v>
       </c>
       <c r="I141" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4789,7 +4805,7 @@
         <v>400</v>
       </c>
       <c r="I142" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4813,7 +4829,7 @@
         <v>480</v>
       </c>
       <c r="I143" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4830,10 +4846,10 @@
         <v>43670</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I144" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4854,7 +4870,7 @@
         <v>120</v>
       </c>
       <c r="I145" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4875,7 +4891,7 @@
         <v>60</v>
       </c>
       <c r="I146" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4896,7 +4912,7 @@
         <v>5</v>
       </c>
       <c r="I147" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4913,10 +4929,10 @@
         <v>43712</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I148" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4933,10 +4949,10 @@
         <v>43724</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I149" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4953,10 +4969,10 @@
         <v>43714</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I150" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4973,10 +4989,10 @@
         <v>43726</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I151" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4997,7 +5013,7 @@
         <v>11</v>
       </c>
       <c r="I152" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5021,7 +5037,7 @@
         <v>50</v>
       </c>
       <c r="I153" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5042,7 +5058,7 @@
         <v>200</v>
       </c>
       <c r="I154" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5063,7 +5079,7 @@
         <v>9</v>
       </c>
       <c r="I155" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5084,7 +5100,7 @@
         <v>8</v>
       </c>
       <c r="I156" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5105,7 +5121,7 @@
         <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5126,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="I158" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5147,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5168,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5189,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5210,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5231,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5249,7 +5265,7 @@
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5270,7 +5286,7 @@
         <v>35</v>
       </c>
       <c r="I165" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5291,7 +5307,7 @@
         <v>20</v>
       </c>
       <c r="I166" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5312,7 +5328,7 @@
         <v>40</v>
       </c>
       <c r="I167" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5333,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5354,7 +5370,7 @@
         <v>11</v>
       </c>
       <c r="I169" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5375,7 +5391,7 @@
         <v>45</v>
       </c>
       <c r="I170" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5396,7 +5412,7 @@
         <v>20</v>
       </c>
       <c r="I171" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5404,7 +5420,7 @@
         <v>43741.760833333334</v>
       </c>
       <c r="B172" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C172" t="s">
         <v>10</v>
@@ -5417,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="I172" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5425,7 +5441,7 @@
         <v>43741.76190972222</v>
       </c>
       <c r="B173" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
@@ -5435,7 +5451,7 @@
       </c>
       <c r="E173" s="2"/>
       <c r="I173" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5443,7 +5459,7 @@
         <v>43741.763113425928</v>
       </c>
       <c r="B174" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C174" t="s">
         <v>10</v>
@@ -5456,7 +5472,7 @@
         <v>8</v>
       </c>
       <c r="I174" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5464,7 +5480,7 @@
         <v>43741.764016203706</v>
       </c>
       <c r="B175" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C175" t="s">
         <v>20</v>
@@ -5474,7 +5490,7 @@
       </c>
       <c r="E175" s="2"/>
       <c r="I175" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5482,7 +5498,7 @@
         <v>43741.765625</v>
       </c>
       <c r="B176" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
@@ -5492,7 +5508,7 @@
       </c>
       <c r="E176" s="2"/>
       <c r="I176" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5500,7 +5516,7 @@
         <v>43741.767268518517</v>
       </c>
       <c r="B177" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -5509,10 +5525,10 @@
         <v>43647</v>
       </c>
       <c r="E177" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I177" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5520,7 +5536,7 @@
         <v>43741.768148148149</v>
       </c>
       <c r="B178" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C178" t="s">
         <v>12</v>
@@ -5530,7 +5546,7 @@
       </c>
       <c r="E178" s="2"/>
       <c r="I178" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5538,7 +5554,7 @@
         <v>43741.770671296297</v>
       </c>
       <c r="B179" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C179" t="s">
         <v>10</v>
@@ -5551,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5576,7 +5592,7 @@
         <v>72</v>
       </c>
       <c r="I180" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5584,7 +5600,7 @@
         <v>43754.878865740742</v>
       </c>
       <c r="B181" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
@@ -5594,7 +5610,7 @@
       </c>
       <c r="E181" s="2"/>
       <c r="I181" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5615,7 +5631,7 @@
         <v>20</v>
       </c>
       <c r="I182" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5636,7 +5652,7 @@
         <v>40</v>
       </c>
       <c r="I183" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5657,7 +5673,7 @@
         <v>17</v>
       </c>
       <c r="I184" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5681,7 +5697,7 @@
         <v>1232</v>
       </c>
       <c r="I185" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5702,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5723,7 +5739,7 @@
         <v>25</v>
       </c>
       <c r="I187" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5744,7 +5760,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5765,7 +5781,7 @@
         <v>25</v>
       </c>
       <c r="I189" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5786,7 +5802,7 @@
         <v>12</v>
       </c>
       <c r="I190" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5807,7 +5823,7 @@
         <v>25</v>
       </c>
       <c r="I191" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5815,7 +5831,7 @@
         <v>43766.800752314812</v>
       </c>
       <c r="B192" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
@@ -5825,7 +5841,7 @@
       </c>
       <c r="E192" s="2"/>
       <c r="I192" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -5843,7 +5859,7 @@
       </c>
       <c r="E193" s="2"/>
       <c r="I193" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -5861,7 +5877,7 @@
       </c>
       <c r="E194" s="2"/>
       <c r="I194" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -5878,10 +5894,10 @@
         <v>43754</v>
       </c>
       <c r="E195" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -5889,7 +5905,7 @@
         <v>43766.819953703707</v>
       </c>
       <c r="B196" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
@@ -5902,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -5910,7 +5926,7 @@
         <v>43766.821412037039</v>
       </c>
       <c r="B197" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C197" t="s">
         <v>12</v>
@@ -5920,7 +5936,7 @@
       </c>
       <c r="E197" s="2"/>
       <c r="I197" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -5928,7 +5944,7 @@
         <v>43766.822199074071</v>
       </c>
       <c r="B198" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C198" t="s">
         <v>12</v>
@@ -5941,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -5962,7 +5978,7 @@
         <v>50</v>
       </c>
       <c r="I199" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -5983,7 +5999,7 @@
         <v>30</v>
       </c>
       <c r="I200" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6004,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6025,7 +6041,7 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6046,7 +6062,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6067,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6088,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6109,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6130,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6148,7 +6164,7 @@
       </c>
       <c r="E208" s="2"/>
       <c r="I208" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6169,7 +6185,7 @@
         <v>25</v>
       </c>
       <c r="I209" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6186,10 +6202,10 @@
         <v>43691</v>
       </c>
       <c r="E210" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I210" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6210,7 +6226,7 @@
         <v>8</v>
       </c>
       <c r="I211" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -6231,7 +6247,7 @@
         <v>14</v>
       </c>
       <c r="I212" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6239,7 +6255,7 @@
         <v>43773.818090277775</v>
       </c>
       <c r="B213" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
@@ -6249,7 +6265,7 @@
       </c>
       <c r="E213" s="2"/>
       <c r="I213" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -6257,7 +6273,7 @@
         <v>43773.819062499999</v>
       </c>
       <c r="B214" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
@@ -6267,7 +6283,7 @@
       </c>
       <c r="E214" s="2"/>
       <c r="I214" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -6288,7 +6304,7 @@
         <v>20</v>
       </c>
       <c r="I215" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6309,7 +6325,7 @@
         <v>23</v>
       </c>
       <c r="I216" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -6330,7 +6346,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -6351,7 +6367,7 @@
         <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -6359,7 +6375,7 @@
         <v>43781.848541666666</v>
       </c>
       <c r="B219" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C219" t="s">
         <v>10</v>
@@ -6372,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -6393,7 +6409,7 @@
         <v>20</v>
       </c>
       <c r="I220" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -6417,7 +6433,7 @@
         <v>120</v>
       </c>
       <c r="I221" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -6441,7 +6457,7 @@
         <v>50</v>
       </c>
       <c r="I222" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -6459,7 +6475,7 @@
       </c>
       <c r="E223" s="2"/>
       <c r="I223" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -6477,7 +6493,7 @@
       </c>
       <c r="E224" s="2"/>
       <c r="I224" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -6485,7 +6501,7 @@
         <v>43809.846851851849</v>
       </c>
       <c r="B225" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C225" t="s">
         <v>20</v>
@@ -6498,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -6515,10 +6531,10 @@
         <v>43810</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I226" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -6535,10 +6551,10 @@
         <v>43810</v>
       </c>
       <c r="E227" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I227" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -6555,10 +6571,10 @@
         <v>43809</v>
       </c>
       <c r="E228" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -6566,7 +6582,7 @@
         <v>43812.711759259262</v>
       </c>
       <c r="B229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -6575,10 +6591,10 @@
         <v>43811</v>
       </c>
       <c r="E229" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I229" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -6586,7 +6602,7 @@
         <v>43812.713796296295</v>
       </c>
       <c r="B230" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C230" t="s">
         <v>16</v>
@@ -6596,7 +6612,7 @@
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -6614,7 +6630,7 @@
       </c>
       <c r="E231" s="2"/>
       <c r="I231" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -6632,10 +6648,10 @@
       </c>
       <c r="E232" s="2"/>
       <c r="I232" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="17.25" customHeight="1">
       <c r="A233" s="1">
         <v>43817.92465277778</v>
       </c>
@@ -6649,8 +6665,8 @@
         <v>43748</v>
       </c>
       <c r="E233" s="2"/>
-      <c r="F233" t="s">
-        <v>256</v>
+      <c r="F233" s="15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -6667,10 +6683,10 @@
         <v>43790</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I234" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -6691,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -6699,7 +6715,7 @@
         <v>43833.66547453704</v>
       </c>
       <c r="B236" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -6708,10 +6724,10 @@
         <v>43832</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I236" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -6728,10 +6744,10 @@
         <v>43767</v>
       </c>
       <c r="E237" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I237" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -6752,7 +6768,7 @@
         <v>60</v>
       </c>
       <c r="I238" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -6773,7 +6789,7 @@
         <v>50</v>
       </c>
       <c r="I239" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -6794,7 +6810,7 @@
         <v>40</v>
       </c>
       <c r="I240" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -6815,7 +6831,7 @@
         <v>22</v>
       </c>
       <c r="I241" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -6836,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -6857,7 +6873,7 @@
         <v>20</v>
       </c>
       <c r="I243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -6878,7 +6894,7 @@
         <v>16</v>
       </c>
       <c r="I244" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -6886,7 +6902,7 @@
         <v>43836.690509259257</v>
       </c>
       <c r="B245" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C245" t="s">
         <v>12</v>
@@ -6899,7 +6915,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -6907,7 +6923,7 @@
         <v>43836.691168981481</v>
       </c>
       <c r="B246" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C246" t="s">
         <v>10</v>
@@ -6920,7 +6936,7 @@
         <v>2</v>
       </c>
       <c r="I246" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -6937,13 +6953,13 @@
         <v>43838</v>
       </c>
       <c r="E247" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G247">
         <v>50</v>
       </c>
       <c r="I247" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -6964,7 +6980,7 @@
         <v>15</v>
       </c>
       <c r="I248" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -6982,7 +6998,7 @@
       </c>
       <c r="E249" s="2"/>
       <c r="F249" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7003,7 +7019,7 @@
         <v>125</v>
       </c>
       <c r="I250" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7024,7 +7040,7 @@
         <v>50</v>
       </c>
       <c r="I251" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7045,7 +7061,7 @@
         <v>7</v>
       </c>
       <c r="I252" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7066,7 +7082,7 @@
         <v>7</v>
       </c>
       <c r="I253" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -7084,7 +7100,7 @@
       </c>
       <c r="E254" s="2"/>
       <c r="I254" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7102,7 +7118,7 @@
       </c>
       <c r="E255" s="2"/>
       <c r="F255" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7120,7 +7136,7 @@
       </c>
       <c r="E256" s="2"/>
       <c r="I256" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -7144,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7177,10 +7193,10 @@
       </c>
       <c r="E259" s="2"/>
       <c r="F259" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I259" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7198,7 +7214,7 @@
       </c>
       <c r="E260" s="2"/>
       <c r="I260" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -7216,7 +7232,7 @@
       </c>
       <c r="E261" s="2"/>
       <c r="F261" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -7224,7 +7240,7 @@
         <v>43899.822476851848</v>
       </c>
       <c r="B262" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C262" t="s">
         <v>16</v>
@@ -7232,12 +7248,14 @@
       <c r="D262" s="2">
         <v>43836</v>
       </c>
-      <c r="E262" s="2"/>
+      <c r="E262" s="13" t="s">
+        <v>290</v>
+      </c>
       <c r="F262" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I262" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -7245,7 +7263,7 @@
         <v>43899.823437500003</v>
       </c>
       <c r="B263" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
@@ -7255,7 +7273,7 @@
       </c>
       <c r="E263" s="2"/>
       <c r="I263" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -7263,7 +7281,7 @@
         <v>43899.824756944443</v>
       </c>
       <c r="B264" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C264" t="s">
         <v>10</v>
@@ -7276,7 +7294,7 @@
         <v>14</v>
       </c>
       <c r="I264" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -7284,7 +7302,7 @@
         <v>43899.825312499997</v>
       </c>
       <c r="B265" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C265" t="s">
         <v>12</v>
@@ -7294,7 +7312,7 @@
       </c>
       <c r="E265" s="2"/>
       <c r="I265" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -7302,7 +7320,7 @@
         <v>43899.825694444444</v>
       </c>
       <c r="B266" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C266" t="s">
         <v>12</v>
@@ -7312,7 +7330,7 @@
       </c>
       <c r="E266" s="2"/>
       <c r="I266" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -7320,7 +7338,7 @@
         <v>43899.826585648145</v>
       </c>
       <c r="B267" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C267" t="s">
         <v>12</v>
@@ -7329,10 +7347,10 @@
         <v>43872</v>
       </c>
       <c r="E267" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I267" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -7340,7 +7358,7 @@
         <v>43899.827326388891</v>
       </c>
       <c r="B268" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C268" t="s">
         <v>12</v>
@@ -7349,10 +7367,10 @@
         <v>43873</v>
       </c>
       <c r="E268" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I268" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -7360,7 +7378,7 @@
         <v>43899.827893518515</v>
       </c>
       <c r="B269" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C269" t="s">
         <v>12</v>
@@ -7370,7 +7388,7 @@
       </c>
       <c r="E269" s="2"/>
       <c r="I269" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -7378,7 +7396,7 @@
         <v>43899.828194444446</v>
       </c>
       <c r="B270" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C270" t="s">
         <v>12</v>
@@ -7388,7 +7406,7 @@
       </c>
       <c r="E270" s="2"/>
       <c r="I270" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -7396,7 +7414,7 @@
         <v>43899.828761574077</v>
       </c>
       <c r="B271" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C271" t="s">
         <v>12</v>
@@ -7406,7 +7424,7 @@
       </c>
       <c r="E271" s="2"/>
       <c r="I271" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -7414,7 +7432,7 @@
         <v>43899.831238425926</v>
       </c>
       <c r="B272" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -7423,10 +7441,10 @@
         <v>43854</v>
       </c>
       <c r="E272" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I272" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -7434,7 +7452,7 @@
         <v>43899.832048611112</v>
       </c>
       <c r="B273" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -7443,10 +7461,10 @@
         <v>43867</v>
       </c>
       <c r="E273" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I273" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -7454,7 +7472,7 @@
         <v>43899.832395833335</v>
       </c>
       <c r="B274" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -7463,10 +7481,10 @@
         <v>43840</v>
       </c>
       <c r="E274" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I274" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -7474,7 +7492,7 @@
         <v>43899.833009259259</v>
       </c>
       <c r="B275" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -7483,10 +7501,10 @@
         <v>43837</v>
       </c>
       <c r="E275" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I275" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -7494,7 +7512,7 @@
         <v>43899.83353009259</v>
       </c>
       <c r="B276" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -7503,10 +7521,10 @@
         <v>43836</v>
       </c>
       <c r="E276" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I276" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -7527,7 +7545,7 @@
         <v>25</v>
       </c>
       <c r="I277" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -7545,7 +7563,7 @@
       </c>
       <c r="E278" s="2"/>
       <c r="I278" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -7566,7 +7584,7 @@
         <v>12</v>
       </c>
       <c r="I279" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -7574,7 +7592,7 @@
         <v>43921.718981481485</v>
       </c>
       <c r="B280" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
@@ -7584,7 +7602,7 @@
       </c>
       <c r="E280" s="2"/>
       <c r="I280" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -7592,7 +7610,7 @@
         <v>43921.719467592593</v>
       </c>
       <c r="B281" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C281" t="s">
         <v>12</v>
@@ -7602,7 +7620,7 @@
       </c>
       <c r="E281" s="2"/>
       <c r="I281" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -7610,7 +7628,7 @@
         <v>43921.720173611109</v>
       </c>
       <c r="B282" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C282" t="s">
         <v>12</v>
@@ -7620,7 +7638,7 @@
       </c>
       <c r="E282" s="2"/>
       <c r="I282" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -7628,7 +7646,7 @@
         <v>43921.721006944441</v>
       </c>
       <c r="B283" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C283" t="s">
         <v>10</v>
@@ -7641,7 +7659,7 @@
         <v>9</v>
       </c>
       <c r="I283" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -7658,10 +7676,10 @@
         <v>43852</v>
       </c>
       <c r="E284" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I284" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -7679,7 +7697,7 @@
       </c>
       <c r="E285" s="2"/>
       <c r="I285" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -7697,7 +7715,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="I286" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -7715,7 +7733,7 @@
       </c>
       <c r="E287" s="2"/>
       <c r="I287" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -7736,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -7757,7 +7775,7 @@
         <v>5</v>
       </c>
       <c r="I289" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -7778,7 +7796,7 @@
         <v>25</v>
       </c>
       <c r="I290" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -7799,7 +7817,7 @@
         <v>34</v>
       </c>
       <c r="I291" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -7807,7 +7825,7 @@
         <v>43923.79215277778</v>
       </c>
       <c r="B292" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C292" t="s">
         <v>12</v>
@@ -7820,7 +7838,7 @@
         <v>20</v>
       </c>
       <c r="I292" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -7828,7 +7846,7 @@
         <v>43923.79310185185</v>
       </c>
       <c r="B293" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C293" t="s">
         <v>20</v>
@@ -7837,10 +7855,10 @@
         <v>43881</v>
       </c>
       <c r="E293" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I293" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -7848,7 +7866,7 @@
         <v>43923.79383101852</v>
       </c>
       <c r="B294" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C294" t="s">
         <v>20</v>
@@ -7857,10 +7875,10 @@
         <v>43893</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I294" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -7868,7 +7886,7 @@
         <v>43923.794479166667</v>
       </c>
       <c r="B295" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C295" t="s">
         <v>12</v>
@@ -7881,7 +7899,7 @@
         <v>4</v>
       </c>
       <c r="I295" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -7889,7 +7907,7 @@
         <v>43923.795162037037</v>
       </c>
       <c r="B296" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C296" t="s">
         <v>10</v>
@@ -7902,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="I296" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -7910,7 +7928,7 @@
         <v>43923.795844907407</v>
       </c>
       <c r="B297" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C297" t="s">
         <v>10</v>
@@ -7923,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="I297" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -7944,7 +7962,7 @@
         <v>15</v>
       </c>
       <c r="I298" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -7962,10 +7980,10 @@
       </c>
       <c r="E299" s="2"/>
       <c r="G299" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I299" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -7986,7 +8004,7 @@
         <v>8</v>
       </c>
       <c r="I300" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -8004,7 +8022,7 @@
       </c>
       <c r="E301" s="2"/>
       <c r="F301" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -8025,7 +8043,7 @@
         <v>12</v>
       </c>
       <c r="I302" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -8046,7 +8064,7 @@
         <v>100</v>
       </c>
       <c r="I303" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -8064,7 +8082,7 @@
       </c>
       <c r="E304" s="2"/>
       <c r="I304" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -8082,7 +8100,7 @@
       </c>
       <c r="E305" s="2"/>
       <c r="F305" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -8103,7 +8121,7 @@
         <v>18</v>
       </c>
       <c r="I306" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -8111,7 +8129,7 @@
         <v>43928.746782407405</v>
       </c>
       <c r="B307" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C307" t="s">
         <v>20</v>
@@ -8127,7 +8145,7 @@
         <v>484</v>
       </c>
       <c r="I307" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -8135,7 +8153,7 @@
         <v>43928.752442129633</v>
       </c>
       <c r="B308" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C308" t="s">
         <v>20</v>
@@ -8148,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="I308" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -8169,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="I309" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -8187,7 +8205,7 @@
       </c>
       <c r="E310" s="2"/>
       <c r="I310" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -8205,7 +8223,7 @@
       </c>
       <c r="E311" s="2"/>
       <c r="I311" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -8223,7 +8241,7 @@
       </c>
       <c r="E312" s="2"/>
       <c r="I312" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -8231,7 +8249,7 @@
         <v>43956.726342592592</v>
       </c>
       <c r="B313" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C313" t="s">
         <v>12</v>
@@ -8241,7 +8259,7 @@
       </c>
       <c r="E313" s="2"/>
       <c r="I313" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -8259,7 +8277,7 @@
       </c>
       <c r="E314" s="2"/>
       <c r="I314" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -8277,7 +8295,7 @@
       </c>
       <c r="E315" s="2"/>
       <c r="I315" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -8285,7 +8303,7 @@
         <v>43963.709398148145</v>
       </c>
       <c r="B316" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C316" t="s">
         <v>12</v>
@@ -8295,7 +8313,7 @@
       </c>
       <c r="E316" s="2"/>
       <c r="I316" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -8303,7 +8321,7 @@
         <v>43963.712002314816</v>
       </c>
       <c r="B317" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C317" t="s">
         <v>20</v>
@@ -8319,7 +8337,7 @@
         <v>420</v>
       </c>
       <c r="I317" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -8327,7 +8345,7 @@
         <v>43963.759155092594</v>
       </c>
       <c r="B318" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C318" t="s">
         <v>20</v>
@@ -8343,7 +8361,7 @@
         <v>21</v>
       </c>
       <c r="I318" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -8361,7 +8379,7 @@
       </c>
       <c r="E319" s="2"/>
       <c r="I319" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -8379,7 +8397,7 @@
       </c>
       <c r="E320" s="2"/>
       <c r="I320" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -8396,10 +8414,10 @@
         <v>43976</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I321" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -8423,7 +8441,7 @@
         <v>480</v>
       </c>
       <c r="I322" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -8441,7 +8459,7 @@
       </c>
       <c r="E323" s="2"/>
       <c r="I323" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -8459,7 +8477,7 @@
       </c>
       <c r="E324" s="2"/>
       <c r="I324" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -8476,10 +8494,10 @@
         <v>43986</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I325" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -8487,7 +8505,7 @@
         <v>43993.69699074074</v>
       </c>
       <c r="B326" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C326" t="s">
         <v>16</v>
@@ -8496,10 +8514,10 @@
         <v>43923</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F326" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -8517,7 +8535,7 @@
       </c>
       <c r="E327" s="2"/>
       <c r="I327" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -8534,10 +8552,10 @@
         <v>44004</v>
       </c>
       <c r="E328" s="13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I328" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -8554,10 +8572,10 @@
         <v>43972</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F329" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -8575,7 +8593,7 @@
       </c>
       <c r="E330" s="2"/>
       <c r="I330" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -8593,7 +8611,7 @@
       </c>
       <c r="E331" s="2"/>
       <c r="I331" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -8610,10 +8628,10 @@
         <v>43955</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F332" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -8630,10 +8648,10 @@
         <v>43993</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F333" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -8650,10 +8668,10 @@
         <v>43955</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I334" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -8674,7 +8692,7 @@
         <v>10</v>
       </c>
       <c r="I335" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -8695,7 +8713,7 @@
         <v>510</v>
       </c>
       <c r="I336" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -8712,10 +8730,10 @@
         <v>44000</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I337" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -8736,7 +8754,7 @@
         <v>6</v>
       </c>
       <c r="I338" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -8757,7 +8775,7 @@
         <v>10</v>
       </c>
       <c r="I339" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -8774,10 +8792,10 @@
         <v>43986</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F340" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -8801,7 +8819,7 @@
         <v>50</v>
       </c>
       <c r="I341" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -8825,7 +8843,7 @@
         <v>304</v>
       </c>
       <c r="I342" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -8833,7 +8851,7 @@
         <v>44034.844490740739</v>
       </c>
       <c r="B343" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -8842,7 +8860,7 @@
         <v>43927</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -8850,7 +8868,7 @@
         <v>44034.845335648148</v>
       </c>
       <c r="B344" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C344" t="s">
         <v>10</v>
@@ -8863,7 +8881,7 @@
         <v>13</v>
       </c>
       <c r="I344" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -8871,7 +8889,7 @@
         <v>44034.853518518517</v>
       </c>
       <c r="B345" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C345" t="s">
         <v>20</v>
@@ -8887,7 +8905,7 @@
         <v>2</v>
       </c>
       <c r="I345" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -8905,7 +8923,7 @@
       </c>
       <c r="E346" s="2"/>
       <c r="I346" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -8923,7 +8941,7 @@
       </c>
       <c r="E347" s="2"/>
       <c r="I347" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -8941,7 +8959,7 @@
       </c>
       <c r="E348" s="2"/>
       <c r="I348" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -8958,10 +8976,10 @@
         <v>43983</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F349" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -8978,10 +8996,10 @@
         <v>43952</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F350" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -8998,10 +9016,10 @@
         <v>44031</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F351" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -9025,7 +9043,7 @@
         <v>56</v>
       </c>
       <c r="I352" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -9046,7 +9064,7 @@
         <v>1</v>
       </c>
       <c r="I353" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -9067,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="I354" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -9084,10 +9102,10 @@
         <v>44040</v>
       </c>
       <c r="E355" s="13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I355" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -9104,10 +9122,10 @@
         <v>44042</v>
       </c>
       <c r="E356" s="13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I356" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -9124,10 +9142,10 @@
         <v>44040</v>
       </c>
       <c r="E357" s="13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F357" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -9144,10 +9162,10 @@
         <v>44043</v>
       </c>
       <c r="E358" s="13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I358" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -9164,10 +9182,10 @@
         <v>44046</v>
       </c>
       <c r="E359" s="13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I359" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -9184,10 +9202,10 @@
         <v>44040</v>
       </c>
       <c r="E360" s="13" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I360" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -9204,10 +9222,10 @@
         <v>44046</v>
       </c>
       <c r="E361" s="13" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I361" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -9224,10 +9242,10 @@
         <v>44047</v>
       </c>
       <c r="E362" s="13" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I362" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -9235,7 +9253,7 @@
         <v>44053.67465277778</v>
       </c>
       <c r="B363" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C363" t="s">
         <v>16</v>
@@ -9244,10 +9262,10 @@
         <v>44052</v>
       </c>
       <c r="E363" s="13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F363" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -9255,7 +9273,7 @@
         <v>44053.679502314815</v>
       </c>
       <c r="B364" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C364" t="s">
         <v>10</v>
@@ -9268,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="I364" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -9276,7 +9294,7 @@
         <v>44053.6797337963</v>
       </c>
       <c r="B365" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C365" t="s">
         <v>10</v>
@@ -9289,7 +9307,7 @@
         <v>1</v>
       </c>
       <c r="I365" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -9297,7 +9315,7 @@
         <v>44053.679930555554</v>
       </c>
       <c r="B366" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C366" t="s">
         <v>10</v>
@@ -9310,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="I366" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -9318,7 +9336,7 @@
         <v>44053.680312500001</v>
       </c>
       <c r="B367" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C367" t="s">
         <v>10</v>
@@ -9331,7 +9349,7 @@
         <v>3</v>
       </c>
       <c r="I367" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -9348,10 +9366,10 @@
         <v>44002</v>
       </c>
       <c r="E368" s="13" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F368" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -9372,7 +9390,7 @@
         <v>21</v>
       </c>
       <c r="I369" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -9396,7 +9414,7 @@
         <v>800</v>
       </c>
       <c r="I370" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -9413,10 +9431,10 @@
         <v>44053</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I371" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -9433,10 +9451,10 @@
         <v>44058</v>
       </c>
       <c r="E372" s="13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I372" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -9457,7 +9475,7 @@
         <v>8</v>
       </c>
       <c r="I373" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -9474,10 +9492,10 @@
         <v>44056</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I374" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -9495,7 +9513,7 @@
       </c>
       <c r="E375" s="13"/>
       <c r="I375" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -9516,7 +9534,7 @@
         <v>3</v>
       </c>
       <c r="I376" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -9537,7 +9555,7 @@
         <v>3</v>
       </c>
       <c r="I377" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -9561,7 +9579,7 @@
         <v>14</v>
       </c>
       <c r="I378" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -9569,7 +9587,7 @@
         <v>44071.626631944448</v>
       </c>
       <c r="B379" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -9578,10 +9596,30 @@
         <v>44067</v>
       </c>
       <c r="E379" s="13" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I379" t="s">
-        <v>443</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" s="1">
+        <v>44071.626631944448</v>
+      </c>
+      <c r="B380" t="s">
+        <v>19</v>
+      </c>
+      <c r="C380" t="s">
+        <v>16</v>
+      </c>
+      <c r="D380" s="2">
+        <v>43800</v>
+      </c>
+      <c r="E380" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="F380" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -9600,21 +9638,23 @@
     <hyperlink ref="E236" r:id="rId12" xr:uid="{863BC4B1-6351-418B-B98F-87ECBB33C30C}"/>
     <hyperlink ref="E150" r:id="rId13" xr:uid="{E6C2CF85-2279-490C-9FF0-B2F4FFAF65F5}"/>
     <hyperlink ref="E151" r:id="rId14" xr:uid="{3537EE39-869F-4C8C-AD1E-522F607F66F5}"/>
-    <hyperlink ref="F262" r:id="rId15" display="https://www.pnas.org/content/117/3/1587.short   Recovery of critically endangered Nassau grouper (Epinephelus striatus) in the Cayman Islands following targeted conservation actions Lynn Waterhouse, Scott A. Heppell, Christy V. Pattengill-Semmens, Croy McCoy, Phillippe Bush, Bradley C. Johnson, Brice X. Semmens Proceedings of the National Academy of Sciences Jan 2020, 117 (3) 1587-1595; DOI: 10.1073/pnas.1917132117" xr:uid="{99A0F466-A75A-4E4E-A6F4-620C55E4BC39}"/>
-    <hyperlink ref="E294" r:id="rId16" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
-    <hyperlink ref="I263" r:id="rId17" xr:uid="{B2F6CA54-1A89-4AF4-81AE-0F5BB3E65DE4}"/>
-    <hyperlink ref="E226" r:id="rId18" xr:uid="{3137DA4B-211F-4BEA-9B82-14FC40BD36B0}"/>
-    <hyperlink ref="E350" r:id="rId19" xr:uid="{27099907-A031-4B65-A453-522A3713C9C5}"/>
-    <hyperlink ref="E349" r:id="rId20" xr:uid="{05BDD9DB-8015-4AB0-A9C6-AB83241EE286}"/>
-    <hyperlink ref="E357" r:id="rId21" xr:uid="{4B576F19-3DA3-4771-B241-816AB98BEFCA}"/>
-    <hyperlink ref="E363" r:id="rId22" location="citeas" xr:uid="{B046AA8A-1960-4984-86A2-4DBE219428F2}"/>
-    <hyperlink ref="E371" r:id="rId23" xr:uid="{C085667D-D3C4-410D-8CD0-8C9B000220F7}"/>
-    <hyperlink ref="E328" r:id="rId24" xr:uid="{5E022E0D-F407-4392-8F4A-7810D15676C1}"/>
+    <hyperlink ref="E294" r:id="rId15" xr:uid="{783C5FCB-679F-4B9C-825F-6DEF83E5F389}"/>
+    <hyperlink ref="I263" r:id="rId16" xr:uid="{B2F6CA54-1A89-4AF4-81AE-0F5BB3E65DE4}"/>
+    <hyperlink ref="E226" r:id="rId17" xr:uid="{3137DA4B-211F-4BEA-9B82-14FC40BD36B0}"/>
+    <hyperlink ref="E350" r:id="rId18" xr:uid="{27099907-A031-4B65-A453-522A3713C9C5}"/>
+    <hyperlink ref="E349" r:id="rId19" xr:uid="{05BDD9DB-8015-4AB0-A9C6-AB83241EE286}"/>
+    <hyperlink ref="E357" r:id="rId20" xr:uid="{4B576F19-3DA3-4771-B241-816AB98BEFCA}"/>
+    <hyperlink ref="E363" r:id="rId21" location="citeas" xr:uid="{B046AA8A-1960-4984-86A2-4DBE219428F2}"/>
+    <hyperlink ref="E371" r:id="rId22" xr:uid="{C085667D-D3C4-410D-8CD0-8C9B000220F7}"/>
+    <hyperlink ref="E328" r:id="rId23" xr:uid="{5E022E0D-F407-4392-8F4A-7810D15676C1}"/>
+    <hyperlink ref="E98" r:id="rId24" xr:uid="{641B07AD-3328-4D02-A3D6-401C24AEB3A4}"/>
+    <hyperlink ref="E380" r:id="rId25" xr:uid="{96BE78CA-5236-4631-A9C5-0A4075396DFA}"/>
+    <hyperlink ref="E262" r:id="rId26" xr:uid="{A9D8A46F-4623-45DA-9892-E087A0E85158}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId25"/>
+  <legacyDrawing r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A3962A-AE00-41F8-8424-297717E20809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05802728-5955-4A5C-A0C1-DE7040403B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="453">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1433,6 +1433,21 @@
   </si>
   <si>
     <t>Happel, A. (2019). A volunteer-populated online database provides evidence for a geographic pattern in symptoms of black spot infections. International Journal for Parasitology: Parasites and Wildlife, 10, 156-163. https://doi.org/10.1016/j.ijppaw.2019.08.003</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00300-020-02660-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nelson, R. J., Bouchard, C., Fortier, L., Majewski, A. R., Reist, J. D., Præbel, K., Madsen, M. L., Rose, G. A., Kessel, S. T., Divoky, G. J. (2020)  Circumpolar genetic population structure of polar cod, Boreogadus saida.  Polar Biology. 43: 951–961 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas Natural History Conference virtual presentations: "Tongue of the Ocean deep-sea survey of fish and invertebrates around New Providence"  </t>
+  </si>
+  <si>
+    <t>Lunch and learn (virtual) - Shedd and Global FinPrint</t>
+  </si>
+  <si>
+    <t>Sharkweek Shedd Instagram, twitter and facebook question and answer session</t>
   </si>
 </sst>
 </file>
@@ -1559,8 +1574,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I380" totalsRowShown="0">
-  <autoFilter ref="A1:I380" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I384" totalsRowShown="0">
+  <autoFilter ref="A1:I384" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -1928,7 +1943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I380"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
       <selection activeCell="E164" sqref="E164"/>
@@ -9620,6 +9635,80 @@
       </c>
       <c r="F380" t="s">
         <v>447</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" s="1">
+        <v>44082.64199074074</v>
+      </c>
+      <c r="B381" t="s">
+        <v>113</v>
+      </c>
+      <c r="C381" t="s">
+        <v>16</v>
+      </c>
+      <c r="D381" s="2">
+        <v>43969</v>
+      </c>
+      <c r="E381" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="F381" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" s="1">
+        <v>44082.643576388888</v>
+      </c>
+      <c r="B382" t="s">
+        <v>113</v>
+      </c>
+      <c r="C382" t="s">
+        <v>12</v>
+      </c>
+      <c r="D382" s="2">
+        <v>44062</v>
+      </c>
+      <c r="E382" s="13"/>
+      <c r="I382" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" s="1">
+        <v>44082.64402777778</v>
+      </c>
+      <c r="B383" t="s">
+        <v>113</v>
+      </c>
+      <c r="C383" t="s">
+        <v>12</v>
+      </c>
+      <c r="D383" s="2">
+        <v>44070</v>
+      </c>
+      <c r="E383" s="13"/>
+      <c r="I383" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" s="1">
+        <v>44082.645902777775</v>
+      </c>
+      <c r="B384" t="s">
+        <v>113</v>
+      </c>
+      <c r="C384" t="s">
+        <v>12</v>
+      </c>
+      <c r="D384" s="2">
+        <v>44050</v>
+      </c>
+      <c r="E384" s="13"/>
+      <c r="I384" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05802728-5955-4A5C-A0C1-DE7040403B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12AC9454-FA0D-4082-A4A4-E19C82B4487A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="465">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1448,6 +1448,42 @@
   </si>
   <si>
     <t>Sharkweek Shedd Instagram, twitter and facebook question and answer session</t>
+  </si>
+  <si>
+    <t>AIFRB (American Institute of Fisheries Research Biologists) board meeting. Lynn Waterhouse is the new Great Lakes district director and also the interim WF Thompson Award Committee lead for best student publication of 2019.</t>
+  </si>
+  <si>
+    <t>AIFRB (American Institute of Fisheries Research Biologists) WF Thompson Student Paper Award committee interim chair. Solicit for nominations for award for best student paper in 2019. Recruit committee for reviewing nominees and select award winner. Work will take place June to October.</t>
+  </si>
+  <si>
+    <t>AIFRB Q2 Board meeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation for Shedd lunch and learn. Collaborated with Joe Frumkin from learning. </t>
+  </si>
+  <si>
+    <t>Helped Kayak for Conservation with trial run of program.</t>
+  </si>
+  <si>
+    <t>Talk on grouper research and field to floor program to Birch Aquarium in San Diego via zoom.</t>
+  </si>
+  <si>
+    <t>Met with Jill Herrera (undegraduate student at Oregon State University) to discuss statistics for her undergaduate thesis research. Will now be a coauthor on her paper. Providing statistical advice and R help. Including hours from 8/7 and 9/10 and also work on my own up to 9/10.</t>
+  </si>
+  <si>
+    <t>Conservation Research Intern - Ned. Working on new program for analyzing/annotating BRUVS footage. Also counting NG from Caymans. Meet 1 hr per week. Learning R now.</t>
+  </si>
+  <si>
+    <t>Conservation Research Intern - Ned. Working on new program for analyzing/annotating BRUVS footage. Also counting NG from Caymans. Meet 1 hr per week plus outside work. Teaching Ned R.</t>
+  </si>
+  <si>
+    <t>Virtual talk for AFS 2020 meeting. Talk on Bayesian Spine method (funding to attend virtual conference provided by tuna grant)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/eap.2202</t>
+  </si>
+  <si>
+    <t>Waterhouse, L., White, J., See, K., Murdoch, A., and Semmens, B. X.. 2020. A Bayesian nested patch occupancy model to estimate steelhead movement and abundance. Ecological Applications 00( 00):e02202. 10.1002/eap.2202</t>
   </si>
 </sst>
 </file>
@@ -1574,8 +1610,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I384" totalsRowShown="0">
-  <autoFilter ref="A1:I384" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I395" totalsRowShown="0">
+  <autoFilter ref="A1:I395" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -1943,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C163" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="E395" sqref="E395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4189,10 +4225,10 @@
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="1">
+      <c r="A112" s="10">
         <v>43637.132118055553</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C112" t="s">
@@ -8180,6 +8216,9 @@
       <c r="G308">
         <v>1</v>
       </c>
+      <c r="H308">
+        <v>6</v>
+      </c>
       <c r="I308" t="s">
         <v>347</v>
       </c>
@@ -9709,6 +9748,230 @@
       <c r="E384" s="13"/>
       <c r="I384" t="s">
         <v>452</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" s="1">
+        <v>44085.853217592594</v>
+      </c>
+      <c r="B385" t="s">
+        <v>123</v>
+      </c>
+      <c r="C385" t="s">
+        <v>20</v>
+      </c>
+      <c r="D385" s="2">
+        <v>44085</v>
+      </c>
+      <c r="E385" s="13"/>
+      <c r="H385">
+        <v>7</v>
+      </c>
+      <c r="I385" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" s="1">
+        <v>44085.854687500003</v>
+      </c>
+      <c r="B386" t="s">
+        <v>123</v>
+      </c>
+      <c r="C386" t="s">
+        <v>20</v>
+      </c>
+      <c r="D386" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E386" s="13"/>
+      <c r="H386">
+        <v>12</v>
+      </c>
+      <c r="I386" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" s="1">
+        <v>44085.856874999998</v>
+      </c>
+      <c r="B387" t="s">
+        <v>123</v>
+      </c>
+      <c r="C387" t="s">
+        <v>20</v>
+      </c>
+      <c r="D387" s="2">
+        <v>43965</v>
+      </c>
+      <c r="E387" s="13"/>
+      <c r="H387">
+        <v>2</v>
+      </c>
+      <c r="I387" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" s="1">
+        <v>44085.857835648145</v>
+      </c>
+      <c r="B388" t="s">
+        <v>123</v>
+      </c>
+      <c r="C388" t="s">
+        <v>12</v>
+      </c>
+      <c r="D388" s="2">
+        <v>43977</v>
+      </c>
+      <c r="E388" s="13"/>
+      <c r="I388" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" s="1">
+        <v>44085.858541666668</v>
+      </c>
+      <c r="B389" t="s">
+        <v>123</v>
+      </c>
+      <c r="C389" t="s">
+        <v>10</v>
+      </c>
+      <c r="D389" s="2">
+        <v>43994</v>
+      </c>
+      <c r="E389" s="13"/>
+      <c r="G389">
+        <v>1</v>
+      </c>
+      <c r="I389" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" s="1">
+        <v>44085.860023148147</v>
+      </c>
+      <c r="B390" t="s">
+        <v>123</v>
+      </c>
+      <c r="C390" t="s">
+        <v>12</v>
+      </c>
+      <c r="D390" s="2">
+        <v>44025</v>
+      </c>
+      <c r="E390" s="13"/>
+      <c r="I390" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" s="1">
+        <v>44085.863217592596</v>
+      </c>
+      <c r="B391" t="s">
+        <v>123</v>
+      </c>
+      <c r="C391" t="s">
+        <v>20</v>
+      </c>
+      <c r="D391" s="2">
+        <v>44050</v>
+      </c>
+      <c r="E391" s="13"/>
+      <c r="G391">
+        <v>1</v>
+      </c>
+      <c r="H391">
+        <v>20</v>
+      </c>
+      <c r="I391" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" s="1">
+        <v>44085.867835648147</v>
+      </c>
+      <c r="B392" t="s">
+        <v>123</v>
+      </c>
+      <c r="C392" t="s">
+        <v>20</v>
+      </c>
+      <c r="D392" s="2">
+        <v>44013</v>
+      </c>
+      <c r="E392" s="13"/>
+      <c r="H392">
+        <v>26</v>
+      </c>
+      <c r="I392" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" s="1">
+        <v>44085.868807870371</v>
+      </c>
+      <c r="B393" t="s">
+        <v>123</v>
+      </c>
+      <c r="C393" t="s">
+        <v>20</v>
+      </c>
+      <c r="D393" s="2">
+        <v>43922</v>
+      </c>
+      <c r="E393" s="13"/>
+      <c r="H393">
+        <v>22</v>
+      </c>
+      <c r="I393" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" s="1">
+        <v>44085.86991898148</v>
+      </c>
+      <c r="B394" t="s">
+        <v>123</v>
+      </c>
+      <c r="C394" t="s">
+        <v>12</v>
+      </c>
+      <c r="D394" s="2">
+        <v>44075</v>
+      </c>
+      <c r="E394" s="13"/>
+      <c r="I394" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" s="1">
+        <v>44085.873807870368</v>
+      </c>
+      <c r="B395" t="s">
+        <v>123</v>
+      </c>
+      <c r="C395" t="s">
+        <v>16</v>
+      </c>
+      <c r="D395" s="2">
+        <v>44006</v>
+      </c>
+      <c r="E395" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="F395" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -9739,11 +10002,12 @@
     <hyperlink ref="E98" r:id="rId24" xr:uid="{641B07AD-3328-4D02-A3D6-401C24AEB3A4}"/>
     <hyperlink ref="E380" r:id="rId25" xr:uid="{96BE78CA-5236-4631-A9C5-0A4075396DFA}"/>
     <hyperlink ref="E262" r:id="rId26" xr:uid="{A9D8A46F-4623-45DA-9892-E087A0E85158}"/>
+    <hyperlink ref="E395" r:id="rId27" xr:uid="{FBB47411-2D6D-45F9-8F7A-F556E336E10D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId27"/>
+  <legacyDrawing r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23322"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12AC9454-FA0D-4082-A4A4-E19C82B4487A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFC8415-E8DA-4A22-8DE4-379406C2FABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="474">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1484,6 +1485,33 @@
   </si>
   <si>
     <t>Waterhouse, L., White, J., See, K., Murdoch, A., and Semmens, B. X.. 2020. A Bayesian nested patch occupancy model to estimate steelhead movement and abundance. Ecological Applications 00( 00):e02202. 10.1002/eap.2202</t>
+  </si>
+  <si>
+    <t>https://ijc.org/en/tracking-sucker-run-how-great-lakes-fish-sustains-food-webs?utm_source=IJC+Newsletters&amp;utm_campaign=6622d8a8e2-GLC-English-July2020&amp;utm_medium=email&amp;utm_term=0_e942718880-6622d8a8e2-1223809037&amp;mc_cid=6622d8a8e2&amp;mc_eid=0b44edaccb</t>
+  </si>
+  <si>
+    <t>International Joint Commission sucker article including interview with Murchie</t>
+  </si>
+  <si>
+    <t>https://thefisheriesblog.com/2020/08/10/aquaria/</t>
+  </si>
+  <si>
+    <t>Guest blog post Fisheries Blog</t>
+  </si>
+  <si>
+    <t>Larval fish July 13, Aug 11, 12, 13 fw mussels on Kishwaukee River, Aug 19 Blandings turtle, Sept 22 fw mussels Poplar Creek</t>
+  </si>
+  <si>
+    <t>1 hr lecture for Northwester University research class - 59 attendees</t>
+  </si>
+  <si>
+    <t>1 hr guest lecture freshwater ACCA</t>
+  </si>
+  <si>
+    <t>Hutton Scholar Pen Pal - number of email correspondence during Hutton Program</t>
+  </si>
+  <si>
+    <t>UMiami alumni event - Zoom presentation discussing UM+Shedd coral research w/~100 UM alumni nationwide. Cheryl moderated panel discussion with Ross and other alumni collaborators from UM and USF.</t>
   </si>
 </sst>
 </file>
@@ -1610,8 +1638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I395" totalsRowShown="0">
-  <autoFilter ref="A1:I395" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I402" totalsRowShown="0">
+  <autoFilter ref="A1:I402" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -1979,7 +2007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I402"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
       <selection activeCell="E395" sqref="E395"/>
@@ -9972,6 +10000,145 @@
       </c>
       <c r="F395" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" s="1">
+        <v>44097.832303240742</v>
+      </c>
+      <c r="B396" t="s">
+        <v>26</v>
+      </c>
+      <c r="C396" t="s">
+        <v>28</v>
+      </c>
+      <c r="D396" s="2">
+        <v>44026</v>
+      </c>
+      <c r="E396" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="I396" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" s="1">
+        <v>44097.833993055552</v>
+      </c>
+      <c r="B397" t="s">
+        <v>26</v>
+      </c>
+      <c r="C397" t="s">
+        <v>28</v>
+      </c>
+      <c r="D397" s="2">
+        <v>44053</v>
+      </c>
+      <c r="E397" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="I397" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" s="1">
+        <v>44097.835543981484</v>
+      </c>
+      <c r="B398" t="s">
+        <v>26</v>
+      </c>
+      <c r="C398" t="s">
+        <v>10</v>
+      </c>
+      <c r="D398" s="2">
+        <v>44096</v>
+      </c>
+      <c r="E398" s="13"/>
+      <c r="G398">
+        <v>6</v>
+      </c>
+      <c r="I398" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" s="1">
+        <v>44097.842662037037</v>
+      </c>
+      <c r="B399" t="s">
+        <v>26</v>
+      </c>
+      <c r="C399" t="s">
+        <v>12</v>
+      </c>
+      <c r="D399" s="2">
+        <v>44032</v>
+      </c>
+      <c r="E399" s="13"/>
+      <c r="I399" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" s="1">
+        <v>44097.842974537038</v>
+      </c>
+      <c r="B400" t="s">
+        <v>26</v>
+      </c>
+      <c r="C400" t="s">
+        <v>12</v>
+      </c>
+      <c r="D400" s="2">
+        <v>44086</v>
+      </c>
+      <c r="E400" s="13"/>
+      <c r="I400" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" s="1">
+        <v>44097.843900462962</v>
+      </c>
+      <c r="B401" t="s">
+        <v>26</v>
+      </c>
+      <c r="C401" t="s">
+        <v>20</v>
+      </c>
+      <c r="D401" s="2">
+        <v>44058</v>
+      </c>
+      <c r="E401" s="13"/>
+      <c r="G401">
+        <v>1</v>
+      </c>
+      <c r="H401">
+        <v>3</v>
+      </c>
+      <c r="I401" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" s="1">
+        <v>44098.646018518521</v>
+      </c>
+      <c r="B402" t="s">
+        <v>9</v>
+      </c>
+      <c r="C402" t="s">
+        <v>12</v>
+      </c>
+      <c r="D402" s="2">
+        <v>44097</v>
+      </c>
+      <c r="E402" s="13"/>
+      <c r="I402" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -10013,15 +10180,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10030,7 +10188,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10264,14 +10422,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFC8415-E8DA-4A22-8DE4-379406C2FABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA6DC05-E2E9-4DBC-B74F-23C74102AFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27380" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="488">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1421,7 +1421,7 @@
     <t>Annual mussel monitoring in the South Branch Kishwaukee River.</t>
   </si>
   <si>
-    <t>Lucas Chamberlain participated in annual mussel monitoring on Aug 4th and 11th.</t>
+    <t>Lucas Chamberlain participated in annual mussel monitoring on Aug 4th and 11th and Sept 21st.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.freep.com/story/news/local/michigan/2020/08/24/great-lakes-fish-tracking-innovasea-systems/3410545001/ </t>
@@ -1512,6 +1512,48 @@
   </si>
   <si>
     <t>UMiami alumni event - Zoom presentation discussing UM+Shedd coral research w/~100 UM alumni nationwide. Cheryl moderated panel discussion with Ross and other alumni collaborators from UM and USF.</t>
+  </si>
+  <si>
+    <t>Helped plan and present at the Diversity and Inclusion Day for the national AFS meeting (120 participated in the day long workshop)</t>
+  </si>
+  <si>
+    <t>Gave a presentation on my career path and working at a nonprofit in Fisheries for AFS (70 attendees)</t>
+  </si>
+  <si>
+    <t>9 sampling nights for the larval fish project in August</t>
+  </si>
+  <si>
+    <t>5 sampling nights in september for the larval fish project</t>
+  </si>
+  <si>
+    <t>Presented to the Dupage River Salt Creek Working Group</t>
+  </si>
+  <si>
+    <t>ACCA Freshwater Ecology</t>
+  </si>
+  <si>
+    <t>Annual mussel monitoring in Poplar Creek.</t>
+  </si>
+  <si>
+    <t>Electrofishing with Austin in the North Branch Chicago River</t>
+  </si>
+  <si>
+    <t>Jillian Snow Q3 volunteering (field and lab research)</t>
+  </si>
+  <si>
+    <t>Kristine Schoenecker Q3 internship (field and lab research)</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/news/environment/ct-freshwater-mussels-mapping-project-20200925-thwow2xmyrcx7lda34sxhr6keq-story.html</t>
+  </si>
+  <si>
+    <t>Chicago Tribune article</t>
+  </si>
+  <si>
+    <t>Jack Tamisiea interview for blog</t>
+  </si>
+  <si>
+    <t>Lecture for University of Florida class about conservation at zoos and aquariums</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1680,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I402" totalsRowShown="0">
-  <autoFilter ref="A1:I402" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I416" totalsRowShown="0">
+  <autoFilter ref="A1:I416" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -2007,13 +2049,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I402"/>
+  <dimension ref="A1:I416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="E395" sqref="E395"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:XFD415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
@@ -9658,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="H378">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I378" t="s">
         <v>443</v>
@@ -10139,6 +10181,290 @@
       <c r="E402" s="13"/>
       <c r="I402" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" s="1">
+        <v>44102.727881944447</v>
+      </c>
+      <c r="B403" t="s">
+        <v>19</v>
+      </c>
+      <c r="C403" t="s">
+        <v>12</v>
+      </c>
+      <c r="D403" s="2">
+        <v>44089</v>
+      </c>
+      <c r="E403" s="13"/>
+      <c r="I403" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" s="1">
+        <v>44102.728321759256</v>
+      </c>
+      <c r="B404" t="s">
+        <v>19</v>
+      </c>
+      <c r="C404" t="s">
+        <v>12</v>
+      </c>
+      <c r="D404" s="2">
+        <v>44091</v>
+      </c>
+      <c r="E404" s="13"/>
+      <c r="I404" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" s="1">
+        <v>44102.730324074073</v>
+      </c>
+      <c r="B405" t="s">
+        <v>19</v>
+      </c>
+      <c r="C405" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E405" s="13"/>
+      <c r="G405">
+        <v>9</v>
+      </c>
+      <c r="I405" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" s="1">
+        <v>44102.730624999997</v>
+      </c>
+      <c r="B406" t="s">
+        <v>19</v>
+      </c>
+      <c r="C406" t="s">
+        <v>10</v>
+      </c>
+      <c r="D406" s="2">
+        <v>44089</v>
+      </c>
+      <c r="E406" s="13"/>
+      <c r="G406">
+        <v>5</v>
+      </c>
+      <c r="I406" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" s="1">
+        <v>44102.732094907406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>19</v>
+      </c>
+      <c r="C407" t="s">
+        <v>12</v>
+      </c>
+      <c r="D407" s="2">
+        <v>44069</v>
+      </c>
+      <c r="E407" s="13"/>
+      <c r="I407" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" s="1">
+        <v>44102.749305555553</v>
+      </c>
+      <c r="B408" t="s">
+        <v>251</v>
+      </c>
+      <c r="C408" t="s">
+        <v>20</v>
+      </c>
+      <c r="D408" s="2">
+        <v>44086</v>
+      </c>
+      <c r="E408" s="13"/>
+      <c r="G408">
+        <v>20</v>
+      </c>
+      <c r="H408">
+        <v>480</v>
+      </c>
+      <c r="I408" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" s="1">
+        <v>44102.749861111108</v>
+      </c>
+      <c r="B409" t="s">
+        <v>251</v>
+      </c>
+      <c r="C409" t="s">
+        <v>20</v>
+      </c>
+      <c r="D409" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E409" s="13"/>
+      <c r="G409">
+        <v>0</v>
+      </c>
+      <c r="H409">
+        <v>640</v>
+      </c>
+      <c r="I409" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" s="1">
+        <v>44102.800949074073</v>
+      </c>
+      <c r="B410" t="s">
+        <v>40</v>
+      </c>
+      <c r="C410" t="s">
+        <v>10</v>
+      </c>
+      <c r="D410" s="2">
+        <v>44095</v>
+      </c>
+      <c r="E410" s="13"/>
+      <c r="G410">
+        <v>3</v>
+      </c>
+      <c r="I410" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" s="1">
+        <v>44102.801574074074</v>
+      </c>
+      <c r="B411" t="s">
+        <v>40</v>
+      </c>
+      <c r="C411" t="s">
+        <v>10</v>
+      </c>
+      <c r="D411" s="2">
+        <v>44077</v>
+      </c>
+      <c r="E411" s="13"/>
+      <c r="G411">
+        <v>1</v>
+      </c>
+      <c r="I411" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" s="1">
+        <v>44102.804872685185</v>
+      </c>
+      <c r="B412" t="s">
+        <v>40</v>
+      </c>
+      <c r="C412" t="s">
+        <v>20</v>
+      </c>
+      <c r="D412" s="2">
+        <v>44013</v>
+      </c>
+      <c r="E412" s="13"/>
+      <c r="H412">
+        <v>50</v>
+      </c>
+      <c r="I412" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" s="1">
+        <v>44102.805439814816</v>
+      </c>
+      <c r="B413" t="s">
+        <v>40</v>
+      </c>
+      <c r="C413" t="s">
+        <v>20</v>
+      </c>
+      <c r="D413" s="2">
+        <v>44013</v>
+      </c>
+      <c r="E413" s="13"/>
+      <c r="H413">
+        <v>50</v>
+      </c>
+      <c r="I413" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" s="1">
+        <v>44102.80704861111</v>
+      </c>
+      <c r="B414" t="s">
+        <v>40</v>
+      </c>
+      <c r="C414" t="s">
+        <v>28</v>
+      </c>
+      <c r="D414" s="2">
+        <v>44099</v>
+      </c>
+      <c r="E414" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="I414" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" ht="15">
+      <c r="A415" s="1">
+        <v>44109.839629629627</v>
+      </c>
+      <c r="B415" t="s">
+        <v>15</v>
+      </c>
+      <c r="C415" t="s">
+        <v>28</v>
+      </c>
+      <c r="D415" s="2">
+        <v>44092</v>
+      </c>
+      <c r="E415" s="13"/>
+      <c r="I415" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" ht="15">
+      <c r="A416" s="1">
+        <v>44109.840231481481</v>
+      </c>
+      <c r="B416" t="s">
+        <v>15</v>
+      </c>
+      <c r="C416" t="s">
+        <v>12</v>
+      </c>
+      <c r="D416" s="2">
+        <v>44090</v>
+      </c>
+      <c r="E416" s="13"/>
+      <c r="I416" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -10180,15 +10506,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10422,7 +10739,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10431,14 +10748,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA6DC05-E2E9-4DBC-B74F-23C74102AFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA3BF40-A7E9-4D03-8535-1FA7FDA447B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="490">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1554,6 +1554,12 @@
   </si>
   <si>
     <t>Lecture for University of Florida class about conservation at zoos and aquariums</t>
+  </si>
+  <si>
+    <t>Chicago Water Week Shedd webinar - Mobilizing Science to Enhance the Value of Great Lakes Waterways for Wildlife and Communities</t>
+  </si>
+  <si>
+    <t>Science Communication lecture for Carleton University Env Sci students &amp; faculty 1.5 hrs</t>
   </si>
 </sst>
 </file>
@@ -1680,8 +1686,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I416" totalsRowShown="0">
-  <autoFilter ref="A1:I416" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I419" totalsRowShown="0">
+  <autoFilter ref="A1:I419" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -2049,7 +2055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
       <selection activeCell="A415" sqref="A415:XFD415"/>
@@ -10465,6 +10471,63 @@
       <c r="E416" s="13"/>
       <c r="I416" t="s">
         <v>487</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" ht="15">
+      <c r="A417" s="1">
+        <v>44117.837256944447</v>
+      </c>
+      <c r="B417" t="s">
+        <v>26</v>
+      </c>
+      <c r="C417" t="s">
+        <v>12</v>
+      </c>
+      <c r="D417" s="2">
+        <v>44105</v>
+      </c>
+      <c r="E417" s="13"/>
+      <c r="I417" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" ht="15">
+      <c r="A418" s="1">
+        <v>44117.837777777779</v>
+      </c>
+      <c r="B418" t="s">
+        <v>26</v>
+      </c>
+      <c r="C418" t="s">
+        <v>12</v>
+      </c>
+      <c r="D418" s="2">
+        <v>44111</v>
+      </c>
+      <c r="E418" s="13"/>
+      <c r="I418" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" ht="15">
+      <c r="A419" s="1">
+        <v>44118.196273148147</v>
+      </c>
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C419" t="s">
+        <v>10</v>
+      </c>
+      <c r="D419" s="2">
+        <v>44103</v>
+      </c>
+      <c r="E419" s="13"/>
+      <c r="G419">
+        <v>18</v>
+      </c>
+      <c r="I419" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -10740,6 +10803,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10748,23 +10820,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA3BF40-A7E9-4D03-8535-1FA7FDA447B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04E5DCF-8658-45D8-BDCF-5973C72E23DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="491">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1560,6 +1560,9 @@
   </si>
   <si>
     <t>Science Communication lecture for Carleton University Env Sci students &amp; faculty 1.5 hrs</t>
+  </si>
+  <si>
+    <t>7 non-HC participants on Oct. coral research trip on CRII * 10 days * 10 hours/day</t>
   </si>
 </sst>
 </file>
@@ -1686,8 +1689,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I419" totalsRowShown="0">
-  <autoFilter ref="A1:I419" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I420" totalsRowShown="0">
+  <autoFilter ref="A1:I420" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -2055,17 +2058,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:XFD415"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
@@ -10520,7 +10523,7 @@
         <v>10</v>
       </c>
       <c r="D419" s="2">
-        <v>44103</v>
+        <v>44105</v>
       </c>
       <c r="E419" s="13"/>
       <c r="G419">
@@ -10528,6 +10531,30 @@
       </c>
       <c r="I419" t="s">
         <v>431</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" ht="15">
+      <c r="A420" s="1">
+        <v>44121.662418981483</v>
+      </c>
+      <c r="B420" t="s">
+        <v>9</v>
+      </c>
+      <c r="C420" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420" s="2">
+        <v>44105</v>
+      </c>
+      <c r="E420" s="13"/>
+      <c r="G420">
+        <v>7</v>
+      </c>
+      <c r="H420">
+        <v>700</v>
+      </c>
+      <c r="I420" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -10569,6 +10596,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10802,32 +10847,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04E5DCF-8658-45D8-BDCF-5973C72E23DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D90E85C-3FF5-40AA-B4FE-D2AFD9223670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="493">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1563,6 +1563,12 @@
   </si>
   <si>
     <t>7 non-HC participants on Oct. coral research trip on CRII * 10 days * 10 hours/day</t>
+  </si>
+  <si>
+    <t>One Earth Film Festival Panelist</t>
+  </si>
+  <si>
+    <t>MWRD Sustainability Summit presentation. 140 in attendance</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I420" totalsRowShown="0">
-  <autoFilter ref="A1:I420" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I422" totalsRowShown="0">
+  <autoFilter ref="A1:I422" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A2:A374"/>
   </sortState>
@@ -2058,7 +2064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I422"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
       <selection activeCell="D421" sqref="D421"/>
@@ -10555,6 +10561,42 @@
       </c>
       <c r="I420" t="s">
         <v>490</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" ht="15">
+      <c r="A421" s="1">
+        <v>44124.031875000001</v>
+      </c>
+      <c r="B421" t="s">
+        <v>15</v>
+      </c>
+      <c r="C421" t="s">
+        <v>12</v>
+      </c>
+      <c r="D421" s="2">
+        <v>44123</v>
+      </c>
+      <c r="E421" s="13"/>
+      <c r="I421" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="15">
+      <c r="A422" s="1">
+        <v>44125.684062499997</v>
+      </c>
+      <c r="B422" t="s">
+        <v>19</v>
+      </c>
+      <c r="C422" t="s">
+        <v>12</v>
+      </c>
+      <c r="D422" s="2">
+        <v>44125</v>
+      </c>
+      <c r="E422" s="13"/>
+      <c r="I422" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -10596,21 +10638,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10848,11 +10890,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F056A57-68AB-4E88-9028-75AE2E414065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36E228C1-B8E5-4952-97B5-035CB8515AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="523">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1647,6 +1647,18 @@
   </si>
   <si>
     <t>CRII Sep. 2020 trip: 8 non-HC persons engaged 13 hours/day for 17 days</t>
+  </si>
+  <si>
+    <t>lecture for freshwater ecology ACCA on World Fish Migration Day &amp; Shedd's migratory fishes research program (23 ppl)</t>
+  </si>
+  <si>
+    <t>Guest lecture for Chicago Natural History class at DePaul University - 28 ppl</t>
+  </si>
+  <si>
+    <t>GCFI e-poster presentation on Contemporary and emerging fisheries in The Bahamas - Conservation management challenges, achievements &amp; future directions</t>
+  </si>
+  <si>
+    <t>Museum of Science and Industry, Junior Science Cafe, local CPS 6th and 7th grade classes</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1785,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I444" totalsRowShown="0">
-  <autoFilter ref="A1:I444" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I449" totalsRowShown="0">
+  <autoFilter ref="A1:I449" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2152,7 +2164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I444"/>
+  <dimension ref="A1:I449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
       <selection activeCell="G445" sqref="G445"/>
@@ -11119,6 +11131,99 @@
       </c>
       <c r="I444" t="s">
         <v>431</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" ht="15">
+      <c r="A445" s="1">
+        <v>44137.809571759259</v>
+      </c>
+      <c r="B445" t="s">
+        <v>26</v>
+      </c>
+      <c r="C445" t="s">
+        <v>12</v>
+      </c>
+      <c r="D445" s="2">
+        <v>44128</v>
+      </c>
+      <c r="E445" s="12"/>
+      <c r="I445" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" ht="15">
+      <c r="A446" s="1">
+        <v>44137.813715277778</v>
+      </c>
+      <c r="B446" t="s">
+        <v>26</v>
+      </c>
+      <c r="C446" t="s">
+        <v>12</v>
+      </c>
+      <c r="D446" s="2">
+        <v>44134</v>
+      </c>
+      <c r="E446" s="12"/>
+      <c r="I446" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" ht="15">
+      <c r="A447" s="1">
+        <v>44137.815358796295</v>
+      </c>
+      <c r="B447" t="s">
+        <v>26</v>
+      </c>
+      <c r="C447" t="s">
+        <v>12</v>
+      </c>
+      <c r="D447" s="2">
+        <v>44137</v>
+      </c>
+      <c r="E447" s="12"/>
+      <c r="I447" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" ht="15">
+      <c r="A448" s="1">
+        <v>44140.75472222222</v>
+      </c>
+      <c r="B448" t="s">
+        <v>79</v>
+      </c>
+      <c r="C448" t="s">
+        <v>12</v>
+      </c>
+      <c r="D448" s="2">
+        <v>44140</v>
+      </c>
+      <c r="E448" s="12"/>
+      <c r="I448" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" ht="15">
+      <c r="A449" s="1">
+        <v>44140.755057870374</v>
+      </c>
+      <c r="B449" t="s">
+        <v>79</v>
+      </c>
+      <c r="C449" t="s">
+        <v>20</v>
+      </c>
+      <c r="D449" s="2">
+        <v>44140</v>
+      </c>
+      <c r="E449" s="12"/>
+      <c r="G449">
+        <v>42</v>
+      </c>
+      <c r="I449" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -11160,21 +11265,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11412,11 +11517,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36E228C1-B8E5-4952-97B5-035CB8515AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F6BBFB-68DE-413C-8294-B997AFA29E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="528">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1659,6 +1659,21 @@
   </si>
   <si>
     <t>Museum of Science and Industry, Junior Science Cafe, local CPS 6th and 7th grade classes</t>
+  </si>
+  <si>
+    <t>Habitat and wildlife monitoring in La Grange Park Woods</t>
+  </si>
+  <si>
+    <t>Musseling with Kentaro</t>
+  </si>
+  <si>
+    <t>Mentor intern Logan Marion</t>
+  </si>
+  <si>
+    <t>Presentation on the Urban Ecosystems paper to the Lower Des Plaines Working Group - 23 Participants</t>
+  </si>
+  <si>
+    <t>Seminar to Duke Ocean Policy Working Group</t>
   </si>
 </sst>
 </file>
@@ -1785,8 +1800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I449" totalsRowShown="0">
-  <autoFilter ref="A1:I449" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I454" totalsRowShown="0">
+  <autoFilter ref="A1:I454" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2164,7 +2179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I449"/>
+  <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
       <selection activeCell="G445" sqref="G445"/>
@@ -11224,6 +11239,105 @@
       </c>
       <c r="I449" t="s">
         <v>522</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" ht="15">
+      <c r="A450" s="1">
+        <v>44145.937789351854</v>
+      </c>
+      <c r="B450" t="s">
+        <v>138</v>
+      </c>
+      <c r="C450" t="s">
+        <v>10</v>
+      </c>
+      <c r="D450" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E450" s="12"/>
+      <c r="G450">
+        <v>7</v>
+      </c>
+      <c r="I450" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" ht="15">
+      <c r="A451" s="1">
+        <v>44145.942094907405</v>
+      </c>
+      <c r="B451" t="s">
+        <v>138</v>
+      </c>
+      <c r="C451" t="s">
+        <v>10</v>
+      </c>
+      <c r="D451" s="2">
+        <v>44095</v>
+      </c>
+      <c r="E451" s="12"/>
+      <c r="G451">
+        <v>2</v>
+      </c>
+      <c r="I451" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" ht="15">
+      <c r="A452" s="1">
+        <v>44145.943726851852</v>
+      </c>
+      <c r="B452" t="s">
+        <v>138</v>
+      </c>
+      <c r="C452" t="s">
+        <v>20</v>
+      </c>
+      <c r="D452" s="2">
+        <v>44053</v>
+      </c>
+      <c r="E452" s="12"/>
+      <c r="H452">
+        <v>120</v>
+      </c>
+      <c r="I452" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" ht="15">
+      <c r="A453" s="1">
+        <v>44147.700069444443</v>
+      </c>
+      <c r="B453" t="s">
+        <v>19</v>
+      </c>
+      <c r="C453" t="s">
+        <v>12</v>
+      </c>
+      <c r="D453" s="2">
+        <v>44147</v>
+      </c>
+      <c r="E453" s="12"/>
+      <c r="I453" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" ht="15">
+      <c r="A454" s="1">
+        <v>44148.752488425926</v>
+      </c>
+      <c r="B454" t="s">
+        <v>9</v>
+      </c>
+      <c r="C454" t="s">
+        <v>12</v>
+      </c>
+      <c r="D454" s="2">
+        <v>44148</v>
+      </c>
+      <c r="E454" s="12"/>
+      <c r="I454" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -11265,24 +11379,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11516,8 +11612,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11525,5 +11639,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59F6BBFB-68DE-413C-8294-B997AFA29E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{472C4289-D0C7-46CB-B9A4-4014D8A78C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="528">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1800,8 +1800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I454" totalsRowShown="0">
-  <autoFilter ref="A1:I454" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I455" totalsRowShown="0">
+  <autoFilter ref="A1:I455" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2179,7 +2179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I454"/>
+  <dimension ref="A1:I455"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
       <selection activeCell="G445" sqref="G445"/>
@@ -11338,6 +11338,24 @@
       <c r="E454" s="12"/>
       <c r="I454" t="s">
         <v>527</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" ht="15">
+      <c r="A455" s="1">
+        <v>44153.907002314816</v>
+      </c>
+      <c r="B455" t="s">
+        <v>15</v>
+      </c>
+      <c r="C455" t="s">
+        <v>12</v>
+      </c>
+      <c r="D455" s="2">
+        <v>44153</v>
+      </c>
+      <c r="E455" s="12"/>
+      <c r="I455" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23524"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472C4289-D0C7-46CB-B9A4-4014D8A78C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61A1A7B7-149D-43D8-8745-B11F3A96C0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="535">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1674,6 +1674,27 @@
   </si>
   <si>
     <t>Seminar to Duke Ocean Policy Working Group</t>
+  </si>
+  <si>
+    <t>Presentation for the virtual American Elasmobranch Society conference 2020 titled "Spatial distribution and connectivity of lemon sharks (Negaprion brevirostris) in the northwest Atlantic"</t>
+  </si>
+  <si>
+    <t>Virtual panelist through Shedd Academy for the ITW David Speer Academy to talk about career path and research programs</t>
+  </si>
+  <si>
+    <t>Lunch and Learn for Shedd on shark research</t>
+  </si>
+  <si>
+    <t>https://esajournals.onlinelibrary.wiley.com/doi/abs/10.1002/eap.2262</t>
+  </si>
+  <si>
+    <t>Grottoli AG, Warner ME, Vega Thurber R, Toonen R, van Woesik R, McLachlan R, Price J, Bahr K, Baums IB, Castillo K, Coffroth MA, Cunning R, et al. (2020) Increasing comparability among coral bleaching experiments. Ecological Applications 00:e02262. doi:10.1002/eap.2262</t>
+  </si>
+  <si>
+    <t>https://www.sheddaquarium.org/about-shedd/press-releases/scientists-organize-to-tackle-crisis-of-coral-bleaching</t>
+  </si>
+  <si>
+    <t>Press release for paper on common framework for coral bleaching studies</t>
   </si>
 </sst>
 </file>
@@ -1800,8 +1821,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I455" totalsRowShown="0">
-  <autoFilter ref="A1:I455" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I460" totalsRowShown="0">
+  <autoFilter ref="A1:I460" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2179,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I455"/>
+  <dimension ref="A1:I460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="G445" sqref="G445"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="C462" sqref="C462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -11356,6 +11377,106 @@
       <c r="E455" s="12"/>
       <c r="I455" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" ht="15">
+      <c r="A456" s="1">
+        <v>44160.694884259261</v>
+      </c>
+      <c r="B456" t="s">
+        <v>113</v>
+      </c>
+      <c r="C456" t="s">
+        <v>12</v>
+      </c>
+      <c r="D456" s="2">
+        <v>44142</v>
+      </c>
+      <c r="E456" s="12"/>
+      <c r="I456" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" ht="15">
+      <c r="A457" s="1">
+        <v>44160.697013888886</v>
+      </c>
+      <c r="B457" t="s">
+        <v>113</v>
+      </c>
+      <c r="C457" t="s">
+        <v>12</v>
+      </c>
+      <c r="D457" s="2">
+        <v>44153</v>
+      </c>
+      <c r="E457" s="12"/>
+      <c r="H457">
+        <v>30</v>
+      </c>
+      <c r="I457" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" ht="15">
+      <c r="A458" s="1">
+        <v>44160.697395833333</v>
+      </c>
+      <c r="B458" t="s">
+        <v>113</v>
+      </c>
+      <c r="C458" t="s">
+        <v>12</v>
+      </c>
+      <c r="D458" s="2">
+        <v>44153</v>
+      </c>
+      <c r="E458" s="12"/>
+      <c r="H458">
+        <v>30</v>
+      </c>
+      <c r="I458" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" ht="15">
+      <c r="A459" s="1">
+        <v>44163.745289351849</v>
+      </c>
+      <c r="B459" t="s">
+        <v>9</v>
+      </c>
+      <c r="C459" t="s">
+        <v>16</v>
+      </c>
+      <c r="D459" s="2">
+        <v>44160</v>
+      </c>
+      <c r="E459" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="F459" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" ht="15">
+      <c r="A460" s="1">
+        <v>44163.748240740744</v>
+      </c>
+      <c r="B460" t="s">
+        <v>9</v>
+      </c>
+      <c r="C460" t="s">
+        <v>28</v>
+      </c>
+      <c r="D460" s="2">
+        <v>44159</v>
+      </c>
+      <c r="E460" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="I460" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -11397,6 +11518,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11630,15 +11760,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11649,11 +11770,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23607"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61A1A7B7-149D-43D8-8745-B11F3A96C0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B386BC-B169-4CF7-9742-2DE08269F285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="542">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1695,6 +1695,27 @@
   </si>
   <si>
     <t>Press release for paper on common framework for coral bleaching studies</t>
+  </si>
+  <si>
+    <t>Shedd Academy migratory fishes presentation, 17 participants, St. Patrick High School</t>
+  </si>
+  <si>
+    <t>Presented coral research on 'adaptations' to K-12 teachers for Teacher-In-Service virtual event with Learning</t>
+  </si>
+  <si>
+    <t>Shedd Academy Lecture for St. Laurence</t>
+  </si>
+  <si>
+    <t>Lunch and Learn on COVID fieldwork, 44 people attended</t>
+  </si>
+  <si>
+    <t>Conservation career paths presentation for Shedd guest relations staff</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41467-020-19169-y</t>
+  </si>
+  <si>
+    <t>Claar DC, Starko S, Tietjen KL, Epstein HE, Cunning R, Cobb KM, Baker AC, Gates RD, Baum JK (2020) Dynamic symbioses reveal pathways to coral survival through prolonged heatwaves. Nature Comm 11:6097. doi:10.1038/s41467-020-19169-y</t>
   </si>
 </sst>
 </file>
@@ -1821,8 +1842,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I460" totalsRowShown="0">
-  <autoFilter ref="A1:I460" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I466" totalsRowShown="0">
+  <autoFilter ref="A1:I466" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2200,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I460"/>
+  <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
       <selection activeCell="C462" sqref="C462"/>
@@ -11477,6 +11498,116 @@
       </c>
       <c r="I460" t="s">
         <v>534</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" ht="15">
+      <c r="A461" s="1">
+        <v>44165.968368055554</v>
+      </c>
+      <c r="B461" t="s">
+        <v>26</v>
+      </c>
+      <c r="C461" t="s">
+        <v>12</v>
+      </c>
+      <c r="D461" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E461" s="12"/>
+      <c r="I461" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" ht="15">
+      <c r="A462" s="1">
+        <v>44166.975115740737</v>
+      </c>
+      <c r="B462" t="s">
+        <v>9</v>
+      </c>
+      <c r="C462" t="s">
+        <v>12</v>
+      </c>
+      <c r="D462" s="2">
+        <v>44166</v>
+      </c>
+      <c r="E462" s="12"/>
+      <c r="I462" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" ht="15">
+      <c r="A463" s="1">
+        <v>44167.825532407405</v>
+      </c>
+      <c r="B463" t="s">
+        <v>79</v>
+      </c>
+      <c r="C463" t="s">
+        <v>12</v>
+      </c>
+      <c r="D463" s="2">
+        <v>44167</v>
+      </c>
+      <c r="E463" s="12"/>
+      <c r="I463" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" ht="15">
+      <c r="A464" s="1">
+        <v>44167.825902777775</v>
+      </c>
+      <c r="B464" t="s">
+        <v>79</v>
+      </c>
+      <c r="C464" t="s">
+        <v>12</v>
+      </c>
+      <c r="D464" s="2">
+        <v>44167</v>
+      </c>
+      <c r="E464" s="12"/>
+      <c r="I464" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="15">
+      <c r="A465" s="1">
+        <v>44172.827280092592</v>
+      </c>
+      <c r="B465" t="s">
+        <v>26</v>
+      </c>
+      <c r="C465" t="s">
+        <v>12</v>
+      </c>
+      <c r="D465" s="2">
+        <v>44172</v>
+      </c>
+      <c r="E465" s="12"/>
+      <c r="I465" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="15">
+      <c r="A466" s="1">
+        <v>44173.728171296294</v>
+      </c>
+      <c r="B466" t="s">
+        <v>9</v>
+      </c>
+      <c r="C466" t="s">
+        <v>16</v>
+      </c>
+      <c r="D466" s="2">
+        <v>44173</v>
+      </c>
+      <c r="E466" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="F466" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -11518,15 +11649,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11760,7 +11882,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -11769,14 +11891,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B386BC-B169-4CF7-9742-2DE08269F285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{803D0A2B-AB23-4B8A-B6C2-404745B09221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="547">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1103,10 +1103,7 @@
     <t>Teacher Council presentation on conch research</t>
   </si>
   <si>
-    <t>Theatre</t>
-  </si>
-  <si>
-    <t>One Earth film panel</t>
+    <t>One Earth film panel Theatre</t>
   </si>
   <si>
     <t>NWU Engineering group presentations</t>
@@ -1716,6 +1713,24 @@
   </si>
   <si>
     <t>Claar DC, Starko S, Tietjen KL, Epstein HE, Cunning R, Cobb KM, Baker AC, Gates RD, Baum JK (2020) Dynamic symbioses reveal pathways to coral survival through prolonged heatwaves. Nature Comm 11:6097. doi:10.1038/s41467-020-19169-y</t>
+  </si>
+  <si>
+    <t>Presentation to the Shedd Academy Interns 5 in attendance</t>
+  </si>
+  <si>
+    <t>Presentation to Guest Engagement for professional development (8 in attendance)</t>
+  </si>
+  <si>
+    <t>https://wgntv.com/midday-news/wildlife-conservation-day-with-the-shedd-aquarium/</t>
+  </si>
+  <si>
+    <t>WGN live interview via SKYPE for Wildlife Conservation Day</t>
+  </si>
+  <si>
+    <t>2nd engagement for St Patrick's high school for Shedd Academy, migratory fishes research, 17 students + teacher</t>
+  </si>
+  <si>
+    <t>meeting with USFWS, WDNR, USGS, UW-Stevens Point, GLATOS stakeholders discussing various fisheries management projects using telemetry in Green Bay (planning meeting)</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1807,12 +1822,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -1842,18 +1861,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I466" totalsRowShown="0">
-  <autoFilter ref="A1:I466" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I471" totalsRowShown="0">
+  <autoFilter ref="A1:I471" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I442">
     <sortCondition ref="A1:A442"/>
   </sortState>
@@ -1862,9 +1871,9 @@
     <tableColumn id="2" xr3:uid="{37A5D46C-63FC-4A5A-BC50-C4BE807BE242}" name="ResponderEmail"/>
     <tableColumn id="3" xr3:uid="{9C253607-3FE7-48E3-81B1-C00DD931C9B2}" name="Category"/>
     <tableColumn id="4" xr3:uid="{115975D2-74E7-4F66-BB67-F0520C8B692E}" name="EventDate"/>
-    <tableColumn id="8" xr3:uid="{39222AB0-D75F-4398-88F4-13E6A038833A}" name="Link" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{39222AB0-D75F-4398-88F4-13E6A038833A}" name="Link" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{7882F339-0847-48CB-BDCE-ADE78F90802C}" name="Citation"/>
-    <tableColumn id="6" xr3:uid="{03CC4749-D4D8-4D78-9D42-9BF6CBF30354}" name="Quantity"/>
+    <tableColumn id="6" xr3:uid="{03CC4749-D4D8-4D78-9D42-9BF6CBF30354}" name="Quantity" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{0F7C1ED7-7863-4604-81D4-DB4552797C32}" name="Effort"/>
     <tableColumn id="7" xr3:uid="{9AA2F5B9-97A9-49CC-954D-A4E5B34B5A04}" name="Description"/>
   </tableColumns>
@@ -2221,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="C462" sqref="C462"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="G299" sqref="G299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2234,7 +2243,7 @@
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="16" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2257,7 +2266,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -2281,7 +2290,7 @@
         <v>43485</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="G2">
+      <c r="G2" s="16">
         <v>7</v>
       </c>
       <c r="I2" t="s">
@@ -2302,7 +2311,7 @@
         <v>43530</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="G3">
+      <c r="G3" s="16">
         <v>75</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2377,7 +2386,7 @@
         <v>43533</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="G7">
+      <c r="G7" s="16">
         <v>12</v>
       </c>
       <c r="H7">
@@ -2402,7 +2411,7 @@
         <v>43522</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="G8">
+      <c r="G8" s="16">
         <v>100</v>
       </c>
       <c r="I8" t="s">
@@ -2423,7 +2432,7 @@
         <v>43539</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="G9">
+      <c r="G9" s="16">
         <v>5</v>
       </c>
       <c r="I9" t="s">
@@ -2444,7 +2453,7 @@
         <v>43538</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="G10">
+      <c r="G10" s="16">
         <v>100</v>
       </c>
       <c r="I10" t="s">
@@ -2465,7 +2474,7 @@
         <v>43515</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="G11">
+      <c r="G11" s="16">
         <v>50</v>
       </c>
       <c r="I11" t="s">
@@ -2661,7 +2670,7 @@
         <v>43542</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="G22">
+      <c r="G22" s="16">
         <v>5</v>
       </c>
       <c r="I22" t="s">
@@ -2682,7 +2691,7 @@
         <v>43542</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="G23">
+      <c r="G23" s="16">
         <v>35</v>
       </c>
       <c r="I23" t="s">
@@ -2703,7 +2712,7 @@
         <v>43539</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="G24">
+      <c r="G24" s="16">
         <v>5</v>
       </c>
       <c r="I24" t="s">
@@ -2724,7 +2733,7 @@
         <v>43518</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="G25">
+      <c r="G25" s="16">
         <v>16</v>
       </c>
       <c r="I25" t="s">
@@ -2745,7 +2754,7 @@
         <v>43538</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="G26">
+      <c r="G26" s="16">
         <v>100</v>
       </c>
       <c r="I26" t="s">
@@ -2766,7 +2775,7 @@
         <v>43515</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="G27">
+      <c r="G27" s="16">
         <v>50</v>
       </c>
       <c r="I27" t="s">
@@ -2787,7 +2796,7 @@
         <v>43539</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="G28">
+      <c r="G28" s="16">
         <v>5</v>
       </c>
       <c r="I28" t="s">
@@ -2884,7 +2893,7 @@
         <v>43539</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="G33">
+      <c r="G33" s="16">
         <v>1</v>
       </c>
       <c r="I33" t="s">
@@ -2905,7 +2914,7 @@
         <v>43539</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="G34">
+      <c r="G34" s="16">
         <v>8</v>
       </c>
       <c r="I34" t="s">
@@ -2926,7 +2935,7 @@
         <v>43469</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="G35">
+      <c r="G35" s="16">
         <v>1</v>
       </c>
       <c r="I35" t="s">
@@ -2947,7 +2956,7 @@
         <v>43476</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="G36">
+      <c r="G36" s="16">
         <v>1</v>
       </c>
       <c r="I36" t="s">
@@ -2968,7 +2977,7 @@
         <v>43481</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="G37">
+      <c r="G37" s="16">
         <v>1</v>
       </c>
       <c r="I37" t="s">
@@ -2989,7 +2998,7 @@
         <v>43558</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="G38">
+      <c r="G38" s="16">
         <v>10</v>
       </c>
       <c r="H38">
@@ -3014,7 +3023,7 @@
         <v>43560</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="G39">
+      <c r="G39" s="16">
         <v>30</v>
       </c>
       <c r="I39" t="s">
@@ -3035,7 +3044,7 @@
         <v>43569</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="G40">
+      <c r="G40" s="16">
         <v>40</v>
       </c>
       <c r="I40" t="s">
@@ -3056,7 +3065,7 @@
         <v>43570</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="G41">
+      <c r="G41" s="16">
         <v>270</v>
       </c>
       <c r="I41" t="s">
@@ -3077,7 +3086,7 @@
         <v>43528</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="G42">
+      <c r="G42" s="16">
         <v>4</v>
       </c>
       <c r="I42" t="s">
@@ -3098,7 +3107,7 @@
         <v>43579</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="G43">
+      <c r="G43" s="16">
         <v>12</v>
       </c>
       <c r="I43" t="s">
@@ -3119,7 +3128,7 @@
         <v>43578</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="G44">
+      <c r="G44" s="16">
         <v>4</v>
       </c>
       <c r="I44" t="s">
@@ -3140,7 +3149,7 @@
         <v>43584</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="G45">
+      <c r="G45" s="16">
         <v>12</v>
       </c>
       <c r="I45" t="s">
@@ -3161,7 +3170,7 @@
         <v>43579</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="G46">
+      <c r="G46" s="16">
         <v>1</v>
       </c>
     </row>
@@ -3197,7 +3206,7 @@
         <v>43546</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="G48">
+      <c r="G48" s="16">
         <v>2</v>
       </c>
       <c r="H48">
@@ -3221,7 +3230,7 @@
         <v>43546</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="G49">
+      <c r="G49" s="16">
         <v>11</v>
       </c>
       <c r="I49" t="s">
@@ -3242,7 +3251,7 @@
         <v>43598</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="G50">
+      <c r="G50" s="16">
         <v>2</v>
       </c>
       <c r="I50" t="s">
@@ -3263,7 +3272,7 @@
         <v>43592</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="G51">
+      <c r="G51" s="16">
         <v>2</v>
       </c>
       <c r="I51" t="s">
@@ -3284,7 +3293,7 @@
         <v>43590</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="G52">
+      <c r="G52" s="16">
         <v>1</v>
       </c>
       <c r="I52" t="s">
@@ -3382,7 +3391,7 @@
         <v>43617</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="G57">
+      <c r="G57" s="16">
         <v>20</v>
       </c>
       <c r="I57" t="s">
@@ -3403,7 +3412,7 @@
         <v>43618</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="G58">
+      <c r="G58" s="16">
         <v>1</v>
       </c>
       <c r="I58" t="s">
@@ -3424,7 +3433,7 @@
         <v>43618</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="G59">
+      <c r="G59" s="16">
         <v>1</v>
       </c>
       <c r="I59" t="s">
@@ -3445,7 +3454,7 @@
         <v>43622</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="G60">
+      <c r="G60" s="16">
         <v>1</v>
       </c>
       <c r="I60" t="s">
@@ -3466,7 +3475,7 @@
         <v>43586</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="G61">
+      <c r="G61" s="16">
         <v>1</v>
       </c>
       <c r="I61" t="s">
@@ -3487,7 +3496,7 @@
         <v>43630</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="G62">
+      <c r="G62" s="16">
         <v>1</v>
       </c>
       <c r="I62" t="s">
@@ -3508,7 +3517,7 @@
         <v>43632</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="G63">
+      <c r="G63" s="16">
         <v>1</v>
       </c>
       <c r="I63" t="s">
@@ -3547,7 +3556,7 @@
         <v>43565</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="G65">
+      <c r="G65" s="16">
         <v>60</v>
       </c>
       <c r="I65" t="s">
@@ -3568,7 +3577,7 @@
         <v>43531</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="G66">
+      <c r="G66" s="16">
         <v>60</v>
       </c>
       <c r="I66" t="s">
@@ -3589,7 +3598,7 @@
         <v>43626</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="G67">
+      <c r="G67" s="16">
         <v>9</v>
       </c>
       <c r="I67" t="s">
@@ -3648,7 +3657,7 @@
         <v>43564</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="G70">
+      <c r="G70" s="16">
         <v>20</v>
       </c>
       <c r="I70" t="s">
@@ -3669,7 +3678,7 @@
         <v>43565</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="G71">
+      <c r="G71" s="16">
         <v>19</v>
       </c>
       <c r="I71" t="s">
@@ -3690,7 +3699,7 @@
         <v>43568</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="G72">
+      <c r="G72" s="16">
         <v>18</v>
       </c>
       <c r="I72" t="s">
@@ -3813,7 +3822,7 @@
         <v>43535</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="G79">
+      <c r="G79" s="16">
         <v>3</v>
       </c>
       <c r="I79" t="s">
@@ -3834,7 +3843,7 @@
         <v>43558</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="G80">
+      <c r="G80" s="16">
         <v>4</v>
       </c>
       <c r="I80" t="s">
@@ -3855,7 +3864,7 @@
         <v>43545</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="G81">
+      <c r="G81" s="16">
         <v>13</v>
       </c>
       <c r="I81" t="s">
@@ -3876,7 +3885,7 @@
         <v>43635</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="G82">
+      <c r="G82" s="16">
         <v>14</v>
       </c>
       <c r="I82" t="s">
@@ -3897,7 +3906,7 @@
         <v>43634</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="G83">
+      <c r="G83" s="16">
         <v>25</v>
       </c>
       <c r="I83" t="s">
@@ -3918,7 +3927,7 @@
         <v>43579</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="G84">
+      <c r="G84" s="16">
         <v>12</v>
       </c>
       <c r="I84" t="s">
@@ -3939,7 +3948,7 @@
         <v>43625</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="G85">
+      <c r="G85" s="16">
         <v>40</v>
       </c>
       <c r="I85" t="s">
@@ -3960,7 +3969,7 @@
         <v>43629</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="G86">
+      <c r="G86" s="16">
         <v>2</v>
       </c>
       <c r="I86" t="s">
@@ -4002,7 +4011,7 @@
       <c r="F88" t="s">
         <v>104</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="16">
         <v>1</v>
       </c>
       <c r="H88" s="4"/>
@@ -4024,7 +4033,7 @@
         <v>43602</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="G89">
+      <c r="G89" s="16">
         <v>20</v>
       </c>
       <c r="I89" t="s">
@@ -4045,7 +4054,7 @@
         <v>43568</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="G90">
+      <c r="G90" s="16">
         <v>28</v>
       </c>
       <c r="I90" t="s">
@@ -4066,7 +4075,7 @@
         <v>43556</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="G91">
+      <c r="G91" s="16">
         <v>37</v>
       </c>
       <c r="I91" t="s">
@@ -4087,7 +4096,7 @@
         <v>43625</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="G92">
+      <c r="G92" s="16">
         <v>40</v>
       </c>
       <c r="I92" t="s">
@@ -4125,7 +4134,7 @@
         <v>43635</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="G94">
+      <c r="G94" s="16">
         <v>2</v>
       </c>
       <c r="H94">
@@ -4150,7 +4159,7 @@
         <v>43635</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="G95">
+      <c r="G95" s="16">
         <v>1</v>
       </c>
       <c r="I95" t="s">
@@ -4227,7 +4236,7 @@
         <v>43504</v>
       </c>
       <c r="E99" s="2"/>
-      <c r="G99">
+      <c r="G99" s="16">
         <v>100</v>
       </c>
       <c r="I99" t="s">
@@ -4248,7 +4257,7 @@
         <v>43527</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="G100">
+      <c r="G100" s="16">
         <v>30</v>
       </c>
       <c r="I100" t="s">
@@ -4269,7 +4278,7 @@
         <v>43600</v>
       </c>
       <c r="E101" s="2"/>
-      <c r="G101">
+      <c r="G101" s="16">
         <v>200</v>
       </c>
       <c r="I101" t="s">
@@ -4307,7 +4316,7 @@
         <v>43545</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="G103">
+      <c r="G103" s="16">
         <v>14</v>
       </c>
     </row>
@@ -4325,7 +4334,7 @@
         <v>43545</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="G104">
+      <c r="G104" s="16">
         <v>5</v>
       </c>
     </row>
@@ -4343,7 +4352,7 @@
         <v>43561</v>
       </c>
       <c r="E105" s="2"/>
-      <c r="G105">
+      <c r="G105" s="16">
         <v>12</v>
       </c>
       <c r="I105" t="s">
@@ -4364,7 +4373,7 @@
         <v>43561</v>
       </c>
       <c r="E106" s="2"/>
-      <c r="G106">
+      <c r="G106" s="16">
         <v>7</v>
       </c>
       <c r="I106" t="s">
@@ -4423,7 +4432,7 @@
         <v>43591</v>
       </c>
       <c r="E109" s="2"/>
-      <c r="G109">
+      <c r="G109" s="16">
         <v>18</v>
       </c>
       <c r="I109" t="s">
@@ -4480,7 +4489,7 @@
         <v>43633</v>
       </c>
       <c r="E112" s="2"/>
-      <c r="G112">
+      <c r="G112" s="16">
         <v>5</v>
       </c>
       <c r="I112" t="s">
@@ -4537,7 +4546,7 @@
         <v>43515</v>
       </c>
       <c r="E115" s="2"/>
-      <c r="G115">
+      <c r="G115" s="16">
         <v>9</v>
       </c>
       <c r="I115" t="s">
@@ -4612,7 +4621,7 @@
         <v>43635</v>
       </c>
       <c r="E119" s="2"/>
-      <c r="G119">
+      <c r="G119" s="16">
         <v>14</v>
       </c>
       <c r="I119" t="s">
@@ -4651,7 +4660,7 @@
         <v>43636</v>
       </c>
       <c r="E121" s="2"/>
-      <c r="G121">
+      <c r="G121" s="16">
         <v>1</v>
       </c>
       <c r="I121" t="s">
@@ -4672,7 +4681,7 @@
         <v>43627</v>
       </c>
       <c r="E122" s="2"/>
-      <c r="G122">
+      <c r="G122" s="16">
         <v>1</v>
       </c>
       <c r="I122" t="s">
@@ -4693,7 +4702,7 @@
         <v>43641</v>
       </c>
       <c r="E123" s="2"/>
-      <c r="G123">
+      <c r="G123" s="16">
         <v>1</v>
       </c>
       <c r="I123" t="s">
@@ -4732,7 +4741,7 @@
         <v>43642</v>
       </c>
       <c r="E125" s="2"/>
-      <c r="G125">
+      <c r="G125" s="16">
         <v>6</v>
       </c>
       <c r="I125" t="s">
@@ -4753,7 +4762,7 @@
         <v>43638</v>
       </c>
       <c r="E126" s="2"/>
-      <c r="G126">
+      <c r="G126" s="16">
         <v>8.5</v>
       </c>
       <c r="I126" t="s">
@@ -4774,7 +4783,7 @@
         <v>43621</v>
       </c>
       <c r="E127" s="2"/>
-      <c r="G127">
+      <c r="G127" s="16">
         <v>9</v>
       </c>
       <c r="I127" t="s">
@@ -4813,7 +4822,7 @@
         <v>43621</v>
       </c>
       <c r="E129" s="2"/>
-      <c r="G129">
+      <c r="G129" s="16">
         <v>5</v>
       </c>
       <c r="I129" t="s">
@@ -4834,7 +4843,7 @@
         <v>43649</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="G130">
+      <c r="G130" s="16">
         <v>86</v>
       </c>
       <c r="I130" t="s">
@@ -4855,7 +4864,7 @@
         <v>43649</v>
       </c>
       <c r="E131" s="2"/>
-      <c r="G131">
+      <c r="G131" s="16">
         <v>1</v>
       </c>
       <c r="I131" t="s">
@@ -4876,7 +4885,7 @@
         <v>43647</v>
       </c>
       <c r="E132" s="2"/>
-      <c r="G132">
+      <c r="G132" s="16">
         <v>10</v>
       </c>
       <c r="H132">
@@ -4918,7 +4927,7 @@
         <v>43655</v>
       </c>
       <c r="E134" s="2"/>
-      <c r="G134">
+      <c r="G134" s="16">
         <v>1</v>
       </c>
       <c r="I134" t="s">
@@ -4939,7 +4948,7 @@
         <v>43677</v>
       </c>
       <c r="E135" s="2"/>
-      <c r="G135">
+      <c r="G135" s="16">
         <v>6</v>
       </c>
       <c r="I135" t="s">
@@ -4977,7 +4986,7 @@
         <v>43686</v>
       </c>
       <c r="E137" s="2"/>
-      <c r="G137">
+      <c r="G137" s="16">
         <v>200</v>
       </c>
       <c r="I137" t="s">
@@ -4998,7 +5007,7 @@
         <v>43684</v>
       </c>
       <c r="E138" s="2"/>
-      <c r="G138">
+      <c r="G138" s="16">
         <v>1</v>
       </c>
       <c r="I138" t="s">
@@ -5019,7 +5028,7 @@
         <v>43647</v>
       </c>
       <c r="E139" s="2"/>
-      <c r="G139">
+      <c r="G139" s="16">
         <v>1</v>
       </c>
       <c r="H139">
@@ -5043,7 +5052,7 @@
         <v>43591</v>
       </c>
       <c r="E140" s="2"/>
-      <c r="G140">
+      <c r="G140" s="16">
         <v>1</v>
       </c>
       <c r="H140">
@@ -5067,7 +5076,7 @@
         <v>43647</v>
       </c>
       <c r="E141" s="2"/>
-      <c r="G141">
+      <c r="G141" s="16">
         <v>0</v>
       </c>
       <c r="H141">
@@ -5091,7 +5100,7 @@
         <v>43739</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="G142">
+      <c r="G142" s="16">
         <v>0</v>
       </c>
       <c r="H142">
@@ -5115,7 +5124,7 @@
         <v>43831</v>
       </c>
       <c r="E143" s="2"/>
-      <c r="G143">
+      <c r="G143" s="16">
         <v>0</v>
       </c>
       <c r="H143">
@@ -5159,7 +5168,7 @@
         <v>43705</v>
       </c>
       <c r="E145" s="2"/>
-      <c r="G145">
+      <c r="G145" s="16">
         <v>120</v>
       </c>
       <c r="I145" t="s">
@@ -5180,7 +5189,7 @@
         <v>43706</v>
       </c>
       <c r="E146" s="2"/>
-      <c r="G146">
+      <c r="G146" s="16">
         <v>60</v>
       </c>
       <c r="I146" t="s">
@@ -5201,7 +5210,7 @@
         <v>43699</v>
       </c>
       <c r="E147" s="2"/>
-      <c r="G147">
+      <c r="G147" s="16">
         <v>5</v>
       </c>
       <c r="I147" t="s">
@@ -5302,7 +5311,7 @@
         <v>43722</v>
       </c>
       <c r="E152" s="2"/>
-      <c r="G152">
+      <c r="G152" s="16">
         <v>11</v>
       </c>
       <c r="I152" t="s">
@@ -5323,7 +5332,7 @@
         <v>43726</v>
       </c>
       <c r="E153" s="2"/>
-      <c r="G153">
+      <c r="G153" s="16">
         <v>20</v>
       </c>
       <c r="H153">
@@ -5347,7 +5356,7 @@
         <v>43728</v>
       </c>
       <c r="E154" s="2"/>
-      <c r="G154">
+      <c r="G154" s="16">
         <v>200</v>
       </c>
       <c r="I154" t="s">
@@ -5368,7 +5377,7 @@
         <v>43685</v>
       </c>
       <c r="E155" s="2"/>
-      <c r="G155">
+      <c r="G155" s="16">
         <v>9</v>
       </c>
       <c r="I155" t="s">
@@ -5389,7 +5398,7 @@
         <v>43715</v>
       </c>
       <c r="E156" s="2"/>
-      <c r="G156">
+      <c r="G156" s="16">
         <v>8</v>
       </c>
       <c r="I156" t="s">
@@ -5410,7 +5419,7 @@
         <v>43715</v>
       </c>
       <c r="E157" s="2"/>
-      <c r="G157">
+      <c r="G157" s="16">
         <v>7</v>
       </c>
       <c r="I157" t="s">
@@ -5431,7 +5440,7 @@
         <v>43668</v>
       </c>
       <c r="E158" s="2"/>
-      <c r="G158">
+      <c r="G158" s="16">
         <v>1</v>
       </c>
       <c r="I158" t="s">
@@ -5452,7 +5461,7 @@
         <v>43670</v>
       </c>
       <c r="E159" s="2"/>
-      <c r="G159">
+      <c r="G159" s="16">
         <v>1</v>
       </c>
       <c r="I159" t="s">
@@ -5473,7 +5482,7 @@
         <v>43732</v>
       </c>
       <c r="E160" s="2"/>
-      <c r="G160">
+      <c r="G160" s="16">
         <v>1</v>
       </c>
       <c r="I160" t="s">
@@ -5494,7 +5503,7 @@
         <v>43726</v>
       </c>
       <c r="E161" s="2"/>
-      <c r="G161">
+      <c r="G161" s="16">
         <v>1</v>
       </c>
       <c r="I161" t="s">
@@ -5515,7 +5524,7 @@
         <v>43676</v>
       </c>
       <c r="E162" s="2"/>
-      <c r="G162">
+      <c r="G162" s="16">
         <v>1</v>
       </c>
       <c r="I162" t="s">
@@ -5536,7 +5545,7 @@
         <v>43728</v>
       </c>
       <c r="E163" s="2"/>
-      <c r="G163">
+      <c r="G163" s="16">
         <v>1</v>
       </c>
       <c r="I163" t="s">
@@ -5575,7 +5584,7 @@
         <v>43668</v>
       </c>
       <c r="E165" s="2"/>
-      <c r="G165">
+      <c r="G165" s="16">
         <v>35</v>
       </c>
       <c r="I165" t="s">
@@ -5596,7 +5605,7 @@
         <v>43689</v>
       </c>
       <c r="E166" s="2"/>
-      <c r="G166">
+      <c r="G166" s="16">
         <v>20</v>
       </c>
       <c r="I166" t="s">
@@ -5617,7 +5626,7 @@
         <v>43721</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="G167">
+      <c r="G167" s="16">
         <v>40</v>
       </c>
       <c r="I167" t="s">
@@ -5638,7 +5647,7 @@
         <v>43655</v>
       </c>
       <c r="E168" s="2"/>
-      <c r="G168">
+      <c r="G168" s="16">
         <v>4</v>
       </c>
       <c r="I168" t="s">
@@ -5659,7 +5668,7 @@
         <v>43662</v>
       </c>
       <c r="E169" s="2"/>
-      <c r="G169">
+      <c r="G169" s="16">
         <v>11</v>
       </c>
       <c r="I169" t="s">
@@ -5680,7 +5689,7 @@
         <v>43718</v>
       </c>
       <c r="E170" s="2"/>
-      <c r="G170">
+      <c r="G170" s="16">
         <v>45</v>
       </c>
       <c r="I170" t="s">
@@ -5701,7 +5710,7 @@
         <v>43722</v>
       </c>
       <c r="E171" s="2"/>
-      <c r="G171">
+      <c r="G171" s="16">
         <v>20</v>
       </c>
       <c r="I171" t="s">
@@ -5722,7 +5731,7 @@
         <v>43683</v>
       </c>
       <c r="E172" s="2"/>
-      <c r="G172">
+      <c r="G172" s="16">
         <v>11</v>
       </c>
       <c r="I172" t="s">
@@ -5761,7 +5770,7 @@
         <v>43703</v>
       </c>
       <c r="E174" s="2"/>
-      <c r="G174">
+      <c r="G174" s="16">
         <v>8</v>
       </c>
       <c r="I174" t="s">
@@ -5856,7 +5865,7 @@
         <v>43710</v>
       </c>
       <c r="E179" s="2"/>
-      <c r="G179">
+      <c r="G179" s="16">
         <v>1</v>
       </c>
       <c r="I179" t="s">
@@ -5877,7 +5886,7 @@
         <v>43753</v>
       </c>
       <c r="E180" s="2"/>
-      <c r="G180">
+      <c r="G180" s="16">
         <v>12</v>
       </c>
       <c r="H180">
@@ -5920,7 +5929,7 @@
         <v>43755</v>
       </c>
       <c r="E182" s="2"/>
-      <c r="G182">
+      <c r="G182" s="16">
         <v>20</v>
       </c>
       <c r="I182" t="s">
@@ -5941,7 +5950,7 @@
         <v>43756</v>
       </c>
       <c r="E183" s="2"/>
-      <c r="G183">
+      <c r="G183" s="16">
         <v>40</v>
       </c>
       <c r="I183" t="s">
@@ -5962,7 +5971,7 @@
         <v>43740</v>
       </c>
       <c r="E184" s="2"/>
-      <c r="G184">
+      <c r="G184" s="16">
         <v>17</v>
       </c>
       <c r="I184" t="s">
@@ -5983,7 +5992,7 @@
         <v>43743</v>
       </c>
       <c r="E185" s="2"/>
-      <c r="G185">
+      <c r="G185" s="16">
         <v>28</v>
       </c>
       <c r="H185">
@@ -6007,7 +6016,7 @@
         <v>43757</v>
       </c>
       <c r="E186" s="2"/>
-      <c r="G186">
+      <c r="G186" s="16">
         <v>4</v>
       </c>
       <c r="I186" t="s">
@@ -6028,7 +6037,7 @@
         <v>43760</v>
       </c>
       <c r="E187" s="2"/>
-      <c r="G187">
+      <c r="G187" s="16">
         <v>25</v>
       </c>
       <c r="I187" t="s">
@@ -6049,7 +6058,7 @@
         <v>43755</v>
       </c>
       <c r="E188" s="2"/>
-      <c r="G188">
+      <c r="G188" s="16">
         <v>4</v>
       </c>
       <c r="I188" t="s">
@@ -6070,7 +6079,7 @@
         <v>43761</v>
       </c>
       <c r="E189" s="2"/>
-      <c r="G189">
+      <c r="G189" s="16">
         <v>25</v>
       </c>
       <c r="I189" t="s">
@@ -6091,7 +6100,7 @@
         <v>43762</v>
       </c>
       <c r="E190" s="2"/>
-      <c r="G190">
+      <c r="G190" s="16">
         <v>12</v>
       </c>
       <c r="I190" t="s">
@@ -6112,7 +6121,7 @@
         <v>43714</v>
       </c>
       <c r="E191" s="2"/>
-      <c r="G191">
+      <c r="G191" s="16">
         <v>25</v>
       </c>
       <c r="I191" t="s">
@@ -6207,7 +6216,7 @@
         <v>43657</v>
       </c>
       <c r="E196" s="2"/>
-      <c r="G196">
+      <c r="G196" s="16">
         <v>1</v>
       </c>
       <c r="I196" t="s">
@@ -6246,7 +6255,7 @@
         <v>43683</v>
       </c>
       <c r="E198" s="2"/>
-      <c r="G198">
+      <c r="G198" s="16">
         <v>1</v>
       </c>
       <c r="I198" t="s">
@@ -6267,7 +6276,7 @@
         <v>43704</v>
       </c>
       <c r="E199" s="2"/>
-      <c r="G199">
+      <c r="G199" s="16">
         <v>50</v>
       </c>
       <c r="I199" t="s">
@@ -6288,7 +6297,7 @@
         <v>43764</v>
       </c>
       <c r="E200" s="2"/>
-      <c r="G200">
+      <c r="G200" s="16">
         <v>30</v>
       </c>
       <c r="I200" t="s">
@@ -6309,7 +6318,7 @@
         <v>43655</v>
       </c>
       <c r="E201" s="2"/>
-      <c r="G201">
+      <c r="G201" s="16">
         <v>1</v>
       </c>
       <c r="I201" t="s">
@@ -6330,7 +6339,7 @@
         <v>43668</v>
       </c>
       <c r="E202" s="2"/>
-      <c r="G202">
+      <c r="G202" s="16">
         <v>3</v>
       </c>
       <c r="I202" t="s">
@@ -6351,7 +6360,7 @@
         <v>43682</v>
       </c>
       <c r="E203" s="2"/>
-      <c r="G203">
+      <c r="G203" s="16">
         <v>4</v>
       </c>
       <c r="I203" t="s">
@@ -6372,7 +6381,7 @@
         <v>43696</v>
       </c>
       <c r="E204" s="2"/>
-      <c r="G204">
+      <c r="G204" s="16">
         <v>1</v>
       </c>
       <c r="I204" t="s">
@@ -6393,7 +6402,7 @@
         <v>43699</v>
       </c>
       <c r="E205" s="2"/>
-      <c r="G205">
+      <c r="G205" s="16">
         <v>1</v>
       </c>
       <c r="I205" t="s">
@@ -6414,7 +6423,7 @@
         <v>43718</v>
       </c>
       <c r="E206" s="2"/>
-      <c r="G206">
+      <c r="G206" s="16">
         <v>1</v>
       </c>
       <c r="I206" t="s">
@@ -6435,7 +6444,7 @@
         <v>43727</v>
       </c>
       <c r="E207" s="2"/>
-      <c r="G207">
+      <c r="G207" s="16">
         <v>1</v>
       </c>
       <c r="I207" t="s">
@@ -6474,7 +6483,7 @@
         <v>43677</v>
       </c>
       <c r="E209" s="2"/>
-      <c r="G209">
+      <c r="G209" s="16">
         <v>25</v>
       </c>
       <c r="I209" t="s">
@@ -6515,7 +6524,7 @@
         <v>43649</v>
       </c>
       <c r="E211" s="2"/>
-      <c r="G211">
+      <c r="G211" s="16">
         <v>8</v>
       </c>
       <c r="I211" t="s">
@@ -6536,7 +6545,7 @@
         <v>43771</v>
       </c>
       <c r="E212" s="2"/>
-      <c r="G212">
+      <c r="G212" s="16">
         <v>14</v>
       </c>
       <c r="I212" t="s">
@@ -6593,7 +6602,7 @@
         <v>43776</v>
       </c>
       <c r="E215" s="2"/>
-      <c r="G215">
+      <c r="G215" s="16">
         <v>20</v>
       </c>
       <c r="I215" t="s">
@@ -6614,7 +6623,7 @@
         <v>43777</v>
       </c>
       <c r="E216" s="2"/>
-      <c r="G216">
+      <c r="G216" s="16">
         <v>23</v>
       </c>
       <c r="I216" t="s">
@@ -6635,7 +6644,7 @@
         <v>43778</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="G217">
+      <c r="G217" s="16">
         <v>2</v>
       </c>
       <c r="I217" t="s">
@@ -6656,7 +6665,7 @@
         <v>43778</v>
       </c>
       <c r="E218" s="2"/>
-      <c r="G218">
+      <c r="G218" s="16">
         <v>3</v>
       </c>
       <c r="I218" t="s">
@@ -6677,7 +6686,7 @@
         <v>43780</v>
       </c>
       <c r="E219" s="2"/>
-      <c r="G219">
+      <c r="G219" s="16">
         <v>1</v>
       </c>
       <c r="I219" t="s">
@@ -6698,7 +6707,7 @@
         <v>43782</v>
       </c>
       <c r="E220" s="2"/>
-      <c r="G220">
+      <c r="G220" s="16">
         <v>20</v>
       </c>
       <c r="I220" t="s">
@@ -6719,7 +6728,7 @@
         <v>43770</v>
       </c>
       <c r="E221" s="2"/>
-      <c r="G221">
+      <c r="G221" s="16">
         <v>1</v>
       </c>
       <c r="H221">
@@ -6743,7 +6752,7 @@
         <v>43787</v>
       </c>
       <c r="E222" s="2"/>
-      <c r="G222">
+      <c r="G222" s="16">
         <v>1</v>
       </c>
       <c r="H222">
@@ -6803,7 +6812,7 @@
         <v>43774</v>
       </c>
       <c r="E225" s="2"/>
-      <c r="G225">
+      <c r="G225" s="16">
         <v>1</v>
       </c>
       <c r="I225" t="s">
@@ -6996,7 +7005,7 @@
         <v>43817</v>
       </c>
       <c r="E235" s="2"/>
-      <c r="G235">
+      <c r="G235" s="16">
         <v>1</v>
       </c>
       <c r="I235" t="s">
@@ -7057,7 +7066,7 @@
         <v>43761</v>
       </c>
       <c r="E238" s="2"/>
-      <c r="G238">
+      <c r="G238" s="16">
         <v>60</v>
       </c>
       <c r="I238" t="s">
@@ -7078,7 +7087,7 @@
         <v>43766</v>
       </c>
       <c r="E239" s="2"/>
-      <c r="G239">
+      <c r="G239" s="16">
         <v>50</v>
       </c>
       <c r="I239" t="s">
@@ -7099,7 +7108,7 @@
         <v>43766</v>
       </c>
       <c r="E240" s="2"/>
-      <c r="G240">
+      <c r="G240" s="16">
         <v>40</v>
       </c>
       <c r="I240" t="s">
@@ -7120,7 +7129,7 @@
         <v>43767</v>
       </c>
       <c r="E241" s="2"/>
-      <c r="G241">
+      <c r="G241" s="16">
         <v>22</v>
       </c>
       <c r="I241" t="s">
@@ -7141,7 +7150,7 @@
         <v>43756</v>
       </c>
       <c r="E242" s="2"/>
-      <c r="G242">
+      <c r="G242" s="16">
         <v>1</v>
       </c>
       <c r="I242" t="s">
@@ -7162,7 +7171,7 @@
         <v>43743</v>
       </c>
       <c r="E243" s="2"/>
-      <c r="G243">
+      <c r="G243" s="16">
         <v>20</v>
       </c>
       <c r="I243" t="s">
@@ -7183,7 +7192,7 @@
         <v>43831</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="G244">
+      <c r="G244" s="16">
         <v>16</v>
       </c>
       <c r="I244" t="s">
@@ -7204,7 +7213,7 @@
         <v>43788</v>
       </c>
       <c r="E245" s="2"/>
-      <c r="G245">
+      <c r="G245" s="16">
         <v>1</v>
       </c>
       <c r="I245" t="s">
@@ -7225,7 +7234,7 @@
         <v>43791</v>
       </c>
       <c r="E246" s="2"/>
-      <c r="G246">
+      <c r="G246" s="16">
         <v>2</v>
       </c>
       <c r="I246" t="s">
@@ -7248,7 +7257,7 @@
       <c r="E247" t="s">
         <v>274</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="16">
         <v>50</v>
       </c>
       <c r="I247" t="s">
@@ -7269,7 +7278,7 @@
         <v>43852</v>
       </c>
       <c r="E248" s="2"/>
-      <c r="G248">
+      <c r="G248" s="16">
         <v>15</v>
       </c>
       <c r="I248" t="s">
@@ -7308,7 +7317,7 @@
         <v>43860</v>
       </c>
       <c r="E250" s="2"/>
-      <c r="G250">
+      <c r="G250" s="16">
         <v>125</v>
       </c>
       <c r="I250" t="s">
@@ -7329,7 +7338,7 @@
         <v>43790</v>
       </c>
       <c r="E251" s="2"/>
-      <c r="G251">
+      <c r="G251" s="16">
         <v>50</v>
       </c>
       <c r="I251" t="s">
@@ -7350,7 +7359,7 @@
         <v>43743</v>
       </c>
       <c r="E252" s="2"/>
-      <c r="G252">
+      <c r="G252" s="16">
         <v>7</v>
       </c>
       <c r="I252" t="s">
@@ -7371,7 +7380,7 @@
         <v>43749</v>
       </c>
       <c r="E253" s="2"/>
-      <c r="G253">
+      <c r="G253" s="16">
         <v>7</v>
       </c>
       <c r="I253" t="s">
@@ -7446,7 +7455,7 @@
         <v>43867</v>
       </c>
       <c r="E257" s="2"/>
-      <c r="G257">
+      <c r="G257" s="16">
         <v>1</v>
       </c>
       <c r="H257">
@@ -7583,7 +7592,7 @@
         <v>43866</v>
       </c>
       <c r="E264" s="2"/>
-      <c r="G264">
+      <c r="G264" s="16">
         <v>14</v>
       </c>
       <c r="I264" t="s">
@@ -7834,7 +7843,7 @@
         <v>43901</v>
       </c>
       <c r="E277" s="2"/>
-      <c r="G277">
+      <c r="G277" s="16">
         <v>25</v>
       </c>
       <c r="I277" t="s">
@@ -7873,7 +7882,7 @@
         <v>43920</v>
       </c>
       <c r="E279" s="2"/>
-      <c r="G279">
+      <c r="G279" s="16">
         <v>12</v>
       </c>
       <c r="I279" t="s">
@@ -7948,7 +7957,7 @@
         <v>43864</v>
       </c>
       <c r="E283" s="2"/>
-      <c r="G283">
+      <c r="G283" s="16">
         <v>9</v>
       </c>
       <c r="I283" t="s">
@@ -8043,7 +8052,7 @@
         <v>43847</v>
       </c>
       <c r="E288" s="2"/>
-      <c r="G288">
+      <c r="G288" s="16">
         <v>1</v>
       </c>
       <c r="I288" t="s">
@@ -8064,7 +8073,7 @@
         <v>43902</v>
       </c>
       <c r="E289" s="2"/>
-      <c r="G289">
+      <c r="G289" s="16">
         <v>5</v>
       </c>
       <c r="I289" t="s">
@@ -8085,7 +8094,7 @@
         <v>43900</v>
       </c>
       <c r="E290" s="2"/>
-      <c r="G290">
+      <c r="G290" s="16">
         <v>25</v>
       </c>
       <c r="I290" t="s">
@@ -8106,7 +8115,7 @@
         <v>43902</v>
       </c>
       <c r="E291" s="2"/>
-      <c r="G291">
+      <c r="G291" s="16">
         <v>34</v>
       </c>
       <c r="I291" t="s">
@@ -8127,7 +8136,7 @@
         <v>43874</v>
       </c>
       <c r="E292" s="2"/>
-      <c r="G292">
+      <c r="G292" s="16">
         <v>20</v>
       </c>
       <c r="I292" t="s">
@@ -8188,7 +8197,7 @@
         <v>43885</v>
       </c>
       <c r="E295" s="2"/>
-      <c r="G295">
+      <c r="G295" s="16">
         <v>4</v>
       </c>
       <c r="I295" t="s">
@@ -8209,7 +8218,7 @@
         <v>43847</v>
       </c>
       <c r="E296" s="2"/>
-      <c r="G296">
+      <c r="G296" s="16">
         <v>1</v>
       </c>
       <c r="I296" t="s">
@@ -8230,7 +8239,7 @@
         <v>43907</v>
       </c>
       <c r="E297" s="2"/>
-      <c r="G297">
+      <c r="G297" s="16">
         <v>1</v>
       </c>
       <c r="I297" t="s">
@@ -8251,7 +8260,7 @@
         <v>43915</v>
       </c>
       <c r="E298" s="2"/>
-      <c r="G298">
+      <c r="G298" s="16">
         <v>15</v>
       </c>
       <c r="I298" t="s">
@@ -8272,11 +8281,8 @@
         <v>43901</v>
       </c>
       <c r="E299" s="2"/>
-      <c r="G299" t="s">
+      <c r="I299" t="s">
         <v>337</v>
-      </c>
-      <c r="I299" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
@@ -8293,11 +8299,11 @@
         <v>43906</v>
       </c>
       <c r="E300" s="2"/>
-      <c r="G300">
+      <c r="G300" s="16">
         <v>8</v>
       </c>
       <c r="I300" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="15">
@@ -8315,7 +8321,7 @@
       </c>
       <c r="E301" s="2"/>
       <c r="F301" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="15">
@@ -8332,11 +8338,11 @@
         <v>43901</v>
       </c>
       <c r="E302" s="2"/>
-      <c r="G302">
+      <c r="G302" s="16">
         <v>12</v>
       </c>
       <c r="I302" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="15">
@@ -8353,11 +8359,11 @@
         <v>43922</v>
       </c>
       <c r="E303" s="2"/>
-      <c r="G303">
+      <c r="G303" s="16">
         <v>100</v>
       </c>
       <c r="I303" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15">
@@ -8375,7 +8381,7 @@
       </c>
       <c r="E304" s="2"/>
       <c r="I304" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15">
@@ -8393,7 +8399,7 @@
       </c>
       <c r="E305" s="2"/>
       <c r="F305" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="15">
@@ -8410,11 +8416,11 @@
         <v>43897</v>
       </c>
       <c r="E306" s="2"/>
-      <c r="G306">
+      <c r="G306" s="16">
         <v>18</v>
       </c>
       <c r="I306" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="15">
@@ -8431,14 +8437,14 @@
         <v>43897</v>
       </c>
       <c r="E307" s="2"/>
-      <c r="G307">
+      <c r="G307" s="16">
         <v>16</v>
       </c>
       <c r="H307">
         <v>484</v>
       </c>
       <c r="I307" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="15">
@@ -8455,14 +8461,14 @@
         <v>43904</v>
       </c>
       <c r="E308" s="2"/>
-      <c r="G308">
+      <c r="G308" s="16">
         <v>1</v>
       </c>
       <c r="H308">
         <v>6</v>
       </c>
       <c r="I308" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="15">
@@ -8479,11 +8485,11 @@
         <v>43873</v>
       </c>
       <c r="E309" s="2"/>
-      <c r="G309">
+      <c r="G309" s="16">
         <v>2</v>
       </c>
       <c r="I309" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="15">
@@ -8501,7 +8507,7 @@
       </c>
       <c r="E310" s="2"/>
       <c r="I310" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="15">
@@ -8519,7 +8525,7 @@
       </c>
       <c r="E311" s="2"/>
       <c r="I311" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="15">
@@ -8537,7 +8543,7 @@
       </c>
       <c r="E312" s="2"/>
       <c r="I312" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="15">
@@ -8545,7 +8551,7 @@
         <v>43956.726342592592</v>
       </c>
       <c r="B313" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C313" t="s">
         <v>12</v>
@@ -8555,7 +8561,7 @@
       </c>
       <c r="E313" s="2"/>
       <c r="I313" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="15">
@@ -8573,7 +8579,7 @@
       </c>
       <c r="E314" s="2"/>
       <c r="I314" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="15">
@@ -8591,7 +8597,7 @@
       </c>
       <c r="E315" s="2"/>
       <c r="I315" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="15">
@@ -8609,7 +8615,7 @@
       </c>
       <c r="E316" s="2"/>
       <c r="I316" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15">
@@ -8626,14 +8632,14 @@
         <v>43925</v>
       </c>
       <c r="E317" s="2"/>
-      <c r="G317">
+      <c r="G317" s="16">
         <v>0</v>
       </c>
       <c r="H317">
         <v>420</v>
       </c>
       <c r="I317" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="15">
@@ -8650,14 +8656,14 @@
         <v>43959</v>
       </c>
       <c r="E318" s="2"/>
-      <c r="G318">
+      <c r="G318" s="16">
         <v>21</v>
       </c>
       <c r="H318">
         <v>21</v>
       </c>
       <c r="I318" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15">
@@ -8675,7 +8681,7 @@
       </c>
       <c r="E319" s="2"/>
       <c r="I319" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="15">
@@ -8693,7 +8699,7 @@
       </c>
       <c r="E320" s="2"/>
       <c r="I320" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="15">
@@ -8710,10 +8716,10 @@
         <v>43976</v>
       </c>
       <c r="E321" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I321" t="s">
         <v>361</v>
-      </c>
-      <c r="I321" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="15">
@@ -8730,7 +8736,7 @@
         <v>43922</v>
       </c>
       <c r="E322" s="2"/>
-      <c r="G322">
+      <c r="G322" s="16">
         <v>0</v>
       </c>
       <c r="H322">
@@ -8755,7 +8761,7 @@
       </c>
       <c r="E323" s="2"/>
       <c r="I323" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="15">
@@ -8773,7 +8779,7 @@
       </c>
       <c r="E324" s="2"/>
       <c r="I324" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="15">
@@ -8790,10 +8796,10 @@
         <v>43986</v>
       </c>
       <c r="E325" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I325" t="s">
         <v>365</v>
-      </c>
-      <c r="I325" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="15">
@@ -8810,10 +8816,10 @@
         <v>43923</v>
       </c>
       <c r="E326" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F326" t="s">
         <v>367</v>
-      </c>
-      <c r="F326" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
@@ -8831,7 +8837,7 @@
       </c>
       <c r="E327" s="2"/>
       <c r="I327" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="15">
@@ -8848,10 +8854,10 @@
         <v>44004</v>
       </c>
       <c r="E328" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="I328" t="s">
         <v>370</v>
-      </c>
-      <c r="I328" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="15">
@@ -8868,10 +8874,10 @@
         <v>43972</v>
       </c>
       <c r="E329" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F329" t="s">
         <v>372</v>
-      </c>
-      <c r="F329" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="15">
@@ -8889,7 +8895,7 @@
       </c>
       <c r="E330" s="2"/>
       <c r="I330" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="15">
@@ -8907,7 +8913,7 @@
       </c>
       <c r="E331" s="2"/>
       <c r="I331" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="15">
@@ -8924,10 +8930,10 @@
         <v>43955</v>
       </c>
       <c r="E332" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F332" t="s">
         <v>376</v>
-      </c>
-      <c r="F332" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="15">
@@ -8944,10 +8950,10 @@
         <v>43993</v>
       </c>
       <c r="E333" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F333" t="s">
         <v>378</v>
-      </c>
-      <c r="F333" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="15">
@@ -8964,10 +8970,10 @@
         <v>43955</v>
       </c>
       <c r="E334" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I334" t="s">
         <v>380</v>
-      </c>
-      <c r="I334" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="15">
@@ -8984,11 +8990,11 @@
         <v>43923</v>
       </c>
       <c r="E335" s="2"/>
-      <c r="G335">
+      <c r="G335" s="16">
         <v>10</v>
       </c>
       <c r="I335" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="15">
@@ -9009,7 +9015,7 @@
         <v>510</v>
       </c>
       <c r="I336" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="15">
@@ -9026,10 +9032,10 @@
         <v>44000</v>
       </c>
       <c r="E337" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I337" t="s">
         <v>384</v>
-      </c>
-      <c r="I337" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="15">
@@ -9046,11 +9052,11 @@
         <v>43977</v>
       </c>
       <c r="E338" s="2"/>
-      <c r="G338">
+      <c r="G338" s="16">
         <v>6</v>
       </c>
       <c r="I338" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="339" spans="1:9" ht="15">
@@ -9067,11 +9073,11 @@
         <v>44012</v>
       </c>
       <c r="E339" s="2"/>
-      <c r="G339">
+      <c r="G339" s="16">
         <v>10</v>
       </c>
       <c r="I339" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="15">
@@ -9088,10 +9094,10 @@
         <v>43986</v>
       </c>
       <c r="E340" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F340" t="s">
         <v>388</v>
-      </c>
-      <c r="F340" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="15">
@@ -9108,14 +9114,14 @@
         <v>44019</v>
       </c>
       <c r="E341" s="2"/>
-      <c r="G341">
+      <c r="G341" s="16">
         <v>1</v>
       </c>
       <c r="H341">
         <v>50</v>
       </c>
       <c r="I341" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="15">
@@ -9132,14 +9138,14 @@
         <v>44013</v>
       </c>
       <c r="E342" s="2"/>
-      <c r="G342">
+      <c r="G342" s="16">
         <v>0</v>
       </c>
       <c r="H342">
         <v>304</v>
       </c>
       <c r="I342" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="15">
@@ -9156,7 +9162,7 @@
         <v>43927</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="15">
@@ -9173,11 +9179,11 @@
         <v>43928</v>
       </c>
       <c r="E344" s="2"/>
-      <c r="G344">
+      <c r="G344" s="16">
         <v>13</v>
       </c>
       <c r="I344" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="15">
@@ -9194,14 +9200,14 @@
         <v>44011</v>
       </c>
       <c r="E345" s="2"/>
-      <c r="G345">
+      <c r="G345" s="16">
         <v>1</v>
       </c>
       <c r="H345">
         <v>2</v>
       </c>
       <c r="I345" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="15">
@@ -9219,7 +9225,7 @@
       </c>
       <c r="E346" s="2"/>
       <c r="I346" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="15">
@@ -9237,7 +9243,7 @@
       </c>
       <c r="E347" s="2"/>
       <c r="I347" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="15">
@@ -9255,7 +9261,7 @@
       </c>
       <c r="E348" s="2"/>
       <c r="I348" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="15">
@@ -9272,10 +9278,10 @@
         <v>43983</v>
       </c>
       <c r="E349" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F349" t="s">
         <v>398</v>
-      </c>
-      <c r="F349" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="350" spans="1:9" ht="15">
@@ -9292,10 +9298,10 @@
         <v>43952</v>
       </c>
       <c r="E350" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F350" t="s">
         <v>400</v>
-      </c>
-      <c r="F350" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="15">
@@ -9312,10 +9318,10 @@
         <v>44031</v>
       </c>
       <c r="E351" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F351" t="s">
         <v>402</v>
-      </c>
-      <c r="F351" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="352" spans="1:9" ht="15">
@@ -9332,14 +9338,14 @@
         <v>43922</v>
       </c>
       <c r="E352" s="12"/>
-      <c r="G352">
+      <c r="G352" s="16">
         <v>1</v>
       </c>
       <c r="H352">
         <v>56</v>
       </c>
       <c r="I352" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="15">
@@ -9356,11 +9362,11 @@
         <v>44000</v>
       </c>
       <c r="E353" s="12"/>
-      <c r="G353">
+      <c r="G353" s="16">
         <v>1</v>
       </c>
       <c r="I353" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="15">
@@ -9377,11 +9383,11 @@
         <v>44019</v>
       </c>
       <c r="E354" s="12"/>
-      <c r="G354">
+      <c r="G354" s="16">
         <v>1</v>
       </c>
       <c r="I354" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="15">
@@ -9398,10 +9404,10 @@
         <v>44040</v>
       </c>
       <c r="E355" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I355" t="s">
         <v>407</v>
-      </c>
-      <c r="I355" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="15">
@@ -9418,10 +9424,10 @@
         <v>44042</v>
       </c>
       <c r="E356" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I356" t="s">
         <v>409</v>
-      </c>
-      <c r="I356" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="15">
@@ -9438,10 +9444,10 @@
         <v>44040</v>
       </c>
       <c r="E357" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F357" t="s">
         <v>411</v>
-      </c>
-      <c r="F357" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="15">
@@ -9458,10 +9464,10 @@
         <v>44043</v>
       </c>
       <c r="E358" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="I358" t="s">
         <v>413</v>
-      </c>
-      <c r="I358" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="15">
@@ -9478,10 +9484,10 @@
         <v>44046</v>
       </c>
       <c r="E359" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="I359" t="s">
         <v>415</v>
-      </c>
-      <c r="I359" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="15">
@@ -9498,10 +9504,10 @@
         <v>44040</v>
       </c>
       <c r="E360" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="I360" t="s">
         <v>417</v>
-      </c>
-      <c r="I360" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="15">
@@ -9518,10 +9524,10 @@
         <v>44046</v>
       </c>
       <c r="E361" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="I361" t="s">
         <v>419</v>
-      </c>
-      <c r="I361" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="15">
@@ -9538,10 +9544,10 @@
         <v>44047</v>
       </c>
       <c r="E362" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I362" t="s">
         <v>421</v>
-      </c>
-      <c r="I362" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="15">
@@ -9558,10 +9564,10 @@
         <v>44052</v>
       </c>
       <c r="E363" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F363" t="s">
         <v>423</v>
-      </c>
-      <c r="F363" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="15">
@@ -9578,11 +9584,11 @@
         <v>43987</v>
       </c>
       <c r="E364" s="12"/>
-      <c r="G364">
+      <c r="G364" s="16">
         <v>1</v>
       </c>
       <c r="I364" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="15">
@@ -9599,11 +9605,11 @@
         <v>43990</v>
       </c>
       <c r="E365" s="12"/>
-      <c r="G365">
+      <c r="G365" s="16">
         <v>1</v>
       </c>
       <c r="I365" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="15">
@@ -9620,11 +9626,11 @@
         <v>44046</v>
       </c>
       <c r="E366" s="12"/>
-      <c r="G366">
+      <c r="G366" s="16">
         <v>1</v>
       </c>
       <c r="I366" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="15">
@@ -9641,11 +9647,11 @@
         <v>44054</v>
       </c>
       <c r="E367" s="12"/>
-      <c r="G367">
+      <c r="G367" s="16">
         <v>3</v>
       </c>
       <c r="I367" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="368" spans="1:9" ht="15">
@@ -9662,10 +9668,10 @@
         <v>44002</v>
       </c>
       <c r="E368" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="F368" t="s">
         <v>429</v>
-      </c>
-      <c r="F368" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="15">
@@ -9682,11 +9688,11 @@
         <v>44045</v>
       </c>
       <c r="E369" s="12"/>
-      <c r="G369">
+      <c r="G369" s="16">
         <v>21</v>
       </c>
       <c r="I369" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="15">
@@ -9703,14 +9709,14 @@
         <v>44045</v>
       </c>
       <c r="E370" s="12"/>
-      <c r="G370">
+      <c r="G370" s="16">
         <v>4</v>
       </c>
       <c r="H370">
         <v>800</v>
       </c>
       <c r="I370" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="15">
@@ -9727,10 +9733,10 @@
         <v>44053</v>
       </c>
       <c r="E371" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="I371" t="s">
         <v>433</v>
-      </c>
-      <c r="I371" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="15">
@@ -9747,10 +9753,10 @@
         <v>44058</v>
       </c>
       <c r="E372" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I372" t="s">
         <v>435</v>
-      </c>
-      <c r="I372" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="15">
@@ -9767,11 +9773,11 @@
         <v>44040</v>
       </c>
       <c r="E373" s="12"/>
-      <c r="G373">
+      <c r="G373" s="16">
         <v>8</v>
       </c>
       <c r="I373" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="15">
@@ -9788,10 +9794,10 @@
         <v>44056</v>
       </c>
       <c r="E374" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="I374" t="s">
         <v>438</v>
-      </c>
-      <c r="I374" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="15">
@@ -9809,7 +9815,7 @@
       </c>
       <c r="E375" s="12"/>
       <c r="I375" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="15">
@@ -9826,11 +9832,11 @@
         <v>44047</v>
       </c>
       <c r="E376" s="12"/>
-      <c r="G376">
+      <c r="G376" s="16">
         <v>3</v>
       </c>
       <c r="I376" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="15">
@@ -9847,11 +9853,11 @@
         <v>44054</v>
       </c>
       <c r="E377" s="12"/>
-      <c r="G377">
+      <c r="G377" s="16">
         <v>3</v>
       </c>
       <c r="I377" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="15">
@@ -9868,14 +9874,14 @@
         <v>44047</v>
       </c>
       <c r="E378" s="12"/>
-      <c r="G378">
+      <c r="G378" s="16">
         <v>1</v>
       </c>
       <c r="H378">
         <v>21</v>
       </c>
       <c r="I378" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="15">
@@ -9892,10 +9898,10 @@
         <v>44067</v>
       </c>
       <c r="E379" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="I379" t="s">
         <v>444</v>
-      </c>
-      <c r="I379" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="15">
@@ -9912,10 +9918,10 @@
         <v>43800</v>
       </c>
       <c r="E380" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="F380" t="s">
         <v>446</v>
-      </c>
-      <c r="F380" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="15">
@@ -9932,10 +9938,10 @@
         <v>43969</v>
       </c>
       <c r="E381" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="F381" t="s">
         <v>448</v>
-      </c>
-      <c r="F381" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="15">
@@ -9953,7 +9959,7 @@
       </c>
       <c r="E382" s="12"/>
       <c r="I382" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="15">
@@ -9971,7 +9977,7 @@
       </c>
       <c r="E383" s="12"/>
       <c r="I383" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="15">
@@ -9989,7 +9995,7 @@
       </c>
       <c r="E384" s="12"/>
       <c r="I384" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="385" spans="1:9" ht="15">
@@ -10010,7 +10016,7 @@
         <v>7</v>
       </c>
       <c r="I385" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="15">
@@ -10031,7 +10037,7 @@
         <v>12</v>
       </c>
       <c r="I386" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="387" spans="1:9" ht="15">
@@ -10052,7 +10058,7 @@
         <v>2</v>
       </c>
       <c r="I387" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="388" spans="1:9" ht="15">
@@ -10070,7 +10076,7 @@
       </c>
       <c r="E388" s="12"/>
       <c r="I388" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="389" spans="1:9" ht="15">
@@ -10087,11 +10093,11 @@
         <v>43994</v>
       </c>
       <c r="E389" s="12"/>
-      <c r="G389">
+      <c r="G389" s="16">
         <v>1</v>
       </c>
       <c r="I389" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="15">
@@ -10109,7 +10115,7 @@
       </c>
       <c r="E390" s="12"/>
       <c r="I390" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="391" spans="1:9" ht="15">
@@ -10126,14 +10132,14 @@
         <v>44050</v>
       </c>
       <c r="E391" s="12"/>
-      <c r="G391">
+      <c r="G391" s="16">
         <v>1</v>
       </c>
       <c r="H391">
         <v>20</v>
       </c>
       <c r="I391" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="392" spans="1:9" ht="15">
@@ -10154,7 +10160,7 @@
         <v>26</v>
       </c>
       <c r="I392" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="15">
@@ -10175,7 +10181,7 @@
         <v>22</v>
       </c>
       <c r="I393" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="15">
@@ -10193,7 +10199,7 @@
       </c>
       <c r="E394" s="12"/>
       <c r="I394" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="15">
@@ -10210,10 +10216,10 @@
         <v>44006</v>
       </c>
       <c r="E395" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="F395" t="s">
         <v>463</v>
-      </c>
-      <c r="F395" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="396" spans="1:9" ht="15">
@@ -10230,10 +10236,10 @@
         <v>44026</v>
       </c>
       <c r="E396" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="I396" t="s">
         <v>465</v>
-      </c>
-      <c r="I396" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="15">
@@ -10250,10 +10256,10 @@
         <v>44053</v>
       </c>
       <c r="E397" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="I397" t="s">
         <v>467</v>
-      </c>
-      <c r="I397" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="15">
@@ -10270,11 +10276,11 @@
         <v>44096</v>
       </c>
       <c r="E398" s="12"/>
-      <c r="G398">
+      <c r="G398" s="16">
         <v>6</v>
       </c>
       <c r="I398" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="15">
@@ -10292,7 +10298,7 @@
       </c>
       <c r="E399" s="12"/>
       <c r="I399" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="15">
@@ -10310,7 +10316,7 @@
       </c>
       <c r="E400" s="12"/>
       <c r="I400" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="15">
@@ -10327,14 +10333,14 @@
         <v>44058</v>
       </c>
       <c r="E401" s="12"/>
-      <c r="G401">
+      <c r="G401" s="16">
         <v>1</v>
       </c>
       <c r="H401">
         <v>3</v>
       </c>
       <c r="I401" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="15">
@@ -10352,7 +10358,7 @@
       </c>
       <c r="E402" s="12"/>
       <c r="I402" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="15">
@@ -10370,7 +10376,7 @@
       </c>
       <c r="E403" s="12"/>
       <c r="I403" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="15">
@@ -10388,7 +10394,7 @@
       </c>
       <c r="E404" s="12"/>
       <c r="I404" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="405" spans="1:9" ht="15">
@@ -10405,11 +10411,11 @@
         <v>44074</v>
       </c>
       <c r="E405" s="12"/>
-      <c r="G405">
+      <c r="G405" s="16">
         <v>9</v>
       </c>
       <c r="I405" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="15">
@@ -10426,11 +10432,11 @@
         <v>44089</v>
       </c>
       <c r="E406" s="12"/>
-      <c r="G406">
+      <c r="G406" s="16">
         <v>5</v>
       </c>
       <c r="I406" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="15">
@@ -10448,7 +10454,7 @@
       </c>
       <c r="E407" s="12"/>
       <c r="I407" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="15">
@@ -10465,14 +10471,14 @@
         <v>44086</v>
       </c>
       <c r="E408" s="12"/>
-      <c r="G408">
+      <c r="G408" s="16">
         <v>20</v>
       </c>
       <c r="H408">
         <v>480</v>
       </c>
       <c r="I408" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="15">
@@ -10489,14 +10495,14 @@
         <v>44128</v>
       </c>
       <c r="E409" s="12"/>
-      <c r="G409">
+      <c r="G409" s="16">
         <v>0</v>
       </c>
       <c r="H409">
         <v>640</v>
       </c>
       <c r="I409" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="15">
@@ -10513,11 +10519,11 @@
         <v>44095</v>
       </c>
       <c r="E410" s="12"/>
-      <c r="G410">
+      <c r="G410" s="16">
         <v>3</v>
       </c>
       <c r="I410" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="15">
@@ -10534,11 +10540,11 @@
         <v>44077</v>
       </c>
       <c r="E411" s="12"/>
-      <c r="G411">
+      <c r="G411" s="16">
         <v>1</v>
       </c>
       <c r="I411" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="15">
@@ -10559,7 +10565,7 @@
         <v>50</v>
       </c>
       <c r="I412" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="413" spans="1:9" ht="15">
@@ -10580,7 +10586,7 @@
         <v>50</v>
       </c>
       <c r="I413" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="15">
@@ -10597,10 +10603,10 @@
         <v>44099</v>
       </c>
       <c r="E414" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I414" t="s">
         <v>484</v>
-      </c>
-      <c r="I414" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="15">
@@ -10618,7 +10624,7 @@
       </c>
       <c r="E415" s="12"/>
       <c r="I415" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="15">
@@ -10636,7 +10642,7 @@
       </c>
       <c r="E416" s="12"/>
       <c r="I416" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="417" spans="1:9" ht="15">
@@ -10654,7 +10660,7 @@
       </c>
       <c r="E417" s="12"/>
       <c r="I417" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="15">
@@ -10672,7 +10678,7 @@
       </c>
       <c r="E418" s="12"/>
       <c r="I418" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="419" spans="1:9" ht="15">
@@ -10689,11 +10695,11 @@
         <v>44105</v>
       </c>
       <c r="E419" s="12"/>
-      <c r="G419">
+      <c r="G419" s="16">
         <v>18</v>
       </c>
       <c r="I419" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="420" spans="1:9" ht="15">
@@ -10710,14 +10716,14 @@
         <v>44105</v>
       </c>
       <c r="E420" s="12"/>
-      <c r="G420">
+      <c r="G420" s="16">
         <v>7</v>
       </c>
       <c r="H420">
         <v>700</v>
       </c>
       <c r="I420" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="15">
@@ -10735,7 +10741,7 @@
       </c>
       <c r="E421" s="12"/>
       <c r="I421" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="15">
@@ -10753,7 +10759,7 @@
       </c>
       <c r="E422" s="12"/>
       <c r="I422" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="423" spans="1:9" ht="15">
@@ -10771,7 +10777,7 @@
       </c>
       <c r="E423" s="12"/>
       <c r="I423" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="15">
@@ -10788,10 +10794,10 @@
         <v>44131</v>
       </c>
       <c r="E424" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="I424" t="s">
         <v>494</v>
-      </c>
-      <c r="I424" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="425" spans="1:9" ht="15">
@@ -10808,10 +10814,10 @@
         <v>44056</v>
       </c>
       <c r="E425" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F425" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="426" spans="1:9" ht="15">
@@ -10828,10 +10834,10 @@
         <v>44057</v>
       </c>
       <c r="E426" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F426" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="427" spans="1:9" ht="15">
@@ -10849,7 +10855,7 @@
       </c>
       <c r="E427" s="12"/>
       <c r="I427" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="15">
@@ -10867,7 +10873,7 @@
       </c>
       <c r="E428" s="12"/>
       <c r="I428" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="429" spans="1:9" ht="15">
@@ -10885,7 +10891,7 @@
       </c>
       <c r="E429" s="12"/>
       <c r="I429" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="430" spans="1:9" ht="15">
@@ -10903,7 +10909,7 @@
       </c>
       <c r="E430" s="12"/>
       <c r="I430" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="431" spans="1:9" ht="15">
@@ -10920,11 +10926,11 @@
         <v>44045</v>
       </c>
       <c r="E431" s="12"/>
-      <c r="G431">
+      <c r="G431" s="16">
         <v>20</v>
       </c>
       <c r="I431" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="15">
@@ -10941,11 +10947,11 @@
         <v>44082</v>
       </c>
       <c r="E432" s="12"/>
-      <c r="G432">
+      <c r="G432" s="16">
         <v>17</v>
       </c>
       <c r="I432" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="15">
@@ -10962,11 +10968,11 @@
         <v>44105</v>
       </c>
       <c r="E433" s="12"/>
-      <c r="G433">
+      <c r="G433" s="16">
         <v>15</v>
       </c>
       <c r="I433" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="15">
@@ -10983,10 +10989,10 @@
         <v>44001</v>
       </c>
       <c r="E434" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="I434" t="s">
         <v>505</v>
-      </c>
-      <c r="I434" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="15">
@@ -11003,10 +11009,10 @@
         <v>43993</v>
       </c>
       <c r="E435" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="F435" t="s">
         <v>507</v>
-      </c>
-      <c r="F435" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="15">
@@ -11024,7 +11030,7 @@
       </c>
       <c r="E436" s="12"/>
       <c r="I436" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="15">
@@ -11042,7 +11048,7 @@
       </c>
       <c r="E437" s="12"/>
       <c r="I437" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="15">
@@ -11059,14 +11065,14 @@
         <v>44127</v>
       </c>
       <c r="E438" s="12"/>
-      <c r="G438">
+      <c r="G438" s="16">
         <v>1</v>
       </c>
       <c r="H438">
         <v>2</v>
       </c>
       <c r="I438" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="15">
@@ -11084,7 +11090,7 @@
       </c>
       <c r="E439" s="12"/>
       <c r="I439" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="15">
@@ -11102,7 +11108,7 @@
       </c>
       <c r="E440" s="12"/>
       <c r="I440" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="441" spans="1:9" ht="15">
@@ -11119,10 +11125,10 @@
         <v>44125</v>
       </c>
       <c r="E441" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F441" t="s">
         <v>514</v>
-      </c>
-      <c r="F441" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="15">
@@ -11139,10 +11145,10 @@
         <v>44137</v>
       </c>
       <c r="E442" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F442" t="s">
         <v>516</v>
-      </c>
-      <c r="F442" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="15">
@@ -11159,14 +11165,14 @@
         <v>44082</v>
       </c>
       <c r="E443" s="12"/>
-      <c r="G443">
+      <c r="G443" s="16">
         <v>8</v>
       </c>
       <c r="H443">
         <v>1768</v>
       </c>
       <c r="I443" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="15">
@@ -11183,11 +11189,11 @@
         <v>44105</v>
       </c>
       <c r="E444" s="12"/>
-      <c r="G444">
+      <c r="G444" s="16">
         <v>17</v>
       </c>
       <c r="I444" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="15">
@@ -11205,7 +11211,7 @@
       </c>
       <c r="E445" s="12"/>
       <c r="I445" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="15">
@@ -11223,7 +11229,7 @@
       </c>
       <c r="E446" s="12"/>
       <c r="I446" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="15">
@@ -11241,7 +11247,7 @@
       </c>
       <c r="E447" s="12"/>
       <c r="I447" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="15">
@@ -11259,7 +11265,7 @@
       </c>
       <c r="E448" s="12"/>
       <c r="I448" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="15">
@@ -11276,11 +11282,11 @@
         <v>44140</v>
       </c>
       <c r="E449" s="12"/>
-      <c r="G449">
+      <c r="G449" s="16">
         <v>42</v>
       </c>
       <c r="I449" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="450" spans="1:9" ht="15">
@@ -11297,11 +11303,11 @@
         <v>44104</v>
       </c>
       <c r="E450" s="12"/>
-      <c r="G450">
+      <c r="G450" s="16">
         <v>7</v>
       </c>
       <c r="I450" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="451" spans="1:9" ht="15">
@@ -11318,11 +11324,11 @@
         <v>44095</v>
       </c>
       <c r="E451" s="12"/>
-      <c r="G451">
+      <c r="G451" s="16">
         <v>2</v>
       </c>
       <c r="I451" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="452" spans="1:9" ht="15">
@@ -11343,7 +11349,7 @@
         <v>120</v>
       </c>
       <c r="I452" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="453" spans="1:9" ht="15">
@@ -11361,7 +11367,7 @@
       </c>
       <c r="E453" s="12"/>
       <c r="I453" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="454" spans="1:9" ht="15">
@@ -11379,7 +11385,7 @@
       </c>
       <c r="E454" s="12"/>
       <c r="I454" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="455" spans="1:9" ht="15">
@@ -11415,7 +11421,7 @@
       </c>
       <c r="E456" s="12"/>
       <c r="I456" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="15">
@@ -11436,7 +11442,7 @@
         <v>30</v>
       </c>
       <c r="I457" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="458" spans="1:9" ht="15">
@@ -11457,7 +11463,7 @@
         <v>30</v>
       </c>
       <c r="I458" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="459" spans="1:9" ht="15">
@@ -11474,10 +11480,10 @@
         <v>44160</v>
       </c>
       <c r="E459" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="F459" t="s">
         <v>531</v>
-      </c>
-      <c r="F459" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="460" spans="1:9" ht="15">
@@ -11494,10 +11500,10 @@
         <v>44159</v>
       </c>
       <c r="E460" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="I460" t="s">
         <v>533</v>
-      </c>
-      <c r="I460" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="461" spans="1:9" ht="15">
@@ -11515,7 +11521,7 @@
       </c>
       <c r="E461" s="12"/>
       <c r="I461" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="462" spans="1:9" ht="15">
@@ -11533,7 +11539,7 @@
       </c>
       <c r="E462" s="12"/>
       <c r="I462" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="463" spans="1:9" ht="15">
@@ -11551,7 +11557,7 @@
       </c>
       <c r="E463" s="12"/>
       <c r="I463" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="464" spans="1:9" ht="15">
@@ -11569,7 +11575,7 @@
       </c>
       <c r="E464" s="12"/>
       <c r="I464" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="15">
@@ -11587,7 +11593,7 @@
       </c>
       <c r="E465" s="12"/>
       <c r="I465" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="466" spans="1:9" ht="15">
@@ -11604,10 +11610,105 @@
         <v>44173</v>
       </c>
       <c r="E466" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="F466" t="s">
         <v>540</v>
       </c>
-      <c r="F466" t="s">
+    </row>
+    <row r="467" spans="1:9" ht="15">
+      <c r="A467" s="1">
+        <v>44175.758333333331</v>
+      </c>
+      <c r="B467" t="s">
+        <v>19</v>
+      </c>
+      <c r="C467" t="s">
+        <v>12</v>
+      </c>
+      <c r="D467" s="2">
+        <v>44173</v>
+      </c>
+      <c r="E467" s="12"/>
+      <c r="I467" t="s">
         <v>541</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" ht="15">
+      <c r="A468" s="1">
+        <v>44175.758912037039</v>
+      </c>
+      <c r="B468" t="s">
+        <v>19</v>
+      </c>
+      <c r="C468" t="s">
+        <v>12</v>
+      </c>
+      <c r="D468" s="2">
+        <v>44175</v>
+      </c>
+      <c r="E468" s="12"/>
+      <c r="I468" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" ht="15">
+      <c r="A469" s="1">
+        <v>44175.861296296294</v>
+      </c>
+      <c r="B469" t="s">
+        <v>15</v>
+      </c>
+      <c r="C469" t="s">
+        <v>28</v>
+      </c>
+      <c r="D469" s="2">
+        <v>44169</v>
+      </c>
+      <c r="E469" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="I469" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" ht="15">
+      <c r="A470" s="1">
+        <v>44176.805752314816</v>
+      </c>
+      <c r="B470" t="s">
+        <v>26</v>
+      </c>
+      <c r="C470" t="s">
+        <v>12</v>
+      </c>
+      <c r="D470" s="2">
+        <v>44174</v>
+      </c>
+      <c r="E470" s="12"/>
+      <c r="I470" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="15">
+      <c r="A471" s="1">
+        <v>44176.816504629627</v>
+      </c>
+      <c r="B471" t="s">
+        <v>26</v>
+      </c>
+      <c r="C471" t="s">
+        <v>20</v>
+      </c>
+      <c r="D471" s="2">
+        <v>44173</v>
+      </c>
+      <c r="E471" s="12"/>
+      <c r="H471">
+        <v>20</v>
+      </c>
+      <c r="I471" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -11883,6 +11984,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -11891,23 +12001,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23610"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{803D0A2B-AB23-4B8A-B6C2-404745B09221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2DFC414-69EB-4781-975F-5FDA10EA4791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="558">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1731,6 +1731,39 @@
   </si>
   <si>
     <t>meeting with USFWS, WDNR, USGS, UW-Stevens Point, GLATOS stakeholders discussing various fisheries management projects using telemetry in Green Bay (planning meeting)</t>
+  </si>
+  <si>
+    <t>Musseling in the North Branch Chicago River</t>
+  </si>
+  <si>
+    <t>Freshwater ACCA guest lecture (1 hr)</t>
+  </si>
+  <si>
+    <t>Shedd Academy guest lecture (St. Patrick High School)</t>
+  </si>
+  <si>
+    <t>Shedd Academy guest lecture (St. Laurence High School)</t>
+  </si>
+  <si>
+    <t>Lunch &amp; Learn presentation with Kristine Schoenecker</t>
+  </si>
+  <si>
+    <t>Kristine Schoenecker Q4 internship (until Oct 31st)</t>
+  </si>
+  <si>
+    <t>Jillian Snow Q4 volunteering (field and lab research)</t>
+  </si>
+  <si>
+    <t>Migratory fishes update to Wisconsin/Green Bay stakeholders (45 participants)- 6 hr meeting with USFWS, UWisconsin-Milwaukee, Green Bay, Stevens Point, WDNR, tribal groups</t>
+  </si>
+  <si>
+    <t>Shedd Academy climate change presentation - fish phenology connection with Shedd Academy interns (9 ppl)</t>
+  </si>
+  <si>
+    <t>Presented climate change research to Shedd Academy Interns (organized by Mary Gryzbek)</t>
+  </si>
+  <si>
+    <t>Coral Research 2020 Lunch &amp; Learn</t>
   </si>
 </sst>
 </file>
@@ -1861,8 +1894,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I471" totalsRowShown="0">
-  <autoFilter ref="A1:I471" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I482" totalsRowShown="0">
+  <autoFilter ref="A1:I482" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I442">
     <sortCondition ref="A1:A442"/>
   </sortState>
@@ -2230,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I471"/>
+  <dimension ref="A1:I482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="G299" sqref="G299"/>
+    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
+      <selection activeCell="E470" sqref="E470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -11709,6 +11742,213 @@
       </c>
       <c r="I471" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" ht="15">
+      <c r="A472" s="1">
+        <v>44180.781805555554</v>
+      </c>
+      <c r="B472" t="s">
+        <v>40</v>
+      </c>
+      <c r="C472" t="s">
+        <v>10</v>
+      </c>
+      <c r="D472" s="2">
+        <v>44175</v>
+      </c>
+      <c r="E472" s="12"/>
+      <c r="G472" s="16">
+        <v>1</v>
+      </c>
+      <c r="I472" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" ht="15">
+      <c r="A473" s="1">
+        <v>44180.785439814812</v>
+      </c>
+      <c r="B473" t="s">
+        <v>40</v>
+      </c>
+      <c r="C473" t="s">
+        <v>12</v>
+      </c>
+      <c r="D473" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E473" s="12"/>
+      <c r="I473" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" ht="15">
+      <c r="A474" s="1">
+        <v>44180.786354166667</v>
+      </c>
+      <c r="B474" t="s">
+        <v>40</v>
+      </c>
+      <c r="C474" t="s">
+        <v>12</v>
+      </c>
+      <c r="D474" s="2">
+        <v>44119</v>
+      </c>
+      <c r="E474" s="12"/>
+      <c r="I474" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="15">
+      <c r="A475" s="1">
+        <v>44180.787303240744</v>
+      </c>
+      <c r="B475" t="s">
+        <v>40</v>
+      </c>
+      <c r="C475" t="s">
+        <v>12</v>
+      </c>
+      <c r="D475" s="2">
+        <v>44126</v>
+      </c>
+      <c r="E475" s="12"/>
+      <c r="I475" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="15">
+      <c r="A476" s="1">
+        <v>44180.787916666668</v>
+      </c>
+      <c r="B476" t="s">
+        <v>40</v>
+      </c>
+      <c r="C476" t="s">
+        <v>12</v>
+      </c>
+      <c r="D476" s="2">
+        <v>44132</v>
+      </c>
+      <c r="E476" s="12"/>
+      <c r="I476" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="15">
+      <c r="A477" s="1">
+        <v>44180.789409722223</v>
+      </c>
+      <c r="B477" t="s">
+        <v>40</v>
+      </c>
+      <c r="C477" t="s">
+        <v>20</v>
+      </c>
+      <c r="D477" s="2">
+        <v>44075</v>
+      </c>
+      <c r="E477" s="12"/>
+      <c r="H477">
+        <v>12</v>
+      </c>
+      <c r="I477" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="15">
+      <c r="A478" s="1">
+        <v>44180.790266203701</v>
+      </c>
+      <c r="B478" t="s">
+        <v>40</v>
+      </c>
+      <c r="C478" t="s">
+        <v>20</v>
+      </c>
+      <c r="D478" s="2">
+        <v>44075</v>
+      </c>
+      <c r="E478" s="12"/>
+      <c r="H478">
+        <v>40</v>
+      </c>
+      <c r="I478" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="15">
+      <c r="A479" s="1">
+        <v>44180.863391203704</v>
+      </c>
+      <c r="B479" t="s">
+        <v>26</v>
+      </c>
+      <c r="C479" t="s">
+        <v>12</v>
+      </c>
+      <c r="D479" s="2">
+        <v>44179</v>
+      </c>
+      <c r="E479" s="12"/>
+      <c r="I479" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" ht="15">
+      <c r="A480" s="1">
+        <v>44180.86414351852</v>
+      </c>
+      <c r="B480" t="s">
+        <v>26</v>
+      </c>
+      <c r="C480" t="s">
+        <v>12</v>
+      </c>
+      <c r="D480" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E480" s="12"/>
+      <c r="I480" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" ht="15">
+      <c r="A481" s="1">
+        <v>44181.808472222219</v>
+      </c>
+      <c r="B481" t="s">
+        <v>9</v>
+      </c>
+      <c r="C481" t="s">
+        <v>12</v>
+      </c>
+      <c r="D481" s="2">
+        <v>44180</v>
+      </c>
+      <c r="E481" s="12"/>
+      <c r="I481" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" ht="15">
+      <c r="A482" s="1">
+        <v>44181.808657407404</v>
+      </c>
+      <c r="B482" t="s">
+        <v>9</v>
+      </c>
+      <c r="C482" t="s">
+        <v>12</v>
+      </c>
+      <c r="D482" s="2">
+        <v>44181</v>
+      </c>
+      <c r="E482" s="12"/>
+      <c r="I482" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -11740,16 +11980,26 @@
     <hyperlink ref="E380" r:id="rId25" xr:uid="{96BE78CA-5236-4631-A9C5-0A4075396DFA}"/>
     <hyperlink ref="E262" r:id="rId26" xr:uid="{A9D8A46F-4623-45DA-9892-E087A0E85158}"/>
     <hyperlink ref="E395" r:id="rId27" xr:uid="{FBB47411-2D6D-45F9-8F7A-F556E336E10D}"/>
+    <hyperlink ref="E469" r:id="rId28" xr:uid="{F8D4DBC8-559D-42B5-BEEB-B7920713681B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId28"/>
+  <legacyDrawing r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11983,15 +12233,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12002,11 +12243,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2DFC414-69EB-4781-975F-5FDA10EA4791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC43D0F0-D73C-45D9-B8FF-F7E831D03758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="560">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1764,6 +1764,12 @@
   </si>
   <si>
     <t>Coral Research 2020 Lunch &amp; Learn</t>
+  </si>
+  <si>
+    <t>https://www.chicagotribune.com/entertainment/museums/ct-ent-shedd-coral-researcher-ross-cunning-climate-change-1217-20201216-clx52b6nong65czfmgxc2enhde-story.html</t>
+  </si>
+  <si>
+    <t>Chicago Tribune article about studying coral thermal tolerance</t>
   </si>
 </sst>
 </file>
@@ -1894,8 +1900,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I482" totalsRowShown="0">
-  <autoFilter ref="A1:I482" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I483" totalsRowShown="0">
+  <autoFilter ref="A1:I483" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I442">
     <sortCondition ref="A1:A442"/>
   </sortState>
@@ -2263,7 +2269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I482"/>
+  <dimension ref="A1:I483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
       <selection activeCell="E470" sqref="E470"/>
@@ -11949,6 +11955,26 @@
       <c r="E482" s="12"/>
       <c r="I482" t="s">
         <v>557</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" ht="15">
+      <c r="A483" s="1">
+        <v>44183.583958333336</v>
+      </c>
+      <c r="B483" t="s">
+        <v>9</v>
+      </c>
+      <c r="C483" t="s">
+        <v>28</v>
+      </c>
+      <c r="D483" s="2">
+        <v>44182</v>
+      </c>
+      <c r="E483" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="I483" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC43D0F0-D73C-45D9-B8FF-F7E831D03758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A65740-DA88-4D47-BB90-018019BAE7D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="573">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1770,6 +1770,45 @@
   </si>
   <si>
     <t>Chicago Tribune article about studying coral thermal tolerance</t>
+  </si>
+  <si>
+    <t>https://news.wttw.com/2021/01/03/wildebeest-great-lakes-research-shedd-aquarium</t>
+  </si>
+  <si>
+    <t>coverage of freshwater team research with emphasis on sucker migrations in WTTW</t>
+  </si>
+  <si>
+    <t>https://chicagowomenstem.org/about/blog/?fbclid=IwAR3rXklgSuHRDx3zFZsapKvG7rmkCWhwPBhcBI93byP9M72juKAcNGkziIw</t>
+  </si>
+  <si>
+    <t>Chicago Women In STEM initiative blog post by Karen Murchie</t>
+  </si>
+  <si>
+    <t>Virtual presentation for Lake Forest College's Biology Honor Society about marine research at Shedd and the ACCA class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCA Annual Meeting (Board of Directors and ACCA school professors) </t>
+  </si>
+  <si>
+    <t>CRII Marine Research (coral, lobster, conch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRII Marine Research (conch, lobster, grouper) </t>
+  </si>
+  <si>
+    <t>https://video.wttw.com/video/january-4-2021-full-show-io2scr/?fbclid=IwAR12KxM6h130GGiQpb2S0IT2K5p61I60sQifqQj08AoqjTRHD0zpoDiy6Zg</t>
+  </si>
+  <si>
+    <t>Chicago tonight coverage of migratory fishes program, starting at 47:58</t>
+  </si>
+  <si>
+    <t>Shedd Academy, small intern thing</t>
+  </si>
+  <si>
+    <t>Freshwater research at Shedd presentation to Wilmette Rotary Club - 23 ppl</t>
+  </si>
+  <si>
+    <t>Invited speaker at Pacific Symposium for Biocomputing</t>
   </si>
 </sst>
 </file>
@@ -1900,8 +1939,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I483" totalsRowShown="0">
-  <autoFilter ref="A1:I483" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I494" totalsRowShown="0">
+  <autoFilter ref="A1:I494" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I442">
     <sortCondition ref="A1:A442"/>
   </sortState>
@@ -2269,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I483"/>
+  <dimension ref="A1:I494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="E470" sqref="E470"/>
+    <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -11975,6 +12014,216 @@
       </c>
       <c r="I483" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" ht="15">
+      <c r="A484" s="1">
+        <v>44200.708379629628</v>
+      </c>
+      <c r="B484" t="s">
+        <v>26</v>
+      </c>
+      <c r="C484" t="s">
+        <v>28</v>
+      </c>
+      <c r="D484" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E484" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="I484" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" ht="15">
+      <c r="A485" s="1">
+        <v>44200.921736111108</v>
+      </c>
+      <c r="B485" t="s">
+        <v>26</v>
+      </c>
+      <c r="C485" t="s">
+        <v>28</v>
+      </c>
+      <c r="D485" s="2">
+        <v>44200</v>
+      </c>
+      <c r="E485" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="I485" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="15">
+      <c r="A486" s="1">
+        <v>44200.967824074076</v>
+      </c>
+      <c r="B486" t="s">
+        <v>351</v>
+      </c>
+      <c r="C486" t="s">
+        <v>12</v>
+      </c>
+      <c r="D486" s="2">
+        <v>44147</v>
+      </c>
+      <c r="E486" s="12"/>
+      <c r="I486" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" ht="15">
+      <c r="A487" s="1">
+        <v>44200.972245370373</v>
+      </c>
+      <c r="B487" t="s">
+        <v>351</v>
+      </c>
+      <c r="C487" t="s">
+        <v>12</v>
+      </c>
+      <c r="D487" s="2">
+        <v>44172</v>
+      </c>
+      <c r="E487" s="12"/>
+      <c r="I487" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="15">
+      <c r="A488" s="1">
+        <v>44200.973495370374</v>
+      </c>
+      <c r="B488" t="s">
+        <v>351</v>
+      </c>
+      <c r="C488" t="s">
+        <v>12</v>
+      </c>
+      <c r="D488" s="2">
+        <v>44109</v>
+      </c>
+      <c r="E488" s="12"/>
+      <c r="I488" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="15">
+      <c r="A489" s="1">
+        <v>44200.975798611114</v>
+      </c>
+      <c r="B489" t="s">
+        <v>351</v>
+      </c>
+      <c r="C489" t="s">
+        <v>10</v>
+      </c>
+      <c r="D489" s="2">
+        <v>44045</v>
+      </c>
+      <c r="E489" s="12"/>
+      <c r="G489" s="16">
+        <v>20</v>
+      </c>
+      <c r="I489" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="15">
+      <c r="A490" s="1">
+        <v>44200.976747685185</v>
+      </c>
+      <c r="B490" t="s">
+        <v>351</v>
+      </c>
+      <c r="C490" t="s">
+        <v>10</v>
+      </c>
+      <c r="D490" s="2">
+        <v>44082</v>
+      </c>
+      <c r="E490" s="12"/>
+      <c r="G490" s="16">
+        <v>17</v>
+      </c>
+      <c r="I490" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="15">
+      <c r="A491" s="1">
+        <v>44201.784143518518</v>
+      </c>
+      <c r="B491" t="s">
+        <v>26</v>
+      </c>
+      <c r="C491" t="s">
+        <v>28</v>
+      </c>
+      <c r="D491" s="2">
+        <v>44200</v>
+      </c>
+      <c r="E491" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="I491" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="15">
+      <c r="A492" s="1">
+        <v>44201.877962962964</v>
+      </c>
+      <c r="B492" t="s">
+        <v>79</v>
+      </c>
+      <c r="C492" t="s">
+        <v>12</v>
+      </c>
+      <c r="D492" s="2">
+        <v>44201</v>
+      </c>
+      <c r="E492" s="12"/>
+      <c r="I492" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="15">
+      <c r="A493" s="1">
+        <v>44202.78869212963</v>
+      </c>
+      <c r="B493" t="s">
+        <v>26</v>
+      </c>
+      <c r="C493" t="s">
+        <v>12</v>
+      </c>
+      <c r="D493" s="2">
+        <v>44202</v>
+      </c>
+      <c r="E493" s="12"/>
+      <c r="I493" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" ht="15">
+      <c r="A494" s="1">
+        <v>44203.875856481478</v>
+      </c>
+      <c r="B494" t="s">
+        <v>9</v>
+      </c>
+      <c r="C494" t="s">
+        <v>12</v>
+      </c>
+      <c r="D494" s="2">
+        <v>44203</v>
+      </c>
+      <c r="E494" s="12"/>
+      <c r="I494" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -12017,15 +12266,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12259,6 +12499,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12269,11 +12518,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A65740-DA88-4D47-BB90-018019BAE7D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE85DF6-9914-466E-8D78-44F352B27A04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="575">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1809,6 +1809,12 @@
   </si>
   <si>
     <t>Invited speaker at Pacific Symposium for Biocomputing</t>
+  </si>
+  <si>
+    <t>Panelist for discussion panel at Pacific Symposium on Biocomputing</t>
+  </si>
+  <si>
+    <t>Met and toured labs with prospective student Anna Hill interested in Shedd research opportunities</t>
   </si>
 </sst>
 </file>
@@ -1939,8 +1945,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I494" totalsRowShown="0">
-  <autoFilter ref="A1:I494" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I496" totalsRowShown="0">
+  <autoFilter ref="A1:I496" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I442">
     <sortCondition ref="A1:A442"/>
   </sortState>
@@ -2308,9 +2324,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I494"/>
+  <dimension ref="A1:I496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G52" sqref="G52:G63"/>
     </sheetView>
   </sheetViews>
@@ -12224,6 +12240,48 @@
       <c r="E494" s="12"/>
       <c r="I494" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="15">
+      <c r="A495" s="1">
+        <v>44208.639155092591</v>
+      </c>
+      <c r="B495" t="s">
+        <v>9</v>
+      </c>
+      <c r="C495" t="s">
+        <v>12</v>
+      </c>
+      <c r="D495" s="2">
+        <v>44204</v>
+      </c>
+      <c r="E495" s="12"/>
+      <c r="I495" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="15">
+      <c r="A496" s="1">
+        <v>44208.639791666668</v>
+      </c>
+      <c r="B496" t="s">
+        <v>9</v>
+      </c>
+      <c r="C496" t="s">
+        <v>20</v>
+      </c>
+      <c r="D496" s="2">
+        <v>44207</v>
+      </c>
+      <c r="E496" s="12"/>
+      <c r="G496" s="16">
+        <v>1</v>
+      </c>
+      <c r="H496">
+        <v>2</v>
+      </c>
+      <c r="I496" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -12500,6 +12558,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12508,23 +12575,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23716"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE85DF6-9914-466E-8D78-44F352B27A04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2704CD4F-E74D-4ACC-A08A-B896BDE1A4B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="582">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1815,6 +1815,27 @@
   </si>
   <si>
     <t>Met and toured labs with prospective student Anna Hill interested in Shedd research opportunities</t>
+  </si>
+  <si>
+    <t>Shedd lunch &amp; learn - inland fish &amp; fisheries - overlooked and undervalued, 43 ppl attended</t>
+  </si>
+  <si>
+    <t>Freshwater ACCA Guest Lecture</t>
+  </si>
+  <si>
+    <t>Short career/research talk with Shedd Academy Intern class</t>
+  </si>
+  <si>
+    <t>Four field days October-December</t>
+  </si>
+  <si>
+    <t>Checking cameras</t>
+  </si>
+  <si>
+    <t>Shedd Academy with St Laurence (7 students)</t>
+  </si>
+  <si>
+    <t>Seminar at Hampden-Sydney College titled "Beyond the Walls: Applied Research at Public Zoos and Aquariums"</t>
   </si>
 </sst>
 </file>
@@ -1945,8 +1966,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I496" totalsRowShown="0">
-  <autoFilter ref="A1:I496" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I503" totalsRowShown="0">
+  <autoFilter ref="A1:I503" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2324,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I496"/>
+  <dimension ref="A1:I503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:G63"/>
+    <sheetView tabSelected="1" topLeftCell="B330" workbookViewId="0">
+      <selection activeCell="H331" sqref="H331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -9006,7 +9027,7 @@
         <v>44026</v>
       </c>
       <c r="E331" s="2"/>
-      <c r="I331" t="s">
+      <c r="H331" t="s">
         <v>374</v>
       </c>
     </row>
@@ -12282,6 +12303,138 @@
       </c>
       <c r="I496" t="s">
         <v>574</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="15">
+      <c r="A497" s="1">
+        <v>44210.936724537038</v>
+      </c>
+      <c r="B497" t="s">
+        <v>26</v>
+      </c>
+      <c r="C497" t="s">
+        <v>12</v>
+      </c>
+      <c r="D497" s="2">
+        <v>44209</v>
+      </c>
+      <c r="E497" s="12"/>
+      <c r="I497" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" ht="15">
+      <c r="A498" s="1">
+        <v>44214.780358796299</v>
+      </c>
+      <c r="B498" t="s">
+        <v>138</v>
+      </c>
+      <c r="C498" t="s">
+        <v>12</v>
+      </c>
+      <c r="D498" s="2">
+        <v>44114</v>
+      </c>
+      <c r="E498" s="12"/>
+      <c r="I498" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="15">
+      <c r="A499" s="1">
+        <v>44214.782187500001</v>
+      </c>
+      <c r="B499" t="s">
+        <v>138</v>
+      </c>
+      <c r="C499" t="s">
+        <v>12</v>
+      </c>
+      <c r="D499" s="2">
+        <v>44143</v>
+      </c>
+      <c r="E499" s="12"/>
+      <c r="I499" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" ht="15">
+      <c r="A500" s="1">
+        <v>44214.783321759256</v>
+      </c>
+      <c r="B500" t="s">
+        <v>138</v>
+      </c>
+      <c r="C500" t="s">
+        <v>10</v>
+      </c>
+      <c r="D500" s="2">
+        <v>44179</v>
+      </c>
+      <c r="E500" s="12"/>
+      <c r="G500" s="16">
+        <v>4</v>
+      </c>
+      <c r="I500" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" ht="15">
+      <c r="A501" s="1">
+        <v>44214.783773148149</v>
+      </c>
+      <c r="B501" t="s">
+        <v>138</v>
+      </c>
+      <c r="C501" t="s">
+        <v>10</v>
+      </c>
+      <c r="D501" s="2">
+        <v>44207</v>
+      </c>
+      <c r="E501" s="12"/>
+      <c r="G501" s="16">
+        <v>1</v>
+      </c>
+      <c r="I501" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" ht="15">
+      <c r="A502" s="1">
+        <v>44214.784317129626</v>
+      </c>
+      <c r="B502" t="s">
+        <v>138</v>
+      </c>
+      <c r="C502" t="s">
+        <v>12</v>
+      </c>
+      <c r="D502" s="2">
+        <v>44208</v>
+      </c>
+      <c r="E502" s="12"/>
+      <c r="I502" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" ht="15">
+      <c r="A503" s="1">
+        <v>44216.959803240701</v>
+      </c>
+      <c r="B503" t="s">
+        <v>15</v>
+      </c>
+      <c r="C503" t="s">
+        <v>12</v>
+      </c>
+      <c r="D503" s="2">
+        <v>44168</v>
+      </c>
+      <c r="E503" s="12"/>
+      <c r="I503" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -12324,6 +12477,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12557,32 +12728,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7D90EBB-4F4E-4C16-82CF-E81E70BDAB87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{248AAED7-3807-4EC3-ADFD-E5327B6870E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="591">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1851,6 +1851,18 @@
   </si>
   <si>
     <t>Shedd Academy connection with St. Ignatius - session #2</t>
+  </si>
+  <si>
+    <t>https://podcasts.google.com/feed/aHR0cHM6Ly9hbmNob3IuZm0vcy8yOGUwOGUyYy9wb2RjYXN0L3Jzcw==</t>
+  </si>
+  <si>
+    <t>Appeared as a guest on the For the Reef Podcast to talk about Shedd's shark research program</t>
+  </si>
+  <si>
+    <t>Participated as a mentor/professional during a mixer for the Midwest Fish and Wildlife Conference, 150 ppl attended mixer. 12 students directly spoken with.</t>
+  </si>
+  <si>
+    <t>Public lecture on ecological role of suckers &amp; Shedd's migratory fishes program -  virtual talk for Woodland Dunes Nature Center &amp; Preserve Two Rivers WI</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +2005,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I507" totalsRowShown="0">
-  <autoFilter ref="A1:I507" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I510" totalsRowShown="0">
+  <autoFilter ref="A1:I510" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2372,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I507"/>
+  <dimension ref="A1:I510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12517,6 +12529,62 @@
       <c r="E507" s="7"/>
       <c r="I507" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" ht="15">
+      <c r="A508" s="12">
+        <v>44228.647164351853</v>
+      </c>
+      <c r="B508" t="s">
+        <v>113</v>
+      </c>
+      <c r="C508" t="s">
+        <v>28</v>
+      </c>
+      <c r="D508" s="1">
+        <v>44215</v>
+      </c>
+      <c r="E508" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="I508" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" ht="15">
+      <c r="A509" s="12">
+        <v>44230.083865740744</v>
+      </c>
+      <c r="B509" t="s">
+        <v>19</v>
+      </c>
+      <c r="C509" t="s">
+        <v>12</v>
+      </c>
+      <c r="D509" s="1">
+        <v>44229</v>
+      </c>
+      <c r="E509" s="7"/>
+      <c r="I509" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" ht="15">
+      <c r="A510" s="12">
+        <v>44230.885995370372</v>
+      </c>
+      <c r="B510" t="s">
+        <v>26</v>
+      </c>
+      <c r="C510" t="s">
+        <v>12</v>
+      </c>
+      <c r="D510" s="1">
+        <v>44229</v>
+      </c>
+      <c r="E510" s="7"/>
+      <c r="I510" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -12559,6 +12627,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12792,15 +12869,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12811,11 +12879,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{248AAED7-3807-4EC3-ADFD-E5327B6870E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE07E097-6B20-4221-A115-CD545CA2F16F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="598">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1863,6 +1863,27 @@
   </si>
   <si>
     <t>Public lecture on ecological role of suckers &amp; Shedd's migratory fishes program -  virtual talk for Woodland Dunes Nature Center &amp; Preserve Two Rivers WI</t>
+  </si>
+  <si>
+    <t>Gave an hour long seminar to ACCA school North Central College to &gt;50 in person and ~10 digitally. Plugged both of our college courses</t>
+  </si>
+  <si>
+    <t>Chicago Women In STEM initiative - Navigating Imposter Syndrome guest speaker - 110 ppl</t>
+  </si>
+  <si>
+    <t>Presentation on migratory fishes for Boys &amp; Girls Club of Door Co after school program Gr1-6</t>
+  </si>
+  <si>
+    <t>Utah State University Biology seminar: "Roles of zoos and aquariums in conservation research"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.instagram.com/p/CLHvtZ5HOfc/ </t>
+  </si>
+  <si>
+    <t>Instagram live (hosted by Beneath the Waves) to discuss recent paper in Frontiers in Marine Science</t>
+  </si>
+  <si>
+    <t>Guest lecture ACCA course</t>
   </si>
 </sst>
 </file>
@@ -2005,8 +2026,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I510" totalsRowShown="0">
-  <autoFilter ref="A1:I510" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I516" totalsRowShown="0">
+  <autoFilter ref="A1:I516" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2384,7 +2405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I510"/>
+  <dimension ref="A1:I516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12585,6 +12606,116 @@
       <c r="E510" s="7"/>
       <c r="I510" t="s">
         <v>590</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" ht="15">
+      <c r="A511" s="12">
+        <v>44236.691400462965</v>
+      </c>
+      <c r="B511" t="s">
+        <v>79</v>
+      </c>
+      <c r="C511" t="s">
+        <v>12</v>
+      </c>
+      <c r="D511" s="1">
+        <v>44235</v>
+      </c>
+      <c r="E511" s="7"/>
+      <c r="I511" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="15">
+      <c r="A512" s="12">
+        <v>44237.97792824074</v>
+      </c>
+      <c r="B512" t="s">
+        <v>26</v>
+      </c>
+      <c r="C512" t="s">
+        <v>12</v>
+      </c>
+      <c r="D512" s="1">
+        <v>44236</v>
+      </c>
+      <c r="E512" s="7"/>
+      <c r="I512" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="15">
+      <c r="A513" s="12">
+        <v>44243.073009259257</v>
+      </c>
+      <c r="B513" t="s">
+        <v>26</v>
+      </c>
+      <c r="C513" t="s">
+        <v>12</v>
+      </c>
+      <c r="D513" s="1">
+        <v>44242</v>
+      </c>
+      <c r="E513" s="7"/>
+      <c r="I513" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="15">
+      <c r="A514" s="12">
+        <v>44243.999039351853</v>
+      </c>
+      <c r="B514" t="s">
+        <v>15</v>
+      </c>
+      <c r="C514" t="s">
+        <v>12</v>
+      </c>
+      <c r="D514" s="1">
+        <v>44243</v>
+      </c>
+      <c r="E514" s="7"/>
+      <c r="I514" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="15">
+      <c r="A515" s="12">
+        <v>44249.788541666669</v>
+      </c>
+      <c r="B515" t="s">
+        <v>113</v>
+      </c>
+      <c r="C515" t="s">
+        <v>28</v>
+      </c>
+      <c r="D515" s="1">
+        <v>44237</v>
+      </c>
+      <c r="E515" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="I515" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="15">
+      <c r="A516" s="12">
+        <v>44251.665185185186</v>
+      </c>
+      <c r="B516" t="s">
+        <v>9</v>
+      </c>
+      <c r="C516" t="s">
+        <v>12</v>
+      </c>
+      <c r="D516" s="1">
+        <v>44247</v>
+      </c>
+      <c r="E516" s="7"/>
+      <c r="I516" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -12627,15 +12758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12869,7 +12991,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12878,14 +13000,23 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31C3F3E-2F8F-4F18-A348-FE85FB0B4FE5}"/>
 </file>
--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE07E097-6B20-4221-A115-CD545CA2F16F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E6DE5A-3DEB-4E53-AA99-32256D8B44F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="605">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1884,6 +1884,27 @@
   </si>
   <si>
     <t>Guest lecture ACCA course</t>
+  </si>
+  <si>
+    <t>C2ST freshwater research, 163 people attended - Karen, Austin. Ken &amp; Melissa presented total presentation 75 min</t>
+  </si>
+  <si>
+    <t>https://www.int-res.com/abstracts/meps/v661/p175-186/</t>
+  </si>
+  <si>
+    <t>Clementi, G.M., Babcock, E.A., Valentin-Albanese, J., Bond, M.E., Flowers, K.I., Heithaus, M.R., Whitman, E.R., Van Zinnicq Bergmann, M.P.M., Guttridge, T.L., OShea, O.R., Shipley, O.N., Brooks, E.J., Kessel, S.T. &amp; Chapman, D.D. (2021) Anthropogenic pressures on reef-associated sharks in jurisdictions with and without directed shark fishing. Marine Ecology Progress Series, 661, 175-186 https://doi.org/10.3354/meps13607</t>
+  </si>
+  <si>
+    <t>lecture to grad students at Simon Fraser U - science communication, Professor made donation to Shedd as thanks</t>
+  </si>
+  <si>
+    <t>Marine Biology class presentation at North Park University (ACCA school- 5 students)</t>
+  </si>
+  <si>
+    <t>Building CBASS equipment at RSMAS</t>
+  </si>
+  <si>
+    <t>Graduate students at UM involved with building CBASS units</t>
   </si>
 </sst>
 </file>
@@ -2026,8 +2047,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I516" totalsRowShown="0">
-  <autoFilter ref="A1:I516" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5BDB1E2E-CB32-46E7-93A5-00BC09511A10}" name="Table1" displayName="Table1" ref="A1:I522" totalsRowShown="0">
+  <autoFilter ref="A1:I522" xr:uid="{D097265D-4419-449A-8945-3B1FC2CD4B71}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2405,7 +2426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I516"/>
+  <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -12716,6 +12737,125 @@
       <c r="E516" s="7"/>
       <c r="I516" t="s">
         <v>597</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="15">
+      <c r="A517" s="12">
+        <v>44253.689409722225</v>
+      </c>
+      <c r="B517" t="s">
+        <v>26</v>
+      </c>
+      <c r="C517" t="s">
+        <v>12</v>
+      </c>
+      <c r="D517" s="1">
+        <v>44250</v>
+      </c>
+      <c r="E517" s="7"/>
+      <c r="I517" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="15">
+      <c r="A518" s="12">
+        <v>44259.678796296299</v>
+      </c>
+      <c r="B518" t="s">
+        <v>113</v>
+      </c>
+      <c r="C518" t="s">
+        <v>16</v>
+      </c>
+      <c r="D518" s="1">
+        <v>44259</v>
+      </c>
+      <c r="E518" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F518" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" ht="15">
+      <c r="A519" s="12">
+        <v>44259.916759259257</v>
+      </c>
+      <c r="B519" t="s">
+        <v>26</v>
+      </c>
+      <c r="C519" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519" s="1">
+        <v>44257</v>
+      </c>
+      <c r="E519" s="7"/>
+      <c r="I519" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="15">
+      <c r="A520" s="12">
+        <v>44265.836296296293</v>
+      </c>
+      <c r="B520" t="s">
+        <v>15</v>
+      </c>
+      <c r="C520" t="s">
+        <v>12</v>
+      </c>
+      <c r="D520" s="1">
+        <v>44265</v>
+      </c>
+      <c r="E520" s="7"/>
+      <c r="I520" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" ht="15">
+      <c r="A521" s="12">
+        <v>44269.487546296295</v>
+      </c>
+      <c r="B521" t="s">
+        <v>9</v>
+      </c>
+      <c r="C521" t="s">
+        <v>10</v>
+      </c>
+      <c r="D521" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E521" s="7"/>
+      <c r="G521" s="10">
+        <v>5</v>
+      </c>
+      <c r="I521" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" ht="15">
+      <c r="A522" s="12">
+        <v>44269.488912037035</v>
+      </c>
+      <c r="B522" t="s">
+        <v>9</v>
+      </c>
+      <c r="C522" t="s">
+        <v>20</v>
+      </c>
+      <c r="D522" s="1">
+        <v>44263</v>
+      </c>
+      <c r="E522" s="7"/>
+      <c r="G522" s="10">
+        <v>5</v>
+      </c>
+      <c r="H522" s="11">
+        <v>100</v>
+      </c>
+      <c r="I522" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -12758,6 +12898,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010016563BE3E692244C851CEBE22D8D3059" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f18de4ed1ecee09398aaa4953f2d63e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="5518ca6b-e5cc-490e-b98e-d5e5b111277c" xmlns:ns3="c1033f61-e676-4180-b03d-6fcaed56d122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="347e25aa0090c5fa800c70ebe7b93ba0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12991,15 +13140,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13010,11 +13150,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E6B255-4F2B-419A-A912-00D5A9DAB81B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEA7423-1812-4AEE-AC53-852A91A5C242}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/Research_Metrics.xlsx
+++ b/data/Research_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium.sharepoint.com/sites/Conservation/Shared Documents/Files/Research/Quarterly metrics for Conservation Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E6DE5A-3DEB-4E53-AA99-32256D8B44F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48BD9973-79CC-4D3A-9B61-F76FADA2498F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="611">
   <si>
     <t>SubmissionTime</t>
   </si>
@@ -1905,6 +1905,24 @@
   </si>
   <si>
     <t>Graduate students at UM involved with building CBASS units</t>
+  </si>
+  <si>
+    <t>ACCA Marine and Island Ecology presentation</t>
+  </si>
+  <si>
+    <t>Invited seminar at ARC Center of Excellence for Coral Reef Studies (James Cook University, Australia)</t>
+  </si>
+  <si>
+    <t>4 days field work setting up community science stations for sucker migration monitoring</t>
+  </si>
+  <si>
+    <t>35 people X 13 days x 0.5hr for Lake Michigan tributaries</t>
+  </si>
+  <si>
+    <t>2hr lecture on larval dispersal and conservation implications for University of Texas, Fisheries Ecology course</t>
+  </si>
+  <si>
+    <t>Guest lecture to Environmental Science course at NYU on coral reef conservation research</t>
   </si>
 </sst>
 </file>
@@ -2047,8 +2065,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http